--- a/cheat_sheet.xlsx
+++ b/cheat_sheet.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED1618C-917E-4E3B-9165-196B3CC400A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A380B30C-3F87-4DBE-AAA0-2B660F361048}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3525,7 +3525,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09908FBF-4005-4292-9873-8B97BCEA93D6}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -3777,7 +3777,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -4716,8 +4716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D82"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5564,114 +5564,114 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A61" s="29" t="s">
+      <c r="A61" s="66" t="s">
         <v>311</v>
       </c>
-      <c r="B61" s="30" t="s">
+      <c r="B61" s="70" t="s">
         <v>313</v>
       </c>
-      <c r="C61" s="31" t="s">
+      <c r="C61" s="71" t="s">
         <v>312</v>
       </c>
-      <c r="D61" s="32" t="s">
+      <c r="D61" s="69" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A62" s="29" t="s">
+      <c r="A62" s="66" t="s">
         <v>315</v>
       </c>
-      <c r="B62" s="30" t="s">
+      <c r="B62" s="70" t="s">
         <v>317</v>
       </c>
-      <c r="C62" s="31" t="s">
+      <c r="C62" s="71" t="s">
         <v>316</v>
       </c>
-      <c r="D62" s="32" t="s">
+      <c r="D62" s="69" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A63" s="29" t="s">
+      <c r="A63" s="66" t="s">
         <v>318</v>
       </c>
-      <c r="B63" s="30" t="s">
+      <c r="B63" s="70" t="s">
         <v>319</v>
       </c>
-      <c r="C63" s="31" t="s">
+      <c r="C63" s="71" t="s">
         <v>320</v>
       </c>
-      <c r="D63" s="32" t="s">
+      <c r="D63" s="69" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A64" s="29" t="s">
+      <c r="A64" s="66" t="s">
         <v>321</v>
       </c>
-      <c r="B64" s="30" t="s">
+      <c r="B64" s="70" t="s">
         <v>323</v>
       </c>
-      <c r="C64" s="31" t="s">
+      <c r="C64" s="71" t="s">
         <v>322</v>
       </c>
-      <c r="D64" s="32" t="s">
+      <c r="D64" s="69" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="29" t="s">
+      <c r="A65" s="66" t="s">
         <v>324</v>
       </c>
-      <c r="B65" s="30" t="s">
+      <c r="B65" s="70" t="s">
         <v>326</v>
       </c>
-      <c r="C65" s="31" t="s">
+      <c r="C65" s="71" t="s">
         <v>325</v>
       </c>
-      <c r="D65" s="32" t="s">
+      <c r="D65" s="69" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A66" s="29" t="s">
+      <c r="A66" s="66" t="s">
         <v>327</v>
       </c>
-      <c r="B66" s="30" t="s">
+      <c r="B66" s="70" t="s">
         <v>328</v>
       </c>
-      <c r="C66" s="31" t="s">
+      <c r="C66" s="71" t="s">
         <v>329</v>
       </c>
-      <c r="D66" s="32" t="s">
+      <c r="D66" s="69" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A67" s="29" t="s">
+      <c r="A67" s="66" t="s">
         <v>330</v>
       </c>
-      <c r="B67" s="30" t="s">
+      <c r="B67" s="70" t="s">
         <v>332</v>
       </c>
-      <c r="C67" s="31" t="s">
+      <c r="C67" s="71" t="s">
         <v>331</v>
       </c>
-      <c r="D67" s="32" t="s">
+      <c r="D67" s="69" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="29" t="s">
+      <c r="A68" s="66" t="s">
         <v>333</v>
       </c>
-      <c r="B68" s="30" t="s">
+      <c r="B68" s="70" t="s">
         <v>334</v>
       </c>
-      <c r="C68" s="31" t="s">
+      <c r="C68" s="71" t="s">
         <v>335</v>
       </c>
-      <c r="D68" s="32" t="s">
+      <c r="D68" s="69" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6404,7 +6404,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE05540-2EB2-490B-925E-8A2A980E466A}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A17" sqref="A17"/>
       <selection pane="topRight" activeCell="B17" sqref="B17"/>
@@ -6747,16 +6747,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B55396B-BB8C-4180-AD0D-7E5850126AB0}">
   <dimension ref="A2:L100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="17" customWidth="1"/>
     <col min="3" max="3" width="11" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="17" customWidth="1"/>
     <col min="5" max="5" width="6.28515625" style="17" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3.5703125" style="17" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="17" style="17" customWidth="1"/>
@@ -6777,7 +6777,7 @@
       <c r="D2" s="89"/>
       <c r="E2" s="89"/>
     </row>
-    <row r="3" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="47" t="s">
         <v>578</v>
       </c>
@@ -6954,7 +6954,7 @@
       </c>
       <c r="I8" s="63">
         <f>COUNTIF(E4:E29, 2)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J8" s="63">
         <f>COUNTIF(E32:E58, 2)</f>
@@ -7038,7 +7038,7 @@
       </c>
       <c r="I10" s="63">
         <f>SUM(F4:F29)/6</f>
-        <v>11.947222222222225</v>
+        <v>11.322222222222225</v>
       </c>
       <c r="J10" s="63">
         <f>SUM(F32:F58)/6</f>
@@ -7068,11 +7068,11 @@
         <v>3.75</v>
       </c>
       <c r="E11" s="45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" s="43">
         <f t="shared" si="1"/>
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="G11" s="43"/>
       <c r="H11" s="59" t="s">
@@ -7080,11 +7080,11 @@
       </c>
       <c r="I11" s="64">
         <f ca="1">TODAY() +I10</f>
-        <v>43807.947222222225</v>
+        <v>43808.322222222225</v>
       </c>
       <c r="J11" s="64">
         <f ca="1">I11+J10</f>
-        <v>43824.025000000001</v>
+        <v>43824.4</v>
       </c>
       <c r="K11" s="64"/>
       <c r="L11" s="64"/>
@@ -7116,7 +7116,7 @@
       </c>
       <c r="I12" s="65">
         <f>I8/I7</f>
-        <v>0.30769230769230771</v>
+        <v>0.34615384615384615</v>
       </c>
       <c r="J12" s="65">
         <f>J8/J7</f>
@@ -7158,7 +7158,7 @@
       </c>
       <c r="I13" s="86">
         <f>AVERAGE(I12:L12)</f>
-        <v>0.10701566951566951</v>
+        <v>0.11663105413105412</v>
       </c>
       <c r="J13" s="87"/>
       <c r="K13" s="87"/>

--- a/cheat_sheet.xlsx
+++ b/cheat_sheet.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A380B30C-3F87-4DBE-AAA0-2B660F361048}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{217435E1-55EA-48D7-B1A9-68151065962F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,8 +16,10 @@
     <sheet name="Python" sheetId="6" r:id="rId6"/>
     <sheet name="Samplers" sheetId="5" r:id="rId7"/>
     <sheet name="LDP" sheetId="8" r:id="rId8"/>
+    <sheet name="CSS Selectors" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'CSS Selectors'!$A$2:$D$34</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">HTML!$A$2:$D$62</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="682">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="812">
   <si>
     <t>HTML</t>
   </si>
@@ -1227,9 +1229,6 @@
     <t>Optgroup</t>
   </si>
   <si>
-    <t>&lt;select id="job" name="user_job"&gt;</t>
-  </si>
-  <si>
     <t>&lt;optgroup label="Web"&gt;</t>
   </si>
   <si>
@@ -2182,6 +2181,463 @@
   </si>
   <si>
     <t>l</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>Table Row</t>
+  </si>
+  <si>
+    <t>Table Cell Data</t>
+  </si>
+  <si>
+    <t>&lt;table&gt;&lt;/table&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tr&gt;&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;td&gt;&lt;/td&gt;</t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/en-US/docs/Web/HTML/Element/table</t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/en-US/docs/Web/HTML/Element/tr</t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/en-US/docs/Web/HTML/Element/td</t>
+  </si>
+  <si>
+    <t>The table element represents data in a series of rows and columns. Tables should only be used for displaying tabular data, and never for page layout.</t>
+  </si>
+  <si>
+    <t>The table row element defines a row of cells in a table. Table rows can be filled with table cells and table header cells.</t>
+  </si>
+  <si>
+    <t>The table cell element contains data and represents a single table cell. Each table cell should be inside a table row.</t>
+  </si>
+  <si>
+    <t>Table Header Cell</t>
+  </si>
+  <si>
+    <t>&lt;th&gt;&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t>The table header cell helps label a group of cells in either a column or a row.</t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/en-US/docs/Web/HTML/Element/th</t>
+  </si>
+  <si>
+    <t>scope ATTRIBUTE</t>
+  </si>
+  <si>
+    <t>This attribute defines the cells that the data (defined in the &lt;th&gt;) element relates to.</t>
+  </si>
+  <si>
+    <t>&lt;th scope="row"&gt;&lt;/th&gt;
+&lt;th scope="row"&gt;&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t>colspan ATTRIBUTE</t>
+  </si>
+  <si>
+    <t>rowspan ATTRIBUTE</t>
+  </si>
+  <si>
+    <t>This attribute contains a non-negative integer value that indicates for how many columns the cell extends.</t>
+  </si>
+  <si>
+    <t>&lt;th colspan="2"&gt;&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t>&lt;td rowspan="2"&gt;&lt;/td&gt;</t>
+  </si>
+  <si>
+    <t>This attribute contains a non-negative integer value that indicates for how many rows the cell extends.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table Head </t>
+  </si>
+  <si>
+    <t>Table Body</t>
+  </si>
+  <si>
+    <t>Table Foot</t>
+  </si>
+  <si>
+    <t>Table Caption</t>
+  </si>
+  <si>
+    <t>&lt;caption&gt;&lt;/caption&gt;</t>
+  </si>
+  <si>
+    <t>The table head element (not to be confused with the table header cell element) defines a set of rows that make up the header of a table.</t>
+  </si>
+  <si>
+    <t>&lt;thead&gt;
+&lt;tr&gt;
+              &lt;th&gt;&lt;/th&gt;
+&lt;/tr&gt;
+&lt;/thead&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tbody&gt;
+&lt;tr&gt;
+              &lt;td&gt;&lt;/td&gt;
+&lt;/tr&gt;
+&lt;/tbody&gt;</t>
+  </si>
+  <si>
+    <t>The table body element defines one or more rows that make up the primary contents (or "body") of a table.</t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/en-US/docs/Web/HTML/Element/thead</t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/en-US/docs/Web/HTML/Element/tbody</t>
+  </si>
+  <si>
+    <t>The table foot element contains a summary of the table. This might be totals for columns of numerical data or meta information about the source of data.</t>
+  </si>
+  <si>
+    <t>&lt;tfoot&gt;
+&lt;tr&gt;
+              &lt;td&gt;&lt;/td&gt;
+&lt;/tr&gt;
+&lt;/tfoot&gt;</t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/en-US/docs/Web/HTML/Element/tfoot</t>
+  </si>
+  <si>
+    <t>The caption element represents the title of the table.</t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/en-US/docs/Web/HTML/Element/caption</t>
+  </si>
+  <si>
+    <t>Element Type Selector</t>
+  </si>
+  <si>
+    <t>ID Selector</t>
+  </si>
+  <si>
+    <t>Class Selector</t>
+  </si>
+  <si>
+    <t>p { border-radius: 20% }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.container { border-radius: 20% } </t>
+  </si>
+  <si>
+    <t>#myButton  { border-radius: 20% }</t>
+  </si>
+  <si>
+    <t>Descendant Selector</t>
+  </si>
+  <si>
+    <t>Universal Selector</t>
+  </si>
+  <si>
+    <t>Pseudo-Classes: Active</t>
+  </si>
+  <si>
+    <t>Pseudo-Classes: Focus</t>
+  </si>
+  <si>
+    <t>Pseudo-Classes: Hover</t>
+  </si>
+  <si>
+    <t>button:active { font-size: 26px; }</t>
+  </si>
+  <si>
+    <t>button:focus{ font-size: 26px; }</t>
+  </si>
+  <si>
+    <t>button:hover { font-size: 26px; }</t>
+  </si>
+  <si>
+    <t>Pseudo-Elements: Placeholder</t>
+  </si>
+  <si>
+    <t>input::placeholder { color: white }</t>
+  </si>
+  <si>
+    <t>Attribute Selectors: Attr Only</t>
+  </si>
+  <si>
+    <t>Attribute Selectors: Attr and Value</t>
+  </si>
+  <si>
+    <t>[class] {
+  border: solid 1px #ccc;
+}</t>
+  </si>
+  <si>
+    <t>input[type="submit"] {
+  background-color: green;
+}</t>
+  </si>
+  <si>
+    <t>Attribute Selectors: Attr and First values</t>
+  </si>
+  <si>
+    <t>Attribute Selectors: Attr and Last values</t>
+  </si>
+  <si>
+    <t>input[type*="bmi"] {
+  background-color: green;
+}</t>
+  </si>
+  <si>
+    <t>input[type$="mit"] {
+  background-color: green;
+}</t>
+  </si>
+  <si>
+    <t>input[type^="sub"] {
+  background-color: green;
+}</t>
+  </si>
+  <si>
+    <t>img + p {
+  font-style: bold;
+}</t>
+  </si>
+  <si>
+    <t>Child Combinator Selector: Child</t>
+  </si>
+  <si>
+    <t>Child Combinator Selector: Adjacent Siblings</t>
+  </si>
+  <si>
+    <t>Child Combinator Selector: General Siblings</t>
+  </si>
+  <si>
+    <t>The adjacent sibling combinator (+) separates two selectors and matches the second element only if it immediately follows the first element, and both are children of the same parent element.</t>
+  </si>
+  <si>
+    <t>The general sibling combinator (~) separates two selectors and matches the second element only if it follows the first element (though not necessarily immediately), and both are children of the same parent element.</t>
+  </si>
+  <si>
+    <t>img ~ p {
+  color: red;
+}</t>
+  </si>
+  <si>
+    <t>ul.my-things &gt; li {
+  margin: 2em;
+}</t>
+  </si>
+  <si>
+    <t>The child combinator (&gt;) is placed between two CSS selectors. It matches only those elements matched by the second selector that are the direct children of elements matched by the first.</t>
+  </si>
+  <si>
+    <t>Pseudo-Classes: First child</t>
+  </si>
+  <si>
+    <t>Pseudo-Classes: Last child</t>
+  </si>
+  <si>
+    <t>The :first-child CSS pseudo-class represents the first element among a group of sibling elements.</t>
+  </si>
+  <si>
+    <t>div:first-child {
+  margin-left: 0;
+}</t>
+  </si>
+  <si>
+    <t>li:last-child {
+  float: right;
+}</t>
+  </si>
+  <si>
+    <t>The :last-child CSS pseudo-class represents the last element among a group of sibling elements.</t>
+  </si>
+  <si>
+    <t>Attribute Selectors: Attr and contains value</t>
+  </si>
+  <si>
+    <t>Pseudo-Classes: Disabled</t>
+  </si>
+  <si>
+    <t>Click here</t>
+  </si>
+  <si>
+    <t>The :checked CSS pseudo-class selector represents any radio (&lt;input type="radio"&gt;), checkbox (&lt;input type="checkbox"&gt;), or option (&lt;option&gt; in a &lt;select&gt;) element that is checked or toggled to an on state.</t>
+  </si>
+  <si>
+    <t>Pseudo-Classes: Checked</t>
+  </si>
+  <si>
+    <t>:checked {
+  margin-left: 25px;
+  border: 1px solid blue;
+}</t>
+  </si>
+  <si>
+    <t>input:disabled {
+  background-color: grey;
+}</t>
+  </si>
+  <si>
+    <t>The :disabled CSS pseudo-class represents any disabled element. An element is disabled if it can't be activated (selected, clicked on, typed into, etc.) or accept focus. The element also has an enabled state, in which it can be activated or accept focus.</t>
+  </si>
+  <si>
+    <t>Pseudo-Classes: Only child</t>
+  </si>
+  <si>
+    <t>div span:only-child {
+  font-size: .5em;
+}</t>
+  </si>
+  <si>
+    <t>:empty {
+  background: red;
+}</t>
+  </si>
+  <si>
+    <t>Pseudo-Classes: Empty</t>
+  </si>
+  <si>
+    <t>The :only-child CSS pseudo-class represents an element without any siblings. This is the same as :first-child:last-child or :nth-child(1):nth-last-child(1), but with a lower specificity.</t>
+  </si>
+  <si>
+    <t>The :empty CSS pseudo-class represents any element that has no children. Children can be either element nodes or text (including whitespace). Comments, processing instructions, and CSS content do not affect whether an element is considered empty.</t>
+  </si>
+  <si>
+    <t>The :active CSS pseudo-class represents an element (such as a button) that is being activated by the user. When using a mouse, "activation" typically starts when the user presses down the primary mouse button.</t>
+  </si>
+  <si>
+    <t>The :focus CSS pseudo-class represents an element (such as a form input) that has received focus. It is generally triggered when the user clicks or taps on an element or selects it with the keyboard's "tab" key.</t>
+  </si>
+  <si>
+    <t>The :hover CSS pseudo-class matches when the user interacts with an element with a pointing device, but does not necessarily activate it. It is generally triggered when the user hovers over an element with the cursor (mouse pointer).</t>
+  </si>
+  <si>
+    <t>The ::placeholder CSS pseudo-element represents the placeholder text in an &lt;input&gt; or &lt;textarea&gt; element.</t>
+  </si>
+  <si>
+    <t>Pseudo-Classes: nth child</t>
+  </si>
+  <si>
+    <t>The :nth-child() CSS pseudo-class matches elements based on their position in a group of siblings.</t>
+  </si>
+  <si>
+    <t>li:nth-child(even) {
+  background: blue;
+  color: white;
+}</t>
+  </si>
+  <si>
+    <t>Pseudo-Classes: nth type</t>
+  </si>
+  <si>
+    <t>div:nth-of-type(4) {
+  background: #52bab3;
+  color: white;
+}</t>
+  </si>
+  <si>
+    <t>The :nth-of-type() CSS pseudo-class matches elements of a given type, based on their position among a group of siblings.</t>
+  </si>
+  <si>
+    <t>:root {
+  background: yellow;
+}</t>
+  </si>
+  <si>
+    <t>Pseudo-Classes: Root element</t>
+  </si>
+  <si>
+    <t>The :root CSS pseudo-class matches the root element of a tree representing the document. In HTML, :root represents the &lt;html&gt; element and is identical to the selector html, except that its specificity is higher.</t>
+  </si>
+  <si>
+    <t>The :target CSS pseudo-class represents a unique element (the target element) with an id matching the URL's fragment.</t>
+  </si>
+  <si>
+    <t>Pseudo-Classes: Target element</t>
+  </si>
+  <si>
+    <t>#top:target {
+  border: 2px solid black;
+}</t>
+  </si>
+  <si>
+    <t>input:not([type="button"]) {
+  border-color: blue;
+}</t>
+  </si>
+  <si>
+    <t>Pseudo-Classes: Not function</t>
+  </si>
+  <si>
+    <t>The :not() CSS pseudo-class represents elements that do not match a list of selectors. Since it prevents specific items from being selected, it is known as the negation pseudo-class.</t>
+  </si>
+  <si>
+    <t>Pseudo-Elements: First Line</t>
+  </si>
+  <si>
+    <t>The ::first-line CSS pseudo-element applies styles to the first line of a block-level element. Note that the length of the first line depends on many factors, including the width of the element, the width of the document, and the font size of the text.</t>
+  </si>
+  <si>
+    <t>p::first-line {
+  color: red;
+}</t>
+  </si>
+  <si>
+    <t>Pseudo-Elements: First Letter</t>
+  </si>
+  <si>
+    <t>p::first-letter {
+  font-size: 130%;
+}</t>
+  </si>
+  <si>
+    <t>The ::first-letter CSS pseudo-element applies styles to the first letter of the first line of a block-level element, but only when not preceded by other content (such as images or inline tables).</t>
+  </si>
+  <si>
+    <t>Pseudo-Elements: After content</t>
+  </si>
+  <si>
+    <t>Pseudo-Elements: Before Content</t>
+  </si>
+  <si>
+    <t>In CSS, ::before creates a pseudo-element that is the first child of the selected element. It is often used to add cosmetic content to an element with the content property. It is inline by default.</t>
+  </si>
+  <si>
+    <t>a::before {
+  content: "♥";
+}</t>
+  </si>
+  <si>
+    <t>In CSS, ::after creates a pseudo-element that is the last child of the selected element. It is often used to add cosmetic content to an element with the content property. It is inline by default.</t>
+  </si>
+  <si>
+    <t>a::after {
+  content: "→";
+}</t>
+  </si>
+  <si>
+    <t>The attr() CSS function is used to retrieve the value of an attribute of the selected element and use it in the stylesheet. It can also be used on pseudo-elements, in which case the value of the attribute on the pseudo-element's originating element is returned.</t>
+  </si>
+  <si>
+    <t>Attribute Function</t>
+  </si>
+  <si>
+    <t>a::after {
+  content: attr(title);
+}</t>
+  </si>
+  <si>
+    <t>CSS Transitions and Transforms</t>
+  </si>
+  <si>
+    <t>&lt;select id="job" name="user_job"&gt;&lt;/select&gt;</t>
   </si>
 </sst>
 </file>
@@ -2609,7 +3065,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2644,9 +3100,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2679,48 +3132,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2804,25 +3215,95 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2831,22 +3312,25 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3182,24 +3666,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73" t="s">
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73" t="s">
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -3367,7 +3851,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>6</v>
@@ -3439,10 +3923,10 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>38</v>
@@ -3487,10 +3971,10 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I12" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="L12" s="3" t="s">
         <v>549</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>550</v>
       </c>
     </row>
   </sheetData>
@@ -3537,11 +4021,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
-        <v>513</v>
-      </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
+      <c r="A1" s="83" t="s">
+        <v>512</v>
+      </c>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
     </row>
     <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -3555,214 +4039,214 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="B3" s="21" t="s">
         <v>514</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="C3" s="22" t="s">
         <v>515</v>
       </c>
-      <c r="C3" s="23" t="s">
+    </row>
+    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="21" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="22" t="s">
+      <c r="C4" s="22"/>
+    </row>
+    <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
         <v>517</v>
       </c>
-      <c r="C4" s="23"/>
-    </row>
-    <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+      <c r="B5" s="21" t="s">
         <v>518</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="C5" s="22" t="s">
         <v>519</v>
       </c>
-      <c r="C5" s="23" t="s">
+    </row>
+    <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+      <c r="B6" s="21" t="s">
         <v>521</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="C6" s="22"/>
+    </row>
+    <row r="7" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
         <v>522</v>
       </c>
-      <c r="C6" s="23"/>
-    </row>
-    <row r="7" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+      <c r="B7" s="21" t="s">
         <v>523</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="C7" s="22" t="s">
         <v>524</v>
       </c>
-      <c r="C7" s="23" t="s">
+    </row>
+    <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+      <c r="B8" s="21" t="s">
         <v>526</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="C8" s="22"/>
+    </row>
+    <row r="9" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
         <v>527</v>
       </c>
-      <c r="C8" s="23"/>
-    </row>
-    <row r="9" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+      <c r="B9" s="21" t="s">
         <v>528</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="C9" s="22"/>
+    </row>
+    <row r="10" spans="1:3" ht="131.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
         <v>529</v>
       </c>
-      <c r="C9" s="23"/>
-    </row>
-    <row r="10" spans="1:3" ht="131.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
+      <c r="B10" s="21" t="s">
         <v>530</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="C10" s="22" t="s">
         <v>531</v>
       </c>
-      <c r="C10" s="23" t="s">
+    </row>
+    <row r="11" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
+      <c r="B11" s="21" t="s">
         <v>533</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="C11" s="22" t="s">
         <v>534</v>
       </c>
-      <c r="C11" s="23" t="s">
+    </row>
+    <row r="12" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
+      <c r="B12" s="21" t="s">
         <v>536</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="C12" s="22"/>
+    </row>
+    <row r="13" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="s">
         <v>537</v>
       </c>
-      <c r="C12" s="23"/>
-    </row>
-    <row r="13" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
+      <c r="B13" s="21" t="s">
         <v>538</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="C13" s="22"/>
+    </row>
+    <row r="14" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
         <v>539</v>
       </c>
-      <c r="C13" s="23"/>
-    </row>
-    <row r="14" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
+      <c r="B14" s="21" t="s">
         <v>540</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="C14" s="22"/>
+    </row>
+    <row r="15" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="20" t="s">
         <v>541</v>
       </c>
-      <c r="C14" s="23"/>
-    </row>
-    <row r="15" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
+      <c r="B15" s="21" t="s">
         <v>542</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="C15" s="22"/>
+    </row>
+    <row r="16" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
         <v>543</v>
       </c>
-      <c r="C15" s="23"/>
-    </row>
-    <row r="16" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
+      <c r="B16" s="21" t="s">
         <v>544</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="C16" s="22" t="s">
         <v>545</v>
       </c>
-      <c r="C16" s="23" t="s">
+    </row>
+    <row r="17" spans="1:3" ht="168.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="20" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="168.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
+      <c r="B17" s="21" t="s">
         <v>547</v>
       </c>
-      <c r="B17" s="22" t="s">
-        <v>548</v>
-      </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="22" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="20" t="s">
+        <v>550</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>551</v>
+      </c>
+      <c r="C18" s="22"/>
+    </row>
+    <row r="19" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="20" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
-        <v>551</v>
-      </c>
-      <c r="B18" s="22" t="s">
-        <v>552</v>
-      </c>
-      <c r="C18" s="23"/>
-    </row>
-    <row r="19" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="s">
+      <c r="B19" s="21" t="s">
         <v>554</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="C19" s="22"/>
+    </row>
+    <row r="20" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="20" t="s">
         <v>555</v>
       </c>
-      <c r="C19" s="23"/>
-    </row>
-    <row r="20" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
+      <c r="B20" s="21" t="s">
         <v>556</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="C20" s="22" t="s">
         <v>557</v>
       </c>
-      <c r="C20" s="23" t="s">
+    </row>
+    <row r="21" spans="1:3" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="20" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="112.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
+      <c r="B21" s="21" t="s">
+        <v>562</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A22" s="20" t="s">
         <v>559</v>
       </c>
-      <c r="B21" s="22" t="s">
-        <v>563</v>
-      </c>
-      <c r="C21" s="23" t="s">
+      <c r="B22" s="21" t="s">
+        <v>560</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="168.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="20" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A22" s="21" t="s">
-        <v>560</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>561</v>
-      </c>
-      <c r="C22" s="23" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="168.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="21" t="s">
+      <c r="B23" s="21" t="s">
         <v>565</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="C23" s="22" t="s">
         <v>566</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>567</v>
       </c>
     </row>
   </sheetData>
@@ -3775,10 +4259,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D62"/>
+  <dimension ref="A1:D73"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3790,859 +4274,1007 @@
     <col min="5" max="16384" width="9.28515625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-    </row>
-    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="51" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+    <row r="3" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="55" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+      <c r="D4" s="55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+      <c r="D5" s="55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+      <c r="D6" s="55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+      <c r="D7" s="55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+      <c r="D8" s="55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="55" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
+    <row r="10" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="55" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
+    <row r="11" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
+      <c r="D11" s="55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="D12" s="24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
+      <c r="D12" s="55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="52" t="s">
         <v>139</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
+      <c r="D13" s="55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="D14" s="24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
+      <c r="D14" s="55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="D15" s="24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
+      <c r="D15" s="55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="D16" s="24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
+      <c r="D16" s="55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="56" t="s">
+        <v>493</v>
+      </c>
+      <c r="B17" s="57" t="s">
+        <v>497</v>
+      </c>
+      <c r="C17" s="58" t="s">
+        <v>496</v>
+      </c>
+      <c r="D17" s="59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="56" t="s">
         <v>494</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B18" s="57" t="s">
         <v>498</v>
       </c>
-      <c r="C17" s="27" t="s">
-        <v>497</v>
-      </c>
-      <c r="D17" s="28" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
+      <c r="C18" s="58" t="s">
+        <v>500</v>
+      </c>
+      <c r="D18" s="59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="56" t="s">
         <v>495</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B19" s="57" t="s">
         <v>499</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C19" s="58" t="s">
         <v>501</v>
       </c>
-      <c r="D18" s="28" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
-        <v>496</v>
-      </c>
-      <c r="B19" s="26" t="s">
-        <v>500</v>
-      </c>
-      <c r="C19" s="27" t="s">
+      <c r="D19" s="59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="54" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" s="55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="B22" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="54" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" s="55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A23" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" s="55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" s="54" t="s">
+        <v>98</v>
+      </c>
+      <c r="D24" s="55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="B25" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" s="54" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25" s="55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A26" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="B26" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="54" t="s">
+        <v>100</v>
+      </c>
+      <c r="D26" s="55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A27" s="52" t="s">
+        <v>102</v>
+      </c>
+      <c r="B27" s="53" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="D27" s="55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A28" s="52" t="s">
         <v>502</v>
       </c>
-      <c r="D19" s="28" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="B20" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="D20" s="24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="B21" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C22" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="D22" s="24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="B23" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="D23" s="24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="B24" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="D24" s="24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="B25" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="C25" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="D25" s="24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="B26" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="C26" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="D26" s="24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A27" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="B27" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="C27" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="D27" s="24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A28" s="21" t="s">
+      <c r="B28" s="53" t="s">
         <v>503</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="C28" s="54" t="s">
         <v>504</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="D28" s="55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="B29" s="53" t="s">
+        <v>107</v>
+      </c>
+      <c r="C29" s="54" t="s">
+        <v>106</v>
+      </c>
+      <c r="D29" s="55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A30" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="B30" s="53" t="s">
+        <v>109</v>
+      </c>
+      <c r="C30" s="54" t="s">
+        <v>110</v>
+      </c>
+      <c r="D30" s="55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="B31" s="53" t="s">
+        <v>112</v>
+      </c>
+      <c r="C31" s="54" t="s">
+        <v>116</v>
+      </c>
+      <c r="D31" s="55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="52" t="s">
+        <v>113</v>
+      </c>
+      <c r="B32" s="53" t="s">
+        <v>114</v>
+      </c>
+      <c r="C32" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="D32" s="55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="54" t="s">
         <v>505</v>
       </c>
-      <c r="D28" s="24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="B29" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="C29" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="D29" s="24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A30" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="B30" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="C30" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="D30" s="24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="B31" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="C31" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="D31" s="24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A32" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="B32" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="C32" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="D32" s="24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B33" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C33" s="23" t="s">
+      <c r="D33" s="55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="52" t="s">
         <v>506</v>
       </c>
-      <c r="D33" s="24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="21" t="s">
+      <c r="B34" s="53" t="s">
         <v>507</v>
       </c>
-      <c r="B34" s="22" t="s">
+      <c r="C34" s="54" t="s">
         <v>508</v>
       </c>
-      <c r="C34" s="23" t="s">
+      <c r="D34" s="55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="52" t="s">
         <v>509</v>
       </c>
-      <c r="D34" s="24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="21" t="s">
+      <c r="B35" s="53" t="s">
+        <v>511</v>
+      </c>
+      <c r="C35" s="54" t="s">
         <v>510</v>
       </c>
-      <c r="B35" s="22" t="s">
-        <v>512</v>
-      </c>
-      <c r="C35" s="23" t="s">
-        <v>511</v>
-      </c>
-      <c r="D35" s="24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="21" t="s">
+      <c r="D35" s="55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="B36" s="22" t="s">
+      <c r="B36" s="53" t="s">
         <v>119</v>
       </c>
-      <c r="C36" s="23" t="s">
+      <c r="C36" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="D36" s="24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="21" t="s">
+      <c r="D36" s="55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="B37" s="22" t="s">
+      <c r="B37" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="C37" s="23" t="s">
+      <c r="C37" s="54" t="s">
         <v>125</v>
       </c>
-      <c r="D37" s="24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="21" t="s">
+      <c r="D37" s="55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="52" t="s">
         <v>121</v>
       </c>
-      <c r="B38" s="22" t="s">
+      <c r="B38" s="53" t="s">
         <v>122</v>
       </c>
-      <c r="C38" s="23" t="s">
+      <c r="C38" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="D38" s="24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="21" t="s">
+      <c r="D38" s="55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="52" t="s">
         <v>123</v>
       </c>
-      <c r="B39" s="22" t="s">
+      <c r="B39" s="53" t="s">
         <v>124</v>
       </c>
-      <c r="C39" s="23" t="s">
+      <c r="C39" s="54" t="s">
         <v>126</v>
       </c>
-      <c r="D39" s="24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A40" s="21" t="s">
+      <c r="D39" s="55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="52" t="s">
         <v>128</v>
       </c>
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="53" t="s">
         <v>129</v>
       </c>
-      <c r="C40" s="23" t="s">
+      <c r="C40" s="54" t="s">
         <v>130</v>
       </c>
-      <c r="D40" s="24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="79" t="s">
+      <c r="D40" s="55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="89" t="s">
         <v>131</v>
       </c>
-      <c r="B41" s="77" t="s">
-        <v>568</v>
-      </c>
-      <c r="C41" s="75" t="s">
+      <c r="B41" s="87" t="s">
+        <v>567</v>
+      </c>
+      <c r="C41" s="85" t="s">
         <v>132</v>
       </c>
-      <c r="D41" s="24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="80"/>
-      <c r="B42" s="78"/>
-      <c r="C42" s="76"/>
-      <c r="D42" s="24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="21" t="s">
+      <c r="D41" s="55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="90"/>
+      <c r="B42" s="88"/>
+      <c r="C42" s="86"/>
+      <c r="D42" s="55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A43" s="52" t="s">
         <v>133</v>
       </c>
-      <c r="B43" s="22" t="s">
+      <c r="B43" s="53" t="s">
         <v>135</v>
       </c>
-      <c r="C43" s="23" t="s">
+      <c r="C43" s="54" t="s">
         <v>134</v>
       </c>
-      <c r="D43" s="24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A44" s="21" t="s">
+      <c r="D43" s="55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A44" s="52" t="s">
+        <v>569</v>
+      </c>
+      <c r="B44" s="53" t="s">
         <v>570</v>
       </c>
-      <c r="B44" s="22" t="s">
+      <c r="C44" s="54" t="s">
         <v>571</v>
       </c>
-      <c r="C44" s="23" t="s">
+      <c r="D44" s="55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="52" t="s">
+        <v>136</v>
+      </c>
+      <c r="B45" s="53" t="s">
+        <v>137</v>
+      </c>
+      <c r="C45" s="54" t="s">
         <v>572</v>
       </c>
-      <c r="D44" s="24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="B45" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="C45" s="23" t="s">
-        <v>573</v>
-      </c>
-      <c r="D45" s="24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="21" t="s">
+      <c r="D45" s="55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A46" s="52" t="s">
         <v>138</v>
       </c>
-      <c r="B46" s="22" t="s">
+      <c r="B46" s="53" t="s">
         <v>140</v>
       </c>
-      <c r="C46" s="23" t="s">
+      <c r="C46" s="54" t="s">
         <v>141</v>
       </c>
-      <c r="D46" s="24" t="s">
+      <c r="D46" s="55" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="21" t="s">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="52" t="s">
         <v>142</v>
       </c>
-      <c r="B47" s="22" t="s">
+      <c r="B47" s="53" t="s">
         <v>143</v>
       </c>
-      <c r="C47" s="23" t="s">
+      <c r="C47" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="D47" s="24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="21" t="s">
+      <c r="D47" s="55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="B48" s="22" t="s">
+      <c r="B48" s="53" t="s">
         <v>145</v>
       </c>
-      <c r="C48" s="23" t="s">
+      <c r="C48" s="54" t="s">
         <v>146</v>
       </c>
-      <c r="D48" s="24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="66" t="s">
+      <c r="D48" s="55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A49" s="60" t="s">
         <v>297</v>
       </c>
-      <c r="B49" s="67" t="s">
+      <c r="B49" s="61" t="s">
         <v>298</v>
       </c>
-      <c r="C49" s="68" t="s">
+      <c r="C49" s="62" t="s">
         <v>299</v>
       </c>
-      <c r="D49" s="69" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="25" t="s">
+      <c r="D49" s="63" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A50" s="56" t="s">
         <v>366</v>
       </c>
-      <c r="B50" s="26" t="s">
+      <c r="B50" s="57" t="s">
         <v>370</v>
       </c>
-      <c r="C50" s="27" t="s">
+      <c r="C50" s="58" t="s">
         <v>367</v>
       </c>
-      <c r="D50" s="28" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A51" s="25" t="s">
+      <c r="D50" s="59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A51" s="56" t="s">
         <v>369</v>
       </c>
-      <c r="B51" s="26" t="s">
+      <c r="B51" s="57" t="s">
         <v>371</v>
       </c>
-      <c r="C51" s="27" t="s">
+      <c r="C51" s="58" t="s">
         <v>368</v>
       </c>
-      <c r="D51" s="28" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="25" t="s">
+      <c r="D51" s="59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A52" s="56" t="s">
         <v>372</v>
       </c>
-      <c r="B52" s="26" t="s">
+      <c r="B52" s="57" t="s">
         <v>374</v>
       </c>
-      <c r="C52" s="27" t="s">
+      <c r="C52" s="58" t="s">
         <v>373</v>
       </c>
-      <c r="D52" s="28" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A53" s="25" t="s">
+      <c r="D52" s="59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A53" s="56" t="s">
         <v>376</v>
       </c>
-      <c r="B53" s="26" t="s">
+      <c r="B53" s="57" t="s">
         <v>377</v>
       </c>
-      <c r="C53" s="27" t="s">
+      <c r="C53" s="58" t="s">
         <v>375</v>
       </c>
-      <c r="D53" s="28" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="25" t="s">
+      <c r="D53" s="59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A54" s="56" t="s">
         <v>379</v>
       </c>
-      <c r="B54" s="26" t="s">
+      <c r="B54" s="57" t="s">
         <v>380</v>
       </c>
-      <c r="C54" s="27" t="s">
+      <c r="C54" s="58" t="s">
         <v>378</v>
       </c>
-      <c r="D54" s="28" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A55" s="25" t="s">
+      <c r="D54" s="59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A55" s="56" t="s">
         <v>382</v>
       </c>
-      <c r="B55" s="26" t="s">
+      <c r="B55" s="57" t="s">
         <v>385</v>
       </c>
-      <c r="C55" s="27" t="s">
+      <c r="C55" s="58" t="s">
         <v>381</v>
       </c>
-      <c r="D55" s="28" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A56" s="25" t="s">
+      <c r="D55" s="59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A56" s="56" t="s">
         <v>383</v>
       </c>
-      <c r="B56" s="26" t="s">
+      <c r="B56" s="57" t="s">
         <v>386</v>
       </c>
-      <c r="C56" s="27" t="s">
+      <c r="C56" s="58" t="s">
         <v>384</v>
       </c>
-      <c r="D56" s="28" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A57" s="25" t="s">
+      <c r="D56" s="59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A57" s="56" t="s">
         <v>390</v>
       </c>
-      <c r="B57" s="26" t="s">
+      <c r="B57" s="57" t="s">
+        <v>811</v>
+      </c>
+      <c r="C57" s="58" t="s">
+        <v>387</v>
+      </c>
+      <c r="D57" s="59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A58" s="56" t="s">
+        <v>391</v>
+      </c>
+      <c r="B58" s="57" t="s">
+        <v>394</v>
+      </c>
+      <c r="C58" s="58" t="s">
+        <v>388</v>
+      </c>
+      <c r="D58" s="59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A59" s="56" t="s">
+        <v>392</v>
+      </c>
+      <c r="B59" s="57" t="s">
         <v>393</v>
       </c>
-      <c r="C57" s="27" t="s">
-        <v>387</v>
-      </c>
-      <c r="D57" s="28" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="25" t="s">
-        <v>391</v>
-      </c>
-      <c r="B58" s="26" t="s">
+      <c r="C59" s="58" t="s">
+        <v>389</v>
+      </c>
+      <c r="D59" s="59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A60" s="56" t="s">
+        <v>396</v>
+      </c>
+      <c r="B60" s="57" t="s">
         <v>395</v>
       </c>
-      <c r="C58" s="27" t="s">
-        <v>388</v>
-      </c>
-      <c r="D58" s="28" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="25" t="s">
-        <v>392</v>
-      </c>
-      <c r="B59" s="26" t="s">
-        <v>394</v>
-      </c>
-      <c r="C59" s="27" t="s">
-        <v>389</v>
-      </c>
-      <c r="D59" s="28" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A60" s="25" t="s">
+      <c r="C60" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="58" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A61" s="56" t="s">
         <v>397</v>
       </c>
-      <c r="B60" s="26" t="s">
-        <v>396</v>
-      </c>
-      <c r="C60" s="27" t="s">
+      <c r="B61" s="57" t="s">
+        <v>398</v>
+      </c>
+      <c r="C61" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="D60" s="27" t="s">
+      <c r="D61" s="58" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A61" s="25" t="s">
-        <v>398</v>
-      </c>
-      <c r="B61" s="26" t="s">
-        <v>399</v>
-      </c>
-      <c r="C61" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="D61" s="27" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A62" s="37" t="s">
+    <row r="62" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A62" s="64" t="s">
+        <v>400</v>
+      </c>
+      <c r="B62" s="64" t="s">
         <v>401</v>
       </c>
-      <c r="B62" s="37" t="s">
+      <c r="C62" s="65" t="s">
         <v>402</v>
       </c>
-      <c r="C62" s="38" t="s">
-        <v>403</v>
-      </c>
-      <c r="D62" s="38"/>
+      <c r="D62" s="65"/>
+    </row>
+    <row r="63" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A63" s="10" t="s">
+        <v>681</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>684</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>690</v>
+      </c>
+      <c r="D63" s="66" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A64" s="10" t="s">
+        <v>682</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>685</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>691</v>
+      </c>
+      <c r="D64" s="66" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A65" s="10" t="s">
+        <v>683</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>686</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="D65" s="67" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="10" t="s">
+        <v>693</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>694</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>695</v>
+      </c>
+      <c r="D66" s="67" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A67" s="10" t="s">
+        <v>697</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>699</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>698</v>
+      </c>
+      <c r="D67" s="67" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="10" t="s">
+        <v>700</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>703</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="10" t="s">
+        <v>701</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>704</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A70" s="10" t="s">
+        <v>706</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>712</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>711</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A71" s="10" t="s">
+        <v>707</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>714</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A72" s="10" t="s">
+        <v>708</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>718</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>717</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A73" s="10" t="s">
+        <v>709</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>710</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>720</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>721</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:D62" xr:uid="{367EBCCF-E9F6-40DA-8562-98297A034416}"/>
@@ -4706,9 +5338,13 @@
     <hyperlink ref="D34" r:id="rId51" xr:uid="{7A66A94C-9A7C-40AB-8130-107DB5984974}"/>
     <hyperlink ref="D35" r:id="rId52" xr:uid="{064A04C7-5891-4AD2-A845-6C53814687BF}"/>
     <hyperlink ref="D44" r:id="rId53" xr:uid="{2CCC5344-A1EC-4E6B-947A-DD46357BFBF5}"/>
+    <hyperlink ref="D63" r:id="rId54" xr:uid="{44260C26-7554-48AC-A778-671A13AA0556}"/>
+    <hyperlink ref="D65" r:id="rId55" xr:uid="{F79D501B-1ED2-4D4C-B3BF-C47E5AE7BE04}"/>
+    <hyperlink ref="D66" r:id="rId56" xr:uid="{25C74FE9-BC71-455F-BECC-1F2F35D08C94}"/>
+    <hyperlink ref="D67" r:id="rId57" xr:uid="{DCD96FE7-3758-446C-A7B7-E3AA527F072B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId54"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId58"/>
 </worksheet>
 </file>
 
@@ -4716,1128 +5352,1128 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D82"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C76" sqref="C76"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.28515625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="75" style="14" customWidth="1"/>
+    <col min="2" max="2" width="75" style="13" customWidth="1"/>
     <col min="3" max="3" width="110.5703125" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="7" customWidth="1"/>
     <col min="5" max="16384" width="9.28515625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-    </row>
-    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="51" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="69" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="69" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="C3" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="63" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
+      <c r="C4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="71" t="s">
         <v>296</v>
       </c>
-      <c r="C5" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
+      <c r="C5" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="70" t="s">
         <v>147</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="71" t="s">
         <v>148</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="73" t="s">
         <v>149</v>
       </c>
-      <c r="D6" s="36" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="33" t="s">
+      <c r="D6" s="72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="70" t="s">
         <v>150</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="71" t="s">
         <v>152</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="73" t="s">
         <v>151</v>
       </c>
-      <c r="D7" s="36" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="33" t="s">
+      <c r="D7" s="72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="70" t="s">
         <v>154</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="71" t="s">
         <v>153</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="73" t="s">
         <v>155</v>
       </c>
-      <c r="D8" s="36" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
+      <c r="D8" s="72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="70" t="s">
         <v>156</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="71" t="s">
         <v>157</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="73" t="s">
         <v>158</v>
       </c>
-      <c r="D9" s="36" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="33" t="s">
+      <c r="D9" s="72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="70" t="s">
         <v>159</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="71" t="s">
         <v>160</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="73" t="s">
         <v>161</v>
       </c>
-      <c r="D10" s="36" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="33" t="s">
+      <c r="D10" s="72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="70" t="s">
         <v>240</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="71" t="s">
         <v>241</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="73" t="s">
         <v>242</v>
       </c>
-      <c r="D11" s="36" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="33" t="s">
+      <c r="D11" s="72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="70" t="s">
         <v>162</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="71" t="s">
         <v>164</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="73" t="s">
         <v>163</v>
       </c>
-      <c r="D12" s="36" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="33" t="s">
+      <c r="D12" s="72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="70" t="s">
         <v>165</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="71" t="s">
         <v>166</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="73" t="s">
         <v>167</v>
       </c>
-      <c r="D13" s="36" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="33" t="s">
+      <c r="D13" s="72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="70" t="s">
         <v>168</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="71" t="s">
         <v>169</v>
       </c>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="73" t="s">
         <v>173</v>
       </c>
-      <c r="D14" s="36" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="33" t="s">
+      <c r="D14" s="72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="70" t="s">
         <v>170</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="71" t="s">
         <v>171</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="73" t="s">
         <v>172</v>
       </c>
-      <c r="D15" s="36" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="33" t="s">
+      <c r="D15" s="72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="70" t="s">
         <v>174</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="71" t="s">
         <v>176</v>
       </c>
-      <c r="C16" s="35" t="s">
+      <c r="C16" s="73" t="s">
         <v>175</v>
       </c>
-      <c r="D16" s="36" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="33" t="s">
+      <c r="D16" s="72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="70" t="s">
         <v>177</v>
       </c>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="71" t="s">
         <v>178</v>
       </c>
-      <c r="C17" s="35" t="s">
+      <c r="C17" s="73" t="s">
         <v>179</v>
       </c>
-      <c r="D17" s="36" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="33" t="s">
+      <c r="D17" s="72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="70" t="s">
         <v>180</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="71" t="s">
         <v>181</v>
       </c>
-      <c r="C18" s="35" t="s">
+      <c r="C18" s="73" t="s">
         <v>182</v>
       </c>
-      <c r="D18" s="36" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="33" t="s">
+      <c r="D18" s="72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="70" t="s">
         <v>183</v>
       </c>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="71" t="s">
         <v>184</v>
       </c>
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="73" t="s">
         <v>185</v>
       </c>
-      <c r="D19" s="36" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="33" t="s">
+      <c r="D19" s="72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="70" t="s">
         <v>186</v>
       </c>
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="71" t="s">
         <v>188</v>
       </c>
-      <c r="C20" s="35" t="s">
+      <c r="C20" s="73" t="s">
         <v>187</v>
       </c>
-      <c r="D20" s="36" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="33" t="s">
+      <c r="D20" s="72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="70" t="s">
         <v>190</v>
       </c>
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="71" t="s">
         <v>191</v>
       </c>
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="73" t="s">
         <v>189</v>
       </c>
-      <c r="D21" s="36" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="33" t="s">
+      <c r="D21" s="72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="70" t="s">
         <v>192</v>
       </c>
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="71" t="s">
         <v>194</v>
       </c>
-      <c r="C22" s="35" t="s">
+      <c r="C22" s="73" t="s">
         <v>193</v>
       </c>
-      <c r="D22" s="36" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="33" t="s">
+      <c r="D22" s="72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="70" t="s">
         <v>195</v>
       </c>
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="71" t="s">
         <v>200</v>
       </c>
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="73" t="s">
         <v>196</v>
       </c>
-      <c r="D23" s="36" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="33" t="s">
+      <c r="D23" s="72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="70" t="s">
         <v>197</v>
       </c>
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="71" t="s">
         <v>199</v>
       </c>
-      <c r="C24" s="35" t="s">
+      <c r="C24" s="73" t="s">
         <v>198</v>
       </c>
-      <c r="D24" s="36" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="33" t="s">
+      <c r="D24" s="72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A25" s="70" t="s">
         <v>201</v>
       </c>
-      <c r="B25" s="34" t="s">
+      <c r="B25" s="71" t="s">
         <v>203</v>
       </c>
-      <c r="C25" s="35" t="s">
+      <c r="C25" s="73" t="s">
         <v>202</v>
       </c>
-      <c r="D25" s="36" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="33" t="s">
+      <c r="D25" s="72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="70" t="s">
         <v>204</v>
       </c>
-      <c r="B26" s="34" t="s">
-        <v>575</v>
-      </c>
-      <c r="C26" s="35" t="s">
+      <c r="B26" s="71" t="s">
+        <v>574</v>
+      </c>
+      <c r="C26" s="73" t="s">
         <v>205</v>
       </c>
-      <c r="D26" s="36" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="33" t="s">
+      <c r="D26" s="72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="70" t="s">
         <v>206</v>
       </c>
-      <c r="B27" s="34" t="s">
+      <c r="B27" s="71" t="s">
         <v>207</v>
       </c>
-      <c r="C27" s="35" t="s">
+      <c r="C27" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="36" t="s">
+      <c r="D27" s="72" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A28" s="33" t="s">
+    <row r="28" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="70" t="s">
         <v>208</v>
       </c>
-      <c r="B28" s="34" t="s">
+      <c r="B28" s="71" t="s">
         <v>209</v>
       </c>
-      <c r="C28" s="35" t="s">
+      <c r="C28" s="73" t="s">
         <v>210</v>
       </c>
-      <c r="D28" s="36" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A29" s="33" t="s">
+      <c r="D28" s="72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="70" t="s">
         <v>212</v>
       </c>
-      <c r="B29" s="34" t="s">
+      <c r="B29" s="71" t="s">
         <v>213</v>
       </c>
-      <c r="C29" s="35" t="s">
+      <c r="C29" s="73" t="s">
         <v>211</v>
       </c>
-      <c r="D29" s="36" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="33" t="s">
+      <c r="D29" s="72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="70" t="s">
         <v>214</v>
       </c>
-      <c r="B30" s="34" t="s">
+      <c r="B30" s="71" t="s">
         <v>215</v>
       </c>
-      <c r="C30" s="35" t="s">
+      <c r="C30" s="73" t="s">
         <v>216</v>
       </c>
-      <c r="D30" s="36" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="33" t="s">
+      <c r="D30" s="72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="70" t="s">
         <v>219</v>
       </c>
-      <c r="B31" s="34" t="s">
+      <c r="B31" s="71" t="s">
         <v>218</v>
       </c>
-      <c r="C31" s="35" t="s">
+      <c r="C31" s="73" t="s">
         <v>217</v>
       </c>
-      <c r="D31" s="36" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A32" s="33" t="s">
+      <c r="D31" s="72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A32" s="70" t="s">
         <v>220</v>
       </c>
-      <c r="B32" s="34" t="s">
+      <c r="B32" s="71" t="s">
         <v>222</v>
       </c>
-      <c r="C32" s="35" t="s">
+      <c r="C32" s="73" t="s">
         <v>221</v>
       </c>
-      <c r="D32" s="36" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="33" t="s">
+      <c r="D32" s="72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="70" t="s">
         <v>223</v>
       </c>
-      <c r="B33" s="34" t="s">
+      <c r="B33" s="71" t="s">
         <v>224</v>
       </c>
-      <c r="C33" s="35" t="s">
+      <c r="C33" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="D33" s="35" t="s">
+      <c r="D33" s="73" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="33" t="s">
+    <row r="34" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="70" t="s">
         <v>225</v>
       </c>
-      <c r="B34" s="34" t="s">
+      <c r="B34" s="71" t="s">
         <v>226</v>
       </c>
-      <c r="C34" s="35" t="s">
+      <c r="C34" s="73" t="s">
         <v>227</v>
       </c>
-      <c r="D34" s="36" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="33" t="s">
+      <c r="D34" s="72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A35" s="70" t="s">
         <v>228</v>
       </c>
-      <c r="B35" s="34" t="s">
+      <c r="B35" s="71" t="s">
         <v>230</v>
       </c>
-      <c r="C35" s="35" t="s">
+      <c r="C35" s="73" t="s">
         <v>229</v>
       </c>
-      <c r="D35" s="36" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A36" s="33" t="s">
+      <c r="D35" s="72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="70" t="s">
         <v>231</v>
       </c>
-      <c r="B36" s="34" t="s">
+      <c r="B36" s="71" t="s">
         <v>234</v>
       </c>
-      <c r="C36" s="35" t="s">
+      <c r="C36" s="73" t="s">
         <v>233</v>
       </c>
-      <c r="D36" s="36" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A37" s="33" t="s">
+      <c r="D36" s="72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="70" t="s">
         <v>232</v>
       </c>
-      <c r="B37" s="34" t="s">
+      <c r="B37" s="71" t="s">
         <v>236</v>
       </c>
-      <c r="C37" s="35" t="s">
+      <c r="C37" s="73" t="s">
         <v>235</v>
       </c>
-      <c r="D37" s="36" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="33" t="s">
+      <c r="D37" s="72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="70" t="s">
         <v>237</v>
       </c>
-      <c r="B38" s="34" t="s">
+      <c r="B38" s="71" t="s">
         <v>239</v>
       </c>
-      <c r="C38" s="35" t="s">
+      <c r="C38" s="73" t="s">
         <v>238</v>
       </c>
-      <c r="D38" s="36" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="33" t="s">
+      <c r="D38" s="72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="70" t="s">
         <v>243</v>
       </c>
-      <c r="B39" s="34" t="s">
+      <c r="B39" s="71" t="s">
         <v>245</v>
       </c>
-      <c r="C39" s="35" t="s">
+      <c r="C39" s="73" t="s">
         <v>244</v>
       </c>
-      <c r="D39" s="36" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="33" t="s">
+      <c r="D39" s="72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="70" t="s">
         <v>246</v>
       </c>
-      <c r="B40" s="34" t="s">
+      <c r="B40" s="71" t="s">
         <v>248</v>
       </c>
-      <c r="C40" s="35" t="s">
+      <c r="C40" s="73" t="s">
         <v>247</v>
       </c>
-      <c r="D40" s="36" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A41" s="33" t="s">
+      <c r="D40" s="72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A41" s="70" t="s">
         <v>249</v>
       </c>
-      <c r="B41" s="34" t="s">
+      <c r="B41" s="71" t="s">
         <v>251</v>
       </c>
-      <c r="C41" s="35" t="s">
+      <c r="C41" s="73" t="s">
         <v>250</v>
       </c>
-      <c r="D41" s="36" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A42" s="33" t="s">
+      <c r="D41" s="72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="70" t="s">
         <v>252</v>
       </c>
-      <c r="B42" s="34" t="s">
+      <c r="B42" s="71" t="s">
         <v>254</v>
       </c>
-      <c r="C42" s="35" t="s">
+      <c r="C42" s="73" t="s">
         <v>253</v>
       </c>
-      <c r="D42" s="36" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="33" t="s">
+      <c r="D42" s="72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="70" t="s">
         <v>255</v>
       </c>
-      <c r="B43" s="34" t="s">
+      <c r="B43" s="71" t="s">
         <v>257</v>
       </c>
-      <c r="C43" s="35" t="s">
+      <c r="C43" s="73" t="s">
         <v>256</v>
       </c>
-      <c r="D43" s="36" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="33" t="s">
+      <c r="D43" s="72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A44" s="70" t="s">
         <v>258</v>
       </c>
-      <c r="B44" s="34" t="s">
+      <c r="B44" s="71" t="s">
         <v>260</v>
       </c>
-      <c r="C44" s="35" t="s">
+      <c r="C44" s="73" t="s">
         <v>259</v>
       </c>
-      <c r="D44" s="36" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A45" s="33" t="s">
+      <c r="D44" s="72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A45" s="70" t="s">
         <v>261</v>
       </c>
-      <c r="B45" s="34" t="s">
+      <c r="B45" s="71" t="s">
         <v>263</v>
       </c>
-      <c r="C45" s="35" t="s">
+      <c r="C45" s="73" t="s">
         <v>262</v>
       </c>
-      <c r="D45" s="36" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="33" t="s">
+      <c r="D45" s="72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="70" t="s">
         <v>264</v>
       </c>
-      <c r="B46" s="34" t="s">
+      <c r="B46" s="71" t="s">
         <v>266</v>
       </c>
-      <c r="C46" s="35" t="s">
+      <c r="C46" s="73" t="s">
         <v>265</v>
       </c>
-      <c r="D46" s="36" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="33" t="s">
+      <c r="D46" s="72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="70" t="s">
         <v>267</v>
       </c>
-      <c r="B47" s="34" t="s">
+      <c r="B47" s="71" t="s">
         <v>268</v>
       </c>
-      <c r="C47" s="35" t="s">
+      <c r="C47" s="73" t="s">
         <v>269</v>
       </c>
-      <c r="D47" s="36" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="33" t="s">
+      <c r="D47" s="72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A48" s="70" t="s">
         <v>271</v>
       </c>
-      <c r="B48" s="34" t="s">
+      <c r="B48" s="71" t="s">
         <v>272</v>
       </c>
-      <c r="C48" s="35" t="s">
+      <c r="C48" s="73" t="s">
         <v>270</v>
       </c>
-      <c r="D48" s="36" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A49" s="33" t="s">
+      <c r="D48" s="72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A49" s="70" t="s">
         <v>274</v>
       </c>
-      <c r="B49" s="34" t="s">
+      <c r="B49" s="71" t="s">
         <v>273</v>
       </c>
-      <c r="C49" s="35" t="s">
+      <c r="C49" s="73" t="s">
         <v>275</v>
       </c>
-      <c r="D49" s="36" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A50" s="33" t="s">
+      <c r="D49" s="72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A50" s="70" t="s">
         <v>276</v>
       </c>
-      <c r="B50" s="34" t="s">
+      <c r="B50" s="71" t="s">
         <v>277</v>
       </c>
-      <c r="C50" s="35" t="s">
+      <c r="C50" s="73" t="s">
         <v>278</v>
       </c>
-      <c r="D50" s="36" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A51" s="33" t="s">
+      <c r="D50" s="72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A51" s="70" t="s">
         <v>279</v>
       </c>
-      <c r="B51" s="34" t="s">
+      <c r="B51" s="71" t="s">
         <v>280</v>
       </c>
-      <c r="C51" s="35" t="s">
+      <c r="C51" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="D51" s="35" t="s">
+      <c r="D51" s="73" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="33" t="s">
+    <row r="52" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A52" s="70" t="s">
         <v>281</v>
       </c>
-      <c r="B52" s="34" t="s">
+      <c r="B52" s="71" t="s">
         <v>282</v>
       </c>
-      <c r="C52" s="35" t="s">
+      <c r="C52" s="73" t="s">
         <v>283</v>
       </c>
-      <c r="D52" s="36" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="33" t="s">
+      <c r="D52" s="72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A53" s="70" t="s">
         <v>284</v>
       </c>
-      <c r="B53" s="34" t="s">
+      <c r="B53" s="71" t="s">
         <v>295</v>
       </c>
-      <c r="C53" s="35" t="s">
+      <c r="C53" s="73" t="s">
         <v>286</v>
       </c>
-      <c r="D53" s="36" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="33" t="s">
+      <c r="D53" s="72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A54" s="70" t="s">
         <v>285</v>
       </c>
-      <c r="B54" s="34" t="s">
+      <c r="B54" s="71" t="s">
         <v>288</v>
       </c>
-      <c r="C54" s="35" t="s">
+      <c r="C54" s="73" t="s">
         <v>287</v>
       </c>
-      <c r="D54" s="36" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="131.25" x14ac:dyDescent="0.25">
-      <c r="A55" s="33" t="s">
+      <c r="D54" s="72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="70" t="s">
         <v>289</v>
       </c>
-      <c r="B55" s="34" t="s">
+      <c r="B55" s="71" t="s">
         <v>291</v>
       </c>
-      <c r="C55" s="35" t="s">
+      <c r="C55" s="73" t="s">
         <v>290</v>
       </c>
-      <c r="D55" s="36" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="33" t="s">
+      <c r="D55" s="72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="70" t="s">
         <v>292</v>
       </c>
-      <c r="B56" s="34" t="s">
+      <c r="B56" s="71" t="s">
         <v>294</v>
       </c>
-      <c r="C56" s="35" t="s">
+      <c r="C56" s="73" t="s">
         <v>293</v>
       </c>
-      <c r="D56" s="36" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="33" t="s">
+      <c r="D56" s="72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A57" s="70" t="s">
         <v>300</v>
       </c>
-      <c r="B57" s="34" t="s">
+      <c r="B57" s="71" t="s">
         <v>301</v>
       </c>
-      <c r="C57" s="35" t="s">
+      <c r="C57" s="73" t="s">
         <v>302</v>
       </c>
-      <c r="D57" s="36" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="66" t="s">
+      <c r="D57" s="72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A58" s="60" t="s">
         <v>303</v>
       </c>
-      <c r="B58" s="70" t="s">
+      <c r="B58" s="69" t="s">
         <v>305</v>
       </c>
-      <c r="C58" s="71" t="s">
+      <c r="C58" s="74" t="s">
         <v>304</v>
       </c>
-      <c r="D58" s="69" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="29" t="s">
+      <c r="D58" s="63" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="75" t="s">
         <v>306</v>
       </c>
-      <c r="B59" s="30" t="s">
+      <c r="B59" s="76" t="s">
         <v>308</v>
       </c>
-      <c r="C59" s="31" t="s">
+      <c r="C59" s="77" t="s">
         <v>307</v>
       </c>
-      <c r="D59" s="32" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="66" t="s">
+      <c r="D59" s="78" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="60" t="s">
         <v>309</v>
       </c>
-      <c r="B60" s="70" t="s">
+      <c r="B60" s="69" t="s">
         <v>314</v>
       </c>
-      <c r="C60" s="71" t="s">
+      <c r="C60" s="74" t="s">
         <v>310</v>
       </c>
-      <c r="D60" s="69" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A61" s="66" t="s">
+      <c r="D60" s="63" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A61" s="60" t="s">
         <v>311</v>
       </c>
-      <c r="B61" s="70" t="s">
+      <c r="B61" s="69" t="s">
         <v>313</v>
       </c>
-      <c r="C61" s="71" t="s">
+      <c r="C61" s="74" t="s">
         <v>312</v>
       </c>
-      <c r="D61" s="69" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A62" s="66" t="s">
+      <c r="D61" s="63" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A62" s="60" t="s">
         <v>315</v>
       </c>
-      <c r="B62" s="70" t="s">
+      <c r="B62" s="69" t="s">
         <v>317</v>
       </c>
-      <c r="C62" s="71" t="s">
+      <c r="C62" s="74" t="s">
         <v>316</v>
       </c>
-      <c r="D62" s="69" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A63" s="66" t="s">
+      <c r="D62" s="63" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A63" s="60" t="s">
         <v>318</v>
       </c>
-      <c r="B63" s="70" t="s">
+      <c r="B63" s="69" t="s">
         <v>319</v>
       </c>
-      <c r="C63" s="71" t="s">
+      <c r="C63" s="74" t="s">
         <v>320</v>
       </c>
-      <c r="D63" s="69" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A64" s="66" t="s">
+      <c r="D63" s="63" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A64" s="60" t="s">
         <v>321</v>
       </c>
-      <c r="B64" s="70" t="s">
+      <c r="B64" s="69" t="s">
         <v>323</v>
       </c>
-      <c r="C64" s="71" t="s">
+      <c r="C64" s="74" t="s">
         <v>322</v>
       </c>
-      <c r="D64" s="69" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="66" t="s">
+      <c r="D64" s="63" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A65" s="60" t="s">
         <v>324</v>
       </c>
-      <c r="B65" s="70" t="s">
+      <c r="B65" s="69" t="s">
         <v>326</v>
       </c>
-      <c r="C65" s="71" t="s">
+      <c r="C65" s="74" t="s">
         <v>325</v>
       </c>
-      <c r="D65" s="69" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A66" s="66" t="s">
+      <c r="D65" s="63" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A66" s="60" t="s">
         <v>327</v>
       </c>
-      <c r="B66" s="70" t="s">
+      <c r="B66" s="69" t="s">
         <v>328</v>
       </c>
-      <c r="C66" s="71" t="s">
+      <c r="C66" s="74" t="s">
         <v>329</v>
       </c>
-      <c r="D66" s="69" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A67" s="66" t="s">
+      <c r="D66" s="63" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A67" s="60" t="s">
         <v>330</v>
       </c>
-      <c r="B67" s="70" t="s">
+      <c r="B67" s="69" t="s">
         <v>332</v>
       </c>
-      <c r="C67" s="71" t="s">
+      <c r="C67" s="74" t="s">
         <v>331</v>
       </c>
-      <c r="D67" s="69" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="66" t="s">
+      <c r="D67" s="63" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A68" s="60" t="s">
         <v>333</v>
       </c>
-      <c r="B68" s="70" t="s">
+      <c r="B68" s="69" t="s">
         <v>334</v>
       </c>
-      <c r="C68" s="71" t="s">
+      <c r="C68" s="74" t="s">
         <v>335</v>
       </c>
-      <c r="D68" s="69" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="29" t="s">
+      <c r="D68" s="63" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="75" t="s">
         <v>336</v>
       </c>
-      <c r="B69" s="31" t="s">
+      <c r="B69" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="C69" s="31" t="s">
+      <c r="C69" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="D69" s="32" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A70" s="29" t="s">
+      <c r="D69" s="78" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A70" s="75" t="s">
         <v>338</v>
       </c>
-      <c r="B70" s="30" t="s">
+      <c r="B70" s="76" t="s">
         <v>337</v>
       </c>
-      <c r="C70" s="31" t="s">
+      <c r="C70" s="77" t="s">
         <v>339</v>
       </c>
-      <c r="D70" s="32" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A71" s="29" t="s">
+      <c r="D70" s="78" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A71" s="75" t="s">
         <v>342</v>
       </c>
-      <c r="B71" s="30" t="s">
+      <c r="B71" s="76" t="s">
         <v>341</v>
       </c>
-      <c r="C71" s="31" t="s">
+      <c r="C71" s="77" t="s">
         <v>340</v>
       </c>
-      <c r="D71" s="32" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A72" s="29" t="s">
+      <c r="D71" s="78" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A72" s="75" t="s">
         <v>343</v>
       </c>
-      <c r="B72" s="30" t="s">
+      <c r="B72" s="76" t="s">
         <v>344</v>
       </c>
-      <c r="C72" s="31" t="s">
+      <c r="C72" s="77" t="s">
         <v>345</v>
       </c>
-      <c r="D72" s="32" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A73" s="29" t="s">
+      <c r="D72" s="78" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A73" s="75" t="s">
         <v>361</v>
       </c>
-      <c r="B73" s="30" t="s">
+      <c r="B73" s="76" t="s">
         <v>363</v>
       </c>
-      <c r="C73" s="31" t="s">
+      <c r="C73" s="77" t="s">
         <v>362</v>
       </c>
-      <c r="D73" s="32" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="29" t="s">
+      <c r="D73" s="78" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="75" t="s">
         <v>364</v>
       </c>
-      <c r="B74" s="30" t="s">
+      <c r="B74" s="76" t="s">
         <v>365</v>
       </c>
-      <c r="C74" s="31"/>
-      <c r="D74" s="32" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A75" s="29" t="s">
+      <c r="C74" s="77"/>
+      <c r="D74" s="78" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A75" s="75" t="s">
         <v>346</v>
       </c>
-      <c r="B75" s="30" t="s">
+      <c r="B75" s="76" t="s">
         <v>347</v>
       </c>
-      <c r="C75" s="31" t="s">
+      <c r="C75" s="77" t="s">
         <v>348</v>
       </c>
-      <c r="D75" s="32" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A76" s="29" t="s">
+      <c r="D75" s="78" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A76" s="75" t="s">
         <v>349</v>
       </c>
-      <c r="B76" s="30" t="s">
+      <c r="B76" s="76" t="s">
         <v>350</v>
       </c>
-      <c r="C76" s="31" t="s">
+      <c r="C76" s="77" t="s">
         <v>351</v>
       </c>
-      <c r="D76" s="32" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A77" s="29" t="s">
+      <c r="D76" s="78" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A77" s="75" t="s">
         <v>354</v>
       </c>
-      <c r="B77" s="30" t="s">
+      <c r="B77" s="76" t="s">
         <v>355</v>
       </c>
-      <c r="C77" s="31" t="s">
+      <c r="C77" s="77" t="s">
         <v>356</v>
       </c>
-      <c r="D77" s="32" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="29" t="s">
+      <c r="D77" s="78" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A78" s="75" t="s">
         <v>352</v>
       </c>
-      <c r="B78" s="30" t="s">
+      <c r="B78" s="76" t="s">
         <v>358</v>
       </c>
-      <c r="C78" s="31" t="s">
+      <c r="C78" s="77" t="s">
         <v>357</v>
       </c>
-      <c r="D78" s="32" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A79" s="29" t="s">
+      <c r="D78" s="78" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A79" s="75" t="s">
         <v>353</v>
       </c>
-      <c r="B79" s="30" t="s">
+      <c r="B79" s="76" t="s">
         <v>360</v>
       </c>
-      <c r="C79" s="31" t="s">
+      <c r="C79" s="77" t="s">
         <v>359</v>
       </c>
-      <c r="D79" s="32" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+      <c r="D79" s="78" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
+        <v>678</v>
+      </c>
+      <c r="D80" s="66" t="s">
         <v>679</v>
-      </c>
-      <c r="D80" s="72" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="82" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C82" s="7" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
   </sheetData>
@@ -5939,20 +6575,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31" style="17" customWidth="1"/>
-    <col min="2" max="2" width="73.28515625" style="17" customWidth="1"/>
-    <col min="3" max="3" width="110.5703125" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" style="17" customWidth="1"/>
-    <col min="5" max="16384" width="9.28515625" style="17"/>
+    <col min="1" max="1" width="31" style="16" customWidth="1"/>
+    <col min="2" max="2" width="73.28515625" style="16" customWidth="1"/>
+    <col min="3" max="3" width="110.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" style="16" customWidth="1"/>
+    <col min="5" max="16384" width="9.28515625" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
-        <v>490</v>
-      </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
+      <c r="A1" s="83" t="s">
+        <v>489</v>
+      </c>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
     </row>
     <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -5969,405 +6605,405 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="20" t="s">
+        <v>403</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>405</v>
+      </c>
+      <c r="C3" s="23" t="s">
         <v>404</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="D3" s="23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
         <v>406</v>
       </c>
-      <c r="C3" s="24" t="s">
-        <v>405</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+      <c r="B4" s="25" t="s">
         <v>407</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="C4" s="26" t="s">
         <v>408</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="D4" s="23"/>
+    </row>
+    <row r="5" spans="1:4" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
         <v>409</v>
       </c>
-      <c r="D4" s="24"/>
-    </row>
-    <row r="5" spans="1:4" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+      <c r="B5" s="25" t="s">
+        <v>411</v>
+      </c>
+      <c r="C5" s="26" t="s">
         <v>410</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="D5" s="23"/>
+    </row>
+    <row r="6" spans="1:4" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
         <v>412</v>
       </c>
-      <c r="C5" s="41" t="s">
-        <v>411</v>
-      </c>
-      <c r="D5" s="24"/>
-    </row>
-    <row r="6" spans="1:4" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+      <c r="B6" s="25" t="s">
+        <v>415</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>414</v>
+      </c>
+      <c r="D6" s="23"/>
+    </row>
+    <row r="7" spans="1:4" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
         <v>413</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B7" s="25" t="s">
         <v>416</v>
       </c>
-      <c r="C6" s="41" t="s">
-        <v>415</v>
-      </c>
-      <c r="D6" s="24"/>
-    </row>
-    <row r="7" spans="1:4" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
-        <v>414</v>
-      </c>
-      <c r="B7" s="40" t="s">
+      <c r="C7" s="26" t="s">
         <v>417</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="D7" s="23"/>
+    </row>
+    <row r="8" spans="1:4" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
         <v>418</v>
       </c>
-      <c r="D7" s="24"/>
-    </row>
-    <row r="8" spans="1:4" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+      <c r="B8" s="25" t="s">
+        <v>420</v>
+      </c>
+      <c r="C8" s="26"/>
+      <c r="D8" s="23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
         <v>419</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B9" s="25" t="s">
         <v>421</v>
       </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
-        <v>420</v>
-      </c>
-      <c r="B9" s="40" t="s">
+      <c r="C9" s="26"/>
+      <c r="D9" s="23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
         <v>422</v>
       </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
+      <c r="B10" s="25" t="s">
         <v>423</v>
       </c>
-      <c r="B10" s="40" t="s">
+      <c r="C10" s="26" t="s">
         <v>424</v>
       </c>
-      <c r="C10" s="41" t="s">
+      <c r="D10" s="23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
         <v>425</v>
       </c>
-      <c r="D10" s="24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
+      <c r="B11" s="25" t="s">
+        <v>427</v>
+      </c>
+      <c r="C11" s="26" t="s">
         <v>426</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="D11" s="23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
         <v>428</v>
       </c>
-      <c r="C11" s="41" t="s">
-        <v>427</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
+      <c r="B12" s="25" t="s">
+        <v>430</v>
+      </c>
+      <c r="C12" s="26" t="s">
         <v>429</v>
       </c>
-      <c r="B12" s="40" t="s">
+      <c r="D12" s="23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="s">
         <v>431</v>
       </c>
-      <c r="C12" s="41" t="s">
-        <v>430</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
+      <c r="B13" s="25" t="s">
+        <v>433</v>
+      </c>
+      <c r="C13" s="26" t="s">
         <v>432</v>
       </c>
-      <c r="B13" s="40" t="s">
+      <c r="D13" s="23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
         <v>434</v>
       </c>
-      <c r="C13" s="41" t="s">
-        <v>433</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
+      <c r="B14" s="25" t="s">
+        <v>436</v>
+      </c>
+      <c r="C14" s="26" t="s">
         <v>435</v>
       </c>
-      <c r="B14" s="40" t="s">
+      <c r="D14" s="23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="20" t="s">
         <v>437</v>
       </c>
-      <c r="C14" s="41" t="s">
-        <v>436</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
+      <c r="B15" s="25" t="s">
         <v>438</v>
       </c>
-      <c r="B15" s="40" t="s">
+      <c r="C15" s="26" t="s">
         <v>439</v>
       </c>
-      <c r="C15" s="41" t="s">
+      <c r="D15" s="23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
         <v>440</v>
       </c>
-      <c r="D15" s="24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
+      <c r="B16" s="25" t="s">
         <v>441</v>
       </c>
-      <c r="B16" s="40" t="s">
+      <c r="C16" s="26" t="s">
         <v>442</v>
       </c>
-      <c r="C16" s="41" t="s">
+      <c r="D16" s="23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A17" s="20" t="s">
         <v>443</v>
       </c>
-      <c r="D16" s="24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
+      <c r="B17" s="25" t="s">
         <v>444</v>
       </c>
-      <c r="B17" s="40" t="s">
+      <c r="C17" s="26" t="s">
+        <v>448</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A18" s="20" t="s">
         <v>445</v>
       </c>
-      <c r="C17" s="41" t="s">
+      <c r="B18" s="25" t="s">
+        <v>446</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>447</v>
+      </c>
+      <c r="D18" s="23"/>
+    </row>
+    <row r="19" spans="1:4" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="20" t="s">
         <v>449</v>
       </c>
-      <c r="D17" s="24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
-        <v>446</v>
-      </c>
-      <c r="B18" s="40" t="s">
-        <v>447</v>
-      </c>
-      <c r="C18" s="41" t="s">
-        <v>448</v>
-      </c>
-      <c r="D18" s="24"/>
-    </row>
-    <row r="19" spans="1:4" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="s">
+      <c r="B19" s="25" t="s">
         <v>450</v>
       </c>
-      <c r="B19" s="40" t="s">
+      <c r="C19" s="26"/>
+      <c r="D19" s="23"/>
+    </row>
+    <row r="20" spans="1:4" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="20" t="s">
+        <v>452</v>
+      </c>
+      <c r="B20" s="25" t="s">
         <v>451</v>
       </c>
-      <c r="C19" s="41"/>
-      <c r="D19" s="24"/>
-    </row>
-    <row r="20" spans="1:4" ht="112.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
+      <c r="C20" s="26"/>
+      <c r="D20" s="23"/>
+    </row>
+    <row r="21" spans="1:4" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="20" t="s">
         <v>453</v>
       </c>
-      <c r="B20" s="40" t="s">
-        <v>452</v>
-      </c>
-      <c r="C20" s="41"/>
-      <c r="D20" s="24"/>
-    </row>
-    <row r="21" spans="1:4" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
+      <c r="B21" s="25" t="s">
+        <v>455</v>
+      </c>
+      <c r="C21" s="26" t="s">
         <v>454</v>
       </c>
-      <c r="B21" s="40" t="s">
+      <c r="D21" s="23"/>
+    </row>
+    <row r="22" spans="1:4" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="17" t="s">
+        <v>461</v>
+      </c>
+      <c r="B22" s="19" t="s">
         <v>456</v>
       </c>
-      <c r="C21" s="41" t="s">
-        <v>455</v>
-      </c>
-      <c r="D21" s="24"/>
-    </row>
-    <row r="22" spans="1:4" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
+      <c r="C22" s="24" t="s">
+        <v>458</v>
+      </c>
+      <c r="D22" s="18"/>
+    </row>
+    <row r="23" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
         <v>462</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B23" s="19" t="s">
         <v>457</v>
       </c>
-      <c r="C22" s="39" t="s">
+      <c r="C23" s="24" t="s">
         <v>459</v>
       </c>
-      <c r="D22" s="19"/>
-    </row>
-    <row r="23" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
+      <c r="D23" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="17" t="s">
         <v>463</v>
       </c>
-      <c r="B23" s="20" t="s">
-        <v>458</v>
-      </c>
-      <c r="C23" s="39" t="s">
+      <c r="B24" s="19" t="s">
         <v>460</v>
       </c>
-      <c r="D23" s="19" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
+      <c r="C24" s="24" t="s">
         <v>464</v>
       </c>
-      <c r="B24" s="20" t="s">
-        <v>461</v>
-      </c>
-      <c r="C24" s="39" t="s">
+      <c r="D24" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="17" t="s">
+        <v>466</v>
+      </c>
+      <c r="B25" s="19" t="s">
         <v>465</v>
       </c>
-      <c r="D24" s="19" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="18" t="s">
+      <c r="C25" s="24" t="s">
         <v>467</v>
       </c>
-      <c r="B25" s="20" t="s">
-        <v>466</v>
-      </c>
-      <c r="C25" s="39" t="s">
+      <c r="D25" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A26" s="17" t="s">
+        <v>469</v>
+      </c>
+      <c r="B26" s="19" t="s">
         <v>468</v>
       </c>
-      <c r="D25" s="19" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A26" s="18" t="s">
+      <c r="C26" s="24" t="s">
         <v>470</v>
       </c>
-      <c r="B26" s="20" t="s">
-        <v>469</v>
-      </c>
-      <c r="C26" s="39" t="s">
+      <c r="D26" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="17" t="s">
         <v>471</v>
       </c>
-      <c r="D26" s="19" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="18" t="s">
+      <c r="B27" s="19" t="s">
         <v>472</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="C27" s="24" t="s">
         <v>473</v>
       </c>
-      <c r="C27" s="39" t="s">
+      <c r="D27" s="18"/>
+    </row>
+    <row r="28" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A28" s="17" t="s">
         <v>474</v>
       </c>
-      <c r="D27" s="19"/>
-    </row>
-    <row r="28" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A28" s="18" t="s">
+      <c r="B28" s="19" t="s">
         <v>475</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="C28" s="24" t="s">
+        <v>478</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A29" s="17" t="s">
         <v>476</v>
       </c>
-      <c r="C28" s="39" t="s">
+      <c r="B29" s="19" t="s">
+        <v>477</v>
+      </c>
+      <c r="C29" s="24" t="s">
         <v>479</v>
       </c>
-      <c r="D28" s="19" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A29" s="18" t="s">
-        <v>477</v>
-      </c>
-      <c r="B29" s="20" t="s">
-        <v>478</v>
-      </c>
-      <c r="C29" s="39" t="s">
+      <c r="D29" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A30" s="17" t="s">
         <v>480</v>
       </c>
-      <c r="D29" s="19" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A30" s="18" t="s">
+      <c r="B30" s="19" t="s">
+        <v>483</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>485</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A31" s="17" t="s">
         <v>481</v>
       </c>
-      <c r="B30" s="20" t="s">
+      <c r="B31" s="19" t="s">
+        <v>482</v>
+      </c>
+      <c r="C31" s="24" t="s">
         <v>484</v>
       </c>
-      <c r="C30" s="39" t="s">
-        <v>486</v>
-      </c>
-      <c r="D30" s="19" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A31" s="18" t="s">
-        <v>482</v>
-      </c>
-      <c r="B31" s="20" t="s">
-        <v>483</v>
-      </c>
-      <c r="C31" s="39" t="s">
-        <v>485</v>
-      </c>
-      <c r="D31" s="19" t="s">
+      <c r="D31" s="18" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="15"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="14"/>
       <c r="D32" s="11"/>
     </row>
     <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="15"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="14"/>
       <c r="D33" s="11"/>
     </row>
     <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="15"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="14"/>
       <c r="D34" s="11"/>
     </row>
     <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="15"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="14"/>
       <c r="D35" s="11"/>
     </row>
   </sheetData>
@@ -6419,12 +7055,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
-        <v>491</v>
-      </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
+      <c r="A1" s="83" t="s">
+        <v>490</v>
+      </c>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
     </row>
     <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -6442,200 +7078,200 @@
     </row>
     <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
-      <c r="B3" s="13"/>
+      <c r="B3" s="12"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="15"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="14"/>
       <c r="D4" s="9"/>
     </row>
     <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="15"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="14"/>
       <c r="D5" s="9"/>
     </row>
     <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="15"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="14"/>
       <c r="D6" s="9"/>
     </row>
     <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="15"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="14"/>
       <c r="D7" s="9"/>
     </row>
     <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="15"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="14"/>
       <c r="D8" s="9"/>
     </row>
     <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="15"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="14"/>
       <c r="D9" s="9"/>
     </row>
     <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="15"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="14"/>
       <c r="D10" s="11"/>
     </row>
     <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="15"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="14"/>
       <c r="D11" s="9"/>
     </row>
     <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="15"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="14"/>
       <c r="D12" s="11"/>
     </row>
     <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="15"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="14"/>
       <c r="D13" s="11"/>
     </row>
     <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="15"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="14"/>
       <c r="D14" s="11"/>
     </row>
     <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="15"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="14"/>
       <c r="D15" s="11"/>
     </row>
     <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="15"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="14"/>
       <c r="D16" s="11"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="15"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="14"/>
       <c r="D17" s="11"/>
     </row>
     <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="15"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="14"/>
       <c r="D18" s="11"/>
     </row>
     <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="15"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="14"/>
       <c r="D19" s="11"/>
     </row>
     <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="15"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="14"/>
       <c r="D20" s="11"/>
     </row>
     <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="15"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="14"/>
       <c r="D21" s="11"/>
     </row>
     <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="15"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="14"/>
       <c r="D22" s="11"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="15"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="14"/>
       <c r="D23" s="11"/>
     </row>
     <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="15"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="14"/>
       <c r="D24" s="11"/>
     </row>
     <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="15"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="14"/>
       <c r="D25" s="11"/>
     </row>
     <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="15"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="14"/>
       <c r="D26" s="11"/>
     </row>
     <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="15"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="14"/>
       <c r="D27" s="11"/>
     </row>
     <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="15"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="14"/>
       <c r="D28" s="11"/>
     </row>
     <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="15"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="14"/>
       <c r="D29" s="11"/>
     </row>
     <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="15"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="14"/>
       <c r="D30" s="11"/>
     </row>
     <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="15"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="14"/>
       <c r="D31" s="11"/>
     </row>
     <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="15"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="14"/>
       <c r="D32" s="11"/>
     </row>
     <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="15"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="14"/>
       <c r="D33" s="11"/>
     </row>
     <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="15"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="14"/>
       <c r="D34" s="11"/>
     </row>
     <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="15"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="14"/>
       <c r="D35" s="11"/>
     </row>
   </sheetData>
@@ -6652,7 +7288,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6674,57 +7310,57 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
-        <v>400</v>
-      </c>
-      <c r="C2" s="16" t="s">
+      <c r="A2" s="91" t="s">
+        <v>399</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="73"/>
-      <c r="C3" s="16" t="s">
+      <c r="A3" s="82"/>
+      <c r="C3" s="15" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>487</v>
-      </c>
-      <c r="C4" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>488</v>
-      </c>
-      <c r="C5" s="16" t="s">
+        <v>487</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>489</v>
-      </c>
-      <c r="C6" s="16" t="s">
+        <v>488</v>
+      </c>
+      <c r="C6" s="15" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>493</v>
-      </c>
-      <c r="B7" s="17" t="s">
         <v>492</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>575</v>
+      </c>
+      <c r="C8" s="15" t="s">
         <v>576</v>
-      </c>
-      <c r="C8" t="s">
-        <v>577</v>
       </c>
     </row>
   </sheetData>
@@ -6737,2282 +7373,2303 @@
     <hyperlink ref="C4" r:id="rId3" location="validate_by_input" xr:uid="{29D92726-1FC5-4408-9FD3-ED93660C9948}"/>
     <hyperlink ref="C5" r:id="rId4" location="validate_by_input" xr:uid="{3BAFF057-4DF6-435B-BCC6-D60EF3701836}"/>
     <hyperlink ref="C6" r:id="rId5" xr:uid="{9788BF6B-88D9-4450-AC55-7BE09E186CC3}"/>
+    <hyperlink ref="C8" r:id="rId6" xr:uid="{00546508-EE29-40AB-BA6C-0D87433705E2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B55396B-BB8C-4180-AD0D-7E5850126AB0}">
-  <dimension ref="A2:L100"/>
+  <dimension ref="A2:L101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="17" customWidth="1"/>
-    <col min="3" max="3" width="11" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" style="17" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.5703125" style="17" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="17" style="17" customWidth="1"/>
-    <col min="8" max="8" width="27.85546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.5703125" style="17" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" style="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" style="17" customWidth="1"/>
-    <col min="13" max="16384" width="11.42578125" style="17"/>
+    <col min="1" max="1" width="45.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="16" customWidth="1"/>
+    <col min="3" max="3" width="11" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="16" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.5703125" style="16" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="17" style="16" customWidth="1"/>
+    <col min="8" max="8" width="27.85546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" style="16" customWidth="1"/>
+    <col min="13" max="16384" width="11.42578125" style="16"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="99" t="s">
+        <v>602</v>
+      </c>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+    </row>
+    <row r="3" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="32" t="s">
+        <v>577</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>578</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>579</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>580</v>
+      </c>
+      <c r="E3" s="32" t="s">
         <v>603</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-    </row>
-    <row r="3" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="47" t="s">
-        <v>578</v>
-      </c>
-      <c r="B3" s="47" t="s">
-        <v>579</v>
-      </c>
-      <c r="C3" s="47" t="s">
-        <v>580</v>
-      </c>
-      <c r="D3" s="47" t="s">
-        <v>581</v>
-      </c>
-      <c r="E3" s="47" t="s">
-        <v>604</v>
-      </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="44" t="s">
-        <v>632</v>
-      </c>
-      <c r="B4" s="45">
+      <c r="A4" s="29" t="s">
+        <v>631</v>
+      </c>
+      <c r="B4" s="30">
         <v>134</v>
       </c>
-      <c r="C4" s="45">
+      <c r="C4" s="30">
         <v>120</v>
       </c>
-      <c r="D4" s="42">
+      <c r="D4" s="27">
         <f>(B4+C4)/60</f>
         <v>4.2333333333333334</v>
       </c>
-      <c r="E4" s="45">
+      <c r="E4" s="30">
         <v>2</v>
       </c>
-      <c r="F4" s="43">
+      <c r="F4" s="28">
         <f>IF(E4=0, D4, IF(E4=1,D4,0))</f>
         <v>0</v>
       </c>
-      <c r="G4" s="43"/>
+      <c r="G4" s="28"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="44" t="s">
-        <v>633</v>
-      </c>
-      <c r="B5" s="45">
+      <c r="A5" s="29" t="s">
+        <v>632</v>
+      </c>
+      <c r="B5" s="30">
         <v>183</v>
       </c>
-      <c r="C5" s="45">
+      <c r="C5" s="30">
         <v>120</v>
       </c>
-      <c r="D5" s="42">
+      <c r="D5" s="27">
         <f t="shared" ref="D5:D8" si="0">(B5+C5)/60</f>
         <v>5.05</v>
       </c>
-      <c r="E5" s="45">
+      <c r="E5" s="30">
         <v>2</v>
       </c>
-      <c r="F5" s="43">
-        <f t="shared" ref="F5:F68" si="1">IF(E5=0, D5, IF(E5=1,D5,0))</f>
+      <c r="F5" s="28">
+        <f t="shared" ref="F5:F69" si="1">IF(E5=0, D5, IF(E5=1,D5,0))</f>
         <v>0</v>
       </c>
-      <c r="G5" s="43"/>
-      <c r="H5" s="83" t="s">
-        <v>605</v>
-      </c>
-      <c r="I5" s="84"/>
-      <c r="J5" s="84"/>
-      <c r="K5" s="84"/>
-      <c r="L5" s="85"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="93" t="s">
+        <v>604</v>
+      </c>
+      <c r="I5" s="94"/>
+      <c r="J5" s="94"/>
+      <c r="K5" s="94"/>
+      <c r="L5" s="95"/>
     </row>
     <row r="6" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="44" t="s">
-        <v>634</v>
-      </c>
-      <c r="B6" s="45">
+      <c r="A6" s="29" t="s">
+        <v>633</v>
+      </c>
+      <c r="B6" s="30">
         <v>468</v>
       </c>
-      <c r="C6" s="45">
+      <c r="C6" s="30">
         <v>120</v>
       </c>
-      <c r="D6" s="42">
+      <c r="D6" s="27">
         <f t="shared" si="0"/>
         <v>9.8000000000000007</v>
       </c>
-      <c r="E6" s="45">
+      <c r="E6" s="30">
         <v>2</v>
       </c>
-      <c r="F6" s="43">
+      <c r="F6" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G6" s="43"/>
-      <c r="H6" s="57" t="s">
-        <v>606</v>
-      </c>
-      <c r="I6" s="61" t="s">
-        <v>603</v>
-      </c>
-      <c r="J6" s="61" t="s">
-        <v>609</v>
-      </c>
-      <c r="K6" s="61" t="s">
-        <v>655</v>
-      </c>
-      <c r="L6" s="61" t="s">
-        <v>677</v>
+      <c r="G6" s="28"/>
+      <c r="H6" s="42" t="s">
+        <v>605</v>
+      </c>
+      <c r="I6" s="46" t="s">
+        <v>602</v>
+      </c>
+      <c r="J6" s="46" t="s">
+        <v>608</v>
+      </c>
+      <c r="K6" s="46" t="s">
+        <v>654</v>
+      </c>
+      <c r="L6" s="46" t="s">
+        <v>676</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="44" t="s">
-        <v>635</v>
-      </c>
-      <c r="B7" s="45">
+      <c r="A7" s="29" t="s">
+        <v>634</v>
+      </c>
+      <c r="B7" s="30">
         <v>35</v>
       </c>
-      <c r="C7" s="45">
+      <c r="C7" s="30">
         <v>120</v>
       </c>
-      <c r="D7" s="42">
+      <c r="D7" s="27">
         <f t="shared" si="0"/>
         <v>2.5833333333333335</v>
       </c>
-      <c r="E7" s="45">
+      <c r="E7" s="30">
         <v>2</v>
       </c>
-      <c r="F7" s="43">
+      <c r="F7" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G7" s="43"/>
-      <c r="H7" s="58" t="s">
-        <v>607</v>
-      </c>
-      <c r="I7" s="62">
-        <f>COUNTA(A4:A29)</f>
-        <v>26</v>
-      </c>
-      <c r="J7" s="62">
-        <f>COUNTA(A32:A58)</f>
+      <c r="G7" s="28"/>
+      <c r="H7" s="43" t="s">
+        <v>606</v>
+      </c>
+      <c r="I7" s="47">
+        <f>COUNTA(A4:A30)</f>
         <v>27</v>
       </c>
-      <c r="K7" s="62">
-        <f>COUNTA(A61:A74)</f>
+      <c r="J7" s="47">
+        <f>COUNTA(A33:A59)</f>
+        <v>27</v>
+      </c>
+      <c r="K7" s="47">
+        <f>COUNTA(A62:A75)</f>
         <v>14</v>
       </c>
-      <c r="L7" s="62">
-        <f>COUNTA(A77:A100)</f>
+      <c r="L7" s="47">
+        <f>COUNTA(A78:A101)</f>
         <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="44" t="s">
-        <v>611</v>
-      </c>
-      <c r="B8" s="45">
+      <c r="A8" s="29" t="s">
+        <v>610</v>
+      </c>
+      <c r="B8" s="30">
         <v>384</v>
       </c>
-      <c r="C8" s="45">
+      <c r="C8" s="30">
         <v>120</v>
       </c>
-      <c r="D8" s="42">
+      <c r="D8" s="27">
         <f t="shared" si="0"/>
         <v>8.4</v>
       </c>
-      <c r="E8" s="45">
+      <c r="E8" s="30">
         <v>2</v>
       </c>
-      <c r="F8" s="43">
+      <c r="F8" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G8" s="43"/>
-      <c r="H8" s="59" t="s">
-        <v>608</v>
-      </c>
-      <c r="I8" s="63">
-        <f>COUNTIF(E4:E29, 2)</f>
-        <v>9</v>
-      </c>
-      <c r="J8" s="63">
-        <f>COUNTIF(E32:E58, 2)</f>
+      <c r="G8" s="28"/>
+      <c r="H8" s="44" t="s">
+        <v>607</v>
+      </c>
+      <c r="I8" s="48">
+        <f>COUNTIF(E4:E30, 2)</f>
+        <v>12</v>
+      </c>
+      <c r="J8" s="48">
+        <f>COUNTIF(E33:E59, 2)</f>
         <v>1</v>
       </c>
-      <c r="K8" s="63">
-        <f>COUNTIF(E61:E74, 2)</f>
+      <c r="K8" s="48">
+        <f>COUNTIF(E62:E75, 2)</f>
         <v>0</v>
       </c>
-      <c r="L8" s="63">
-        <f>COUNTIF(E77:E100, 2)</f>
+      <c r="L8" s="48">
+        <f>COUNTIF(E78:E101, 2)</f>
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="44" t="s">
-        <v>582</v>
-      </c>
-      <c r="B9" s="45">
+      <c r="A9" s="29" t="s">
+        <v>581</v>
+      </c>
+      <c r="B9" s="30">
         <v>170</v>
       </c>
-      <c r="C9" s="45">
+      <c r="C9" s="30">
         <v>120</v>
       </c>
-      <c r="D9" s="42">
+      <c r="D9" s="27">
         <f>(B9+C9)/60</f>
         <v>4.833333333333333</v>
       </c>
-      <c r="E9" s="45">
+      <c r="E9" s="30">
         <v>2</v>
       </c>
-      <c r="F9" s="43">
+      <c r="F9" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G9" s="43"/>
-      <c r="H9" s="59" t="s">
-        <v>636</v>
-      </c>
-      <c r="I9" s="63">
-        <f>SUM(D4:D29)/6</f>
-        <v>19.077777777777779</v>
-      </c>
-      <c r="J9" s="63">
-        <f>SUM(D32:D58)/6</f>
+      <c r="G9" s="28"/>
+      <c r="H9" s="44" t="s">
+        <v>635</v>
+      </c>
+      <c r="I9" s="48">
+        <f>SUM(D4:D30)/6</f>
+        <v>19.925000000000001</v>
+      </c>
+      <c r="J9" s="48">
+        <f>SUM(D33:D59)/6</f>
         <v>17.477777777777774</v>
       </c>
-      <c r="K9" s="63">
-        <f>SUM(D61:D74)/6</f>
+      <c r="K9" s="48">
+        <f>SUM(D62:D75)/6</f>
         <v>9.0916666666666668</v>
       </c>
-      <c r="L9" s="63">
-        <f>SUM(D77:D100)/6</f>
+      <c r="L9" s="48">
+        <f>SUM(D78:D101)/6</f>
         <v>15.138888888888886</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="44" t="s">
-        <v>583</v>
-      </c>
-      <c r="B10" s="45">
+      <c r="A10" s="29" t="s">
+        <v>582</v>
+      </c>
+      <c r="B10" s="30">
         <v>47</v>
       </c>
-      <c r="C10" s="45">
+      <c r="C10" s="30">
         <v>120</v>
       </c>
-      <c r="D10" s="42">
-        <f t="shared" ref="D10:D29" si="2">(B10+C10)/60</f>
+      <c r="D10" s="27">
+        <f t="shared" ref="D10:D30" si="2">(B10+C10)/60</f>
         <v>2.7833333333333332</v>
       </c>
-      <c r="E10" s="45">
+      <c r="E10" s="30">
         <v>2</v>
       </c>
-      <c r="F10" s="43">
+      <c r="F10" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G10" s="43"/>
-      <c r="H10" s="59" t="s">
-        <v>637</v>
-      </c>
-      <c r="I10" s="63">
-        <f>SUM(F4:F29)/6</f>
-        <v>11.322222222222225</v>
-      </c>
-      <c r="J10" s="63">
-        <f>SUM(F32:F58)/6</f>
+      <c r="G10" s="28"/>
+      <c r="H10" s="44" t="s">
+        <v>636</v>
+      </c>
+      <c r="I10" s="48">
+        <f>SUM(F4:F30)/6</f>
+        <v>9.2611111111111111</v>
+      </c>
+      <c r="J10" s="48">
+        <f>SUM(F33:F59)/6</f>
         <v>16.077777777777772</v>
       </c>
-      <c r="K10" s="63">
-        <f>SUM(F61:F74)/6</f>
+      <c r="K10" s="48">
+        <f>SUM(F62:F75)/6</f>
         <v>9.0916666666666668</v>
       </c>
-      <c r="L10" s="63">
-        <f>SUM(F77:F100)/6</f>
+      <c r="L10" s="48">
+        <f>SUM(F78:F101)/6</f>
         <v>13.591666666666663</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="44" t="s">
-        <v>584</v>
-      </c>
-      <c r="B11" s="45">
+      <c r="A11" s="29" t="s">
+        <v>583</v>
+      </c>
+      <c r="B11" s="30">
         <v>105</v>
       </c>
-      <c r="C11" s="45">
+      <c r="C11" s="30">
         <v>120</v>
       </c>
-      <c r="D11" s="42">
+      <c r="D11" s="27">
         <f t="shared" si="2"/>
         <v>3.75</v>
       </c>
-      <c r="E11" s="45">
+      <c r="E11" s="30">
         <v>2</v>
       </c>
-      <c r="F11" s="43">
+      <c r="F11" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G11" s="43"/>
-      <c r="H11" s="59" t="s">
-        <v>638</v>
-      </c>
-      <c r="I11" s="64">
+      <c r="G11" s="28"/>
+      <c r="H11" s="44" t="s">
+        <v>637</v>
+      </c>
+      <c r="I11" s="49">
         <f ca="1">TODAY() +I10</f>
-        <v>43808.322222222225</v>
-      </c>
-      <c r="J11" s="64">
+        <v>43812.261111111111</v>
+      </c>
+      <c r="J11" s="49">
         <f ca="1">I11+J10</f>
-        <v>43824.4</v>
-      </c>
-      <c r="K11" s="64"/>
-      <c r="L11" s="64"/>
+        <v>43828.338888888888</v>
+      </c>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="44" t="s">
-        <v>585</v>
-      </c>
-      <c r="B12" s="45">
+      <c r="A12" s="29" t="s">
+        <v>584</v>
+      </c>
+      <c r="B12" s="30">
         <v>157</v>
       </c>
-      <c r="C12" s="45">
+      <c r="C12" s="30">
         <v>120</v>
       </c>
-      <c r="D12" s="42">
+      <c r="D12" s="27">
         <f t="shared" si="2"/>
         <v>4.6166666666666663</v>
       </c>
-      <c r="E12" s="45">
+      <c r="E12" s="30">
+        <v>2</v>
+      </c>
+      <c r="F12" s="28">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F12" s="43">
-        <f t="shared" si="1"/>
-        <v>4.6166666666666663</v>
-      </c>
-      <c r="G12" s="43"/>
-      <c r="H12" s="60" t="s">
-        <v>639</v>
-      </c>
-      <c r="I12" s="65">
+      <c r="G12" s="28"/>
+      <c r="H12" s="45" t="s">
+        <v>638</v>
+      </c>
+      <c r="I12" s="50">
         <f>I8/I7</f>
-        <v>0.34615384615384615</v>
-      </c>
-      <c r="J12" s="65">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="J12" s="50">
         <f>J8/J7</f>
         <v>3.7037037037037035E-2</v>
       </c>
-      <c r="K12" s="65">
+      <c r="K12" s="50">
         <f>K8/K7</f>
         <v>0</v>
       </c>
-      <c r="L12" s="65">
+      <c r="L12" s="50">
         <f>L8/L7</f>
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="44" t="s">
-        <v>586</v>
-      </c>
-      <c r="B13" s="45">
+      <c r="A13" s="29" t="s">
+        <v>585</v>
+      </c>
+      <c r="B13" s="30">
         <v>186</v>
       </c>
-      <c r="C13" s="45">
+      <c r="C13" s="30">
         <v>120</v>
       </c>
-      <c r="D13" s="42">
+      <c r="D13" s="27">
         <f t="shared" si="2"/>
         <v>5.0999999999999996</v>
       </c>
-      <c r="E13" s="45">
+      <c r="E13" s="30">
         <v>2</v>
       </c>
-      <c r="F13" s="43">
+      <c r="F13" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G13" s="43"/>
-      <c r="H13" s="56" t="s">
-        <v>678</v>
-      </c>
-      <c r="I13" s="86">
+      <c r="G13" s="28"/>
+      <c r="H13" s="41" t="s">
+        <v>677</v>
+      </c>
+      <c r="I13" s="96">
         <f>AVERAGE(I12:L12)</f>
-        <v>0.11663105413105412</v>
-      </c>
-      <c r="J13" s="87"/>
-      <c r="K13" s="87"/>
-      <c r="L13" s="88"/>
+        <v>0.14120370370370369</v>
+      </c>
+      <c r="J13" s="97"/>
+      <c r="K13" s="97"/>
+      <c r="L13" s="98"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="44" t="s">
-        <v>587</v>
-      </c>
-      <c r="B14" s="45">
+      <c r="A14" s="29" t="s">
+        <v>586</v>
+      </c>
+      <c r="B14" s="30">
         <v>266</v>
       </c>
-      <c r="C14" s="45">
+      <c r="C14" s="30">
         <v>120</v>
       </c>
-      <c r="D14" s="42">
+      <c r="D14" s="27">
         <f t="shared" si="2"/>
         <v>6.4333333333333336</v>
       </c>
-      <c r="E14" s="45">
+      <c r="E14" s="30">
         <v>0</v>
       </c>
-      <c r="F14" s="43">
+      <c r="F14" s="28">
         <f t="shared" si="1"/>
         <v>6.4333333333333336</v>
       </c>
-      <c r="G14" s="43"/>
+      <c r="G14" s="28"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="44" t="s">
-        <v>588</v>
-      </c>
-      <c r="B15" s="45">
+      <c r="A15" s="29" t="s">
+        <v>587</v>
+      </c>
+      <c r="B15" s="30">
         <v>225</v>
       </c>
-      <c r="C15" s="45">
+      <c r="C15" s="30">
         <v>120</v>
       </c>
-      <c r="D15" s="42">
+      <c r="D15" s="27">
         <f t="shared" si="2"/>
         <v>5.75</v>
       </c>
-      <c r="E15" s="45">
+      <c r="E15" s="30">
         <v>0</v>
       </c>
-      <c r="F15" s="43">
+      <c r="F15" s="28">
         <f t="shared" si="1"/>
         <v>5.75</v>
       </c>
-      <c r="G15" s="43"/>
+      <c r="G15" s="28"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="44" t="s">
-        <v>589</v>
-      </c>
-      <c r="B16" s="45">
+      <c r="A16" s="29" t="s">
+        <v>588</v>
+      </c>
+      <c r="B16" s="30">
         <v>166</v>
       </c>
-      <c r="C16" s="45">
+      <c r="C16" s="30">
         <v>120</v>
       </c>
-      <c r="D16" s="42">
+      <c r="D16" s="27">
         <f t="shared" si="2"/>
         <v>4.7666666666666666</v>
       </c>
-      <c r="E16" s="45">
+      <c r="E16" s="30">
+        <v>2</v>
+      </c>
+      <c r="F16" s="28">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F16" s="43">
-        <f t="shared" si="1"/>
-        <v>4.7666666666666666</v>
-      </c>
-      <c r="G16" s="43"/>
+      <c r="G16" s="28"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="44" t="s">
-        <v>590</v>
-      </c>
-      <c r="B17" s="45">
+      <c r="A17" s="29" t="s">
+        <v>810</v>
+      </c>
+      <c r="B17" s="30">
+        <v>185</v>
+      </c>
+      <c r="C17" s="30">
+        <v>120</v>
+      </c>
+      <c r="D17" s="27">
+        <f t="shared" si="2"/>
+        <v>5.083333333333333</v>
+      </c>
+      <c r="E17" s="30">
+        <v>1</v>
+      </c>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="29" t="s">
+        <v>589</v>
+      </c>
+      <c r="B18" s="30">
         <v>174</v>
       </c>
-      <c r="C17" s="45">
+      <c r="C18" s="30">
         <v>120</v>
       </c>
-      <c r="D17" s="42">
+      <c r="D18" s="27">
         <f t="shared" si="2"/>
         <v>4.9000000000000004</v>
       </c>
-      <c r="E17" s="45">
+      <c r="E18" s="30">
         <v>0</v>
       </c>
-      <c r="F17" s="43">
+      <c r="F18" s="28">
         <f t="shared" si="1"/>
         <v>4.9000000000000004</v>
       </c>
-      <c r="G17" s="43"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="44" t="s">
-        <v>591</v>
-      </c>
-      <c r="B18" s="45">
+      <c r="G18" s="28"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="29" t="s">
+        <v>590</v>
+      </c>
+      <c r="B19" s="30">
         <v>141</v>
       </c>
-      <c r="C18" s="45">
+      <c r="C19" s="30">
         <v>120</v>
       </c>
-      <c r="D18" s="42">
+      <c r="D19" s="27">
         <f t="shared" si="2"/>
         <v>4.3499999999999996</v>
       </c>
-      <c r="E18" s="45">
+      <c r="E19" s="30">
         <v>0</v>
       </c>
-      <c r="F18" s="43">
+      <c r="F19" s="28">
         <f t="shared" si="1"/>
         <v>4.3499999999999996</v>
       </c>
-      <c r="G18" s="43"/>
-    </row>
-    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="44" t="s">
-        <v>592</v>
-      </c>
-      <c r="B19" s="45">
+      <c r="G19" s="28"/>
+    </row>
+    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="29" t="s">
+        <v>591</v>
+      </c>
+      <c r="B20" s="30">
         <v>92</v>
       </c>
-      <c r="C19" s="45">
+      <c r="C20" s="30">
         <v>120</v>
       </c>
-      <c r="D19" s="42">
+      <c r="D20" s="27">
         <f t="shared" si="2"/>
         <v>3.5333333333333332</v>
       </c>
-      <c r="E19" s="45">
+      <c r="E20" s="30">
         <v>0</v>
       </c>
-      <c r="F19" s="43">
+      <c r="F20" s="28">
         <f t="shared" si="1"/>
         <v>3.5333333333333332</v>
       </c>
-      <c r="G19" s="43"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="44" t="s">
-        <v>593</v>
-      </c>
-      <c r="B20" s="45">
+      <c r="G20" s="28"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="29" t="s">
+        <v>592</v>
+      </c>
+      <c r="B21" s="30">
         <v>59</v>
       </c>
-      <c r="C20" s="45">
+      <c r="C21" s="30">
         <v>120</v>
       </c>
-      <c r="D20" s="42">
+      <c r="D21" s="27">
         <f t="shared" si="2"/>
         <v>2.9833333333333334</v>
       </c>
-      <c r="E20" s="45">
+      <c r="E21" s="30">
+        <v>2</v>
+      </c>
+      <c r="F21" s="28">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F20" s="43">
-        <f t="shared" si="1"/>
-        <v>2.9833333333333334</v>
-      </c>
-      <c r="G20" s="43"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="44" t="s">
-        <v>594</v>
-      </c>
-      <c r="B21" s="45">
+      <c r="G21" s="28"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="29" t="s">
+        <v>593</v>
+      </c>
+      <c r="B22" s="30">
         <v>79</v>
       </c>
-      <c r="C21" s="45">
+      <c r="C22" s="30">
         <v>120</v>
       </c>
-      <c r="D21" s="42">
+      <c r="D22" s="27">
         <f t="shared" si="2"/>
         <v>3.3166666666666669</v>
       </c>
-      <c r="E21" s="45">
+      <c r="E22" s="30">
         <v>0</v>
       </c>
-      <c r="F21" s="43">
+      <c r="F22" s="28">
         <f t="shared" si="1"/>
         <v>3.3166666666666669</v>
       </c>
-      <c r="G21" s="43"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="44" t="s">
-        <v>595</v>
-      </c>
-      <c r="B22" s="45">
+      <c r="G22" s="28"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="29" t="s">
+        <v>594</v>
+      </c>
+      <c r="B23" s="30">
         <v>21</v>
       </c>
-      <c r="C22" s="45">
+      <c r="C23" s="30">
         <v>120</v>
       </c>
-      <c r="D22" s="42">
+      <c r="D23" s="27">
         <f t="shared" si="2"/>
         <v>2.35</v>
       </c>
-      <c r="E22" s="45">
+      <c r="E23" s="30">
         <v>0</v>
       </c>
-      <c r="F22" s="43">
+      <c r="F23" s="28">
         <f t="shared" si="1"/>
         <v>2.35</v>
       </c>
-      <c r="G22" s="43"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="44" t="s">
-        <v>596</v>
-      </c>
-      <c r="B23" s="45">
+      <c r="G23" s="28"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="29" t="s">
+        <v>595</v>
+      </c>
+      <c r="B24" s="30">
         <v>149</v>
       </c>
-      <c r="C23" s="45">
+      <c r="C24" s="30">
         <v>120</v>
       </c>
-      <c r="D23" s="42">
+      <c r="D24" s="27">
         <f t="shared" si="2"/>
         <v>4.4833333333333334</v>
       </c>
-      <c r="E23" s="45">
+      <c r="E24" s="30">
         <v>0</v>
       </c>
-      <c r="F23" s="43">
+      <c r="F24" s="28">
         <f t="shared" si="1"/>
         <v>4.4833333333333334</v>
       </c>
-      <c r="G23" s="43"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="44" t="s">
-        <v>597</v>
-      </c>
-      <c r="B24" s="45">
+      <c r="G24" s="28"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="29" t="s">
+        <v>596</v>
+      </c>
+      <c r="B25" s="30">
         <v>115</v>
       </c>
-      <c r="C24" s="45">
+      <c r="C25" s="30">
         <v>120</v>
       </c>
-      <c r="D24" s="42">
+      <c r="D25" s="27">
         <f t="shared" si="2"/>
         <v>3.9166666666666665</v>
       </c>
-      <c r="E24" s="45">
+      <c r="E25" s="30">
         <v>0</v>
       </c>
-      <c r="F24" s="43">
+      <c r="F25" s="28">
         <f t="shared" si="1"/>
         <v>3.9166666666666665</v>
       </c>
-      <c r="G24" s="43"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="44" t="s">
-        <v>598</v>
-      </c>
-      <c r="B25" s="45">
+      <c r="G25" s="28"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="29" t="s">
+        <v>597</v>
+      </c>
+      <c r="B26" s="30">
         <v>44</v>
       </c>
-      <c r="C25" s="45">
+      <c r="C26" s="30">
         <v>120</v>
       </c>
-      <c r="D25" s="42">
+      <c r="D26" s="27">
         <f t="shared" si="2"/>
         <v>2.7333333333333334</v>
       </c>
-      <c r="E25" s="45">
+      <c r="E26" s="30">
         <v>0</v>
       </c>
-      <c r="F25" s="43">
+      <c r="F26" s="28">
         <f t="shared" si="1"/>
         <v>2.7333333333333334</v>
       </c>
-      <c r="G25" s="43"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="44" t="s">
-        <v>599</v>
-      </c>
-      <c r="B26" s="45">
+      <c r="G26" s="28"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="29" t="s">
+        <v>598</v>
+      </c>
+      <c r="B27" s="30">
         <v>112</v>
       </c>
-      <c r="C26" s="45">
+      <c r="C27" s="30">
         <v>120</v>
       </c>
-      <c r="D26" s="42">
+      <c r="D27" s="27">
         <f t="shared" si="2"/>
         <v>3.8666666666666667</v>
       </c>
-      <c r="E26" s="45">
+      <c r="E27" s="30">
         <v>0</v>
       </c>
-      <c r="F26" s="43">
+      <c r="F27" s="28">
         <f t="shared" si="1"/>
         <v>3.8666666666666667</v>
       </c>
-      <c r="G26" s="43"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="44" t="s">
-        <v>600</v>
-      </c>
-      <c r="B27" s="45">
+      <c r="G27" s="28"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="29" t="s">
+        <v>599</v>
+      </c>
+      <c r="B28" s="30">
         <v>124</v>
       </c>
-      <c r="C27" s="45">
+      <c r="C28" s="30">
         <v>120</v>
       </c>
-      <c r="D27" s="42">
+      <c r="D28" s="27">
         <f t="shared" si="2"/>
         <v>4.0666666666666664</v>
       </c>
-      <c r="E27" s="45">
+      <c r="E28" s="30">
         <v>0</v>
       </c>
-      <c r="F27" s="43">
+      <c r="F28" s="28">
         <f t="shared" si="1"/>
         <v>4.0666666666666664</v>
       </c>
-      <c r="G27" s="43"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="44" t="s">
-        <v>601</v>
-      </c>
-      <c r="B28" s="45">
+      <c r="G28" s="28"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="29" t="s">
+        <v>600</v>
+      </c>
+      <c r="B29" s="30">
         <v>89</v>
       </c>
-      <c r="C28" s="45">
+      <c r="C29" s="30">
         <v>120</v>
       </c>
-      <c r="D28" s="42">
+      <c r="D29" s="27">
         <f t="shared" si="2"/>
         <v>3.4833333333333334</v>
       </c>
-      <c r="E28" s="45">
+      <c r="E29" s="30">
         <v>0</v>
       </c>
-      <c r="F28" s="43">
+      <c r="F29" s="28">
         <f t="shared" si="1"/>
         <v>3.4833333333333334</v>
       </c>
-      <c r="G28" s="43"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="44" t="s">
-        <v>602</v>
-      </c>
-      <c r="B29" s="45">
+      <c r="G29" s="28"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="29" t="s">
+        <v>601</v>
+      </c>
+      <c r="B30" s="30">
         <v>23</v>
       </c>
-      <c r="C29" s="45">
+      <c r="C30" s="30">
         <v>120</v>
       </c>
-      <c r="D29" s="42">
+      <c r="D30" s="27">
         <f t="shared" si="2"/>
         <v>2.3833333333333333</v>
       </c>
-      <c r="E29" s="45">
+      <c r="E30" s="30">
         <v>0</v>
       </c>
-      <c r="F29" s="43">
+      <c r="F30" s="28">
         <f t="shared" si="1"/>
         <v>2.3833333333333333</v>
       </c>
-      <c r="G29" s="43"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F30" s="43"/>
+      <c r="G30" s="28"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="82" t="s">
+      <c r="F31" s="28"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="92" t="s">
+        <v>608</v>
+      </c>
+      <c r="B32" s="92"/>
+      <c r="C32" s="92"/>
+      <c r="D32" s="92"/>
+      <c r="E32" s="92"/>
+      <c r="F32" s="28"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="29" t="s">
         <v>609</v>
       </c>
-      <c r="B31" s="82"/>
-      <c r="C31" s="82"/>
-      <c r="D31" s="82"/>
-      <c r="E31" s="82"/>
-      <c r="F31" s="43"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="44" t="s">
-        <v>610</v>
-      </c>
-      <c r="B32" s="46">
+      <c r="B33" s="31">
         <v>70</v>
       </c>
-      <c r="C32" s="46">
+      <c r="C33" s="31">
         <v>120</v>
       </c>
-      <c r="D32" s="42">
-        <f>(B32+C32)/60</f>
+      <c r="D33" s="27">
+        <f>(B33+C33)/60</f>
         <v>3.1666666666666665</v>
       </c>
-      <c r="E32" s="45">
+      <c r="E33" s="30">
         <v>0</v>
       </c>
-      <c r="F32" s="43">
+      <c r="F33" s="28">
         <f t="shared" si="1"/>
         <v>3.1666666666666665</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="44" t="s">
-        <v>611</v>
-      </c>
-      <c r="B33" s="46">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="29" t="s">
+        <v>610</v>
+      </c>
+      <c r="B34" s="31">
         <v>384</v>
       </c>
-      <c r="C33" s="46">
+      <c r="C34" s="31">
         <v>120</v>
       </c>
-      <c r="D33" s="42">
-        <f t="shared" ref="D33:D96" si="3">(B33+C33)/60</f>
+      <c r="D34" s="27">
+        <f t="shared" ref="D34:D97" si="3">(B34+C34)/60</f>
         <v>8.4</v>
       </c>
-      <c r="E33" s="45">
+      <c r="E34" s="30">
         <v>2</v>
       </c>
-      <c r="F33" s="43">
+      <c r="F34" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="44" t="s">
-        <v>587</v>
-      </c>
-      <c r="B34" s="46">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="29" t="s">
+        <v>586</v>
+      </c>
+      <c r="B35" s="31">
         <v>266</v>
       </c>
-      <c r="C34" s="46">
+      <c r="C35" s="31">
         <v>120</v>
       </c>
-      <c r="D34" s="42">
+      <c r="D35" s="27">
         <f t="shared" si="3"/>
         <v>6.4333333333333336</v>
       </c>
-      <c r="E34" s="45">
+      <c r="E35" s="30">
         <v>0</v>
       </c>
-      <c r="F34" s="43">
+      <c r="F35" s="28">
         <f t="shared" si="1"/>
         <v>6.4333333333333336</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="44" t="s">
-        <v>612</v>
-      </c>
-      <c r="B35" s="46">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="29" t="s">
+        <v>611</v>
+      </c>
+      <c r="B36" s="31">
         <v>44</v>
       </c>
-      <c r="C35" s="46">
+      <c r="C36" s="31">
         <v>120</v>
       </c>
-      <c r="D35" s="42">
+      <c r="D36" s="27">
         <f t="shared" si="3"/>
         <v>2.7333333333333334</v>
       </c>
-      <c r="E35" s="45">
+      <c r="E36" s="30">
         <v>0</v>
       </c>
-      <c r="F35" s="43">
+      <c r="F36" s="28">
         <f t="shared" si="1"/>
         <v>2.7333333333333334</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="44" t="s">
-        <v>613</v>
-      </c>
-      <c r="B36" s="46">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="29" t="s">
+        <v>612</v>
+      </c>
+      <c r="B37" s="31">
         <v>49</v>
       </c>
-      <c r="C36" s="46">
+      <c r="C37" s="31">
         <v>120</v>
       </c>
-      <c r="D36" s="42">
+      <c r="D37" s="27">
         <f t="shared" si="3"/>
         <v>2.8166666666666669</v>
       </c>
-      <c r="E36" s="45">
+      <c r="E37" s="30">
         <v>0</v>
       </c>
-      <c r="F36" s="43">
+      <c r="F37" s="28">
         <f t="shared" si="1"/>
         <v>2.8166666666666669</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="44" t="s">
-        <v>588</v>
-      </c>
-      <c r="B37" s="46">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="29" t="s">
+        <v>587</v>
+      </c>
+      <c r="B38" s="31">
         <v>225</v>
       </c>
-      <c r="C37" s="46">
+      <c r="C38" s="31">
         <v>120</v>
       </c>
-      <c r="D37" s="42">
+      <c r="D38" s="27">
         <f t="shared" si="3"/>
         <v>5.75</v>
       </c>
-      <c r="E37" s="45">
+      <c r="E38" s="30">
         <v>0</v>
       </c>
-      <c r="F37" s="43">
+      <c r="F38" s="28">
         <f t="shared" si="1"/>
         <v>5.75</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="44" t="s">
-        <v>614</v>
-      </c>
-      <c r="B38" s="46">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="29" t="s">
+        <v>613</v>
+      </c>
+      <c r="B39" s="31">
         <v>174</v>
       </c>
-      <c r="C38" s="46">
+      <c r="C39" s="31">
         <v>120</v>
       </c>
-      <c r="D38" s="42">
+      <c r="D39" s="27">
         <f t="shared" si="3"/>
         <v>4.9000000000000004</v>
       </c>
-      <c r="E38" s="45">
+      <c r="E39" s="30">
         <v>0</v>
       </c>
-      <c r="F38" s="43">
+      <c r="F39" s="28">
         <f t="shared" si="1"/>
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="44" t="s">
-        <v>596</v>
-      </c>
-      <c r="B39" s="46">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="29" t="s">
+        <v>595</v>
+      </c>
+      <c r="B40" s="31">
         <v>149</v>
       </c>
-      <c r="C39" s="46">
+      <c r="C40" s="31">
         <v>120</v>
       </c>
-      <c r="D39" s="42">
+      <c r="D40" s="27">
         <f t="shared" si="3"/>
         <v>4.4833333333333334</v>
       </c>
-      <c r="E39" s="45">
+      <c r="E40" s="30">
         <v>0</v>
       </c>
-      <c r="F39" s="43">
+      <c r="F40" s="28">
         <f t="shared" si="1"/>
         <v>4.4833333333333334</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="44" t="s">
-        <v>597</v>
-      </c>
-      <c r="B40" s="46">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="29" t="s">
+        <v>596</v>
+      </c>
+      <c r="B41" s="31">
         <v>115</v>
       </c>
-      <c r="C40" s="46">
+      <c r="C41" s="31">
         <v>120</v>
       </c>
-      <c r="D40" s="42">
+      <c r="D41" s="27">
         <f t="shared" si="3"/>
         <v>3.9166666666666665</v>
       </c>
-      <c r="E40" s="45">
+      <c r="E41" s="30">
         <v>0</v>
       </c>
-      <c r="F40" s="43">
+      <c r="F41" s="28">
         <f t="shared" si="1"/>
         <v>3.9166666666666665</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="44" t="s">
-        <v>615</v>
-      </c>
-      <c r="B41" s="46">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="29" t="s">
+        <v>614</v>
+      </c>
+      <c r="B42" s="31">
         <v>44</v>
       </c>
-      <c r="C41" s="46">
+      <c r="C42" s="31">
         <v>120</v>
       </c>
-      <c r="D41" s="42">
+      <c r="D42" s="27">
         <f t="shared" si="3"/>
         <v>2.7333333333333334</v>
       </c>
-      <c r="E41" s="45">
+      <c r="E42" s="30">
         <v>0</v>
       </c>
-      <c r="F41" s="43">
+      <c r="F42" s="28">
         <f t="shared" si="1"/>
         <v>2.7333333333333334</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="44" t="s">
-        <v>599</v>
-      </c>
-      <c r="B42" s="46">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="29" t="s">
+        <v>598</v>
+      </c>
+      <c r="B43" s="31">
         <v>112</v>
       </c>
-      <c r="C42" s="46">
+      <c r="C43" s="31">
         <v>120</v>
       </c>
-      <c r="D42" s="42">
+      <c r="D43" s="27">
         <f t="shared" si="3"/>
         <v>3.8666666666666667</v>
       </c>
-      <c r="E42" s="45">
+      <c r="E43" s="30">
         <v>0</v>
       </c>
-      <c r="F42" s="43">
+      <c r="F43" s="28">
         <f t="shared" si="1"/>
         <v>3.8666666666666667</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="44" t="s">
-        <v>616</v>
-      </c>
-      <c r="B43" s="46">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="29" t="s">
+        <v>615</v>
+      </c>
+      <c r="B44" s="31">
         <v>132</v>
       </c>
-      <c r="C43" s="46">
+      <c r="C44" s="31">
         <v>120</v>
       </c>
-      <c r="D43" s="42">
+      <c r="D44" s="27">
         <f t="shared" si="3"/>
         <v>4.2</v>
       </c>
-      <c r="E43" s="45">
+      <c r="E44" s="30">
         <v>0</v>
       </c>
-      <c r="F43" s="43">
+      <c r="F44" s="28">
         <f t="shared" si="1"/>
         <v>4.2</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="44" t="s">
-        <v>617</v>
-      </c>
-      <c r="B44" s="46">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="29" t="s">
+        <v>616</v>
+      </c>
+      <c r="B45" s="31">
         <v>112</v>
       </c>
-      <c r="C44" s="46">
+      <c r="C45" s="31">
         <v>120</v>
       </c>
-      <c r="D44" s="42">
+      <c r="D45" s="27">
         <f t="shared" si="3"/>
         <v>3.8666666666666667</v>
       </c>
-      <c r="E44" s="45">
+      <c r="E45" s="30">
         <v>0</v>
       </c>
-      <c r="F44" s="43">
+      <c r="F45" s="28">
         <f t="shared" si="1"/>
         <v>3.8666666666666667</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="44" t="s">
-        <v>618</v>
-      </c>
-      <c r="B45" s="46">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="29" t="s">
+        <v>617</v>
+      </c>
+      <c r="B46" s="31">
         <v>138</v>
       </c>
-      <c r="C45" s="46">
+      <c r="C46" s="31">
         <v>120</v>
       </c>
-      <c r="D45" s="42">
+      <c r="D46" s="27">
         <f t="shared" si="3"/>
         <v>4.3</v>
       </c>
-      <c r="E45" s="45">
+      <c r="E46" s="30">
         <v>0</v>
       </c>
-      <c r="F45" s="43">
+      <c r="F46" s="28">
         <f t="shared" si="1"/>
         <v>4.3</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="44" t="s">
-        <v>619</v>
-      </c>
-      <c r="B46" s="46">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="29" t="s">
+        <v>618</v>
+      </c>
+      <c r="B47" s="31">
         <v>25</v>
       </c>
-      <c r="C46" s="46">
+      <c r="C47" s="31">
         <v>120</v>
       </c>
-      <c r="D46" s="42">
+      <c r="D47" s="27">
         <f t="shared" si="3"/>
         <v>2.4166666666666665</v>
       </c>
-      <c r="E46" s="45">
+      <c r="E47" s="30">
         <v>0</v>
       </c>
-      <c r="F46" s="43">
+      <c r="F47" s="28">
         <f t="shared" si="1"/>
         <v>2.4166666666666665</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="44" t="s">
-        <v>620</v>
-      </c>
-      <c r="B47" s="46">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="29" t="s">
+        <v>619</v>
+      </c>
+      <c r="B48" s="31">
         <v>122</v>
       </c>
-      <c r="C47" s="46">
+      <c r="C48" s="31">
         <v>120</v>
       </c>
-      <c r="D47" s="42">
+      <c r="D48" s="27">
         <f t="shared" si="3"/>
         <v>4.0333333333333332</v>
       </c>
-      <c r="E47" s="45">
+      <c r="E48" s="30">
         <v>0</v>
       </c>
-      <c r="F47" s="43">
+      <c r="F48" s="28">
         <f t="shared" si="1"/>
         <v>4.0333333333333332</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="44" t="s">
-        <v>621</v>
-      </c>
-      <c r="B48" s="46">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="29" t="s">
+        <v>620</v>
+      </c>
+      <c r="B49" s="31">
         <v>76</v>
       </c>
-      <c r="C48" s="46">
+      <c r="C49" s="31">
         <v>120</v>
       </c>
-      <c r="D48" s="42">
+      <c r="D49" s="27">
         <f t="shared" si="3"/>
         <v>3.2666666666666666</v>
       </c>
-      <c r="E48" s="45">
+      <c r="E49" s="30">
         <v>0</v>
       </c>
-      <c r="F48" s="43">
+      <c r="F49" s="28">
         <f t="shared" si="1"/>
         <v>3.2666666666666666</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="44" t="s">
-        <v>631</v>
-      </c>
-      <c r="B49" s="46">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="29" t="s">
+        <v>630</v>
+      </c>
+      <c r="B50" s="31">
         <v>14</v>
       </c>
-      <c r="C49" s="46">
+      <c r="C50" s="31">
         <v>120</v>
       </c>
-      <c r="D49" s="42">
+      <c r="D50" s="27">
         <f t="shared" si="3"/>
         <v>2.2333333333333334</v>
       </c>
-      <c r="E49" s="45">
+      <c r="E50" s="30">
         <v>0</v>
       </c>
-      <c r="F49" s="43">
+      <c r="F50" s="28">
         <f t="shared" si="1"/>
         <v>2.2333333333333334</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="44" t="s">
-        <v>622</v>
-      </c>
-      <c r="B50" s="46">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="29" t="s">
+        <v>621</v>
+      </c>
+      <c r="B51" s="31">
         <v>247</v>
       </c>
-      <c r="C50" s="46">
+      <c r="C51" s="31">
         <v>120</v>
       </c>
-      <c r="D50" s="42">
+      <c r="D51" s="27">
         <f t="shared" si="3"/>
         <v>6.1166666666666663</v>
       </c>
-      <c r="E50" s="45">
+      <c r="E51" s="30">
         <v>0</v>
       </c>
-      <c r="F50" s="43">
+      <c r="F51" s="28">
         <f t="shared" si="1"/>
         <v>6.1166666666666663</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="44" t="s">
-        <v>623</v>
-      </c>
-      <c r="B51" s="46">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="29" t="s">
+        <v>622</v>
+      </c>
+      <c r="B52" s="31">
         <v>22</v>
       </c>
-      <c r="C51" s="46">
+      <c r="C52" s="31">
         <v>120</v>
       </c>
-      <c r="D51" s="42">
+      <c r="D52" s="27">
         <f t="shared" si="3"/>
         <v>2.3666666666666667</v>
       </c>
-      <c r="E51" s="45">
+      <c r="E52" s="30">
         <v>0</v>
       </c>
-      <c r="F51" s="43">
+      <c r="F52" s="28">
         <f t="shared" si="1"/>
         <v>2.3666666666666667</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="44" t="s">
-        <v>624</v>
-      </c>
-      <c r="B52" s="45">
+    <row r="53" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="29" t="s">
+        <v>623</v>
+      </c>
+      <c r="B53" s="30">
         <v>18</v>
       </c>
-      <c r="C52" s="46">
+      <c r="C53" s="31">
         <v>120</v>
       </c>
-      <c r="D52" s="42">
+      <c r="D53" s="27">
         <f t="shared" si="3"/>
         <v>2.2999999999999998</v>
       </c>
-      <c r="E52" s="45">
+      <c r="E53" s="30">
         <v>0</v>
       </c>
-      <c r="F52" s="43">
+      <c r="F53" s="28">
         <f t="shared" si="1"/>
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="44" t="s">
-        <v>625</v>
-      </c>
-      <c r="B53" s="45">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="29" t="s">
+        <v>624</v>
+      </c>
+      <c r="B54" s="30">
         <v>24</v>
       </c>
-      <c r="C53" s="46">
+      <c r="C54" s="31">
         <v>120</v>
       </c>
-      <c r="D53" s="42">
+      <c r="D54" s="27">
         <f t="shared" si="3"/>
         <v>2.4</v>
       </c>
-      <c r="E53" s="45">
+      <c r="E54" s="30">
         <v>0</v>
       </c>
-      <c r="F53" s="43">
+      <c r="F54" s="28">
         <f t="shared" si="1"/>
         <v>2.4</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="44" t="s">
-        <v>626</v>
-      </c>
-      <c r="B54" s="45">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="29" t="s">
+        <v>625</v>
+      </c>
+      <c r="B55" s="30">
         <v>101</v>
       </c>
-      <c r="C54" s="46">
+      <c r="C55" s="31">
         <v>120</v>
       </c>
-      <c r="D54" s="42">
+      <c r="D55" s="27">
         <f t="shared" si="3"/>
         <v>3.6833333333333331</v>
       </c>
-      <c r="E54" s="45">
+      <c r="E55" s="30">
         <v>0</v>
       </c>
-      <c r="F54" s="43">
+      <c r="F55" s="28">
         <f t="shared" si="1"/>
         <v>3.6833333333333331</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="44" t="s">
-        <v>627</v>
-      </c>
-      <c r="B55" s="45">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="29" t="s">
+        <v>626</v>
+      </c>
+      <c r="B56" s="30">
         <v>172</v>
       </c>
-      <c r="C55" s="46">
+      <c r="C56" s="31">
         <v>120</v>
       </c>
-      <c r="D55" s="42">
+      <c r="D56" s="27">
         <f t="shared" si="3"/>
         <v>4.8666666666666663</v>
       </c>
-      <c r="E55" s="45">
+      <c r="E56" s="30">
         <v>0</v>
       </c>
-      <c r="F55" s="43">
+      <c r="F56" s="28">
         <f t="shared" si="1"/>
         <v>4.8666666666666663</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="44" t="s">
-        <v>628</v>
-      </c>
-      <c r="B56" s="45">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="29" t="s">
+        <v>627</v>
+      </c>
+      <c r="B57" s="30">
         <v>80</v>
       </c>
-      <c r="C56" s="46">
+      <c r="C57" s="31">
         <v>120</v>
       </c>
-      <c r="D56" s="42">
+      <c r="D57" s="27">
         <f t="shared" si="3"/>
         <v>3.3333333333333335</v>
       </c>
-      <c r="E56" s="45">
+      <c r="E57" s="30">
         <v>0</v>
       </c>
-      <c r="F56" s="43">
+      <c r="F57" s="28">
         <f t="shared" si="1"/>
         <v>3.3333333333333335</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="44" t="s">
-        <v>629</v>
-      </c>
-      <c r="B57" s="45">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="29" t="s">
+        <v>628</v>
+      </c>
+      <c r="B58" s="30">
         <v>100</v>
       </c>
-      <c r="C57" s="46">
+      <c r="C58" s="31">
         <v>120</v>
       </c>
-      <c r="D57" s="42">
+      <c r="D58" s="27">
         <f t="shared" si="3"/>
         <v>3.6666666666666665</v>
       </c>
-      <c r="E57" s="45">
+      <c r="E58" s="30">
         <v>0</v>
       </c>
-      <c r="F57" s="43">
+      <c r="F58" s="28">
         <f t="shared" si="1"/>
         <v>3.6666666666666665</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="44" t="s">
-        <v>630</v>
-      </c>
-      <c r="B58" s="45">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="29" t="s">
+        <v>629</v>
+      </c>
+      <c r="B59" s="30">
         <v>37</v>
       </c>
-      <c r="C58" s="46">
+      <c r="C59" s="31">
         <v>120</v>
       </c>
-      <c r="D58" s="42">
+      <c r="D59" s="27">
         <f t="shared" si="3"/>
         <v>2.6166666666666667</v>
       </c>
-      <c r="E58" s="45">
+      <c r="E59" s="30">
         <v>0</v>
       </c>
-      <c r="F58" s="43">
+      <c r="F59" s="28">
         <f t="shared" si="1"/>
         <v>2.6166666666666667</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D59" s="50"/>
-      <c r="E59" s="51"/>
-      <c r="F59" s="52"/>
-    </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="82" t="s">
+      <c r="D60" s="35"/>
+      <c r="E60" s="36"/>
+      <c r="F60" s="37"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="92" t="s">
+        <v>639</v>
+      </c>
+      <c r="B61" s="92"/>
+      <c r="C61" s="92"/>
+      <c r="D61" s="92"/>
+      <c r="E61" s="92"/>
+      <c r="F61" s="40"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="29" t="s">
         <v>640</v>
       </c>
-      <c r="B60" s="82"/>
-      <c r="C60" s="82"/>
-      <c r="D60" s="82"/>
-      <c r="E60" s="82"/>
-      <c r="F60" s="55"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="44" t="s">
-        <v>641</v>
-      </c>
-      <c r="B61" s="45">
+      <c r="B62" s="30">
         <v>55</v>
       </c>
-      <c r="C61" s="46">
+      <c r="C62" s="31">
         <v>120</v>
       </c>
-      <c r="D61" s="42">
+      <c r="D62" s="27">
         <f t="shared" si="3"/>
         <v>2.9166666666666665</v>
       </c>
-      <c r="E61" s="45">
+      <c r="E62" s="30">
         <v>0</v>
       </c>
-      <c r="F61" s="43">
+      <c r="F62" s="28">
         <f t="shared" si="1"/>
         <v>2.9166666666666665</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="44" t="s">
-        <v>642</v>
-      </c>
-      <c r="B62" s="45">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="29" t="s">
+        <v>641</v>
+      </c>
+      <c r="B63" s="30">
         <v>167</v>
       </c>
-      <c r="C62" s="46">
+      <c r="C63" s="31">
         <v>120</v>
       </c>
-      <c r="D62" s="42">
+      <c r="D63" s="27">
         <f t="shared" si="3"/>
         <v>4.7833333333333332</v>
       </c>
-      <c r="E62" s="45">
+      <c r="E63" s="30">
         <v>0</v>
       </c>
-      <c r="F62" s="43">
+      <c r="F63" s="28">
         <f t="shared" si="1"/>
         <v>4.7833333333333332</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="44" t="s">
-        <v>643</v>
-      </c>
-      <c r="B63" s="45">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="B64" s="30">
         <v>172</v>
       </c>
-      <c r="C63" s="46">
+      <c r="C64" s="31">
         <v>120</v>
       </c>
-      <c r="D63" s="42">
+      <c r="D64" s="27">
         <f t="shared" si="3"/>
         <v>4.8666666666666663</v>
       </c>
-      <c r="E63" s="45">
+      <c r="E64" s="30">
         <v>0</v>
       </c>
-      <c r="F63" s="43">
+      <c r="F64" s="28">
         <f t="shared" si="1"/>
         <v>4.8666666666666663</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="44" t="s">
-        <v>644</v>
-      </c>
-      <c r="B64" s="45">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="29" t="s">
+        <v>643</v>
+      </c>
+      <c r="B65" s="30">
         <v>71</v>
       </c>
-      <c r="C64" s="46">
+      <c r="C65" s="31">
         <v>120</v>
       </c>
-      <c r="D64" s="42">
+      <c r="D65" s="27">
         <f t="shared" si="3"/>
         <v>3.1833333333333331</v>
       </c>
-      <c r="E64" s="45">
+      <c r="E65" s="30">
         <v>0</v>
       </c>
-      <c r="F64" s="43">
+      <c r="F65" s="28">
         <f t="shared" si="1"/>
         <v>3.1833333333333331</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="44" t="s">
-        <v>645</v>
-      </c>
-      <c r="B65" s="45">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="29" t="s">
+        <v>644</v>
+      </c>
+      <c r="B66" s="30">
         <v>102</v>
       </c>
-      <c r="C65" s="46">
+      <c r="C66" s="31">
         <v>120</v>
       </c>
-      <c r="D65" s="42">
+      <c r="D66" s="27">
         <f t="shared" si="3"/>
         <v>3.7</v>
       </c>
-      <c r="E65" s="45">
+      <c r="E66" s="30">
         <v>0</v>
       </c>
-      <c r="F65" s="43">
+      <c r="F66" s="28">
         <f t="shared" si="1"/>
         <v>3.7</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="44" t="s">
-        <v>646</v>
-      </c>
-      <c r="B66" s="45">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="29" t="s">
+        <v>645</v>
+      </c>
+      <c r="B67" s="30">
         <v>260</v>
       </c>
-      <c r="C66" s="46">
+      <c r="C67" s="31">
         <v>120</v>
       </c>
-      <c r="D66" s="42">
+      <c r="D67" s="27">
         <f t="shared" si="3"/>
         <v>6.333333333333333</v>
       </c>
-      <c r="E66" s="45">
+      <c r="E67" s="30">
         <v>0</v>
       </c>
-      <c r="F66" s="43">
+      <c r="F67" s="28">
         <f t="shared" si="1"/>
         <v>6.333333333333333</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="44" t="s">
-        <v>647</v>
-      </c>
-      <c r="B67" s="45">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="29" t="s">
+        <v>646</v>
+      </c>
+      <c r="B68" s="30">
         <v>140</v>
       </c>
-      <c r="C67" s="46">
+      <c r="C68" s="31">
         <v>120</v>
       </c>
-      <c r="D67" s="42">
+      <c r="D68" s="27">
         <f t="shared" si="3"/>
         <v>4.333333333333333</v>
       </c>
-      <c r="E67" s="45">
+      <c r="E68" s="30">
         <v>0</v>
       </c>
-      <c r="F67" s="43">
+      <c r="F68" s="28">
         <f t="shared" si="1"/>
         <v>4.333333333333333</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="44" t="s">
-        <v>648</v>
-      </c>
-      <c r="B68" s="45">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="29" t="s">
+        <v>647</v>
+      </c>
+      <c r="B69" s="30">
         <v>56</v>
       </c>
-      <c r="C68" s="46">
+      <c r="C69" s="31">
         <v>120</v>
       </c>
-      <c r="D68" s="42">
+      <c r="D69" s="27">
         <f t="shared" si="3"/>
         <v>2.9333333333333331</v>
       </c>
-      <c r="E68" s="45">
+      <c r="E69" s="30">
         <v>0</v>
       </c>
-      <c r="F68" s="43">
+      <c r="F69" s="28">
         <f t="shared" si="1"/>
         <v>2.9333333333333331</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="44" t="s">
-        <v>649</v>
-      </c>
-      <c r="B69" s="45">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="29" t="s">
+        <v>648</v>
+      </c>
+      <c r="B70" s="30">
         <v>94</v>
       </c>
-      <c r="C69" s="46">
+      <c r="C70" s="31">
         <v>120</v>
       </c>
-      <c r="D69" s="42">
+      <c r="D70" s="27">
         <f t="shared" si="3"/>
         <v>3.5666666666666669</v>
       </c>
-      <c r="E69" s="45">
+      <c r="E70" s="30">
         <v>0</v>
       </c>
-      <c r="F69" s="43">
-        <f t="shared" ref="F69:F74" si="4">IF(E69=0, D69, IF(E69=1,D69,0))</f>
+      <c r="F70" s="28">
+        <f t="shared" ref="F70:F75" si="4">IF(E70=0, D70, IF(E70=1,D70,0))</f>
         <v>3.5666666666666669</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="44" t="s">
-        <v>650</v>
-      </c>
-      <c r="B70" s="45">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="29" t="s">
+        <v>649</v>
+      </c>
+      <c r="B71" s="30">
         <v>90</v>
       </c>
-      <c r="C70" s="46">
+      <c r="C71" s="31">
         <v>120</v>
       </c>
-      <c r="D70" s="42">
+      <c r="D71" s="27">
         <f t="shared" si="3"/>
         <v>3.5</v>
       </c>
-      <c r="E70" s="45">
+      <c r="E71" s="30">
         <v>0</v>
       </c>
-      <c r="F70" s="43">
+      <c r="F71" s="28">
         <f t="shared" si="4"/>
         <v>3.5</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="44" t="s">
-        <v>651</v>
-      </c>
-      <c r="B71" s="45">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="29" t="s">
+        <v>650</v>
+      </c>
+      <c r="B72" s="30">
         <v>122</v>
       </c>
-      <c r="C71" s="46">
+      <c r="C72" s="31">
         <v>120</v>
       </c>
-      <c r="D71" s="42">
+      <c r="D72" s="27">
         <f t="shared" si="3"/>
         <v>4.0333333333333332</v>
       </c>
-      <c r="E71" s="45">
+      <c r="E72" s="30">
         <v>0</v>
       </c>
-      <c r="F71" s="43">
+      <c r="F72" s="28">
         <f t="shared" si="4"/>
         <v>4.0333333333333332</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="44" t="s">
-        <v>652</v>
-      </c>
-      <c r="B72" s="45">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="29" t="s">
+        <v>651</v>
+      </c>
+      <c r="B73" s="30">
         <v>43</v>
       </c>
-      <c r="C72" s="46">
+      <c r="C73" s="31">
         <v>120</v>
       </c>
-      <c r="D72" s="42">
+      <c r="D73" s="27">
         <f t="shared" si="3"/>
         <v>2.7166666666666668</v>
       </c>
-      <c r="E72" s="45">
+      <c r="E73" s="30">
         <v>0</v>
       </c>
-      <c r="F72" s="43">
+      <c r="F73" s="28">
         <f t="shared" si="4"/>
         <v>2.7166666666666668</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="44" t="s">
-        <v>653</v>
-      </c>
-      <c r="B73" s="45">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="29" t="s">
+        <v>652</v>
+      </c>
+      <c r="B74" s="30">
         <v>76</v>
       </c>
-      <c r="C73" s="46">
+      <c r="C74" s="31">
         <v>120</v>
       </c>
-      <c r="D73" s="42">
+      <c r="D74" s="27">
         <f t="shared" si="3"/>
         <v>3.2666666666666666</v>
       </c>
-      <c r="E73" s="45">
+      <c r="E74" s="30">
         <v>0</v>
       </c>
-      <c r="F73" s="43">
+      <c r="F74" s="28">
         <f t="shared" si="4"/>
         <v>3.2666666666666666</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="44" t="s">
-        <v>654</v>
-      </c>
-      <c r="B74" s="45">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="29" t="s">
+        <v>653</v>
+      </c>
+      <c r="B75" s="30">
         <v>145</v>
       </c>
-      <c r="C74" s="46">
+      <c r="C75" s="31">
         <v>120</v>
       </c>
-      <c r="D74" s="42">
+      <c r="D75" s="27">
         <f t="shared" si="3"/>
         <v>4.416666666666667</v>
       </c>
-      <c r="E74" s="45">
+      <c r="E75" s="30">
         <v>0</v>
       </c>
-      <c r="F74" s="43">
+      <c r="F75" s="28">
         <f t="shared" si="4"/>
         <v>4.416666666666667</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D75" s="50"/>
-      <c r="E75" s="51"/>
-      <c r="F75" s="52"/>
-    </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="82" t="s">
-        <v>656</v>
-      </c>
-      <c r="B76" s="82"/>
-      <c r="C76" s="82"/>
-      <c r="D76" s="82"/>
-      <c r="E76" s="82"/>
-      <c r="F76" s="82"/>
+      <c r="D76" s="35"/>
+      <c r="E76" s="36"/>
+      <c r="F76" s="37"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="53" t="s">
-        <v>632</v>
-      </c>
-      <c r="B77" s="49">
+      <c r="A77" s="92" t="s">
+        <v>655</v>
+      </c>
+      <c r="B77" s="92"/>
+      <c r="C77" s="92"/>
+      <c r="D77" s="92"/>
+      <c r="E77" s="92"/>
+      <c r="F77" s="92"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="38" t="s">
+        <v>631</v>
+      </c>
+      <c r="B78" s="34">
         <v>134</v>
       </c>
-      <c r="C77" s="54">
+      <c r="C78" s="39">
         <v>120</v>
       </c>
-      <c r="D77" s="48">
+      <c r="D78" s="33">
         <f t="shared" si="3"/>
         <v>4.2333333333333334</v>
       </c>
-      <c r="E77" s="49">
+      <c r="E78" s="34">
         <v>2</v>
       </c>
-      <c r="F77" s="43">
-        <f t="shared" ref="F77:F100" si="5">IF(E77=0, D77, IF(E77=1,D77,0))</f>
+      <c r="F78" s="28">
+        <f t="shared" ref="F78:F101" si="5">IF(E78=0, D78, IF(E78=1,D78,0))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="44" t="s">
-        <v>657</v>
-      </c>
-      <c r="B78" s="45">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="29" t="s">
+        <v>656</v>
+      </c>
+      <c r="B79" s="30">
         <v>159</v>
       </c>
-      <c r="C78" s="46">
+      <c r="C79" s="31">
         <v>120</v>
       </c>
-      <c r="D78" s="42">
+      <c r="D79" s="27">
         <f t="shared" si="3"/>
         <v>4.6500000000000004</v>
       </c>
-      <c r="E78" s="45">
+      <c r="E79" s="30">
         <v>0</v>
       </c>
-      <c r="F78" s="43">
+      <c r="F79" s="28">
         <f t="shared" si="5"/>
         <v>4.6500000000000004</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="44" t="s">
-        <v>633</v>
-      </c>
-      <c r="B79" s="45">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="29" t="s">
+        <v>632</v>
+      </c>
+      <c r="B80" s="30">
         <v>183</v>
       </c>
-      <c r="C79" s="46">
+      <c r="C80" s="31">
         <v>120</v>
       </c>
-      <c r="D79" s="42">
+      <c r="D80" s="27">
         <f t="shared" si="3"/>
         <v>5.05</v>
       </c>
-      <c r="E79" s="45">
+      <c r="E80" s="30">
         <v>2</v>
       </c>
-      <c r="F79" s="43">
+      <c r="F80" s="28">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="44" t="s">
-        <v>658</v>
-      </c>
-      <c r="B80" s="45">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="29" t="s">
+        <v>657</v>
+      </c>
+      <c r="B81" s="30">
         <v>193</v>
       </c>
-      <c r="C80" s="46">
+      <c r="C81" s="31">
         <v>120</v>
       </c>
-      <c r="D80" s="42">
+      <c r="D81" s="27">
         <f t="shared" si="3"/>
         <v>5.2166666666666668</v>
       </c>
-      <c r="E80" s="45">
+      <c r="E81" s="30">
         <v>0</v>
       </c>
-      <c r="F80" s="43">
+      <c r="F81" s="28">
         <f t="shared" si="5"/>
         <v>5.2166666666666668</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="44" t="s">
-        <v>659</v>
-      </c>
-      <c r="B81" s="45">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="29" t="s">
+        <v>658</v>
+      </c>
+      <c r="B82" s="30">
         <v>66</v>
       </c>
-      <c r="C81" s="46">
+      <c r="C82" s="31">
         <v>120</v>
       </c>
-      <c r="D81" s="42">
+      <c r="D82" s="27">
         <f t="shared" si="3"/>
         <v>3.1</v>
       </c>
-      <c r="E81" s="45">
+      <c r="E82" s="30">
         <v>0</v>
       </c>
-      <c r="F81" s="43">
+      <c r="F82" s="28">
         <f t="shared" si="5"/>
         <v>3.1</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="44" t="s">
-        <v>660</v>
-      </c>
-      <c r="B82" s="45">
-        <v>6</v>
-      </c>
-      <c r="C82" s="46">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="29" t="s">
+        <v>659</v>
+      </c>
+      <c r="B83" s="30">
+        <v>6</v>
+      </c>
+      <c r="C83" s="31">
         <v>120</v>
       </c>
-      <c r="D82" s="42">
+      <c r="D83" s="27">
         <f t="shared" si="3"/>
         <v>2.1</v>
       </c>
-      <c r="E82" s="45">
+      <c r="E83" s="30">
         <v>0</v>
       </c>
-      <c r="F82" s="43">
+      <c r="F83" s="28">
         <f t="shared" si="5"/>
         <v>2.1</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="44" t="s">
-        <v>661</v>
-      </c>
-      <c r="B83" s="45">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="29" t="s">
+        <v>660</v>
+      </c>
+      <c r="B84" s="30">
         <v>34</v>
       </c>
-      <c r="C83" s="46">
+      <c r="C84" s="31">
         <v>120</v>
       </c>
-      <c r="D83" s="42">
+      <c r="D84" s="27">
         <f t="shared" si="3"/>
         <v>2.5666666666666669</v>
       </c>
-      <c r="E83" s="45">
+      <c r="E84" s="30">
         <v>0</v>
       </c>
-      <c r="F83" s="43">
+      <c r="F84" s="28">
         <f t="shared" si="5"/>
         <v>2.5666666666666669</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="44" t="s">
-        <v>662</v>
-      </c>
-      <c r="B84" s="45">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="29" t="s">
+        <v>661</v>
+      </c>
+      <c r="B85" s="30">
         <v>165</v>
       </c>
-      <c r="C84" s="46">
+      <c r="C85" s="31">
         <v>120</v>
       </c>
-      <c r="D84" s="42">
+      <c r="D85" s="27">
         <f t="shared" si="3"/>
         <v>4.75</v>
       </c>
-      <c r="E84" s="45">
+      <c r="E85" s="30">
         <v>0</v>
       </c>
-      <c r="F84" s="43">
+      <c r="F85" s="28">
         <f t="shared" si="5"/>
         <v>4.75</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="44" t="s">
-        <v>663</v>
-      </c>
-      <c r="B85" s="45">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="29" t="s">
+        <v>662</v>
+      </c>
+      <c r="B86" s="30">
         <v>44</v>
       </c>
-      <c r="C85" s="46">
+      <c r="C86" s="31">
         <v>120</v>
       </c>
-      <c r="D85" s="42">
+      <c r="D86" s="27">
         <f t="shared" si="3"/>
         <v>2.7333333333333334</v>
       </c>
-      <c r="E85" s="45">
+      <c r="E86" s="30">
         <v>0</v>
       </c>
-      <c r="F85" s="43">
+      <c r="F86" s="28">
         <f t="shared" si="5"/>
         <v>2.7333333333333334</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="44" t="s">
-        <v>664</v>
-      </c>
-      <c r="B86" s="45">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="29" t="s">
+        <v>663</v>
+      </c>
+      <c r="B87" s="30">
         <v>203</v>
       </c>
-      <c r="C86" s="46">
+      <c r="C87" s="31">
         <v>120</v>
       </c>
-      <c r="D86" s="42">
+      <c r="D87" s="27">
         <f t="shared" si="3"/>
         <v>5.3833333333333337</v>
       </c>
-      <c r="E86" s="45">
+      <c r="E87" s="30">
         <v>0</v>
       </c>
-      <c r="F86" s="43">
+      <c r="F87" s="28">
         <f t="shared" si="5"/>
         <v>5.3833333333333337</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="44" t="s">
-        <v>665</v>
-      </c>
-      <c r="B87" s="45">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="29" t="s">
+        <v>664</v>
+      </c>
+      <c r="B88" s="30">
         <v>83</v>
       </c>
-      <c r="C87" s="46">
+      <c r="C88" s="31">
         <v>120</v>
       </c>
-      <c r="D87" s="42">
+      <c r="D88" s="27">
         <f t="shared" si="3"/>
         <v>3.3833333333333333</v>
       </c>
-      <c r="E87" s="45">
+      <c r="E88" s="30">
         <v>0</v>
       </c>
-      <c r="F87" s="43">
+      <c r="F88" s="28">
         <f t="shared" si="5"/>
         <v>3.3833333333333333</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="44" t="s">
-        <v>666</v>
-      </c>
-      <c r="B88" s="45">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="29" t="s">
+        <v>665</v>
+      </c>
+      <c r="B89" s="30">
         <v>137</v>
       </c>
-      <c r="C88" s="46">
+      <c r="C89" s="31">
         <v>120</v>
       </c>
-      <c r="D88" s="42">
+      <c r="D89" s="27">
         <f t="shared" si="3"/>
         <v>4.2833333333333332</v>
       </c>
-      <c r="E88" s="45">
+      <c r="E89" s="30">
         <v>0</v>
       </c>
-      <c r="F88" s="43">
+      <c r="F89" s="28">
         <f t="shared" si="5"/>
         <v>4.2833333333333332</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="44" t="s">
-        <v>667</v>
-      </c>
-      <c r="B89" s="45">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="29" t="s">
+        <v>666</v>
+      </c>
+      <c r="B90" s="30">
         <v>21</v>
       </c>
-      <c r="C89" s="46">
+      <c r="C90" s="31">
         <v>120</v>
       </c>
-      <c r="D89" s="42">
+      <c r="D90" s="27">
         <f t="shared" si="3"/>
         <v>2.35</v>
       </c>
-      <c r="E89" s="45">
+      <c r="E90" s="30">
         <v>0</v>
       </c>
-      <c r="F89" s="43">
+      <c r="F90" s="28">
         <f t="shared" si="5"/>
         <v>2.35</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="44" t="s">
-        <v>668</v>
-      </c>
-      <c r="B90" s="45">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="29" t="s">
+        <v>667</v>
+      </c>
+      <c r="B91" s="30">
         <v>18</v>
       </c>
-      <c r="C90" s="46">
+      <c r="C91" s="31">
         <v>120</v>
       </c>
-      <c r="D90" s="42">
+      <c r="D91" s="27">
         <f t="shared" si="3"/>
         <v>2.2999999999999998</v>
       </c>
-      <c r="E90" s="45">
+      <c r="E91" s="30">
         <v>0</v>
       </c>
-      <c r="F90" s="43">
+      <c r="F91" s="28">
         <f t="shared" si="5"/>
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="44" t="s">
-        <v>669</v>
-      </c>
-      <c r="B91" s="45">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="29" t="s">
+        <v>668</v>
+      </c>
+      <c r="B92" s="30">
         <v>26</v>
       </c>
-      <c r="C91" s="46">
+      <c r="C92" s="31">
         <v>120</v>
       </c>
-      <c r="D91" s="42">
+      <c r="D92" s="27">
         <f t="shared" si="3"/>
         <v>2.4333333333333331</v>
       </c>
-      <c r="E91" s="45">
+      <c r="E92" s="30">
         <v>0</v>
       </c>
-      <c r="F91" s="43">
+      <c r="F92" s="28">
         <f t="shared" si="5"/>
         <v>2.4333333333333331</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="44" t="s">
-        <v>670</v>
-      </c>
-      <c r="B92" s="45">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="29" t="s">
+        <v>669</v>
+      </c>
+      <c r="B93" s="30">
         <v>72</v>
       </c>
-      <c r="C92" s="46">
+      <c r="C93" s="31">
         <v>120</v>
       </c>
-      <c r="D92" s="42">
+      <c r="D93" s="27">
         <f t="shared" si="3"/>
         <v>3.2</v>
       </c>
-      <c r="E92" s="45">
+      <c r="E93" s="30">
         <v>0</v>
       </c>
-      <c r="F92" s="43">
+      <c r="F93" s="28">
         <f t="shared" si="5"/>
         <v>3.2</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="44" t="s">
-        <v>671</v>
-      </c>
-      <c r="B93" s="45">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="29" t="s">
+        <v>670</v>
+      </c>
+      <c r="B94" s="30">
         <v>72</v>
       </c>
-      <c r="C93" s="46">
+      <c r="C94" s="31">
         <v>120</v>
       </c>
-      <c r="D93" s="42">
+      <c r="D94" s="27">
         <f t="shared" si="3"/>
         <v>3.2</v>
       </c>
-      <c r="E93" s="45">
+      <c r="E94" s="30">
         <v>0</v>
       </c>
-      <c r="F93" s="43">
+      <c r="F94" s="28">
         <f t="shared" si="5"/>
         <v>3.2</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="44" t="s">
-        <v>627</v>
-      </c>
-      <c r="B94" s="45">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="29" t="s">
+        <v>626</v>
+      </c>
+      <c r="B95" s="30">
         <v>172</v>
       </c>
-      <c r="C94" s="46">
+      <c r="C95" s="31">
         <v>120</v>
       </c>
-      <c r="D94" s="42">
+      <c r="D95" s="27">
         <f t="shared" si="3"/>
         <v>4.8666666666666663</v>
       </c>
-      <c r="E94" s="45">
+      <c r="E95" s="30">
         <v>0</v>
       </c>
-      <c r="F94" s="43">
+      <c r="F95" s="28">
         <f t="shared" si="5"/>
         <v>4.8666666666666663</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="44" t="s">
-        <v>672</v>
-      </c>
-      <c r="B95" s="45">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="29" t="s">
+        <v>671</v>
+      </c>
+      <c r="B96" s="30">
         <v>167</v>
       </c>
-      <c r="C95" s="46">
+      <c r="C96" s="31">
         <v>120</v>
       </c>
-      <c r="D95" s="42">
+      <c r="D96" s="27">
         <f t="shared" si="3"/>
         <v>4.7833333333333332</v>
       </c>
-      <c r="E95" s="45">
+      <c r="E96" s="30">
         <v>0</v>
       </c>
-      <c r="F95" s="43">
+      <c r="F96" s="28">
         <f t="shared" si="5"/>
         <v>4.7833333333333332</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="44" t="s">
-        <v>673</v>
-      </c>
-      <c r="B96" s="45">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="29" t="s">
+        <v>672</v>
+      </c>
+      <c r="B97" s="30">
         <v>243</v>
       </c>
-      <c r="C96" s="46">
+      <c r="C97" s="31">
         <v>120</v>
       </c>
-      <c r="D96" s="42">
+      <c r="D97" s="27">
         <f t="shared" si="3"/>
         <v>6.05</v>
       </c>
-      <c r="E96" s="45">
+      <c r="E97" s="30">
         <v>0</v>
       </c>
-      <c r="F96" s="43">
+      <c r="F97" s="28">
         <f t="shared" si="5"/>
         <v>6.05</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="44" t="s">
-        <v>674</v>
-      </c>
-      <c r="B97" s="45">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="29" t="s">
+        <v>673</v>
+      </c>
+      <c r="B98" s="30">
         <v>49</v>
       </c>
-      <c r="C97" s="46">
+      <c r="C98" s="31">
         <v>120</v>
       </c>
-      <c r="D97" s="42">
-        <f t="shared" ref="D97:D100" si="6">(B97+C97)/60</f>
+      <c r="D98" s="27">
+        <f t="shared" ref="D98:D101" si="6">(B98+C98)/60</f>
         <v>2.8166666666666669</v>
       </c>
-      <c r="E97" s="45">
+      <c r="E98" s="30">
         <v>0</v>
       </c>
-      <c r="F97" s="43">
+      <c r="F98" s="28">
         <f t="shared" si="5"/>
         <v>2.8166666666666669</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="44" t="s">
-        <v>628</v>
-      </c>
-      <c r="B98" s="45">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="29" t="s">
+        <v>627</v>
+      </c>
+      <c r="B99" s="30">
         <v>80</v>
       </c>
-      <c r="C98" s="46">
+      <c r="C99" s="31">
         <v>120</v>
       </c>
-      <c r="D98" s="42">
+      <c r="D99" s="27">
         <f t="shared" si="6"/>
         <v>3.3333333333333335</v>
       </c>
-      <c r="E98" s="45">
+      <c r="E99" s="30">
         <v>0</v>
       </c>
-      <c r="F98" s="43">
+      <c r="F99" s="28">
         <f t="shared" si="5"/>
         <v>3.3333333333333335</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="44" t="s">
-        <v>675</v>
-      </c>
-      <c r="B99" s="45">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="29" t="s">
+        <v>674</v>
+      </c>
+      <c r="B100" s="30">
         <v>142</v>
       </c>
-      <c r="C99" s="46">
+      <c r="C100" s="31">
         <v>120</v>
       </c>
-      <c r="D99" s="42">
+      <c r="D100" s="27">
         <f t="shared" si="6"/>
         <v>4.3666666666666663</v>
       </c>
-      <c r="E99" s="45">
+      <c r="E100" s="30">
         <v>0</v>
       </c>
-      <c r="F99" s="43">
+      <c r="F100" s="28">
         <f t="shared" si="5"/>
         <v>4.3666666666666663</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="44" t="s">
-        <v>676</v>
-      </c>
-      <c r="B100" s="45">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="29" t="s">
+        <v>675</v>
+      </c>
+      <c r="B101" s="30">
         <v>101</v>
       </c>
-      <c r="C100" s="46">
+      <c r="C101" s="31">
         <v>120</v>
       </c>
-      <c r="D100" s="42">
+      <c r="D101" s="27">
         <f t="shared" si="6"/>
         <v>3.6833333333333331</v>
       </c>
-      <c r="E100" s="45">
+      <c r="E101" s="30">
         <v>0</v>
       </c>
-      <c r="F100" s="43">
+      <c r="F101" s="28">
         <f t="shared" si="5"/>
         <v>3.6833333333333331</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A76:F76"/>
+    <mergeCell ref="A77:F77"/>
     <mergeCell ref="H5:L5"/>
     <mergeCell ref="I13:L13"/>
     <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="A60:E60"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A61:E61"/>
   </mergeCells>
   <conditionalFormatting sqref="E9">
     <cfRule type="iconSet" priority="6">
@@ -9023,7 +9680,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E10:E29">
+  <conditionalFormatting sqref="E10:E30">
     <cfRule type="iconSet" priority="5">
       <iconSet showValue="0">
         <cfvo type="percent" val="0"/>
@@ -9032,7 +9689,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E32:E59">
+  <conditionalFormatting sqref="E33:E60">
     <cfRule type="iconSet" priority="4">
       <iconSet showValue="0">
         <cfvo type="percent" val="0"/>
@@ -9050,7 +9707,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E61:E75">
+  <conditionalFormatting sqref="E62:E76">
     <cfRule type="iconSet" priority="2">
       <iconSet showValue="0">
         <cfvo type="percent" val="0"/>
@@ -9059,7 +9716,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E77:E100">
+  <conditionalFormatting sqref="E78:E101">
     <cfRule type="iconSet" priority="1">
       <iconSet showValue="0">
         <cfvo type="percent" val="0"/>
@@ -9071,4 +9728,527 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB39D374-F7E5-4E1B-A824-7220E4B22623}">
+  <dimension ref="A2:D37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="48.85546875" customWidth="1"/>
+    <col min="2" max="2" width="58" customWidth="1"/>
+    <col min="3" max="3" width="110.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="51" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="56" t="s">
+        <v>722</v>
+      </c>
+      <c r="B3" s="80" t="s">
+        <v>725</v>
+      </c>
+      <c r="C3" s="79" t="s">
+        <v>151</v>
+      </c>
+      <c r="D3" s="59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="56" t="s">
+        <v>723</v>
+      </c>
+      <c r="B4" s="80" t="s">
+        <v>727</v>
+      </c>
+      <c r="C4" s="79" t="s">
+        <v>155</v>
+      </c>
+      <c r="D4" s="59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="56" t="s">
+        <v>724</v>
+      </c>
+      <c r="B5" s="80" t="s">
+        <v>726</v>
+      </c>
+      <c r="C5" s="79" t="s">
+        <v>158</v>
+      </c>
+      <c r="D5" s="59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="56" t="s">
+        <v>728</v>
+      </c>
+      <c r="B6" s="80" t="s">
+        <v>160</v>
+      </c>
+      <c r="C6" s="79" t="s">
+        <v>161</v>
+      </c>
+      <c r="D6" s="59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="56" t="s">
+        <v>729</v>
+      </c>
+      <c r="B7" s="80" t="s">
+        <v>241</v>
+      </c>
+      <c r="C7" s="79" t="s">
+        <v>242</v>
+      </c>
+      <c r="D7" s="59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="56" t="s">
+        <v>738</v>
+      </c>
+      <c r="B8" s="80" t="s">
+        <v>740</v>
+      </c>
+      <c r="C8" s="79"/>
+      <c r="D8" s="81" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="56" t="s">
+        <v>739</v>
+      </c>
+      <c r="B9" s="80" t="s">
+        <v>741</v>
+      </c>
+      <c r="C9" s="79"/>
+      <c r="D9" s="59"/>
+    </row>
+    <row r="10" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="56" t="s">
+        <v>742</v>
+      </c>
+      <c r="B10" s="80" t="s">
+        <v>746</v>
+      </c>
+      <c r="C10" s="79"/>
+      <c r="D10" s="59"/>
+    </row>
+    <row r="11" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="56" t="s">
+        <v>743</v>
+      </c>
+      <c r="B11" s="80" t="s">
+        <v>745</v>
+      </c>
+      <c r="C11" s="79"/>
+      <c r="D11" s="59"/>
+    </row>
+    <row r="12" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="56" t="s">
+        <v>762</v>
+      </c>
+      <c r="B12" s="80" t="s">
+        <v>744</v>
+      </c>
+      <c r="C12" s="79"/>
+      <c r="D12" s="59"/>
+    </row>
+    <row r="13" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="56" t="s">
+        <v>748</v>
+      </c>
+      <c r="B13" s="80" t="s">
+        <v>754</v>
+      </c>
+      <c r="C13" s="79" t="s">
+        <v>755</v>
+      </c>
+      <c r="D13" s="81" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="56" t="s">
+        <v>749</v>
+      </c>
+      <c r="B14" s="80" t="s">
+        <v>747</v>
+      </c>
+      <c r="C14" s="79" t="s">
+        <v>751</v>
+      </c>
+      <c r="D14" s="81" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="56" t="s">
+        <v>750</v>
+      </c>
+      <c r="B15" s="80" t="s">
+        <v>753</v>
+      </c>
+      <c r="C15" s="79" t="s">
+        <v>752</v>
+      </c>
+      <c r="D15" s="81" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="56" t="s">
+        <v>756</v>
+      </c>
+      <c r="B16" s="80" t="s">
+        <v>759</v>
+      </c>
+      <c r="C16" s="79" t="s">
+        <v>758</v>
+      </c>
+      <c r="D16" s="81" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="56" t="s">
+        <v>757</v>
+      </c>
+      <c r="B17" s="80" t="s">
+        <v>760</v>
+      </c>
+      <c r="C17" s="79" t="s">
+        <v>761</v>
+      </c>
+      <c r="D17" s="81" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="56" t="s">
+        <v>770</v>
+      </c>
+      <c r="B18" s="80" t="s">
+        <v>771</v>
+      </c>
+      <c r="C18" s="79" t="s">
+        <v>774</v>
+      </c>
+      <c r="D18" s="81" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="56" t="s">
+        <v>773</v>
+      </c>
+      <c r="B19" s="80" t="s">
+        <v>772</v>
+      </c>
+      <c r="C19" s="79" t="s">
+        <v>775</v>
+      </c>
+      <c r="D19" s="81" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="56" t="s">
+        <v>763</v>
+      </c>
+      <c r="B20" s="80" t="s">
+        <v>768</v>
+      </c>
+      <c r="C20" s="79" t="s">
+        <v>769</v>
+      </c>
+      <c r="D20" s="81" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A21" s="56" t="s">
+        <v>766</v>
+      </c>
+      <c r="B21" s="80" t="s">
+        <v>767</v>
+      </c>
+      <c r="C21" s="79" t="s">
+        <v>765</v>
+      </c>
+      <c r="D21" s="81" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="56" t="s">
+        <v>730</v>
+      </c>
+      <c r="B22" s="80" t="s">
+        <v>733</v>
+      </c>
+      <c r="C22" s="79" t="s">
+        <v>776</v>
+      </c>
+      <c r="D22" s="81" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="56" t="s">
+        <v>731</v>
+      </c>
+      <c r="B23" s="80" t="s">
+        <v>734</v>
+      </c>
+      <c r="C23" s="79" t="s">
+        <v>777</v>
+      </c>
+      <c r="D23" s="81" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="56" t="s">
+        <v>732</v>
+      </c>
+      <c r="B24" s="80" t="s">
+        <v>735</v>
+      </c>
+      <c r="C24" s="79" t="s">
+        <v>778</v>
+      </c>
+      <c r="D24" s="81" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="56" t="s">
+        <v>736</v>
+      </c>
+      <c r="B25" s="80" t="s">
+        <v>737</v>
+      </c>
+      <c r="C25" s="79" t="s">
+        <v>779</v>
+      </c>
+      <c r="D25" s="81" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A26" s="56" t="s">
+        <v>780</v>
+      </c>
+      <c r="B26" s="80" t="s">
+        <v>782</v>
+      </c>
+      <c r="C26" s="79" t="s">
+        <v>781</v>
+      </c>
+      <c r="D26" s="81" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A27" s="56" t="s">
+        <v>783</v>
+      </c>
+      <c r="B27" s="80" t="s">
+        <v>784</v>
+      </c>
+      <c r="C27" s="79" t="s">
+        <v>785</v>
+      </c>
+      <c r="D27" s="81" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A28" s="56" t="s">
+        <v>787</v>
+      </c>
+      <c r="B28" s="80" t="s">
+        <v>786</v>
+      </c>
+      <c r="C28" s="79" t="s">
+        <v>788</v>
+      </c>
+      <c r="D28" s="81" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A29" s="56" t="s">
+        <v>790</v>
+      </c>
+      <c r="B29" s="80" t="s">
+        <v>791</v>
+      </c>
+      <c r="C29" s="79" t="s">
+        <v>789</v>
+      </c>
+      <c r="D29" s="81" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A30" s="56" t="s">
+        <v>793</v>
+      </c>
+      <c r="B30" s="80" t="s">
+        <v>792</v>
+      </c>
+      <c r="C30" s="79" t="s">
+        <v>794</v>
+      </c>
+      <c r="D30" s="81" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A31" s="56" t="s">
+        <v>795</v>
+      </c>
+      <c r="B31" s="80" t="s">
+        <v>797</v>
+      </c>
+      <c r="C31" s="79" t="s">
+        <v>796</v>
+      </c>
+      <c r="D31" s="81" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A32" s="56" t="s">
+        <v>798</v>
+      </c>
+      <c r="B32" s="80" t="s">
+        <v>799</v>
+      </c>
+      <c r="C32" s="79" t="s">
+        <v>800</v>
+      </c>
+      <c r="D32" s="81" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A33" s="56" t="s">
+        <v>801</v>
+      </c>
+      <c r="B33" s="80" t="s">
+        <v>806</v>
+      </c>
+      <c r="C33" s="79" t="s">
+        <v>805</v>
+      </c>
+      <c r="D33" s="81" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A34" s="56" t="s">
+        <v>802</v>
+      </c>
+      <c r="B34" s="80" t="s">
+        <v>804</v>
+      </c>
+      <c r="C34" s="79" t="s">
+        <v>803</v>
+      </c>
+      <c r="D34" s="81" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A35" s="56" t="s">
+        <v>808</v>
+      </c>
+      <c r="B35" s="80" t="s">
+        <v>809</v>
+      </c>
+      <c r="C35" s="79" t="s">
+        <v>807</v>
+      </c>
+      <c r="D35" s="81" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="56"/>
+      <c r="B36" s="80"/>
+      <c r="C36" s="79"/>
+      <c r="D36" s="81"/>
+    </row>
+    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="56"/>
+      <c r="B37" s="80"/>
+      <c r="C37" s="79"/>
+      <c r="D37" s="81"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:D34" xr:uid="{3AD7119C-AB1E-42C6-82BD-E82DCC155A98}"/>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{6C67FDCE-D971-4F5C-B64B-47B6666D9049}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{1BACC87A-D4F0-49F9-BD4B-65E06378AE87}"/>
+    <hyperlink ref="D5" r:id="rId3" xr:uid="{B47F0F46-5466-4E7E-B34B-BC467715F84C}"/>
+    <hyperlink ref="D6" r:id="rId4" xr:uid="{58DE5AD8-BB30-4ADC-B002-ADEF91ECF8DD}"/>
+    <hyperlink ref="D7" r:id="rId5" xr:uid="{7C77A642-A9A7-4A6E-B867-F38928F0E1F7}"/>
+    <hyperlink ref="D8" r:id="rId6" xr:uid="{1089C2BD-F67F-4A8A-A973-0BB03F60D25B}"/>
+    <hyperlink ref="D14" r:id="rId7" xr:uid="{8E4BAD9C-5551-4B0F-A4F8-BA81AB6CDBED}"/>
+    <hyperlink ref="D15" r:id="rId8" xr:uid="{5A6C147B-418F-49F4-95BE-94C2DC552BF6}"/>
+    <hyperlink ref="D13" r:id="rId9" xr:uid="{6B57B673-4AC0-45B8-9620-241D93A277F6}"/>
+    <hyperlink ref="D16" r:id="rId10" xr:uid="{0463B492-4C86-42E1-A5E7-F113FF683A7A}"/>
+    <hyperlink ref="D17" r:id="rId11" xr:uid="{622C8B4A-31BC-4AFF-AAF6-80F0A89D98F4}"/>
+    <hyperlink ref="D21" r:id="rId12" xr:uid="{BD384C24-09A6-4888-AA96-D06EC88D667C}"/>
+    <hyperlink ref="D20" r:id="rId13" xr:uid="{BF44C158-5369-4101-A798-DCDB3EBA29E8}"/>
+    <hyperlink ref="D19" r:id="rId14" xr:uid="{982E9FDB-A603-4D75-AF4E-24CD0D1F7E3B}"/>
+    <hyperlink ref="D18" r:id="rId15" xr:uid="{14A292DA-A770-4A76-A0D4-B5C2EE102E17}"/>
+    <hyperlink ref="D22" r:id="rId16" xr:uid="{8F6FC34C-2BDC-4091-AC13-9A2DBE86CF16}"/>
+    <hyperlink ref="D23" r:id="rId17" xr:uid="{FF866A74-A4A8-41C5-B152-106FB5FEC8CB}"/>
+    <hyperlink ref="D24" r:id="rId18" xr:uid="{8FCD9805-A9D5-4734-A7AC-E974F3E2FD83}"/>
+    <hyperlink ref="D25" r:id="rId19" xr:uid="{BD371AC5-47F8-493B-A2B6-7AF0725CF9C4}"/>
+    <hyperlink ref="D26" r:id="rId20" xr:uid="{1AC81F9D-5B95-4103-8F99-1FCE70A93AAE}"/>
+    <hyperlink ref="D27" r:id="rId21" xr:uid="{36EE8B0E-2D99-4FB1-89A7-58043B7E02D5}"/>
+    <hyperlink ref="D28" r:id="rId22" xr:uid="{F9A16C46-4EA7-4C32-8FFC-1D8F2B76B67B}"/>
+    <hyperlink ref="D29" r:id="rId23" xr:uid="{11A1FB65-AA1D-455E-8298-B76DC45D2023}"/>
+    <hyperlink ref="D30" r:id="rId24" xr:uid="{B7F041B8-E7E7-41E1-953B-919ED7041F4C}"/>
+    <hyperlink ref="D31" r:id="rId25" xr:uid="{4F3FE31D-AD52-4C12-B253-AF457E067B46}"/>
+    <hyperlink ref="D32" r:id="rId26" xr:uid="{C341CAE3-7612-42BD-A5B0-7E59C5A71315}"/>
+    <hyperlink ref="D34" r:id="rId27" xr:uid="{E4C75F24-6840-4CD2-81EC-0CBDE5F4C04E}"/>
+    <hyperlink ref="D33" r:id="rId28" xr:uid="{F02FC759-850F-4D30-860D-E8415F7E1237}"/>
+    <hyperlink ref="D35" r:id="rId29" xr:uid="{416BB23E-E8D9-40DD-8771-B96DE50F5304}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/cheat_sheet.xlsx
+++ b/cheat_sheet.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{217435E1-55EA-48D7-B1A9-68151065962F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24824A6C-5D58-421C-BACA-0821497EEB49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27660" windowHeight="14670" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,16 @@
     <sheet name="Samplers" sheetId="5" r:id="rId7"/>
     <sheet name="LDP" sheetId="8" r:id="rId8"/>
     <sheet name="CSS Selectors" sheetId="9" r:id="rId9"/>
+    <sheet name="CSS Transitions" sheetId="10" r:id="rId10"/>
+    <sheet name="SASS" sheetId="11" r:id="rId11"/>
+    <sheet name="Questions" sheetId="12" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'CSS Selectors'!$A$2:$D$34</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">HTML!$A$2:$D$62</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="812">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1282" uniqueCount="932">
   <si>
     <t>HTML</t>
   </si>
@@ -2638,6 +2642,560 @@
   </si>
   <si>
     <t>&lt;select id="job" name="user_job"&gt;&lt;/select&gt;</t>
+  </si>
+  <si>
+    <t>Transition Duration</t>
+  </si>
+  <si>
+    <t>The transition-duration CSS property sets the length of time a transition animation should take to complete. By default, the value is 0s, meaning that no animation will occur.</t>
+  </si>
+  <si>
+    <t>The transition-property CSS property sets the CSS properties to which a transition effect should be applied.</t>
+  </si>
+  <si>
+    <t>button:active {
+transition-property: margin-right, color;
+}</t>
+  </si>
+  <si>
+    <t>Transition Property</t>
+  </si>
+  <si>
+    <t>List of animatable properties</t>
+  </si>
+  <si>
+    <t>Certain CSS properties can be animated using CSS Animations or CSS Transitions. Animation means that their values can be made to change gradually over a given amount of time.</t>
+  </si>
+  <si>
+    <t>button:hover {
+  background: #d36a62;
+  transition-duration: 2s, 0.4s;
+}</t>
+  </si>
+  <si>
+    <t>Transition Delay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The transition-delay CSS property specifies the duration to wait before starting a property's transition effect when its value changes.
+</t>
+  </si>
+  <si>
+    <t>button {
+  transition-duration: 2s, 1s;
+  transition-property: background, color;
+  transition-delay: 0s, 2s;
+}</t>
+  </si>
+  <si>
+    <t>button {
+  transition-duration: 2s, 1s;
+  transition-property: background, color;
+  transition-delay: 0s, 2s;
+  transition-timing-function: ease-in, ease-in-out;
+}</t>
+  </si>
+  <si>
+    <t>The transition-timing-function CSS property sets how intermediate values are calculated for CSS properties being affected by a transition effect.</t>
+  </si>
+  <si>
+    <t>Transition Timing Function</t>
+  </si>
+  <si>
+    <t>Transition (SHORTHAND)</t>
+  </si>
+  <si>
+    <t>button {
+  transition: background 2s ease-in 0s,
+                     color 1s ease-in-out 2s;
+}</t>
+  </si>
+  <si>
+    <t>Transform</t>
+  </si>
+  <si>
+    <t>The &lt;transform-function&gt; CSS data type represents a transformation that affects an element's appearance. Transformation functions can rotate, resize, distort, or move an element in 2D or 3D space. It is used in the transform property.</t>
+  </si>
+  <si>
+    <t>button:hover {
+  transform: rotate(360deg);
+}</t>
+  </si>
+  <si>
+    <t>Transform - rotate</t>
+  </si>
+  <si>
+    <t>button:hover {
+  transform: &lt;value&gt;;
+}</t>
+  </si>
+  <si>
+    <t>The rotate() CSS function defines a transformation that rotates an element around a fixed point on the 2D plane, without deforming it. Its result is a &lt;transform-function&gt; data type.</t>
+  </si>
+  <si>
+    <t>Transform - skew (SHORTHAND)</t>
+  </si>
+  <si>
+    <t>button:hover {
+  transform: skew(10deg, 10deg);
+}</t>
+  </si>
+  <si>
+    <t>The skew() CSS function defines a transformation that skews an element on the 2D plane. Its result is a &lt;transform-function&gt; data type.
+&lt;transform&gt;: &lt;skew&gt;(&lt;x-axis value&gt; &lt;y-axis value&gt;);</t>
+  </si>
+  <si>
+    <t>The transition CSS property is a shorthand property for transition-property, transition-duration, transition-timing-function, and transition-delay.
+&lt;transition&gt;: &lt;transition-property-value&gt; &lt;transition-duration-value&gt; &lt;transition-timing-function-value&gt; &lt;transition-delay-value&gt;;</t>
+  </si>
+  <si>
+    <t>Transform - scale (SHORTHAND)</t>
+  </si>
+  <si>
+    <t>button:hover {
+  transform: scale(1.5 1.5);
+}</t>
+  </si>
+  <si>
+    <t>The scale() CSS function defines a transformation that resizes an element on the 2D plane. Because the amount of scaling is defined by a vector, it can resize the horizontal and vertical dimensions at different scales. Its result is a &lt;transform-function&gt; data type.
+&lt;transform&gt;: &lt;scale&gt;(&lt;x-axis value&gt; &lt;y-axis value&gt;);</t>
+  </si>
+  <si>
+    <t>button:hover {
+  transform: scale(1.5 1.5);
+  transform-origin: left 50%;
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The transform-origin CSS property sets the origin for an element's transformations.
+&lt;transform-origin&gt;: &lt;x-axis value&gt;  &lt;y-axis value&gt;;
+</t>
+  </si>
+  <si>
+    <t>Transform Origin</t>
+  </si>
+  <si>
+    <t>Transform - translate (SHORTHAND)</t>
+  </si>
+  <si>
+    <t>button:hover {
+  transform: translate(150px 20px);
+}</t>
+  </si>
+  <si>
+    <t>The translate() CSS function repositions an element in the horizontal and/or vertical directions. Its result is a &lt;transform-function&gt; data type.
+&lt;transform&gt;: &lt;translate&gt;(&lt;x-axis value&gt;  &lt;y-axis value&gt;);</t>
+  </si>
+  <si>
+    <t>Modifying Cubic Bezier</t>
+  </si>
+  <si>
+    <t>Perspective</t>
+  </si>
+  <si>
+    <t>.content {
+  persepective: 700px;
+}</t>
+  </si>
+  <si>
+    <t>The perspective CSS property determines the distance between the z=0 plane and the user in order to give a 3D-positioned element some perspective. Each 3D element with z&gt;0 becomes larger; each 3D-element with z&lt;0 becomes smaller. The strength of the effect is determined by the value of this property.</t>
+  </si>
+  <si>
+    <t>Transform Style</t>
+  </si>
+  <si>
+    <t>.button_container {
+  transition: transform 5s ease-out;
+  transform-style: preserve-3d;
+}</t>
+  </si>
+  <si>
+    <t>Backface Visibility</t>
+  </si>
+  <si>
+    <t>.button_1 {
+  z-index: 0;
+  backface-visibility: hidden;
+}</t>
+  </si>
+  <si>
+    <t>The backface-visibility CSS property sets whether the back face of an element is visible when turned towards the user.</t>
+  </si>
+  <si>
+    <t>The transform-style CSS property sets whether children of an element are positioned in the 3D space or are flattened in the plane of the element.</t>
+  </si>
+  <si>
+    <t>Rotate 3D</t>
+  </si>
+  <si>
+    <t>.button_container:hover {
+  transform: rotate3d(1, 0, 1, 180deg);
+}</t>
+  </si>
+  <si>
+    <t>The rotate3d() CSS function defines a transformation that rotates an element around a fixed axis in 3D space, without deforming it. Its result is a &lt;transform-function&gt; data type.
+&lt;transform&gt;:  &lt;rotate3d&gt;(&lt;x-axis&gt;,  &lt;y-axis&gt;,  &lt;z-axis&gt;,  &lt;angle&gt;);</t>
+  </si>
+  <si>
+    <t>Perspective Origin</t>
+  </si>
+  <si>
+    <t>.content {
+  persepective: 700px;
+  perspective-origin: bottom right;
+}</t>
+  </si>
+  <si>
+    <t>The perspective-origin CSS property determines the position at which the viewer is looking. It is used as the vanishing point by the perspective property.
+&lt;perspective-origin&gt;:  &lt;x-axis&gt; &lt;y-axis&gt;;</t>
+  </si>
+  <si>
+    <t>Transform - translate 3d (SHORTHAND)</t>
+  </si>
+  <si>
+    <t>button:hover {
+  transform: translate3d(42px, -62px, -135px);
+}</t>
+  </si>
+  <si>
+    <t>The translate3d() CSS function repositions an element in 3D space. Its result is a &lt;transform-function&gt; data type.</t>
+  </si>
+  <si>
+    <t>Linking a SASS file to an output</t>
+  </si>
+  <si>
+    <t>sass &lt;sass file name&gt;.scss  &lt;output file name and path&gt;.css</t>
+  </si>
+  <si>
+    <t>SASS Variables</t>
+  </si>
+  <si>
+    <t>Sass variables are simple: you assign a value to a name that begins with $, and then you can refer to that name instead of the value itself. But despite their simplicity, they're one of the most useful tools Sass brings to the table. Variables make it possible to reduce repetition, do complex math, configure libraries, and much more</t>
+  </si>
+  <si>
+    <t>$placeholder_color: rgba(145, 149, 148, 0.9);
+$main_background_color: rgba(251, 216, 183, 0.2);</t>
+  </si>
+  <si>
+    <t>SASS Nesting</t>
+  </si>
+  <si>
+    <t>Rather than repeating the same selectors over and over again, you can write one style rules inside another. Sass will automatically combine the outer rule’s selector with the inner rule’s.</t>
+  </si>
+  <si>
+    <t>Parent Selector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When a parent selector is used in an inner selector, it’s replaced with the corresponding outer selector. This happens instead of the normal nesting behavior.
+</t>
+  </si>
+  <si>
+    <t>Mixins allow you to define styles that can be re-used throughout your stylesheet. They make it easy to avoid using non-semantic classes like .float-left, and to distribute collections of styles in libraries.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+@mixin placeholder_styles {
+  font: 1.3rem;
+  &amp;::placeholder {
+    color: $placeholder_color;
+    font-style: italic;
+    @content;
+  }
+}
+input {
+  @include placeholder_styles {
+    text-align: right;
+  }
+}</t>
+  </si>
+  <si>
+    <t>In addition to taking arguments, a mixin can take an entire block of styles, known as a content block. A mixin can declare that it takes a content block by including the @content at-rule in its body. The content block is passed in using curly braces like any other block in Sass, and it’s injected in place of the @content rule.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  @mixin and @include</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  @extend</t>
+  </si>
+  <si>
+    <t>Unlike mixins, which copy styles into the current style rule, @extend updates style rules that contain the extended selector so that they contain the extending selector as well. When extending selectors, Sass does intelligent unification:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mixins - @content </t>
+  </si>
+  <si>
+    <t>%placeholder_selectors</t>
+  </si>
+  <si>
+    <t>Unlike class selectors, placeholders don’t clutter up the CSS if they aren’t extended and they don’t mandate that users of a library use specific class names for their HTML.</t>
+  </si>
+  <si>
+    <t>%placeholder {
+  &amp;::placeholder {
+    color: rgba(145, 149, 148, 0.9);
+    font-style: italic;
+  }
+}</t>
+  </si>
+  <si>
+    <t>input {
+  @extend %placeholder;
+  text-align: right;
+}</t>
+  </si>
+  <si>
+    <t>.input_container {
+  &gt; input,
+  &gt; select,
+  &gt; textarea {
+    width: 100%;
+    padding: 15px;
+  }
+}</t>
+  </si>
+  <si>
+    <t>.input_container {
+  margin: 5px 0;
+  border-radius: 5px;
+  &amp;:nth-of-type(-1n-6) {
+    width: 100%;
+  }
+  &amp;:nth-of-type(7) {
+    width: 50%;
+  }
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+@mixin flex_styles {
+  display: flex;
+  flex-direction: row;
+}
+.flex1,
+.flex2 {
+  @include flex_styles;
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  @import partials</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @import  "partials/_variables.scss",
+                      "partials/_placeholders.scss",
+                      "partials/_styles.scss";</t>
+  </si>
+  <si>
+    <t>When Sass imports a file, that file is evaluated as though its contents appeared directly in place of the @import. Any mixins, functions, and variables from the imported file are made available, and all its CSS is included at the exact point where the @import was written. What’s more, any mixins, functions, or variables that were defined before the @import (including from other @imports) are available in the imported stylesheet.</t>
+  </si>
+  <si>
+    <t>Nesting media queries</t>
+  </si>
+  <si>
+    <t>If a CSS at-rule is nested within a style rule, the two automatically swap positions so that the at-rule is at the top level of the CSS output and the style rule is within it. This makes it easy to add conditional styling without having to rewrite the style rule’s selector.</t>
+  </si>
+  <si>
+    <t>.banner,
+.newsletter_signup {
+  width: 90%;
+  max-width: 500px;
+  margin: 0 auto;
+  @media only screen and (min-width: $break_m) {
+    width: 750px;
+    max-width: 800px;
+    margin: 0 auto 3px;
+  }
+}</t>
+  </si>
+  <si>
+    <t>Color Functions</t>
+  </si>
+  <si>
+    <t>$base: 3acec2;
+$base-dark: darken($base, 50%)
+$base-light: lighten($base, 100%)
+$base-complement: complement($base)
+$base-complement-dark: darken($base-complement, 10%)</t>
+  </si>
+  <si>
+    <t>Custom functions @function</t>
+  </si>
+  <si>
+    <t>Functions are defined using the @function at-rule, which is written @function &lt;name&gt;(&lt;arguments...&gt;) { ... }. A function’s name can be any Sass identifier. It can only contain universal statements, as well as the @return at-rule which indicates the value to use as the result of the function call. Functions are called using the normal CSS function syntax.</t>
+  </si>
+  <si>
+    <t>$container_width: 1000px;
+$gutter: 10px;
+@function flex_item_width ($number: 2) {
+  $gutter_pc: ($gutter * 2) * $number;
+  $remaining_space: $container_width - $gutter_pc;
+  @return ($remaining_space / $container_width * 100% ) / $number;
+}
+flex_item {
+  width: flex_item_width(3)
+}</t>
+  </si>
+  <si>
+    <t>Mixin arguments @mixin()</t>
+  </si>
+  <si>
+    <t>Mixins can also take arguments, which allows their behavior to be customized each time they’re called. The arguments are specified in the @mixin rule after the mixin’s name, as a list of variable names surrounded by parentheses. The mixin must then be included with the same number of arguments in the form of SassScript expressions. The values of these expression are available within the mixin’s body as the corresponding variables.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+@mixin flex_styles(
+  $display: flex,
+  $flex_direction: null,
+  $align_items: null,
+  $flex_wrap: null
+) {
+  display: $display;
+  flex-direction: $flex_direction;
+  align-items: $align_items;
+  flex-wrap: $flex_wrap;
+}
+.flex1,
+.flex2 {
+  @include flex_styles($flex_direction: row,
+                       $flex_wrap: wrap,
+                       $align_items: center);
+}</t>
+  </si>
+  <si>
+    <t>Numeric Operators</t>
+  </si>
+  <si>
+    <t>$break_m: 768px;
+$break_l: 1024px;
+@mixin break($screen_width) {
+  @if $screen_width == "m" {
+    @media only screen and (min-width: $break_m) {
+      @content;
+    }
+  }
+  @else if $screen_width == "l" {
+    @media only screen and (min-width: $break_l) {
+      @content;
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  @if and @else</t>
+  </si>
+  <si>
+    <t>The @if rule is written @if &lt;expression&gt; { ... }, and it controls whether or not its block gets evaluated (including emitting any styles as CSS). The expression usually returns either true or false—if the expression returns true, the block is evaluated, and if the expression returns false it’s not.</t>
+  </si>
+  <si>
+    <t>Maps and its functions $map: ( "m": 768px);</t>
+  </si>
+  <si>
+    <t>$break: (
+ "m": 768px,
+ "l": 1024px,
+);
+@mixin break($screen_width) {
+  $value: map-get($break, $screen_width);
+  @if $screen_width == "m" {
+    @media only screen and (min-width: $value) {
+      @content;
+    }
+  }
+  @else if $screen_width == "l" {
+    @media only screen and (min-width: $value) {
+      @content;
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>Maps in Sass hold pairs of keys and values, and make it easy to look up a value by its corresponding key. They’re written (&lt;expression&gt;: &lt;expression&gt;, &lt;expression&gt;: &lt;expression&gt;). The expression before the : is the key, and the expression after is the value associated with that key. The keys must be unique, but the values may be duplicated. Unlike lists, maps must be written with parentheses around them. A map with no pairs is written ().</t>
+  </si>
+  <si>
+    <t>For loops @for</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @for $index from 1 through 2 {
+  .box#{$index} {
+    background: adjust-hue(tomato, $index * 100);
+  }
+}</t>
+  </si>
+  <si>
+    <t>The @for rule, written @for &lt;variable&gt; from &lt;expression&gt; to &lt;expression&gt; { ... } or @for &lt;variable&gt; from &lt;expression&gt; through &lt;expression&gt; { ... }, counts up or down from one number (the result of the first expression) to another (the result of the second) and evaluates a block for each number in between. Each number along the way is assigned to the given variable name. If to is used, the final number is excluded; if through is used, it's included.</t>
+  </si>
+  <si>
+    <t>Interpolation</t>
+  </si>
+  <si>
+    <t>Interpolation can be used almost anywhere in a Sass stylesheet to embed the result of a SassScript expression into a chunk of CSS. Just wrap an expression in #{} in any of the following places:</t>
+  </si>
+  <si>
+    <t>SASS Lists</t>
+  </si>
+  <si>
+    <t>$sizes: (40px, 50px, 80px);
+ @each $size in $sizes {
+  .icon-#{$size} {
+    font-size: $size;
+    height: $size;
+    width: $size;
+  }
+}</t>
+  </si>
+  <si>
+    <t>Lists contain a sequence of other values. In Sass, elements in lists can be separated by commas (Helvetica, Arial, sans-serif) or by spaces (10px 15px 0 0), as long as it’s consistent within the list.</t>
+  </si>
+  <si>
+    <t>$teachers: (
+  "mathew",
+  "alena",
+  "joel",
+  "daniel",
+  "nick",
+);
+@each $teacher in $teachers {
+  .image-#{$teacher} {
+    background: url("images/#{$teacher}.jpg");
+  }
+}</t>
+  </si>
+  <si>
+    <t>Each Loops @each</t>
+  </si>
+  <si>
+    <t>The @each rule makes it easy to emit styles or evaluate code for each element of a list or each pair in a map. It’s great for repetitive styles that only have a few variations between them. It’s usually written @each &lt;variable&gt; in &lt;expression&gt; { ... }, where the expression returns a list. The block is evaluated for each element of the list in turn, which is assigned to the given variable name.</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>Topic</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Solution</t>
+  </si>
+  <si>
+    <t>HTML / CSS</t>
+  </si>
+  <si>
+    <t>Form Styling / Focus State styling</t>
+  </si>
+  <si>
+    <t>to apply a certain transition style which would basically fade out other elements on the page when a particular form element is in focus by increasing the opacity of focused element and decreasing the opacity of the other page elements.  When thinking about it theoretically I assumed that this could be achieved by targeting parent elements however when looking it up online I found out that CSS does not have this functionality. Hence is this possible and how would one do it ?</t>
+  </si>
+  <si>
+    <t>Achieveable through Javascript</t>
+  </si>
+  <si>
+    <t>SASS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Looping through a theme list </t>
+  </si>
+  <si>
+    <t>Is it possible to create a loop to cycle through a map however stop at a certain index in the map ? For example I have a color theme map with five colors (1-12) and I would like to create a mixin to accept a number argument which would be the stopping point. Then the mixin would execute the loop however stop the map loop when it reaches the mixin argument number.</t>
   </si>
 </sst>
 </file>
@@ -3645,7 +4203,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4002,6 +4560,761 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A58C87AB-222A-4E13-8A46-2201C051A1C5}">
+  <dimension ref="A2:D21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="48.85546875" customWidth="1"/>
+    <col min="2" max="2" width="58" customWidth="1"/>
+    <col min="3" max="3" width="110.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="51" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A3" s="56" t="s">
+        <v>812</v>
+      </c>
+      <c r="B3" s="80" t="s">
+        <v>819</v>
+      </c>
+      <c r="C3" s="79" t="s">
+        <v>813</v>
+      </c>
+      <c r="D3" s="59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="56" t="s">
+        <v>816</v>
+      </c>
+      <c r="B4" s="80" t="s">
+        <v>815</v>
+      </c>
+      <c r="C4" s="79" t="s">
+        <v>814</v>
+      </c>
+      <c r="D4" s="59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="56" t="s">
+        <v>817</v>
+      </c>
+      <c r="B5" s="80"/>
+      <c r="C5" s="79" t="s">
+        <v>818</v>
+      </c>
+      <c r="D5" s="59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="56" t="s">
+        <v>820</v>
+      </c>
+      <c r="B6" s="80" t="s">
+        <v>822</v>
+      </c>
+      <c r="C6" s="79" t="s">
+        <v>821</v>
+      </c>
+      <c r="D6" s="59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="56" t="s">
+        <v>825</v>
+      </c>
+      <c r="B7" s="80" t="s">
+        <v>823</v>
+      </c>
+      <c r="C7" s="79" t="s">
+        <v>824</v>
+      </c>
+      <c r="D7" s="59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A8" s="56" t="s">
+        <v>826</v>
+      </c>
+      <c r="B8" s="80" t="s">
+        <v>827</v>
+      </c>
+      <c r="C8" s="79" t="s">
+        <v>837</v>
+      </c>
+      <c r="D8" s="59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="56" t="s">
+        <v>828</v>
+      </c>
+      <c r="B9" s="80" t="s">
+        <v>832</v>
+      </c>
+      <c r="C9" s="79" t="s">
+        <v>829</v>
+      </c>
+      <c r="D9" s="59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="56" t="s">
+        <v>831</v>
+      </c>
+      <c r="B10" s="80" t="s">
+        <v>830</v>
+      </c>
+      <c r="C10" s="79" t="s">
+        <v>833</v>
+      </c>
+      <c r="D10" s="59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="56" t="s">
+        <v>834</v>
+      </c>
+      <c r="B11" s="80" t="s">
+        <v>835</v>
+      </c>
+      <c r="C11" s="79" t="s">
+        <v>836</v>
+      </c>
+      <c r="D11" s="59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A12" s="56" t="s">
+        <v>838</v>
+      </c>
+      <c r="B12" s="80" t="s">
+        <v>839</v>
+      </c>
+      <c r="C12" s="79" t="s">
+        <v>840</v>
+      </c>
+      <c r="D12" s="59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A13" s="56" t="s">
+        <v>843</v>
+      </c>
+      <c r="B13" s="80" t="s">
+        <v>841</v>
+      </c>
+      <c r="C13" s="79" t="s">
+        <v>842</v>
+      </c>
+      <c r="D13" s="59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="56" t="s">
+        <v>844</v>
+      </c>
+      <c r="B14" s="80" t="s">
+        <v>845</v>
+      </c>
+      <c r="C14" s="79" t="s">
+        <v>846</v>
+      </c>
+      <c r="D14" s="59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="56" t="s">
+        <v>863</v>
+      </c>
+      <c r="B15" s="80" t="s">
+        <v>864</v>
+      </c>
+      <c r="C15" s="79" t="s">
+        <v>865</v>
+      </c>
+      <c r="D15" s="81" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="56" t="s">
+        <v>847</v>
+      </c>
+      <c r="B16" s="80"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="56" t="s">
+        <v>848</v>
+      </c>
+      <c r="B17" s="80" t="s">
+        <v>849</v>
+      </c>
+      <c r="C17" s="79" t="s">
+        <v>850</v>
+      </c>
+      <c r="D17" s="81" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A18" s="56" t="s">
+        <v>851</v>
+      </c>
+      <c r="B18" s="80" t="s">
+        <v>852</v>
+      </c>
+      <c r="C18" s="79" t="s">
+        <v>856</v>
+      </c>
+      <c r="D18" s="59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A19" s="56" t="s">
+        <v>853</v>
+      </c>
+      <c r="B19" s="80" t="s">
+        <v>854</v>
+      </c>
+      <c r="C19" s="79" t="s">
+        <v>855</v>
+      </c>
+      <c r="D19" s="59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="56" t="s">
+        <v>857</v>
+      </c>
+      <c r="B20" s="80" t="s">
+        <v>858</v>
+      </c>
+      <c r="C20" s="79" t="s">
+        <v>859</v>
+      </c>
+      <c r="D20" s="59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A21" s="56" t="s">
+        <v>860</v>
+      </c>
+      <c r="B21" s="80" t="s">
+        <v>861</v>
+      </c>
+      <c r="C21" s="79" t="s">
+        <v>862</v>
+      </c>
+      <c r="D21" s="81" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{EB5A99D5-13EA-48F1-9217-B84777B42FCB}"/>
+    <hyperlink ref="D6" r:id="rId2" xr:uid="{62499128-6C43-4568-ADD8-75ADBD896487}"/>
+    <hyperlink ref="D5" r:id="rId3" xr:uid="{D671F6DD-3735-4FF1-8402-5BA21519626D}"/>
+    <hyperlink ref="D4" r:id="rId4" xr:uid="{3AD9443F-F59A-4778-8654-BA3D0FC3CCA0}"/>
+    <hyperlink ref="D7" r:id="rId5" xr:uid="{C5B05BE4-3FAD-4B67-85AD-FD1F8F8BB316}"/>
+    <hyperlink ref="D8" r:id="rId6" xr:uid="{C15A633C-290B-49E2-B392-A41C1706A8E7}"/>
+    <hyperlink ref="D9" r:id="rId7" xr:uid="{645C2233-BE19-4B21-A2FE-76A3D36DA1FC}"/>
+    <hyperlink ref="D10" r:id="rId8" xr:uid="{17E2A589-4ED1-4B3B-9BCF-A1866E71668A}"/>
+    <hyperlink ref="D11" r:id="rId9" xr:uid="{D019EF1E-E569-4136-AE7B-29206B846190}"/>
+    <hyperlink ref="D12" r:id="rId10" xr:uid="{A390E101-F83E-45CB-9DD1-41ADE4E563C7}"/>
+    <hyperlink ref="D13" r:id="rId11" xr:uid="{FDC48A72-9199-4A21-936D-821ED88A65CE}"/>
+    <hyperlink ref="D14" r:id="rId12" xr:uid="{C198E2C0-0EC5-49F0-9ACC-8DAB8A02783E}"/>
+    <hyperlink ref="D16" r:id="rId13" location=".17,.67,.83,.67" xr:uid="{C398C20F-83CD-4158-A01E-50B7C87756EA}"/>
+    <hyperlink ref="D17" r:id="rId14" xr:uid="{86EFF247-2FA8-4C59-8122-F8DFA68C4FEB}"/>
+    <hyperlink ref="D18" r:id="rId15" xr:uid="{90D81EBC-D2BD-40DA-BFB0-9C3A34990E30}"/>
+    <hyperlink ref="D19" r:id="rId16" xr:uid="{99EF6861-5694-42B1-8F49-366224A89A95}"/>
+    <hyperlink ref="D20" r:id="rId17" xr:uid="{E5C179D4-8AB1-460C-9E0B-440980945740}"/>
+    <hyperlink ref="D21" r:id="rId18" xr:uid="{5383C8E5-9A75-4036-ADB2-91B4FE778E8D}"/>
+    <hyperlink ref="D15" r:id="rId19" xr:uid="{01606FAD-0E97-41CF-B964-179F74425AEA}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F2567DD-FB9D-4130-8587-5DE1233956C1}">
+  <dimension ref="A2:D22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="48.85546875" customWidth="1"/>
+    <col min="2" max="2" width="58" customWidth="1"/>
+    <col min="3" max="3" width="110.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="51" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="56" t="s">
+        <v>866</v>
+      </c>
+      <c r="B3" s="80" t="s">
+        <v>867</v>
+      </c>
+      <c r="C3" s="79"/>
+      <c r="D3" s="59"/>
+    </row>
+    <row r="4" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="56" t="s">
+        <v>868</v>
+      </c>
+      <c r="B4" s="80" t="s">
+        <v>870</v>
+      </c>
+      <c r="C4" s="79" t="s">
+        <v>869</v>
+      </c>
+      <c r="D4" s="81" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="126" x14ac:dyDescent="0.25">
+      <c r="A5" s="56" t="s">
+        <v>871</v>
+      </c>
+      <c r="B5" s="80" t="s">
+        <v>886</v>
+      </c>
+      <c r="C5" s="79" t="s">
+        <v>872</v>
+      </c>
+      <c r="D5" s="81" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="189" x14ac:dyDescent="0.25">
+      <c r="A6" s="56" t="s">
+        <v>873</v>
+      </c>
+      <c r="B6" s="80" t="s">
+        <v>887</v>
+      </c>
+      <c r="C6" s="79" t="s">
+        <v>874</v>
+      </c>
+      <c r="D6" s="81" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="56" t="s">
+        <v>878</v>
+      </c>
+      <c r="B7" s="80" t="s">
+        <v>888</v>
+      </c>
+      <c r="C7" s="79" t="s">
+        <v>875</v>
+      </c>
+      <c r="D7" s="81" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="236.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="56" t="s">
+        <v>881</v>
+      </c>
+      <c r="B8" s="80" t="s">
+        <v>876</v>
+      </c>
+      <c r="C8" s="79" t="s">
+        <v>877</v>
+      </c>
+      <c r="D8" s="81" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A9" s="56" t="s">
+        <v>879</v>
+      </c>
+      <c r="B9" s="80" t="s">
+        <v>885</v>
+      </c>
+      <c r="C9" s="79" t="s">
+        <v>880</v>
+      </c>
+      <c r="D9" s="81" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="56" t="s">
+        <v>882</v>
+      </c>
+      <c r="B10" s="80" t="s">
+        <v>884</v>
+      </c>
+      <c r="C10" s="79" t="s">
+        <v>883</v>
+      </c>
+      <c r="D10" s="81" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A11" s="56" t="s">
+        <v>889</v>
+      </c>
+      <c r="B11" s="80" t="s">
+        <v>890</v>
+      </c>
+      <c r="C11" s="79" t="s">
+        <v>891</v>
+      </c>
+      <c r="D11" s="81" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="173.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="56" t="s">
+        <v>892</v>
+      </c>
+      <c r="B12" s="80" t="s">
+        <v>894</v>
+      </c>
+      <c r="C12" s="79" t="s">
+        <v>893</v>
+      </c>
+      <c r="D12" s="81" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="56" t="s">
+        <v>895</v>
+      </c>
+      <c r="B13" s="80" t="s">
+        <v>896</v>
+      </c>
+      <c r="C13" s="79"/>
+      <c r="D13" s="81"/>
+    </row>
+    <row r="14" spans="1:4" ht="204.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="56" t="s">
+        <v>897</v>
+      </c>
+      <c r="B14" s="80" t="s">
+        <v>899</v>
+      </c>
+      <c r="C14" s="79" t="s">
+        <v>898</v>
+      </c>
+      <c r="D14" s="81" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="299.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="56" t="s">
+        <v>900</v>
+      </c>
+      <c r="B15" s="80" t="s">
+        <v>902</v>
+      </c>
+      <c r="C15" s="79" t="s">
+        <v>901</v>
+      </c>
+      <c r="D15" s="81" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="56" t="s">
+        <v>903</v>
+      </c>
+      <c r="B16" s="80"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="81" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="236.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="56" t="s">
+        <v>905</v>
+      </c>
+      <c r="B17" s="80" t="s">
+        <v>904</v>
+      </c>
+      <c r="C17" s="79" t="s">
+        <v>906</v>
+      </c>
+      <c r="D17" s="81" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="299.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="56" t="s">
+        <v>907</v>
+      </c>
+      <c r="B18" s="80" t="s">
+        <v>908</v>
+      </c>
+      <c r="C18" s="79" t="s">
+        <v>909</v>
+      </c>
+      <c r="D18" s="81" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="56" t="s">
+        <v>910</v>
+      </c>
+      <c r="B19" s="80" t="s">
+        <v>911</v>
+      </c>
+      <c r="C19" s="79" t="s">
+        <v>912</v>
+      </c>
+      <c r="D19" s="81" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="56" t="s">
+        <v>913</v>
+      </c>
+      <c r="B20" s="80"/>
+      <c r="C20" s="79" t="s">
+        <v>914</v>
+      </c>
+      <c r="D20" s="81" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="56" t="s">
+        <v>915</v>
+      </c>
+      <c r="B21" s="80" t="s">
+        <v>916</v>
+      </c>
+      <c r="C21" s="79" t="s">
+        <v>917</v>
+      </c>
+      <c r="D21" s="81" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="204.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="56" t="s">
+        <v>919</v>
+      </c>
+      <c r="B22" s="80" t="s">
+        <v>918</v>
+      </c>
+      <c r="C22" s="79" t="s">
+        <v>920</v>
+      </c>
+      <c r="D22" s="81" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D4" r:id="rId1" xr:uid="{5FE5A86E-9D27-4070-A61D-0DC5FC79E656}"/>
+    <hyperlink ref="D5" r:id="rId2" location="nesting" xr:uid="{1C03DB99-5BA2-45FD-8E25-EAB33B6D28BD}"/>
+    <hyperlink ref="D6" r:id="rId3" xr:uid="{CEDBF147-AAED-44B7-B893-B35D5CD22D45}"/>
+    <hyperlink ref="D7" r:id="rId4" xr:uid="{7E214994-18A3-4442-B612-BA26D5D27A48}"/>
+    <hyperlink ref="D8" r:id="rId5" location="content-blocks" xr:uid="{2C91E3B9-9525-4FB5-9864-3A96583AE862}"/>
+    <hyperlink ref="D9" r:id="rId6" xr:uid="{53B78FB8-98AD-48EF-A449-E82000AAF4A6}"/>
+    <hyperlink ref="D10" r:id="rId7" xr:uid="{20B7F0B1-9055-4F82-A5C6-6CA8BEEDC13A}"/>
+    <hyperlink ref="D11" r:id="rId8" location="partials" xr:uid="{5C0AD2FC-70FC-458E-80DC-03E99A8CAA71}"/>
+    <hyperlink ref="D12" r:id="rId9" location="media" xr:uid="{6293809B-6861-4622-A48E-4C60CA96C9F0}"/>
+    <hyperlink ref="D14" r:id="rId10" xr:uid="{28293FC4-556C-4165-B7A6-4A683B518A8D}"/>
+    <hyperlink ref="D15" r:id="rId11" location="arguments" xr:uid="{283551E3-DD0D-48DD-960D-2F0202A8217F}"/>
+    <hyperlink ref="D16" r:id="rId12" xr:uid="{6B1BE6F5-C82E-4F2C-977C-BA2C842C8938}"/>
+    <hyperlink ref="D17" r:id="rId13" xr:uid="{6099CB43-837B-49A3-B63E-672C02B6B791}"/>
+    <hyperlink ref="D18" r:id="rId14" xr:uid="{8BE4AE5C-B138-4046-B447-86D439AB040C}"/>
+    <hyperlink ref="D19" r:id="rId15" xr:uid="{F717025E-195C-4FCE-8A74-3A6D038A8412}"/>
+    <hyperlink ref="D20" r:id="rId16" xr:uid="{6EDCD131-9E60-4873-9427-333DD9B3AEDB}"/>
+    <hyperlink ref="D21" r:id="rId17" xr:uid="{C81ECE98-5384-498D-98FE-4E2847319C92}"/>
+    <hyperlink ref="D22" r:id="rId18" xr:uid="{7E9E02ED-A58B-4962-BA1B-527B605A5556}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId19"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AB73040-3CFA-4428-B65C-7649A446D17C}">
+  <dimension ref="A2:D23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38" customWidth="1"/>
+    <col min="3" max="3" width="125.42578125" customWidth="1"/>
+    <col min="4" max="4" width="48.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>921</v>
+      </c>
+      <c r="B2" t="s">
+        <v>922</v>
+      </c>
+      <c r="C2" t="s">
+        <v>923</v>
+      </c>
+      <c r="D2" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>925</v>
+      </c>
+      <c r="B3" t="s">
+        <v>926</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>927</v>
+      </c>
+      <c r="D3" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>929</v>
+      </c>
+      <c r="B4" t="s">
+        <v>930</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C5" s="16"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C6" s="16"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="16"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C8" s="16"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="16"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="16"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="16"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C12" s="16"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C13" s="16"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C14" s="16"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15" s="16"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C16" s="16"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="16"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="16"/>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="16"/>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="16"/>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C21" s="16"/>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C22" s="16"/>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C23" s="16"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -5352,8 +6665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D82"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:D11"/>
+    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6569,7 +7882,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -7384,7 +8697,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B55396B-BB8C-4180-AD0D-7E5850126AB0}">
   <dimension ref="A2:L101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
@@ -7717,11 +9030,11 @@
       </c>
       <c r="I11" s="49">
         <f ca="1">TODAY() +I10</f>
-        <v>43812.261111111111</v>
+        <v>43818.261111111111</v>
       </c>
       <c r="J11" s="49">
         <f ca="1">I11+J10</f>
-        <v>43828.338888888888</v>
+        <v>43834.338888888888</v>
       </c>
       <c r="K11" s="49"/>
       <c r="L11" s="49"/>
@@ -9734,8 +11047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB39D374-F7E5-4E1B-A824-7220E4B22623}">
   <dimension ref="A2:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/cheat_sheet.xlsx
+++ b/cheat_sheet.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A52280-B840-4460-B416-138CD6A6C9DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{506BD04E-2611-4908-9930-24E5207BF184}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27330" windowHeight="12495" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1318" uniqueCount="951">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1331" uniqueCount="960">
   <si>
     <t>HTML</t>
   </si>
@@ -3252,6 +3254,42 @@
   </si>
   <si>
     <t>Using Local Storage with JavaScript</t>
+  </si>
+  <si>
+    <t>Combining Arrays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The concat() method is used to merge two or more arrays. This method does not change the existing arrays, but instead returns a new array.
+</t>
+  </si>
+  <si>
+    <t>The indexOf() method returns the first index at which a given element can be found in the array, or -1 if it is not present.</t>
+  </si>
+  <si>
+    <t>Print out array with a separator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The join() method creates and returns a new string by concatenating all of the elements in an array (or an array-like object), separated by commas or a specified separator string. If the array has only one item, then that item will be returned without using the separator.
+</t>
+  </si>
+  <si>
+    <t>Searching for an item in an array</t>
+  </si>
+  <si>
+    <t>var elements = ['Fire', 'Air', 'Water'];
+console.log(elements.join());
+// expected output: "Fire,Air,Water"</t>
+  </si>
+  <si>
+    <t>var beasts = ['ant', 'bison', 'camel', 'duck', 'bison'];
+console.log(beasts.indexOf('bison'));
+// expected output: 1</t>
+  </si>
+  <si>
+    <t>var array1 = ['a', 'b', 'c'];
+var array2 = ['d', 'e', 'f'];
+console.log(array1.concat(array2));
+// expected output: Array ["a", "b", "c", "d", "e", "f"]</t>
   </si>
 </sst>
 </file>
@@ -3664,7 +3702,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3938,10 +3976,7 @@
     <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4232,24 +4267,24 @@
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="43.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.33203125" style="1"/>
+    <col min="9" max="9" width="43.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
@@ -4269,7 +4304,7 @@
       <c r="K1" s="75"/>
       <c r="L1" s="75"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -4307,7 +4342,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -4345,7 +4380,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -4383,7 +4418,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -4421,7 +4456,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
@@ -4453,7 +4488,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
@@ -4479,7 +4514,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -4505,7 +4540,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>568</v>
       </c>
@@ -4525,7 +4560,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I10" s="1" t="s">
         <v>40</v>
       </c>
@@ -4539,7 +4574,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I11" s="1" t="s">
         <v>42</v>
       </c>
@@ -4553,7 +4588,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I12" s="1" t="s">
         <v>548</v>
       </c>
@@ -4597,15 +4632,15 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.88671875" customWidth="1"/>
+    <col min="1" max="1" width="48.85546875" customWidth="1"/>
     <col min="2" max="2" width="58" customWidth="1"/>
-    <col min="3" max="3" width="110.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="110.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="44" t="s">
         <v>1</v>
       </c>
@@ -4619,7 +4654,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A3" s="49" t="s">
         <v>811</v>
       </c>
@@ -4633,7 +4668,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" s="49" t="s">
         <v>815</v>
       </c>
@@ -4647,7 +4682,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="49" t="s">
         <v>816</v>
       </c>
@@ -4659,7 +4694,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="78" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A6" s="49" t="s">
         <v>819</v>
       </c>
@@ -4673,7 +4708,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A7" s="49" t="s">
         <v>824</v>
       </c>
@@ -4687,7 +4722,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A8" s="49" t="s">
         <v>825</v>
       </c>
@@ -4701,7 +4736,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" s="49" t="s">
         <v>827</v>
       </c>
@@ -4715,7 +4750,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A10" s="49" t="s">
         <v>830</v>
       </c>
@@ -4729,7 +4764,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A11" s="49" t="s">
         <v>833</v>
       </c>
@@ -4743,7 +4778,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A12" s="49" t="s">
         <v>837</v>
       </c>
@@ -4757,7 +4792,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A13" s="49" t="s">
         <v>842</v>
       </c>
@@ -4771,7 +4806,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A14" s="49" t="s">
         <v>843</v>
       </c>
@@ -4785,7 +4820,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A15" s="49" t="s">
         <v>862</v>
       </c>
@@ -4799,7 +4834,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="49" t="s">
         <v>846</v>
       </c>
@@ -4809,7 +4844,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A17" s="49" t="s">
         <v>847</v>
       </c>
@@ -4823,7 +4858,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A18" s="49" t="s">
         <v>850</v>
       </c>
@@ -4837,7 +4872,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A19" s="49" t="s">
         <v>852</v>
       </c>
@@ -4851,7 +4886,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A20" s="49" t="s">
         <v>856</v>
       </c>
@@ -4865,7 +4900,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A21" s="49" t="s">
         <v>859</v>
       </c>
@@ -4913,15 +4948,15 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.88671875" customWidth="1"/>
+    <col min="1" max="1" width="48.85546875" customWidth="1"/>
     <col min="2" max="2" width="58" customWidth="1"/>
-    <col min="3" max="3" width="110.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="110.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="44" t="s">
         <v>1</v>
       </c>
@@ -4935,7 +4970,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="49" t="s">
         <v>865</v>
       </c>
@@ -4945,7 +4980,7 @@
       <c r="C3" s="72"/>
       <c r="D3" s="52"/>
     </row>
-    <row r="4" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" s="49" t="s">
         <v>867</v>
       </c>
@@ -4959,7 +4994,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="124.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="126" x14ac:dyDescent="0.25">
       <c r="A5" s="49" t="s">
         <v>870</v>
       </c>
@@ -4973,7 +5008,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="189" x14ac:dyDescent="0.25">
       <c r="A6" s="49" t="s">
         <v>872</v>
       </c>
@@ -4987,7 +5022,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="156" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A7" s="49" t="s">
         <v>877</v>
       </c>
@@ -5001,7 +5036,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="234" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="236.25" x14ac:dyDescent="0.25">
       <c r="A8" s="49" t="s">
         <v>880</v>
       </c>
@@ -5015,7 +5050,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A9" s="49" t="s">
         <v>878</v>
       </c>
@@ -5029,7 +5064,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A10" s="49" t="s">
         <v>881</v>
       </c>
@@ -5043,7 +5078,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A11" s="49" t="s">
         <v>888</v>
       </c>
@@ -5057,7 +5092,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="171.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="173.25" x14ac:dyDescent="0.25">
       <c r="A12" s="49" t="s">
         <v>891</v>
       </c>
@@ -5071,7 +5106,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="78" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A13" s="49" t="s">
         <v>894</v>
       </c>
@@ -5081,7 +5116,7 @@
       <c r="C13" s="72"/>
       <c r="D13" s="74"/>
     </row>
-    <row r="14" spans="1:4" ht="202.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A14" s="49" t="s">
         <v>896</v>
       </c>
@@ -5095,7 +5130,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="296.39999999999998" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="299.25" x14ac:dyDescent="0.25">
       <c r="A15" s="49" t="s">
         <v>899</v>
       </c>
@@ -5109,7 +5144,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="49" t="s">
         <v>902</v>
       </c>
@@ -5119,7 +5154,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="234" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="236.25" x14ac:dyDescent="0.25">
       <c r="A17" s="49" t="s">
         <v>904</v>
       </c>
@@ -5133,7 +5168,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="296.39999999999998" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="299.25" x14ac:dyDescent="0.25">
       <c r="A18" s="49" t="s">
         <v>906</v>
       </c>
@@ -5147,7 +5182,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="78" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A19" s="49" t="s">
         <v>909</v>
       </c>
@@ -5161,7 +5196,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A20" s="49" t="s">
         <v>912</v>
       </c>
@@ -5173,7 +5208,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="140.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A21" s="49" t="s">
         <v>914</v>
       </c>
@@ -5187,7 +5222,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="202.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A22" s="49" t="s">
         <v>918</v>
       </c>
@@ -5235,15 +5270,15 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38" customWidth="1"/>
-    <col min="3" max="3" width="125.44140625" customWidth="1"/>
-    <col min="4" max="4" width="48.6640625" customWidth="1"/>
+    <col min="3" max="3" width="125.42578125" customWidth="1"/>
+    <col min="4" max="4" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>920</v>
       </c>
@@ -5257,7 +5292,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>924</v>
       </c>
@@ -5271,7 +5306,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>928</v>
       </c>
@@ -5282,61 +5317,61 @@
         <v>930</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C5" s="16"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C6" s="16"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C7" s="16"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C8" s="16"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C9" s="16"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C10" s="16"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C11" s="16"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C12" s="16"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C13" s="16"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C14" s="16"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C15" s="16"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C16" s="16"/>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="16"/>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" s="16"/>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" s="16"/>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" s="16"/>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" s="16"/>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22" s="16"/>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C23" s="16"/>
     </row>
   </sheetData>
@@ -5352,21 +5387,21 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="61.5546875" customWidth="1"/>
-    <col min="2" max="2" width="64.88671875" customWidth="1"/>
-    <col min="3" max="3" width="110.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="61.5703125" customWidth="1"/>
+    <col min="2" max="2" width="64.85546875" customWidth="1"/>
+    <col min="3" max="3" width="110.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="76" t="s">
         <v>512</v>
       </c>
       <c r="B1" s="76"/>
       <c r="C1" s="76"/>
     </row>
-    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -5377,7 +5412,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>513</v>
       </c>
@@ -5388,7 +5423,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>29</v>
       </c>
@@ -5397,7 +5432,7 @@
       </c>
       <c r="C4" s="19"/>
     </row>
-    <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>517</v>
       </c>
@@ -5408,7 +5443,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>520</v>
       </c>
@@ -5417,7 +5452,7 @@
       </c>
       <c r="C6" s="19"/>
     </row>
-    <row r="7" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>522</v>
       </c>
@@ -5428,7 +5463,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>525</v>
       </c>
@@ -5437,7 +5472,7 @@
       </c>
       <c r="C8" s="19"/>
     </row>
-    <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>527</v>
       </c>
@@ -5446,7 +5481,7 @@
       </c>
       <c r="C9" s="19"/>
     </row>
-    <row r="10" spans="1:3" ht="108" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="131.25" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>529</v>
       </c>
@@ -5457,7 +5492,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>532</v>
       </c>
@@ -5468,7 +5503,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>535</v>
       </c>
@@ -5477,7 +5512,7 @@
       </c>
       <c r="C12" s="19"/>
     </row>
-    <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>537</v>
       </c>
@@ -5486,7 +5521,7 @@
       </c>
       <c r="C13" s="19"/>
     </row>
-    <row r="14" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>539</v>
       </c>
@@ -5495,7 +5530,7 @@
       </c>
       <c r="C14" s="19"/>
     </row>
-    <row r="15" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>541</v>
       </c>
@@ -5504,7 +5539,7 @@
       </c>
       <c r="C15" s="19"/>
     </row>
-    <row r="16" spans="1:3" ht="36" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>543</v>
       </c>
@@ -5515,7 +5550,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="162" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="168.75" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
         <v>546</v>
       </c>
@@ -5526,7 +5561,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>550</v>
       </c>
@@ -5535,7 +5570,7 @@
       </c>
       <c r="C18" s="19"/>
     </row>
-    <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
         <v>553</v>
       </c>
@@ -5544,7 +5579,7 @@
       </c>
       <c r="C19" s="19"/>
     </row>
-    <row r="20" spans="1:3" ht="36" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
         <v>555</v>
       </c>
@@ -5555,7 +5590,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="108" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
         <v>558</v>
       </c>
@@ -5566,7 +5601,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
         <v>559</v>
       </c>
@@ -5577,7 +5612,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="162" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="168.75" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
         <v>564</v>
       </c>
@@ -5600,20 +5635,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D73"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+    <sheetView topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" style="10" customWidth="1"/>
-    <col min="2" max="2" width="73.33203125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="110.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.28515625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="110.5703125" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="7" customWidth="1"/>
-    <col min="5" max="16384" width="9.33203125" style="5"/>
+    <col min="5" max="16384" width="9.28515625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="77" t="s">
         <v>0</v>
       </c>
@@ -5621,7 +5656,7 @@
       <c r="C1" s="77"/>
       <c r="D1" s="77"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="44" t="s">
         <v>1</v>
       </c>
@@ -5635,7 +5670,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="45" t="s">
         <v>44</v>
       </c>
@@ -5649,7 +5684,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="45" t="s">
         <v>44</v>
       </c>
@@ -5663,7 +5698,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="45" t="s">
         <v>48</v>
       </c>
@@ -5677,7 +5712,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="45" t="s">
         <v>50</v>
       </c>
@@ -5691,7 +5726,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="45" t="s">
         <v>52</v>
       </c>
@@ -5705,7 +5740,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="45" t="s">
         <v>54</v>
       </c>
@@ -5719,7 +5754,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="45" t="s">
         <v>57</v>
       </c>
@@ -5733,7 +5768,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="45" t="s">
         <v>60</v>
       </c>
@@ -5747,7 +5782,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A11" s="45" t="s">
         <v>63</v>
       </c>
@@ -5761,7 +5796,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="45" t="s">
         <v>78</v>
       </c>
@@ -5775,7 +5810,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="45" t="s">
         <v>139</v>
       </c>
@@ -5789,7 +5824,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="45" t="s">
         <v>69</v>
       </c>
@@ -5803,7 +5838,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="45" t="s">
         <v>72</v>
       </c>
@@ -5817,7 +5852,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" s="45" t="s">
         <v>75</v>
       </c>
@@ -5831,7 +5866,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A17" s="49" t="s">
         <v>493</v>
       </c>
@@ -5845,7 +5880,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A18" s="49" t="s">
         <v>494</v>
       </c>
@@ -5859,7 +5894,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A19" s="49" t="s">
         <v>495</v>
       </c>
@@ -5873,7 +5908,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A20" s="45" t="s">
         <v>81</v>
       </c>
@@ -5887,7 +5922,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A21" s="45" t="s">
         <v>84</v>
       </c>
@@ -5901,7 +5936,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" s="45" t="s">
         <v>87</v>
       </c>
@@ -5915,7 +5950,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A23" s="45" t="s">
         <v>90</v>
       </c>
@@ -5929,7 +5964,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A24" s="45" t="s">
         <v>91</v>
       </c>
@@ -5943,7 +5978,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A25" s="45" t="s">
         <v>92</v>
       </c>
@@ -5957,7 +5992,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A26" s="45" t="s">
         <v>99</v>
       </c>
@@ -5971,7 +6006,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A27" s="45" t="s">
         <v>102</v>
       </c>
@@ -5985,7 +6020,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A28" s="45" t="s">
         <v>502</v>
       </c>
@@ -5999,7 +6034,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A29" s="45" t="s">
         <v>105</v>
       </c>
@@ -6013,7 +6048,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A30" s="45" t="s">
         <v>108</v>
       </c>
@@ -6027,7 +6062,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A31" s="45" t="s">
         <v>111</v>
       </c>
@@ -6041,7 +6076,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A32" s="45" t="s">
         <v>113</v>
       </c>
@@ -6055,7 +6090,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A33" s="45" t="s">
         <v>20</v>
       </c>
@@ -6069,7 +6104,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A34" s="45" t="s">
         <v>506</v>
       </c>
@@ -6083,7 +6118,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A35" s="45" t="s">
         <v>509</v>
       </c>
@@ -6097,7 +6132,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A36" s="45" t="s">
         <v>117</v>
       </c>
@@ -6111,7 +6146,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A37" s="45" t="s">
         <v>118</v>
       </c>
@@ -6125,7 +6160,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A38" s="45" t="s">
         <v>121</v>
       </c>
@@ -6139,7 +6174,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A39" s="45" t="s">
         <v>123</v>
       </c>
@@ -6153,7 +6188,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A40" s="45" t="s">
         <v>128</v>
       </c>
@@ -6167,7 +6202,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="82" t="s">
         <v>131</v>
       </c>
@@ -6181,7 +6216,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="83"/>
       <c r="B42" s="81"/>
       <c r="C42" s="79"/>
@@ -6189,7 +6224,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A43" s="45" t="s">
         <v>133</v>
       </c>
@@ -6203,7 +6238,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A44" s="45" t="s">
         <v>569</v>
       </c>
@@ -6217,7 +6252,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="45" t="s">
         <v>136</v>
       </c>
@@ -6231,7 +6266,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A46" s="45" t="s">
         <v>138</v>
       </c>
@@ -6245,7 +6280,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="45" t="s">
         <v>142</v>
       </c>
@@ -6259,7 +6294,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="45" t="s">
         <v>3</v>
       </c>
@@ -6273,7 +6308,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A49" s="53" t="s">
         <v>297</v>
       </c>
@@ -6287,7 +6322,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A50" s="49" t="s">
         <v>366</v>
       </c>
@@ -6301,7 +6336,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A51" s="49" t="s">
         <v>369</v>
       </c>
@@ -6315,7 +6350,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A52" s="49" t="s">
         <v>372</v>
       </c>
@@ -6329,7 +6364,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A53" s="49" t="s">
         <v>376</v>
       </c>
@@ -6343,7 +6378,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A54" s="49" t="s">
         <v>379</v>
       </c>
@@ -6357,7 +6392,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A55" s="49" t="s">
         <v>382</v>
       </c>
@@ -6371,7 +6406,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A56" s="49" t="s">
         <v>383</v>
       </c>
@@ -6385,7 +6420,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A57" s="49" t="s">
         <v>390</v>
       </c>
@@ -6399,7 +6434,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A58" s="49" t="s">
         <v>391</v>
       </c>
@@ -6413,7 +6448,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A59" s="49" t="s">
         <v>392</v>
       </c>
@@ -6427,7 +6462,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A60" s="49" t="s">
         <v>396</v>
       </c>
@@ -6441,7 +6476,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A61" s="49" t="s">
         <v>397</v>
       </c>
@@ -6455,7 +6490,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A62" s="57" t="s">
         <v>400</v>
       </c>
@@ -6467,7 +6502,7 @@
       </c>
       <c r="D62" s="58"/>
     </row>
-    <row r="63" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
         <v>680</v>
       </c>
@@ -6481,7 +6516,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
         <v>681</v>
       </c>
@@ -6495,7 +6530,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
         <v>682</v>
       </c>
@@ -6509,7 +6544,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
         <v>692</v>
       </c>
@@ -6523,7 +6558,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
         <v>696</v>
       </c>
@@ -6537,7 +6572,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
         <v>699</v>
       </c>
@@ -6548,7 +6583,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
         <v>700</v>
       </c>
@@ -6559,7 +6594,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A70" s="10" t="s">
         <v>705</v>
       </c>
@@ -6573,7 +6608,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
         <v>706</v>
       </c>
@@ -6587,7 +6622,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
         <v>707</v>
       </c>
@@ -6601,7 +6636,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
         <v>708</v>
       </c>
@@ -6691,20 +6726,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D82"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.33203125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="32.28515625" style="7" customWidth="1"/>
     <col min="2" max="2" width="75" style="13" customWidth="1"/>
-    <col min="3" max="3" width="110.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="110.5703125" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="7" customWidth="1"/>
-    <col min="5" max="16384" width="9.33203125" style="5"/>
+    <col min="5" max="16384" width="9.28515625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="77" t="s">
         <v>4</v>
       </c>
@@ -6712,7 +6747,7 @@
       <c r="C1" s="77"/>
       <c r="D1" s="77"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="44" t="s">
         <v>1</v>
       </c>
@@ -6726,7 +6761,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="53" t="s">
         <v>5</v>
       </c>
@@ -6740,7 +6775,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
@@ -6754,7 +6789,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="63" t="s">
         <v>8</v>
       </c>
@@ -6768,7 +6803,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="63" t="s">
         <v>147</v>
       </c>
@@ -6782,7 +6817,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="63" t="s">
         <v>150</v>
       </c>
@@ -6796,7 +6831,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="63" t="s">
         <v>154</v>
       </c>
@@ -6810,7 +6845,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="63" t="s">
         <v>156</v>
       </c>
@@ -6824,7 +6859,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A10" s="63" t="s">
         <v>159</v>
       </c>
@@ -6838,7 +6873,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="63" t="s">
         <v>240</v>
       </c>
@@ -6852,7 +6887,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="63" t="s">
         <v>162</v>
       </c>
@@ -6866,7 +6901,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="63" t="s">
         <v>165</v>
       </c>
@@ -6880,7 +6915,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="63" t="s">
         <v>168</v>
       </c>
@@ -6894,7 +6929,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="63" t="s">
         <v>170</v>
       </c>
@@ -6908,7 +6943,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" s="63" t="s">
         <v>174</v>
       </c>
@@ -6922,7 +6957,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="63" t="s">
         <v>177</v>
       </c>
@@ -6936,7 +6971,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A18" s="63" t="s">
         <v>180</v>
       </c>
@@ -6950,7 +6985,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A19" s="63" t="s">
         <v>183</v>
       </c>
@@ -6964,7 +6999,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A20" s="63" t="s">
         <v>186</v>
       </c>
@@ -6978,7 +7013,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="63" t="s">
         <v>190</v>
       </c>
@@ -6992,7 +7027,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="63" t="s">
         <v>192</v>
       </c>
@@ -7006,7 +7041,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A23" s="63" t="s">
         <v>195</v>
       </c>
@@ -7020,7 +7055,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A24" s="63" t="s">
         <v>197</v>
       </c>
@@ -7034,7 +7069,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A25" s="63" t="s">
         <v>201</v>
       </c>
@@ -7048,7 +7083,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="63" t="s">
         <v>204</v>
       </c>
@@ -7062,7 +7097,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A27" s="63" t="s">
         <v>206</v>
       </c>
@@ -7076,7 +7111,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A28" s="63" t="s">
         <v>208</v>
       </c>
@@ -7090,7 +7125,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A29" s="63" t="s">
         <v>212</v>
       </c>
@@ -7104,7 +7139,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A30" s="63" t="s">
         <v>214</v>
       </c>
@@ -7118,7 +7153,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A31" s="63" t="s">
         <v>219</v>
       </c>
@@ -7132,7 +7167,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A32" s="63" t="s">
         <v>220</v>
       </c>
@@ -7146,7 +7181,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A33" s="63" t="s">
         <v>223</v>
       </c>
@@ -7160,7 +7195,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A34" s="63" t="s">
         <v>225</v>
       </c>
@@ -7174,7 +7209,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A35" s="63" t="s">
         <v>228</v>
       </c>
@@ -7188,7 +7223,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A36" s="63" t="s">
         <v>231</v>
       </c>
@@ -7202,7 +7237,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A37" s="63" t="s">
         <v>232</v>
       </c>
@@ -7216,7 +7251,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A38" s="63" t="s">
         <v>237</v>
       </c>
@@ -7230,7 +7265,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A39" s="63" t="s">
         <v>243</v>
       </c>
@@ -7244,7 +7279,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="63" t="s">
         <v>246</v>
       </c>
@@ -7258,7 +7293,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A41" s="63" t="s">
         <v>249</v>
       </c>
@@ -7272,7 +7307,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A42" s="63" t="s">
         <v>252</v>
       </c>
@@ -7286,7 +7321,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A43" s="63" t="s">
         <v>255</v>
       </c>
@@ -7300,7 +7335,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A44" s="63" t="s">
         <v>258</v>
       </c>
@@ -7314,7 +7349,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A45" s="63" t="s">
         <v>261</v>
       </c>
@@ -7328,7 +7363,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="63" t="s">
         <v>264</v>
       </c>
@@ -7342,7 +7377,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="63" t="s">
         <v>267</v>
       </c>
@@ -7356,7 +7391,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A48" s="63" t="s">
         <v>271</v>
       </c>
@@ -7370,7 +7405,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A49" s="63" t="s">
         <v>274</v>
       </c>
@@ -7384,7 +7419,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A50" s="63" t="s">
         <v>276</v>
       </c>
@@ -7398,7 +7433,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A51" s="63" t="s">
         <v>279</v>
       </c>
@@ -7412,7 +7447,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A52" s="63" t="s">
         <v>281</v>
       </c>
@@ -7426,7 +7461,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A53" s="63" t="s">
         <v>284</v>
       </c>
@@ -7440,7 +7475,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A54" s="63" t="s">
         <v>285</v>
       </c>
@@ -7454,7 +7489,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="78" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A55" s="63" t="s">
         <v>289</v>
       </c>
@@ -7468,7 +7503,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="63" t="s">
         <v>292</v>
       </c>
@@ -7482,7 +7517,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A57" s="63" t="s">
         <v>300</v>
       </c>
@@ -7496,7 +7531,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A58" s="53" t="s">
         <v>303</v>
       </c>
@@ -7510,7 +7545,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="68" t="s">
         <v>306</v>
       </c>
@@ -7524,7 +7559,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="78" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A60" s="53" t="s">
         <v>309</v>
       </c>
@@ -7538,7 +7573,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A61" s="53" t="s">
         <v>311</v>
       </c>
@@ -7552,7 +7587,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A62" s="53" t="s">
         <v>315</v>
       </c>
@@ -7566,7 +7601,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A63" s="53" t="s">
         <v>318</v>
       </c>
@@ -7580,7 +7615,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A64" s="53" t="s">
         <v>321</v>
       </c>
@@ -7594,7 +7629,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A65" s="53" t="s">
         <v>324</v>
       </c>
@@ -7608,7 +7643,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A66" s="53" t="s">
         <v>327</v>
       </c>
@@ -7622,7 +7657,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A67" s="53" t="s">
         <v>330</v>
       </c>
@@ -7636,7 +7671,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A68" s="53" t="s">
         <v>333</v>
       </c>
@@ -7650,7 +7685,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="68" t="s">
         <v>336</v>
       </c>
@@ -7664,7 +7699,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A70" s="68" t="s">
         <v>338</v>
       </c>
@@ -7678,7 +7713,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A71" s="68" t="s">
         <v>342</v>
       </c>
@@ -7692,7 +7727,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A72" s="68" t="s">
         <v>343</v>
       </c>
@@ -7706,7 +7741,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A73" s="68" t="s">
         <v>361</v>
       </c>
@@ -7720,7 +7755,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="68" t="s">
         <v>364</v>
       </c>
@@ -7732,7 +7767,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A75" s="68" t="s">
         <v>346</v>
       </c>
@@ -7746,7 +7781,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A76" s="68" t="s">
         <v>349</v>
       </c>
@@ -7760,7 +7795,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A77" s="68" t="s">
         <v>354</v>
       </c>
@@ -7774,7 +7809,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A78" s="68" t="s">
         <v>352</v>
       </c>
@@ -7788,7 +7823,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A79" s="68" t="s">
         <v>353</v>
       </c>
@@ -7802,7 +7837,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="218.4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
         <v>677</v>
       </c>
@@ -7810,7 +7845,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C82" s="7" t="s">
         <v>679</v>
       </c>
@@ -7908,20 +7943,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" style="16" customWidth="1"/>
-    <col min="2" max="2" width="73.33203125" style="16" customWidth="1"/>
-    <col min="3" max="3" width="110.5546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.28515625" style="16" customWidth="1"/>
+    <col min="3" max="3" width="110.5703125" style="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="16" customWidth="1"/>
-    <col min="5" max="16384" width="9.33203125" style="16"/>
+    <col min="5" max="16384" width="9.28515625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="77" t="s">
         <v>489</v>
       </c>
@@ -7929,7 +7964,7 @@
       <c r="C1" s="77"/>
       <c r="D1" s="77"/>
     </row>
-    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="44" t="s">
         <v>1</v>
       </c>
@@ -7943,403 +7978,429 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="45" t="s">
+    <row r="3" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="53" t="s">
         <v>403</v>
       </c>
-      <c r="B3" s="93" t="s">
+      <c r="B3" s="62" t="s">
         <v>405</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="56" t="s">
         <v>404</v>
       </c>
-      <c r="D3" s="48" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="45" t="s">
+      <c r="D3" s="56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="53" t="s">
         <v>406</v>
       </c>
-      <c r="B4" s="93" t="s">
+      <c r="B4" s="62" t="s">
         <v>407</v>
       </c>
-      <c r="C4" s="94" t="s">
+      <c r="C4" s="67" t="s">
         <v>408</v>
       </c>
-      <c r="D4" s="48"/>
-    </row>
-    <row r="5" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="45" t="s">
+      <c r="D4" s="56"/>
+    </row>
+    <row r="5" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="53" t="s">
         <v>409</v>
       </c>
-      <c r="B5" s="93" t="s">
+      <c r="B5" s="62" t="s">
         <v>411</v>
       </c>
-      <c r="C5" s="94" t="s">
+      <c r="C5" s="67" t="s">
         <v>410</v>
       </c>
-      <c r="D5" s="48"/>
-    </row>
-    <row r="6" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="45" t="s">
+      <c r="D5" s="56"/>
+    </row>
+    <row r="6" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="53" t="s">
         <v>412</v>
       </c>
-      <c r="B6" s="93" t="s">
+      <c r="B6" s="62" t="s">
         <v>415</v>
       </c>
-      <c r="C6" s="94" t="s">
+      <c r="C6" s="67" t="s">
         <v>414</v>
       </c>
-      <c r="D6" s="48"/>
-    </row>
-    <row r="7" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="45" t="s">
+      <c r="D6" s="56"/>
+    </row>
+    <row r="7" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="53" t="s">
         <v>413</v>
       </c>
-      <c r="B7" s="93" t="s">
+      <c r="B7" s="62" t="s">
         <v>416</v>
       </c>
-      <c r="C7" s="94" t="s">
+      <c r="C7" s="67" t="s">
         <v>417</v>
       </c>
-      <c r="D7" s="48"/>
-    </row>
-    <row r="8" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="45" t="s">
+      <c r="D7" s="56"/>
+    </row>
+    <row r="8" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="53" t="s">
         <v>418</v>
       </c>
-      <c r="B8" s="93" t="s">
+      <c r="B8" s="62" t="s">
         <v>420</v>
       </c>
-      <c r="C8" s="94"/>
-      <c r="D8" s="48" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="45" t="s">
+      <c r="C8" s="67"/>
+      <c r="D8" s="56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="53" t="s">
         <v>419</v>
       </c>
-      <c r="B9" s="93" t="s">
+      <c r="B9" s="62" t="s">
         <v>421</v>
       </c>
-      <c r="C9" s="94"/>
-      <c r="D9" s="48" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="45" t="s">
+      <c r="C9" s="67"/>
+      <c r="D9" s="56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="53" t="s">
         <v>422</v>
       </c>
-      <c r="B10" s="93" t="s">
+      <c r="B10" s="62" t="s">
         <v>423</v>
       </c>
-      <c r="C10" s="94" t="s">
+      <c r="C10" s="67" t="s">
         <v>424</v>
       </c>
-      <c r="D10" s="48" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="45" t="s">
+      <c r="D10" s="56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="53" t="s">
         <v>425</v>
       </c>
-      <c r="B11" s="93" t="s">
+      <c r="B11" s="62" t="s">
         <v>427</v>
       </c>
-      <c r="C11" s="94" t="s">
+      <c r="C11" s="67" t="s">
         <v>426</v>
       </c>
-      <c r="D11" s="48" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="45" t="s">
+      <c r="D11" s="56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A12" s="53" t="s">
         <v>428</v>
       </c>
-      <c r="B12" s="93" t="s">
+      <c r="B12" s="62" t="s">
         <v>430</v>
       </c>
-      <c r="C12" s="94" t="s">
+      <c r="C12" s="67" t="s">
         <v>429</v>
       </c>
-      <c r="D12" s="48" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="45" t="s">
+      <c r="D12" s="56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="53" t="s">
         <v>431</v>
       </c>
-      <c r="B13" s="93" t="s">
+      <c r="B13" s="62" t="s">
         <v>433</v>
       </c>
-      <c r="C13" s="94" t="s">
+      <c r="C13" s="67" t="s">
         <v>432</v>
       </c>
-      <c r="D13" s="48" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="45" t="s">
+      <c r="D13" s="56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A14" s="53" t="s">
         <v>434</v>
       </c>
-      <c r="B14" s="93" t="s">
+      <c r="B14" s="62" t="s">
         <v>436</v>
       </c>
-      <c r="C14" s="94" t="s">
+      <c r="C14" s="67" t="s">
         <v>435</v>
       </c>
-      <c r="D14" s="48" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="45" t="s">
+      <c r="D14" s="56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A15" s="53" t="s">
         <v>437</v>
       </c>
-      <c r="B15" s="93" t="s">
+      <c r="B15" s="62" t="s">
         <v>438</v>
       </c>
-      <c r="C15" s="94" t="s">
+      <c r="C15" s="67" t="s">
         <v>439</v>
       </c>
-      <c r="D15" s="48" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="45" t="s">
+      <c r="D15" s="56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="53" t="s">
         <v>440</v>
       </c>
-      <c r="B16" s="93" t="s">
+      <c r="B16" s="62" t="s">
         <v>441</v>
       </c>
-      <c r="C16" s="94" t="s">
+      <c r="C16" s="67" t="s">
         <v>442</v>
       </c>
-      <c r="D16" s="48" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="45" t="s">
+      <c r="D16" s="56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A17" s="53" t="s">
         <v>443</v>
       </c>
-      <c r="B17" s="93" t="s">
+      <c r="B17" s="62" t="s">
         <v>444</v>
       </c>
-      <c r="C17" s="94" t="s">
+      <c r="C17" s="67" t="s">
         <v>448</v>
       </c>
-      <c r="D17" s="48" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="45" t="s">
+      <c r="D17" s="56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A18" s="53" t="s">
         <v>445</v>
       </c>
-      <c r="B18" s="93" t="s">
+      <c r="B18" s="62" t="s">
         <v>446</v>
       </c>
-      <c r="C18" s="94" t="s">
+      <c r="C18" s="67" t="s">
         <v>447</v>
       </c>
-      <c r="D18" s="48"/>
-    </row>
-    <row r="19" spans="1:4" ht="78" x14ac:dyDescent="0.3">
-      <c r="A19" s="45" t="s">
+      <c r="D18" s="56"/>
+    </row>
+    <row r="19" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="53" t="s">
         <v>449</v>
       </c>
-      <c r="B19" s="93" t="s">
+      <c r="B19" s="62" t="s">
         <v>450</v>
       </c>
-      <c r="C19" s="94"/>
-      <c r="D19" s="48"/>
-    </row>
-    <row r="20" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="45" t="s">
+      <c r="C19" s="67"/>
+      <c r="D19" s="56"/>
+    </row>
+    <row r="20" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="53" t="s">
         <v>452</v>
       </c>
-      <c r="B20" s="93" t="s">
+      <c r="B20" s="62" t="s">
         <v>451</v>
       </c>
-      <c r="C20" s="94"/>
-      <c r="D20" s="48"/>
-    </row>
-    <row r="21" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="45" t="s">
+      <c r="C20" s="67"/>
+      <c r="D20" s="56"/>
+    </row>
+    <row r="21" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="53" t="s">
         <v>453</v>
       </c>
-      <c r="B21" s="93" t="s">
+      <c r="B21" s="62" t="s">
         <v>455</v>
       </c>
-      <c r="C21" s="94" t="s">
+      <c r="C21" s="67" t="s">
         <v>454</v>
       </c>
-      <c r="D21" s="48"/>
-    </row>
-    <row r="22" spans="1:4" ht="78" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
+      <c r="D21" s="56"/>
+    </row>
+    <row r="22" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="53" t="s">
         <v>461</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="62" t="s">
         <v>456</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="67" t="s">
         <v>458</v>
       </c>
-      <c r="D22" s="9"/>
-    </row>
-    <row r="23" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="s">
+      <c r="D22" s="93" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A23" s="53" t="s">
         <v>462</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="62" t="s">
         <v>457</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="67" t="s">
         <v>459</v>
       </c>
-      <c r="D23" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="8" t="s">
+      <c r="D23" s="56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="53" t="s">
         <v>463</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="62" t="s">
         <v>460</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="67" t="s">
         <v>464</v>
       </c>
-      <c r="D24" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="78" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="s">
+      <c r="D24" s="56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="53" t="s">
         <v>466</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="62" t="s">
         <v>465</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="67" t="s">
         <v>467</v>
       </c>
-      <c r="D25" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A26" s="8" t="s">
+      <c r="D25" s="56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A26" s="53" t="s">
         <v>469</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="62" t="s">
         <v>468</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="67" t="s">
         <v>470</v>
       </c>
-      <c r="D26" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A27" s="8" t="s">
+      <c r="D26" s="56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="53" t="s">
         <v>471</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="62" t="s">
         <v>472</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="67" t="s">
         <v>473</v>
       </c>
-      <c r="D27" s="9"/>
-    </row>
-    <row r="28" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="8" t="s">
+      <c r="D27" s="56"/>
+    </row>
+    <row r="28" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A28" s="53" t="s">
         <v>474</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="62" t="s">
         <v>475</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="67" t="s">
         <v>478</v>
       </c>
-      <c r="D28" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A29" s="8" t="s">
+      <c r="D28" s="56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A29" s="53" t="s">
         <v>476</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="62" t="s">
         <v>477</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="67" t="s">
         <v>479</v>
       </c>
-      <c r="D29" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A30" s="8" t="s">
+      <c r="D29" s="56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A30" s="53" t="s">
         <v>480</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="62" t="s">
         <v>483</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="67" t="s">
         <v>485</v>
       </c>
-      <c r="D30" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A31" s="8" t="s">
+      <c r="D30" s="56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A31" s="53" t="s">
         <v>481</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="62" t="s">
         <v>482</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C31" s="67" t="s">
         <v>484</v>
       </c>
-      <c r="D31" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="8"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="11"/>
-    </row>
-    <row r="33" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="8"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="11"/>
-    </row>
-    <row r="34" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="8"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="11"/>
-    </row>
-    <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D31" s="56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>951</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>959</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>952</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>956</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>958</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>953</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>954</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>957</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>955</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="12"/>
       <c r="C35" s="14"/>
@@ -8369,9 +8430,13 @@
     <hyperlink ref="D29" r:id="rId17" xr:uid="{4F06DA26-D8CD-4539-B77E-73CFA445F294}"/>
     <hyperlink ref="D31" r:id="rId18" xr:uid="{71AD0149-A581-4C0E-A3CD-CAC919DE29F9}"/>
     <hyperlink ref="D30" r:id="rId19" xr:uid="{F4356921-6696-475F-8AA0-44A5102FCD02}"/>
+    <hyperlink ref="D22" r:id="rId20" xr:uid="{1C53DB16-DF12-4E4F-A83B-6BFFEE5DEB11}"/>
+    <hyperlink ref="D32" r:id="rId21" xr:uid="{2331C27A-E1A3-4CFC-B2D4-59F35804376A}"/>
+    <hyperlink ref="D33" r:id="rId22" xr:uid="{B0C1E57B-CC4F-4D3B-9BEB-A36314865D8A}"/>
+    <hyperlink ref="D34" r:id="rId23" xr:uid="{318C473F-4E0E-4D25-91C4-281486AC720E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId20"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId24"/>
 </worksheet>
 </file>
 
@@ -8385,15 +8450,15 @@
       <selection pane="topRight" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
-    <col min="2" max="2" width="57.88671875" customWidth="1"/>
-    <col min="3" max="3" width="110.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.85546875" customWidth="1"/>
+    <col min="3" max="3" width="110.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="76" t="s">
         <v>490</v>
       </c>
@@ -8401,7 +8466,7 @@
       <c r="C1" s="76"/>
       <c r="D1" s="76"/>
     </row>
-    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -8415,199 +8480,199 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
       <c r="B3" s="12"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
     </row>
-    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="12"/>
       <c r="C4" s="14"/>
       <c r="D4" s="9"/>
     </row>
-    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="12"/>
       <c r="C5" s="14"/>
       <c r="D5" s="9"/>
     </row>
-    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="12"/>
       <c r="C6" s="14"/>
       <c r="D6" s="9"/>
     </row>
-    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="12"/>
       <c r="C7" s="14"/>
       <c r="D7" s="9"/>
     </row>
-    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="12"/>
       <c r="C8" s="14"/>
       <c r="D8" s="9"/>
     </row>
-    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="12"/>
       <c r="C9" s="14"/>
       <c r="D9" s="9"/>
     </row>
-    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="12"/>
       <c r="C10" s="14"/>
       <c r="D10" s="11"/>
     </row>
-    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="12"/>
       <c r="C11" s="14"/>
       <c r="D11" s="9"/>
     </row>
-    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="12"/>
       <c r="C12" s="14"/>
       <c r="D12" s="11"/>
     </row>
-    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="B13" s="12"/>
       <c r="C13" s="14"/>
       <c r="D13" s="11"/>
     </row>
-    <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="12"/>
       <c r="C14" s="14"/>
       <c r="D14" s="11"/>
     </row>
-    <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="12"/>
       <c r="C15" s="14"/>
       <c r="D15" s="11"/>
     </row>
-    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="12"/>
       <c r="C16" s="14"/>
       <c r="D16" s="11"/>
     </row>
-    <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="12"/>
       <c r="C17" s="14"/>
       <c r="D17" s="11"/>
     </row>
-    <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="12"/>
       <c r="C18" s="14"/>
       <c r="D18" s="11"/>
     </row>
-    <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="12"/>
       <c r="C19" s="14"/>
       <c r="D19" s="11"/>
     </row>
-    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="12"/>
       <c r="C20" s="14"/>
       <c r="D20" s="11"/>
     </row>
-    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="12"/>
       <c r="C21" s="14"/>
       <c r="D21" s="11"/>
     </row>
-    <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="12"/>
       <c r="C22" s="14"/>
       <c r="D22" s="11"/>
     </row>
-    <row r="23" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="12"/>
       <c r="C23" s="14"/>
       <c r="D23" s="11"/>
     </row>
-    <row r="24" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="12"/>
       <c r="C24" s="14"/>
       <c r="D24" s="11"/>
     </row>
-    <row r="25" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="12"/>
       <c r="C25" s="14"/>
       <c r="D25" s="11"/>
     </row>
-    <row r="26" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="12"/>
       <c r="C26" s="14"/>
       <c r="D26" s="11"/>
     </row>
-    <row r="27" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="12"/>
       <c r="C27" s="14"/>
       <c r="D27" s="11"/>
     </row>
-    <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="12"/>
       <c r="C28" s="14"/>
       <c r="D28" s="11"/>
     </row>
-    <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" s="12"/>
       <c r="C29" s="14"/>
       <c r="D29" s="11"/>
     </row>
-    <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="12"/>
       <c r="C30" s="14"/>
       <c r="D30" s="11"/>
     </row>
-    <row r="31" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="12"/>
       <c r="C31" s="14"/>
       <c r="D31" s="11"/>
     </row>
-    <row r="32" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="12"/>
       <c r="C32" s="14"/>
       <c r="D32" s="11"/>
     </row>
-    <row r="33" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="12"/>
       <c r="C33" s="14"/>
       <c r="D33" s="11"/>
     </row>
-    <row r="34" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="12"/>
       <c r="C34" s="14"/>
       <c r="D34" s="11"/>
     </row>
-    <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="12"/>
       <c r="C35" s="14"/>
@@ -8630,14 +8695,14 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
-    <col min="2" max="2" width="36.33203125" customWidth="1"/>
+    <col min="2" max="2" width="36.28515625" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -8648,7 +8713,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="84" t="s">
         <v>399</v>
       </c>
@@ -8656,13 +8721,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="75"/>
       <c r="C3" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>486</v>
       </c>
@@ -8670,7 +8735,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>487</v>
       </c>
@@ -8678,7 +8743,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>488</v>
       </c>
@@ -8686,7 +8751,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>492</v>
       </c>
@@ -8694,7 +8759,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>575</v>
       </c>
@@ -8727,24 +8792,24 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.6640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="16" customWidth="1"/>
+    <col min="1" max="1" width="45.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="16" customWidth="1"/>
     <col min="3" max="3" width="11" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" style="16" customWidth="1"/>
-    <col min="5" max="5" width="6.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.5546875" style="16" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="16" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.5703125" style="16" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="17" style="16" customWidth="1"/>
-    <col min="8" max="8" width="27.88671875" style="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.6640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.5546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.6640625" style="16" customWidth="1"/>
-    <col min="13" max="16384" width="11.44140625" style="16"/>
+    <col min="8" max="8" width="27.85546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" style="16" customWidth="1"/>
+    <col min="13" max="16384" width="11.42578125" style="16"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="92" t="s">
         <v>601</v>
       </c>
@@ -8753,7 +8818,7 @@
       <c r="D2" s="92"/>
       <c r="E2" s="92"/>
     </row>
-    <row r="3" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>577</v>
       </c>
@@ -8770,7 +8835,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
         <v>630</v>
       </c>
@@ -8793,7 +8858,7 @@
       </c>
       <c r="G4" s="21"/>
     </row>
-    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
         <v>631</v>
       </c>
@@ -8823,7 +8888,7 @@
       <c r="K5" s="87"/>
       <c r="L5" s="88"/>
     </row>
-    <row r="6" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
         <v>632</v>
       </c>
@@ -8861,7 +8926,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>633</v>
       </c>
@@ -8903,7 +8968,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>609</v>
       </c>
@@ -8945,7 +9010,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
         <v>581</v>
       </c>
@@ -8987,7 +9052,7 @@
         <v>15.138888888888886</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>582</v>
       </c>
@@ -9029,7 +9094,7 @@
         <v>13.591666666666663</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>931</v>
       </c>
@@ -9056,16 +9121,16 @@
       </c>
       <c r="I11" s="42">
         <f ca="1">TODAY() +I10</f>
-        <v>43824.052777777775</v>
+        <v>43825.052777777775</v>
       </c>
       <c r="J11" s="42">
         <f ca="1">I11+J10</f>
-        <v>43840.130555555552</v>
+        <v>43841.130555555552</v>
       </c>
       <c r="K11" s="42"/>
       <c r="L11" s="42"/>
     </row>
-    <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="22" t="s">
         <v>583</v>
       </c>
@@ -9107,7 +9172,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="22" t="s">
         <v>584</v>
       </c>
@@ -9140,7 +9205,7 @@
       <c r="K13" s="90"/>
       <c r="L13" s="91"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>585</v>
       </c>
@@ -9165,7 +9230,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>586</v>
       </c>
@@ -9190,7 +9255,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
         <v>587</v>
       </c>
@@ -9213,7 +9278,7 @@
       </c>
       <c r="G16" s="21"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>932</v>
       </c>
@@ -9236,7 +9301,7 @@
       </c>
       <c r="G17" s="21"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>809</v>
       </c>
@@ -9256,7 +9321,7 @@
       <c r="F18" s="21"/>
       <c r="G18" s="21"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
         <v>588</v>
       </c>
@@ -9281,7 +9346,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
         <v>945</v>
       </c>
@@ -9306,7 +9371,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
         <v>936</v>
       </c>
@@ -9331,7 +9396,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
         <v>947</v>
       </c>
@@ -9356,7 +9421,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
         <v>948</v>
       </c>
@@ -9381,7 +9446,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
         <v>617</v>
       </c>
@@ -9406,7 +9471,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
         <v>933</v>
       </c>
@@ -9431,7 +9496,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
         <v>937</v>
       </c>
@@ -9456,7 +9521,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
         <v>949</v>
       </c>
@@ -9481,7 +9546,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
         <v>938</v>
       </c>
@@ -9506,7 +9571,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
         <v>939</v>
       </c>
@@ -9531,7 +9596,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
         <v>950</v>
       </c>
@@ -9556,7 +9621,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
         <v>589</v>
       </c>
@@ -9581,7 +9646,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
         <v>590</v>
       </c>
@@ -9604,7 +9669,7 @@
       </c>
       <c r="G32" s="21"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
         <v>591</v>
       </c>
@@ -9627,7 +9692,7 @@
       </c>
       <c r="G33" s="21"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
         <v>592</v>
       </c>
@@ -9650,7 +9715,7 @@
       </c>
       <c r="G34" s="21"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="22" t="s">
         <v>593</v>
       </c>
@@ -9673,7 +9738,7 @@
       </c>
       <c r="G35" s="21"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="22" t="s">
         <v>594</v>
       </c>
@@ -9698,7 +9763,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="22" t="s">
         <v>595</v>
       </c>
@@ -9723,7 +9788,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="22" t="s">
         <v>942</v>
       </c>
@@ -9748,7 +9813,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
         <v>596</v>
       </c>
@@ -9773,7 +9838,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="s">
         <v>597</v>
       </c>
@@ -9798,7 +9863,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="22" t="s">
         <v>943</v>
       </c>
@@ -9823,7 +9888,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="22" t="s">
         <v>598</v>
       </c>
@@ -9846,7 +9911,7 @@
       </c>
       <c r="G42" s="21"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="s">
         <v>599</v>
       </c>
@@ -9869,7 +9934,7 @@
       </c>
       <c r="G43" s="21"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="22" t="s">
         <v>600</v>
       </c>
@@ -9894,10 +9959,10 @@
         <v>944</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F45" s="21"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="85" t="s">
         <v>607</v>
       </c>
@@ -9907,7 +9972,7 @@
       <c r="E46" s="85"/>
       <c r="F46" s="21"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="22" t="s">
         <v>608</v>
       </c>
@@ -9929,7 +9994,7 @@
         <v>3.1666666666666665</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="22" t="s">
         <v>609</v>
       </c>
@@ -9951,7 +10016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="22" t="s">
         <v>585</v>
       </c>
@@ -9973,7 +10038,7 @@
         <v>6.4333333333333336</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="22" t="s">
         <v>610</v>
       </c>
@@ -9995,7 +10060,7 @@
         <v>2.7333333333333334</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="22" t="s">
         <v>611</v>
       </c>
@@ -10017,7 +10082,7 @@
         <v>2.8166666666666669</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="22" t="s">
         <v>586</v>
       </c>
@@ -10039,7 +10104,7 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="22" t="s">
         <v>612</v>
       </c>
@@ -10061,7 +10126,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="22" t="s">
         <v>594</v>
       </c>
@@ -10083,7 +10148,7 @@
         <v>4.4833333333333334</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="22" t="s">
         <v>595</v>
       </c>
@@ -10105,7 +10170,7 @@
         <v>3.9166666666666665</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="22" t="s">
         <v>613</v>
       </c>
@@ -10127,7 +10192,7 @@
         <v>2.7333333333333334</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="22" t="s">
         <v>597</v>
       </c>
@@ -10149,7 +10214,7 @@
         <v>3.8666666666666667</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="22" t="s">
         <v>614</v>
       </c>
@@ -10171,7 +10236,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="22" t="s">
         <v>615</v>
       </c>
@@ -10193,7 +10258,7 @@
         <v>3.8666666666666667</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="22" t="s">
         <v>616</v>
       </c>
@@ -10215,7 +10280,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="22" t="s">
         <v>617</v>
       </c>
@@ -10237,7 +10302,7 @@
         <v>2.4166666666666665</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="22" t="s">
         <v>618</v>
       </c>
@@ -10259,7 +10324,7 @@
         <v>4.0333333333333332</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="22" t="s">
         <v>619</v>
       </c>
@@ -10281,7 +10346,7 @@
         <v>3.2666666666666666</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="22" t="s">
         <v>629</v>
       </c>
@@ -10303,7 +10368,7 @@
         <v>2.2333333333333334</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="22" t="s">
         <v>620</v>
       </c>
@@ -10325,7 +10390,7 @@
         <v>6.1166666666666663</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="22" t="s">
         <v>621</v>
       </c>
@@ -10347,7 +10412,7 @@
         <v>2.3666666666666667</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="22" t="s">
         <v>622</v>
       </c>
@@ -10369,7 +10434,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="22" t="s">
         <v>623</v>
       </c>
@@ -10391,7 +10456,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="22" t="s">
         <v>624</v>
       </c>
@@ -10413,7 +10478,7 @@
         <v>3.6833333333333331</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="22" t="s">
         <v>625</v>
       </c>
@@ -10435,7 +10500,7 @@
         <v>4.8666666666666663</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="22" t="s">
         <v>626</v>
       </c>
@@ -10457,7 +10522,7 @@
         <v>3.3333333333333335</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="22" t="s">
         <v>627</v>
       </c>
@@ -10479,7 +10544,7 @@
         <v>3.6666666666666665</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="22" t="s">
         <v>628</v>
       </c>
@@ -10501,12 +10566,12 @@
         <v>2.6166666666666667</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D74" s="28"/>
       <c r="E74" s="29"/>
       <c r="F74" s="30"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="85" t="s">
         <v>638</v>
       </c>
@@ -10516,7 +10581,7 @@
       <c r="E75" s="85"/>
       <c r="F75" s="33"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="22" t="s">
         <v>639</v>
       </c>
@@ -10538,7 +10603,7 @@
         <v>2.9166666666666665</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="22" t="s">
         <v>640</v>
       </c>
@@ -10560,7 +10625,7 @@
         <v>4.7833333333333332</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="22" t="s">
         <v>641</v>
       </c>
@@ -10582,7 +10647,7 @@
         <v>4.8666666666666663</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="22" t="s">
         <v>642</v>
       </c>
@@ -10604,7 +10669,7 @@
         <v>3.1833333333333331</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="22" t="s">
         <v>643</v>
       </c>
@@ -10626,7 +10691,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="22" t="s">
         <v>644</v>
       </c>
@@ -10648,7 +10713,7 @@
         <v>6.333333333333333</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="22" t="s">
         <v>645</v>
       </c>
@@ -10670,7 +10735,7 @@
         <v>4.333333333333333</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="22" t="s">
         <v>646</v>
       </c>
@@ -10692,7 +10757,7 @@
         <v>2.9333333333333331</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="22" t="s">
         <v>647</v>
       </c>
@@ -10714,7 +10779,7 @@
         <v>3.5666666666666669</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="22" t="s">
         <v>648</v>
       </c>
@@ -10736,7 +10801,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="22" t="s">
         <v>649</v>
       </c>
@@ -10758,7 +10823,7 @@
         <v>4.0333333333333332</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="22" t="s">
         <v>650</v>
       </c>
@@ -10780,7 +10845,7 @@
         <v>2.7166666666666668</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="22" t="s">
         <v>651</v>
       </c>
@@ -10802,7 +10867,7 @@
         <v>3.2666666666666666</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="22" t="s">
         <v>652</v>
       </c>
@@ -10824,12 +10889,12 @@
         <v>4.416666666666667</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D90" s="28"/>
       <c r="E90" s="29"/>
       <c r="F90" s="30"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="85" t="s">
         <v>654</v>
       </c>
@@ -10839,7 +10904,7 @@
       <c r="E91" s="85"/>
       <c r="F91" s="85"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="31" t="s">
         <v>630</v>
       </c>
@@ -10861,7 +10926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="22" t="s">
         <v>655</v>
       </c>
@@ -10883,7 +10948,7 @@
         <v>4.6500000000000004</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="22" t="s">
         <v>631</v>
       </c>
@@ -10905,7 +10970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="22" t="s">
         <v>656</v>
       </c>
@@ -10927,7 +10992,7 @@
         <v>5.2166666666666668</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="22" t="s">
         <v>657</v>
       </c>
@@ -10949,7 +11014,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="22" t="s">
         <v>658</v>
       </c>
@@ -10971,7 +11036,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="22" t="s">
         <v>659</v>
       </c>
@@ -10993,7 +11058,7 @@
         <v>2.5666666666666669</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="22" t="s">
         <v>660</v>
       </c>
@@ -11015,7 +11080,7 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="22" t="s">
         <v>661</v>
       </c>
@@ -11037,7 +11102,7 @@
         <v>2.7333333333333334</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="22" t="s">
         <v>662</v>
       </c>
@@ -11059,7 +11124,7 @@
         <v>5.3833333333333337</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="22" t="s">
         <v>663</v>
       </c>
@@ -11081,7 +11146,7 @@
         <v>3.3833333333333333</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="22" t="s">
         <v>664</v>
       </c>
@@ -11103,7 +11168,7 @@
         <v>4.2833333333333332</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="22" t="s">
         <v>665</v>
       </c>
@@ -11125,7 +11190,7 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="22" t="s">
         <v>666</v>
       </c>
@@ -11147,7 +11212,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="22" t="s">
         <v>667</v>
       </c>
@@ -11169,7 +11234,7 @@
         <v>2.4333333333333331</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="22" t="s">
         <v>668</v>
       </c>
@@ -11191,7 +11256,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="22" t="s">
         <v>669</v>
       </c>
@@ -11213,7 +11278,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="22" t="s">
         <v>625</v>
       </c>
@@ -11235,7 +11300,7 @@
         <v>4.8666666666666663</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="22" t="s">
         <v>670</v>
       </c>
@@ -11257,7 +11322,7 @@
         <v>4.7833333333333332</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="22" t="s">
         <v>671</v>
       </c>
@@ -11279,7 +11344,7 @@
         <v>6.05</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="22" t="s">
         <v>672</v>
       </c>
@@ -11301,7 +11366,7 @@
         <v>2.8166666666666669</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="22" t="s">
         <v>626</v>
       </c>
@@ -11323,7 +11388,7 @@
         <v>3.3333333333333335</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="22" t="s">
         <v>673</v>
       </c>
@@ -11345,7 +11410,7 @@
         <v>4.3666666666666663</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="22" t="s">
         <v>674</v>
       </c>
@@ -11443,15 +11508,15 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.88671875" customWidth="1"/>
+    <col min="1" max="1" width="48.85546875" customWidth="1"/>
     <col min="2" max="2" width="58" customWidth="1"/>
-    <col min="3" max="3" width="110.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="110.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="44" t="s">
         <v>1</v>
       </c>
@@ -11465,7 +11530,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="49" t="s">
         <v>721</v>
       </c>
@@ -11479,7 +11544,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="49" t="s">
         <v>722</v>
       </c>
@@ -11493,7 +11558,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="49" t="s">
         <v>723</v>
       </c>
@@ -11507,7 +11572,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A6" s="49" t="s">
         <v>727</v>
       </c>
@@ -11521,7 +11586,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="49" t="s">
         <v>728</v>
       </c>
@@ -11535,7 +11600,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" s="49" t="s">
         <v>737</v>
       </c>
@@ -11547,7 +11612,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" s="49" t="s">
         <v>738</v>
       </c>
@@ -11557,7 +11622,7 @@
       <c r="C9" s="72"/>
       <c r="D9" s="52"/>
     </row>
-    <row r="10" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A10" s="49" t="s">
         <v>741</v>
       </c>
@@ -11567,7 +11632,7 @@
       <c r="C10" s="72"/>
       <c r="D10" s="52"/>
     </row>
-    <row r="11" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A11" s="49" t="s">
         <v>742</v>
       </c>
@@ -11577,7 +11642,7 @@
       <c r="C11" s="72"/>
       <c r="D11" s="52"/>
     </row>
-    <row r="12" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A12" s="49" t="s">
         <v>761</v>
       </c>
@@ -11587,7 +11652,7 @@
       <c r="C12" s="72"/>
       <c r="D12" s="52"/>
     </row>
-    <row r="13" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A13" s="49" t="s">
         <v>747</v>
       </c>
@@ -11601,7 +11666,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A14" s="49" t="s">
         <v>748</v>
       </c>
@@ -11615,7 +11680,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A15" s="49" t="s">
         <v>749</v>
       </c>
@@ -11629,7 +11694,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A16" s="49" t="s">
         <v>755</v>
       </c>
@@ -11643,7 +11708,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A17" s="49" t="s">
         <v>756</v>
       </c>
@@ -11657,7 +11722,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A18" s="49" t="s">
         <v>769</v>
       </c>
@@ -11671,7 +11736,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A19" s="49" t="s">
         <v>772</v>
       </c>
@@ -11685,7 +11750,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A20" s="49" t="s">
         <v>762</v>
       </c>
@@ -11699,7 +11764,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A21" s="49" t="s">
         <v>765</v>
       </c>
@@ -11713,7 +11778,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" s="49" t="s">
         <v>729</v>
       </c>
@@ -11727,7 +11792,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A23" s="49" t="s">
         <v>730</v>
       </c>
@@ -11741,7 +11806,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A24" s="49" t="s">
         <v>731</v>
       </c>
@@ -11755,7 +11820,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="49" t="s">
         <v>735</v>
       </c>
@@ -11769,7 +11834,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A26" s="49" t="s">
         <v>779</v>
       </c>
@@ -11783,7 +11848,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A27" s="49" t="s">
         <v>782</v>
       </c>
@@ -11797,7 +11862,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A28" s="49" t="s">
         <v>786</v>
       </c>
@@ -11811,7 +11876,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A29" s="49" t="s">
         <v>789</v>
       </c>
@@ -11825,7 +11890,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A30" s="49" t="s">
         <v>792</v>
       </c>
@@ -11839,7 +11904,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A31" s="49" t="s">
         <v>794</v>
       </c>
@@ -11853,7 +11918,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A32" s="49" t="s">
         <v>797</v>
       </c>
@@ -11867,7 +11932,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A33" s="49" t="s">
         <v>800</v>
       </c>
@@ -11881,7 +11946,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A34" s="49" t="s">
         <v>801</v>
       </c>
@@ -11895,7 +11960,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A35" s="49" t="s">
         <v>807</v>
       </c>
@@ -11909,13 +11974,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="49"/>
       <c r="B36" s="73"/>
       <c r="C36" s="72"/>
       <c r="D36" s="74"/>
     </row>
-    <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="49"/>
       <c r="B37" s="73"/>
       <c r="C37" s="72"/>

--- a/cheat_sheet.xlsx
+++ b/cheat_sheet.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{506BD04E-2611-4908-9930-24E5207BF184}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD91957-2478-415B-A286-8B4D16D9DC01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27330" windowHeight="12495" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,9 +34,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -44,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1331" uniqueCount="960">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="967">
   <si>
     <t>HTML</t>
   </si>
@@ -3290,6 +3288,49 @@
 var array2 = ['d', 'e', 'f'];
 console.log(array1.concat(array2));
 // expected output: Array ["a", "b", "c", "d", "e", "f"]</t>
+  </si>
+  <si>
+    <t>Javascript Objects</t>
+  </si>
+  <si>
+    <t>var person = {
+  name: jess,
+  grades: [25, 30, 25]
+}</t>
+  </si>
+  <si>
+    <t>Accessing Objects</t>
+  </si>
+  <si>
+    <t>var object = {
+	name: "jess",
+	age: 24,
+	skills: ["html", "javascript", "css", "sass"],
+}
+for ( var key in object ) {
+	console.log(key, " : ",  object[key]);
+}
+// name  :  jess
+// age  :  24
+// sample.js:9 skills  :  (4) ["html", "javascript", "css", "sass"]</t>
+  </si>
+  <si>
+    <t>var object = {
+	name: "jess",
+	age: 24,
+	skills: ["html", "javascript", "css", "sass"]
+}
+object.name  // "Jess" 
+object["name"] // "Jess"
+object.age = 25 // changes the object's property value
+object.occupation = "none" // adds a new object property and value</t>
+  </si>
+  <si>
+    <t>For In Loop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The for...in statement iterates over all non-Symbol, enumerable properties of an object.
+</t>
   </si>
 </sst>
 </file>
@@ -3702,7 +3743,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3922,6 +3963,21 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3976,8 +4032,8 @@
     <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4267,44 +4323,44 @@
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="43.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.28515625" style="1"/>
+    <col min="9" max="9" width="43.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+    <row r="1" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75" t="s">
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75" t="s">
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -4342,7 +4398,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -4380,7 +4436,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -4418,7 +4474,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -4456,7 +4512,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
@@ -4488,7 +4544,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
@@ -4514,7 +4570,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -4540,7 +4596,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>568</v>
       </c>
@@ -4560,7 +4616,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I10" s="1" t="s">
         <v>40</v>
       </c>
@@ -4574,7 +4630,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I11" s="1" t="s">
         <v>42</v>
       </c>
@@ -4588,7 +4644,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I12" s="1" t="s">
         <v>548</v>
       </c>
@@ -4632,15 +4688,15 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48.85546875" customWidth="1"/>
+    <col min="1" max="1" width="48.88671875" customWidth="1"/>
     <col min="2" max="2" width="58" customWidth="1"/>
-    <col min="3" max="3" width="110.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="110.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="44" t="s">
         <v>1</v>
       </c>
@@ -4654,7 +4710,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A3" s="49" t="s">
         <v>811</v>
       </c>
@@ -4668,7 +4724,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A4" s="49" t="s">
         <v>815</v>
       </c>
@@ -4682,7 +4738,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A5" s="49" t="s">
         <v>816</v>
       </c>
@@ -4694,7 +4750,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A6" s="49" t="s">
         <v>819</v>
       </c>
@@ -4708,7 +4764,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A7" s="49" t="s">
         <v>824</v>
       </c>
@@ -4722,7 +4778,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A8" s="49" t="s">
         <v>825</v>
       </c>
@@ -4736,7 +4792,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A9" s="49" t="s">
         <v>827</v>
       </c>
@@ -4750,7 +4806,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A10" s="49" t="s">
         <v>830</v>
       </c>
@@ -4764,7 +4820,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A11" s="49" t="s">
         <v>833</v>
       </c>
@@ -4778,7 +4834,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A12" s="49" t="s">
         <v>837</v>
       </c>
@@ -4792,7 +4848,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A13" s="49" t="s">
         <v>842</v>
       </c>
@@ -4806,7 +4862,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A14" s="49" t="s">
         <v>843</v>
       </c>
@@ -4820,7 +4876,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A15" s="49" t="s">
         <v>862</v>
       </c>
@@ -4834,7 +4890,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="49" t="s">
         <v>846</v>
       </c>
@@ -4844,7 +4900,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A17" s="49" t="s">
         <v>847</v>
       </c>
@@ -4858,7 +4914,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A18" s="49" t="s">
         <v>850</v>
       </c>
@@ -4872,7 +4928,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A19" s="49" t="s">
         <v>852</v>
       </c>
@@ -4886,7 +4942,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A20" s="49" t="s">
         <v>856</v>
       </c>
@@ -4900,7 +4956,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A21" s="49" t="s">
         <v>859</v>
       </c>
@@ -4948,15 +5004,15 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48.85546875" customWidth="1"/>
+    <col min="1" max="1" width="48.88671875" customWidth="1"/>
     <col min="2" max="2" width="58" customWidth="1"/>
-    <col min="3" max="3" width="110.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="110.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="44" t="s">
         <v>1</v>
       </c>
@@ -4970,7 +5026,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="49" t="s">
         <v>865</v>
       </c>
@@ -4980,7 +5036,7 @@
       <c r="C3" s="72"/>
       <c r="D3" s="52"/>
     </row>
-    <row r="4" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A4" s="49" t="s">
         <v>867</v>
       </c>
@@ -4994,7 +5050,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="126" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A5" s="49" t="s">
         <v>870</v>
       </c>
@@ -5008,7 +5064,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="189" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A6" s="49" t="s">
         <v>872</v>
       </c>
@@ -5022,7 +5078,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="156" x14ac:dyDescent="0.3">
       <c r="A7" s="49" t="s">
         <v>877</v>
       </c>
@@ -5036,7 +5092,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="236.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="234" x14ac:dyDescent="0.3">
       <c r="A8" s="49" t="s">
         <v>880</v>
       </c>
@@ -5050,7 +5106,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A9" s="49" t="s">
         <v>878</v>
       </c>
@@ -5064,7 +5120,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A10" s="49" t="s">
         <v>881</v>
       </c>
@@ -5078,7 +5134,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A11" s="49" t="s">
         <v>888</v>
       </c>
@@ -5092,7 +5148,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="173.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="171.6" x14ac:dyDescent="0.3">
       <c r="A12" s="49" t="s">
         <v>891</v>
       </c>
@@ -5106,7 +5162,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A13" s="49" t="s">
         <v>894</v>
       </c>
@@ -5116,7 +5172,7 @@
       <c r="C13" s="72"/>
       <c r="D13" s="74"/>
     </row>
-    <row r="14" spans="1:4" ht="204.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="202.8" x14ac:dyDescent="0.3">
       <c r="A14" s="49" t="s">
         <v>896</v>
       </c>
@@ -5130,7 +5186,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="299.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="296.39999999999998" x14ac:dyDescent="0.3">
       <c r="A15" s="49" t="s">
         <v>899</v>
       </c>
@@ -5144,7 +5200,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="49" t="s">
         <v>902</v>
       </c>
@@ -5154,7 +5210,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="236.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="234" x14ac:dyDescent="0.3">
       <c r="A17" s="49" t="s">
         <v>904</v>
       </c>
@@ -5168,7 +5224,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="299.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="296.39999999999998" x14ac:dyDescent="0.3">
       <c r="A18" s="49" t="s">
         <v>906</v>
       </c>
@@ -5182,7 +5238,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A19" s="49" t="s">
         <v>909</v>
       </c>
@@ -5196,7 +5252,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A20" s="49" t="s">
         <v>912</v>
       </c>
@@ -5208,7 +5264,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A21" s="49" t="s">
         <v>914</v>
       </c>
@@ -5222,7 +5278,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="204.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="202.8" x14ac:dyDescent="0.3">
       <c r="A22" s="49" t="s">
         <v>918</v>
       </c>
@@ -5270,15 +5326,15 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38" customWidth="1"/>
-    <col min="3" max="3" width="125.42578125" customWidth="1"/>
-    <col min="4" max="4" width="48.7109375" customWidth="1"/>
+    <col min="3" max="3" width="125.44140625" customWidth="1"/>
+    <col min="4" max="4" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>920</v>
       </c>
@@ -5292,7 +5348,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>924</v>
       </c>
@@ -5306,7 +5362,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>928</v>
       </c>
@@ -5317,61 +5373,61 @@
         <v>930</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="16"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C6" s="16"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C7" s="16"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C8" s="16"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C9" s="16"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C10" s="16"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C11" s="16"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C12" s="16"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C13" s="16"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C14" s="16"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C15" s="16"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C16" s="16"/>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C17" s="16"/>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C18" s="16"/>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C19" s="16"/>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C20" s="16"/>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C21" s="16"/>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C22" s="16"/>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C23" s="16"/>
     </row>
   </sheetData>
@@ -5387,21 +5443,21 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="61.5703125" customWidth="1"/>
-    <col min="2" max="2" width="64.85546875" customWidth="1"/>
-    <col min="3" max="3" width="110.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="61.5546875" customWidth="1"/>
+    <col min="2" max="2" width="64.88671875" customWidth="1"/>
+    <col min="3" max="3" width="110.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A1" s="81" t="s">
         <v>512</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-    </row>
-    <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+    </row>
+    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -5412,7 +5468,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>513</v>
       </c>
@@ -5423,7 +5479,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>29</v>
       </c>
@@ -5432,7 +5488,7 @@
       </c>
       <c r="C4" s="19"/>
     </row>
-    <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
         <v>517</v>
       </c>
@@ -5443,7 +5499,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
         <v>520</v>
       </c>
@@ -5452,7 +5508,7 @@
       </c>
       <c r="C6" s="19"/>
     </row>
-    <row r="7" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
         <v>522</v>
       </c>
@@ -5463,7 +5519,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
         <v>525</v>
       </c>
@@ -5472,7 +5528,7 @@
       </c>
       <c r="C8" s="19"/>
     </row>
-    <row r="9" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
         <v>527</v>
       </c>
@@ -5481,7 +5537,7 @@
       </c>
       <c r="C9" s="19"/>
     </row>
-    <row r="10" spans="1:3" ht="131.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="108" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
         <v>529</v>
       </c>
@@ -5492,7 +5548,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
         <v>532</v>
       </c>
@@ -5503,7 +5559,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
         <v>535</v>
       </c>
@@ -5512,7 +5568,7 @@
       </c>
       <c r="C12" s="19"/>
     </row>
-    <row r="13" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
         <v>537</v>
       </c>
@@ -5521,7 +5577,7 @@
       </c>
       <c r="C13" s="19"/>
     </row>
-    <row r="14" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
         <v>539</v>
       </c>
@@ -5530,7 +5586,7 @@
       </c>
       <c r="C14" s="19"/>
     </row>
-    <row r="15" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
         <v>541</v>
       </c>
@@ -5539,7 +5595,7 @@
       </c>
       <c r="C15" s="19"/>
     </row>
-    <row r="16" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="36" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
         <v>543</v>
       </c>
@@ -5550,7 +5606,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="168.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="162" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
         <v>546</v>
       </c>
@@ -5561,7 +5617,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
         <v>550</v>
       </c>
@@ -5570,7 +5626,7 @@
       </c>
       <c r="C18" s="19"/>
     </row>
-    <row r="19" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A19" s="17" t="s">
         <v>553</v>
       </c>
@@ -5579,7 +5635,7 @@
       </c>
       <c r="C19" s="19"/>
     </row>
-    <row r="20" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="36" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
         <v>555</v>
       </c>
@@ -5590,7 +5646,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="112.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="108" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="s">
         <v>558</v>
       </c>
@@ -5601,7 +5657,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="s">
         <v>559</v>
       </c>
@@ -5612,7 +5668,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="168.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="162" x14ac:dyDescent="0.3">
       <c r="A23" s="17" t="s">
         <v>564</v>
       </c>
@@ -5639,24 +5695,24 @@
       <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="31" style="10" customWidth="1"/>
-    <col min="2" max="2" width="73.28515625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="110.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.33203125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="110.5546875" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="7" customWidth="1"/>
-    <col min="5" max="16384" width="9.28515625" style="5"/>
+    <col min="5" max="16384" width="9.33203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="44" t="s">
         <v>1</v>
       </c>
@@ -5670,7 +5726,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A3" s="45" t="s">
         <v>44</v>
       </c>
@@ -5684,7 +5740,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="45" t="s">
         <v>44</v>
       </c>
@@ -5698,7 +5754,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A5" s="45" t="s">
         <v>48</v>
       </c>
@@ -5712,7 +5768,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A6" s="45" t="s">
         <v>50</v>
       </c>
@@ -5726,7 +5782,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="45" t="s">
         <v>52</v>
       </c>
@@ -5740,7 +5796,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="45" t="s">
         <v>54</v>
       </c>
@@ -5754,7 +5810,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A9" s="45" t="s">
         <v>57</v>
       </c>
@@ -5768,7 +5824,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A10" s="45" t="s">
         <v>60</v>
       </c>
@@ -5782,7 +5838,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A11" s="45" t="s">
         <v>63</v>
       </c>
@@ -5796,7 +5852,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A12" s="45" t="s">
         <v>78</v>
       </c>
@@ -5810,7 +5866,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A13" s="45" t="s">
         <v>139</v>
       </c>
@@ -5824,7 +5880,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A14" s="45" t="s">
         <v>69</v>
       </c>
@@ -5838,7 +5894,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="45" t="s">
         <v>72</v>
       </c>
@@ -5852,7 +5908,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A16" s="45" t="s">
         <v>75</v>
       </c>
@@ -5866,7 +5922,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A17" s="49" t="s">
         <v>493</v>
       </c>
@@ -5880,7 +5936,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A18" s="49" t="s">
         <v>494</v>
       </c>
@@ -5894,7 +5950,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A19" s="49" t="s">
         <v>495</v>
       </c>
@@ -5908,7 +5964,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A20" s="45" t="s">
         <v>81</v>
       </c>
@@ -5922,7 +5978,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A21" s="45" t="s">
         <v>84</v>
       </c>
@@ -5936,7 +5992,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A22" s="45" t="s">
         <v>87</v>
       </c>
@@ -5950,7 +6006,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A23" s="45" t="s">
         <v>90</v>
       </c>
@@ -5964,7 +6020,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A24" s="45" t="s">
         <v>91</v>
       </c>
@@ -5978,7 +6034,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A25" s="45" t="s">
         <v>92</v>
       </c>
@@ -5992,7 +6048,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A26" s="45" t="s">
         <v>99</v>
       </c>
@@ -6006,7 +6062,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A27" s="45" t="s">
         <v>102</v>
       </c>
@@ -6020,7 +6076,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A28" s="45" t="s">
         <v>502</v>
       </c>
@@ -6034,7 +6090,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A29" s="45" t="s">
         <v>105</v>
       </c>
@@ -6048,7 +6104,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A30" s="45" t="s">
         <v>108</v>
       </c>
@@ -6062,7 +6118,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A31" s="45" t="s">
         <v>111</v>
       </c>
@@ -6076,7 +6132,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A32" s="45" t="s">
         <v>113</v>
       </c>
@@ -6090,7 +6146,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A33" s="45" t="s">
         <v>20</v>
       </c>
@@ -6104,7 +6160,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A34" s="45" t="s">
         <v>506</v>
       </c>
@@ -6118,7 +6174,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A35" s="45" t="s">
         <v>509</v>
       </c>
@@ -6132,7 +6188,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A36" s="45" t="s">
         <v>117</v>
       </c>
@@ -6146,7 +6202,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A37" s="45" t="s">
         <v>118</v>
       </c>
@@ -6160,7 +6216,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A38" s="45" t="s">
         <v>121</v>
       </c>
@@ -6174,7 +6230,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A39" s="45" t="s">
         <v>123</v>
       </c>
@@ -6188,7 +6244,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A40" s="45" t="s">
         <v>128</v>
       </c>
@@ -6202,29 +6258,29 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="82" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="87" t="s">
         <v>131</v>
       </c>
-      <c r="B41" s="80" t="s">
+      <c r="B41" s="85" t="s">
         <v>567</v>
       </c>
-      <c r="C41" s="78" t="s">
+      <c r="C41" s="83" t="s">
         <v>132</v>
       </c>
       <c r="D41" s="48" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="83"/>
-      <c r="B42" s="81"/>
-      <c r="C42" s="79"/>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="88"/>
+      <c r="B42" s="86"/>
+      <c r="C42" s="84"/>
       <c r="D42" s="48" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A43" s="45" t="s">
         <v>133</v>
       </c>
@@ -6238,7 +6294,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A44" s="45" t="s">
         <v>569</v>
       </c>
@@ -6252,7 +6308,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="45" t="s">
         <v>136</v>
       </c>
@@ -6266,7 +6322,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A46" s="45" t="s">
         <v>138</v>
       </c>
@@ -6280,7 +6336,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="45" t="s">
         <v>142</v>
       </c>
@@ -6294,7 +6350,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="45" t="s">
         <v>3</v>
       </c>
@@ -6308,7 +6364,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A49" s="53" t="s">
         <v>297</v>
       </c>
@@ -6322,7 +6378,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A50" s="49" t="s">
         <v>366</v>
       </c>
@@ -6336,7 +6392,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A51" s="49" t="s">
         <v>369</v>
       </c>
@@ -6350,7 +6406,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A52" s="49" t="s">
         <v>372</v>
       </c>
@@ -6364,7 +6420,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A53" s="49" t="s">
         <v>376</v>
       </c>
@@ -6378,7 +6434,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A54" s="49" t="s">
         <v>379</v>
       </c>
@@ -6392,7 +6448,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A55" s="49" t="s">
         <v>382</v>
       </c>
@@ -6406,7 +6462,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A56" s="49" t="s">
         <v>383</v>
       </c>
@@ -6420,7 +6476,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A57" s="49" t="s">
         <v>390</v>
       </c>
@@ -6434,7 +6490,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A58" s="49" t="s">
         <v>391</v>
       </c>
@@ -6448,7 +6504,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A59" s="49" t="s">
         <v>392</v>
       </c>
@@ -6462,7 +6518,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A60" s="49" t="s">
         <v>396</v>
       </c>
@@ -6476,7 +6532,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A61" s="49" t="s">
         <v>397</v>
       </c>
@@ -6490,7 +6546,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A62" s="57" t="s">
         <v>400</v>
       </c>
@@ -6502,7 +6558,7 @@
       </c>
       <c r="D62" s="58"/>
     </row>
-    <row r="63" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A63" s="10" t="s">
         <v>680</v>
       </c>
@@ -6516,7 +6572,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A64" s="10" t="s">
         <v>681</v>
       </c>
@@ -6530,7 +6586,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A65" s="10" t="s">
         <v>682</v>
       </c>
@@ -6544,7 +6600,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="10" t="s">
         <v>692</v>
       </c>
@@ -6558,7 +6614,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A67" s="10" t="s">
         <v>696</v>
       </c>
@@ -6572,7 +6628,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="10" t="s">
         <v>699</v>
       </c>
@@ -6583,7 +6639,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="10" t="s">
         <v>700</v>
       </c>
@@ -6594,7 +6650,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A70" s="10" t="s">
         <v>705</v>
       </c>
@@ -6608,7 +6664,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A71" s="10" t="s">
         <v>706</v>
       </c>
@@ -6622,7 +6678,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A72" s="10" t="s">
         <v>707</v>
       </c>
@@ -6636,7 +6692,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A73" s="10" t="s">
         <v>708</v>
       </c>
@@ -6730,24 +6786,24 @@
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.28515625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="32.33203125" style="7" customWidth="1"/>
     <col min="2" max="2" width="75" style="13" customWidth="1"/>
-    <col min="3" max="3" width="110.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="110.5546875" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="7" customWidth="1"/>
-    <col min="5" max="16384" width="9.28515625" style="5"/>
+    <col min="5" max="16384" width="9.33203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="44" t="s">
         <v>1</v>
       </c>
@@ -6761,7 +6817,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="53" t="s">
         <v>5</v>
       </c>
@@ -6775,7 +6831,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
@@ -6789,7 +6845,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="63" t="s">
         <v>8</v>
       </c>
@@ -6803,7 +6859,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A6" s="63" t="s">
         <v>147</v>
       </c>
@@ -6817,7 +6873,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A7" s="63" t="s">
         <v>150</v>
       </c>
@@ -6831,7 +6887,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="63" t="s">
         <v>154</v>
       </c>
@@ -6845,7 +6901,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="63" t="s">
         <v>156</v>
       </c>
@@ -6859,7 +6915,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A10" s="63" t="s">
         <v>159</v>
       </c>
@@ -6873,7 +6929,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="63" t="s">
         <v>240</v>
       </c>
@@ -6887,7 +6943,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A12" s="63" t="s">
         <v>162</v>
       </c>
@@ -6901,7 +6957,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A13" s="63" t="s">
         <v>165</v>
       </c>
@@ -6915,7 +6971,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="63" t="s">
         <v>168</v>
       </c>
@@ -6929,7 +6985,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A15" s="63" t="s">
         <v>170</v>
       </c>
@@ -6943,7 +6999,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A16" s="63" t="s">
         <v>174</v>
       </c>
@@ -6957,7 +7013,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="63" t="s">
         <v>177</v>
       </c>
@@ -6971,7 +7027,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A18" s="63" t="s">
         <v>180</v>
       </c>
@@ -6985,7 +7041,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A19" s="63" t="s">
         <v>183</v>
       </c>
@@ -6999,7 +7055,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A20" s="63" t="s">
         <v>186</v>
       </c>
@@ -7013,7 +7069,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="63" t="s">
         <v>190</v>
       </c>
@@ -7027,7 +7083,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="63" t="s">
         <v>192</v>
       </c>
@@ -7041,7 +7097,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A23" s="63" t="s">
         <v>195</v>
       </c>
@@ -7055,7 +7111,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A24" s="63" t="s">
         <v>197</v>
       </c>
@@ -7069,7 +7125,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A25" s="63" t="s">
         <v>201</v>
       </c>
@@ -7083,7 +7139,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A26" s="63" t="s">
         <v>204</v>
       </c>
@@ -7097,7 +7153,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A27" s="63" t="s">
         <v>206</v>
       </c>
@@ -7111,7 +7167,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A28" s="63" t="s">
         <v>208</v>
       </c>
@@ -7125,7 +7181,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A29" s="63" t="s">
         <v>212</v>
       </c>
@@ -7139,7 +7195,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A30" s="63" t="s">
         <v>214</v>
       </c>
@@ -7153,7 +7209,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A31" s="63" t="s">
         <v>219</v>
       </c>
@@ -7167,7 +7223,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A32" s="63" t="s">
         <v>220</v>
       </c>
@@ -7181,7 +7237,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A33" s="63" t="s">
         <v>223</v>
       </c>
@@ -7195,7 +7251,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A34" s="63" t="s">
         <v>225</v>
       </c>
@@ -7209,7 +7265,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A35" s="63" t="s">
         <v>228</v>
       </c>
@@ -7223,7 +7279,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A36" s="63" t="s">
         <v>231</v>
       </c>
@@ -7237,7 +7293,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A37" s="63" t="s">
         <v>232</v>
       </c>
@@ -7251,7 +7307,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A38" s="63" t="s">
         <v>237</v>
       </c>
@@ -7265,7 +7321,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A39" s="63" t="s">
         <v>243</v>
       </c>
@@ -7279,7 +7335,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="63" t="s">
         <v>246</v>
       </c>
@@ -7293,7 +7349,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A41" s="63" t="s">
         <v>249</v>
       </c>
@@ -7307,7 +7363,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A42" s="63" t="s">
         <v>252</v>
       </c>
@@ -7321,7 +7377,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A43" s="63" t="s">
         <v>255</v>
       </c>
@@ -7335,7 +7391,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A44" s="63" t="s">
         <v>258</v>
       </c>
@@ -7349,7 +7405,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A45" s="63" t="s">
         <v>261</v>
       </c>
@@ -7363,7 +7419,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="63" t="s">
         <v>264</v>
       </c>
@@ -7377,7 +7433,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="63" t="s">
         <v>267</v>
       </c>
@@ -7391,7 +7447,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A48" s="63" t="s">
         <v>271</v>
       </c>
@@ -7405,7 +7461,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A49" s="63" t="s">
         <v>274</v>
       </c>
@@ -7419,7 +7475,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A50" s="63" t="s">
         <v>276</v>
       </c>
@@ -7433,7 +7489,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A51" s="63" t="s">
         <v>279</v>
       </c>
@@ -7447,7 +7503,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A52" s="63" t="s">
         <v>281</v>
       </c>
@@ -7461,7 +7517,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A53" s="63" t="s">
         <v>284</v>
       </c>
@@ -7475,7 +7531,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A54" s="63" t="s">
         <v>285</v>
       </c>
@@ -7489,7 +7545,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A55" s="63" t="s">
         <v>289</v>
       </c>
@@ -7503,7 +7559,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="63" t="s">
         <v>292</v>
       </c>
@@ -7517,7 +7573,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A57" s="63" t="s">
         <v>300</v>
       </c>
@@ -7531,7 +7587,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A58" s="53" t="s">
         <v>303</v>
       </c>
@@ -7545,7 +7601,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="68" t="s">
         <v>306</v>
       </c>
@@ -7559,7 +7615,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A60" s="53" t="s">
         <v>309</v>
       </c>
@@ -7573,7 +7629,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A61" s="53" t="s">
         <v>311</v>
       </c>
@@ -7587,7 +7643,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A62" s="53" t="s">
         <v>315</v>
       </c>
@@ -7601,7 +7657,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A63" s="53" t="s">
         <v>318</v>
       </c>
@@ -7615,7 +7671,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A64" s="53" t="s">
         <v>321</v>
       </c>
@@ -7629,7 +7685,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A65" s="53" t="s">
         <v>324</v>
       </c>
@@ -7643,7 +7699,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A66" s="53" t="s">
         <v>327</v>
       </c>
@@ -7657,7 +7713,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A67" s="53" t="s">
         <v>330</v>
       </c>
@@ -7671,7 +7727,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A68" s="53" t="s">
         <v>333</v>
       </c>
@@ -7685,7 +7741,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="68" t="s">
         <v>336</v>
       </c>
@@ -7699,7 +7755,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A70" s="68" t="s">
         <v>338</v>
       </c>
@@ -7713,7 +7769,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A71" s="68" t="s">
         <v>342</v>
       </c>
@@ -7727,7 +7783,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A72" s="68" t="s">
         <v>343</v>
       </c>
@@ -7741,7 +7797,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A73" s="68" t="s">
         <v>361</v>
       </c>
@@ -7755,7 +7811,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="68" t="s">
         <v>364</v>
       </c>
@@ -7767,7 +7823,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A75" s="68" t="s">
         <v>346</v>
       </c>
@@ -7781,7 +7837,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A76" s="68" t="s">
         <v>349</v>
       </c>
@@ -7795,7 +7851,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A77" s="68" t="s">
         <v>354</v>
       </c>
@@ -7809,7 +7865,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A78" s="68" t="s">
         <v>352</v>
       </c>
@@ -7823,7 +7879,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A79" s="68" t="s">
         <v>353</v>
       </c>
@@ -7837,7 +7893,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="204.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" ht="218.4" x14ac:dyDescent="0.3">
       <c r="A80" s="7" t="s">
         <v>677</v>
       </c>
@@ -7845,7 +7901,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C82" s="7" t="s">
         <v>679</v>
       </c>
@@ -7941,34 +7997,34 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="31" style="16" customWidth="1"/>
-    <col min="2" max="2" width="73.28515625" style="16" customWidth="1"/>
-    <col min="3" max="3" width="110.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.33203125" style="79" customWidth="1"/>
+    <col min="3" max="3" width="110.5546875" style="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="16" customWidth="1"/>
-    <col min="5" max="16384" width="9.28515625" style="16"/>
+    <col min="5" max="16384" width="9.33203125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="82" t="s">
         <v>489</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="76" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="44" t="s">
@@ -7978,11 +8034,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A3" s="53" t="s">
         <v>403</v>
       </c>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="77" t="s">
         <v>405</v>
       </c>
       <c r="C3" s="56" t="s">
@@ -7992,11 +8048,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="53" t="s">
         <v>406</v>
       </c>
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="77" t="s">
         <v>407</v>
       </c>
       <c r="C4" s="67" t="s">
@@ -8004,11 +8060,11 @@
       </c>
       <c r="D4" s="56"/>
     </row>
-    <row r="5" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A5" s="53" t="s">
         <v>409</v>
       </c>
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="77" t="s">
         <v>411</v>
       </c>
       <c r="C5" s="67" t="s">
@@ -8016,11 +8072,11 @@
       </c>
       <c r="D5" s="56"/>
     </row>
-    <row r="6" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A6" s="53" t="s">
         <v>412</v>
       </c>
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="77" t="s">
         <v>415</v>
       </c>
       <c r="C6" s="67" t="s">
@@ -8028,11 +8084,11 @@
       </c>
       <c r="D6" s="56"/>
     </row>
-    <row r="7" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A7" s="53" t="s">
         <v>413</v>
       </c>
-      <c r="B7" s="62" t="s">
+      <c r="B7" s="77" t="s">
         <v>416</v>
       </c>
       <c r="C7" s="67" t="s">
@@ -8040,11 +8096,11 @@
       </c>
       <c r="D7" s="56"/>
     </row>
-    <row r="8" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A8" s="53" t="s">
         <v>418</v>
       </c>
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="77" t="s">
         <v>420</v>
       </c>
       <c r="C8" s="67"/>
@@ -8052,11 +8108,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A9" s="53" t="s">
         <v>419</v>
       </c>
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="77" t="s">
         <v>421</v>
       </c>
       <c r="C9" s="67"/>
@@ -8064,11 +8120,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="53" t="s">
         <v>422</v>
       </c>
-      <c r="B10" s="62" t="s">
+      <c r="B10" s="77" t="s">
         <v>423</v>
       </c>
       <c r="C10" s="67" t="s">
@@ -8078,11 +8134,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A11" s="53" t="s">
         <v>425</v>
       </c>
-      <c r="B11" s="62" t="s">
+      <c r="B11" s="77" t="s">
         <v>427</v>
       </c>
       <c r="C11" s="67" t="s">
@@ -8092,11 +8148,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A12" s="53" t="s">
         <v>428</v>
       </c>
-      <c r="B12" s="62" t="s">
+      <c r="B12" s="77" t="s">
         <v>430</v>
       </c>
       <c r="C12" s="67" t="s">
@@ -8106,11 +8162,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A13" s="53" t="s">
         <v>431</v>
       </c>
-      <c r="B13" s="62" t="s">
+      <c r="B13" s="77" t="s">
         <v>433</v>
       </c>
       <c r="C13" s="67" t="s">
@@ -8120,11 +8176,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A14" s="53" t="s">
         <v>434</v>
       </c>
-      <c r="B14" s="62" t="s">
+      <c r="B14" s="77" t="s">
         <v>436</v>
       </c>
       <c r="C14" s="67" t="s">
@@ -8134,11 +8190,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A15" s="53" t="s">
         <v>437</v>
       </c>
-      <c r="B15" s="62" t="s">
+      <c r="B15" s="77" t="s">
         <v>438</v>
       </c>
       <c r="C15" s="67" t="s">
@@ -8148,11 +8204,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A16" s="53" t="s">
         <v>440</v>
       </c>
-      <c r="B16" s="62" t="s">
+      <c r="B16" s="77" t="s">
         <v>441</v>
       </c>
       <c r="C16" s="67" t="s">
@@ -8162,11 +8218,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A17" s="53" t="s">
         <v>443</v>
       </c>
-      <c r="B17" s="62" t="s">
+      <c r="B17" s="77" t="s">
         <v>444</v>
       </c>
       <c r="C17" s="67" t="s">
@@ -8176,11 +8232,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A18" s="53" t="s">
         <v>445</v>
       </c>
-      <c r="B18" s="62" t="s">
+      <c r="B18" s="77" t="s">
         <v>446</v>
       </c>
       <c r="C18" s="67" t="s">
@@ -8188,31 +8244,31 @@
       </c>
       <c r="D18" s="56"/>
     </row>
-    <row r="19" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A19" s="53" t="s">
         <v>449</v>
       </c>
-      <c r="B19" s="62" t="s">
+      <c r="B19" s="77" t="s">
         <v>450</v>
       </c>
       <c r="C19" s="67"/>
       <c r="D19" s="56"/>
     </row>
-    <row r="20" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A20" s="53" t="s">
         <v>452</v>
       </c>
-      <c r="B20" s="62" t="s">
+      <c r="B20" s="77" t="s">
         <v>451</v>
       </c>
       <c r="C20" s="67"/>
       <c r="D20" s="56"/>
     </row>
-    <row r="21" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A21" s="53" t="s">
         <v>453</v>
       </c>
-      <c r="B21" s="62" t="s">
+      <c r="B21" s="77" t="s">
         <v>455</v>
       </c>
       <c r="C21" s="67" t="s">
@@ -8220,25 +8276,25 @@
       </c>
       <c r="D21" s="56"/>
     </row>
-    <row r="22" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A22" s="53" t="s">
         <v>461</v>
       </c>
-      <c r="B22" s="62" t="s">
+      <c r="B22" s="77" t="s">
         <v>456</v>
       </c>
       <c r="C22" s="67" t="s">
         <v>458</v>
       </c>
-      <c r="D22" s="93" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="D22" s="75" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A23" s="53" t="s">
         <v>462</v>
       </c>
-      <c r="B23" s="62" t="s">
+      <c r="B23" s="77" t="s">
         <v>457</v>
       </c>
       <c r="C23" s="67" t="s">
@@ -8248,11 +8304,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A24" s="53" t="s">
         <v>463</v>
       </c>
-      <c r="B24" s="62" t="s">
+      <c r="B24" s="77" t="s">
         <v>460</v>
       </c>
       <c r="C24" s="67" t="s">
@@ -8262,11 +8318,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A25" s="53" t="s">
         <v>466</v>
       </c>
-      <c r="B25" s="62" t="s">
+      <c r="B25" s="77" t="s">
         <v>465</v>
       </c>
       <c r="C25" s="67" t="s">
@@ -8276,11 +8332,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A26" s="53" t="s">
         <v>469</v>
       </c>
-      <c r="B26" s="62" t="s">
+      <c r="B26" s="77" t="s">
         <v>468</v>
       </c>
       <c r="C26" s="67" t="s">
@@ -8290,11 +8346,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A27" s="53" t="s">
         <v>471</v>
       </c>
-      <c r="B27" s="62" t="s">
+      <c r="B27" s="77" t="s">
         <v>472</v>
       </c>
       <c r="C27" s="67" t="s">
@@ -8302,11 +8358,11 @@
       </c>
       <c r="D27" s="56"/>
     </row>
-    <row r="28" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A28" s="53" t="s">
         <v>474</v>
       </c>
-      <c r="B28" s="62" t="s">
+      <c r="B28" s="77" t="s">
         <v>475</v>
       </c>
       <c r="C28" s="67" t="s">
@@ -8316,11 +8372,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A29" s="53" t="s">
         <v>476</v>
       </c>
-      <c r="B29" s="62" t="s">
+      <c r="B29" s="77" t="s">
         <v>477</v>
       </c>
       <c r="C29" s="67" t="s">
@@ -8330,11 +8386,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A30" s="53" t="s">
         <v>480</v>
       </c>
-      <c r="B30" s="62" t="s">
+      <c r="B30" s="77" t="s">
         <v>483</v>
       </c>
       <c r="C30" s="67" t="s">
@@ -8344,11 +8400,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A31" s="53" t="s">
         <v>481</v>
       </c>
-      <c r="B31" s="62" t="s">
+      <c r="B31" s="77" t="s">
         <v>482</v>
       </c>
       <c r="C31" s="67" t="s">
@@ -8358,11 +8414,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
         <v>951</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="78" t="s">
         <v>959</v>
       </c>
       <c r="C32" s="14" t="s">
@@ -8372,11 +8428,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
         <v>956</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="78" t="s">
         <v>958</v>
       </c>
       <c r="C33" s="14" t="s">
@@ -8386,11 +8442,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
         <v>954</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="78" t="s">
         <v>957</v>
       </c>
       <c r="C34" s="14" t="s">
@@ -8400,11 +8456,41 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
-      <c r="B35" s="12"/>
+    <row r="35" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A35" s="8" t="s">
+        <v>960</v>
+      </c>
+      <c r="B35" s="78" t="s">
+        <v>961</v>
+      </c>
       <c r="C35" s="14"/>
-      <c r="D35" s="11"/>
+      <c r="D35" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="156" x14ac:dyDescent="0.3">
+      <c r="A36" s="8" t="s">
+        <v>962</v>
+      </c>
+      <c r="B36" s="78" t="s">
+        <v>964</v>
+      </c>
+      <c r="C36" s="14"/>
+      <c r="D36" s="11"/>
+    </row>
+    <row r="37" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A37" s="16" t="s">
+        <v>965</v>
+      </c>
+      <c r="B37" s="79" t="s">
+        <v>963</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>966</v>
+      </c>
+      <c r="D37" s="98" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8434,9 +8520,11 @@
     <hyperlink ref="D32" r:id="rId21" xr:uid="{2331C27A-E1A3-4CFC-B2D4-59F35804376A}"/>
     <hyperlink ref="D33" r:id="rId22" xr:uid="{B0C1E57B-CC4F-4D3B-9BEB-A36314865D8A}"/>
     <hyperlink ref="D34" r:id="rId23" xr:uid="{318C473F-4E0E-4D25-91C4-281486AC720E}"/>
+    <hyperlink ref="D35" r:id="rId24" location="Description" xr:uid="{E8944992-95DC-489E-9C81-25AED5E7B894}"/>
+    <hyperlink ref="D37" r:id="rId25" xr:uid="{17B47D1F-67F3-4D16-89FF-94FEA0AB734D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId24"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId26"/>
 </worksheet>
 </file>
 
@@ -8450,23 +8538,23 @@
       <selection pane="topRight" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
-    <col min="2" max="2" width="57.85546875" customWidth="1"/>
-    <col min="3" max="3" width="110.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.88671875" customWidth="1"/>
+    <col min="3" max="3" width="110.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="A1" s="81" t="s">
         <v>490</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-    </row>
-    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+    </row>
+    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -8480,199 +8568,199 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
       <c r="B3" s="12"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
     </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="8"/>
       <c r="B4" s="12"/>
       <c r="C4" s="14"/>
       <c r="D4" s="9"/>
     </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="8"/>
       <c r="B5" s="12"/>
       <c r="C5" s="14"/>
       <c r="D5" s="9"/>
     </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="8"/>
       <c r="B6" s="12"/>
       <c r="C6" s="14"/>
       <c r="D6" s="9"/>
     </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="B7" s="12"/>
       <c r="C7" s="14"/>
       <c r="D7" s="9"/>
     </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="8"/>
       <c r="B8" s="12"/>
       <c r="C8" s="14"/>
       <c r="D8" s="9"/>
     </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="8"/>
       <c r="B9" s="12"/>
       <c r="C9" s="14"/>
       <c r="D9" s="9"/>
     </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="8"/>
       <c r="B10" s="12"/>
       <c r="C10" s="14"/>
       <c r="D10" s="11"/>
     </row>
-    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="8"/>
       <c r="B11" s="12"/>
       <c r="C11" s="14"/>
       <c r="D11" s="9"/>
     </row>
-    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
       <c r="B12" s="12"/>
       <c r="C12" s="14"/>
       <c r="D12" s="11"/>
     </row>
-    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
       <c r="B13" s="12"/>
       <c r="C13" s="14"/>
       <c r="D13" s="11"/>
     </row>
-    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="8"/>
       <c r="B14" s="12"/>
       <c r="C14" s="14"/>
       <c r="D14" s="11"/>
     </row>
-    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="8"/>
       <c r="B15" s="12"/>
       <c r="C15" s="14"/>
       <c r="D15" s="11"/>
     </row>
-    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="8"/>
       <c r="B16" s="12"/>
       <c r="C16" s="14"/>
       <c r="D16" s="11"/>
     </row>
-    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="8"/>
       <c r="B17" s="12"/>
       <c r="C17" s="14"/>
       <c r="D17" s="11"/>
     </row>
-    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="8"/>
       <c r="B18" s="12"/>
       <c r="C18" s="14"/>
       <c r="D18" s="11"/>
     </row>
-    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="8"/>
       <c r="B19" s="12"/>
       <c r="C19" s="14"/>
       <c r="D19" s="11"/>
     </row>
-    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="8"/>
       <c r="B20" s="12"/>
       <c r="C20" s="14"/>
       <c r="D20" s="11"/>
     </row>
-    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="8"/>
       <c r="B21" s="12"/>
       <c r="C21" s="14"/>
       <c r="D21" s="11"/>
     </row>
-    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="8"/>
       <c r="B22" s="12"/>
       <c r="C22" s="14"/>
       <c r="D22" s="11"/>
     </row>
-    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="8"/>
       <c r="B23" s="12"/>
       <c r="C23" s="14"/>
       <c r="D23" s="11"/>
     </row>
-    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="8"/>
       <c r="B24" s="12"/>
       <c r="C24" s="14"/>
       <c r="D24" s="11"/>
     </row>
-    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
       <c r="B25" s="12"/>
       <c r="C25" s="14"/>
       <c r="D25" s="11"/>
     </row>
-    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="8"/>
       <c r="B26" s="12"/>
       <c r="C26" s="14"/>
       <c r="D26" s="11"/>
     </row>
-    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="8"/>
       <c r="B27" s="12"/>
       <c r="C27" s="14"/>
       <c r="D27" s="11"/>
     </row>
-    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="8"/>
       <c r="B28" s="12"/>
       <c r="C28" s="14"/>
       <c r="D28" s="11"/>
     </row>
-    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="8"/>
       <c r="B29" s="12"/>
       <c r="C29" s="14"/>
       <c r="D29" s="11"/>
     </row>
-    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="8"/>
       <c r="B30" s="12"/>
       <c r="C30" s="14"/>
       <c r="D30" s="11"/>
     </row>
-    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="8"/>
       <c r="B31" s="12"/>
       <c r="C31" s="14"/>
       <c r="D31" s="11"/>
     </row>
-    <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="8"/>
       <c r="B32" s="12"/>
       <c r="C32" s="14"/>
       <c r="D32" s="11"/>
     </row>
-    <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="8"/>
       <c r="B33" s="12"/>
       <c r="C33" s="14"/>
       <c r="D33" s="11"/>
     </row>
-    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="8"/>
       <c r="B34" s="12"/>
       <c r="C34" s="14"/>
       <c r="D34" s="11"/>
     </row>
-    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="8"/>
       <c r="B35" s="12"/>
       <c r="C35" s="14"/>
@@ -8695,14 +8783,14 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
-    <col min="2" max="2" width="36.28515625" customWidth="1"/>
+    <col min="2" max="2" width="36.33203125" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -8713,21 +8801,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="89" t="s">
         <v>399</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="75"/>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="80"/>
       <c r="C3" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>486</v>
       </c>
@@ -8735,7 +8823,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>487</v>
       </c>
@@ -8743,7 +8831,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>488</v>
       </c>
@@ -8751,7 +8839,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>492</v>
       </c>
@@ -8759,7 +8847,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>575</v>
       </c>
@@ -8788,37 +8876,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B55396B-BB8C-4180-AD0D-7E5850126AB0}">
   <dimension ref="A2:L115"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45.7109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="16" customWidth="1"/>
+    <col min="1" max="1" width="45.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="16" customWidth="1"/>
     <col min="3" max="3" width="11" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" style="16" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.5703125" style="16" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.5546875" style="16" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="17" style="16" customWidth="1"/>
-    <col min="8" max="8" width="27.85546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.7109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.5703125" style="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" style="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" style="16" customWidth="1"/>
-    <col min="13" max="16384" width="11.42578125" style="16"/>
+    <col min="8" max="8" width="27.88671875" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" style="16" customWidth="1"/>
+    <col min="13" max="16384" width="11.44140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="92" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="97" t="s">
         <v>601</v>
       </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-    </row>
-    <row r="3" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+    </row>
+    <row r="3" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
         <v>577</v>
       </c>
@@ -8835,7 +8923,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="22" t="s">
         <v>630</v>
       </c>
@@ -8858,7 +8946,7 @@
       </c>
       <c r="G4" s="21"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
         <v>631</v>
       </c>
@@ -8880,15 +8968,15 @@
         <v>0</v>
       </c>
       <c r="G5" s="21"/>
-      <c r="H5" s="86" t="s">
+      <c r="H5" s="91" t="s">
         <v>603</v>
       </c>
-      <c r="I5" s="87"/>
-      <c r="J5" s="87"/>
-      <c r="K5" s="87"/>
-      <c r="L5" s="88"/>
-    </row>
-    <row r="6" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I5" s="92"/>
+      <c r="J5" s="92"/>
+      <c r="K5" s="92"/>
+      <c r="L5" s="93"/>
+    </row>
+    <row r="6" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="22" t="s">
         <v>632</v>
       </c>
@@ -8926,7 +9014,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
         <v>633</v>
       </c>
@@ -8968,7 +9056,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
         <v>609</v>
       </c>
@@ -8995,11 +9083,11 @@
       </c>
       <c r="I8" s="41">
         <f>COUNTIF(E4:E44, 2)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J8" s="41">
         <f>COUNTIF(E47:E73, 2)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K8" s="41">
         <f>COUNTIF(E76:E89, 2)</f>
@@ -9010,7 +9098,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="22" t="s">
         <v>581</v>
       </c>
@@ -9052,7 +9140,7 @@
         <v>15.138888888888886</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
         <v>582</v>
       </c>
@@ -9079,11 +9167,11 @@
       </c>
       <c r="I10" s="41">
         <f>SUM(F4:F44)/6</f>
-        <v>14.052777777777779</v>
+        <v>12.980555555555556</v>
       </c>
       <c r="J10" s="41">
         <f>SUM(F47:F73)/6</f>
-        <v>16.077777777777772</v>
+        <v>14.477777777777776</v>
       </c>
       <c r="K10" s="41">
         <f>SUM(F76:F89)/6</f>
@@ -9094,7 +9182,7 @@
         <v>13.591666666666663</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
         <v>931</v>
       </c>
@@ -9121,16 +9209,16 @@
       </c>
       <c r="I11" s="42">
         <f ca="1">TODAY() +I10</f>
-        <v>43825.052777777775</v>
+        <v>43823.980555555558</v>
       </c>
       <c r="J11" s="42">
         <f ca="1">I11+J10</f>
-        <v>43841.130555555552</v>
+        <v>43838.458333333336</v>
       </c>
       <c r="K11" s="42"/>
       <c r="L11" s="42"/>
     </row>
-    <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="22" t="s">
         <v>583</v>
       </c>
@@ -9157,11 +9245,11 @@
       </c>
       <c r="I12" s="43">
         <f>I8/I7</f>
-        <v>0.34146341463414637</v>
+        <v>0.36585365853658536</v>
       </c>
       <c r="J12" s="43">
         <f>J8/J7</f>
-        <v>3.7037037037037035E-2</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="K12" s="43">
         <f>K8/K7</f>
@@ -9172,7 +9260,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="22" t="s">
         <v>584</v>
       </c>
@@ -9197,15 +9285,15 @@
       <c r="H13" s="34" t="s">
         <v>676</v>
       </c>
-      <c r="I13" s="89">
+      <c r="I13" s="94">
         <f>AVERAGE(I12:L12)</f>
-        <v>0.11545844625112918</v>
-      </c>
-      <c r="J13" s="90"/>
-      <c r="K13" s="90"/>
-      <c r="L13" s="91"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.14007452574525744</v>
+      </c>
+      <c r="J13" s="95"/>
+      <c r="K13" s="95"/>
+      <c r="L13" s="96"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="22" t="s">
         <v>585</v>
       </c>
@@ -9220,17 +9308,17 @@
         <v>6.4333333333333336</v>
       </c>
       <c r="E14" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14" s="21">
         <f t="shared" si="1"/>
-        <v>6.4333333333333336</v>
+        <v>0</v>
       </c>
       <c r="G14" s="21" t="s">
         <v>934</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="22" t="s">
         <v>586</v>
       </c>
@@ -9255,7 +9343,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="22" t="s">
         <v>587</v>
       </c>
@@ -9278,7 +9366,7 @@
       </c>
       <c r="G16" s="21"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="22" t="s">
         <v>932</v>
       </c>
@@ -9301,7 +9389,7 @@
       </c>
       <c r="G17" s="21"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="22" t="s">
         <v>809</v>
       </c>
@@ -9321,7 +9409,7 @@
       <c r="F18" s="21"/>
       <c r="G18" s="21"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="22" t="s">
         <v>588</v>
       </c>
@@ -9346,7 +9434,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="22" t="s">
         <v>945</v>
       </c>
@@ -9371,7 +9459,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="22" t="s">
         <v>936</v>
       </c>
@@ -9396,7 +9484,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="22" t="s">
         <v>947</v>
       </c>
@@ -9421,7 +9509,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="22" t="s">
         <v>948</v>
       </c>
@@ -9446,7 +9534,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="22" t="s">
         <v>617</v>
       </c>
@@ -9471,7 +9559,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="22" t="s">
         <v>933</v>
       </c>
@@ -9496,7 +9584,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="22" t="s">
         <v>937</v>
       </c>
@@ -9521,7 +9609,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="22" t="s">
         <v>949</v>
       </c>
@@ -9546,7 +9634,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="22" t="s">
         <v>938</v>
       </c>
@@ -9571,7 +9659,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="22" t="s">
         <v>939</v>
       </c>
@@ -9596,7 +9684,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="22" t="s">
         <v>950</v>
       </c>
@@ -9621,7 +9709,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="22" t="s">
         <v>589</v>
       </c>
@@ -9646,7 +9734,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="22" t="s">
         <v>590</v>
       </c>
@@ -9669,7 +9757,7 @@
       </c>
       <c r="G32" s="21"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="22" t="s">
         <v>591</v>
       </c>
@@ -9692,7 +9780,7 @@
       </c>
       <c r="G33" s="21"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="22" t="s">
         <v>592</v>
       </c>
@@ -9715,7 +9803,7 @@
       </c>
       <c r="G34" s="21"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="22" t="s">
         <v>593</v>
       </c>
@@ -9738,7 +9826,7 @@
       </c>
       <c r="G35" s="21"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="22" t="s">
         <v>594</v>
       </c>
@@ -9763,7 +9851,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="22" t="s">
         <v>595</v>
       </c>
@@ -9788,7 +9876,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="22" t="s">
         <v>942</v>
       </c>
@@ -9813,7 +9901,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="22" t="s">
         <v>596</v>
       </c>
@@ -9838,7 +9926,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="22" t="s">
         <v>597</v>
       </c>
@@ -9863,7 +9951,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="22" t="s">
         <v>943</v>
       </c>
@@ -9888,7 +9976,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="22" t="s">
         <v>598</v>
       </c>
@@ -9911,7 +9999,7 @@
       </c>
       <c r="G42" s="21"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="22" t="s">
         <v>599</v>
       </c>
@@ -9934,7 +10022,7 @@
       </c>
       <c r="G43" s="21"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="22" t="s">
         <v>600</v>
       </c>
@@ -9959,20 +10047,20 @@
         <v>944</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F45" s="21"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="85" t="s">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="90" t="s">
         <v>607</v>
       </c>
-      <c r="B46" s="85"/>
-      <c r="C46" s="85"/>
-      <c r="D46" s="85"/>
-      <c r="E46" s="85"/>
+      <c r="B46" s="90"/>
+      <c r="C46" s="90"/>
+      <c r="D46" s="90"/>
+      <c r="E46" s="90"/>
       <c r="F46" s="21"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="22" t="s">
         <v>608</v>
       </c>
@@ -9987,14 +10075,14 @@
         <v>3.1666666666666665</v>
       </c>
       <c r="E47" s="23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F47" s="21">
         <f t="shared" si="1"/>
-        <v>3.1666666666666665</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="22" t="s">
         <v>609</v>
       </c>
@@ -10016,7 +10104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="22" t="s">
         <v>585</v>
       </c>
@@ -10031,14 +10119,14 @@
         <v>6.4333333333333336</v>
       </c>
       <c r="E49" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F49" s="21">
         <f t="shared" si="1"/>
-        <v>6.4333333333333336</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="22" t="s">
         <v>610</v>
       </c>
@@ -10060,7 +10148,7 @@
         <v>2.7333333333333334</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="22" t="s">
         <v>611</v>
       </c>
@@ -10082,7 +10170,7 @@
         <v>2.8166666666666669</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="22" t="s">
         <v>586</v>
       </c>
@@ -10104,7 +10192,7 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="22" t="s">
         <v>612</v>
       </c>
@@ -10126,7 +10214,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="22" t="s">
         <v>594</v>
       </c>
@@ -10148,7 +10236,7 @@
         <v>4.4833333333333334</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="22" t="s">
         <v>595</v>
       </c>
@@ -10170,7 +10258,7 @@
         <v>3.9166666666666665</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="22" t="s">
         <v>613</v>
       </c>
@@ -10192,7 +10280,7 @@
         <v>2.7333333333333334</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="22" t="s">
         <v>597</v>
       </c>
@@ -10214,7 +10302,7 @@
         <v>3.8666666666666667</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="22" t="s">
         <v>614</v>
       </c>
@@ -10236,7 +10324,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="22" t="s">
         <v>615</v>
       </c>
@@ -10258,7 +10346,7 @@
         <v>3.8666666666666667</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="22" t="s">
         <v>616</v>
       </c>
@@ -10280,7 +10368,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="22" t="s">
         <v>617</v>
       </c>
@@ -10302,7 +10390,7 @@
         <v>2.4166666666666665</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="22" t="s">
         <v>618</v>
       </c>
@@ -10324,7 +10412,7 @@
         <v>4.0333333333333332</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="22" t="s">
         <v>619</v>
       </c>
@@ -10346,7 +10434,7 @@
         <v>3.2666666666666666</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="22" t="s">
         <v>629</v>
       </c>
@@ -10368,7 +10456,7 @@
         <v>2.2333333333333334</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="22" t="s">
         <v>620</v>
       </c>
@@ -10390,7 +10478,7 @@
         <v>6.1166666666666663</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="22" t="s">
         <v>621</v>
       </c>
@@ -10412,7 +10500,7 @@
         <v>2.3666666666666667</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="22" t="s">
         <v>622</v>
       </c>
@@ -10434,7 +10522,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="22" t="s">
         <v>623</v>
       </c>
@@ -10456,7 +10544,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="22" t="s">
         <v>624</v>
       </c>
@@ -10478,7 +10566,7 @@
         <v>3.6833333333333331</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="22" t="s">
         <v>625</v>
       </c>
@@ -10500,7 +10588,7 @@
         <v>4.8666666666666663</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="22" t="s">
         <v>626</v>
       </c>
@@ -10522,7 +10610,7 @@
         <v>3.3333333333333335</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="22" t="s">
         <v>627</v>
       </c>
@@ -10544,7 +10632,7 @@
         <v>3.6666666666666665</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="22" t="s">
         <v>628</v>
       </c>
@@ -10566,22 +10654,22 @@
         <v>2.6166666666666667</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D74" s="28"/>
       <c r="E74" s="29"/>
       <c r="F74" s="30"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="85" t="s">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="90" t="s">
         <v>638</v>
       </c>
-      <c r="B75" s="85"/>
-      <c r="C75" s="85"/>
-      <c r="D75" s="85"/>
-      <c r="E75" s="85"/>
+      <c r="B75" s="90"/>
+      <c r="C75" s="90"/>
+      <c r="D75" s="90"/>
+      <c r="E75" s="90"/>
       <c r="F75" s="33"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="22" t="s">
         <v>639</v>
       </c>
@@ -10603,7 +10691,7 @@
         <v>2.9166666666666665</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="22" t="s">
         <v>640</v>
       </c>
@@ -10625,7 +10713,7 @@
         <v>4.7833333333333332</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="22" t="s">
         <v>641</v>
       </c>
@@ -10647,7 +10735,7 @@
         <v>4.8666666666666663</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="22" t="s">
         <v>642</v>
       </c>
@@ -10669,7 +10757,7 @@
         <v>3.1833333333333331</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="22" t="s">
         <v>643</v>
       </c>
@@ -10691,7 +10779,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="22" t="s">
         <v>644</v>
       </c>
@@ -10713,7 +10801,7 @@
         <v>6.333333333333333</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="22" t="s">
         <v>645</v>
       </c>
@@ -10735,7 +10823,7 @@
         <v>4.333333333333333</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="22" t="s">
         <v>646</v>
       </c>
@@ -10757,7 +10845,7 @@
         <v>2.9333333333333331</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="22" t="s">
         <v>647</v>
       </c>
@@ -10779,7 +10867,7 @@
         <v>3.5666666666666669</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="22" t="s">
         <v>648</v>
       </c>
@@ -10801,7 +10889,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="22" t="s">
         <v>649</v>
       </c>
@@ -10823,7 +10911,7 @@
         <v>4.0333333333333332</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="22" t="s">
         <v>650</v>
       </c>
@@ -10845,7 +10933,7 @@
         <v>2.7166666666666668</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="22" t="s">
         <v>651</v>
       </c>
@@ -10867,7 +10955,7 @@
         <v>3.2666666666666666</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="22" t="s">
         <v>652</v>
       </c>
@@ -10889,22 +10977,22 @@
         <v>4.416666666666667</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D90" s="28"/>
       <c r="E90" s="29"/>
       <c r="F90" s="30"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="85" t="s">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" s="90" t="s">
         <v>654</v>
       </c>
-      <c r="B91" s="85"/>
-      <c r="C91" s="85"/>
-      <c r="D91" s="85"/>
-      <c r="E91" s="85"/>
-      <c r="F91" s="85"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B91" s="90"/>
+      <c r="C91" s="90"/>
+      <c r="D91" s="90"/>
+      <c r="E91" s="90"/>
+      <c r="F91" s="90"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="31" t="s">
         <v>630</v>
       </c>
@@ -10926,7 +11014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="22" t="s">
         <v>655</v>
       </c>
@@ -10948,7 +11036,7 @@
         <v>4.6500000000000004</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="22" t="s">
         <v>631</v>
       </c>
@@ -10970,7 +11058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="22" t="s">
         <v>656</v>
       </c>
@@ -10992,7 +11080,7 @@
         <v>5.2166666666666668</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="22" t="s">
         <v>657</v>
       </c>
@@ -11014,7 +11102,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="22" t="s">
         <v>658</v>
       </c>
@@ -11036,7 +11124,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="22" t="s">
         <v>659</v>
       </c>
@@ -11058,7 +11146,7 @@
         <v>2.5666666666666669</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="22" t="s">
         <v>660</v>
       </c>
@@ -11080,7 +11168,7 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="22" t="s">
         <v>661</v>
       </c>
@@ -11102,7 +11190,7 @@
         <v>2.7333333333333334</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="22" t="s">
         <v>662</v>
       </c>
@@ -11124,7 +11212,7 @@
         <v>5.3833333333333337</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="22" t="s">
         <v>663</v>
       </c>
@@ -11146,7 +11234,7 @@
         <v>3.3833333333333333</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="22" t="s">
         <v>664</v>
       </c>
@@ -11168,7 +11256,7 @@
         <v>4.2833333333333332</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="22" t="s">
         <v>665</v>
       </c>
@@ -11190,7 +11278,7 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="22" t="s">
         <v>666</v>
       </c>
@@ -11212,7 +11300,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="22" t="s">
         <v>667</v>
       </c>
@@ -11234,7 +11322,7 @@
         <v>2.4333333333333331</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="22" t="s">
         <v>668</v>
       </c>
@@ -11256,7 +11344,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="22" t="s">
         <v>669</v>
       </c>
@@ -11278,7 +11366,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="22" t="s">
         <v>625</v>
       </c>
@@ -11300,7 +11388,7 @@
         <v>4.8666666666666663</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="22" t="s">
         <v>670</v>
       </c>
@@ -11322,7 +11410,7 @@
         <v>4.7833333333333332</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="22" t="s">
         <v>671</v>
       </c>
@@ -11344,7 +11432,7 @@
         <v>6.05</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="22" t="s">
         <v>672</v>
       </c>
@@ -11366,7 +11454,7 @@
         <v>2.8166666666666669</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="22" t="s">
         <v>626</v>
       </c>
@@ -11388,7 +11476,7 @@
         <v>3.3333333333333335</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="22" t="s">
         <v>673</v>
       </c>
@@ -11410,7 +11498,7 @@
         <v>4.3666666666666663</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="22" t="s">
         <v>674</v>
       </c>
@@ -11508,15 +11596,15 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48.85546875" customWidth="1"/>
+    <col min="1" max="1" width="48.88671875" customWidth="1"/>
     <col min="2" max="2" width="58" customWidth="1"/>
-    <col min="3" max="3" width="110.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="110.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="44" t="s">
         <v>1</v>
       </c>
@@ -11530,7 +11618,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A3" s="49" t="s">
         <v>721</v>
       </c>
@@ -11544,7 +11632,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="49" t="s">
         <v>722</v>
       </c>
@@ -11558,7 +11646,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="49" t="s">
         <v>723</v>
       </c>
@@ -11572,7 +11660,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A6" s="49" t="s">
         <v>727</v>
       </c>
@@ -11586,7 +11674,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="49" t="s">
         <v>728</v>
       </c>
@@ -11600,7 +11688,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A8" s="49" t="s">
         <v>737</v>
       </c>
@@ -11612,7 +11700,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A9" s="49" t="s">
         <v>738</v>
       </c>
@@ -11622,7 +11710,7 @@
       <c r="C9" s="72"/>
       <c r="D9" s="52"/>
     </row>
-    <row r="10" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A10" s="49" t="s">
         <v>741</v>
       </c>
@@ -11632,7 +11720,7 @@
       <c r="C10" s="72"/>
       <c r="D10" s="52"/>
     </row>
-    <row r="11" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A11" s="49" t="s">
         <v>742</v>
       </c>
@@ -11642,7 +11730,7 @@
       <c r="C11" s="72"/>
       <c r="D11" s="52"/>
     </row>
-    <row r="12" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A12" s="49" t="s">
         <v>761</v>
       </c>
@@ -11652,7 +11740,7 @@
       <c r="C12" s="72"/>
       <c r="D12" s="52"/>
     </row>
-    <row r="13" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A13" s="49" t="s">
         <v>747</v>
       </c>
@@ -11666,7 +11754,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A14" s="49" t="s">
         <v>748</v>
       </c>
@@ -11680,7 +11768,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A15" s="49" t="s">
         <v>749</v>
       </c>
@@ -11694,7 +11782,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A16" s="49" t="s">
         <v>755</v>
       </c>
@@ -11708,7 +11796,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A17" s="49" t="s">
         <v>756</v>
       </c>
@@ -11722,7 +11810,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A18" s="49" t="s">
         <v>769</v>
       </c>
@@ -11736,7 +11824,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A19" s="49" t="s">
         <v>772</v>
       </c>
@@ -11750,7 +11838,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A20" s="49" t="s">
         <v>762</v>
       </c>
@@ -11764,7 +11852,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A21" s="49" t="s">
         <v>765</v>
       </c>
@@ -11778,7 +11866,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A22" s="49" t="s">
         <v>729</v>
       </c>
@@ -11792,7 +11880,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A23" s="49" t="s">
         <v>730</v>
       </c>
@@ -11806,7 +11894,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A24" s="49" t="s">
         <v>731</v>
       </c>
@@ -11820,7 +11908,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="49" t="s">
         <v>735</v>
       </c>
@@ -11834,7 +11922,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A26" s="49" t="s">
         <v>779</v>
       </c>
@@ -11848,7 +11936,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A27" s="49" t="s">
         <v>782</v>
       </c>
@@ -11862,7 +11950,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A28" s="49" t="s">
         <v>786</v>
       </c>
@@ -11876,7 +11964,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A29" s="49" t="s">
         <v>789</v>
       </c>
@@ -11890,7 +11978,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A30" s="49" t="s">
         <v>792</v>
       </c>
@@ -11904,7 +11992,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A31" s="49" t="s">
         <v>794</v>
       </c>
@@ -11918,7 +12006,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A32" s="49" t="s">
         <v>797</v>
       </c>
@@ -11932,7 +12020,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A33" s="49" t="s">
         <v>800</v>
       </c>
@@ -11946,7 +12034,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A34" s="49" t="s">
         <v>801</v>
       </c>
@@ -11960,7 +12048,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A35" s="49" t="s">
         <v>807</v>
       </c>
@@ -11974,13 +12062,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="49"/>
       <c r="B36" s="73"/>
       <c r="C36" s="72"/>
       <c r="D36" s="74"/>
     </row>
-    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="49"/>
       <c r="B37" s="73"/>
       <c r="C37" s="72"/>

--- a/cheat_sheet.xlsx
+++ b/cheat_sheet.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD91957-2478-415B-A286-8B4D16D9DC01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A471886-5B41-478C-BFEC-92A2ED467861}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27330" windowHeight="12495" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="967">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1348" uniqueCount="973">
   <si>
     <t>HTML</t>
   </si>
@@ -3305,6 +3307,24 @@
     <t>var object = {
 	name: "jess",
 	age: 24,
+	skills: ["html", "javascript", "css", "sass"]
+}
+object.name  // "Jess" 
+object["name"] // "Jess"
+object.age = 25 // changes the object's property value
+object.occupation = "none" // adds a new object property and value</t>
+  </si>
+  <si>
+    <t>For In Loop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The for...in statement iterates over all non-Symbol, enumerable properties of an object.
+</t>
+  </si>
+  <si>
+    <t>var object = {
+	name: "jess",
+	age: 24,
 	skills: ["html", "javascript", "css", "sass"],
 }
 for ( var key in object ) {
@@ -3312,25 +3332,25 @@
 }
 // name  :  jess
 // age  :  24
-// sample.js:9 skills  :  (4) ["html", "javascript", "css", "sass"]</t>
-  </si>
-  <si>
-    <t>var object = {
-	name: "jess",
-	age: 24,
-	skills: ["html", "javascript", "css", "sass"]
-}
-object.name  // "Jess" 
-object["name"] // "Jess"
-object.age = 25 // changes the object's property value
-object.occupation = "none" // adds a new object property and value</t>
-  </si>
-  <si>
-    <t>For In Loop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The for...in statement iterates over all non-Symbol, enumerable properties of an object.
-</t>
+//  skills  :   ["html", "javascript", "css", "sass"]</t>
+  </si>
+  <si>
+    <t>Const</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Let </t>
+  </si>
+  <si>
+    <t>Constants are block-scoped, much like variables defined using the let statement. The value of a constant can't be changed through reassignment, and it can't be redeclared.</t>
+  </si>
+  <si>
+    <t>const days = "Monday";</t>
+  </si>
+  <si>
+    <t>The let statement declares a block scope local variable, optionally initializing it to a value.</t>
+  </si>
+  <si>
+    <t>let days = "Monday";</t>
   </si>
 </sst>
 </file>
@@ -3743,7 +3763,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4031,9 +4051,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4323,24 +4340,24 @@
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="43.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.33203125" style="1"/>
+    <col min="9" max="9" width="43.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="80" t="s">
         <v>0</v>
       </c>
@@ -4360,7 +4377,7 @@
       <c r="K1" s="80"/>
       <c r="L1" s="80"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -4398,7 +4415,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -4436,7 +4453,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -4474,7 +4491,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -4512,7 +4529,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
@@ -4544,7 +4561,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
@@ -4570,7 +4587,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -4596,7 +4613,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>568</v>
       </c>
@@ -4616,7 +4633,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I10" s="1" t="s">
         <v>40</v>
       </c>
@@ -4630,7 +4647,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I11" s="1" t="s">
         <v>42</v>
       </c>
@@ -4644,7 +4661,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I12" s="1" t="s">
         <v>548</v>
       </c>
@@ -4688,15 +4705,15 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.88671875" customWidth="1"/>
+    <col min="1" max="1" width="48.85546875" customWidth="1"/>
     <col min="2" max="2" width="58" customWidth="1"/>
-    <col min="3" max="3" width="110.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="110.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="44" t="s">
         <v>1</v>
       </c>
@@ -4710,7 +4727,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A3" s="49" t="s">
         <v>811</v>
       </c>
@@ -4724,7 +4741,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" s="49" t="s">
         <v>815</v>
       </c>
@@ -4738,7 +4755,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="49" t="s">
         <v>816</v>
       </c>
@@ -4750,7 +4767,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="78" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A6" s="49" t="s">
         <v>819</v>
       </c>
@@ -4764,7 +4781,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A7" s="49" t="s">
         <v>824</v>
       </c>
@@ -4778,7 +4795,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A8" s="49" t="s">
         <v>825</v>
       </c>
@@ -4792,7 +4809,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" s="49" t="s">
         <v>827</v>
       </c>
@@ -4806,7 +4823,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A10" s="49" t="s">
         <v>830</v>
       </c>
@@ -4820,7 +4837,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A11" s="49" t="s">
         <v>833</v>
       </c>
@@ -4834,7 +4851,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A12" s="49" t="s">
         <v>837</v>
       </c>
@@ -4848,7 +4865,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A13" s="49" t="s">
         <v>842</v>
       </c>
@@ -4862,7 +4879,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A14" s="49" t="s">
         <v>843</v>
       </c>
@@ -4876,7 +4893,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A15" s="49" t="s">
         <v>862</v>
       </c>
@@ -4890,7 +4907,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="49" t="s">
         <v>846</v>
       </c>
@@ -4900,7 +4917,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A17" s="49" t="s">
         <v>847</v>
       </c>
@@ -4914,7 +4931,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A18" s="49" t="s">
         <v>850</v>
       </c>
@@ -4928,7 +4945,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A19" s="49" t="s">
         <v>852</v>
       </c>
@@ -4942,7 +4959,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A20" s="49" t="s">
         <v>856</v>
       </c>
@@ -4956,7 +4973,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A21" s="49" t="s">
         <v>859</v>
       </c>
@@ -5004,15 +5021,15 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.88671875" customWidth="1"/>
+    <col min="1" max="1" width="48.85546875" customWidth="1"/>
     <col min="2" max="2" width="58" customWidth="1"/>
-    <col min="3" max="3" width="110.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="110.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="44" t="s">
         <v>1</v>
       </c>
@@ -5026,7 +5043,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="49" t="s">
         <v>865</v>
       </c>
@@ -5036,7 +5053,7 @@
       <c r="C3" s="72"/>
       <c r="D3" s="52"/>
     </row>
-    <row r="4" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" s="49" t="s">
         <v>867</v>
       </c>
@@ -5050,7 +5067,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="124.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="126" x14ac:dyDescent="0.25">
       <c r="A5" s="49" t="s">
         <v>870</v>
       </c>
@@ -5064,7 +5081,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="189" x14ac:dyDescent="0.25">
       <c r="A6" s="49" t="s">
         <v>872</v>
       </c>
@@ -5078,7 +5095,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="156" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A7" s="49" t="s">
         <v>877</v>
       </c>
@@ -5092,7 +5109,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="234" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="236.25" x14ac:dyDescent="0.25">
       <c r="A8" s="49" t="s">
         <v>880</v>
       </c>
@@ -5106,7 +5123,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A9" s="49" t="s">
         <v>878</v>
       </c>
@@ -5120,7 +5137,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A10" s="49" t="s">
         <v>881</v>
       </c>
@@ -5134,7 +5151,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A11" s="49" t="s">
         <v>888</v>
       </c>
@@ -5148,7 +5165,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="171.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="173.25" x14ac:dyDescent="0.25">
       <c r="A12" s="49" t="s">
         <v>891</v>
       </c>
@@ -5162,7 +5179,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="78" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A13" s="49" t="s">
         <v>894</v>
       </c>
@@ -5172,7 +5189,7 @@
       <c r="C13" s="72"/>
       <c r="D13" s="74"/>
     </row>
-    <row r="14" spans="1:4" ht="202.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A14" s="49" t="s">
         <v>896</v>
       </c>
@@ -5186,7 +5203,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="296.39999999999998" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="299.25" x14ac:dyDescent="0.25">
       <c r="A15" s="49" t="s">
         <v>899</v>
       </c>
@@ -5200,7 +5217,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="49" t="s">
         <v>902</v>
       </c>
@@ -5210,7 +5227,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="234" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="236.25" x14ac:dyDescent="0.25">
       <c r="A17" s="49" t="s">
         <v>904</v>
       </c>
@@ -5224,7 +5241,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="296.39999999999998" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="299.25" x14ac:dyDescent="0.25">
       <c r="A18" s="49" t="s">
         <v>906</v>
       </c>
@@ -5238,7 +5255,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="78" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A19" s="49" t="s">
         <v>909</v>
       </c>
@@ -5252,7 +5269,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A20" s="49" t="s">
         <v>912</v>
       </c>
@@ -5264,7 +5281,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="140.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A21" s="49" t="s">
         <v>914</v>
       </c>
@@ -5278,7 +5295,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="202.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A22" s="49" t="s">
         <v>918</v>
       </c>
@@ -5326,15 +5343,15 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38" customWidth="1"/>
-    <col min="3" max="3" width="125.44140625" customWidth="1"/>
-    <col min="4" max="4" width="48.6640625" customWidth="1"/>
+    <col min="3" max="3" width="125.42578125" customWidth="1"/>
+    <col min="4" max="4" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>920</v>
       </c>
@@ -5348,7 +5365,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>924</v>
       </c>
@@ -5362,7 +5379,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>928</v>
       </c>
@@ -5373,61 +5390,61 @@
         <v>930</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C5" s="16"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C6" s="16"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C7" s="16"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C8" s="16"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C9" s="16"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C10" s="16"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C11" s="16"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C12" s="16"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C13" s="16"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C14" s="16"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C15" s="16"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C16" s="16"/>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="16"/>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" s="16"/>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" s="16"/>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" s="16"/>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" s="16"/>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22" s="16"/>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C23" s="16"/>
     </row>
   </sheetData>
@@ -5443,21 +5460,21 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="61.5546875" customWidth="1"/>
-    <col min="2" max="2" width="64.88671875" customWidth="1"/>
-    <col min="3" max="3" width="110.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="61.5703125" customWidth="1"/>
+    <col min="2" max="2" width="64.85546875" customWidth="1"/>
+    <col min="3" max="3" width="110.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="81" t="s">
         <v>512</v>
       </c>
       <c r="B1" s="81"/>
       <c r="C1" s="81"/>
     </row>
-    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -5468,7 +5485,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>513</v>
       </c>
@@ -5479,7 +5496,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>29</v>
       </c>
@@ -5488,7 +5505,7 @@
       </c>
       <c r="C4" s="19"/>
     </row>
-    <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>517</v>
       </c>
@@ -5499,7 +5516,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>520</v>
       </c>
@@ -5508,7 +5525,7 @@
       </c>
       <c r="C6" s="19"/>
     </row>
-    <row r="7" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>522</v>
       </c>
@@ -5519,7 +5536,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>525</v>
       </c>
@@ -5528,7 +5545,7 @@
       </c>
       <c r="C8" s="19"/>
     </row>
-    <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>527</v>
       </c>
@@ -5537,7 +5554,7 @@
       </c>
       <c r="C9" s="19"/>
     </row>
-    <row r="10" spans="1:3" ht="108" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="131.25" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>529</v>
       </c>
@@ -5548,7 +5565,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>532</v>
       </c>
@@ -5559,7 +5576,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>535</v>
       </c>
@@ -5568,7 +5585,7 @@
       </c>
       <c r="C12" s="19"/>
     </row>
-    <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>537</v>
       </c>
@@ -5577,7 +5594,7 @@
       </c>
       <c r="C13" s="19"/>
     </row>
-    <row r="14" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>539</v>
       </c>
@@ -5586,7 +5603,7 @@
       </c>
       <c r="C14" s="19"/>
     </row>
-    <row r="15" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>541</v>
       </c>
@@ -5595,7 +5612,7 @@
       </c>
       <c r="C15" s="19"/>
     </row>
-    <row r="16" spans="1:3" ht="36" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>543</v>
       </c>
@@ -5606,7 +5623,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="162" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="168.75" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
         <v>546</v>
       </c>
@@ -5617,7 +5634,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>550</v>
       </c>
@@ -5626,7 +5643,7 @@
       </c>
       <c r="C18" s="19"/>
     </row>
-    <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
         <v>553</v>
       </c>
@@ -5635,7 +5652,7 @@
       </c>
       <c r="C19" s="19"/>
     </row>
-    <row r="20" spans="1:3" ht="36" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
         <v>555</v>
       </c>
@@ -5646,7 +5663,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="108" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
         <v>558</v>
       </c>
@@ -5657,7 +5674,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
         <v>559</v>
       </c>
@@ -5668,7 +5685,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="162" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="168.75" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
         <v>564</v>
       </c>
@@ -5695,16 +5712,16 @@
       <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" style="10" customWidth="1"/>
-    <col min="2" max="2" width="73.33203125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="110.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.28515625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="110.5703125" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="7" customWidth="1"/>
-    <col min="5" max="16384" width="9.33203125" style="5"/>
+    <col min="5" max="16384" width="9.28515625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="82" t="s">
         <v>0</v>
       </c>
@@ -5712,7 +5729,7 @@
       <c r="C1" s="82"/>
       <c r="D1" s="82"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="44" t="s">
         <v>1</v>
       </c>
@@ -5726,7 +5743,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="45" t="s">
         <v>44</v>
       </c>
@@ -5740,7 +5757,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="45" t="s">
         <v>44</v>
       </c>
@@ -5754,7 +5771,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="45" t="s">
         <v>48</v>
       </c>
@@ -5768,7 +5785,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="45" t="s">
         <v>50</v>
       </c>
@@ -5782,7 +5799,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="45" t="s">
         <v>52</v>
       </c>
@@ -5796,7 +5813,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="45" t="s">
         <v>54</v>
       </c>
@@ -5810,7 +5827,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="45" t="s">
         <v>57</v>
       </c>
@@ -5824,7 +5841,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="45" t="s">
         <v>60</v>
       </c>
@@ -5838,7 +5855,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A11" s="45" t="s">
         <v>63</v>
       </c>
@@ -5852,7 +5869,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="45" t="s">
         <v>78</v>
       </c>
@@ -5866,7 +5883,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="45" t="s">
         <v>139</v>
       </c>
@@ -5880,7 +5897,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="45" t="s">
         <v>69</v>
       </c>
@@ -5894,7 +5911,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="45" t="s">
         <v>72</v>
       </c>
@@ -5908,7 +5925,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" s="45" t="s">
         <v>75</v>
       </c>
@@ -5922,7 +5939,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A17" s="49" t="s">
         <v>493</v>
       </c>
@@ -5936,7 +5953,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A18" s="49" t="s">
         <v>494</v>
       </c>
@@ -5950,7 +5967,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A19" s="49" t="s">
         <v>495</v>
       </c>
@@ -5964,7 +5981,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A20" s="45" t="s">
         <v>81</v>
       </c>
@@ -5978,7 +5995,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A21" s="45" t="s">
         <v>84</v>
       </c>
@@ -5992,7 +6009,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" s="45" t="s">
         <v>87</v>
       </c>
@@ -6006,7 +6023,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A23" s="45" t="s">
         <v>90</v>
       </c>
@@ -6020,7 +6037,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A24" s="45" t="s">
         <v>91</v>
       </c>
@@ -6034,7 +6051,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A25" s="45" t="s">
         <v>92</v>
       </c>
@@ -6048,7 +6065,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A26" s="45" t="s">
         <v>99</v>
       </c>
@@ -6062,7 +6079,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A27" s="45" t="s">
         <v>102</v>
       </c>
@@ -6076,7 +6093,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A28" s="45" t="s">
         <v>502</v>
       </c>
@@ -6090,7 +6107,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A29" s="45" t="s">
         <v>105</v>
       </c>
@@ -6104,7 +6121,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A30" s="45" t="s">
         <v>108</v>
       </c>
@@ -6118,7 +6135,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A31" s="45" t="s">
         <v>111</v>
       </c>
@@ -6132,7 +6149,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A32" s="45" t="s">
         <v>113</v>
       </c>
@@ -6146,7 +6163,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A33" s="45" t="s">
         <v>20</v>
       </c>
@@ -6160,7 +6177,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A34" s="45" t="s">
         <v>506</v>
       </c>
@@ -6174,7 +6191,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A35" s="45" t="s">
         <v>509</v>
       </c>
@@ -6188,7 +6205,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A36" s="45" t="s">
         <v>117</v>
       </c>
@@ -6202,7 +6219,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A37" s="45" t="s">
         <v>118</v>
       </c>
@@ -6216,7 +6233,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A38" s="45" t="s">
         <v>121</v>
       </c>
@@ -6230,7 +6247,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A39" s="45" t="s">
         <v>123</v>
       </c>
@@ -6244,7 +6261,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A40" s="45" t="s">
         <v>128</v>
       </c>
@@ -6258,7 +6275,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="87" t="s">
         <v>131</v>
       </c>
@@ -6272,7 +6289,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="88"/>
       <c r="B42" s="86"/>
       <c r="C42" s="84"/>
@@ -6280,7 +6297,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A43" s="45" t="s">
         <v>133</v>
       </c>
@@ -6294,7 +6311,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A44" s="45" t="s">
         <v>569</v>
       </c>
@@ -6308,7 +6325,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="45" t="s">
         <v>136</v>
       </c>
@@ -6322,7 +6339,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A46" s="45" t="s">
         <v>138</v>
       </c>
@@ -6336,7 +6353,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="45" t="s">
         <v>142</v>
       </c>
@@ -6350,7 +6367,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="45" t="s">
         <v>3</v>
       </c>
@@ -6364,7 +6381,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A49" s="53" t="s">
         <v>297</v>
       </c>
@@ -6378,7 +6395,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A50" s="49" t="s">
         <v>366</v>
       </c>
@@ -6392,7 +6409,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A51" s="49" t="s">
         <v>369</v>
       </c>
@@ -6406,7 +6423,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A52" s="49" t="s">
         <v>372</v>
       </c>
@@ -6420,7 +6437,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A53" s="49" t="s">
         <v>376</v>
       </c>
@@ -6434,7 +6451,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A54" s="49" t="s">
         <v>379</v>
       </c>
@@ -6448,7 +6465,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A55" s="49" t="s">
         <v>382</v>
       </c>
@@ -6462,7 +6479,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A56" s="49" t="s">
         <v>383</v>
       </c>
@@ -6476,7 +6493,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A57" s="49" t="s">
         <v>390</v>
       </c>
@@ -6490,7 +6507,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A58" s="49" t="s">
         <v>391</v>
       </c>
@@ -6504,7 +6521,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A59" s="49" t="s">
         <v>392</v>
       </c>
@@ -6518,7 +6535,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A60" s="49" t="s">
         <v>396</v>
       </c>
@@ -6532,7 +6549,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A61" s="49" t="s">
         <v>397</v>
       </c>
@@ -6546,7 +6563,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A62" s="57" t="s">
         <v>400</v>
       </c>
@@ -6558,7 +6575,7 @@
       </c>
       <c r="D62" s="58"/>
     </row>
-    <row r="63" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
         <v>680</v>
       </c>
@@ -6572,7 +6589,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
         <v>681</v>
       </c>
@@ -6586,7 +6603,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
         <v>682</v>
       </c>
@@ -6600,7 +6617,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
         <v>692</v>
       </c>
@@ -6614,7 +6631,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
         <v>696</v>
       </c>
@@ -6628,7 +6645,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
         <v>699</v>
       </c>
@@ -6639,7 +6656,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
         <v>700</v>
       </c>
@@ -6650,7 +6667,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A70" s="10" t="s">
         <v>705</v>
       </c>
@@ -6664,7 +6681,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
         <v>706</v>
       </c>
@@ -6678,7 +6695,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
         <v>707</v>
       </c>
@@ -6692,7 +6709,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
         <v>708</v>
       </c>
@@ -6786,16 +6803,16 @@
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.33203125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="32.28515625" style="7" customWidth="1"/>
     <col min="2" max="2" width="75" style="13" customWidth="1"/>
-    <col min="3" max="3" width="110.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="110.5703125" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="7" customWidth="1"/>
-    <col min="5" max="16384" width="9.33203125" style="5"/>
+    <col min="5" max="16384" width="9.28515625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="82" t="s">
         <v>4</v>
       </c>
@@ -6803,7 +6820,7 @@
       <c r="C1" s="82"/>
       <c r="D1" s="82"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="44" t="s">
         <v>1</v>
       </c>
@@ -6817,7 +6834,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="53" t="s">
         <v>5</v>
       </c>
@@ -6831,7 +6848,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
@@ -6845,7 +6862,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="63" t="s">
         <v>8</v>
       </c>
@@ -6859,7 +6876,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="63" t="s">
         <v>147</v>
       </c>
@@ -6873,7 +6890,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="63" t="s">
         <v>150</v>
       </c>
@@ -6887,7 +6904,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="63" t="s">
         <v>154</v>
       </c>
@@ -6901,7 +6918,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="63" t="s">
         <v>156</v>
       </c>
@@ -6915,7 +6932,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A10" s="63" t="s">
         <v>159</v>
       </c>
@@ -6929,7 +6946,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="63" t="s">
         <v>240</v>
       </c>
@@ -6943,7 +6960,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="63" t="s">
         <v>162</v>
       </c>
@@ -6957,7 +6974,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="63" t="s">
         <v>165</v>
       </c>
@@ -6971,7 +6988,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="63" t="s">
         <v>168</v>
       </c>
@@ -6985,7 +7002,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="63" t="s">
         <v>170</v>
       </c>
@@ -6999,7 +7016,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" s="63" t="s">
         <v>174</v>
       </c>
@@ -7013,7 +7030,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="63" t="s">
         <v>177</v>
       </c>
@@ -7027,7 +7044,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A18" s="63" t="s">
         <v>180</v>
       </c>
@@ -7041,7 +7058,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A19" s="63" t="s">
         <v>183</v>
       </c>
@@ -7055,7 +7072,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A20" s="63" t="s">
         <v>186</v>
       </c>
@@ -7069,7 +7086,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="63" t="s">
         <v>190</v>
       </c>
@@ -7083,7 +7100,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="63" t="s">
         <v>192</v>
       </c>
@@ -7097,7 +7114,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A23" s="63" t="s">
         <v>195</v>
       </c>
@@ -7111,7 +7128,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A24" s="63" t="s">
         <v>197</v>
       </c>
@@ -7125,7 +7142,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A25" s="63" t="s">
         <v>201</v>
       </c>
@@ -7139,7 +7156,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="63" t="s">
         <v>204</v>
       </c>
@@ -7153,7 +7170,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A27" s="63" t="s">
         <v>206</v>
       </c>
@@ -7167,7 +7184,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A28" s="63" t="s">
         <v>208</v>
       </c>
@@ -7181,7 +7198,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A29" s="63" t="s">
         <v>212</v>
       </c>
@@ -7195,7 +7212,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A30" s="63" t="s">
         <v>214</v>
       </c>
@@ -7209,7 +7226,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A31" s="63" t="s">
         <v>219</v>
       </c>
@@ -7223,7 +7240,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A32" s="63" t="s">
         <v>220</v>
       </c>
@@ -7237,7 +7254,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A33" s="63" t="s">
         <v>223</v>
       </c>
@@ -7251,7 +7268,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A34" s="63" t="s">
         <v>225</v>
       </c>
@@ -7265,7 +7282,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A35" s="63" t="s">
         <v>228</v>
       </c>
@@ -7279,7 +7296,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A36" s="63" t="s">
         <v>231</v>
       </c>
@@ -7293,7 +7310,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A37" s="63" t="s">
         <v>232</v>
       </c>
@@ -7307,7 +7324,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A38" s="63" t="s">
         <v>237</v>
       </c>
@@ -7321,7 +7338,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A39" s="63" t="s">
         <v>243</v>
       </c>
@@ -7335,7 +7352,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="63" t="s">
         <v>246</v>
       </c>
@@ -7349,7 +7366,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A41" s="63" t="s">
         <v>249</v>
       </c>
@@ -7363,7 +7380,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A42" s="63" t="s">
         <v>252</v>
       </c>
@@ -7377,7 +7394,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A43" s="63" t="s">
         <v>255</v>
       </c>
@@ -7391,7 +7408,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A44" s="63" t="s">
         <v>258</v>
       </c>
@@ -7405,7 +7422,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A45" s="63" t="s">
         <v>261</v>
       </c>
@@ -7419,7 +7436,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="63" t="s">
         <v>264</v>
       </c>
@@ -7433,7 +7450,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="63" t="s">
         <v>267</v>
       </c>
@@ -7447,7 +7464,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A48" s="63" t="s">
         <v>271</v>
       </c>
@@ -7461,7 +7478,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A49" s="63" t="s">
         <v>274</v>
       </c>
@@ -7475,7 +7492,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A50" s="63" t="s">
         <v>276</v>
       </c>
@@ -7489,7 +7506,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A51" s="63" t="s">
         <v>279</v>
       </c>
@@ -7503,7 +7520,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A52" s="63" t="s">
         <v>281</v>
       </c>
@@ -7517,7 +7534,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A53" s="63" t="s">
         <v>284</v>
       </c>
@@ -7531,7 +7548,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A54" s="63" t="s">
         <v>285</v>
       </c>
@@ -7545,7 +7562,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="78" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A55" s="63" t="s">
         <v>289</v>
       </c>
@@ -7559,7 +7576,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="63" t="s">
         <v>292</v>
       </c>
@@ -7573,7 +7590,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A57" s="63" t="s">
         <v>300</v>
       </c>
@@ -7587,7 +7604,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A58" s="53" t="s">
         <v>303</v>
       </c>
@@ -7601,7 +7618,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="68" t="s">
         <v>306</v>
       </c>
@@ -7615,7 +7632,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="78" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A60" s="53" t="s">
         <v>309</v>
       </c>
@@ -7629,7 +7646,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A61" s="53" t="s">
         <v>311</v>
       </c>
@@ -7643,7 +7660,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A62" s="53" t="s">
         <v>315</v>
       </c>
@@ -7657,7 +7674,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A63" s="53" t="s">
         <v>318</v>
       </c>
@@ -7671,7 +7688,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A64" s="53" t="s">
         <v>321</v>
       </c>
@@ -7685,7 +7702,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A65" s="53" t="s">
         <v>324</v>
       </c>
@@ -7699,7 +7716,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A66" s="53" t="s">
         <v>327</v>
       </c>
@@ -7713,7 +7730,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A67" s="53" t="s">
         <v>330</v>
       </c>
@@ -7727,7 +7744,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A68" s="53" t="s">
         <v>333</v>
       </c>
@@ -7741,7 +7758,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="68" t="s">
         <v>336</v>
       </c>
@@ -7755,7 +7772,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A70" s="68" t="s">
         <v>338</v>
       </c>
@@ -7769,7 +7786,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A71" s="68" t="s">
         <v>342</v>
       </c>
@@ -7783,7 +7800,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A72" s="68" t="s">
         <v>343</v>
       </c>
@@ -7797,7 +7814,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A73" s="68" t="s">
         <v>361</v>
       </c>
@@ -7811,7 +7828,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="68" t="s">
         <v>364</v>
       </c>
@@ -7823,7 +7840,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A75" s="68" t="s">
         <v>346</v>
       </c>
@@ -7837,7 +7854,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A76" s="68" t="s">
         <v>349</v>
       </c>
@@ -7851,7 +7868,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A77" s="68" t="s">
         <v>354</v>
       </c>
@@ -7865,7 +7882,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A78" s="68" t="s">
         <v>352</v>
       </c>
@@ -7879,7 +7896,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A79" s="68" t="s">
         <v>353</v>
       </c>
@@ -7893,7 +7910,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="218.4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
         <v>677</v>
       </c>
@@ -7901,7 +7918,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C82" s="7" t="s">
         <v>679</v>
       </c>
@@ -7997,22 +8014,22 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" style="16" customWidth="1"/>
-    <col min="2" max="2" width="73.33203125" style="79" customWidth="1"/>
-    <col min="3" max="3" width="110.5546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.28515625" style="79" customWidth="1"/>
+    <col min="3" max="3" width="110.5703125" style="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="16" customWidth="1"/>
-    <col min="5" max="16384" width="9.33203125" style="16"/>
+    <col min="5" max="16384" width="9.28515625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="82" t="s">
         <v>489</v>
       </c>
@@ -8020,7 +8037,7 @@
       <c r="C1" s="82"/>
       <c r="D1" s="82"/>
     </row>
-    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="44" t="s">
         <v>1</v>
       </c>
@@ -8034,461 +8051,489 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="53" t="s">
         <v>403</v>
       </c>
       <c r="B3" s="77" t="s">
         <v>405</v>
       </c>
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="67" t="s">
         <v>404</v>
       </c>
       <c r="D3" s="56" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="53" t="s">
+        <v>967</v>
+      </c>
+      <c r="B4" s="77" t="s">
+        <v>970</v>
+      </c>
+      <c r="C4" s="67" t="s">
+        <v>969</v>
+      </c>
+      <c r="D4" s="75" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="53" t="s">
+        <v>968</v>
+      </c>
+      <c r="B5" s="77" t="s">
+        <v>972</v>
+      </c>
+      <c r="C5" s="67" t="s">
+        <v>971</v>
+      </c>
+      <c r="D5" s="75" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="53" t="s">
         <v>406</v>
       </c>
-      <c r="B4" s="77" t="s">
+      <c r="B6" s="77" t="s">
         <v>407</v>
       </c>
-      <c r="C4" s="67" t="s">
+      <c r="C6" s="67" t="s">
         <v>408</v>
       </c>
-      <c r="D4" s="56"/>
-    </row>
-    <row r="5" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="53" t="s">
+      <c r="D6" s="56"/>
+    </row>
+    <row r="7" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="53" t="s">
         <v>409</v>
       </c>
-      <c r="B5" s="77" t="s">
+      <c r="B7" s="77" t="s">
         <v>411</v>
       </c>
-      <c r="C5" s="67" t="s">
+      <c r="C7" s="67" t="s">
         <v>410</v>
       </c>
-      <c r="D5" s="56"/>
-    </row>
-    <row r="6" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="53" t="s">
+      <c r="D7" s="56"/>
+    </row>
+    <row r="8" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="53" t="s">
         <v>412</v>
       </c>
-      <c r="B6" s="77" t="s">
+      <c r="B8" s="77" t="s">
         <v>415</v>
       </c>
-      <c r="C6" s="67" t="s">
+      <c r="C8" s="67" t="s">
         <v>414</v>
       </c>
-      <c r="D6" s="56"/>
-    </row>
-    <row r="7" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="53" t="s">
+      <c r="D8" s="56"/>
+    </row>
+    <row r="9" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="53" t="s">
         <v>413</v>
       </c>
-      <c r="B7" s="77" t="s">
+      <c r="B9" s="77" t="s">
         <v>416</v>
       </c>
-      <c r="C7" s="67" t="s">
+      <c r="C9" s="67" t="s">
         <v>417</v>
       </c>
-      <c r="D7" s="56"/>
-    </row>
-    <row r="8" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="53" t="s">
+      <c r="D9" s="56"/>
+    </row>
+    <row r="10" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="53" t="s">
         <v>418</v>
       </c>
-      <c r="B8" s="77" t="s">
+      <c r="B10" s="77" t="s">
         <v>420</v>
       </c>
-      <c r="C8" s="67"/>
-      <c r="D8" s="56" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="53" t="s">
+      <c r="C10" s="67"/>
+      <c r="D10" s="56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="53" t="s">
         <v>419</v>
       </c>
-      <c r="B9" s="77" t="s">
+      <c r="B11" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="C9" s="67"/>
-      <c r="D9" s="56" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="53" t="s">
+      <c r="C11" s="67"/>
+      <c r="D11" s="56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="53" t="s">
         <v>422</v>
       </c>
-      <c r="B10" s="77" t="s">
+      <c r="B12" s="77" t="s">
         <v>423</v>
       </c>
-      <c r="C10" s="67" t="s">
+      <c r="C12" s="67" t="s">
         <v>424</v>
       </c>
-      <c r="D10" s="56" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="53" t="s">
+      <c r="D12" s="56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="53" t="s">
         <v>425</v>
       </c>
-      <c r="B11" s="77" t="s">
+      <c r="B13" s="77" t="s">
         <v>427</v>
       </c>
-      <c r="C11" s="67" t="s">
+      <c r="C13" s="67" t="s">
         <v>426</v>
       </c>
-      <c r="D11" s="56" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="53" t="s">
+      <c r="D13" s="56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A14" s="53" t="s">
         <v>428</v>
       </c>
-      <c r="B12" s="77" t="s">
+      <c r="B14" s="77" t="s">
         <v>430</v>
       </c>
-      <c r="C12" s="67" t="s">
+      <c r="C14" s="67" t="s">
         <v>429</v>
       </c>
-      <c r="D12" s="56" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="53" t="s">
+      <c r="D14" s="56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="53" t="s">
         <v>431</v>
       </c>
-      <c r="B13" s="77" t="s">
+      <c r="B15" s="77" t="s">
         <v>433</v>
       </c>
-      <c r="C13" s="67" t="s">
+      <c r="C15" s="67" t="s">
         <v>432</v>
       </c>
-      <c r="D13" s="56" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="53" t="s">
+      <c r="D15" s="56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A16" s="53" t="s">
         <v>434</v>
       </c>
-      <c r="B14" s="77" t="s">
+      <c r="B16" s="77" t="s">
         <v>436</v>
       </c>
-      <c r="C14" s="67" t="s">
+      <c r="C16" s="67" t="s">
         <v>435</v>
       </c>
-      <c r="D14" s="56" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="53" t="s">
+      <c r="D16" s="56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A17" s="53" t="s">
         <v>437</v>
       </c>
-      <c r="B15" s="77" t="s">
+      <c r="B17" s="77" t="s">
         <v>438</v>
       </c>
-      <c r="C15" s="67" t="s">
+      <c r="C17" s="67" t="s">
         <v>439</v>
       </c>
-      <c r="D15" s="56" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="53" t="s">
+      <c r="D17" s="56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="53" t="s">
         <v>440</v>
       </c>
-      <c r="B16" s="77" t="s">
+      <c r="B18" s="77" t="s">
         <v>441</v>
       </c>
-      <c r="C16" s="67" t="s">
+      <c r="C18" s="67" t="s">
         <v>442</v>
       </c>
-      <c r="D16" s="56" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="53" t="s">
+      <c r="D18" s="56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A19" s="53" t="s">
         <v>443</v>
       </c>
-      <c r="B17" s="77" t="s">
+      <c r="B19" s="77" t="s">
         <v>444</v>
       </c>
-      <c r="C17" s="67" t="s">
+      <c r="C19" s="67" t="s">
         <v>448</v>
       </c>
-      <c r="D17" s="56" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="53" t="s">
+      <c r="D19" s="56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A20" s="53" t="s">
         <v>445</v>
       </c>
-      <c r="B18" s="77" t="s">
+      <c r="B20" s="77" t="s">
         <v>446</v>
       </c>
-      <c r="C18" s="67" t="s">
+      <c r="C20" s="67" t="s">
         <v>447</v>
       </c>
-      <c r="D18" s="56"/>
-    </row>
-    <row r="19" spans="1:4" ht="78" x14ac:dyDescent="0.3">
-      <c r="A19" s="53" t="s">
+      <c r="D20" s="56"/>
+    </row>
+    <row r="21" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="53" t="s">
         <v>449</v>
       </c>
-      <c r="B19" s="77" t="s">
+      <c r="B21" s="77" t="s">
         <v>450</v>
       </c>
-      <c r="C19" s="67"/>
-      <c r="D19" s="56"/>
-    </row>
-    <row r="20" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="53" t="s">
+      <c r="C21" s="67"/>
+      <c r="D21" s="56"/>
+    </row>
+    <row r="22" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="53" t="s">
         <v>452</v>
       </c>
-      <c r="B20" s="77" t="s">
+      <c r="B22" s="77" t="s">
         <v>451</v>
       </c>
-      <c r="C20" s="67"/>
-      <c r="D20" s="56"/>
-    </row>
-    <row r="21" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="53" t="s">
+      <c r="C22" s="67"/>
+      <c r="D22" s="56"/>
+    </row>
+    <row r="23" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A23" s="53" t="s">
         <v>453</v>
       </c>
-      <c r="B21" s="77" t="s">
+      <c r="B23" s="77" t="s">
         <v>455</v>
       </c>
-      <c r="C21" s="67" t="s">
+      <c r="C23" s="67" t="s">
         <v>454</v>
       </c>
-      <c r="D21" s="56"/>
-    </row>
-    <row r="22" spans="1:4" ht="78" x14ac:dyDescent="0.3">
-      <c r="A22" s="53" t="s">
+      <c r="D23" s="56"/>
+    </row>
+    <row r="24" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="53" t="s">
         <v>461</v>
       </c>
-      <c r="B22" s="77" t="s">
+      <c r="B24" s="77" t="s">
         <v>456</v>
       </c>
-      <c r="C22" s="67" t="s">
+      <c r="C24" s="67" t="s">
         <v>458</v>
       </c>
-      <c r="D22" s="75" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A23" s="53" t="s">
+      <c r="D24" s="75" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A25" s="53" t="s">
         <v>462</v>
       </c>
-      <c r="B23" s="77" t="s">
+      <c r="B25" s="77" t="s">
         <v>457</v>
       </c>
-      <c r="C23" s="67" t="s">
+      <c r="C25" s="67" t="s">
         <v>459</v>
       </c>
-      <c r="D23" s="56" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="53" t="s">
+      <c r="D25" s="56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A26" s="53" t="s">
         <v>463</v>
       </c>
-      <c r="B24" s="77" t="s">
+      <c r="B26" s="77" t="s">
         <v>460</v>
       </c>
-      <c r="C24" s="67" t="s">
+      <c r="C26" s="67" t="s">
         <v>464</v>
       </c>
-      <c r="D24" s="56" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="78" x14ac:dyDescent="0.3">
-      <c r="A25" s="53" t="s">
+      <c r="D26" s="56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="53" t="s">
         <v>466</v>
       </c>
-      <c r="B25" s="77" t="s">
+      <c r="B27" s="77" t="s">
         <v>465</v>
       </c>
-      <c r="C25" s="67" t="s">
+      <c r="C27" s="67" t="s">
         <v>467</v>
       </c>
-      <c r="D25" s="56" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A26" s="53" t="s">
+      <c r="D27" s="56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A28" s="53" t="s">
         <v>469</v>
       </c>
-      <c r="B26" s="77" t="s">
+      <c r="B28" s="77" t="s">
         <v>468</v>
       </c>
-      <c r="C26" s="67" t="s">
+      <c r="C28" s="67" t="s">
         <v>470</v>
       </c>
-      <c r="D26" s="56" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A27" s="53" t="s">
+      <c r="D28" s="56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="53" t="s">
         <v>471</v>
       </c>
-      <c r="B27" s="77" t="s">
+      <c r="B29" s="77" t="s">
         <v>472</v>
       </c>
-      <c r="C27" s="67" t="s">
+      <c r="C29" s="67" t="s">
         <v>473</v>
       </c>
-      <c r="D27" s="56"/>
-    </row>
-    <row r="28" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="53" t="s">
+      <c r="D29" s="56"/>
+    </row>
+    <row r="30" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A30" s="53" t="s">
         <v>474</v>
       </c>
-      <c r="B28" s="77" t="s">
+      <c r="B30" s="77" t="s">
         <v>475</v>
       </c>
-      <c r="C28" s="67" t="s">
+      <c r="C30" s="67" t="s">
         <v>478</v>
       </c>
-      <c r="D28" s="56" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A29" s="53" t="s">
+      <c r="D30" s="56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A31" s="53" t="s">
         <v>476</v>
       </c>
-      <c r="B29" s="77" t="s">
+      <c r="B31" s="77" t="s">
         <v>477</v>
       </c>
-      <c r="C29" s="67" t="s">
+      <c r="C31" s="67" t="s">
         <v>479</v>
       </c>
-      <c r="D29" s="56" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A30" s="53" t="s">
+      <c r="D31" s="56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A32" s="53" t="s">
         <v>480</v>
       </c>
-      <c r="B30" s="77" t="s">
+      <c r="B32" s="77" t="s">
         <v>483</v>
       </c>
-      <c r="C30" s="67" t="s">
+      <c r="C32" s="67" t="s">
         <v>485</v>
       </c>
-      <c r="D30" s="56" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A31" s="53" t="s">
+      <c r="D32" s="56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A33" s="53" t="s">
         <v>481</v>
       </c>
-      <c r="B31" s="77" t="s">
+      <c r="B33" s="77" t="s">
         <v>482</v>
       </c>
-      <c r="C31" s="67" t="s">
+      <c r="C33" s="67" t="s">
         <v>484</v>
       </c>
-      <c r="D31" s="56" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="78" x14ac:dyDescent="0.3">
-      <c r="A32" s="8" t="s">
+      <c r="D33" s="56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
         <v>951</v>
       </c>
-      <c r="B32" s="78" t="s">
+      <c r="B34" s="78" t="s">
         <v>959</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C34" s="14" t="s">
         <v>952</v>
       </c>
-      <c r="D32" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A33" s="8" t="s">
+      <c r="D34" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
         <v>956</v>
       </c>
-      <c r="B33" s="78" t="s">
+      <c r="B35" s="78" t="s">
         <v>958</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C35" s="14" t="s">
         <v>953</v>
       </c>
-      <c r="D33" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A34" s="8" t="s">
+      <c r="D35" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
         <v>954</v>
       </c>
-      <c r="B34" s="78" t="s">
+      <c r="B36" s="78" t="s">
         <v>957</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C36" s="14" t="s">
         <v>955</v>
       </c>
-      <c r="D34" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A35" s="8" t="s">
+      <c r="D36" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
         <v>960</v>
       </c>
-      <c r="B35" s="78" t="s">
+      <c r="B37" s="78" t="s">
         <v>961</v>
       </c>
-      <c r="C35" s="14"/>
-      <c r="D35" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="156" x14ac:dyDescent="0.3">
-      <c r="A36" s="8" t="s">
+      <c r="C37" s="14"/>
+      <c r="D37" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
         <v>962</v>
       </c>
-      <c r="B36" s="78" t="s">
+      <c r="B38" s="78" t="s">
+        <v>963</v>
+      </c>
+      <c r="C38" s="14"/>
+      <c r="D38" s="11"/>
+    </row>
+    <row r="39" spans="1:4" ht="204.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
         <v>964</v>
       </c>
-      <c r="C36" s="14"/>
-      <c r="D36" s="11"/>
-    </row>
-    <row r="37" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A37" s="16" t="s">
+      <c r="B39" s="78" t="s">
+        <v>966</v>
+      </c>
+      <c r="C39" s="14" t="s">
         <v>965</v>
       </c>
-      <c r="B37" s="79" t="s">
-        <v>963</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>966</v>
-      </c>
-      <c r="D37" s="98" t="s">
+      <c r="D39" s="11" t="s">
         <v>6</v>
       </c>
     </row>
@@ -8498,33 +8543,35 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="D8" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-    <hyperlink ref="D9" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
-    <hyperlink ref="D10" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
-    <hyperlink ref="D11" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
-    <hyperlink ref="D12" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
-    <hyperlink ref="D13" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
-    <hyperlink ref="D14" r:id="rId8" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
-    <hyperlink ref="D15" r:id="rId9" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
-    <hyperlink ref="D16" r:id="rId10" location="Comments" xr:uid="{00000000-0004-0000-0300-000009000000}"/>
-    <hyperlink ref="D17" r:id="rId11" xr:uid="{00000000-0004-0000-0300-00000A000000}"/>
-    <hyperlink ref="D23" r:id="rId12" xr:uid="{00000000-0004-0000-0300-00000B000000}"/>
-    <hyperlink ref="D24" r:id="rId13" xr:uid="{D0C291BA-8164-42F9-A252-24F894239546}"/>
-    <hyperlink ref="D25" r:id="rId14" xr:uid="{2CAEB15D-79C0-4CCB-A866-BDA9FEB2E656}"/>
-    <hyperlink ref="D26" r:id="rId15" xr:uid="{B71DA80D-615F-4DC5-867B-5677D45499C4}"/>
-    <hyperlink ref="D28" r:id="rId16" xr:uid="{685F2609-9B70-4B0D-AEEC-DD3AD76E49B4}"/>
-    <hyperlink ref="D29" r:id="rId17" xr:uid="{4F06DA26-D8CD-4539-B77E-73CFA445F294}"/>
-    <hyperlink ref="D31" r:id="rId18" xr:uid="{71AD0149-A581-4C0E-A3CD-CAC919DE29F9}"/>
-    <hyperlink ref="D30" r:id="rId19" xr:uid="{F4356921-6696-475F-8AA0-44A5102FCD02}"/>
-    <hyperlink ref="D22" r:id="rId20" xr:uid="{1C53DB16-DF12-4E4F-A83B-6BFFEE5DEB11}"/>
-    <hyperlink ref="D32" r:id="rId21" xr:uid="{2331C27A-E1A3-4CFC-B2D4-59F35804376A}"/>
-    <hyperlink ref="D33" r:id="rId22" xr:uid="{B0C1E57B-CC4F-4D3B-9BEB-A36314865D8A}"/>
-    <hyperlink ref="D34" r:id="rId23" xr:uid="{318C473F-4E0E-4D25-91C4-281486AC720E}"/>
-    <hyperlink ref="D35" r:id="rId24" location="Description" xr:uid="{E8944992-95DC-489E-9C81-25AED5E7B894}"/>
-    <hyperlink ref="D37" r:id="rId25" xr:uid="{17B47D1F-67F3-4D16-89FF-94FEA0AB734D}"/>
+    <hyperlink ref="D10" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="D11" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="D12" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="D13" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="D14" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
+    <hyperlink ref="D15" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
+    <hyperlink ref="D16" r:id="rId8" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
+    <hyperlink ref="D17" r:id="rId9" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
+    <hyperlink ref="D18" r:id="rId10" location="Comments" xr:uid="{00000000-0004-0000-0300-000009000000}"/>
+    <hyperlink ref="D19" r:id="rId11" xr:uid="{00000000-0004-0000-0300-00000A000000}"/>
+    <hyperlink ref="D25" r:id="rId12" xr:uid="{00000000-0004-0000-0300-00000B000000}"/>
+    <hyperlink ref="D26" r:id="rId13" xr:uid="{D0C291BA-8164-42F9-A252-24F894239546}"/>
+    <hyperlink ref="D27" r:id="rId14" xr:uid="{2CAEB15D-79C0-4CCB-A866-BDA9FEB2E656}"/>
+    <hyperlink ref="D28" r:id="rId15" xr:uid="{B71DA80D-615F-4DC5-867B-5677D45499C4}"/>
+    <hyperlink ref="D30" r:id="rId16" xr:uid="{685F2609-9B70-4B0D-AEEC-DD3AD76E49B4}"/>
+    <hyperlink ref="D31" r:id="rId17" xr:uid="{4F06DA26-D8CD-4539-B77E-73CFA445F294}"/>
+    <hyperlink ref="D33" r:id="rId18" xr:uid="{71AD0149-A581-4C0E-A3CD-CAC919DE29F9}"/>
+    <hyperlink ref="D32" r:id="rId19" xr:uid="{F4356921-6696-475F-8AA0-44A5102FCD02}"/>
+    <hyperlink ref="D24" r:id="rId20" xr:uid="{1C53DB16-DF12-4E4F-A83B-6BFFEE5DEB11}"/>
+    <hyperlink ref="D34" r:id="rId21" xr:uid="{2331C27A-E1A3-4CFC-B2D4-59F35804376A}"/>
+    <hyperlink ref="D35" r:id="rId22" xr:uid="{B0C1E57B-CC4F-4D3B-9BEB-A36314865D8A}"/>
+    <hyperlink ref="D36" r:id="rId23" xr:uid="{318C473F-4E0E-4D25-91C4-281486AC720E}"/>
+    <hyperlink ref="D37" r:id="rId24" location="Description" xr:uid="{E8944992-95DC-489E-9C81-25AED5E7B894}"/>
+    <hyperlink ref="D39" r:id="rId25" xr:uid="{17B47D1F-67F3-4D16-89FF-94FEA0AB734D}"/>
+    <hyperlink ref="D4" r:id="rId26" xr:uid="{91FE48E8-1DD5-438A-81D7-C8DCFFBC7ABD}"/>
+    <hyperlink ref="D5" r:id="rId27" xr:uid="{E32FA30E-20C6-408C-8043-ED81002BAA61}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId26"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId28"/>
 </worksheet>
 </file>
 
@@ -8538,15 +8585,15 @@
       <selection pane="topRight" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
-    <col min="2" max="2" width="57.88671875" customWidth="1"/>
-    <col min="3" max="3" width="110.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.85546875" customWidth="1"/>
+    <col min="3" max="3" width="110.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="81" t="s">
         <v>490</v>
       </c>
@@ -8554,7 +8601,7 @@
       <c r="C1" s="81"/>
       <c r="D1" s="81"/>
     </row>
-    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -8568,199 +8615,199 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
       <c r="B3" s="12"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
     </row>
-    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="12"/>
       <c r="C4" s="14"/>
       <c r="D4" s="9"/>
     </row>
-    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="12"/>
       <c r="C5" s="14"/>
       <c r="D5" s="9"/>
     </row>
-    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="12"/>
       <c r="C6" s="14"/>
       <c r="D6" s="9"/>
     </row>
-    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="12"/>
       <c r="C7" s="14"/>
       <c r="D7" s="9"/>
     </row>
-    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="12"/>
       <c r="C8" s="14"/>
       <c r="D8" s="9"/>
     </row>
-    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="12"/>
       <c r="C9" s="14"/>
       <c r="D9" s="9"/>
     </row>
-    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="12"/>
       <c r="C10" s="14"/>
       <c r="D10" s="11"/>
     </row>
-    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="12"/>
       <c r="C11" s="14"/>
       <c r="D11" s="9"/>
     </row>
-    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="12"/>
       <c r="C12" s="14"/>
       <c r="D12" s="11"/>
     </row>
-    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="B13" s="12"/>
       <c r="C13" s="14"/>
       <c r="D13" s="11"/>
     </row>
-    <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="12"/>
       <c r="C14" s="14"/>
       <c r="D14" s="11"/>
     </row>
-    <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="12"/>
       <c r="C15" s="14"/>
       <c r="D15" s="11"/>
     </row>
-    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="12"/>
       <c r="C16" s="14"/>
       <c r="D16" s="11"/>
     </row>
-    <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="12"/>
       <c r="C17" s="14"/>
       <c r="D17" s="11"/>
     </row>
-    <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="12"/>
       <c r="C18" s="14"/>
       <c r="D18" s="11"/>
     </row>
-    <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="12"/>
       <c r="C19" s="14"/>
       <c r="D19" s="11"/>
     </row>
-    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="12"/>
       <c r="C20" s="14"/>
       <c r="D20" s="11"/>
     </row>
-    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="12"/>
       <c r="C21" s="14"/>
       <c r="D21" s="11"/>
     </row>
-    <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="12"/>
       <c r="C22" s="14"/>
       <c r="D22" s="11"/>
     </row>
-    <row r="23" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="12"/>
       <c r="C23" s="14"/>
       <c r="D23" s="11"/>
     </row>
-    <row r="24" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="12"/>
       <c r="C24" s="14"/>
       <c r="D24" s="11"/>
     </row>
-    <row r="25" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="12"/>
       <c r="C25" s="14"/>
       <c r="D25" s="11"/>
     </row>
-    <row r="26" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="12"/>
       <c r="C26" s="14"/>
       <c r="D26" s="11"/>
     </row>
-    <row r="27" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="12"/>
       <c r="C27" s="14"/>
       <c r="D27" s="11"/>
     </row>
-    <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="12"/>
       <c r="C28" s="14"/>
       <c r="D28" s="11"/>
     </row>
-    <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" s="12"/>
       <c r="C29" s="14"/>
       <c r="D29" s="11"/>
     </row>
-    <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="12"/>
       <c r="C30" s="14"/>
       <c r="D30" s="11"/>
     </row>
-    <row r="31" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="12"/>
       <c r="C31" s="14"/>
       <c r="D31" s="11"/>
     </row>
-    <row r="32" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="12"/>
       <c r="C32" s="14"/>
       <c r="D32" s="11"/>
     </row>
-    <row r="33" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="12"/>
       <c r="C33" s="14"/>
       <c r="D33" s="11"/>
     </row>
-    <row r="34" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="12"/>
       <c r="C34" s="14"/>
       <c r="D34" s="11"/>
     </row>
-    <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="12"/>
       <c r="C35" s="14"/>
@@ -8783,14 +8830,14 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
-    <col min="2" max="2" width="36.33203125" customWidth="1"/>
+    <col min="2" max="2" width="36.28515625" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -8801,7 +8848,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="89" t="s">
         <v>399</v>
       </c>
@@ -8809,13 +8856,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="80"/>
       <c r="C3" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>486</v>
       </c>
@@ -8823,7 +8870,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>487</v>
       </c>
@@ -8831,7 +8878,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>488</v>
       </c>
@@ -8839,7 +8886,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>492</v>
       </c>
@@ -8847,7 +8894,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>575</v>
       </c>
@@ -8877,27 +8924,27 @@
   <dimension ref="A2:L115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.6640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="16" customWidth="1"/>
+    <col min="1" max="1" width="45.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="16" customWidth="1"/>
     <col min="3" max="3" width="11" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" style="16" customWidth="1"/>
-    <col min="5" max="5" width="6.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.5546875" style="16" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="16" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.5703125" style="16" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="17" style="16" customWidth="1"/>
-    <col min="8" max="8" width="27.88671875" style="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.6640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.5546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.6640625" style="16" customWidth="1"/>
-    <col min="13" max="16384" width="11.44140625" style="16"/>
+    <col min="8" max="8" width="27.85546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" style="16" customWidth="1"/>
+    <col min="13" max="16384" width="11.42578125" style="16"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="97" t="s">
         <v>601</v>
       </c>
@@ -8906,7 +8953,7 @@
       <c r="D2" s="97"/>
       <c r="E2" s="97"/>
     </row>
-    <row r="3" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>577</v>
       </c>
@@ -8923,7 +8970,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
         <v>630</v>
       </c>
@@ -8946,7 +8993,7 @@
       </c>
       <c r="G4" s="21"/>
     </row>
-    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
         <v>631</v>
       </c>
@@ -8976,7 +9023,7 @@
       <c r="K5" s="92"/>
       <c r="L5" s="93"/>
     </row>
-    <row r="6" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
         <v>632</v>
       </c>
@@ -9014,7 +9061,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>633</v>
       </c>
@@ -9056,7 +9103,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>609</v>
       </c>
@@ -9098,7 +9145,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
         <v>581</v>
       </c>
@@ -9140,7 +9187,7 @@
         <v>15.138888888888886</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>582</v>
       </c>
@@ -9182,7 +9229,7 @@
         <v>13.591666666666663</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>931</v>
       </c>
@@ -9218,7 +9265,7 @@
       <c r="K11" s="42"/>
       <c r="L11" s="42"/>
     </row>
-    <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="22" t="s">
         <v>583</v>
       </c>
@@ -9260,7 +9307,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="22" t="s">
         <v>584</v>
       </c>
@@ -9293,7 +9340,7 @@
       <c r="K13" s="95"/>
       <c r="L13" s="96"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>585</v>
       </c>
@@ -9318,7 +9365,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>586</v>
       </c>
@@ -9343,7 +9390,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
         <v>587</v>
       </c>
@@ -9366,7 +9413,7 @@
       </c>
       <c r="G16" s="21"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>932</v>
       </c>
@@ -9389,7 +9436,7 @@
       </c>
       <c r="G17" s="21"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>809</v>
       </c>
@@ -9409,7 +9456,7 @@
       <c r="F18" s="21"/>
       <c r="G18" s="21"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
         <v>588</v>
       </c>
@@ -9434,7 +9481,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
         <v>945</v>
       </c>
@@ -9459,7 +9506,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
         <v>936</v>
       </c>
@@ -9484,7 +9531,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
         <v>947</v>
       </c>
@@ -9509,7 +9556,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
         <v>948</v>
       </c>
@@ -9534,7 +9581,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
         <v>617</v>
       </c>
@@ -9559,7 +9606,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
         <v>933</v>
       </c>
@@ -9584,7 +9631,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
         <v>937</v>
       </c>
@@ -9609,7 +9656,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
         <v>949</v>
       </c>
@@ -9634,7 +9681,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
         <v>938</v>
       </c>
@@ -9659,7 +9706,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
         <v>939</v>
       </c>
@@ -9684,7 +9731,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
         <v>950</v>
       </c>
@@ -9709,7 +9756,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
         <v>589</v>
       </c>
@@ -9734,7 +9781,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
         <v>590</v>
       </c>
@@ -9757,7 +9804,7 @@
       </c>
       <c r="G32" s="21"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
         <v>591</v>
       </c>
@@ -9780,7 +9827,7 @@
       </c>
       <c r="G33" s="21"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
         <v>592</v>
       </c>
@@ -9803,7 +9850,7 @@
       </c>
       <c r="G34" s="21"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="22" t="s">
         <v>593</v>
       </c>
@@ -9826,7 +9873,7 @@
       </c>
       <c r="G35" s="21"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="22" t="s">
         <v>594</v>
       </c>
@@ -9851,7 +9898,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="22" t="s">
         <v>595</v>
       </c>
@@ -9876,7 +9923,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="22" t="s">
         <v>942</v>
       </c>
@@ -9901,7 +9948,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
         <v>596</v>
       </c>
@@ -9926,7 +9973,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="s">
         <v>597</v>
       </c>
@@ -9951,7 +9998,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="22" t="s">
         <v>943</v>
       </c>
@@ -9976,7 +10023,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="22" t="s">
         <v>598</v>
       </c>
@@ -9999,7 +10046,7 @@
       </c>
       <c r="G42" s="21"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="s">
         <v>599</v>
       </c>
@@ -10022,7 +10069,7 @@
       </c>
       <c r="G43" s="21"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="22" t="s">
         <v>600</v>
       </c>
@@ -10047,10 +10094,10 @@
         <v>944</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F45" s="21"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="90" t="s">
         <v>607</v>
       </c>
@@ -10060,7 +10107,7 @@
       <c r="E46" s="90"/>
       <c r="F46" s="21"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="22" t="s">
         <v>608</v>
       </c>
@@ -10082,7 +10129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="22" t="s">
         <v>609</v>
       </c>
@@ -10104,7 +10151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="22" t="s">
         <v>585</v>
       </c>
@@ -10126,7 +10173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="22" t="s">
         <v>610</v>
       </c>
@@ -10148,7 +10195,7 @@
         <v>2.7333333333333334</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="22" t="s">
         <v>611</v>
       </c>
@@ -10170,7 +10217,7 @@
         <v>2.8166666666666669</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="22" t="s">
         <v>586</v>
       </c>
@@ -10192,7 +10239,7 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="22" t="s">
         <v>612</v>
       </c>
@@ -10214,7 +10261,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="22" t="s">
         <v>594</v>
       </c>
@@ -10236,7 +10283,7 @@
         <v>4.4833333333333334</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="22" t="s">
         <v>595</v>
       </c>
@@ -10258,7 +10305,7 @@
         <v>3.9166666666666665</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="22" t="s">
         <v>613</v>
       </c>
@@ -10280,7 +10327,7 @@
         <v>2.7333333333333334</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="22" t="s">
         <v>597</v>
       </c>
@@ -10302,7 +10349,7 @@
         <v>3.8666666666666667</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="22" t="s">
         <v>614</v>
       </c>
@@ -10324,7 +10371,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="22" t="s">
         <v>615</v>
       </c>
@@ -10346,7 +10393,7 @@
         <v>3.8666666666666667</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="22" t="s">
         <v>616</v>
       </c>
@@ -10368,7 +10415,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="22" t="s">
         <v>617</v>
       </c>
@@ -10390,7 +10437,7 @@
         <v>2.4166666666666665</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="22" t="s">
         <v>618</v>
       </c>
@@ -10412,7 +10459,7 @@
         <v>4.0333333333333332</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="22" t="s">
         <v>619</v>
       </c>
@@ -10434,7 +10481,7 @@
         <v>3.2666666666666666</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="22" t="s">
         <v>629</v>
       </c>
@@ -10456,7 +10503,7 @@
         <v>2.2333333333333334</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="22" t="s">
         <v>620</v>
       </c>
@@ -10478,7 +10525,7 @@
         <v>6.1166666666666663</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="22" t="s">
         <v>621</v>
       </c>
@@ -10500,7 +10547,7 @@
         <v>2.3666666666666667</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="22" t="s">
         <v>622</v>
       </c>
@@ -10522,7 +10569,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="22" t="s">
         <v>623</v>
       </c>
@@ -10544,7 +10591,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="22" t="s">
         <v>624</v>
       </c>
@@ -10566,7 +10613,7 @@
         <v>3.6833333333333331</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="22" t="s">
         <v>625</v>
       </c>
@@ -10588,7 +10635,7 @@
         <v>4.8666666666666663</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="22" t="s">
         <v>626</v>
       </c>
@@ -10610,7 +10657,7 @@
         <v>3.3333333333333335</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="22" t="s">
         <v>627</v>
       </c>
@@ -10632,7 +10679,7 @@
         <v>3.6666666666666665</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="22" t="s">
         <v>628</v>
       </c>
@@ -10654,12 +10701,12 @@
         <v>2.6166666666666667</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D74" s="28"/>
       <c r="E74" s="29"/>
       <c r="F74" s="30"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="90" t="s">
         <v>638</v>
       </c>
@@ -10669,7 +10716,7 @@
       <c r="E75" s="90"/>
       <c r="F75" s="33"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="22" t="s">
         <v>639</v>
       </c>
@@ -10691,7 +10738,7 @@
         <v>2.9166666666666665</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="22" t="s">
         <v>640</v>
       </c>
@@ -10713,7 +10760,7 @@
         <v>4.7833333333333332</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="22" t="s">
         <v>641</v>
       </c>
@@ -10735,7 +10782,7 @@
         <v>4.8666666666666663</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="22" t="s">
         <v>642</v>
       </c>
@@ -10757,7 +10804,7 @@
         <v>3.1833333333333331</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="22" t="s">
         <v>643</v>
       </c>
@@ -10779,7 +10826,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="22" t="s">
         <v>644</v>
       </c>
@@ -10801,7 +10848,7 @@
         <v>6.333333333333333</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="22" t="s">
         <v>645</v>
       </c>
@@ -10823,7 +10870,7 @@
         <v>4.333333333333333</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="22" t="s">
         <v>646</v>
       </c>
@@ -10845,7 +10892,7 @@
         <v>2.9333333333333331</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="22" t="s">
         <v>647</v>
       </c>
@@ -10867,7 +10914,7 @@
         <v>3.5666666666666669</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="22" t="s">
         <v>648</v>
       </c>
@@ -10889,7 +10936,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="22" t="s">
         <v>649</v>
       </c>
@@ -10911,7 +10958,7 @@
         <v>4.0333333333333332</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="22" t="s">
         <v>650</v>
       </c>
@@ -10933,7 +10980,7 @@
         <v>2.7166666666666668</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="22" t="s">
         <v>651</v>
       </c>
@@ -10955,7 +11002,7 @@
         <v>3.2666666666666666</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="22" t="s">
         <v>652</v>
       </c>
@@ -10977,12 +11024,12 @@
         <v>4.416666666666667</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D90" s="28"/>
       <c r="E90" s="29"/>
       <c r="F90" s="30"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="90" t="s">
         <v>654</v>
       </c>
@@ -10992,7 +11039,7 @@
       <c r="E91" s="90"/>
       <c r="F91" s="90"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="31" t="s">
         <v>630</v>
       </c>
@@ -11014,7 +11061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="22" t="s">
         <v>655</v>
       </c>
@@ -11036,7 +11083,7 @@
         <v>4.6500000000000004</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="22" t="s">
         <v>631</v>
       </c>
@@ -11058,7 +11105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="22" t="s">
         <v>656</v>
       </c>
@@ -11080,7 +11127,7 @@
         <v>5.2166666666666668</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="22" t="s">
         <v>657</v>
       </c>
@@ -11102,7 +11149,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="22" t="s">
         <v>658</v>
       </c>
@@ -11124,7 +11171,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="22" t="s">
         <v>659</v>
       </c>
@@ -11146,7 +11193,7 @@
         <v>2.5666666666666669</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="22" t="s">
         <v>660</v>
       </c>
@@ -11168,7 +11215,7 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="22" t="s">
         <v>661</v>
       </c>
@@ -11190,7 +11237,7 @@
         <v>2.7333333333333334</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="22" t="s">
         <v>662</v>
       </c>
@@ -11212,7 +11259,7 @@
         <v>5.3833333333333337</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="22" t="s">
         <v>663</v>
       </c>
@@ -11234,7 +11281,7 @@
         <v>3.3833333333333333</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="22" t="s">
         <v>664</v>
       </c>
@@ -11256,7 +11303,7 @@
         <v>4.2833333333333332</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="22" t="s">
         <v>665</v>
       </c>
@@ -11278,7 +11325,7 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="22" t="s">
         <v>666</v>
       </c>
@@ -11300,7 +11347,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="22" t="s">
         <v>667</v>
       </c>
@@ -11322,7 +11369,7 @@
         <v>2.4333333333333331</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="22" t="s">
         <v>668</v>
       </c>
@@ -11344,7 +11391,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="22" t="s">
         <v>669</v>
       </c>
@@ -11366,7 +11413,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="22" t="s">
         <v>625</v>
       </c>
@@ -11388,7 +11435,7 @@
         <v>4.8666666666666663</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="22" t="s">
         <v>670</v>
       </c>
@@ -11410,7 +11457,7 @@
         <v>4.7833333333333332</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="22" t="s">
         <v>671</v>
       </c>
@@ -11432,7 +11479,7 @@
         <v>6.05</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="22" t="s">
         <v>672</v>
       </c>
@@ -11454,7 +11501,7 @@
         <v>2.8166666666666669</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="22" t="s">
         <v>626</v>
       </c>
@@ -11476,7 +11523,7 @@
         <v>3.3333333333333335</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="22" t="s">
         <v>673</v>
       </c>
@@ -11498,7 +11545,7 @@
         <v>4.3666666666666663</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="22" t="s">
         <v>674</v>
       </c>
@@ -11596,15 +11643,15 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.88671875" customWidth="1"/>
+    <col min="1" max="1" width="48.85546875" customWidth="1"/>
     <col min="2" max="2" width="58" customWidth="1"/>
-    <col min="3" max="3" width="110.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="110.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="44" t="s">
         <v>1</v>
       </c>
@@ -11618,7 +11665,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="49" t="s">
         <v>721</v>
       </c>
@@ -11632,7 +11679,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="49" t="s">
         <v>722</v>
       </c>
@@ -11646,7 +11693,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="49" t="s">
         <v>723</v>
       </c>
@@ -11660,7 +11707,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A6" s="49" t="s">
         <v>727</v>
       </c>
@@ -11674,7 +11721,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="49" t="s">
         <v>728</v>
       </c>
@@ -11688,7 +11735,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" s="49" t="s">
         <v>737</v>
       </c>
@@ -11700,7 +11747,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" s="49" t="s">
         <v>738</v>
       </c>
@@ -11710,7 +11757,7 @@
       <c r="C9" s="72"/>
       <c r="D9" s="52"/>
     </row>
-    <row r="10" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A10" s="49" t="s">
         <v>741</v>
       </c>
@@ -11720,7 +11767,7 @@
       <c r="C10" s="72"/>
       <c r="D10" s="52"/>
     </row>
-    <row r="11" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A11" s="49" t="s">
         <v>742</v>
       </c>
@@ -11730,7 +11777,7 @@
       <c r="C11" s="72"/>
       <c r="D11" s="52"/>
     </row>
-    <row r="12" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A12" s="49" t="s">
         <v>761</v>
       </c>
@@ -11740,7 +11787,7 @@
       <c r="C12" s="72"/>
       <c r="D12" s="52"/>
     </row>
-    <row r="13" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A13" s="49" t="s">
         <v>747</v>
       </c>
@@ -11754,7 +11801,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A14" s="49" t="s">
         <v>748</v>
       </c>
@@ -11768,7 +11815,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A15" s="49" t="s">
         <v>749</v>
       </c>
@@ -11782,7 +11829,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A16" s="49" t="s">
         <v>755</v>
       </c>
@@ -11796,7 +11843,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A17" s="49" t="s">
         <v>756</v>
       </c>
@@ -11810,7 +11857,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A18" s="49" t="s">
         <v>769</v>
       </c>
@@ -11824,7 +11871,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A19" s="49" t="s">
         <v>772</v>
       </c>
@@ -11838,7 +11885,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A20" s="49" t="s">
         <v>762</v>
       </c>
@@ -11852,7 +11899,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A21" s="49" t="s">
         <v>765</v>
       </c>
@@ -11866,7 +11913,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" s="49" t="s">
         <v>729</v>
       </c>
@@ -11880,7 +11927,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A23" s="49" t="s">
         <v>730</v>
       </c>
@@ -11894,7 +11941,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A24" s="49" t="s">
         <v>731</v>
       </c>
@@ -11908,7 +11955,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="49" t="s">
         <v>735</v>
       </c>
@@ -11922,7 +11969,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A26" s="49" t="s">
         <v>779</v>
       </c>
@@ -11936,7 +11983,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A27" s="49" t="s">
         <v>782</v>
       </c>
@@ -11950,7 +11997,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A28" s="49" t="s">
         <v>786</v>
       </c>
@@ -11964,7 +12011,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A29" s="49" t="s">
         <v>789</v>
       </c>
@@ -11978,7 +12025,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A30" s="49" t="s">
         <v>792</v>
       </c>
@@ -11992,7 +12039,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A31" s="49" t="s">
         <v>794</v>
       </c>
@@ -12006,7 +12053,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A32" s="49" t="s">
         <v>797</v>
       </c>
@@ -12020,7 +12067,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A33" s="49" t="s">
         <v>800</v>
       </c>
@@ -12034,7 +12081,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A34" s="49" t="s">
         <v>801</v>
       </c>
@@ -12048,7 +12095,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A35" s="49" t="s">
         <v>807</v>
       </c>
@@ -12062,13 +12109,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="49"/>
       <c r="B36" s="73"/>
       <c r="C36" s="72"/>
       <c r="D36" s="74"/>
     </row>
-    <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="49"/>
       <c r="B37" s="73"/>
       <c r="C37" s="72"/>

--- a/cheat_sheet.xlsx
+++ b/cheat_sheet.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A471886-5B41-478C-BFEC-92A2ED467861}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE57912-B680-4083-B1DD-7BA1F1565A4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27330" windowHeight="12495" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,18 +13,19 @@
     <sheet name="HTML" sheetId="3" r:id="rId3"/>
     <sheet name="CSS" sheetId="4" r:id="rId4"/>
     <sheet name="Javascript" sheetId="2" r:id="rId5"/>
-    <sheet name="Python" sheetId="6" r:id="rId6"/>
-    <sheet name="Samplers" sheetId="5" r:id="rId7"/>
-    <sheet name="LDP" sheetId="8" r:id="rId8"/>
-    <sheet name="CSS Selectors" sheetId="9" r:id="rId9"/>
-    <sheet name="CSS Transitions" sheetId="10" r:id="rId10"/>
-    <sheet name="SASS" sheetId="11" r:id="rId11"/>
-    <sheet name="Questions" sheetId="12" r:id="rId12"/>
+    <sheet name="jQuery" sheetId="13" r:id="rId6"/>
+    <sheet name="Python" sheetId="6" r:id="rId7"/>
+    <sheet name="Samplers" sheetId="5" r:id="rId8"/>
+    <sheet name="LDP" sheetId="8" r:id="rId9"/>
+    <sheet name="CSS Selectors" sheetId="9" r:id="rId10"/>
+    <sheet name="CSS Transitions" sheetId="10" r:id="rId11"/>
+    <sheet name="SASS" sheetId="11" r:id="rId12"/>
+    <sheet name="Questions" sheetId="12" r:id="rId13"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'CSS Selectors'!$A$2:$D$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'CSS Selectors'!$A$2:$D$34</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">HTML!$A$2:$D$62</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">LDP!$A$2:$L$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">LDP!$A$2:$L$44</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,9 +35,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -44,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1348" uniqueCount="973">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="986">
   <si>
     <t>HTML</t>
   </si>
@@ -3351,6 +3350,52 @@
   </si>
   <si>
     <t>let days = "Monday";</t>
+  </si>
+  <si>
+    <t>Selecting document object by id</t>
+  </si>
+  <si>
+    <t>The Document method getElementById() returns an Element object representing the element whose id property matches the specified string. Since element IDs are required to be unique if specified, they're a useful way to get access to a specific element quickly.</t>
+  </si>
+  <si>
+    <t>const header = document.getElementById("header_test");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selecting document object by tag name </t>
+  </si>
+  <si>
+    <t xml:space="preserve">const input = document.getElementByTagName("input");
+input[0].style.backgroundColor = "blue";
+</t>
+  </si>
+  <si>
+    <t>The Element.getElementsByTagName() method returns a live HTMLCollection of elements with the given tag name. All descendants of the specified element are searched, but not the element itself. The returned list is live, which means it updates itself with the DOM tree automatically. Therefore, there is no need to call Element.getElementsByTagName() with the same element and arguments repeatedly if the DOM changes in between calls.</t>
+  </si>
+  <si>
+    <t>Selecting document object by class name</t>
+  </si>
+  <si>
+    <t>const class = document.getElementByClassName("item_container");</t>
+  </si>
+  <si>
+    <t>The getElementsByClassName method of Document interface returns an array-like object of all child elements which have all of the given class names. When called on the document object, the complete document is searched, including the root node. You may also call getElementsByClassName() on any element; it will return only elements which are descendants of the specified root element with the given class names.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selcting document object by css selectors </t>
+  </si>
+  <si>
+    <t>The Document method querySelectorAll() returns a static (not live) NodeList representing a list of the document's elements that match the specified group of selectors.</t>
+  </si>
+  <si>
+    <t>The Document method querySelector() returns the first Element within the document that matches the specified selector, or group of selectors. If no matches are found, null is returned.</t>
+  </si>
+  <si>
+    <t>const target_input = document.querySelectorAll("input")[0];
+const target_label = document.querySelectorAll("label");
+const target_id = document.querySelector("#header_test");
+const target_class = document.querySelectorAll(".input_container");
+const target_pseudo_class = document.querySelectorAll("li:nth-child(even)");
+const target_attribute = document.querySelectorAll("[method=POST]");</t>
   </si>
 </sst>
 </file>
@@ -3763,7 +3808,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4051,6 +4096,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4340,24 +4388,24 @@
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="43.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.28515625" style="1"/>
+    <col min="9" max="9" width="43.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="80" t="s">
         <v>0</v>
       </c>
@@ -4377,7 +4425,7 @@
       <c r="K1" s="80"/>
       <c r="L1" s="80"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -4415,7 +4463,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -4453,7 +4501,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -4491,7 +4539,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -4529,7 +4577,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
@@ -4561,7 +4609,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
@@ -4587,7 +4635,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -4613,7 +4661,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>568</v>
       </c>
@@ -4633,7 +4681,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I10" s="1" t="s">
         <v>40</v>
       </c>
@@ -4647,7 +4695,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I11" s="1" t="s">
         <v>42</v>
       </c>
@@ -4661,7 +4709,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I12" s="1" t="s">
         <v>548</v>
       </c>
@@ -4698,6 +4746,529 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB39D374-F7E5-4E1B-A824-7220E4B22623}">
+  <dimension ref="A2:D37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="48.88671875" customWidth="1"/>
+    <col min="2" max="2" width="58" customWidth="1"/>
+    <col min="3" max="3" width="110.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="49" t="s">
+        <v>721</v>
+      </c>
+      <c r="B3" s="73" t="s">
+        <v>724</v>
+      </c>
+      <c r="C3" s="72" t="s">
+        <v>151</v>
+      </c>
+      <c r="D3" s="52" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="49" t="s">
+        <v>722</v>
+      </c>
+      <c r="B4" s="73" t="s">
+        <v>726</v>
+      </c>
+      <c r="C4" s="72" t="s">
+        <v>155</v>
+      </c>
+      <c r="D4" s="52" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="49" t="s">
+        <v>723</v>
+      </c>
+      <c r="B5" s="73" t="s">
+        <v>725</v>
+      </c>
+      <c r="C5" s="72" t="s">
+        <v>158</v>
+      </c>
+      <c r="D5" s="52" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="49" t="s">
+        <v>727</v>
+      </c>
+      <c r="B6" s="73" t="s">
+        <v>160</v>
+      </c>
+      <c r="C6" s="72" t="s">
+        <v>161</v>
+      </c>
+      <c r="D6" s="52" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="49" t="s">
+        <v>728</v>
+      </c>
+      <c r="B7" s="73" t="s">
+        <v>241</v>
+      </c>
+      <c r="C7" s="72" t="s">
+        <v>242</v>
+      </c>
+      <c r="D7" s="52" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="49" t="s">
+        <v>737</v>
+      </c>
+      <c r="B8" s="73" t="s">
+        <v>739</v>
+      </c>
+      <c r="C8" s="72"/>
+      <c r="D8" s="74" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="49" t="s">
+        <v>738</v>
+      </c>
+      <c r="B9" s="73" t="s">
+        <v>740</v>
+      </c>
+      <c r="C9" s="72"/>
+      <c r="D9" s="52"/>
+    </row>
+    <row r="10" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="49" t="s">
+        <v>741</v>
+      </c>
+      <c r="B10" s="73" t="s">
+        <v>745</v>
+      </c>
+      <c r="C10" s="72"/>
+      <c r="D10" s="52"/>
+    </row>
+    <row r="11" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="49" t="s">
+        <v>742</v>
+      </c>
+      <c r="B11" s="73" t="s">
+        <v>744</v>
+      </c>
+      <c r="C11" s="72"/>
+      <c r="D11" s="52"/>
+    </row>
+    <row r="12" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="49" t="s">
+        <v>761</v>
+      </c>
+      <c r="B12" s="73" t="s">
+        <v>743</v>
+      </c>
+      <c r="C12" s="72"/>
+      <c r="D12" s="52"/>
+    </row>
+    <row r="13" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="49" t="s">
+        <v>747</v>
+      </c>
+      <c r="B13" s="73" t="s">
+        <v>753</v>
+      </c>
+      <c r="C13" s="72" t="s">
+        <v>754</v>
+      </c>
+      <c r="D13" s="74" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="49" t="s">
+        <v>748</v>
+      </c>
+      <c r="B14" s="73" t="s">
+        <v>746</v>
+      </c>
+      <c r="C14" s="72" t="s">
+        <v>750</v>
+      </c>
+      <c r="D14" s="74" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="49" t="s">
+        <v>749</v>
+      </c>
+      <c r="B15" s="73" t="s">
+        <v>752</v>
+      </c>
+      <c r="C15" s="72" t="s">
+        <v>751</v>
+      </c>
+      <c r="D15" s="74" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="49" t="s">
+        <v>755</v>
+      </c>
+      <c r="B16" s="73" t="s">
+        <v>758</v>
+      </c>
+      <c r="C16" s="72" t="s">
+        <v>757</v>
+      </c>
+      <c r="D16" s="74" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="49" t="s">
+        <v>756</v>
+      </c>
+      <c r="B17" s="73" t="s">
+        <v>759</v>
+      </c>
+      <c r="C17" s="72" t="s">
+        <v>760</v>
+      </c>
+      <c r="D17" s="74" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="49" t="s">
+        <v>769</v>
+      </c>
+      <c r="B18" s="73" t="s">
+        <v>770</v>
+      </c>
+      <c r="C18" s="72" t="s">
+        <v>773</v>
+      </c>
+      <c r="D18" s="74" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="49" t="s">
+        <v>772</v>
+      </c>
+      <c r="B19" s="73" t="s">
+        <v>771</v>
+      </c>
+      <c r="C19" s="72" t="s">
+        <v>774</v>
+      </c>
+      <c r="D19" s="74" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="49" t="s">
+        <v>762</v>
+      </c>
+      <c r="B20" s="73" t="s">
+        <v>767</v>
+      </c>
+      <c r="C20" s="72" t="s">
+        <v>768</v>
+      </c>
+      <c r="D20" s="74" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A21" s="49" t="s">
+        <v>765</v>
+      </c>
+      <c r="B21" s="73" t="s">
+        <v>766</v>
+      </c>
+      <c r="C21" s="72" t="s">
+        <v>764</v>
+      </c>
+      <c r="D21" s="74" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="49" t="s">
+        <v>729</v>
+      </c>
+      <c r="B22" s="73" t="s">
+        <v>732</v>
+      </c>
+      <c r="C22" s="72" t="s">
+        <v>775</v>
+      </c>
+      <c r="D22" s="74" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="49" t="s">
+        <v>730</v>
+      </c>
+      <c r="B23" s="73" t="s">
+        <v>733</v>
+      </c>
+      <c r="C23" s="72" t="s">
+        <v>776</v>
+      </c>
+      <c r="D23" s="74" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="49" t="s">
+        <v>731</v>
+      </c>
+      <c r="B24" s="73" t="s">
+        <v>734</v>
+      </c>
+      <c r="C24" s="72" t="s">
+        <v>777</v>
+      </c>
+      <c r="D24" s="74" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="49" t="s">
+        <v>735</v>
+      </c>
+      <c r="B25" s="73" t="s">
+        <v>736</v>
+      </c>
+      <c r="C25" s="72" t="s">
+        <v>778</v>
+      </c>
+      <c r="D25" s="74" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A26" s="49" t="s">
+        <v>779</v>
+      </c>
+      <c r="B26" s="73" t="s">
+        <v>781</v>
+      </c>
+      <c r="C26" s="72" t="s">
+        <v>780</v>
+      </c>
+      <c r="D26" s="74" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A27" s="49" t="s">
+        <v>782</v>
+      </c>
+      <c r="B27" s="73" t="s">
+        <v>783</v>
+      </c>
+      <c r="C27" s="72" t="s">
+        <v>784</v>
+      </c>
+      <c r="D27" s="74" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="49" t="s">
+        <v>786</v>
+      </c>
+      <c r="B28" s="73" t="s">
+        <v>785</v>
+      </c>
+      <c r="C28" s="72" t="s">
+        <v>787</v>
+      </c>
+      <c r="D28" s="74" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="49" t="s">
+        <v>789</v>
+      </c>
+      <c r="B29" s="73" t="s">
+        <v>790</v>
+      </c>
+      <c r="C29" s="72" t="s">
+        <v>788</v>
+      </c>
+      <c r="D29" s="74" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="49" t="s">
+        <v>792</v>
+      </c>
+      <c r="B30" s="73" t="s">
+        <v>791</v>
+      </c>
+      <c r="C30" s="72" t="s">
+        <v>793</v>
+      </c>
+      <c r="D30" s="74" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="49" t="s">
+        <v>794</v>
+      </c>
+      <c r="B31" s="73" t="s">
+        <v>796</v>
+      </c>
+      <c r="C31" s="72" t="s">
+        <v>795</v>
+      </c>
+      <c r="D31" s="74" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="49" t="s">
+        <v>797</v>
+      </c>
+      <c r="B32" s="73" t="s">
+        <v>798</v>
+      </c>
+      <c r="C32" s="72" t="s">
+        <v>799</v>
+      </c>
+      <c r="D32" s="74" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="49" t="s">
+        <v>800</v>
+      </c>
+      <c r="B33" s="73" t="s">
+        <v>805</v>
+      </c>
+      <c r="C33" s="72" t="s">
+        <v>804</v>
+      </c>
+      <c r="D33" s="74" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="49" t="s">
+        <v>801</v>
+      </c>
+      <c r="B34" s="73" t="s">
+        <v>803</v>
+      </c>
+      <c r="C34" s="72" t="s">
+        <v>802</v>
+      </c>
+      <c r="D34" s="74" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="49" t="s">
+        <v>807</v>
+      </c>
+      <c r="B35" s="73" t="s">
+        <v>808</v>
+      </c>
+      <c r="C35" s="72" t="s">
+        <v>806</v>
+      </c>
+      <c r="D35" s="74" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="49"/>
+      <c r="B36" s="73"/>
+      <c r="C36" s="72"/>
+      <c r="D36" s="74"/>
+    </row>
+    <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="49"/>
+      <c r="B37" s="73"/>
+      <c r="C37" s="72"/>
+      <c r="D37" s="74"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:D34" xr:uid="{3AD7119C-AB1E-42C6-82BD-E82DCC155A98}"/>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{6C67FDCE-D971-4F5C-B64B-47B6666D9049}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{1BACC87A-D4F0-49F9-BD4B-65E06378AE87}"/>
+    <hyperlink ref="D5" r:id="rId3" xr:uid="{B47F0F46-5466-4E7E-B34B-BC467715F84C}"/>
+    <hyperlink ref="D6" r:id="rId4" xr:uid="{58DE5AD8-BB30-4ADC-B002-ADEF91ECF8DD}"/>
+    <hyperlink ref="D7" r:id="rId5" xr:uid="{7C77A642-A9A7-4A6E-B867-F38928F0E1F7}"/>
+    <hyperlink ref="D8" r:id="rId6" xr:uid="{1089C2BD-F67F-4A8A-A973-0BB03F60D25B}"/>
+    <hyperlink ref="D14" r:id="rId7" xr:uid="{8E4BAD9C-5551-4B0F-A4F8-BA81AB6CDBED}"/>
+    <hyperlink ref="D15" r:id="rId8" xr:uid="{5A6C147B-418F-49F4-95BE-94C2DC552BF6}"/>
+    <hyperlink ref="D13" r:id="rId9" xr:uid="{6B57B673-4AC0-45B8-9620-241D93A277F6}"/>
+    <hyperlink ref="D16" r:id="rId10" xr:uid="{0463B492-4C86-42E1-A5E7-F113FF683A7A}"/>
+    <hyperlink ref="D17" r:id="rId11" xr:uid="{622C8B4A-31BC-4AFF-AAF6-80F0A89D98F4}"/>
+    <hyperlink ref="D21" r:id="rId12" xr:uid="{BD384C24-09A6-4888-AA96-D06EC88D667C}"/>
+    <hyperlink ref="D20" r:id="rId13" xr:uid="{BF44C158-5369-4101-A798-DCDB3EBA29E8}"/>
+    <hyperlink ref="D19" r:id="rId14" xr:uid="{982E9FDB-A603-4D75-AF4E-24CD0D1F7E3B}"/>
+    <hyperlink ref="D18" r:id="rId15" xr:uid="{14A292DA-A770-4A76-A0D4-B5C2EE102E17}"/>
+    <hyperlink ref="D22" r:id="rId16" xr:uid="{8F6FC34C-2BDC-4091-AC13-9A2DBE86CF16}"/>
+    <hyperlink ref="D23" r:id="rId17" xr:uid="{FF866A74-A4A8-41C5-B152-106FB5FEC8CB}"/>
+    <hyperlink ref="D24" r:id="rId18" xr:uid="{8FCD9805-A9D5-4734-A7AC-E974F3E2FD83}"/>
+    <hyperlink ref="D25" r:id="rId19" xr:uid="{BD371AC5-47F8-493B-A2B6-7AF0725CF9C4}"/>
+    <hyperlink ref="D26" r:id="rId20" xr:uid="{1AC81F9D-5B95-4103-8F99-1FCE70A93AAE}"/>
+    <hyperlink ref="D27" r:id="rId21" xr:uid="{36EE8B0E-2D99-4FB1-89A7-58043B7E02D5}"/>
+    <hyperlink ref="D28" r:id="rId22" xr:uid="{F9A16C46-4EA7-4C32-8FFC-1D8F2B76B67B}"/>
+    <hyperlink ref="D29" r:id="rId23" xr:uid="{11A1FB65-AA1D-455E-8298-B76DC45D2023}"/>
+    <hyperlink ref="D30" r:id="rId24" xr:uid="{B7F041B8-E7E7-41E1-953B-919ED7041F4C}"/>
+    <hyperlink ref="D31" r:id="rId25" xr:uid="{4F3FE31D-AD52-4C12-B253-AF457E067B46}"/>
+    <hyperlink ref="D32" r:id="rId26" xr:uid="{C341CAE3-7612-42BD-A5B0-7E59C5A71315}"/>
+    <hyperlink ref="D34" r:id="rId27" xr:uid="{E4C75F24-6840-4CD2-81EC-0CBDE5F4C04E}"/>
+    <hyperlink ref="D33" r:id="rId28" xr:uid="{F02FC759-850F-4D30-860D-E8415F7E1237}"/>
+    <hyperlink ref="D35" r:id="rId29" xr:uid="{416BB23E-E8D9-40DD-8771-B96DE50F5304}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A58C87AB-222A-4E13-8A46-2201C051A1C5}">
   <dimension ref="A2:D21"/>
   <sheetViews>
@@ -4705,15 +5276,15 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48.85546875" customWidth="1"/>
+    <col min="1" max="1" width="48.88671875" customWidth="1"/>
     <col min="2" max="2" width="58" customWidth="1"/>
-    <col min="3" max="3" width="110.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="110.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="44" t="s">
         <v>1</v>
       </c>
@@ -4727,7 +5298,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A3" s="49" t="s">
         <v>811</v>
       </c>
@@ -4741,7 +5312,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A4" s="49" t="s">
         <v>815</v>
       </c>
@@ -4755,7 +5326,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A5" s="49" t="s">
         <v>816</v>
       </c>
@@ -4767,7 +5338,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A6" s="49" t="s">
         <v>819</v>
       </c>
@@ -4781,7 +5352,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A7" s="49" t="s">
         <v>824</v>
       </c>
@@ -4795,7 +5366,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A8" s="49" t="s">
         <v>825</v>
       </c>
@@ -4809,7 +5380,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A9" s="49" t="s">
         <v>827</v>
       </c>
@@ -4823,7 +5394,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A10" s="49" t="s">
         <v>830</v>
       </c>
@@ -4837,7 +5408,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A11" s="49" t="s">
         <v>833</v>
       </c>
@@ -4851,7 +5422,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A12" s="49" t="s">
         <v>837</v>
       </c>
@@ -4865,7 +5436,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A13" s="49" t="s">
         <v>842</v>
       </c>
@@ -4879,7 +5450,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A14" s="49" t="s">
         <v>843</v>
       </c>
@@ -4893,7 +5464,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A15" s="49" t="s">
         <v>862</v>
       </c>
@@ -4907,7 +5478,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="49" t="s">
         <v>846</v>
       </c>
@@ -4917,7 +5488,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A17" s="49" t="s">
         <v>847</v>
       </c>
@@ -4931,7 +5502,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A18" s="49" t="s">
         <v>850</v>
       </c>
@@ -4945,7 +5516,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A19" s="49" t="s">
         <v>852</v>
       </c>
@@ -4959,7 +5530,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A20" s="49" t="s">
         <v>856</v>
       </c>
@@ -4973,7 +5544,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A21" s="49" t="s">
         <v>859</v>
       </c>
@@ -5013,7 +5584,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F2567DD-FB9D-4130-8587-5DE1233956C1}">
   <dimension ref="A2:D22"/>
   <sheetViews>
@@ -5021,15 +5592,15 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48.85546875" customWidth="1"/>
+    <col min="1" max="1" width="48.88671875" customWidth="1"/>
     <col min="2" max="2" width="58" customWidth="1"/>
-    <col min="3" max="3" width="110.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="110.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="44" t="s">
         <v>1</v>
       </c>
@@ -5043,7 +5614,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="49" t="s">
         <v>865</v>
       </c>
@@ -5053,7 +5624,7 @@
       <c r="C3" s="72"/>
       <c r="D3" s="52"/>
     </row>
-    <row r="4" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A4" s="49" t="s">
         <v>867</v>
       </c>
@@ -5067,7 +5638,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="126" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A5" s="49" t="s">
         <v>870</v>
       </c>
@@ -5081,7 +5652,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="189" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A6" s="49" t="s">
         <v>872</v>
       </c>
@@ -5095,7 +5666,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="156" x14ac:dyDescent="0.3">
       <c r="A7" s="49" t="s">
         <v>877</v>
       </c>
@@ -5109,7 +5680,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="236.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="234" x14ac:dyDescent="0.3">
       <c r="A8" s="49" t="s">
         <v>880</v>
       </c>
@@ -5123,7 +5694,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A9" s="49" t="s">
         <v>878</v>
       </c>
@@ -5137,7 +5708,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A10" s="49" t="s">
         <v>881</v>
       </c>
@@ -5151,7 +5722,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A11" s="49" t="s">
         <v>888</v>
       </c>
@@ -5165,7 +5736,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="173.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="171.6" x14ac:dyDescent="0.3">
       <c r="A12" s="49" t="s">
         <v>891</v>
       </c>
@@ -5179,7 +5750,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A13" s="49" t="s">
         <v>894</v>
       </c>
@@ -5189,7 +5760,7 @@
       <c r="C13" s="72"/>
       <c r="D13" s="74"/>
     </row>
-    <row r="14" spans="1:4" ht="204.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="202.8" x14ac:dyDescent="0.3">
       <c r="A14" s="49" t="s">
         <v>896</v>
       </c>
@@ -5203,7 +5774,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="299.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="296.39999999999998" x14ac:dyDescent="0.3">
       <c r="A15" s="49" t="s">
         <v>899</v>
       </c>
@@ -5217,7 +5788,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="49" t="s">
         <v>902</v>
       </c>
@@ -5227,7 +5798,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="236.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="234" x14ac:dyDescent="0.3">
       <c r="A17" s="49" t="s">
         <v>904</v>
       </c>
@@ -5241,7 +5812,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="299.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="296.39999999999998" x14ac:dyDescent="0.3">
       <c r="A18" s="49" t="s">
         <v>906</v>
       </c>
@@ -5255,7 +5826,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A19" s="49" t="s">
         <v>909</v>
       </c>
@@ -5269,7 +5840,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A20" s="49" t="s">
         <v>912</v>
       </c>
@@ -5281,7 +5852,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A21" s="49" t="s">
         <v>914</v>
       </c>
@@ -5295,7 +5866,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="204.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="202.8" x14ac:dyDescent="0.3">
       <c r="A22" s="49" t="s">
         <v>918</v>
       </c>
@@ -5335,7 +5906,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AB73040-3CFA-4428-B65C-7649A446D17C}">
   <dimension ref="A2:D23"/>
   <sheetViews>
@@ -5343,15 +5914,15 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38" customWidth="1"/>
-    <col min="3" max="3" width="125.42578125" customWidth="1"/>
-    <col min="4" max="4" width="48.7109375" customWidth="1"/>
+    <col min="3" max="3" width="125.44140625" customWidth="1"/>
+    <col min="4" max="4" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>920</v>
       </c>
@@ -5365,7 +5936,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>924</v>
       </c>
@@ -5379,7 +5950,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>928</v>
       </c>
@@ -5390,61 +5961,61 @@
         <v>930</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="16"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C6" s="16"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C7" s="16"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C8" s="16"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C9" s="16"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C10" s="16"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C11" s="16"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C12" s="16"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C13" s="16"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C14" s="16"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C15" s="16"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C16" s="16"/>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C17" s="16"/>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C18" s="16"/>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C19" s="16"/>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C20" s="16"/>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C21" s="16"/>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C22" s="16"/>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C23" s="16"/>
     </row>
   </sheetData>
@@ -5460,21 +6031,21 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="61.5703125" customWidth="1"/>
-    <col min="2" max="2" width="64.85546875" customWidth="1"/>
-    <col min="3" max="3" width="110.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="61.5546875" customWidth="1"/>
+    <col min="2" max="2" width="64.88671875" customWidth="1"/>
+    <col min="3" max="3" width="110.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="81" t="s">
         <v>512</v>
       </c>
       <c r="B1" s="81"/>
       <c r="C1" s="81"/>
     </row>
-    <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -5485,7 +6056,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>513</v>
       </c>
@@ -5496,7 +6067,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>29</v>
       </c>
@@ -5505,7 +6076,7 @@
       </c>
       <c r="C4" s="19"/>
     </row>
-    <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
         <v>517</v>
       </c>
@@ -5516,7 +6087,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
         <v>520</v>
       </c>
@@ -5525,7 +6096,7 @@
       </c>
       <c r="C6" s="19"/>
     </row>
-    <row r="7" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
         <v>522</v>
       </c>
@@ -5536,7 +6107,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
         <v>525</v>
       </c>
@@ -5545,7 +6116,7 @@
       </c>
       <c r="C8" s="19"/>
     </row>
-    <row r="9" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
         <v>527</v>
       </c>
@@ -5554,7 +6125,7 @@
       </c>
       <c r="C9" s="19"/>
     </row>
-    <row r="10" spans="1:3" ht="131.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="108" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
         <v>529</v>
       </c>
@@ -5565,7 +6136,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
         <v>532</v>
       </c>
@@ -5576,7 +6147,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
         <v>535</v>
       </c>
@@ -5585,7 +6156,7 @@
       </c>
       <c r="C12" s="19"/>
     </row>
-    <row r="13" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
         <v>537</v>
       </c>
@@ -5594,7 +6165,7 @@
       </c>
       <c r="C13" s="19"/>
     </row>
-    <row r="14" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
         <v>539</v>
       </c>
@@ -5603,7 +6174,7 @@
       </c>
       <c r="C14" s="19"/>
     </row>
-    <row r="15" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
         <v>541</v>
       </c>
@@ -5612,7 +6183,7 @@
       </c>
       <c r="C15" s="19"/>
     </row>
-    <row r="16" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="36" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
         <v>543</v>
       </c>
@@ -5623,7 +6194,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="168.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="162" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
         <v>546</v>
       </c>
@@ -5634,7 +6205,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
         <v>550</v>
       </c>
@@ -5643,7 +6214,7 @@
       </c>
       <c r="C18" s="19"/>
     </row>
-    <row r="19" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A19" s="17" t="s">
         <v>553</v>
       </c>
@@ -5652,7 +6223,7 @@
       </c>
       <c r="C19" s="19"/>
     </row>
-    <row r="20" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="36" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
         <v>555</v>
       </c>
@@ -5663,7 +6234,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="112.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="108" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="s">
         <v>558</v>
       </c>
@@ -5674,7 +6245,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="s">
         <v>559</v>
       </c>
@@ -5685,7 +6256,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="168.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="162" x14ac:dyDescent="0.3">
       <c r="A23" s="17" t="s">
         <v>564</v>
       </c>
@@ -5712,16 +6283,16 @@
       <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="31" style="10" customWidth="1"/>
-    <col min="2" max="2" width="73.28515625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="110.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.33203125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="110.5546875" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="7" customWidth="1"/>
-    <col min="5" max="16384" width="9.28515625" style="5"/>
+    <col min="5" max="16384" width="9.33203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="82" t="s">
         <v>0</v>
       </c>
@@ -5729,7 +6300,7 @@
       <c r="C1" s="82"/>
       <c r="D1" s="82"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="44" t="s">
         <v>1</v>
       </c>
@@ -5743,7 +6314,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A3" s="45" t="s">
         <v>44</v>
       </c>
@@ -5757,7 +6328,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="45" t="s">
         <v>44</v>
       </c>
@@ -5771,7 +6342,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A5" s="45" t="s">
         <v>48</v>
       </c>
@@ -5785,7 +6356,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A6" s="45" t="s">
         <v>50</v>
       </c>
@@ -5799,7 +6370,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="45" t="s">
         <v>52</v>
       </c>
@@ -5813,7 +6384,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="45" t="s">
         <v>54</v>
       </c>
@@ -5827,7 +6398,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A9" s="45" t="s">
         <v>57</v>
       </c>
@@ -5841,7 +6412,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A10" s="45" t="s">
         <v>60</v>
       </c>
@@ -5855,7 +6426,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A11" s="45" t="s">
         <v>63</v>
       </c>
@@ -5869,7 +6440,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A12" s="45" t="s">
         <v>78</v>
       </c>
@@ -5883,7 +6454,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A13" s="45" t="s">
         <v>139</v>
       </c>
@@ -5897,7 +6468,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A14" s="45" t="s">
         <v>69</v>
       </c>
@@ -5911,7 +6482,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="45" t="s">
         <v>72</v>
       </c>
@@ -5925,7 +6496,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A16" s="45" t="s">
         <v>75</v>
       </c>
@@ -5939,7 +6510,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A17" s="49" t="s">
         <v>493</v>
       </c>
@@ -5953,7 +6524,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A18" s="49" t="s">
         <v>494</v>
       </c>
@@ -5967,7 +6538,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A19" s="49" t="s">
         <v>495</v>
       </c>
@@ -5981,7 +6552,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A20" s="45" t="s">
         <v>81</v>
       </c>
@@ -5995,7 +6566,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A21" s="45" t="s">
         <v>84</v>
       </c>
@@ -6009,7 +6580,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A22" s="45" t="s">
         <v>87</v>
       </c>
@@ -6023,7 +6594,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A23" s="45" t="s">
         <v>90</v>
       </c>
@@ -6037,7 +6608,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A24" s="45" t="s">
         <v>91</v>
       </c>
@@ -6051,7 +6622,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A25" s="45" t="s">
         <v>92</v>
       </c>
@@ -6065,7 +6636,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A26" s="45" t="s">
         <v>99</v>
       </c>
@@ -6079,7 +6650,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A27" s="45" t="s">
         <v>102</v>
       </c>
@@ -6093,7 +6664,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A28" s="45" t="s">
         <v>502</v>
       </c>
@@ -6107,7 +6678,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A29" s="45" t="s">
         <v>105</v>
       </c>
@@ -6121,7 +6692,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A30" s="45" t="s">
         <v>108</v>
       </c>
@@ -6135,7 +6706,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A31" s="45" t="s">
         <v>111</v>
       </c>
@@ -6149,7 +6720,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A32" s="45" t="s">
         <v>113</v>
       </c>
@@ -6163,7 +6734,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A33" s="45" t="s">
         <v>20</v>
       </c>
@@ -6177,7 +6748,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A34" s="45" t="s">
         <v>506</v>
       </c>
@@ -6191,7 +6762,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A35" s="45" t="s">
         <v>509</v>
       </c>
@@ -6205,7 +6776,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A36" s="45" t="s">
         <v>117</v>
       </c>
@@ -6219,7 +6790,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A37" s="45" t="s">
         <v>118</v>
       </c>
@@ -6233,7 +6804,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A38" s="45" t="s">
         <v>121</v>
       </c>
@@ -6247,7 +6818,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A39" s="45" t="s">
         <v>123</v>
       </c>
@@ -6261,7 +6832,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A40" s="45" t="s">
         <v>128</v>
       </c>
@@ -6275,7 +6846,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="87" t="s">
         <v>131</v>
       </c>
@@ -6289,7 +6860,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="88"/>
       <c r="B42" s="86"/>
       <c r="C42" s="84"/>
@@ -6297,7 +6868,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A43" s="45" t="s">
         <v>133</v>
       </c>
@@ -6311,7 +6882,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A44" s="45" t="s">
         <v>569</v>
       </c>
@@ -6325,7 +6896,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="45" t="s">
         <v>136</v>
       </c>
@@ -6339,7 +6910,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A46" s="45" t="s">
         <v>138</v>
       </c>
@@ -6353,7 +6924,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="45" t="s">
         <v>142</v>
       </c>
@@ -6367,7 +6938,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="45" t="s">
         <v>3</v>
       </c>
@@ -6381,7 +6952,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A49" s="53" t="s">
         <v>297</v>
       </c>
@@ -6395,7 +6966,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A50" s="49" t="s">
         <v>366</v>
       </c>
@@ -6409,7 +6980,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A51" s="49" t="s">
         <v>369</v>
       </c>
@@ -6423,7 +6994,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A52" s="49" t="s">
         <v>372</v>
       </c>
@@ -6437,7 +7008,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A53" s="49" t="s">
         <v>376</v>
       </c>
@@ -6451,7 +7022,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A54" s="49" t="s">
         <v>379</v>
       </c>
@@ -6465,7 +7036,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A55" s="49" t="s">
         <v>382</v>
       </c>
@@ -6479,7 +7050,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A56" s="49" t="s">
         <v>383</v>
       </c>
@@ -6493,7 +7064,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A57" s="49" t="s">
         <v>390</v>
       </c>
@@ -6507,7 +7078,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A58" s="49" t="s">
         <v>391</v>
       </c>
@@ -6521,7 +7092,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A59" s="49" t="s">
         <v>392</v>
       </c>
@@ -6535,7 +7106,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A60" s="49" t="s">
         <v>396</v>
       </c>
@@ -6549,7 +7120,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A61" s="49" t="s">
         <v>397</v>
       </c>
@@ -6563,7 +7134,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A62" s="57" t="s">
         <v>400</v>
       </c>
@@ -6575,7 +7146,7 @@
       </c>
       <c r="D62" s="58"/>
     </row>
-    <row r="63" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A63" s="10" t="s">
         <v>680</v>
       </c>
@@ -6589,7 +7160,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A64" s="10" t="s">
         <v>681</v>
       </c>
@@ -6603,7 +7174,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A65" s="10" t="s">
         <v>682</v>
       </c>
@@ -6617,7 +7188,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="10" t="s">
         <v>692</v>
       </c>
@@ -6631,7 +7202,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A67" s="10" t="s">
         <v>696</v>
       </c>
@@ -6645,7 +7216,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="10" t="s">
         <v>699</v>
       </c>
@@ -6656,7 +7227,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="10" t="s">
         <v>700</v>
       </c>
@@ -6667,7 +7238,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A70" s="10" t="s">
         <v>705</v>
       </c>
@@ -6681,7 +7252,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A71" s="10" t="s">
         <v>706</v>
       </c>
@@ -6695,7 +7266,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A72" s="10" t="s">
         <v>707</v>
       </c>
@@ -6709,7 +7280,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A73" s="10" t="s">
         <v>708</v>
       </c>
@@ -6803,16 +7374,16 @@
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.28515625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="32.33203125" style="7" customWidth="1"/>
     <col min="2" max="2" width="75" style="13" customWidth="1"/>
-    <col min="3" max="3" width="110.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="110.5546875" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="7" customWidth="1"/>
-    <col min="5" max="16384" width="9.28515625" style="5"/>
+    <col min="5" max="16384" width="9.33203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="82" t="s">
         <v>4</v>
       </c>
@@ -6820,7 +7391,7 @@
       <c r="C1" s="82"/>
       <c r="D1" s="82"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="44" t="s">
         <v>1</v>
       </c>
@@ -6834,7 +7405,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="53" t="s">
         <v>5</v>
       </c>
@@ -6848,7 +7419,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
@@ -6862,7 +7433,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="63" t="s">
         <v>8</v>
       </c>
@@ -6876,7 +7447,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A6" s="63" t="s">
         <v>147</v>
       </c>
@@ -6890,7 +7461,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A7" s="63" t="s">
         <v>150</v>
       </c>
@@ -6904,7 +7475,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="63" t="s">
         <v>154</v>
       </c>
@@ -6918,7 +7489,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="63" t="s">
         <v>156</v>
       </c>
@@ -6932,7 +7503,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A10" s="63" t="s">
         <v>159</v>
       </c>
@@ -6946,7 +7517,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="63" t="s">
         <v>240</v>
       </c>
@@ -6960,7 +7531,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A12" s="63" t="s">
         <v>162</v>
       </c>
@@ -6974,7 +7545,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A13" s="63" t="s">
         <v>165</v>
       </c>
@@ -6988,7 +7559,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="63" t="s">
         <v>168</v>
       </c>
@@ -7002,7 +7573,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A15" s="63" t="s">
         <v>170</v>
       </c>
@@ -7016,7 +7587,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A16" s="63" t="s">
         <v>174</v>
       </c>
@@ -7030,7 +7601,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="63" t="s">
         <v>177</v>
       </c>
@@ -7044,7 +7615,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A18" s="63" t="s">
         <v>180</v>
       </c>
@@ -7058,7 +7629,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A19" s="63" t="s">
         <v>183</v>
       </c>
@@ -7072,7 +7643,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A20" s="63" t="s">
         <v>186</v>
       </c>
@@ -7086,7 +7657,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="63" t="s">
         <v>190</v>
       </c>
@@ -7100,7 +7671,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="63" t="s">
         <v>192</v>
       </c>
@@ -7114,7 +7685,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A23" s="63" t="s">
         <v>195</v>
       </c>
@@ -7128,7 +7699,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A24" s="63" t="s">
         <v>197</v>
       </c>
@@ -7142,7 +7713,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A25" s="63" t="s">
         <v>201</v>
       </c>
@@ -7156,7 +7727,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A26" s="63" t="s">
         <v>204</v>
       </c>
@@ -7170,7 +7741,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A27" s="63" t="s">
         <v>206</v>
       </c>
@@ -7184,7 +7755,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A28" s="63" t="s">
         <v>208</v>
       </c>
@@ -7198,7 +7769,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A29" s="63" t="s">
         <v>212</v>
       </c>
@@ -7212,7 +7783,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A30" s="63" t="s">
         <v>214</v>
       </c>
@@ -7226,7 +7797,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A31" s="63" t="s">
         <v>219</v>
       </c>
@@ -7240,7 +7811,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A32" s="63" t="s">
         <v>220</v>
       </c>
@@ -7254,7 +7825,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A33" s="63" t="s">
         <v>223</v>
       </c>
@@ -7268,7 +7839,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A34" s="63" t="s">
         <v>225</v>
       </c>
@@ -7282,7 +7853,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A35" s="63" t="s">
         <v>228</v>
       </c>
@@ -7296,7 +7867,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A36" s="63" t="s">
         <v>231</v>
       </c>
@@ -7310,7 +7881,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A37" s="63" t="s">
         <v>232</v>
       </c>
@@ -7324,7 +7895,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A38" s="63" t="s">
         <v>237</v>
       </c>
@@ -7338,7 +7909,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A39" s="63" t="s">
         <v>243</v>
       </c>
@@ -7352,7 +7923,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="63" t="s">
         <v>246</v>
       </c>
@@ -7366,7 +7937,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A41" s="63" t="s">
         <v>249</v>
       </c>
@@ -7380,7 +7951,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A42" s="63" t="s">
         <v>252</v>
       </c>
@@ -7394,7 +7965,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A43" s="63" t="s">
         <v>255</v>
       </c>
@@ -7408,7 +7979,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A44" s="63" t="s">
         <v>258</v>
       </c>
@@ -7422,7 +7993,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A45" s="63" t="s">
         <v>261</v>
       </c>
@@ -7436,7 +8007,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="63" t="s">
         <v>264</v>
       </c>
@@ -7450,7 +8021,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="63" t="s">
         <v>267</v>
       </c>
@@ -7464,7 +8035,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A48" s="63" t="s">
         <v>271</v>
       </c>
@@ -7478,7 +8049,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A49" s="63" t="s">
         <v>274</v>
       </c>
@@ -7492,7 +8063,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A50" s="63" t="s">
         <v>276</v>
       </c>
@@ -7506,7 +8077,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A51" s="63" t="s">
         <v>279</v>
       </c>
@@ -7520,7 +8091,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A52" s="63" t="s">
         <v>281</v>
       </c>
@@ -7534,7 +8105,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A53" s="63" t="s">
         <v>284</v>
       </c>
@@ -7548,7 +8119,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A54" s="63" t="s">
         <v>285</v>
       </c>
@@ -7562,7 +8133,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A55" s="63" t="s">
         <v>289</v>
       </c>
@@ -7576,7 +8147,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="63" t="s">
         <v>292</v>
       </c>
@@ -7590,7 +8161,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A57" s="63" t="s">
         <v>300</v>
       </c>
@@ -7604,7 +8175,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A58" s="53" t="s">
         <v>303</v>
       </c>
@@ -7618,7 +8189,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="68" t="s">
         <v>306</v>
       </c>
@@ -7632,7 +8203,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A60" s="53" t="s">
         <v>309</v>
       </c>
@@ -7646,7 +8217,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A61" s="53" t="s">
         <v>311</v>
       </c>
@@ -7660,7 +8231,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A62" s="53" t="s">
         <v>315</v>
       </c>
@@ -7674,7 +8245,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A63" s="53" t="s">
         <v>318</v>
       </c>
@@ -7688,7 +8259,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A64" s="53" t="s">
         <v>321</v>
       </c>
@@ -7702,7 +8273,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A65" s="53" t="s">
         <v>324</v>
       </c>
@@ -7716,7 +8287,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A66" s="53" t="s">
         <v>327</v>
       </c>
@@ -7730,7 +8301,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A67" s="53" t="s">
         <v>330</v>
       </c>
@@ -7744,7 +8315,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A68" s="53" t="s">
         <v>333</v>
       </c>
@@ -7758,7 +8329,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="68" t="s">
         <v>336</v>
       </c>
@@ -7772,7 +8343,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A70" s="68" t="s">
         <v>338</v>
       </c>
@@ -7786,7 +8357,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A71" s="68" t="s">
         <v>342</v>
       </c>
@@ -7800,7 +8371,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A72" s="68" t="s">
         <v>343</v>
       </c>
@@ -7814,7 +8385,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A73" s="68" t="s">
         <v>361</v>
       </c>
@@ -7828,7 +8399,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="68" t="s">
         <v>364</v>
       </c>
@@ -7840,7 +8411,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A75" s="68" t="s">
         <v>346</v>
       </c>
@@ -7854,7 +8425,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A76" s="68" t="s">
         <v>349</v>
       </c>
@@ -7868,7 +8439,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A77" s="68" t="s">
         <v>354</v>
       </c>
@@ -7882,7 +8453,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A78" s="68" t="s">
         <v>352</v>
       </c>
@@ -7896,7 +8467,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A79" s="68" t="s">
         <v>353</v>
       </c>
@@ -7910,7 +8481,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="204.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" ht="218.4" x14ac:dyDescent="0.3">
       <c r="A80" s="7" t="s">
         <v>677</v>
       </c>
@@ -7918,7 +8489,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C82" s="7" t="s">
         <v>679</v>
       </c>
@@ -8014,22 +8585,22 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="31" style="16" customWidth="1"/>
-    <col min="2" max="2" width="73.28515625" style="79" customWidth="1"/>
-    <col min="3" max="3" width="110.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.33203125" style="79" customWidth="1"/>
+    <col min="3" max="3" width="110.5546875" style="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="16" customWidth="1"/>
-    <col min="5" max="16384" width="9.28515625" style="16"/>
+    <col min="5" max="16384" width="9.33203125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="82" t="s">
         <v>489</v>
       </c>
@@ -8037,7 +8608,7 @@
       <c r="C1" s="82"/>
       <c r="D1" s="82"/>
     </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="44" t="s">
         <v>1</v>
       </c>
@@ -8051,7 +8622,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A3" s="53" t="s">
         <v>403</v>
       </c>
@@ -8065,7 +8636,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A4" s="53" t="s">
         <v>967</v>
       </c>
@@ -8079,7 +8650,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="53" t="s">
         <v>968</v>
       </c>
@@ -8093,7 +8664,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="53" t="s">
         <v>406</v>
       </c>
@@ -8105,7 +8676,7 @@
       </c>
       <c r="D6" s="56"/>
     </row>
-    <row r="7" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A7" s="53" t="s">
         <v>409</v>
       </c>
@@ -8117,7 +8688,7 @@
       </c>
       <c r="D7" s="56"/>
     </row>
-    <row r="8" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A8" s="53" t="s">
         <v>412</v>
       </c>
@@ -8129,7 +8700,7 @@
       </c>
       <c r="D8" s="56"/>
     </row>
-    <row r="9" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A9" s="53" t="s">
         <v>413</v>
       </c>
@@ -8141,7 +8712,7 @@
       </c>
       <c r="D9" s="56"/>
     </row>
-    <row r="10" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A10" s="53" t="s">
         <v>418</v>
       </c>
@@ -8153,7 +8724,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A11" s="53" t="s">
         <v>419</v>
       </c>
@@ -8165,7 +8736,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="53" t="s">
         <v>422</v>
       </c>
@@ -8179,7 +8750,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A13" s="53" t="s">
         <v>425</v>
       </c>
@@ -8193,7 +8764,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A14" s="53" t="s">
         <v>428</v>
       </c>
@@ -8207,7 +8778,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A15" s="53" t="s">
         <v>431</v>
       </c>
@@ -8221,7 +8792,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A16" s="53" t="s">
         <v>434</v>
       </c>
@@ -8235,7 +8806,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A17" s="53" t="s">
         <v>437</v>
       </c>
@@ -8249,7 +8820,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A18" s="53" t="s">
         <v>440</v>
       </c>
@@ -8263,7 +8834,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A19" s="53" t="s">
         <v>443</v>
       </c>
@@ -8277,7 +8848,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A20" s="53" t="s">
         <v>445</v>
       </c>
@@ -8289,7 +8860,7 @@
       </c>
       <c r="D20" s="56"/>
     </row>
-    <row r="21" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A21" s="53" t="s">
         <v>449</v>
       </c>
@@ -8299,7 +8870,7 @@
       <c r="C21" s="67"/>
       <c r="D21" s="56"/>
     </row>
-    <row r="22" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A22" s="53" t="s">
         <v>452</v>
       </c>
@@ -8309,7 +8880,7 @@
       <c r="C22" s="67"/>
       <c r="D22" s="56"/>
     </row>
-    <row r="23" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A23" s="53" t="s">
         <v>453</v>
       </c>
@@ -8321,7 +8892,7 @@
       </c>
       <c r="D23" s="56"/>
     </row>
-    <row r="24" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A24" s="53" t="s">
         <v>461</v>
       </c>
@@ -8335,7 +8906,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A25" s="53" t="s">
         <v>462</v>
       </c>
@@ -8349,7 +8920,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A26" s="53" t="s">
         <v>463</v>
       </c>
@@ -8363,7 +8934,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A27" s="53" t="s">
         <v>466</v>
       </c>
@@ -8377,7 +8948,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A28" s="53" t="s">
         <v>469</v>
       </c>
@@ -8391,7 +8962,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A29" s="53" t="s">
         <v>471</v>
       </c>
@@ -8403,7 +8974,7 @@
       </c>
       <c r="D29" s="56"/>
     </row>
-    <row r="30" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A30" s="53" t="s">
         <v>474</v>
       </c>
@@ -8417,7 +8988,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A31" s="53" t="s">
         <v>476</v>
       </c>
@@ -8431,7 +9002,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A32" s="53" t="s">
         <v>480</v>
       </c>
@@ -8445,7 +9016,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A33" s="53" t="s">
         <v>481</v>
       </c>
@@ -8459,7 +9030,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
         <v>951</v>
       </c>
@@ -8473,7 +9044,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
         <v>956</v>
       </c>
@@ -8487,7 +9058,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
         <v>954</v>
       </c>
@@ -8501,7 +9072,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
         <v>960</v>
       </c>
@@ -8513,7 +9084,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="156" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
         <v>962</v>
       </c>
@@ -8523,7 +9094,7 @@
       <c r="C38" s="14"/>
       <c r="D38" s="11"/>
     </row>
-    <row r="39" spans="1:4" ht="204.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="202.8" x14ac:dyDescent="0.3">
       <c r="A39" s="8" t="s">
         <v>964</v>
       </c>
@@ -8534,6 +9105,70 @@
         <v>965</v>
       </c>
       <c r="D39" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A40" s="8" t="s">
+        <v>973</v>
+      </c>
+      <c r="B40" s="78" t="s">
+        <v>975</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>974</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="78" x14ac:dyDescent="0.3">
+      <c r="A41" s="8" t="s">
+        <v>976</v>
+      </c>
+      <c r="B41" s="78" t="s">
+        <v>977</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>978</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A42" s="8" t="s">
+        <v>979</v>
+      </c>
+      <c r="B42" s="78" t="s">
+        <v>980</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>981</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A43" s="16" t="s">
+        <v>982</v>
+      </c>
+      <c r="B43" s="79" t="s">
+        <v>985</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>984</v>
+      </c>
+      <c r="D43" s="98" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C44" s="16" t="s">
+        <v>983</v>
+      </c>
+      <c r="D44" s="98" t="s">
         <v>6</v>
       </c>
     </row>
@@ -8569,13 +9204,71 @@
     <hyperlink ref="D39" r:id="rId25" xr:uid="{17B47D1F-67F3-4D16-89FF-94FEA0AB734D}"/>
     <hyperlink ref="D4" r:id="rId26" xr:uid="{91FE48E8-1DD5-438A-81D7-C8DCFFBC7ABD}"/>
     <hyperlink ref="D5" r:id="rId27" xr:uid="{E32FA30E-20C6-408C-8043-ED81002BAA61}"/>
+    <hyperlink ref="D40" r:id="rId28" xr:uid="{0E1FF3F3-FDE4-4119-8FAC-155F00C69D28}"/>
+    <hyperlink ref="D41" r:id="rId29" xr:uid="{4FC1DF0D-279E-428D-8801-CED6D2D96759}"/>
+    <hyperlink ref="D42" r:id="rId30" xr:uid="{0AE246F9-7927-4B68-8398-30B66F5069F5}"/>
+    <hyperlink ref="D43" r:id="rId31" xr:uid="{353E5829-4877-4CC1-9F88-1EE1F7B5C751}"/>
+    <hyperlink ref="D44" r:id="rId32" xr:uid="{8A685C81-7552-4186-B9FB-7594A3DE2360}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId28"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId33"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0B55A43-07C5-4DBB-8409-7DC39E8C0129}">
+  <dimension ref="A2:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="31" customWidth="1"/>
+    <col min="2" max="2" width="73.33203125" customWidth="1"/>
+    <col min="3" max="3" width="110.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="53"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="56"/>
+    </row>
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="53"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="75"/>
+    </row>
+    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="53"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="75"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE05540-2EB2-490B-925E-8A2A980E466A}">
   <dimension ref="A1:D35"/>
   <sheetViews>
@@ -8585,15 +9278,15 @@
       <selection pane="topRight" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
-    <col min="2" max="2" width="57.85546875" customWidth="1"/>
-    <col min="3" max="3" width="110.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.88671875" customWidth="1"/>
+    <col min="3" max="3" width="110.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="81" t="s">
         <v>490</v>
       </c>
@@ -8601,7 +9294,7 @@
       <c r="C1" s="81"/>
       <c r="D1" s="81"/>
     </row>
-    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -8615,199 +9308,199 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
       <c r="B3" s="12"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
     </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="8"/>
       <c r="B4" s="12"/>
       <c r="C4" s="14"/>
       <c r="D4" s="9"/>
     </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="8"/>
       <c r="B5" s="12"/>
       <c r="C5" s="14"/>
       <c r="D5" s="9"/>
     </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="8"/>
       <c r="B6" s="12"/>
       <c r="C6" s="14"/>
       <c r="D6" s="9"/>
     </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="B7" s="12"/>
       <c r="C7" s="14"/>
       <c r="D7" s="9"/>
     </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="8"/>
       <c r="B8" s="12"/>
       <c r="C8" s="14"/>
       <c r="D8" s="9"/>
     </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="8"/>
       <c r="B9" s="12"/>
       <c r="C9" s="14"/>
       <c r="D9" s="9"/>
     </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="8"/>
       <c r="B10" s="12"/>
       <c r="C10" s="14"/>
       <c r="D10" s="11"/>
     </row>
-    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="8"/>
       <c r="B11" s="12"/>
       <c r="C11" s="14"/>
       <c r="D11" s="9"/>
     </row>
-    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
       <c r="B12" s="12"/>
       <c r="C12" s="14"/>
       <c r="D12" s="11"/>
     </row>
-    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
       <c r="B13" s="12"/>
       <c r="C13" s="14"/>
       <c r="D13" s="11"/>
     </row>
-    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="8"/>
       <c r="B14" s="12"/>
       <c r="C14" s="14"/>
       <c r="D14" s="11"/>
     </row>
-    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="8"/>
       <c r="B15" s="12"/>
       <c r="C15" s="14"/>
       <c r="D15" s="11"/>
     </row>
-    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="8"/>
       <c r="B16" s="12"/>
       <c r="C16" s="14"/>
       <c r="D16" s="11"/>
     </row>
-    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="8"/>
       <c r="B17" s="12"/>
       <c r="C17" s="14"/>
       <c r="D17" s="11"/>
     </row>
-    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="8"/>
       <c r="B18" s="12"/>
       <c r="C18" s="14"/>
       <c r="D18" s="11"/>
     </row>
-    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="8"/>
       <c r="B19" s="12"/>
       <c r="C19" s="14"/>
       <c r="D19" s="11"/>
     </row>
-    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="8"/>
       <c r="B20" s="12"/>
       <c r="C20" s="14"/>
       <c r="D20" s="11"/>
     </row>
-    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="8"/>
       <c r="B21" s="12"/>
       <c r="C21" s="14"/>
       <c r="D21" s="11"/>
     </row>
-    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="8"/>
       <c r="B22" s="12"/>
       <c r="C22" s="14"/>
       <c r="D22" s="11"/>
     </row>
-    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="8"/>
       <c r="B23" s="12"/>
       <c r="C23" s="14"/>
       <c r="D23" s="11"/>
     </row>
-    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="8"/>
       <c r="B24" s="12"/>
       <c r="C24" s="14"/>
       <c r="D24" s="11"/>
     </row>
-    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
       <c r="B25" s="12"/>
       <c r="C25" s="14"/>
       <c r="D25" s="11"/>
     </row>
-    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="8"/>
       <c r="B26" s="12"/>
       <c r="C26" s="14"/>
       <c r="D26" s="11"/>
     </row>
-    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="8"/>
       <c r="B27" s="12"/>
       <c r="C27" s="14"/>
       <c r="D27" s="11"/>
     </row>
-    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="8"/>
       <c r="B28" s="12"/>
       <c r="C28" s="14"/>
       <c r="D28" s="11"/>
     </row>
-    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="8"/>
       <c r="B29" s="12"/>
       <c r="C29" s="14"/>
       <c r="D29" s="11"/>
     </row>
-    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="8"/>
       <c r="B30" s="12"/>
       <c r="C30" s="14"/>
       <c r="D30" s="11"/>
     </row>
-    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="8"/>
       <c r="B31" s="12"/>
       <c r="C31" s="14"/>
       <c r="D31" s="11"/>
     </row>
-    <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="8"/>
       <c r="B32" s="12"/>
       <c r="C32" s="14"/>
       <c r="D32" s="11"/>
     </row>
-    <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="8"/>
       <c r="B33" s="12"/>
       <c r="C33" s="14"/>
       <c r="D33" s="11"/>
     </row>
-    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="8"/>
       <c r="B34" s="12"/>
       <c r="C34" s="14"/>
       <c r="D34" s="11"/>
     </row>
-    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="8"/>
       <c r="B35" s="12"/>
       <c r="C35" s="14"/>
@@ -8822,7 +9515,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -8830,14 +9523,14 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
-    <col min="2" max="2" width="36.28515625" customWidth="1"/>
+    <col min="2" max="2" width="36.33203125" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -8848,7 +9541,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="89" t="s">
         <v>399</v>
       </c>
@@ -8856,13 +9549,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="80"/>
       <c r="C3" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>486</v>
       </c>
@@ -8870,7 +9563,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>487</v>
       </c>
@@ -8878,7 +9571,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>488</v>
       </c>
@@ -8886,7 +9579,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>492</v>
       </c>
@@ -8894,7 +9587,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>575</v>
       </c>
@@ -8919,7 +9612,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B55396B-BB8C-4180-AD0D-7E5850126AB0}">
   <dimension ref="A2:L115"/>
   <sheetViews>
@@ -8927,24 +9620,24 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45.7109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="16" customWidth="1"/>
+    <col min="1" max="1" width="45.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="16" customWidth="1"/>
     <col min="3" max="3" width="11" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" style="16" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.5703125" style="16" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.5546875" style="16" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="17" style="16" customWidth="1"/>
-    <col min="8" max="8" width="27.85546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.7109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.5703125" style="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" style="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" style="16" customWidth="1"/>
-    <col min="13" max="16384" width="11.42578125" style="16"/>
+    <col min="8" max="8" width="27.88671875" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" style="16" customWidth="1"/>
+    <col min="13" max="16384" width="11.44140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="97" t="s">
         <v>601</v>
       </c>
@@ -8953,7 +9646,7 @@
       <c r="D2" s="97"/>
       <c r="E2" s="97"/>
     </row>
-    <row r="3" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
         <v>577</v>
       </c>
@@ -8970,7 +9663,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="22" t="s">
         <v>630</v>
       </c>
@@ -8993,7 +9686,7 @@
       </c>
       <c r="G4" s="21"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
         <v>631</v>
       </c>
@@ -9023,7 +9716,7 @@
       <c r="K5" s="92"/>
       <c r="L5" s="93"/>
     </row>
-    <row r="6" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="22" t="s">
         <v>632</v>
       </c>
@@ -9061,7 +9754,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
         <v>633</v>
       </c>
@@ -9103,7 +9796,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
         <v>609</v>
       </c>
@@ -9145,7 +9838,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="22" t="s">
         <v>581</v>
       </c>
@@ -9187,7 +9880,7 @@
         <v>15.138888888888886</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
         <v>582</v>
       </c>
@@ -9229,7 +9922,7 @@
         <v>13.591666666666663</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
         <v>931</v>
       </c>
@@ -9256,16 +9949,16 @@
       </c>
       <c r="I11" s="42">
         <f ca="1">TODAY() +I10</f>
-        <v>43823.980555555558</v>
+        <v>43824.980555555558</v>
       </c>
       <c r="J11" s="42">
         <f ca="1">I11+J10</f>
-        <v>43838.458333333336</v>
+        <v>43839.458333333336</v>
       </c>
       <c r="K11" s="42"/>
       <c r="L11" s="42"/>
     </row>
-    <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="22" t="s">
         <v>583</v>
       </c>
@@ -9307,7 +10000,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="22" t="s">
         <v>584</v>
       </c>
@@ -9340,7 +10033,7 @@
       <c r="K13" s="95"/>
       <c r="L13" s="96"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="22" t="s">
         <v>585</v>
       </c>
@@ -9365,7 +10058,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="22" t="s">
         <v>586</v>
       </c>
@@ -9390,7 +10083,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="22" t="s">
         <v>587</v>
       </c>
@@ -9413,7 +10106,7 @@
       </c>
       <c r="G16" s="21"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="22" t="s">
         <v>932</v>
       </c>
@@ -9436,7 +10129,7 @@
       </c>
       <c r="G17" s="21"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="22" t="s">
         <v>809</v>
       </c>
@@ -9456,7 +10149,7 @@
       <c r="F18" s="21"/>
       <c r="G18" s="21"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="22" t="s">
         <v>588</v>
       </c>
@@ -9481,7 +10174,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="22" t="s">
         <v>945</v>
       </c>
@@ -9506,7 +10199,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="22" t="s">
         <v>936</v>
       </c>
@@ -9531,7 +10224,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="22" t="s">
         <v>947</v>
       </c>
@@ -9556,7 +10249,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="22" t="s">
         <v>948</v>
       </c>
@@ -9581,7 +10274,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="22" t="s">
         <v>617</v>
       </c>
@@ -9606,7 +10299,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="22" t="s">
         <v>933</v>
       </c>
@@ -9631,7 +10324,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="22" t="s">
         <v>937</v>
       </c>
@@ -9656,7 +10349,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="22" t="s">
         <v>949</v>
       </c>
@@ -9681,7 +10374,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="22" t="s">
         <v>938</v>
       </c>
@@ -9706,7 +10399,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="22" t="s">
         <v>939</v>
       </c>
@@ -9731,7 +10424,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="22" t="s">
         <v>950</v>
       </c>
@@ -9756,7 +10449,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="22" t="s">
         <v>589</v>
       </c>
@@ -9781,7 +10474,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="22" t="s">
         <v>590</v>
       </c>
@@ -9804,7 +10497,7 @@
       </c>
       <c r="G32" s="21"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="22" t="s">
         <v>591</v>
       </c>
@@ -9827,7 +10520,7 @@
       </c>
       <c r="G33" s="21"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="22" t="s">
         <v>592</v>
       </c>
@@ -9850,7 +10543,7 @@
       </c>
       <c r="G34" s="21"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="22" t="s">
         <v>593</v>
       </c>
@@ -9873,7 +10566,7 @@
       </c>
       <c r="G35" s="21"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="22" t="s">
         <v>594</v>
       </c>
@@ -9898,7 +10591,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="22" t="s">
         <v>595</v>
       </c>
@@ -9923,7 +10616,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="22" t="s">
         <v>942</v>
       </c>
@@ -9948,7 +10641,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="22" t="s">
         <v>596</v>
       </c>
@@ -9973,7 +10666,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="22" t="s">
         <v>597</v>
       </c>
@@ -9998,7 +10691,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="22" t="s">
         <v>943</v>
       </c>
@@ -10023,7 +10716,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="22" t="s">
         <v>598</v>
       </c>
@@ -10046,7 +10739,7 @@
       </c>
       <c r="G42" s="21"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="22" t="s">
         <v>599</v>
       </c>
@@ -10069,7 +10762,7 @@
       </c>
       <c r="G43" s="21"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="22" t="s">
         <v>600</v>
       </c>
@@ -10094,10 +10787,10 @@
         <v>944</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F45" s="21"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="90" t="s">
         <v>607</v>
       </c>
@@ -10107,7 +10800,7 @@
       <c r="E46" s="90"/>
       <c r="F46" s="21"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="22" t="s">
         <v>608</v>
       </c>
@@ -10129,7 +10822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="22" t="s">
         <v>609</v>
       </c>
@@ -10151,7 +10844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="22" t="s">
         <v>585</v>
       </c>
@@ -10173,7 +10866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="22" t="s">
         <v>610</v>
       </c>
@@ -10195,7 +10888,7 @@
         <v>2.7333333333333334</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="22" t="s">
         <v>611</v>
       </c>
@@ -10217,7 +10910,7 @@
         <v>2.8166666666666669</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="22" t="s">
         <v>586</v>
       </c>
@@ -10239,7 +10932,7 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="22" t="s">
         <v>612</v>
       </c>
@@ -10261,7 +10954,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="22" t="s">
         <v>594</v>
       </c>
@@ -10283,7 +10976,7 @@
         <v>4.4833333333333334</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="22" t="s">
         <v>595</v>
       </c>
@@ -10305,7 +10998,7 @@
         <v>3.9166666666666665</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="22" t="s">
         <v>613</v>
       </c>
@@ -10327,7 +11020,7 @@
         <v>2.7333333333333334</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="22" t="s">
         <v>597</v>
       </c>
@@ -10349,7 +11042,7 @@
         <v>3.8666666666666667</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="22" t="s">
         <v>614</v>
       </c>
@@ -10371,7 +11064,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="22" t="s">
         <v>615</v>
       </c>
@@ -10393,7 +11086,7 @@
         <v>3.8666666666666667</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="22" t="s">
         <v>616</v>
       </c>
@@ -10415,7 +11108,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="22" t="s">
         <v>617</v>
       </c>
@@ -10437,7 +11130,7 @@
         <v>2.4166666666666665</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="22" t="s">
         <v>618</v>
       </c>
@@ -10459,7 +11152,7 @@
         <v>4.0333333333333332</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="22" t="s">
         <v>619</v>
       </c>
@@ -10481,7 +11174,7 @@
         <v>3.2666666666666666</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="22" t="s">
         <v>629</v>
       </c>
@@ -10503,7 +11196,7 @@
         <v>2.2333333333333334</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="22" t="s">
         <v>620</v>
       </c>
@@ -10525,7 +11218,7 @@
         <v>6.1166666666666663</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="22" t="s">
         <v>621</v>
       </c>
@@ -10547,7 +11240,7 @@
         <v>2.3666666666666667</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="22" t="s">
         <v>622</v>
       </c>
@@ -10569,7 +11262,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="22" t="s">
         <v>623</v>
       </c>
@@ -10591,7 +11284,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="22" t="s">
         <v>624</v>
       </c>
@@ -10613,7 +11306,7 @@
         <v>3.6833333333333331</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="22" t="s">
         <v>625</v>
       </c>
@@ -10635,7 +11328,7 @@
         <v>4.8666666666666663</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="22" t="s">
         <v>626</v>
       </c>
@@ -10657,7 +11350,7 @@
         <v>3.3333333333333335</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="22" t="s">
         <v>627</v>
       </c>
@@ -10679,7 +11372,7 @@
         <v>3.6666666666666665</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="22" t="s">
         <v>628</v>
       </c>
@@ -10701,12 +11394,12 @@
         <v>2.6166666666666667</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D74" s="28"/>
       <c r="E74" s="29"/>
       <c r="F74" s="30"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="90" t="s">
         <v>638</v>
       </c>
@@ -10716,7 +11409,7 @@
       <c r="E75" s="90"/>
       <c r="F75" s="33"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="22" t="s">
         <v>639</v>
       </c>
@@ -10738,7 +11431,7 @@
         <v>2.9166666666666665</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="22" t="s">
         <v>640</v>
       </c>
@@ -10760,7 +11453,7 @@
         <v>4.7833333333333332</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="22" t="s">
         <v>641</v>
       </c>
@@ -10782,7 +11475,7 @@
         <v>4.8666666666666663</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="22" t="s">
         <v>642</v>
       </c>
@@ -10804,7 +11497,7 @@
         <v>3.1833333333333331</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="22" t="s">
         <v>643</v>
       </c>
@@ -10826,7 +11519,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="22" t="s">
         <v>644</v>
       </c>
@@ -10848,7 +11541,7 @@
         <v>6.333333333333333</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="22" t="s">
         <v>645</v>
       </c>
@@ -10870,7 +11563,7 @@
         <v>4.333333333333333</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="22" t="s">
         <v>646</v>
       </c>
@@ -10892,7 +11585,7 @@
         <v>2.9333333333333331</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="22" t="s">
         <v>647</v>
       </c>
@@ -10914,7 +11607,7 @@
         <v>3.5666666666666669</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="22" t="s">
         <v>648</v>
       </c>
@@ -10936,7 +11629,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="22" t="s">
         <v>649</v>
       </c>
@@ -10958,7 +11651,7 @@
         <v>4.0333333333333332</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="22" t="s">
         <v>650</v>
       </c>
@@ -10980,7 +11673,7 @@
         <v>2.7166666666666668</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="22" t="s">
         <v>651</v>
       </c>
@@ -11002,7 +11695,7 @@
         <v>3.2666666666666666</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="22" t="s">
         <v>652</v>
       </c>
@@ -11024,12 +11717,12 @@
         <v>4.416666666666667</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D90" s="28"/>
       <c r="E90" s="29"/>
       <c r="F90" s="30"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="90" t="s">
         <v>654</v>
       </c>
@@ -11039,7 +11732,7 @@
       <c r="E91" s="90"/>
       <c r="F91" s="90"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="31" t="s">
         <v>630</v>
       </c>
@@ -11061,7 +11754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="22" t="s">
         <v>655</v>
       </c>
@@ -11083,7 +11776,7 @@
         <v>4.6500000000000004</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="22" t="s">
         <v>631</v>
       </c>
@@ -11105,7 +11798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="22" t="s">
         <v>656</v>
       </c>
@@ -11127,7 +11820,7 @@
         <v>5.2166666666666668</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="22" t="s">
         <v>657</v>
       </c>
@@ -11149,7 +11842,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="22" t="s">
         <v>658</v>
       </c>
@@ -11171,7 +11864,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="22" t="s">
         <v>659</v>
       </c>
@@ -11193,7 +11886,7 @@
         <v>2.5666666666666669</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="22" t="s">
         <v>660</v>
       </c>
@@ -11215,7 +11908,7 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="22" t="s">
         <v>661</v>
       </c>
@@ -11237,7 +11930,7 @@
         <v>2.7333333333333334</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="22" t="s">
         <v>662</v>
       </c>
@@ -11259,7 +11952,7 @@
         <v>5.3833333333333337</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="22" t="s">
         <v>663</v>
       </c>
@@ -11281,7 +11974,7 @@
         <v>3.3833333333333333</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="22" t="s">
         <v>664</v>
       </c>
@@ -11303,7 +11996,7 @@
         <v>4.2833333333333332</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="22" t="s">
         <v>665</v>
       </c>
@@ -11325,7 +12018,7 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="22" t="s">
         <v>666</v>
       </c>
@@ -11347,7 +12040,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="22" t="s">
         <v>667</v>
       </c>
@@ -11369,7 +12062,7 @@
         <v>2.4333333333333331</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="22" t="s">
         <v>668</v>
       </c>
@@ -11391,7 +12084,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="22" t="s">
         <v>669</v>
       </c>
@@ -11413,7 +12106,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="22" t="s">
         <v>625</v>
       </c>
@@ -11435,7 +12128,7 @@
         <v>4.8666666666666663</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="22" t="s">
         <v>670</v>
       </c>
@@ -11457,7 +12150,7 @@
         <v>4.7833333333333332</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="22" t="s">
         <v>671</v>
       </c>
@@ -11479,7 +12172,7 @@
         <v>6.05</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="22" t="s">
         <v>672</v>
       </c>
@@ -11501,7 +12194,7 @@
         <v>2.8166666666666669</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="22" t="s">
         <v>626</v>
       </c>
@@ -11523,7 +12216,7 @@
         <v>3.3333333333333335</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="22" t="s">
         <v>673</v>
       </c>
@@ -11545,7 +12238,7 @@
         <v>4.3666666666666663</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="22" t="s">
         <v>674</v>
       </c>
@@ -11633,527 +12326,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB39D374-F7E5-4E1B-A824-7220E4B22623}">
-  <dimension ref="A2:D37"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="48.85546875" customWidth="1"/>
-    <col min="2" max="2" width="58" customWidth="1"/>
-    <col min="3" max="3" width="110.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="61" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="44" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
-        <v>721</v>
-      </c>
-      <c r="B3" s="73" t="s">
-        <v>724</v>
-      </c>
-      <c r="C3" s="72" t="s">
-        <v>151</v>
-      </c>
-      <c r="D3" s="52" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="49" t="s">
-        <v>722</v>
-      </c>
-      <c r="B4" s="73" t="s">
-        <v>726</v>
-      </c>
-      <c r="C4" s="72" t="s">
-        <v>155</v>
-      </c>
-      <c r="D4" s="52" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="49" t="s">
-        <v>723</v>
-      </c>
-      <c r="B5" s="73" t="s">
-        <v>725</v>
-      </c>
-      <c r="C5" s="72" t="s">
-        <v>158</v>
-      </c>
-      <c r="D5" s="52" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="49" t="s">
-        <v>727</v>
-      </c>
-      <c r="B6" s="73" t="s">
-        <v>160</v>
-      </c>
-      <c r="C6" s="72" t="s">
-        <v>161</v>
-      </c>
-      <c r="D6" s="52" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="49" t="s">
-        <v>728</v>
-      </c>
-      <c r="B7" s="73" t="s">
-        <v>241</v>
-      </c>
-      <c r="C7" s="72" t="s">
-        <v>242</v>
-      </c>
-      <c r="D7" s="52" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="49" t="s">
-        <v>737</v>
-      </c>
-      <c r="B8" s="73" t="s">
-        <v>739</v>
-      </c>
-      <c r="C8" s="72"/>
-      <c r="D8" s="74" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="49" t="s">
-        <v>738</v>
-      </c>
-      <c r="B9" s="73" t="s">
-        <v>740</v>
-      </c>
-      <c r="C9" s="72"/>
-      <c r="D9" s="52"/>
-    </row>
-    <row r="10" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="49" t="s">
-        <v>741</v>
-      </c>
-      <c r="B10" s="73" t="s">
-        <v>745</v>
-      </c>
-      <c r="C10" s="72"/>
-      <c r="D10" s="52"/>
-    </row>
-    <row r="11" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="49" t="s">
-        <v>742</v>
-      </c>
-      <c r="B11" s="73" t="s">
-        <v>744</v>
-      </c>
-      <c r="C11" s="72"/>
-      <c r="D11" s="52"/>
-    </row>
-    <row r="12" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="49" t="s">
-        <v>761</v>
-      </c>
-      <c r="B12" s="73" t="s">
-        <v>743</v>
-      </c>
-      <c r="C12" s="72"/>
-      <c r="D12" s="52"/>
-    </row>
-    <row r="13" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="49" t="s">
-        <v>747</v>
-      </c>
-      <c r="B13" s="73" t="s">
-        <v>753</v>
-      </c>
-      <c r="C13" s="72" t="s">
-        <v>754</v>
-      </c>
-      <c r="D13" s="74" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="49" t="s">
-        <v>748</v>
-      </c>
-      <c r="B14" s="73" t="s">
-        <v>746</v>
-      </c>
-      <c r="C14" s="72" t="s">
-        <v>750</v>
-      </c>
-      <c r="D14" s="74" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="49" t="s">
-        <v>749</v>
-      </c>
-      <c r="B15" s="73" t="s">
-        <v>752</v>
-      </c>
-      <c r="C15" s="72" t="s">
-        <v>751</v>
-      </c>
-      <c r="D15" s="74" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="49" t="s">
-        <v>755</v>
-      </c>
-      <c r="B16" s="73" t="s">
-        <v>758</v>
-      </c>
-      <c r="C16" s="72" t="s">
-        <v>757</v>
-      </c>
-      <c r="D16" s="74" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="49" t="s">
-        <v>756</v>
-      </c>
-      <c r="B17" s="73" t="s">
-        <v>759</v>
-      </c>
-      <c r="C17" s="72" t="s">
-        <v>760</v>
-      </c>
-      <c r="D17" s="74" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="49" t="s">
-        <v>769</v>
-      </c>
-      <c r="B18" s="73" t="s">
-        <v>770</v>
-      </c>
-      <c r="C18" s="72" t="s">
-        <v>773</v>
-      </c>
-      <c r="D18" s="74" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="49" t="s">
-        <v>772</v>
-      </c>
-      <c r="B19" s="73" t="s">
-        <v>771</v>
-      </c>
-      <c r="C19" s="72" t="s">
-        <v>774</v>
-      </c>
-      <c r="D19" s="74" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="49" t="s">
-        <v>762</v>
-      </c>
-      <c r="B20" s="73" t="s">
-        <v>767</v>
-      </c>
-      <c r="C20" s="72" t="s">
-        <v>768</v>
-      </c>
-      <c r="D20" s="74" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="63" x14ac:dyDescent="0.25">
-      <c r="A21" s="49" t="s">
-        <v>765</v>
-      </c>
-      <c r="B21" s="73" t="s">
-        <v>766</v>
-      </c>
-      <c r="C21" s="72" t="s">
-        <v>764</v>
-      </c>
-      <c r="D21" s="74" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="49" t="s">
-        <v>729</v>
-      </c>
-      <c r="B22" s="73" t="s">
-        <v>732</v>
-      </c>
-      <c r="C22" s="72" t="s">
-        <v>775</v>
-      </c>
-      <c r="D22" s="74" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="49" t="s">
-        <v>730</v>
-      </c>
-      <c r="B23" s="73" t="s">
-        <v>733</v>
-      </c>
-      <c r="C23" s="72" t="s">
-        <v>776</v>
-      </c>
-      <c r="D23" s="74" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="49" t="s">
-        <v>731</v>
-      </c>
-      <c r="B24" s="73" t="s">
-        <v>734</v>
-      </c>
-      <c r="C24" s="72" t="s">
-        <v>777</v>
-      </c>
-      <c r="D24" s="74" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="49" t="s">
-        <v>735</v>
-      </c>
-      <c r="B25" s="73" t="s">
-        <v>736</v>
-      </c>
-      <c r="C25" s="72" t="s">
-        <v>778</v>
-      </c>
-      <c r="D25" s="74" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="63" x14ac:dyDescent="0.25">
-      <c r="A26" s="49" t="s">
-        <v>779</v>
-      </c>
-      <c r="B26" s="73" t="s">
-        <v>781</v>
-      </c>
-      <c r="C26" s="72" t="s">
-        <v>780</v>
-      </c>
-      <c r="D26" s="74" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="63" x14ac:dyDescent="0.25">
-      <c r="A27" s="49" t="s">
-        <v>782</v>
-      </c>
-      <c r="B27" s="73" t="s">
-        <v>783</v>
-      </c>
-      <c r="C27" s="72" t="s">
-        <v>784</v>
-      </c>
-      <c r="D27" s="74" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A28" s="49" t="s">
-        <v>786</v>
-      </c>
-      <c r="B28" s="73" t="s">
-        <v>785</v>
-      </c>
-      <c r="C28" s="72" t="s">
-        <v>787</v>
-      </c>
-      <c r="D28" s="74" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A29" s="49" t="s">
-        <v>789</v>
-      </c>
-      <c r="B29" s="73" t="s">
-        <v>790</v>
-      </c>
-      <c r="C29" s="72" t="s">
-        <v>788</v>
-      </c>
-      <c r="D29" s="74" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A30" s="49" t="s">
-        <v>792</v>
-      </c>
-      <c r="B30" s="73" t="s">
-        <v>791</v>
-      </c>
-      <c r="C30" s="72" t="s">
-        <v>793</v>
-      </c>
-      <c r="D30" s="74" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="49" t="s">
-        <v>794</v>
-      </c>
-      <c r="B31" s="73" t="s">
-        <v>796</v>
-      </c>
-      <c r="C31" s="72" t="s">
-        <v>795</v>
-      </c>
-      <c r="D31" s="74" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A32" s="49" t="s">
-        <v>797</v>
-      </c>
-      <c r="B32" s="73" t="s">
-        <v>798</v>
-      </c>
-      <c r="C32" s="72" t="s">
-        <v>799</v>
-      </c>
-      <c r="D32" s="74" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A33" s="49" t="s">
-        <v>800</v>
-      </c>
-      <c r="B33" s="73" t="s">
-        <v>805</v>
-      </c>
-      <c r="C33" s="72" t="s">
-        <v>804</v>
-      </c>
-      <c r="D33" s="74" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="49" t="s">
-        <v>801</v>
-      </c>
-      <c r="B34" s="73" t="s">
-        <v>803</v>
-      </c>
-      <c r="C34" s="72" t="s">
-        <v>802</v>
-      </c>
-      <c r="D34" s="74" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="49" t="s">
-        <v>807</v>
-      </c>
-      <c r="B35" s="73" t="s">
-        <v>808</v>
-      </c>
-      <c r="C35" s="72" t="s">
-        <v>806</v>
-      </c>
-      <c r="D35" s="74" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="49"/>
-      <c r="B36" s="73"/>
-      <c r="C36" s="72"/>
-      <c r="D36" s="74"/>
-    </row>
-    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="49"/>
-      <c r="B37" s="73"/>
-      <c r="C37" s="72"/>
-      <c r="D37" s="74"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="A2:D34" xr:uid="{3AD7119C-AB1E-42C6-82BD-E82DCC155A98}"/>
-  <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" xr:uid="{6C67FDCE-D971-4F5C-B64B-47B6666D9049}"/>
-    <hyperlink ref="D4" r:id="rId2" xr:uid="{1BACC87A-D4F0-49F9-BD4B-65E06378AE87}"/>
-    <hyperlink ref="D5" r:id="rId3" xr:uid="{B47F0F46-5466-4E7E-B34B-BC467715F84C}"/>
-    <hyperlink ref="D6" r:id="rId4" xr:uid="{58DE5AD8-BB30-4ADC-B002-ADEF91ECF8DD}"/>
-    <hyperlink ref="D7" r:id="rId5" xr:uid="{7C77A642-A9A7-4A6E-B867-F38928F0E1F7}"/>
-    <hyperlink ref="D8" r:id="rId6" xr:uid="{1089C2BD-F67F-4A8A-A973-0BB03F60D25B}"/>
-    <hyperlink ref="D14" r:id="rId7" xr:uid="{8E4BAD9C-5551-4B0F-A4F8-BA81AB6CDBED}"/>
-    <hyperlink ref="D15" r:id="rId8" xr:uid="{5A6C147B-418F-49F4-95BE-94C2DC552BF6}"/>
-    <hyperlink ref="D13" r:id="rId9" xr:uid="{6B57B673-4AC0-45B8-9620-241D93A277F6}"/>
-    <hyperlink ref="D16" r:id="rId10" xr:uid="{0463B492-4C86-42E1-A5E7-F113FF683A7A}"/>
-    <hyperlink ref="D17" r:id="rId11" xr:uid="{622C8B4A-31BC-4AFF-AAF6-80F0A89D98F4}"/>
-    <hyperlink ref="D21" r:id="rId12" xr:uid="{BD384C24-09A6-4888-AA96-D06EC88D667C}"/>
-    <hyperlink ref="D20" r:id="rId13" xr:uid="{BF44C158-5369-4101-A798-DCDB3EBA29E8}"/>
-    <hyperlink ref="D19" r:id="rId14" xr:uid="{982E9FDB-A603-4D75-AF4E-24CD0D1F7E3B}"/>
-    <hyperlink ref="D18" r:id="rId15" xr:uid="{14A292DA-A770-4A76-A0D4-B5C2EE102E17}"/>
-    <hyperlink ref="D22" r:id="rId16" xr:uid="{8F6FC34C-2BDC-4091-AC13-9A2DBE86CF16}"/>
-    <hyperlink ref="D23" r:id="rId17" xr:uid="{FF866A74-A4A8-41C5-B152-106FB5FEC8CB}"/>
-    <hyperlink ref="D24" r:id="rId18" xr:uid="{8FCD9805-A9D5-4734-A7AC-E974F3E2FD83}"/>
-    <hyperlink ref="D25" r:id="rId19" xr:uid="{BD371AC5-47F8-493B-A2B6-7AF0725CF9C4}"/>
-    <hyperlink ref="D26" r:id="rId20" xr:uid="{1AC81F9D-5B95-4103-8F99-1FCE70A93AAE}"/>
-    <hyperlink ref="D27" r:id="rId21" xr:uid="{36EE8B0E-2D99-4FB1-89A7-58043B7E02D5}"/>
-    <hyperlink ref="D28" r:id="rId22" xr:uid="{F9A16C46-4EA7-4C32-8FFC-1D8F2B76B67B}"/>
-    <hyperlink ref="D29" r:id="rId23" xr:uid="{11A1FB65-AA1D-455E-8298-B76DC45D2023}"/>
-    <hyperlink ref="D30" r:id="rId24" xr:uid="{B7F041B8-E7E7-41E1-953B-919ED7041F4C}"/>
-    <hyperlink ref="D31" r:id="rId25" xr:uid="{4F3FE31D-AD52-4C12-B253-AF457E067B46}"/>
-    <hyperlink ref="D32" r:id="rId26" xr:uid="{C341CAE3-7612-42BD-A5B0-7E59C5A71315}"/>
-    <hyperlink ref="D34" r:id="rId27" xr:uid="{E4C75F24-6840-4CD2-81EC-0CBDE5F4C04E}"/>
-    <hyperlink ref="D33" r:id="rId28" xr:uid="{F02FC759-850F-4D30-860D-E8415F7E1237}"/>
-    <hyperlink ref="D35" r:id="rId29" xr:uid="{416BB23E-E8D9-40DD-8771-B96DE50F5304}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/cheat_sheet.xlsx
+++ b/cheat_sheet.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE57912-B680-4083-B1DD-7BA1F1565A4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A43C71EF-6C8B-4E3D-80C6-2522AEF47D25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1230" yWindow="975" windowWidth="27330" windowHeight="12480" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="986">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="1040">
   <si>
     <t>HTML</t>
   </si>
@@ -3396,6 +3398,200 @@
 const target_class = document.querySelectorAll(".input_container");
 const target_pseudo_class = document.querySelectorAll("li:nth-child(even)");
 const target_attribute = document.querySelectorAll("[method=POST]");</t>
+  </si>
+  <si>
+    <t>change an objects text content</t>
+  </si>
+  <si>
+    <t>The textContent property of the Node interface represents the text content of the node and its descendants.</t>
+  </si>
+  <si>
+    <t>const label = document.querySelectorAll("label")[0];
+label.textContent = "This will change the objects text content property";</t>
+  </si>
+  <si>
+    <t>change the inner html of an element</t>
+  </si>
+  <si>
+    <t xml:space="preserve">const div = document.querySelectorAll(".input_container")[0];
+div.innerHTML = "&lt;div&gt; input &lt;/div&gt;";
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Element property innerHTML gets or sets the HTML or XML markup contained within the element.
+</t>
+  </si>
+  <si>
+    <t>change an elements attribute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">const input = document.querySelectorAll("input")[0];
+input.className = "text_input";
+</t>
+  </si>
+  <si>
+    <t>change an elements style</t>
+  </si>
+  <si>
+    <t>The HTMLElement.style property is used to get as well as set the inline style of an element. When getting, it returns a CSSStyleDeclaration object that contains a list of all styles properties for that element with values assigned for the attributes that are defined in the element's inline style attribute.</t>
+  </si>
+  <si>
+    <t>adding a child element</t>
+  </si>
+  <si>
+    <t>The Node.appendChild() method adds a node to the end of the list of children of a specified parent node. If the given child is a reference to an existing node in the document, appendChild() moves it from its current position to the new position (there is no requirement to remove the node from its parent node before appending it to some other node).</t>
+  </si>
+  <si>
+    <t>Creating a new Element</t>
+  </si>
+  <si>
+    <t>var new_input = document.createElement("p");</t>
+  </si>
+  <si>
+    <t>In an HTML document, the document.createElement() method creates the HTML element specified by tagName, or an HTMLUnknownElement if tagName isn't recognized.</t>
+  </si>
+  <si>
+    <t>const input = document.querySelectorAll("input")[0];
+input.style.backgroundColor = "blue";</t>
+  </si>
+  <si>
+    <t>div.appendChild(new_input);</t>
+  </si>
+  <si>
+    <t>Removing a child element</t>
+  </si>
+  <si>
+    <t>const input_selector = document.querySelector("input:last-child")
+div.removeChild(input_selector);</t>
+  </si>
+  <si>
+    <t>The Node.removeChild() method removes a child node from the DOM and returns the removed node.</t>
+  </si>
+  <si>
+    <t>window.setTimeout( (something) =&gt; {
+console.log(something)} , 3000, "hello jess");</t>
+  </si>
+  <si>
+    <t>timeout delay</t>
+  </si>
+  <si>
+    <t>The setTimeout() method of the WindowOrWorkerGlobalScope mixin (and successor to Window.setTimeout()) sets a timer which executes a function or specified piece of code once the timer expires.</t>
+  </si>
+  <si>
+    <t>Event Listeners</t>
+  </si>
+  <si>
+    <t>const target_input = document.querySelectorAll("input")[0];
+const target_label = document.querySelectorAll("label")[0];
+target_input.addEventListener("click", () =&gt; {
+  target_label.style.backgroundColor = "white";
+});
+target_input.addEventListener("blur", () =&gt; {
+  target_label.style.backgroundColor = "";
+});</t>
+  </si>
+  <si>
+    <t>The EventTarget method addEventListener() sets up a function that will be called whenever the specified event is delivered to the target. Common targets are Element, Document, and Window, but the target may be any object that supports events (such as XMLHttpRequest).</t>
+  </si>
+  <si>
+    <t>const target_input = document.querySelectorAll("input")[0];
+target_input.addEventListener("click", () =&gt; {
+  let input = event.target;
+  input.style.backgroundColor = "white";
+});</t>
+  </si>
+  <si>
+    <t>Event target property</t>
+  </si>
+  <si>
+    <t>The target property of the Event interface is a reference to the object that dispatched the event. It is different from Event.currentTarget when the event handler is called during the bubbling or capturing phase of the event.</t>
+  </si>
+  <si>
+    <t>let section = document.getElementsByTagName('section')[0];
+section.addEventListener('click', () =&gt; {
+  if (event.target.tagName = "INPUT") {
+  event.target.style.backgroundColor = 'rgb(255, 255, 0)';}
+});</t>
+  </si>
+  <si>
+    <t>The tagName read-only property of the Element interface returns the tag name of the element on which it's called. For example, if the element is an &lt;img&gt;, its tagName property is "IMG" (for HTML documents; it may be cased differently for XML/XHTML documents).</t>
+  </si>
+  <si>
+    <t>Tag name property</t>
+  </si>
+  <si>
+    <t>const target_input = document.querySelectorAll("input")[0];
+const target_label = document.querySelectorAll("label")[0];
+const div = target_input.parentNode.parentNode ;
+div.addEventListener( "click" , () =&gt; {
+  let target = event.target;
+  if ( target.tagName === "INPUT" ) {
+    div.removeChild(target_label);
+  }
+})</t>
+  </si>
+  <si>
+    <t>The Node.parentNode read-only property returns the parent of the specified node in the DOM tree.</t>
+  </si>
+  <si>
+    <t>Parent Node Property</t>
+  </si>
+  <si>
+    <t>Previous Element Sibling Property</t>
+  </si>
+  <si>
+    <t>The NonDocumentTypeChildNode.previousElementSibling read-only property returns the Element immediately prior to the specified one in its parent's children list, or null if the specified element is the first one in the list.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click Here </t>
+  </si>
+  <si>
+    <t>The Node.insertBefore() method inserts a node before the reference node as a child of a specified parent node. If the given child is a reference to an existing node in the document, insertBefore() moves it from its current position to the new position (there is no requirement to remove the node from its parent node before appending it to some other node).</t>
+  </si>
+  <si>
+    <t>Inserting a Node before an element</t>
+  </si>
+  <si>
+    <t>var insertedNode = parentNode.insertBefore(newNode, referenceNode);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prevNode = elementNodeReference.previousElementSibling; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">var nextNode = elementNodeReference.nextElementSibling; </t>
+  </si>
+  <si>
+    <t>Next Element Sibling Property</t>
+  </si>
+  <si>
+    <t>The NonDocumentTypeChildNode.nextElementSibling read-only property returns the element immediately following the specified one in its parent's children list, or null if the specified element is the last one in the list.</t>
+  </si>
+  <si>
+    <t>var children = node.children;</t>
+  </si>
+  <si>
+    <t>Element Children Property</t>
+  </si>
+  <si>
+    <t>The ParentNode property children is a read-only property that returns a live HTMLCollection which contains all of the child elements of the node upon which it was called.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First Element Child Property </t>
+  </si>
+  <si>
+    <t>Last Element Child Property</t>
+  </si>
+  <si>
+    <t>The ParentNode.firstElementChild read-only property returns the object's first child Element, or null if there are no child elements.</t>
+  </si>
+  <si>
+    <t>var element = node.firstElementChild;</t>
+  </si>
+  <si>
+    <t>The ParentNode.lastElementChild read-only property returns the object's last child Element or null if there are no child elements.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">var element - node.lastElementChild; </t>
   </si>
 </sst>
 </file>
@@ -3808,7 +4004,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4096,9 +4292,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4388,24 +4581,24 @@
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="43.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.33203125" style="1"/>
+    <col min="9" max="9" width="43.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="80" t="s">
         <v>0</v>
       </c>
@@ -4425,7 +4618,7 @@
       <c r="K1" s="80"/>
       <c r="L1" s="80"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -4463,7 +4656,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -4501,7 +4694,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -4539,7 +4732,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -4577,7 +4770,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
@@ -4609,7 +4802,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
@@ -4635,7 +4828,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -4661,7 +4854,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>568</v>
       </c>
@@ -4681,7 +4874,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I10" s="1" t="s">
         <v>40</v>
       </c>
@@ -4695,7 +4888,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I11" s="1" t="s">
         <v>42</v>
       </c>
@@ -4709,7 +4902,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I12" s="1" t="s">
         <v>548</v>
       </c>
@@ -4753,15 +4946,15 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.88671875" customWidth="1"/>
+    <col min="1" max="1" width="48.85546875" customWidth="1"/>
     <col min="2" max="2" width="58" customWidth="1"/>
-    <col min="3" max="3" width="110.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="110.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="44" t="s">
         <v>1</v>
       </c>
@@ -4775,7 +4968,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="49" t="s">
         <v>721</v>
       </c>
@@ -4789,7 +4982,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="49" t="s">
         <v>722</v>
       </c>
@@ -4803,7 +4996,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="49" t="s">
         <v>723</v>
       </c>
@@ -4817,7 +5010,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A6" s="49" t="s">
         <v>727</v>
       </c>
@@ -4831,7 +5024,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="49" t="s">
         <v>728</v>
       </c>
@@ -4845,7 +5038,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" s="49" t="s">
         <v>737</v>
       </c>
@@ -4857,7 +5050,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" s="49" t="s">
         <v>738</v>
       </c>
@@ -4867,7 +5060,7 @@
       <c r="C9" s="72"/>
       <c r="D9" s="52"/>
     </row>
-    <row r="10" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A10" s="49" t="s">
         <v>741</v>
       </c>
@@ -4877,7 +5070,7 @@
       <c r="C10" s="72"/>
       <c r="D10" s="52"/>
     </row>
-    <row r="11" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A11" s="49" t="s">
         <v>742</v>
       </c>
@@ -4887,7 +5080,7 @@
       <c r="C11" s="72"/>
       <c r="D11" s="52"/>
     </row>
-    <row r="12" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A12" s="49" t="s">
         <v>761</v>
       </c>
@@ -4897,7 +5090,7 @@
       <c r="C12" s="72"/>
       <c r="D12" s="52"/>
     </row>
-    <row r="13" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A13" s="49" t="s">
         <v>747</v>
       </c>
@@ -4911,7 +5104,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A14" s="49" t="s">
         <v>748</v>
       </c>
@@ -4925,7 +5118,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A15" s="49" t="s">
         <v>749</v>
       </c>
@@ -4939,7 +5132,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A16" s="49" t="s">
         <v>755</v>
       </c>
@@ -4953,7 +5146,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A17" s="49" t="s">
         <v>756</v>
       </c>
@@ -4967,7 +5160,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A18" s="49" t="s">
         <v>769</v>
       </c>
@@ -4981,7 +5174,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A19" s="49" t="s">
         <v>772</v>
       </c>
@@ -4995,7 +5188,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A20" s="49" t="s">
         <v>762</v>
       </c>
@@ -5009,7 +5202,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A21" s="49" t="s">
         <v>765</v>
       </c>
@@ -5023,7 +5216,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" s="49" t="s">
         <v>729</v>
       </c>
@@ -5037,7 +5230,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A23" s="49" t="s">
         <v>730</v>
       </c>
@@ -5051,7 +5244,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A24" s="49" t="s">
         <v>731</v>
       </c>
@@ -5065,7 +5258,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="49" t="s">
         <v>735</v>
       </c>
@@ -5079,7 +5272,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A26" s="49" t="s">
         <v>779</v>
       </c>
@@ -5093,7 +5286,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A27" s="49" t="s">
         <v>782</v>
       </c>
@@ -5107,7 +5300,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A28" s="49" t="s">
         <v>786</v>
       </c>
@@ -5121,7 +5314,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A29" s="49" t="s">
         <v>789</v>
       </c>
@@ -5135,7 +5328,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A30" s="49" t="s">
         <v>792</v>
       </c>
@@ -5149,7 +5342,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A31" s="49" t="s">
         <v>794</v>
       </c>
@@ -5163,7 +5356,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A32" s="49" t="s">
         <v>797</v>
       </c>
@@ -5177,7 +5370,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A33" s="49" t="s">
         <v>800</v>
       </c>
@@ -5191,7 +5384,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A34" s="49" t="s">
         <v>801</v>
       </c>
@@ -5205,7 +5398,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A35" s="49" t="s">
         <v>807</v>
       </c>
@@ -5219,13 +5412,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="49"/>
       <c r="B36" s="73"/>
       <c r="C36" s="72"/>
       <c r="D36" s="74"/>
     </row>
-    <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="49"/>
       <c r="B37" s="73"/>
       <c r="C37" s="72"/>
@@ -5276,15 +5469,15 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.88671875" customWidth="1"/>
+    <col min="1" max="1" width="48.85546875" customWidth="1"/>
     <col min="2" max="2" width="58" customWidth="1"/>
-    <col min="3" max="3" width="110.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="110.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="44" t="s">
         <v>1</v>
       </c>
@@ -5298,7 +5491,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A3" s="49" t="s">
         <v>811</v>
       </c>
@@ -5312,7 +5505,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" s="49" t="s">
         <v>815</v>
       </c>
@@ -5326,7 +5519,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="49" t="s">
         <v>816</v>
       </c>
@@ -5338,7 +5531,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="78" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A6" s="49" t="s">
         <v>819</v>
       </c>
@@ -5352,7 +5545,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A7" s="49" t="s">
         <v>824</v>
       </c>
@@ -5366,7 +5559,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A8" s="49" t="s">
         <v>825</v>
       </c>
@@ -5380,7 +5573,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" s="49" t="s">
         <v>827</v>
       </c>
@@ -5394,7 +5587,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A10" s="49" t="s">
         <v>830</v>
       </c>
@@ -5408,7 +5601,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A11" s="49" t="s">
         <v>833</v>
       </c>
@@ -5422,7 +5615,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A12" s="49" t="s">
         <v>837</v>
       </c>
@@ -5436,7 +5629,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A13" s="49" t="s">
         <v>842</v>
       </c>
@@ -5450,7 +5643,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A14" s="49" t="s">
         <v>843</v>
       </c>
@@ -5464,7 +5657,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A15" s="49" t="s">
         <v>862</v>
       </c>
@@ -5478,7 +5671,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="49" t="s">
         <v>846</v>
       </c>
@@ -5488,7 +5681,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A17" s="49" t="s">
         <v>847</v>
       </c>
@@ -5502,7 +5695,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A18" s="49" t="s">
         <v>850</v>
       </c>
@@ -5516,7 +5709,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A19" s="49" t="s">
         <v>852</v>
       </c>
@@ -5530,7 +5723,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A20" s="49" t="s">
         <v>856</v>
       </c>
@@ -5544,7 +5737,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A21" s="49" t="s">
         <v>859</v>
       </c>
@@ -5592,15 +5785,15 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.88671875" customWidth="1"/>
+    <col min="1" max="1" width="48.85546875" customWidth="1"/>
     <col min="2" max="2" width="58" customWidth="1"/>
-    <col min="3" max="3" width="110.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="110.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="44" t="s">
         <v>1</v>
       </c>
@@ -5614,7 +5807,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="49" t="s">
         <v>865</v>
       </c>
@@ -5624,7 +5817,7 @@
       <c r="C3" s="72"/>
       <c r="D3" s="52"/>
     </row>
-    <row r="4" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" s="49" t="s">
         <v>867</v>
       </c>
@@ -5638,7 +5831,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="124.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="126" x14ac:dyDescent="0.25">
       <c r="A5" s="49" t="s">
         <v>870</v>
       </c>
@@ -5652,7 +5845,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="189" x14ac:dyDescent="0.25">
       <c r="A6" s="49" t="s">
         <v>872</v>
       </c>
@@ -5666,7 +5859,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="156" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A7" s="49" t="s">
         <v>877</v>
       </c>
@@ -5680,7 +5873,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="234" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="236.25" x14ac:dyDescent="0.25">
       <c r="A8" s="49" t="s">
         <v>880</v>
       </c>
@@ -5694,7 +5887,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A9" s="49" t="s">
         <v>878</v>
       </c>
@@ -5708,7 +5901,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A10" s="49" t="s">
         <v>881</v>
       </c>
@@ -5722,7 +5915,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A11" s="49" t="s">
         <v>888</v>
       </c>
@@ -5736,7 +5929,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="171.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="173.25" x14ac:dyDescent="0.25">
       <c r="A12" s="49" t="s">
         <v>891</v>
       </c>
@@ -5750,7 +5943,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="78" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A13" s="49" t="s">
         <v>894</v>
       </c>
@@ -5760,7 +5953,7 @@
       <c r="C13" s="72"/>
       <c r="D13" s="74"/>
     </row>
-    <row r="14" spans="1:4" ht="202.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A14" s="49" t="s">
         <v>896</v>
       </c>
@@ -5774,7 +5967,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="296.39999999999998" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="299.25" x14ac:dyDescent="0.25">
       <c r="A15" s="49" t="s">
         <v>899</v>
       </c>
@@ -5788,7 +5981,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="49" t="s">
         <v>902</v>
       </c>
@@ -5798,7 +5991,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="234" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="236.25" x14ac:dyDescent="0.25">
       <c r="A17" s="49" t="s">
         <v>904</v>
       </c>
@@ -5812,7 +6005,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="296.39999999999998" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="299.25" x14ac:dyDescent="0.25">
       <c r="A18" s="49" t="s">
         <v>906</v>
       </c>
@@ -5826,7 +6019,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="78" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A19" s="49" t="s">
         <v>909</v>
       </c>
@@ -5840,7 +6033,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A20" s="49" t="s">
         <v>912</v>
       </c>
@@ -5852,7 +6045,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="140.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A21" s="49" t="s">
         <v>914</v>
       </c>
@@ -5866,7 +6059,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="202.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A22" s="49" t="s">
         <v>918</v>
       </c>
@@ -5914,15 +6107,15 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38" customWidth="1"/>
-    <col min="3" max="3" width="125.44140625" customWidth="1"/>
-    <col min="4" max="4" width="48.6640625" customWidth="1"/>
+    <col min="3" max="3" width="125.42578125" customWidth="1"/>
+    <col min="4" max="4" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>920</v>
       </c>
@@ -5936,7 +6129,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>924</v>
       </c>
@@ -5950,7 +6143,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>928</v>
       </c>
@@ -5961,61 +6154,61 @@
         <v>930</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C5" s="16"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C6" s="16"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C7" s="16"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C8" s="16"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C9" s="16"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C10" s="16"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C11" s="16"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C12" s="16"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C13" s="16"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C14" s="16"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C15" s="16"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C16" s="16"/>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="16"/>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" s="16"/>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" s="16"/>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" s="16"/>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" s="16"/>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22" s="16"/>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C23" s="16"/>
     </row>
   </sheetData>
@@ -6031,21 +6224,21 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="61.5546875" customWidth="1"/>
-    <col min="2" max="2" width="64.88671875" customWidth="1"/>
-    <col min="3" max="3" width="110.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="61.5703125" customWidth="1"/>
+    <col min="2" max="2" width="64.85546875" customWidth="1"/>
+    <col min="3" max="3" width="110.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="81" t="s">
         <v>512</v>
       </c>
       <c r="B1" s="81"/>
       <c r="C1" s="81"/>
     </row>
-    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -6056,7 +6249,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>513</v>
       </c>
@@ -6067,7 +6260,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>29</v>
       </c>
@@ -6076,7 +6269,7 @@
       </c>
       <c r="C4" s="19"/>
     </row>
-    <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>517</v>
       </c>
@@ -6087,7 +6280,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>520</v>
       </c>
@@ -6096,7 +6289,7 @@
       </c>
       <c r="C6" s="19"/>
     </row>
-    <row r="7" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>522</v>
       </c>
@@ -6107,7 +6300,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>525</v>
       </c>
@@ -6116,7 +6309,7 @@
       </c>
       <c r="C8" s="19"/>
     </row>
-    <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>527</v>
       </c>
@@ -6125,7 +6318,7 @@
       </c>
       <c r="C9" s="19"/>
     </row>
-    <row r="10" spans="1:3" ht="108" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="131.25" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>529</v>
       </c>
@@ -6136,7 +6329,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>532</v>
       </c>
@@ -6147,7 +6340,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>535</v>
       </c>
@@ -6156,7 +6349,7 @@
       </c>
       <c r="C12" s="19"/>
     </row>
-    <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>537</v>
       </c>
@@ -6165,7 +6358,7 @@
       </c>
       <c r="C13" s="19"/>
     </row>
-    <row r="14" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>539</v>
       </c>
@@ -6174,7 +6367,7 @@
       </c>
       <c r="C14" s="19"/>
     </row>
-    <row r="15" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>541</v>
       </c>
@@ -6183,7 +6376,7 @@
       </c>
       <c r="C15" s="19"/>
     </row>
-    <row r="16" spans="1:3" ht="36" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>543</v>
       </c>
@@ -6194,7 +6387,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="162" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="168.75" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
         <v>546</v>
       </c>
@@ -6205,7 +6398,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>550</v>
       </c>
@@ -6214,7 +6407,7 @@
       </c>
       <c r="C18" s="19"/>
     </row>
-    <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
         <v>553</v>
       </c>
@@ -6223,7 +6416,7 @@
       </c>
       <c r="C19" s="19"/>
     </row>
-    <row r="20" spans="1:3" ht="36" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
         <v>555</v>
       </c>
@@ -6234,7 +6427,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="108" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
         <v>558</v>
       </c>
@@ -6245,7 +6438,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
         <v>559</v>
       </c>
@@ -6256,7 +6449,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="162" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="168.75" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
         <v>564</v>
       </c>
@@ -6283,16 +6476,16 @@
       <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" style="10" customWidth="1"/>
-    <col min="2" max="2" width="73.33203125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="110.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.28515625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="110.5703125" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="7" customWidth="1"/>
-    <col min="5" max="16384" width="9.33203125" style="5"/>
+    <col min="5" max="16384" width="9.28515625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="82" t="s">
         <v>0</v>
       </c>
@@ -6300,7 +6493,7 @@
       <c r="C1" s="82"/>
       <c r="D1" s="82"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="44" t="s">
         <v>1</v>
       </c>
@@ -6314,7 +6507,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="45" t="s">
         <v>44</v>
       </c>
@@ -6328,7 +6521,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="45" t="s">
         <v>44</v>
       </c>
@@ -6342,7 +6535,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="45" t="s">
         <v>48</v>
       </c>
@@ -6356,7 +6549,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="45" t="s">
         <v>50</v>
       </c>
@@ -6370,7 +6563,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="45" t="s">
         <v>52</v>
       </c>
@@ -6384,7 +6577,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="45" t="s">
         <v>54</v>
       </c>
@@ -6398,7 +6591,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="45" t="s">
         <v>57</v>
       </c>
@@ -6412,7 +6605,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="45" t="s">
         <v>60</v>
       </c>
@@ -6426,7 +6619,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A11" s="45" t="s">
         <v>63</v>
       </c>
@@ -6440,7 +6633,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="45" t="s">
         <v>78</v>
       </c>
@@ -6454,7 +6647,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="45" t="s">
         <v>139</v>
       </c>
@@ -6468,7 +6661,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="45" t="s">
         <v>69</v>
       </c>
@@ -6482,7 +6675,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="45" t="s">
         <v>72</v>
       </c>
@@ -6496,7 +6689,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" s="45" t="s">
         <v>75</v>
       </c>
@@ -6510,7 +6703,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A17" s="49" t="s">
         <v>493</v>
       </c>
@@ -6524,7 +6717,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A18" s="49" t="s">
         <v>494</v>
       </c>
@@ -6538,7 +6731,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A19" s="49" t="s">
         <v>495</v>
       </c>
@@ -6552,7 +6745,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A20" s="45" t="s">
         <v>81</v>
       </c>
@@ -6566,7 +6759,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A21" s="45" t="s">
         <v>84</v>
       </c>
@@ -6580,7 +6773,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" s="45" t="s">
         <v>87</v>
       </c>
@@ -6594,7 +6787,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A23" s="45" t="s">
         <v>90</v>
       </c>
@@ -6608,7 +6801,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A24" s="45" t="s">
         <v>91</v>
       </c>
@@ -6622,7 +6815,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A25" s="45" t="s">
         <v>92</v>
       </c>
@@ -6636,7 +6829,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A26" s="45" t="s">
         <v>99</v>
       </c>
@@ -6650,7 +6843,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A27" s="45" t="s">
         <v>102</v>
       </c>
@@ -6664,7 +6857,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A28" s="45" t="s">
         <v>502</v>
       </c>
@@ -6678,7 +6871,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A29" s="45" t="s">
         <v>105</v>
       </c>
@@ -6692,7 +6885,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A30" s="45" t="s">
         <v>108</v>
       </c>
@@ -6706,7 +6899,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A31" s="45" t="s">
         <v>111</v>
       </c>
@@ -6720,7 +6913,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A32" s="45" t="s">
         <v>113</v>
       </c>
@@ -6734,7 +6927,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A33" s="45" t="s">
         <v>20</v>
       </c>
@@ -6748,7 +6941,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A34" s="45" t="s">
         <v>506</v>
       </c>
@@ -6762,7 +6955,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A35" s="45" t="s">
         <v>509</v>
       </c>
@@ -6776,7 +6969,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A36" s="45" t="s">
         <v>117</v>
       </c>
@@ -6790,7 +6983,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A37" s="45" t="s">
         <v>118</v>
       </c>
@@ -6804,7 +6997,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A38" s="45" t="s">
         <v>121</v>
       </c>
@@ -6818,7 +7011,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A39" s="45" t="s">
         <v>123</v>
       </c>
@@ -6832,7 +7025,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A40" s="45" t="s">
         <v>128</v>
       </c>
@@ -6846,7 +7039,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="87" t="s">
         <v>131</v>
       </c>
@@ -6860,7 +7053,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="88"/>
       <c r="B42" s="86"/>
       <c r="C42" s="84"/>
@@ -6868,7 +7061,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A43" s="45" t="s">
         <v>133</v>
       </c>
@@ -6882,7 +7075,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A44" s="45" t="s">
         <v>569</v>
       </c>
@@ -6896,7 +7089,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="45" t="s">
         <v>136</v>
       </c>
@@ -6910,7 +7103,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A46" s="45" t="s">
         <v>138</v>
       </c>
@@ -6924,7 +7117,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="45" t="s">
         <v>142</v>
       </c>
@@ -6938,7 +7131,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="45" t="s">
         <v>3</v>
       </c>
@@ -6952,7 +7145,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A49" s="53" t="s">
         <v>297</v>
       </c>
@@ -6966,7 +7159,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A50" s="49" t="s">
         <v>366</v>
       </c>
@@ -6980,7 +7173,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A51" s="49" t="s">
         <v>369</v>
       </c>
@@ -6994,7 +7187,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A52" s="49" t="s">
         <v>372</v>
       </c>
@@ -7008,7 +7201,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A53" s="49" t="s">
         <v>376</v>
       </c>
@@ -7022,7 +7215,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A54" s="49" t="s">
         <v>379</v>
       </c>
@@ -7036,7 +7229,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A55" s="49" t="s">
         <v>382</v>
       </c>
@@ -7050,7 +7243,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A56" s="49" t="s">
         <v>383</v>
       </c>
@@ -7064,7 +7257,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A57" s="49" t="s">
         <v>390</v>
       </c>
@@ -7078,7 +7271,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A58" s="49" t="s">
         <v>391</v>
       </c>
@@ -7092,7 +7285,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A59" s="49" t="s">
         <v>392</v>
       </c>
@@ -7106,7 +7299,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A60" s="49" t="s">
         <v>396</v>
       </c>
@@ -7120,7 +7313,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A61" s="49" t="s">
         <v>397</v>
       </c>
@@ -7134,7 +7327,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A62" s="57" t="s">
         <v>400</v>
       </c>
@@ -7146,7 +7339,7 @@
       </c>
       <c r="D62" s="58"/>
     </row>
-    <row r="63" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
         <v>680</v>
       </c>
@@ -7160,7 +7353,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
         <v>681</v>
       </c>
@@ -7174,7 +7367,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
         <v>682</v>
       </c>
@@ -7188,7 +7381,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
         <v>692</v>
       </c>
@@ -7202,7 +7395,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
         <v>696</v>
       </c>
@@ -7216,7 +7409,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
         <v>699</v>
       </c>
@@ -7227,7 +7420,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
         <v>700</v>
       </c>
@@ -7238,7 +7431,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A70" s="10" t="s">
         <v>705</v>
       </c>
@@ -7252,7 +7445,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
         <v>706</v>
       </c>
@@ -7266,7 +7459,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
         <v>707</v>
       </c>
@@ -7280,7 +7473,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
         <v>708</v>
       </c>
@@ -7374,16 +7567,16 @@
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.33203125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="32.28515625" style="7" customWidth="1"/>
     <col min="2" max="2" width="75" style="13" customWidth="1"/>
-    <col min="3" max="3" width="110.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="110.5703125" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="7" customWidth="1"/>
-    <col min="5" max="16384" width="9.33203125" style="5"/>
+    <col min="5" max="16384" width="9.28515625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="82" t="s">
         <v>4</v>
       </c>
@@ -7391,7 +7584,7 @@
       <c r="C1" s="82"/>
       <c r="D1" s="82"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="44" t="s">
         <v>1</v>
       </c>
@@ -7405,7 +7598,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="53" t="s">
         <v>5</v>
       </c>
@@ -7419,7 +7612,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
@@ -7433,7 +7626,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="63" t="s">
         <v>8</v>
       </c>
@@ -7447,7 +7640,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="63" t="s">
         <v>147</v>
       </c>
@@ -7461,7 +7654,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="63" t="s">
         <v>150</v>
       </c>
@@ -7475,7 +7668,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="63" t="s">
         <v>154</v>
       </c>
@@ -7489,7 +7682,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="63" t="s">
         <v>156</v>
       </c>
@@ -7503,7 +7696,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A10" s="63" t="s">
         <v>159</v>
       </c>
@@ -7517,7 +7710,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="63" t="s">
         <v>240</v>
       </c>
@@ -7531,7 +7724,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="63" t="s">
         <v>162</v>
       </c>
@@ -7545,7 +7738,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="63" t="s">
         <v>165</v>
       </c>
@@ -7559,7 +7752,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="63" t="s">
         <v>168</v>
       </c>
@@ -7573,7 +7766,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="63" t="s">
         <v>170</v>
       </c>
@@ -7587,7 +7780,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" s="63" t="s">
         <v>174</v>
       </c>
@@ -7601,7 +7794,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="63" t="s">
         <v>177</v>
       </c>
@@ -7615,7 +7808,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A18" s="63" t="s">
         <v>180</v>
       </c>
@@ -7629,7 +7822,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A19" s="63" t="s">
         <v>183</v>
       </c>
@@ -7643,7 +7836,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A20" s="63" t="s">
         <v>186</v>
       </c>
@@ -7657,7 +7850,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="63" t="s">
         <v>190</v>
       </c>
@@ -7671,7 +7864,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="63" t="s">
         <v>192</v>
       </c>
@@ -7685,7 +7878,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A23" s="63" t="s">
         <v>195</v>
       </c>
@@ -7699,7 +7892,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A24" s="63" t="s">
         <v>197</v>
       </c>
@@ -7713,7 +7906,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A25" s="63" t="s">
         <v>201</v>
       </c>
@@ -7727,7 +7920,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="63" t="s">
         <v>204</v>
       </c>
@@ -7741,7 +7934,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A27" s="63" t="s">
         <v>206</v>
       </c>
@@ -7755,7 +7948,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A28" s="63" t="s">
         <v>208</v>
       </c>
@@ -7769,7 +7962,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A29" s="63" t="s">
         <v>212</v>
       </c>
@@ -7783,7 +7976,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A30" s="63" t="s">
         <v>214</v>
       </c>
@@ -7797,7 +7990,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A31" s="63" t="s">
         <v>219</v>
       </c>
@@ -7811,7 +8004,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A32" s="63" t="s">
         <v>220</v>
       </c>
@@ -7825,7 +8018,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A33" s="63" t="s">
         <v>223</v>
       </c>
@@ -7839,7 +8032,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A34" s="63" t="s">
         <v>225</v>
       </c>
@@ -7853,7 +8046,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A35" s="63" t="s">
         <v>228</v>
       </c>
@@ -7867,7 +8060,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A36" s="63" t="s">
         <v>231</v>
       </c>
@@ -7881,7 +8074,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A37" s="63" t="s">
         <v>232</v>
       </c>
@@ -7895,7 +8088,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A38" s="63" t="s">
         <v>237</v>
       </c>
@@ -7909,7 +8102,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A39" s="63" t="s">
         <v>243</v>
       </c>
@@ -7923,7 +8116,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="63" t="s">
         <v>246</v>
       </c>
@@ -7937,7 +8130,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A41" s="63" t="s">
         <v>249</v>
       </c>
@@ -7951,7 +8144,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A42" s="63" t="s">
         <v>252</v>
       </c>
@@ -7965,7 +8158,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A43" s="63" t="s">
         <v>255</v>
       </c>
@@ -7979,7 +8172,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A44" s="63" t="s">
         <v>258</v>
       </c>
@@ -7993,7 +8186,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A45" s="63" t="s">
         <v>261</v>
       </c>
@@ -8007,7 +8200,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="63" t="s">
         <v>264</v>
       </c>
@@ -8021,7 +8214,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="63" t="s">
         <v>267</v>
       </c>
@@ -8035,7 +8228,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A48" s="63" t="s">
         <v>271</v>
       </c>
@@ -8049,7 +8242,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A49" s="63" t="s">
         <v>274</v>
       </c>
@@ -8063,7 +8256,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A50" s="63" t="s">
         <v>276</v>
       </c>
@@ -8077,7 +8270,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A51" s="63" t="s">
         <v>279</v>
       </c>
@@ -8091,7 +8284,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A52" s="63" t="s">
         <v>281</v>
       </c>
@@ -8105,7 +8298,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A53" s="63" t="s">
         <v>284</v>
       </c>
@@ -8119,7 +8312,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A54" s="63" t="s">
         <v>285</v>
       </c>
@@ -8133,7 +8326,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="78" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A55" s="63" t="s">
         <v>289</v>
       </c>
@@ -8147,7 +8340,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="63" t="s">
         <v>292</v>
       </c>
@@ -8161,7 +8354,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A57" s="63" t="s">
         <v>300</v>
       </c>
@@ -8175,7 +8368,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A58" s="53" t="s">
         <v>303</v>
       </c>
@@ -8189,7 +8382,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="68" t="s">
         <v>306</v>
       </c>
@@ -8203,7 +8396,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="78" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A60" s="53" t="s">
         <v>309</v>
       </c>
@@ -8217,7 +8410,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A61" s="53" t="s">
         <v>311</v>
       </c>
@@ -8231,7 +8424,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A62" s="53" t="s">
         <v>315</v>
       </c>
@@ -8245,7 +8438,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A63" s="53" t="s">
         <v>318</v>
       </c>
@@ -8259,7 +8452,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A64" s="53" t="s">
         <v>321</v>
       </c>
@@ -8273,7 +8466,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A65" s="53" t="s">
         <v>324</v>
       </c>
@@ -8287,7 +8480,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A66" s="53" t="s">
         <v>327</v>
       </c>
@@ -8301,7 +8494,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A67" s="53" t="s">
         <v>330</v>
       </c>
@@ -8315,7 +8508,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A68" s="53" t="s">
         <v>333</v>
       </c>
@@ -8329,7 +8522,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="68" t="s">
         <v>336</v>
       </c>
@@ -8343,7 +8536,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A70" s="68" t="s">
         <v>338</v>
       </c>
@@ -8357,7 +8550,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A71" s="68" t="s">
         <v>342</v>
       </c>
@@ -8371,7 +8564,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A72" s="68" t="s">
         <v>343</v>
       </c>
@@ -8385,7 +8578,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A73" s="68" t="s">
         <v>361</v>
       </c>
@@ -8399,7 +8592,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="68" t="s">
         <v>364</v>
       </c>
@@ -8411,7 +8604,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A75" s="68" t="s">
         <v>346</v>
       </c>
@@ -8425,7 +8618,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A76" s="68" t="s">
         <v>349</v>
       </c>
@@ -8439,7 +8632,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A77" s="68" t="s">
         <v>354</v>
       </c>
@@ -8453,7 +8646,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A78" s="68" t="s">
         <v>352</v>
       </c>
@@ -8467,7 +8660,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A79" s="68" t="s">
         <v>353</v>
       </c>
@@ -8481,7 +8674,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="218.4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
         <v>677</v>
       </c>
@@ -8489,7 +8682,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C82" s="7" t="s">
         <v>679</v>
       </c>
@@ -8585,22 +8778,22 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" style="16" customWidth="1"/>
-    <col min="2" max="2" width="73.33203125" style="79" customWidth="1"/>
-    <col min="3" max="3" width="110.5546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.28515625" style="79" customWidth="1"/>
+    <col min="3" max="3" width="110.5703125" style="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="16" customWidth="1"/>
-    <col min="5" max="16384" width="9.33203125" style="16"/>
+    <col min="5" max="16384" width="9.28515625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="82" t="s">
         <v>489</v>
       </c>
@@ -8608,7 +8801,7 @@
       <c r="C1" s="82"/>
       <c r="D1" s="82"/>
     </row>
-    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="44" t="s">
         <v>1</v>
       </c>
@@ -8622,7 +8815,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="53" t="s">
         <v>403</v>
       </c>
@@ -8636,7 +8829,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="53" t="s">
         <v>967</v>
       </c>
@@ -8650,7 +8843,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="53" t="s">
         <v>968</v>
       </c>
@@ -8664,7 +8857,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="53" t="s">
         <v>406</v>
       </c>
@@ -8676,7 +8869,7 @@
       </c>
       <c r="D6" s="56"/>
     </row>
-    <row r="7" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A7" s="53" t="s">
         <v>409</v>
       </c>
@@ -8688,7 +8881,7 @@
       </c>
       <c r="D7" s="56"/>
     </row>
-    <row r="8" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" s="53" t="s">
         <v>412</v>
       </c>
@@ -8700,7 +8893,7 @@
       </c>
       <c r="D8" s="56"/>
     </row>
-    <row r="9" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" s="53" t="s">
         <v>413</v>
       </c>
@@ -8712,7 +8905,7 @@
       </c>
       <c r="D9" s="56"/>
     </row>
-    <row r="10" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A10" s="53" t="s">
         <v>418</v>
       </c>
@@ -8724,7 +8917,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A11" s="53" t="s">
         <v>419</v>
       </c>
@@ -8736,7 +8929,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="53" t="s">
         <v>422</v>
       </c>
@@ -8750,7 +8943,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A13" s="53" t="s">
         <v>425</v>
       </c>
@@ -8764,7 +8957,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A14" s="53" t="s">
         <v>428</v>
       </c>
@@ -8778,7 +8971,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A15" s="53" t="s">
         <v>431</v>
       </c>
@@ -8792,7 +8985,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A16" s="53" t="s">
         <v>434</v>
       </c>
@@ -8806,7 +8999,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A17" s="53" t="s">
         <v>437</v>
       </c>
@@ -8820,7 +9013,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A18" s="53" t="s">
         <v>440</v>
       </c>
@@ -8834,7 +9027,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A19" s="53" t="s">
         <v>443</v>
       </c>
@@ -8848,7 +9041,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A20" s="53" t="s">
         <v>445</v>
       </c>
@@ -8860,7 +9053,7 @@
       </c>
       <c r="D20" s="56"/>
     </row>
-    <row r="21" spans="1:4" ht="78" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A21" s="53" t="s">
         <v>449</v>
       </c>
@@ -8870,7 +9063,7 @@
       <c r="C21" s="67"/>
       <c r="D21" s="56"/>
     </row>
-    <row r="22" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A22" s="53" t="s">
         <v>452</v>
       </c>
@@ -8880,7 +9073,7 @@
       <c r="C22" s="67"/>
       <c r="D22" s="56"/>
     </row>
-    <row r="23" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A23" s="53" t="s">
         <v>453</v>
       </c>
@@ -8892,7 +9085,7 @@
       </c>
       <c r="D23" s="56"/>
     </row>
-    <row r="24" spans="1:4" ht="78" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A24" s="53" t="s">
         <v>461</v>
       </c>
@@ -8906,7 +9099,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A25" s="53" t="s">
         <v>462</v>
       </c>
@@ -8920,7 +9113,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A26" s="53" t="s">
         <v>463</v>
       </c>
@@ -8934,7 +9127,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="78" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A27" s="53" t="s">
         <v>466</v>
       </c>
@@ -8948,7 +9141,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A28" s="53" t="s">
         <v>469</v>
       </c>
@@ -8962,7 +9155,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A29" s="53" t="s">
         <v>471</v>
       </c>
@@ -8974,7 +9167,7 @@
       </c>
       <c r="D29" s="56"/>
     </row>
-    <row r="30" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A30" s="53" t="s">
         <v>474</v>
       </c>
@@ -8988,7 +9181,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A31" s="53" t="s">
         <v>476</v>
       </c>
@@ -9002,7 +9195,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A32" s="53" t="s">
         <v>480</v>
       </c>
@@ -9016,7 +9209,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A33" s="53" t="s">
         <v>481</v>
       </c>
@@ -9030,7 +9223,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="78" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>951</v>
       </c>
@@ -9044,7 +9237,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>956</v>
       </c>
@@ -9058,7 +9251,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>954</v>
       </c>
@@ -9072,7 +9265,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>960</v>
       </c>
@@ -9084,7 +9277,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="156" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>962</v>
       </c>
@@ -9094,7 +9287,7 @@
       <c r="C38" s="14"/>
       <c r="D38" s="11"/>
     </row>
-    <row r="39" spans="1:4" ht="202.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>964</v>
       </c>
@@ -9108,7 +9301,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>973</v>
       </c>
@@ -9122,7 +9315,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="78" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
         <v>976</v>
       </c>
@@ -9136,7 +9329,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
         <v>979</v>
       </c>
@@ -9150,25 +9343,275 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A43" s="16" t="s">
+    <row r="43" spans="1:4" ht="126" x14ac:dyDescent="0.25">
+      <c r="A43" s="8" t="s">
         <v>982</v>
       </c>
-      <c r="B43" s="79" t="s">
+      <c r="B43" s="78" t="s">
         <v>985</v>
       </c>
-      <c r="C43" s="16" t="s">
+      <c r="C43" s="14" t="s">
         <v>984</v>
       </c>
-      <c r="D43" s="98" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C44" s="16" t="s">
+      <c r="D43" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="8"/>
+      <c r="B44" s="78"/>
+      <c r="C44" s="14" t="s">
         <v>983</v>
       </c>
-      <c r="D44" s="98" t="s">
+      <c r="D44" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A45" s="8" t="s">
+        <v>986</v>
+      </c>
+      <c r="B45" s="78" t="s">
+        <v>988</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>987</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A46" s="8" t="s">
+        <v>989</v>
+      </c>
+      <c r="B46" s="78" t="s">
+        <v>990</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>991</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A47" s="8" t="s">
+        <v>992</v>
+      </c>
+      <c r="B47" s="78" t="s">
+        <v>993</v>
+      </c>
+      <c r="C47" s="14"/>
+      <c r="D47" s="11"/>
+    </row>
+    <row r="48" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A48" s="8" t="s">
+        <v>994</v>
+      </c>
+      <c r="B48" s="78" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>995</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A49" s="8" t="s">
+        <v>998</v>
+      </c>
+      <c r="B49" s="78" t="s">
+        <v>999</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A50" s="8" t="s">
+        <v>996</v>
+      </c>
+      <c r="B50" s="78" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>997</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A51" s="8" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B51" s="78" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A52" s="8" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B52" s="78" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="8" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B53" s="78" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="8" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B54" s="78" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A55" s="8" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B55" s="78" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="A56" s="8" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B56" s="78" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C56" s="14" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A57" s="8" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B57" s="78" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A58" s="8" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B58" s="78" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A59" s="8" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B59" s="78" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A60" s="8" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B60" s="78" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A61" s="8" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B61" s="78" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C61" s="14" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A62" s="8" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B62" s="78" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C62" s="14" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D62" s="11" t="s">
         <v>6</v>
       </c>
     </row>
@@ -9209,9 +9652,26 @@
     <hyperlink ref="D42" r:id="rId30" xr:uid="{0AE246F9-7927-4B68-8398-30B66F5069F5}"/>
     <hyperlink ref="D43" r:id="rId31" xr:uid="{353E5829-4877-4CC1-9F88-1EE1F7B5C751}"/>
     <hyperlink ref="D44" r:id="rId32" xr:uid="{8A685C81-7552-4186-B9FB-7594A3DE2360}"/>
+    <hyperlink ref="D45" r:id="rId33" xr:uid="{CA67EFE3-B58E-49B7-A071-302E55C4C699}"/>
+    <hyperlink ref="D46" r:id="rId34" xr:uid="{F2163C41-DD85-487D-B47F-D7686B9D0E16}"/>
+    <hyperlink ref="D48" r:id="rId35" xr:uid="{BD0196A2-7A51-4A86-AC13-3A3B3B01285D}"/>
+    <hyperlink ref="D50" r:id="rId36" xr:uid="{25B36315-1AD2-4249-806C-B745EB3B2879}"/>
+    <hyperlink ref="D49" r:id="rId37" xr:uid="{89B247BA-52DF-4FDF-A15F-4309B0CD020F}"/>
+    <hyperlink ref="D51" r:id="rId38" xr:uid="{2B48C18A-6D96-4AFF-BF28-B5A846DF6F35}"/>
+    <hyperlink ref="D52" r:id="rId39" xr:uid="{D39CF317-9D94-466F-A014-7173581F7D28}"/>
+    <hyperlink ref="D53" r:id="rId40" xr:uid="{FE97093C-5C75-4291-AB1C-160A0FF369E8}"/>
+    <hyperlink ref="D54" r:id="rId41" xr:uid="{16F6DF81-3F9E-486F-A302-8B059432CF3A}"/>
+    <hyperlink ref="D55" r:id="rId42" xr:uid="{F11D7D97-39F5-43CE-A642-3DAAE197F8ED}"/>
+    <hyperlink ref="D56" r:id="rId43" xr:uid="{8CD00E21-8774-4173-9713-9233980B5706}"/>
+    <hyperlink ref="D57" r:id="rId44" xr:uid="{F473EC76-C601-459F-9324-31F1C0744B02}"/>
+    <hyperlink ref="D58" r:id="rId45" xr:uid="{69463E75-9F6E-4BC2-A289-9FAC328157B9}"/>
+    <hyperlink ref="D59" r:id="rId46" xr:uid="{9E27051C-ED7C-4A26-8F99-5A7F5B582EE5}"/>
+    <hyperlink ref="D60" r:id="rId47" xr:uid="{6BF0C8E4-6811-4D79-BB1D-41DF57791C6C}"/>
+    <hyperlink ref="D62" r:id="rId48" xr:uid="{21AF3F10-996F-493C-B783-08A9B1FE4915}"/>
+    <hyperlink ref="D61" r:id="rId49" xr:uid="{991C9824-9BC1-4D72-A9B1-BD3C0428EE55}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId33"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId50"/>
 </worksheet>
 </file>
 
@@ -9223,15 +9683,15 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
-    <col min="2" max="2" width="73.33203125" customWidth="1"/>
-    <col min="3" max="3" width="110.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.28515625" customWidth="1"/>
+    <col min="3" max="3" width="110.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="44" t="s">
         <v>1</v>
       </c>
@@ -9245,19 +9705,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="53"/>
       <c r="B3" s="77"/>
       <c r="C3" s="67"/>
       <c r="D3" s="56"/>
     </row>
-    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="53"/>
       <c r="B4" s="77"/>
       <c r="C4" s="67"/>
       <c r="D4" s="75"/>
     </row>
-    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="53"/>
       <c r="B5" s="77"/>
       <c r="C5" s="67"/>
@@ -9278,15 +9738,15 @@
       <selection pane="topRight" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
-    <col min="2" max="2" width="57.88671875" customWidth="1"/>
-    <col min="3" max="3" width="110.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.85546875" customWidth="1"/>
+    <col min="3" max="3" width="110.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="81" t="s">
         <v>490</v>
       </c>
@@ -9294,7 +9754,7 @@
       <c r="C1" s="81"/>
       <c r="D1" s="81"/>
     </row>
-    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -9308,199 +9768,199 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
       <c r="B3" s="12"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
     </row>
-    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="12"/>
       <c r="C4" s="14"/>
       <c r="D4" s="9"/>
     </row>
-    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="12"/>
       <c r="C5" s="14"/>
       <c r="D5" s="9"/>
     </row>
-    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="12"/>
       <c r="C6" s="14"/>
       <c r="D6" s="9"/>
     </row>
-    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="12"/>
       <c r="C7" s="14"/>
       <c r="D7" s="9"/>
     </row>
-    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="12"/>
       <c r="C8" s="14"/>
       <c r="D8" s="9"/>
     </row>
-    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="12"/>
       <c r="C9" s="14"/>
       <c r="D9" s="9"/>
     </row>
-    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="12"/>
       <c r="C10" s="14"/>
       <c r="D10" s="11"/>
     </row>
-    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="12"/>
       <c r="C11" s="14"/>
       <c r="D11" s="9"/>
     </row>
-    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="12"/>
       <c r="C12" s="14"/>
       <c r="D12" s="11"/>
     </row>
-    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="B13" s="12"/>
       <c r="C13" s="14"/>
       <c r="D13" s="11"/>
     </row>
-    <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="12"/>
       <c r="C14" s="14"/>
       <c r="D14" s="11"/>
     </row>
-    <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="12"/>
       <c r="C15" s="14"/>
       <c r="D15" s="11"/>
     </row>
-    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="12"/>
       <c r="C16" s="14"/>
       <c r="D16" s="11"/>
     </row>
-    <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="12"/>
       <c r="C17" s="14"/>
       <c r="D17" s="11"/>
     </row>
-    <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="12"/>
       <c r="C18" s="14"/>
       <c r="D18" s="11"/>
     </row>
-    <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="12"/>
       <c r="C19" s="14"/>
       <c r="D19" s="11"/>
     </row>
-    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="12"/>
       <c r="C20" s="14"/>
       <c r="D20" s="11"/>
     </row>
-    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="12"/>
       <c r="C21" s="14"/>
       <c r="D21" s="11"/>
     </row>
-    <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="12"/>
       <c r="C22" s="14"/>
       <c r="D22" s="11"/>
     </row>
-    <row r="23" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="12"/>
       <c r="C23" s="14"/>
       <c r="D23" s="11"/>
     </row>
-    <row r="24" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="12"/>
       <c r="C24" s="14"/>
       <c r="D24" s="11"/>
     </row>
-    <row r="25" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="12"/>
       <c r="C25" s="14"/>
       <c r="D25" s="11"/>
     </row>
-    <row r="26" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="12"/>
       <c r="C26" s="14"/>
       <c r="D26" s="11"/>
     </row>
-    <row r="27" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="12"/>
       <c r="C27" s="14"/>
       <c r="D27" s="11"/>
     </row>
-    <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="12"/>
       <c r="C28" s="14"/>
       <c r="D28" s="11"/>
     </row>
-    <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" s="12"/>
       <c r="C29" s="14"/>
       <c r="D29" s="11"/>
     </row>
-    <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="12"/>
       <c r="C30" s="14"/>
       <c r="D30" s="11"/>
     </row>
-    <row r="31" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="12"/>
       <c r="C31" s="14"/>
       <c r="D31" s="11"/>
     </row>
-    <row r="32" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="12"/>
       <c r="C32" s="14"/>
       <c r="D32" s="11"/>
     </row>
-    <row r="33" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="12"/>
       <c r="C33" s="14"/>
       <c r="D33" s="11"/>
     </row>
-    <row r="34" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="12"/>
       <c r="C34" s="14"/>
       <c r="D34" s="11"/>
     </row>
-    <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="12"/>
       <c r="C35" s="14"/>
@@ -9523,14 +9983,14 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
-    <col min="2" max="2" width="36.33203125" customWidth="1"/>
+    <col min="2" max="2" width="36.28515625" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -9541,7 +10001,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="89" t="s">
         <v>399</v>
       </c>
@@ -9549,13 +10009,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="80"/>
       <c r="C3" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>486</v>
       </c>
@@ -9563,7 +10023,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>487</v>
       </c>
@@ -9571,7 +10031,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>488</v>
       </c>
@@ -9579,7 +10039,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>492</v>
       </c>
@@ -9587,7 +10047,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>575</v>
       </c>
@@ -9620,24 +10080,24 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.6640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="16" customWidth="1"/>
+    <col min="1" max="1" width="45.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="16" customWidth="1"/>
     <col min="3" max="3" width="11" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" style="16" customWidth="1"/>
-    <col min="5" max="5" width="6.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.5546875" style="16" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="16" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.5703125" style="16" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="17" style="16" customWidth="1"/>
-    <col min="8" max="8" width="27.88671875" style="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.6640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.5546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.6640625" style="16" customWidth="1"/>
-    <col min="13" max="16384" width="11.44140625" style="16"/>
+    <col min="8" max="8" width="27.85546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" style="16" customWidth="1"/>
+    <col min="13" max="16384" width="11.42578125" style="16"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="97" t="s">
         <v>601</v>
       </c>
@@ -9646,7 +10106,7 @@
       <c r="D2" s="97"/>
       <c r="E2" s="97"/>
     </row>
-    <row r="3" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>577</v>
       </c>
@@ -9663,7 +10123,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
         <v>630</v>
       </c>
@@ -9686,7 +10146,7 @@
       </c>
       <c r="G4" s="21"/>
     </row>
-    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
         <v>631</v>
       </c>
@@ -9716,7 +10176,7 @@
       <c r="K5" s="92"/>
       <c r="L5" s="93"/>
     </row>
-    <row r="6" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
         <v>632</v>
       </c>
@@ -9754,7 +10214,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>633</v>
       </c>
@@ -9796,7 +10256,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>609</v>
       </c>
@@ -9838,7 +10298,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
         <v>581</v>
       </c>
@@ -9880,7 +10340,7 @@
         <v>15.138888888888886</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>582</v>
       </c>
@@ -9922,7 +10382,7 @@
         <v>13.591666666666663</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>931</v>
       </c>
@@ -9958,7 +10418,7 @@
       <c r="K11" s="42"/>
       <c r="L11" s="42"/>
     </row>
-    <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="22" t="s">
         <v>583</v>
       </c>
@@ -10000,7 +10460,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="22" t="s">
         <v>584</v>
       </c>
@@ -10033,7 +10493,7 @@
       <c r="K13" s="95"/>
       <c r="L13" s="96"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>585</v>
       </c>
@@ -10058,7 +10518,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>586</v>
       </c>
@@ -10083,7 +10543,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
         <v>587</v>
       </c>
@@ -10106,7 +10566,7 @@
       </c>
       <c r="G16" s="21"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>932</v>
       </c>
@@ -10129,7 +10589,7 @@
       </c>
       <c r="G17" s="21"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>809</v>
       </c>
@@ -10149,7 +10609,7 @@
       <c r="F18" s="21"/>
       <c r="G18" s="21"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
         <v>588</v>
       </c>
@@ -10174,7 +10634,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
         <v>945</v>
       </c>
@@ -10199,7 +10659,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
         <v>936</v>
       </c>
@@ -10224,7 +10684,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
         <v>947</v>
       </c>
@@ -10249,7 +10709,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
         <v>948</v>
       </c>
@@ -10274,7 +10734,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
         <v>617</v>
       </c>
@@ -10299,7 +10759,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
         <v>933</v>
       </c>
@@ -10324,7 +10784,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
         <v>937</v>
       </c>
@@ -10349,7 +10809,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
         <v>949</v>
       </c>
@@ -10374,7 +10834,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
         <v>938</v>
       </c>
@@ -10399,7 +10859,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
         <v>939</v>
       </c>
@@ -10424,7 +10884,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
         <v>950</v>
       </c>
@@ -10449,7 +10909,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
         <v>589</v>
       </c>
@@ -10474,7 +10934,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
         <v>590</v>
       </c>
@@ -10497,7 +10957,7 @@
       </c>
       <c r="G32" s="21"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
         <v>591</v>
       </c>
@@ -10520,7 +10980,7 @@
       </c>
       <c r="G33" s="21"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
         <v>592</v>
       </c>
@@ -10543,7 +11003,7 @@
       </c>
       <c r="G34" s="21"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="22" t="s">
         <v>593</v>
       </c>
@@ -10566,7 +11026,7 @@
       </c>
       <c r="G35" s="21"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="22" t="s">
         <v>594</v>
       </c>
@@ -10591,7 +11051,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="22" t="s">
         <v>595</v>
       </c>
@@ -10616,7 +11076,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="22" t="s">
         <v>942</v>
       </c>
@@ -10641,7 +11101,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
         <v>596</v>
       </c>
@@ -10666,7 +11126,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="s">
         <v>597</v>
       </c>
@@ -10691,7 +11151,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="22" t="s">
         <v>943</v>
       </c>
@@ -10716,7 +11176,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="22" t="s">
         <v>598</v>
       </c>
@@ -10739,7 +11199,7 @@
       </c>
       <c r="G42" s="21"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="s">
         <v>599</v>
       </c>
@@ -10762,7 +11222,7 @@
       </c>
       <c r="G43" s="21"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="22" t="s">
         <v>600</v>
       </c>
@@ -10787,10 +11247,10 @@
         <v>944</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F45" s="21"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="90" t="s">
         <v>607</v>
       </c>
@@ -10800,7 +11260,7 @@
       <c r="E46" s="90"/>
       <c r="F46" s="21"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="22" t="s">
         <v>608</v>
       </c>
@@ -10822,7 +11282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="22" t="s">
         <v>609</v>
       </c>
@@ -10844,7 +11304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="22" t="s">
         <v>585</v>
       </c>
@@ -10866,7 +11326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="22" t="s">
         <v>610</v>
       </c>
@@ -10888,7 +11348,7 @@
         <v>2.7333333333333334</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="22" t="s">
         <v>611</v>
       </c>
@@ -10910,7 +11370,7 @@
         <v>2.8166666666666669</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="22" t="s">
         <v>586</v>
       </c>
@@ -10932,7 +11392,7 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="22" t="s">
         <v>612</v>
       </c>
@@ -10954,7 +11414,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="22" t="s">
         <v>594</v>
       </c>
@@ -10976,7 +11436,7 @@
         <v>4.4833333333333334</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="22" t="s">
         <v>595</v>
       </c>
@@ -10998,7 +11458,7 @@
         <v>3.9166666666666665</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="22" t="s">
         <v>613</v>
       </c>
@@ -11020,7 +11480,7 @@
         <v>2.7333333333333334</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="22" t="s">
         <v>597</v>
       </c>
@@ -11042,7 +11502,7 @@
         <v>3.8666666666666667</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="22" t="s">
         <v>614</v>
       </c>
@@ -11064,7 +11524,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="22" t="s">
         <v>615</v>
       </c>
@@ -11086,7 +11546,7 @@
         <v>3.8666666666666667</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="22" t="s">
         <v>616</v>
       </c>
@@ -11108,7 +11568,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="22" t="s">
         <v>617</v>
       </c>
@@ -11130,7 +11590,7 @@
         <v>2.4166666666666665</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="22" t="s">
         <v>618</v>
       </c>
@@ -11152,7 +11612,7 @@
         <v>4.0333333333333332</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="22" t="s">
         <v>619</v>
       </c>
@@ -11174,7 +11634,7 @@
         <v>3.2666666666666666</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="22" t="s">
         <v>629</v>
       </c>
@@ -11196,7 +11656,7 @@
         <v>2.2333333333333334</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="22" t="s">
         <v>620</v>
       </c>
@@ -11218,7 +11678,7 @@
         <v>6.1166666666666663</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="22" t="s">
         <v>621</v>
       </c>
@@ -11240,7 +11700,7 @@
         <v>2.3666666666666667</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="22" t="s">
         <v>622</v>
       </c>
@@ -11262,7 +11722,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="22" t="s">
         <v>623</v>
       </c>
@@ -11284,7 +11744,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="22" t="s">
         <v>624</v>
       </c>
@@ -11306,7 +11766,7 @@
         <v>3.6833333333333331</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="22" t="s">
         <v>625</v>
       </c>
@@ -11328,7 +11788,7 @@
         <v>4.8666666666666663</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="22" t="s">
         <v>626</v>
       </c>
@@ -11350,7 +11810,7 @@
         <v>3.3333333333333335</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="22" t="s">
         <v>627</v>
       </c>
@@ -11372,7 +11832,7 @@
         <v>3.6666666666666665</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="22" t="s">
         <v>628</v>
       </c>
@@ -11394,12 +11854,12 @@
         <v>2.6166666666666667</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D74" s="28"/>
       <c r="E74" s="29"/>
       <c r="F74" s="30"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="90" t="s">
         <v>638</v>
       </c>
@@ -11409,7 +11869,7 @@
       <c r="E75" s="90"/>
       <c r="F75" s="33"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="22" t="s">
         <v>639</v>
       </c>
@@ -11431,7 +11891,7 @@
         <v>2.9166666666666665</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="22" t="s">
         <v>640</v>
       </c>
@@ -11453,7 +11913,7 @@
         <v>4.7833333333333332</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="22" t="s">
         <v>641</v>
       </c>
@@ -11475,7 +11935,7 @@
         <v>4.8666666666666663</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="22" t="s">
         <v>642</v>
       </c>
@@ -11497,7 +11957,7 @@
         <v>3.1833333333333331</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="22" t="s">
         <v>643</v>
       </c>
@@ -11519,7 +11979,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="22" t="s">
         <v>644</v>
       </c>
@@ -11541,7 +12001,7 @@
         <v>6.333333333333333</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="22" t="s">
         <v>645</v>
       </c>
@@ -11563,7 +12023,7 @@
         <v>4.333333333333333</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="22" t="s">
         <v>646</v>
       </c>
@@ -11585,7 +12045,7 @@
         <v>2.9333333333333331</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="22" t="s">
         <v>647</v>
       </c>
@@ -11607,7 +12067,7 @@
         <v>3.5666666666666669</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="22" t="s">
         <v>648</v>
       </c>
@@ -11629,7 +12089,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="22" t="s">
         <v>649</v>
       </c>
@@ -11651,7 +12111,7 @@
         <v>4.0333333333333332</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="22" t="s">
         <v>650</v>
       </c>
@@ -11673,7 +12133,7 @@
         <v>2.7166666666666668</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="22" t="s">
         <v>651</v>
       </c>
@@ -11695,7 +12155,7 @@
         <v>3.2666666666666666</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="22" t="s">
         <v>652</v>
       </c>
@@ -11717,12 +12177,12 @@
         <v>4.416666666666667</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D90" s="28"/>
       <c r="E90" s="29"/>
       <c r="F90" s="30"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="90" t="s">
         <v>654</v>
       </c>
@@ -11732,7 +12192,7 @@
       <c r="E91" s="90"/>
       <c r="F91" s="90"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="31" t="s">
         <v>630</v>
       </c>
@@ -11754,7 +12214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="22" t="s">
         <v>655</v>
       </c>
@@ -11776,7 +12236,7 @@
         <v>4.6500000000000004</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="22" t="s">
         <v>631</v>
       </c>
@@ -11798,7 +12258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="22" t="s">
         <v>656</v>
       </c>
@@ -11820,7 +12280,7 @@
         <v>5.2166666666666668</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="22" t="s">
         <v>657</v>
       </c>
@@ -11842,7 +12302,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="22" t="s">
         <v>658</v>
       </c>
@@ -11864,7 +12324,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="22" t="s">
         <v>659</v>
       </c>
@@ -11886,7 +12346,7 @@
         <v>2.5666666666666669</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="22" t="s">
         <v>660</v>
       </c>
@@ -11908,7 +12368,7 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="22" t="s">
         <v>661</v>
       </c>
@@ -11930,7 +12390,7 @@
         <v>2.7333333333333334</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="22" t="s">
         <v>662</v>
       </c>
@@ -11952,7 +12412,7 @@
         <v>5.3833333333333337</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="22" t="s">
         <v>663</v>
       </c>
@@ -11974,7 +12434,7 @@
         <v>3.3833333333333333</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="22" t="s">
         <v>664</v>
       </c>
@@ -11996,7 +12456,7 @@
         <v>4.2833333333333332</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="22" t="s">
         <v>665</v>
       </c>
@@ -12018,7 +12478,7 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="22" t="s">
         <v>666</v>
       </c>
@@ -12040,7 +12500,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="22" t="s">
         <v>667</v>
       </c>
@@ -12062,7 +12522,7 @@
         <v>2.4333333333333331</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="22" t="s">
         <v>668</v>
       </c>
@@ -12084,7 +12544,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="22" t="s">
         <v>669</v>
       </c>
@@ -12106,7 +12566,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="22" t="s">
         <v>625</v>
       </c>
@@ -12128,7 +12588,7 @@
         <v>4.8666666666666663</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="22" t="s">
         <v>670</v>
       </c>
@@ -12150,7 +12610,7 @@
         <v>4.7833333333333332</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="22" t="s">
         <v>671</v>
       </c>
@@ -12172,7 +12632,7 @@
         <v>6.05</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="22" t="s">
         <v>672</v>
       </c>
@@ -12194,7 +12654,7 @@
         <v>2.8166666666666669</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="22" t="s">
         <v>626</v>
       </c>
@@ -12216,7 +12676,7 @@
         <v>3.3333333333333335</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="22" t="s">
         <v>673</v>
       </c>
@@ -12238,7 +12698,7 @@
         <v>4.3666666666666663</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="22" t="s">
         <v>674</v>
       </c>

--- a/cheat_sheet.xlsx
+++ b/cheat_sheet.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D100AF-6288-48EF-A683-6CCB5AEA8D4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C2E1875-BEE1-4F02-9546-1BDCEDEA1BC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1230" yWindow="975" windowWidth="27330" windowHeight="12480" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1230" yWindow="975" windowWidth="27330" windowHeight="12480" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Samplers" sheetId="5" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="1069">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1445" uniqueCount="1075">
   <si>
     <t>HTML</t>
   </si>
@@ -3698,6 +3698,29 @@
   </si>
   <si>
     <t xml:space="preserve">jQuery Basics </t>
+  </si>
+  <si>
+    <t>jQuery Selectors</t>
+  </si>
+  <si>
+    <t>Event Prevent Default</t>
+  </si>
+  <si>
+    <t>If this method is called, the fault action of the event will not be triggered.</t>
+  </si>
+  <si>
+    <t>Manipulation Create Element</t>
+  </si>
+  <si>
+    <t>const $checkbox = $("&lt;label&gt;&lt;input type=\"checkbox\"&gt; Allow PDF downloads&lt;/label&gt;");</t>
+  </si>
+  <si>
+    <t>$pdfs.on("click", function(event) {
+  let checked = document.querySelector("input").checked;
+  if ( checked === false) {
+    event.preventDefault();
+  }
+});</t>
   </si>
 </sst>
 </file>
@@ -4342,34 +4365,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4396,8 +4398,29 @@
     <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4722,7 +4745,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>373</v>
       </c>
       <c r="C2" s="13" t="s">
@@ -4742,7 +4765,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="79"/>
+      <c r="A3" s="81"/>
       <c r="C3" s="13" t="s">
         <v>6</v>
       </c>
@@ -5286,8 +5309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B55396B-BB8C-4180-AD0D-7E5850126AB0}">
   <dimension ref="A2:L115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5308,13 +5331,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="89" t="s">
         <v>570</v>
       </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
     </row>
     <row r="3" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
@@ -5378,13 +5401,13 @@
         <v>0</v>
       </c>
       <c r="G5" s="19"/>
-      <c r="H5" s="90" t="s">
+      <c r="H5" s="83" t="s">
         <v>572</v>
       </c>
-      <c r="I5" s="91"/>
-      <c r="J5" s="91"/>
-      <c r="K5" s="91"/>
-      <c r="L5" s="92"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="85"/>
     </row>
     <row r="6" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
@@ -5695,13 +5718,13 @@
       <c r="H13" s="32" t="s">
         <v>645</v>
       </c>
-      <c r="I13" s="93">
+      <c r="I13" s="86">
         <f>AVERAGE(I12:L12)</f>
         <v>0.18004742547425476</v>
       </c>
-      <c r="J13" s="94"/>
-      <c r="K13" s="94"/>
-      <c r="L13" s="95"/>
+      <c r="J13" s="87"/>
+      <c r="K13" s="87"/>
+      <c r="L13" s="88"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
@@ -6461,13 +6484,13 @@
       <c r="F45" s="19"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="89" t="s">
+      <c r="A46" s="82" t="s">
         <v>576</v>
       </c>
-      <c r="B46" s="89"/>
-      <c r="C46" s="89"/>
-      <c r="D46" s="89"/>
-      <c r="E46" s="89"/>
+      <c r="B46" s="82"/>
+      <c r="C46" s="82"/>
+      <c r="D46" s="82"/>
+      <c r="E46" s="82"/>
       <c r="F46" s="19"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -7070,13 +7093,13 @@
       <c r="F74" s="28"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="89" t="s">
+      <c r="A75" s="82" t="s">
         <v>607</v>
       </c>
-      <c r="B75" s="89"/>
-      <c r="C75" s="89"/>
-      <c r="D75" s="89"/>
-      <c r="E75" s="89"/>
+      <c r="B75" s="82"/>
+      <c r="C75" s="82"/>
+      <c r="D75" s="82"/>
+      <c r="E75" s="82"/>
       <c r="F75" s="31"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -7393,14 +7416,14 @@
       <c r="F90" s="28"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="89" t="s">
+      <c r="A91" s="82" t="s">
         <v>623</v>
       </c>
-      <c r="B91" s="89"/>
-      <c r="C91" s="89"/>
-      <c r="D91" s="89"/>
-      <c r="E91" s="89"/>
-      <c r="F91" s="89"/>
+      <c r="B91" s="82"/>
+      <c r="C91" s="82"/>
+      <c r="D91" s="82"/>
+      <c r="E91" s="82"/>
+      <c r="F91" s="82"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="29" t="s">
@@ -8014,11 +8037,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="90" t="s">
         <v>485</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
     </row>
     <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -8268,12 +8291,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="42" t="s">
@@ -8822,13 +8845,13 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="86" t="s">
+      <c r="A41" s="96" t="s">
         <v>105</v>
       </c>
-      <c r="B41" s="84" t="s">
+      <c r="B41" s="94" t="s">
         <v>538</v>
       </c>
-      <c r="C41" s="82" t="s">
+      <c r="C41" s="92" t="s">
         <v>106</v>
       </c>
       <c r="D41" s="46" t="s">
@@ -8836,9 +8859,9 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="87"/>
-      <c r="B42" s="85"/>
-      <c r="C42" s="83"/>
+      <c r="A42" s="97"/>
+      <c r="B42" s="95"/>
+      <c r="C42" s="93"/>
       <c r="D42" s="46" t="s">
         <v>6</v>
       </c>
@@ -9359,12 +9382,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="42" t="s">
@@ -10576,12 +10599,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="91" t="s">
         <v>463</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="42" t="s">
@@ -11410,7 +11433,7 @@
       <c r="D64" s="9"/>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B67" s="97"/>
+      <c r="B67" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -11474,10 +11497,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0B55A43-07C5-4DBB-8409-7DC39E8C0129}">
-  <dimension ref="A2:D23"/>
+  <dimension ref="A2:D26"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11781,6 +11804,40 @@
       <c r="D23" s="73" t="s">
         <v>6</v>
       </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="51" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B24" s="75"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="73" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="51" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B25" s="75" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C25" s="65" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D25" s="73" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="51" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B26" s="75" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C26" s="65"/>
+      <c r="D26" s="73"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:D2" xr:uid="{174CBB07-0F5A-4BA6-9572-7202FEC09F8A}">
@@ -11806,6 +11863,8 @@
     <hyperlink ref="D22" r:id="rId15" xr:uid="{E1008D49-70B4-4FDB-B70E-FE5793D3D6FE}"/>
     <hyperlink ref="D21" r:id="rId16" location="eq-index" xr:uid="{9E5CF4EF-FC0C-435A-97B8-F6CB26F3655E}"/>
     <hyperlink ref="D23" r:id="rId17" xr:uid="{BF486555-D25F-4D90-8E48-F9761169443D}"/>
+    <hyperlink ref="D24" r:id="rId18" xr:uid="{955882E7-FDFE-4281-A602-723EDFF207B0}"/>
+    <hyperlink ref="D25" r:id="rId19" xr:uid="{6EFCEF45-8303-499E-AF71-485046CFAC8C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/cheat_sheet.xlsx
+++ b/cheat_sheet.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C2E1875-BEE1-4F02-9546-1BDCEDEA1BC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA501B92-605D-4DAF-AF60-BD5B4F007317}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1230" yWindow="975" windowWidth="27330" windowHeight="12480" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1230" yWindow="975" windowWidth="27330" windowHeight="12480" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Samplers" sheetId="5" r:id="rId1"/>
@@ -13,20 +13,22 @@
     <sheet name="GIT Terminal" sheetId="7" r:id="rId3"/>
     <sheet name="HTML" sheetId="3" r:id="rId4"/>
     <sheet name="CSS" sheetId="4" r:id="rId5"/>
-    <sheet name="Javascript" sheetId="2" r:id="rId6"/>
-    <sheet name="jQuery" sheetId="13" r:id="rId7"/>
-    <sheet name="CSS Selectors" sheetId="9" r:id="rId8"/>
-    <sheet name="CSS Transitions" sheetId="10" r:id="rId9"/>
-    <sheet name="SASS" sheetId="11" r:id="rId10"/>
-    <sheet name="Questions" sheetId="12" r:id="rId11"/>
+    <sheet name="Sheet1" sheetId="14" r:id="rId6"/>
+    <sheet name="Javascript" sheetId="2" r:id="rId7"/>
+    <sheet name="jQuery" sheetId="13" r:id="rId8"/>
+    <sheet name="CSS Selectors" sheetId="9" r:id="rId9"/>
+    <sheet name="CSS Transitions" sheetId="10" r:id="rId10"/>
+    <sheet name="SASS" sheetId="11" r:id="rId11"/>
+    <sheet name="Questions" sheetId="12" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'CSS Selectors'!$A$2:$D$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'CSS Selectors'!$A$2:$D$34</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">HTML!$A$2:$D$62</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">jQuery!$A$2:$D$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">jQuery!$A$2:$D$27</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">LDP!$A$2:$L$44</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1445" uniqueCount="1075">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1478" uniqueCount="1106">
   <si>
     <t>HTML</t>
   </si>
@@ -3721,6 +3723,104 @@
     event.preventDefault();
   }
 });</t>
+  </si>
+  <si>
+    <t>Manipulation Toggle Class</t>
+  </si>
+  <si>
+    <t>$("ul").on("dblclick", function(event) {
+  let trigger = $(event.target);
+  trigger.toggleClass("strike");
+})</t>
+  </si>
+  <si>
+    <t>Add or remove one or more classes from each element in the set of matched elements, depending on either the class's presence or the value of the state argument.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loop Each </t>
+  </si>
+  <si>
+    <t>$("a").each( function ( index, element) {
+  console.log(index, $(element).text());
+});</t>
+  </si>
+  <si>
+    <t>Iterate over a jQuery objext, executing a function for each matched element.</t>
+  </si>
+  <si>
+    <t>component</t>
+  </si>
+  <si>
+    <t>cpu</t>
+  </si>
+  <si>
+    <t>gpu</t>
+  </si>
+  <si>
+    <t>ram</t>
+  </si>
+  <si>
+    <t>motherboard</t>
+  </si>
+  <si>
+    <t>ssd</t>
+  </si>
+  <si>
+    <t>psu</t>
+  </si>
+  <si>
+    <t>case</t>
+  </si>
+  <si>
+    <t>monitor</t>
+  </si>
+  <si>
+    <t>mouse</t>
+  </si>
+  <si>
+    <t>keyboard</t>
+  </si>
+  <si>
+    <t>price usd</t>
+  </si>
+  <si>
+    <t>price amazon</t>
+  </si>
+  <si>
+    <t>price aed</t>
+  </si>
+  <si>
+    <t>price gear-up</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>AMD Ryzen 5 2600X</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>Sapphire radeon pulse rx 570</t>
+  </si>
+  <si>
+    <t>Corsair Vengeance LPX 8GB (1 X 8GB) DDR4 3000</t>
+  </si>
+  <si>
+    <t>MSI ProSeries  B450M PRO-VDH Max</t>
+  </si>
+  <si>
+    <t>Crucial MX500 500GB 3D NAND SATA 2.5</t>
+  </si>
+  <si>
+    <t>Thermaltake SMART 600W</t>
+  </si>
+  <si>
+    <t>Thermaltake Versa H17 Black</t>
+  </si>
+  <si>
+    <t>Acer SB0 23in</t>
   </si>
 </sst>
 </file>
@@ -4867,11 +4967,327 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A58C87AB-222A-4E13-8A46-2201C051A1C5}">
+  <dimension ref="A2:D21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="48.85546875" customWidth="1"/>
+    <col min="2" max="2" width="58" customWidth="1"/>
+    <col min="3" max="3" width="110.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A3" s="47" t="s">
+        <v>780</v>
+      </c>
+      <c r="B3" s="71" t="s">
+        <v>787</v>
+      </c>
+      <c r="C3" s="70" t="s">
+        <v>781</v>
+      </c>
+      <c r="D3" s="50" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="47" t="s">
+        <v>784</v>
+      </c>
+      <c r="B4" s="71" t="s">
+        <v>783</v>
+      </c>
+      <c r="C4" s="70" t="s">
+        <v>782</v>
+      </c>
+      <c r="D4" s="50" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="47" t="s">
+        <v>785</v>
+      </c>
+      <c r="B5" s="71"/>
+      <c r="C5" s="70" t="s">
+        <v>786</v>
+      </c>
+      <c r="D5" s="50" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="47" t="s">
+        <v>788</v>
+      </c>
+      <c r="B6" s="71" t="s">
+        <v>790</v>
+      </c>
+      <c r="C6" s="70" t="s">
+        <v>789</v>
+      </c>
+      <c r="D6" s="50" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="47" t="s">
+        <v>793</v>
+      </c>
+      <c r="B7" s="71" t="s">
+        <v>791</v>
+      </c>
+      <c r="C7" s="70" t="s">
+        <v>792</v>
+      </c>
+      <c r="D7" s="50" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A8" s="47" t="s">
+        <v>794</v>
+      </c>
+      <c r="B8" s="71" t="s">
+        <v>795</v>
+      </c>
+      <c r="C8" s="70" t="s">
+        <v>805</v>
+      </c>
+      <c r="D8" s="50" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="47" t="s">
+        <v>796</v>
+      </c>
+      <c r="B9" s="71" t="s">
+        <v>800</v>
+      </c>
+      <c r="C9" s="70" t="s">
+        <v>797</v>
+      </c>
+      <c r="D9" s="50" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="47" t="s">
+        <v>799</v>
+      </c>
+      <c r="B10" s="71" t="s">
+        <v>798</v>
+      </c>
+      <c r="C10" s="70" t="s">
+        <v>801</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="47" t="s">
+        <v>802</v>
+      </c>
+      <c r="B11" s="71" t="s">
+        <v>803</v>
+      </c>
+      <c r="C11" s="70" t="s">
+        <v>804</v>
+      </c>
+      <c r="D11" s="50" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A12" s="47" t="s">
+        <v>806</v>
+      </c>
+      <c r="B12" s="71" t="s">
+        <v>807</v>
+      </c>
+      <c r="C12" s="70" t="s">
+        <v>808</v>
+      </c>
+      <c r="D12" s="50" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A13" s="47" t="s">
+        <v>811</v>
+      </c>
+      <c r="B13" s="71" t="s">
+        <v>809</v>
+      </c>
+      <c r="C13" s="70" t="s">
+        <v>810</v>
+      </c>
+      <c r="D13" s="50" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="47" t="s">
+        <v>812</v>
+      </c>
+      <c r="B14" s="71" t="s">
+        <v>813</v>
+      </c>
+      <c r="C14" s="70" t="s">
+        <v>814</v>
+      </c>
+      <c r="D14" s="50" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="47" t="s">
+        <v>831</v>
+      </c>
+      <c r="B15" s="71" t="s">
+        <v>832</v>
+      </c>
+      <c r="C15" s="70" t="s">
+        <v>833</v>
+      </c>
+      <c r="D15" s="72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="47" t="s">
+        <v>815</v>
+      </c>
+      <c r="B16" s="71"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="50" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="47" t="s">
+        <v>816</v>
+      </c>
+      <c r="B17" s="71" t="s">
+        <v>817</v>
+      </c>
+      <c r="C17" s="70" t="s">
+        <v>818</v>
+      </c>
+      <c r="D17" s="72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A18" s="47" t="s">
+        <v>819</v>
+      </c>
+      <c r="B18" s="71" t="s">
+        <v>820</v>
+      </c>
+      <c r="C18" s="70" t="s">
+        <v>824</v>
+      </c>
+      <c r="D18" s="50" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A19" s="47" t="s">
+        <v>821</v>
+      </c>
+      <c r="B19" s="71" t="s">
+        <v>822</v>
+      </c>
+      <c r="C19" s="70" t="s">
+        <v>823</v>
+      </c>
+      <c r="D19" s="50" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="47" t="s">
+        <v>825</v>
+      </c>
+      <c r="B20" s="71" t="s">
+        <v>826</v>
+      </c>
+      <c r="C20" s="70" t="s">
+        <v>827</v>
+      </c>
+      <c r="D20" s="50" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A21" s="47" t="s">
+        <v>828</v>
+      </c>
+      <c r="B21" s="71" t="s">
+        <v>829</v>
+      </c>
+      <c r="C21" s="70" t="s">
+        <v>830</v>
+      </c>
+      <c r="D21" s="72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{EB5A99D5-13EA-48F1-9217-B84777B42FCB}"/>
+    <hyperlink ref="D6" r:id="rId2" xr:uid="{62499128-6C43-4568-ADD8-75ADBD896487}"/>
+    <hyperlink ref="D5" r:id="rId3" xr:uid="{D671F6DD-3735-4FF1-8402-5BA21519626D}"/>
+    <hyperlink ref="D4" r:id="rId4" xr:uid="{3AD9443F-F59A-4778-8654-BA3D0FC3CCA0}"/>
+    <hyperlink ref="D7" r:id="rId5" xr:uid="{C5B05BE4-3FAD-4B67-85AD-FD1F8F8BB316}"/>
+    <hyperlink ref="D8" r:id="rId6" xr:uid="{C15A633C-290B-49E2-B392-A41C1706A8E7}"/>
+    <hyperlink ref="D9" r:id="rId7" xr:uid="{645C2233-BE19-4B21-A2FE-76A3D36DA1FC}"/>
+    <hyperlink ref="D10" r:id="rId8" xr:uid="{17E2A589-4ED1-4B3B-9BCF-A1866E71668A}"/>
+    <hyperlink ref="D11" r:id="rId9" xr:uid="{D019EF1E-E569-4136-AE7B-29206B846190}"/>
+    <hyperlink ref="D12" r:id="rId10" xr:uid="{A390E101-F83E-45CB-9DD1-41ADE4E563C7}"/>
+    <hyperlink ref="D13" r:id="rId11" xr:uid="{FDC48A72-9199-4A21-936D-821ED88A65CE}"/>
+    <hyperlink ref="D14" r:id="rId12" xr:uid="{C198E2C0-0EC5-49F0-9ACC-8DAB8A02783E}"/>
+    <hyperlink ref="D16" r:id="rId13" location=".17,.67,.83,.67" xr:uid="{C398C20F-83CD-4158-A01E-50B7C87756EA}"/>
+    <hyperlink ref="D17" r:id="rId14" xr:uid="{86EFF247-2FA8-4C59-8122-F8DFA68C4FEB}"/>
+    <hyperlink ref="D18" r:id="rId15" xr:uid="{90D81EBC-D2BD-40DA-BFB0-9C3A34990E30}"/>
+    <hyperlink ref="D19" r:id="rId16" xr:uid="{99EF6861-5694-42B1-8F49-366224A89A95}"/>
+    <hyperlink ref="D20" r:id="rId17" xr:uid="{E5C179D4-8AB1-460C-9E0B-440980945740}"/>
+    <hyperlink ref="D21" r:id="rId18" xr:uid="{5383C8E5-9A75-4036-ADB2-91B4FE778E8D}"/>
+    <hyperlink ref="D15" r:id="rId19" xr:uid="{01606FAD-0E97-41CF-B964-179F74425AEA}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F2567DD-FB9D-4130-8587-5DE1233956C1}">
   <dimension ref="A2:D22"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5188,7 +5604,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AB73040-3CFA-4428-B65C-7649A446D17C}">
   <dimension ref="A2:D23"/>
   <sheetViews>
@@ -5309,8 +5725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B55396B-BB8C-4180-AD0D-7E5850126AB0}">
   <dimension ref="A2:L115"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5516,7 +5932,7 @@
       </c>
       <c r="I8" s="39">
         <f>COUNTIF(E4:E44, 2)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J8" s="39">
         <f>COUNTIF(E47:E73, 2)</f>
@@ -5600,7 +6016,7 @@
       </c>
       <c r="I10" s="39">
         <f>SUM(F4:F44)/6</f>
-        <v>11.205555555555557</v>
+        <v>10.616666666666665</v>
       </c>
       <c r="J10" s="39">
         <f>SUM(F47:F73)/6</f>
@@ -5642,11 +6058,11 @@
       </c>
       <c r="I11" s="40">
         <f ca="1">TODAY() +I10</f>
-        <v>43825.205555555556</v>
+        <v>43827.616666666669</v>
       </c>
       <c r="J11" s="40">
         <f ca="1">I11+J10</f>
-        <v>43837.452777777777</v>
+        <v>43839.863888888889</v>
       </c>
       <c r="K11" s="40"/>
       <c r="L11" s="40"/>
@@ -5678,7 +6094,7 @@
       </c>
       <c r="I12" s="41">
         <f>I8/I7</f>
-        <v>0.41463414634146339</v>
+        <v>0.43902439024390244</v>
       </c>
       <c r="J12" s="41">
         <f>J8/J7</f>
@@ -5720,7 +6136,7 @@
       </c>
       <c r="I13" s="86">
         <f>AVERAGE(I12:L12)</f>
-        <v>0.18004742547425476</v>
+        <v>0.18614498644986452</v>
       </c>
       <c r="J13" s="87"/>
       <c r="K13" s="87"/>
@@ -6007,11 +6423,11 @@
         <v>3.5333333333333332</v>
       </c>
       <c r="E25" s="21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F25" s="19">
         <f t="shared" si="1"/>
-        <v>3.5333333333333332</v>
+        <v>0</v>
       </c>
       <c r="G25" s="19" t="s">
         <v>903</v>
@@ -8277,8 +8693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D73"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63"/>
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9368,8 +9784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D82"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10582,11 +10998,204 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{617FF4C1-821D-45BA-9C01-5BF3A3BF9796}">
+  <dimension ref="E3:J14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1096</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1092</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1094</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1093</v>
+      </c>
+      <c r="J3" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="4" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1097</v>
+      </c>
+      <c r="G4">
+        <v>150</v>
+      </c>
+      <c r="H4">
+        <f>G4*3.7</f>
+        <v>555</v>
+      </c>
+    </row>
+    <row r="5" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>1083</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1099</v>
+      </c>
+      <c r="G5">
+        <v>160</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ref="H5:H13" si="0">G5*3.7</f>
+        <v>592</v>
+      </c>
+    </row>
+    <row r="6" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>1084</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1100</v>
+      </c>
+      <c r="G6">
+        <v>50</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="7" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>1085</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1101</v>
+      </c>
+      <c r="G7">
+        <v>80</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>296</v>
+      </c>
+    </row>
+    <row r="8" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1102</v>
+      </c>
+      <c r="G8">
+        <v>80</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>296</v>
+      </c>
+    </row>
+    <row r="9" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1103</v>
+      </c>
+      <c r="G9">
+        <v>50</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="10" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>1104</v>
+      </c>
+      <c r="G10">
+        <v>50</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="11" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>1089</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1105</v>
+      </c>
+      <c r="G11">
+        <v>90</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>333</v>
+      </c>
+    </row>
+    <row r="12" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>1090</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>1091</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>1098</v>
+      </c>
+      <c r="G14">
+        <f>SUM(G4:G13)</f>
+        <v>710</v>
+      </c>
+      <c r="H14">
+        <f>SUM(H4:H13)</f>
+        <v>2627</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D67"/>
   <sheetViews>
     <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11495,12 +12104,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0B55A43-07C5-4DBB-8409-7DC39E8C0129}">
-  <dimension ref="A2:D26"/>
+  <dimension ref="A2:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11839,12 +12448,36 @@
       <c r="C26" s="65"/>
       <c r="D26" s="73"/>
     </row>
+    <row r="27" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A27" s="51" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B27" s="75" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C27" s="65" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D27" s="73" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A28" s="51" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B28" s="75" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C28" s="65" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D28" s="73" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:D2" xr:uid="{174CBB07-0F5A-4BA6-9572-7202FEC09F8A}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D23">
-      <sortCondition ref="A2"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A2:D27" xr:uid="{D5EC2966-9F53-4213-A719-3EF07918F335}"/>
   <hyperlinks>
     <hyperlink ref="D9" r:id="rId1" xr:uid="{C1318C01-05BC-40F9-820F-6BC32B3977D0}"/>
     <hyperlink ref="D8" r:id="rId2" xr:uid="{F80A33F2-FD8D-4199-864D-950E0DF382E0}"/>
@@ -11865,17 +12498,19 @@
     <hyperlink ref="D23" r:id="rId17" xr:uid="{BF486555-D25F-4D90-8E48-F9761169443D}"/>
     <hyperlink ref="D24" r:id="rId18" xr:uid="{955882E7-FDFE-4281-A602-723EDFF207B0}"/>
     <hyperlink ref="D25" r:id="rId19" xr:uid="{6EFCEF45-8303-499E-AF71-485046CFAC8C}"/>
+    <hyperlink ref="D27" r:id="rId20" xr:uid="{C817CE47-D853-486F-9352-467F3524339C}"/>
+    <hyperlink ref="D28" r:id="rId21" location="each-function" xr:uid="{40394B03-22F6-40E2-BF64-FACD67B70FAD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB39D374-F7E5-4E1B-A824-7220E4B22623}">
   <dimension ref="A2:D37"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12391,320 +13026,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A58C87AB-222A-4E13-8A46-2201C051A1C5}">
-  <dimension ref="A2:D21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="48.85546875" customWidth="1"/>
-    <col min="2" max="2" width="58" customWidth="1"/>
-    <col min="3" max="3" width="110.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="42" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="63" x14ac:dyDescent="0.25">
-      <c r="A3" s="47" t="s">
-        <v>780</v>
-      </c>
-      <c r="B3" s="71" t="s">
-        <v>787</v>
-      </c>
-      <c r="C3" s="70" t="s">
-        <v>781</v>
-      </c>
-      <c r="D3" s="50" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="47" t="s">
-        <v>784</v>
-      </c>
-      <c r="B4" s="71" t="s">
-        <v>783</v>
-      </c>
-      <c r="C4" s="70" t="s">
-        <v>782</v>
-      </c>
-      <c r="D4" s="50" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="47" t="s">
-        <v>785</v>
-      </c>
-      <c r="B5" s="71"/>
-      <c r="C5" s="70" t="s">
-        <v>786</v>
-      </c>
-      <c r="D5" s="50" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="47" t="s">
-        <v>788</v>
-      </c>
-      <c r="B6" s="71" t="s">
-        <v>790</v>
-      </c>
-      <c r="C6" s="70" t="s">
-        <v>789</v>
-      </c>
-      <c r="D6" s="50" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="47" t="s">
-        <v>793</v>
-      </c>
-      <c r="B7" s="71" t="s">
-        <v>791</v>
-      </c>
-      <c r="C7" s="70" t="s">
-        <v>792</v>
-      </c>
-      <c r="D7" s="50" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="63" x14ac:dyDescent="0.25">
-      <c r="A8" s="47" t="s">
-        <v>794</v>
-      </c>
-      <c r="B8" s="71" t="s">
-        <v>795</v>
-      </c>
-      <c r="C8" s="70" t="s">
-        <v>805</v>
-      </c>
-      <c r="D8" s="50" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="47" t="s">
-        <v>796</v>
-      </c>
-      <c r="B9" s="71" t="s">
-        <v>800</v>
-      </c>
-      <c r="C9" s="70" t="s">
-        <v>797</v>
-      </c>
-      <c r="D9" s="50" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="47" t="s">
-        <v>799</v>
-      </c>
-      <c r="B10" s="71" t="s">
-        <v>798</v>
-      </c>
-      <c r="C10" s="70" t="s">
-        <v>801</v>
-      </c>
-      <c r="D10" s="50" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="47" t="s">
-        <v>802</v>
-      </c>
-      <c r="B11" s="71" t="s">
-        <v>803</v>
-      </c>
-      <c r="C11" s="70" t="s">
-        <v>804</v>
-      </c>
-      <c r="D11" s="50" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="63" x14ac:dyDescent="0.25">
-      <c r="A12" s="47" t="s">
-        <v>806</v>
-      </c>
-      <c r="B12" s="71" t="s">
-        <v>807</v>
-      </c>
-      <c r="C12" s="70" t="s">
-        <v>808</v>
-      </c>
-      <c r="D12" s="50" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="63" x14ac:dyDescent="0.25">
-      <c r="A13" s="47" t="s">
-        <v>811</v>
-      </c>
-      <c r="B13" s="71" t="s">
-        <v>809</v>
-      </c>
-      <c r="C13" s="70" t="s">
-        <v>810</v>
-      </c>
-      <c r="D13" s="50" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="47" t="s">
-        <v>812</v>
-      </c>
-      <c r="B14" s="71" t="s">
-        <v>813</v>
-      </c>
-      <c r="C14" s="70" t="s">
-        <v>814</v>
-      </c>
-      <c r="D14" s="50" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="47" t="s">
-        <v>831</v>
-      </c>
-      <c r="B15" s="71" t="s">
-        <v>832</v>
-      </c>
-      <c r="C15" s="70" t="s">
-        <v>833</v>
-      </c>
-      <c r="D15" s="72" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="47" t="s">
-        <v>815</v>
-      </c>
-      <c r="B16" s="71"/>
-      <c r="C16" s="70"/>
-      <c r="D16" s="50" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="47" t="s">
-        <v>816</v>
-      </c>
-      <c r="B17" s="71" t="s">
-        <v>817</v>
-      </c>
-      <c r="C17" s="70" t="s">
-        <v>818</v>
-      </c>
-      <c r="D17" s="72" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="63" x14ac:dyDescent="0.25">
-      <c r="A18" s="47" t="s">
-        <v>819</v>
-      </c>
-      <c r="B18" s="71" t="s">
-        <v>820</v>
-      </c>
-      <c r="C18" s="70" t="s">
-        <v>824</v>
-      </c>
-      <c r="D18" s="50" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="63" x14ac:dyDescent="0.25">
-      <c r="A19" s="47" t="s">
-        <v>821</v>
-      </c>
-      <c r="B19" s="71" t="s">
-        <v>822</v>
-      </c>
-      <c r="C19" s="70" t="s">
-        <v>823</v>
-      </c>
-      <c r="D19" s="50" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="47" t="s">
-        <v>825</v>
-      </c>
-      <c r="B20" s="71" t="s">
-        <v>826</v>
-      </c>
-      <c r="C20" s="70" t="s">
-        <v>827</v>
-      </c>
-      <c r="D20" s="50" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="63" x14ac:dyDescent="0.25">
-      <c r="A21" s="47" t="s">
-        <v>828</v>
-      </c>
-      <c r="B21" s="71" t="s">
-        <v>829</v>
-      </c>
-      <c r="C21" s="70" t="s">
-        <v>830</v>
-      </c>
-      <c r="D21" s="72" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" xr:uid="{EB5A99D5-13EA-48F1-9217-B84777B42FCB}"/>
-    <hyperlink ref="D6" r:id="rId2" xr:uid="{62499128-6C43-4568-ADD8-75ADBD896487}"/>
-    <hyperlink ref="D5" r:id="rId3" xr:uid="{D671F6DD-3735-4FF1-8402-5BA21519626D}"/>
-    <hyperlink ref="D4" r:id="rId4" xr:uid="{3AD9443F-F59A-4778-8654-BA3D0FC3CCA0}"/>
-    <hyperlink ref="D7" r:id="rId5" xr:uid="{C5B05BE4-3FAD-4B67-85AD-FD1F8F8BB316}"/>
-    <hyperlink ref="D8" r:id="rId6" xr:uid="{C15A633C-290B-49E2-B392-A41C1706A8E7}"/>
-    <hyperlink ref="D9" r:id="rId7" xr:uid="{645C2233-BE19-4B21-A2FE-76A3D36DA1FC}"/>
-    <hyperlink ref="D10" r:id="rId8" xr:uid="{17E2A589-4ED1-4B3B-9BCF-A1866E71668A}"/>
-    <hyperlink ref="D11" r:id="rId9" xr:uid="{D019EF1E-E569-4136-AE7B-29206B846190}"/>
-    <hyperlink ref="D12" r:id="rId10" xr:uid="{A390E101-F83E-45CB-9DD1-41ADE4E563C7}"/>
-    <hyperlink ref="D13" r:id="rId11" xr:uid="{FDC48A72-9199-4A21-936D-821ED88A65CE}"/>
-    <hyperlink ref="D14" r:id="rId12" xr:uid="{C198E2C0-0EC5-49F0-9ACC-8DAB8A02783E}"/>
-    <hyperlink ref="D16" r:id="rId13" location=".17,.67,.83,.67" xr:uid="{C398C20F-83CD-4158-A01E-50B7C87756EA}"/>
-    <hyperlink ref="D17" r:id="rId14" xr:uid="{86EFF247-2FA8-4C59-8122-F8DFA68C4FEB}"/>
-    <hyperlink ref="D18" r:id="rId15" xr:uid="{90D81EBC-D2BD-40DA-BFB0-9C3A34990E30}"/>
-    <hyperlink ref="D19" r:id="rId16" xr:uid="{99EF6861-5694-42B1-8F49-366224A89A95}"/>
-    <hyperlink ref="D20" r:id="rId17" xr:uid="{E5C179D4-8AB1-460C-9E0B-440980945740}"/>
-    <hyperlink ref="D21" r:id="rId18" xr:uid="{5383C8E5-9A75-4036-ADB2-91B4FE778E8D}"/>
-    <hyperlink ref="D15" r:id="rId19" xr:uid="{01606FAD-0E97-41CF-B964-179F74425AEA}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/cheat_sheet.xlsx
+++ b/cheat_sheet.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA501B92-605D-4DAF-AF60-BD5B4F007317}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E9F5D2-05BF-486D-AB2E-73BCA08A85E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1230" yWindow="975" windowWidth="27330" windowHeight="12480" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1230" yWindow="975" windowWidth="27330" windowHeight="12480" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Samplers" sheetId="5" r:id="rId1"/>
@@ -28,7 +28,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">LDP!$A$2:$L$44</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -46,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1478" uniqueCount="1106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1482" uniqueCount="1109">
   <si>
     <t>HTML</t>
   </si>
@@ -3821,6 +3820,26 @@
   </si>
   <si>
     <t>Acer SB0 23in</t>
+  </si>
+  <si>
+    <t>$("#search").on("keyup", function(event) {
+  let $search = $(event.target).val().toUpperCase();
+  for ( let i = 0 ; i &lt; $gallery_items.length ; i += 1) {
+    let $search_item = $gallery_items.eq(i);
+    if ($search_item.attr("title").toUpperCase().indexOf($search) === -1) {
+      $search_item.fadeOut(500);
+    } 
+    if ($search_item.attr("title").toUpperCase().indexOf($search) !== -1) {
+      $search_item.hide().fadeIn(500);
+    }
+  }
+});</t>
+  </si>
+  <si>
+    <t>Searching for an item in a string</t>
+  </si>
+  <si>
+    <t>The indexOf() method returns the index within the calling String object of the first occurrence of the specified value, starting the search at fromIndex. Returns -1 if the value is not found.</t>
   </si>
 </sst>
 </file>
@@ -5286,8 +5305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F2567DD-FB9D-4130-8587-5DE1233956C1}">
   <dimension ref="A2:D22"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6058,11 +6077,11 @@
       </c>
       <c r="I11" s="40">
         <f ca="1">TODAY() +I10</f>
-        <v>43827.616666666669</v>
+        <v>43830.616666666669</v>
       </c>
       <c r="J11" s="40">
         <f ca="1">I11+J10</f>
-        <v>43839.863888888889</v>
+        <v>43842.863888888889</v>
       </c>
       <c r="K11" s="40"/>
       <c r="L11" s="40"/>
@@ -9784,8 +9803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D82"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -11001,8 +11020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{617FF4C1-821D-45BA-9C01-5BF3A3BF9796}">
   <dimension ref="E3:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G23" sqref="G23:H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11194,8 +11213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D67"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12029,11 +12048,19 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="6"/>
-      <c r="B63" s="76"/>
-      <c r="C63" s="12"/>
-      <c r="D63" s="9"/>
+    <row r="63" spans="1:4" ht="189" x14ac:dyDescent="0.25">
+      <c r="A63" s="6" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B63" s="76" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="64" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
@@ -12098,9 +12125,10 @@
     <hyperlink ref="D60" r:id="rId47" xr:uid="{6BF0C8E4-6811-4D79-BB1D-41DF57791C6C}"/>
     <hyperlink ref="D62" r:id="rId48" xr:uid="{21AF3F10-996F-493C-B783-08A9B1FE4915}"/>
     <hyperlink ref="D61" r:id="rId49" xr:uid="{991C9824-9BC1-4D72-A9B1-BD3C0428EE55}"/>
+    <hyperlink ref="D63" r:id="rId50" xr:uid="{F6565A06-2986-433F-83D3-D9BA6492D390}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId50"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId51"/>
 </worksheet>
 </file>
 
@@ -12109,7 +12137,7 @@
   <dimension ref="A2:D28"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12509,8 +12537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB39D374-F7E5-4E1B-A824-7220E4B22623}">
   <dimension ref="A2:D37"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/cheat_sheet.xlsx
+++ b/cheat_sheet.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E9F5D2-05BF-486D-AB2E-73BCA08A85E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96EFB07B-ED32-463E-9FC1-081F5AFCB270}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1230" yWindow="975" windowWidth="27330" windowHeight="12480" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="540" yWindow="516" windowWidth="21144" windowHeight="11136" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Samplers" sheetId="5" r:id="rId1"/>
@@ -35,9 +35,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -45,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1482" uniqueCount="1109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="1130">
   <si>
     <t>HTML</t>
   </si>
@@ -3261,16 +3259,10 @@
     <t>let days = "Monday";</t>
   </si>
   <si>
-    <t>Selecting document object by id</t>
-  </si>
-  <si>
     <t>The Document method getElementById() returns an Element object representing the element whose id property matches the specified string. Since element IDs are required to be unique if specified, they're a useful way to get access to a specific element quickly.</t>
   </si>
   <si>
     <t>const header = document.getElementById("header_test");</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Selecting document object by tag name </t>
   </si>
   <si>
     <t xml:space="preserve">const input = document.getElementByTagName("input");
@@ -3281,16 +3273,10 @@
     <t>The Element.getElementsByTagName() method returns a live HTMLCollection of elements with the given tag name. All descendants of the specified element are searched, but not the element itself. The returned list is live, which means it updates itself with the DOM tree automatically. Therefore, there is no need to call Element.getElementsByTagName() with the same element and arguments repeatedly if the DOM changes in between calls.</t>
   </si>
   <si>
-    <t>Selecting document object by class name</t>
-  </si>
-  <si>
     <t>const class = document.getElementByClassName("item_container");</t>
   </si>
   <si>
     <t>The getElementsByClassName method of Document interface returns an array-like object of all child elements which have all of the given class names. When called on the document object, the complete document is searched, including the root node. You may also call getElementsByClassName() on any element; it will return only elements which are descendants of the specified root element with the given class names.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Selcting document object by css selectors </t>
   </si>
   <si>
     <t>The Document method querySelectorAll() returns a static (not live) NodeList representing a list of the document's elements that match the specified group of selectors.</t>
@@ -3307,17 +3293,11 @@
 const target_attribute = document.querySelectorAll("[method=POST]");</t>
   </si>
   <si>
-    <t>change an objects text content</t>
-  </si>
-  <si>
     <t>The textContent property of the Node interface represents the text content of the node and its descendants.</t>
   </si>
   <si>
     <t>const label = document.querySelectorAll("label")[0];
 label.textContent = "This will change the objects text content property";</t>
-  </si>
-  <si>
-    <t>change the inner html of an element</t>
   </si>
   <si>
     <t xml:space="preserve">const div = document.querySelectorAll(".input_container")[0];
@@ -3329,27 +3309,10 @@
 </t>
   </si>
   <si>
-    <t>change an elements attribute</t>
-  </si>
-  <si>
-    <t xml:space="preserve">const input = document.querySelectorAll("input")[0];
-input.className = "text_input";
-</t>
-  </si>
-  <si>
-    <t>change an elements style</t>
-  </si>
-  <si>
     <t>The HTMLElement.style property is used to get as well as set the inline style of an element. When getting, it returns a CSSStyleDeclaration object that contains a list of all styles properties for that element with values assigned for the attributes that are defined in the element's inline style attribute.</t>
   </si>
   <si>
-    <t>adding a child element</t>
-  </si>
-  <si>
     <t>The Node.appendChild() method adds a node to the end of the list of children of a specified parent node. If the given child is a reference to an existing node in the document, appendChild() moves it from its current position to the new position (there is no requirement to remove the node from its parent node before appending it to some other node).</t>
-  </si>
-  <si>
-    <t>Creating a new Element</t>
   </si>
   <si>
     <t>var new_input = document.createElement("p");</t>
@@ -3365,9 +3328,6 @@
     <t>div.appendChild(new_input);</t>
   </si>
   <si>
-    <t>Removing a child element</t>
-  </si>
-  <si>
     <t>const input_selector = document.querySelector("input:last-child")
 div.removeChild(input_selector);</t>
   </si>
@@ -3377,9 +3337,6 @@
   <si>
     <t>window.setTimeout( (something) =&gt; {
 console.log(something)} , 3000, "hello jess");</t>
-  </si>
-  <si>
-    <t>timeout delay</t>
   </si>
   <si>
     <t>The setTimeout() method of the WindowOrWorkerGlobalScope mixin (and successor to Window.setTimeout()) sets a timer which executes a function or specified piece of code once the timer expires.</t>
@@ -3408,9 +3365,6 @@
 });</t>
   </si>
   <si>
-    <t>Event target property</t>
-  </si>
-  <si>
     <t>The target property of the Event interface is a reference to the object that dispatched the event. It is different from Event.currentTarget when the event handler is called during the bubbling or capturing phase of the event.</t>
   </si>
   <si>
@@ -3422,9 +3376,6 @@
   </si>
   <si>
     <t>The tagName read-only property of the Element interface returns the tag name of the element on which it's called. For example, if the element is an &lt;img&gt;, its tagName property is "IMG" (for HTML documents; it may be cased differently for XML/XHTML documents).</t>
-  </si>
-  <si>
-    <t>Tag name property</t>
   </si>
   <si>
     <t>const target_input = document.querySelectorAll("input")[0];
@@ -3441,12 +3392,6 @@
     <t>The Node.parentNode read-only property returns the parent of the specified node in the DOM tree.</t>
   </si>
   <si>
-    <t>Parent Node Property</t>
-  </si>
-  <si>
-    <t>Previous Element Sibling Property</t>
-  </si>
-  <si>
     <t>The NonDocumentTypeChildNode.previousElementSibling read-only property returns the Element immediately prior to the specified one in its parent's children list, or null if the specified element is the first one in the list.</t>
   </si>
   <si>
@@ -3456,9 +3401,6 @@
     <t>The Node.insertBefore() method inserts a node before the reference node as a child of a specified parent node. If the given child is a reference to an existing node in the document, insertBefore() moves it from its current position to the new position (there is no requirement to remove the node from its parent node before appending it to some other node).</t>
   </si>
   <si>
-    <t>Inserting a Node before an element</t>
-  </si>
-  <si>
     <t>var insertedNode = parentNode.insertBefore(newNode, referenceNode);</t>
   </si>
   <si>
@@ -3468,25 +3410,13 @@
     <t xml:space="preserve">var nextNode = elementNodeReference.nextElementSibling; </t>
   </si>
   <si>
-    <t>Next Element Sibling Property</t>
-  </si>
-  <si>
     <t>The NonDocumentTypeChildNode.nextElementSibling read-only property returns the element immediately following the specified one in its parent's children list, or null if the specified element is the last one in the list.</t>
   </si>
   <si>
     <t>var children = node.children;</t>
   </si>
   <si>
-    <t>Element Children Property</t>
-  </si>
-  <si>
     <t>The ParentNode property children is a read-only property that returns a live HTMLCollection which contains all of the child elements of the node upon which it was called.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First Element Child Property </t>
-  </si>
-  <si>
-    <t>Last Element Child Property</t>
   </si>
   <si>
     <t>The ParentNode.firstElementChild read-only property returns the object's first child Element, or null if there are no child elements.</t>
@@ -3841,6 +3771,182 @@
   <si>
     <t>The indexOf() method returns the index within the calling String object of the first occurrence of the specified value, starting the search at fromIndex. Returns -1 if the value is not found.</t>
   </si>
+  <si>
+    <t>Select - by element ID</t>
+  </si>
+  <si>
+    <t>Select - by element name</t>
+  </si>
+  <si>
+    <t>Select - by element class</t>
+  </si>
+  <si>
+    <t>Select - by css selector</t>
+  </si>
+  <si>
+    <t>Manipulation - change element text content</t>
+  </si>
+  <si>
+    <t>Manipulation - change element child html</t>
+  </si>
+  <si>
+    <t>Manipulation - change / set element attribute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">const input = document.querySelectorAll("input")[0];
+input.className = "text_input";
+text = input.setAttribute("value", "test");
+</t>
+  </si>
+  <si>
+    <t>Sets the value of an attribute on the specified element. If the attribute already exists, the value is updated; otherwise a new attribute is added with the specified name and value.</t>
+  </si>
+  <si>
+    <t>Method - getting an elements attribute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  console.log(input.getAttribute("value"));</t>
+  </si>
+  <si>
+    <t>The getAttribute() method of the Element interface returns the value of a specified attribute on the element. If the given attribute does not exist, the value returned will either be null or "" (the empty string); see Notes for details.</t>
+  </si>
+  <si>
+    <t>Manipulation - change / set css properties</t>
+  </si>
+  <si>
+    <t>Manipulation - create a new element</t>
+  </si>
+  <si>
+    <t>Manipulation - adding a child element to the end of parent children</t>
+  </si>
+  <si>
+    <t>Manipulation - removing a child element from a parent element</t>
+  </si>
+  <si>
+    <t>Method - timeout delay</t>
+  </si>
+  <si>
+    <t>Select - event target</t>
+  </si>
+  <si>
+    <t>Property - element tag name</t>
+  </si>
+  <si>
+    <t>Select - element parent</t>
+  </si>
+  <si>
+    <t>Select - element previous sibling</t>
+  </si>
+  <si>
+    <t>Manipulation - insert a node before an element</t>
+  </si>
+  <si>
+    <t>Select - element next sibling</t>
+  </si>
+  <si>
+    <t>Select - all element's children</t>
+  </si>
+  <si>
+    <t>Select - element's first child</t>
+  </si>
+  <si>
+    <t>Select - element's last child</t>
+  </si>
+  <si>
+    <t>Method - element value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  console.log(input.value);</t>
+  </si>
+  <si>
+    <t>The value property of the HTMLDataElement interface returns a DOMString reflecting the value HTML attribute.</t>
+  </si>
+  <si>
+    <t>Manipulation - prevent default</t>
+  </si>
+  <si>
+    <t>input_form.addEventListener("submit", (event) =&gt; {
+  event.preventDefault();
+  console.log(input.value);
+});</t>
+  </si>
+  <si>
+    <t>The Event interface's preventDefault() method tells the user agent that if the event does not get explicitly handled, its default action should not be taken as it normally would be. T</t>
+  </si>
+  <si>
+    <t>Event Type - submit</t>
+  </si>
+  <si>
+    <t>The submit event fires when a &lt;form&gt; is submitted.</t>
+  </si>
+  <si>
+    <t>Event Type - change</t>
+  </si>
+  <si>
+    <t>invited_list.addEventListener("change", (event) =&gt; {
+  const checkbox_target = event.target;
+  const list_item_target = checkbox_target.parentNode.parentNode;
+  if (checkbox_target.checked) {
+    list_item_target.setAttribute("class","responded"); 
+  } else {
+    list_item_target.setAttribute("class","");
+  }
+});</t>
+  </si>
+  <si>
+    <t>The change event is fired for &lt;input&gt;, &lt;select&gt;, and &lt;textarea&gt; elements when an alteration to the element's value is committed by the user. Unlike the input event, the change event is not necessarily fired for each alteration to an element's value.</t>
+  </si>
+  <si>
+    <t>Manipulation - remove element</t>
+  </si>
+  <si>
+    <t>invited_list.addEventListener("click", (event) =&gt; {
+  if (event.target.tagName.toLowerCase() === "button") {
+    let list_item = event.target.parentNode;
+    list_item.remove();
+  }
+})</t>
+  </si>
+  <si>
+    <r>
+      <t>The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ChildNode.remove()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> method removes the object from the tree it belongs to.</t>
+    </r>
+  </si>
+  <si>
+    <t>Manipulation - remove child element</t>
+  </si>
+  <si>
+    <t>invited_list.addEventListener("click", (event) =&gt; {
+  if (event.target.tagName.toLowerCase() === "button") {
+    let list_item = event.target.parentNode;
+    let ul = list_item.parentNode;
+    ul.removeChild(list_item);
+  }
+})</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Node.removeChild() method removes a child node from the DOM and returns the removed node.
+</t>
+  </si>
 </sst>
 </file>
 
@@ -3850,7 +3956,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3941,6 +4047,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="16">
@@ -4252,7 +4371,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4483,9 +4602,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4829,18 +4945,18 @@
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -4863,8 +4979,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="79" t="s">
         <v>373</v>
       </c>
       <c r="C2" s="13" t="s">
@@ -4883,8 +4999,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="81"/>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="80"/>
       <c r="C3" s="13" t="s">
         <v>6</v>
       </c>
@@ -4901,7 +5017,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>460</v>
       </c>
@@ -4921,7 +5037,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>461</v>
       </c>
@@ -4937,7 +5053,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>462</v>
       </c>
@@ -4945,7 +5061,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>465</v>
       </c>
@@ -4953,7 +5069,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>545</v>
       </c>
@@ -4993,15 +5109,15 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48.85546875" customWidth="1"/>
+    <col min="1" max="1" width="48.88671875" customWidth="1"/>
     <col min="2" max="2" width="58" customWidth="1"/>
-    <col min="3" max="3" width="110.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="110.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="42" t="s">
         <v>1</v>
       </c>
@@ -5015,7 +5131,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A3" s="47" t="s">
         <v>780</v>
       </c>
@@ -5029,7 +5145,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A4" s="47" t="s">
         <v>784</v>
       </c>
@@ -5043,7 +5159,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A5" s="47" t="s">
         <v>785</v>
       </c>
@@ -5055,7 +5171,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A6" s="47" t="s">
         <v>788</v>
       </c>
@@ -5069,7 +5185,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A7" s="47" t="s">
         <v>793</v>
       </c>
@@ -5083,7 +5199,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A8" s="47" t="s">
         <v>794</v>
       </c>
@@ -5097,7 +5213,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A9" s="47" t="s">
         <v>796</v>
       </c>
@@ -5111,7 +5227,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A10" s="47" t="s">
         <v>799</v>
       </c>
@@ -5125,7 +5241,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A11" s="47" t="s">
         <v>802</v>
       </c>
@@ -5139,7 +5255,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A12" s="47" t="s">
         <v>806</v>
       </c>
@@ -5153,7 +5269,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A13" s="47" t="s">
         <v>811</v>
       </c>
@@ -5167,7 +5283,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A14" s="47" t="s">
         <v>812</v>
       </c>
@@ -5181,7 +5297,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A15" s="47" t="s">
         <v>831</v>
       </c>
@@ -5195,7 +5311,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="47" t="s">
         <v>815</v>
       </c>
@@ -5205,7 +5321,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A17" s="47" t="s">
         <v>816</v>
       </c>
@@ -5219,7 +5335,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A18" s="47" t="s">
         <v>819</v>
       </c>
@@ -5233,7 +5349,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A19" s="47" t="s">
         <v>821</v>
       </c>
@@ -5247,7 +5363,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A20" s="47" t="s">
         <v>825</v>
       </c>
@@ -5261,7 +5377,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A21" s="47" t="s">
         <v>828</v>
       </c>
@@ -5309,15 +5425,15 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48.85546875" customWidth="1"/>
+    <col min="1" max="1" width="48.88671875" customWidth="1"/>
     <col min="2" max="2" width="58" customWidth="1"/>
-    <col min="3" max="3" width="110.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="110.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="42" t="s">
         <v>1</v>
       </c>
@@ -5331,7 +5447,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="47" t="s">
         <v>834</v>
       </c>
@@ -5341,7 +5457,7 @@
       <c r="C3" s="70"/>
       <c r="D3" s="50"/>
     </row>
-    <row r="4" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A4" s="47" t="s">
         <v>836</v>
       </c>
@@ -5355,7 +5471,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="126" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A5" s="47" t="s">
         <v>839</v>
       </c>
@@ -5369,7 +5485,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="189" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A6" s="47" t="s">
         <v>841</v>
       </c>
@@ -5383,7 +5499,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="156" x14ac:dyDescent="0.3">
       <c r="A7" s="47" t="s">
         <v>846</v>
       </c>
@@ -5397,7 +5513,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="236.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="234" x14ac:dyDescent="0.3">
       <c r="A8" s="47" t="s">
         <v>849</v>
       </c>
@@ -5411,7 +5527,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A9" s="47" t="s">
         <v>847</v>
       </c>
@@ -5425,7 +5541,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A10" s="47" t="s">
         <v>850</v>
       </c>
@@ -5439,7 +5555,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A11" s="47" t="s">
         <v>857</v>
       </c>
@@ -5453,7 +5569,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="173.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="171.6" x14ac:dyDescent="0.3">
       <c r="A12" s="47" t="s">
         <v>860</v>
       </c>
@@ -5467,7 +5583,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A13" s="47" t="s">
         <v>863</v>
       </c>
@@ -5477,7 +5593,7 @@
       <c r="C13" s="70"/>
       <c r="D13" s="72"/>
     </row>
-    <row r="14" spans="1:4" ht="204.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="202.8" x14ac:dyDescent="0.3">
       <c r="A14" s="47" t="s">
         <v>865</v>
       </c>
@@ -5491,7 +5607,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="299.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="296.39999999999998" x14ac:dyDescent="0.3">
       <c r="A15" s="47" t="s">
         <v>868</v>
       </c>
@@ -5505,7 +5621,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="47" t="s">
         <v>871</v>
       </c>
@@ -5515,7 +5631,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="236.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="234" x14ac:dyDescent="0.3">
       <c r="A17" s="47" t="s">
         <v>873</v>
       </c>
@@ -5529,7 +5645,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="299.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="296.39999999999998" x14ac:dyDescent="0.3">
       <c r="A18" s="47" t="s">
         <v>875</v>
       </c>
@@ -5543,7 +5659,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A19" s="47" t="s">
         <v>878</v>
       </c>
@@ -5557,7 +5673,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A20" s="47" t="s">
         <v>881</v>
       </c>
@@ -5569,7 +5685,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A21" s="47" t="s">
         <v>883</v>
       </c>
@@ -5583,7 +5699,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="204.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="202.8" x14ac:dyDescent="0.3">
       <c r="A22" s="47" t="s">
         <v>887</v>
       </c>
@@ -5631,15 +5747,15 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38" customWidth="1"/>
-    <col min="3" max="3" width="125.42578125" customWidth="1"/>
-    <col min="4" max="4" width="48.7109375" customWidth="1"/>
+    <col min="3" max="3" width="125.44140625" customWidth="1"/>
+    <col min="4" max="4" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>889</v>
       </c>
@@ -5653,7 +5769,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>893</v>
       </c>
@@ -5667,7 +5783,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>897</v>
       </c>
@@ -5678,61 +5794,61 @@
         <v>899</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="14"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C6" s="14"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C7" s="14"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C8" s="14"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C9" s="14"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C10" s="14"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C11" s="14"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C12" s="14"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C13" s="14"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C14" s="14"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C15" s="14"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C16" s="14"/>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C17" s="14"/>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C18" s="14"/>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C19" s="14"/>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C20" s="14"/>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C21" s="14"/>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C22" s="14"/>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C23" s="14"/>
     </row>
   </sheetData>
@@ -5748,33 +5864,33 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="14" customWidth="1"/>
+    <col min="1" max="1" width="45.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="14" customWidth="1"/>
     <col min="3" max="3" width="11" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" style="14" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.5703125" style="14" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="14" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.5546875" style="14" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="17" style="14" customWidth="1"/>
-    <col min="8" max="8" width="27.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" style="14" customWidth="1"/>
-    <col min="13" max="16384" width="11.42578125" style="14"/>
+    <col min="8" max="8" width="27.88671875" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" style="14" customWidth="1"/>
+    <col min="13" max="16384" width="11.44140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="89" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="88" t="s">
         <v>570</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-    </row>
-    <row r="3" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+    </row>
+    <row r="3" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>547</v>
       </c>
@@ -5791,7 +5907,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="20" t="s">
         <v>599</v>
       </c>
@@ -5814,7 +5930,7 @@
       </c>
       <c r="G4" s="19"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
         <v>600</v>
       </c>
@@ -5836,15 +5952,15 @@
         <v>0</v>
       </c>
       <c r="G5" s="19"/>
-      <c r="H5" s="83" t="s">
+      <c r="H5" s="82" t="s">
         <v>572</v>
       </c>
-      <c r="I5" s="84"/>
-      <c r="J5" s="84"/>
-      <c r="K5" s="84"/>
-      <c r="L5" s="85"/>
-    </row>
-    <row r="6" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I5" s="83"/>
+      <c r="J5" s="83"/>
+      <c r="K5" s="83"/>
+      <c r="L5" s="84"/>
+    </row>
+    <row r="6" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="20" t="s">
         <v>601</v>
       </c>
@@ -5882,7 +5998,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
         <v>602</v>
       </c>
@@ -5924,7 +6040,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
         <v>578</v>
       </c>
@@ -5966,7 +6082,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
         <v>551</v>
       </c>
@@ -6008,7 +6124,7 @@
         <v>15.138888888888886</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="20" t="s">
         <v>552</v>
       </c>
@@ -6050,7 +6166,7 @@
         <v>13.591666666666663</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
         <v>900</v>
       </c>
@@ -6077,16 +6193,16 @@
       </c>
       <c r="I11" s="40">
         <f ca="1">TODAY() +I10</f>
-        <v>43830.616666666669</v>
+        <v>43831.616666666669</v>
       </c>
       <c r="J11" s="40">
         <f ca="1">I11+J10</f>
-        <v>43842.863888888889</v>
+        <v>43843.863888888889</v>
       </c>
       <c r="K11" s="40"/>
       <c r="L11" s="40"/>
     </row>
-    <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="20" t="s">
         <v>553</v>
       </c>
@@ -6128,7 +6244,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="20" t="s">
         <v>554</v>
       </c>
@@ -6153,15 +6269,15 @@
       <c r="H13" s="32" t="s">
         <v>645</v>
       </c>
-      <c r="I13" s="86">
+      <c r="I13" s="85">
         <f>AVERAGE(I12:L12)</f>
         <v>0.18614498644986452</v>
       </c>
-      <c r="J13" s="87"/>
-      <c r="K13" s="87"/>
-      <c r="L13" s="88"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J13" s="86"/>
+      <c r="K13" s="86"/>
+      <c r="L13" s="87"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
         <v>555</v>
       </c>
@@ -6186,7 +6302,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="20" t="s">
         <v>556</v>
       </c>
@@ -6211,7 +6327,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="20" t="s">
         <v>557</v>
       </c>
@@ -6234,7 +6350,7 @@
       </c>
       <c r="G16" s="19"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="20" t="s">
         <v>901</v>
       </c>
@@ -6257,7 +6373,7 @@
       </c>
       <c r="G17" s="19"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="20" t="s">
         <v>778</v>
       </c>
@@ -6277,9 +6393,9 @@
       <c r="F18" s="19"/>
       <c r="G18" s="19"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="20" t="s">
-        <v>1068</v>
+        <v>1046</v>
       </c>
       <c r="B19" s="21">
         <v>174</v>
@@ -6302,7 +6418,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="20" t="s">
         <v>914</v>
       </c>
@@ -6327,7 +6443,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="20" t="s">
         <v>905</v>
       </c>
@@ -6352,7 +6468,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="20" t="s">
         <v>916</v>
       </c>
@@ -6377,7 +6493,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="20" t="s">
         <v>917</v>
       </c>
@@ -6402,7 +6518,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="20" t="s">
         <v>586</v>
       </c>
@@ -6427,7 +6543,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="20" t="s">
         <v>902</v>
       </c>
@@ -6452,7 +6568,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="20" t="s">
         <v>906</v>
       </c>
@@ -6477,7 +6593,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="20" t="s">
         <v>918</v>
       </c>
@@ -6502,7 +6618,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="20" t="s">
         <v>907</v>
       </c>
@@ -6527,7 +6643,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="20" t="s">
         <v>908</v>
       </c>
@@ -6552,7 +6668,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="20" t="s">
         <v>919</v>
       </c>
@@ -6577,7 +6693,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="20" t="s">
         <v>558</v>
       </c>
@@ -6602,7 +6718,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="20" t="s">
         <v>559</v>
       </c>
@@ -6625,7 +6741,7 @@
       </c>
       <c r="G32" s="19"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="20" t="s">
         <v>560</v>
       </c>
@@ -6648,7 +6764,7 @@
       </c>
       <c r="G33" s="19"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="20" t="s">
         <v>561</v>
       </c>
@@ -6671,7 +6787,7 @@
       </c>
       <c r="G34" s="19"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="20" t="s">
         <v>562</v>
       </c>
@@ -6694,7 +6810,7 @@
       </c>
       <c r="G35" s="19"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="20" t="s">
         <v>563</v>
       </c>
@@ -6719,7 +6835,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="20" t="s">
         <v>564</v>
       </c>
@@ -6744,7 +6860,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="20" t="s">
         <v>911</v>
       </c>
@@ -6769,7 +6885,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="20" t="s">
         <v>565</v>
       </c>
@@ -6794,7 +6910,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="20" t="s">
         <v>566</v>
       </c>
@@ -6819,7 +6935,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="20" t="s">
         <v>912</v>
       </c>
@@ -6844,7 +6960,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="20" t="s">
         <v>567</v>
       </c>
@@ -6867,7 +6983,7 @@
       </c>
       <c r="G42" s="19"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="20" t="s">
         <v>568</v>
       </c>
@@ -6890,7 +7006,7 @@
       </c>
       <c r="G43" s="19"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="20" t="s">
         <v>569</v>
       </c>
@@ -6915,20 +7031,20 @@
         <v>913</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F45" s="19"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="82" t="s">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="81" t="s">
         <v>576</v>
       </c>
-      <c r="B46" s="82"/>
-      <c r="C46" s="82"/>
-      <c r="D46" s="82"/>
-      <c r="E46" s="82"/>
+      <c r="B46" s="81"/>
+      <c r="C46" s="81"/>
+      <c r="D46" s="81"/>
+      <c r="E46" s="81"/>
       <c r="F46" s="19"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="20" t="s">
         <v>577</v>
       </c>
@@ -6950,7 +7066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="20" t="s">
         <v>578</v>
       </c>
@@ -6972,7 +7088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="20" t="s">
         <v>555</v>
       </c>
@@ -6994,7 +7110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="20" t="s">
         <v>579</v>
       </c>
@@ -7016,7 +7132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="20" t="s">
         <v>580</v>
       </c>
@@ -7038,7 +7154,7 @@
         <v>2.8166666666666669</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="20" t="s">
         <v>556</v>
       </c>
@@ -7060,7 +7176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="20" t="s">
         <v>581</v>
       </c>
@@ -7082,7 +7198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="20" t="s">
         <v>563</v>
       </c>
@@ -7104,7 +7220,7 @@
         <v>4.4833333333333334</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="20" t="s">
         <v>564</v>
       </c>
@@ -7126,7 +7242,7 @@
         <v>3.9166666666666665</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="20" t="s">
         <v>582</v>
       </c>
@@ -7148,7 +7264,7 @@
         <v>2.7333333333333334</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="20" t="s">
         <v>566</v>
       </c>
@@ -7170,7 +7286,7 @@
         <v>3.8666666666666667</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="20" t="s">
         <v>583</v>
       </c>
@@ -7192,7 +7308,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="20" t="s">
         <v>584</v>
       </c>
@@ -7214,7 +7330,7 @@
         <v>3.8666666666666667</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="20" t="s">
         <v>585</v>
       </c>
@@ -7236,7 +7352,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="20" t="s">
         <v>586</v>
       </c>
@@ -7258,7 +7374,7 @@
         <v>2.4166666666666665</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="20" t="s">
         <v>587</v>
       </c>
@@ -7280,7 +7396,7 @@
         <v>4.0333333333333332</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="20" t="s">
         <v>588</v>
       </c>
@@ -7302,7 +7418,7 @@
         <v>3.2666666666666666</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="20" t="s">
         <v>598</v>
       </c>
@@ -7324,7 +7440,7 @@
         <v>2.2333333333333334</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="20" t="s">
         <v>589</v>
       </c>
@@ -7346,7 +7462,7 @@
         <v>6.1166666666666663</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="20" t="s">
         <v>590</v>
       </c>
@@ -7368,7 +7484,7 @@
         <v>2.3666666666666667</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="20" t="s">
         <v>591</v>
       </c>
@@ -7390,7 +7506,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="20" t="s">
         <v>592</v>
       </c>
@@ -7412,7 +7528,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="20" t="s">
         <v>593</v>
       </c>
@@ -7434,7 +7550,7 @@
         <v>3.6833333333333331</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="20" t="s">
         <v>594</v>
       </c>
@@ -7456,7 +7572,7 @@
         <v>4.8666666666666663</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="20" t="s">
         <v>595</v>
       </c>
@@ -7478,7 +7594,7 @@
         <v>3.3333333333333335</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="20" t="s">
         <v>596</v>
       </c>
@@ -7500,7 +7616,7 @@
         <v>3.6666666666666665</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="20" t="s">
         <v>597</v>
       </c>
@@ -7522,22 +7638,22 @@
         <v>2.6166666666666667</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D74" s="26"/>
       <c r="E74" s="27"/>
       <c r="F74" s="28"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="82" t="s">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="81" t="s">
         <v>607</v>
       </c>
-      <c r="B75" s="82"/>
-      <c r="C75" s="82"/>
-      <c r="D75" s="82"/>
-      <c r="E75" s="82"/>
+      <c r="B75" s="81"/>
+      <c r="C75" s="81"/>
+      <c r="D75" s="81"/>
+      <c r="E75" s="81"/>
       <c r="F75" s="31"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="20" t="s">
         <v>608</v>
       </c>
@@ -7559,7 +7675,7 @@
         <v>2.9166666666666665</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="20" t="s">
         <v>609</v>
       </c>
@@ -7581,7 +7697,7 @@
         <v>4.7833333333333332</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="20" t="s">
         <v>610</v>
       </c>
@@ -7603,7 +7719,7 @@
         <v>4.8666666666666663</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="20" t="s">
         <v>611</v>
       </c>
@@ -7625,7 +7741,7 @@
         <v>3.1833333333333331</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="20" t="s">
         <v>612</v>
       </c>
@@ -7647,7 +7763,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="20" t="s">
         <v>613</v>
       </c>
@@ -7669,7 +7785,7 @@
         <v>6.333333333333333</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="20" t="s">
         <v>614</v>
       </c>
@@ -7691,7 +7807,7 @@
         <v>4.333333333333333</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="20" t="s">
         <v>615</v>
       </c>
@@ -7713,7 +7829,7 @@
         <v>2.9333333333333331</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="20" t="s">
         <v>616</v>
       </c>
@@ -7735,7 +7851,7 @@
         <v>3.5666666666666669</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="20" t="s">
         <v>617</v>
       </c>
@@ -7757,7 +7873,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="20" t="s">
         <v>618</v>
       </c>
@@ -7779,7 +7895,7 @@
         <v>4.0333333333333332</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="20" t="s">
         <v>619</v>
       </c>
@@ -7801,7 +7917,7 @@
         <v>2.7166666666666668</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="20" t="s">
         <v>620</v>
       </c>
@@ -7823,7 +7939,7 @@
         <v>3.2666666666666666</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="20" t="s">
         <v>621</v>
       </c>
@@ -7845,22 +7961,22 @@
         <v>4.416666666666667</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D90" s="26"/>
       <c r="E90" s="27"/>
       <c r="F90" s="28"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="82" t="s">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" s="81" t="s">
         <v>623</v>
       </c>
-      <c r="B91" s="82"/>
-      <c r="C91" s="82"/>
-      <c r="D91" s="82"/>
-      <c r="E91" s="82"/>
-      <c r="F91" s="82"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B91" s="81"/>
+      <c r="C91" s="81"/>
+      <c r="D91" s="81"/>
+      <c r="E91" s="81"/>
+      <c r="F91" s="81"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="29" t="s">
         <v>599</v>
       </c>
@@ -7882,7 +7998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="20" t="s">
         <v>624</v>
       </c>
@@ -7904,7 +8020,7 @@
         <v>4.6500000000000004</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="20" t="s">
         <v>600</v>
       </c>
@@ -7926,7 +8042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="20" t="s">
         <v>625</v>
       </c>
@@ -7948,7 +8064,7 @@
         <v>5.2166666666666668</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="20" t="s">
         <v>626</v>
       </c>
@@ -7970,7 +8086,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="20" t="s">
         <v>627</v>
       </c>
@@ -7992,7 +8108,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="20" t="s">
         <v>628</v>
       </c>
@@ -8014,7 +8130,7 @@
         <v>2.5666666666666669</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="20" t="s">
         <v>629</v>
       </c>
@@ -8036,7 +8152,7 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="20" t="s">
         <v>630</v>
       </c>
@@ -8058,7 +8174,7 @@
         <v>2.7333333333333334</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="20" t="s">
         <v>631</v>
       </c>
@@ -8080,7 +8196,7 @@
         <v>5.3833333333333337</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="20" t="s">
         <v>632</v>
       </c>
@@ -8102,7 +8218,7 @@
         <v>3.3833333333333333</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="20" t="s">
         <v>633</v>
       </c>
@@ -8124,7 +8240,7 @@
         <v>4.2833333333333332</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="20" t="s">
         <v>634</v>
       </c>
@@ -8146,7 +8262,7 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="20" t="s">
         <v>635</v>
       </c>
@@ -8168,7 +8284,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="20" t="s">
         <v>636</v>
       </c>
@@ -8190,7 +8306,7 @@
         <v>2.4333333333333331</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="20" t="s">
         <v>637</v>
       </c>
@@ -8212,7 +8328,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="20" t="s">
         <v>638</v>
       </c>
@@ -8234,7 +8350,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="20" t="s">
         <v>594</v>
       </c>
@@ -8256,7 +8372,7 @@
         <v>4.8666666666666663</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="20" t="s">
         <v>639</v>
       </c>
@@ -8278,7 +8394,7 @@
         <v>4.7833333333333332</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="20" t="s">
         <v>640</v>
       </c>
@@ -8300,7 +8416,7 @@
         <v>6.05</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="20" t="s">
         <v>641</v>
       </c>
@@ -8322,7 +8438,7 @@
         <v>2.8166666666666669</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="20" t="s">
         <v>595</v>
       </c>
@@ -8344,7 +8460,7 @@
         <v>3.3333333333333335</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="20" t="s">
         <v>642</v>
       </c>
@@ -8366,7 +8482,7 @@
         <v>4.3666666666666663</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="20" t="s">
         <v>643</v>
       </c>
@@ -8464,21 +8580,21 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="61.5703125" customWidth="1"/>
-    <col min="2" max="2" width="64.85546875" customWidth="1"/>
-    <col min="3" max="3" width="110.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="61.5546875" customWidth="1"/>
+    <col min="2" max="2" width="64.88671875" customWidth="1"/>
+    <col min="3" max="3" width="110.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="90" t="s">
+    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A1" s="89" t="s">
         <v>485</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-    </row>
-    <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+    </row>
+    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -8489,7 +8605,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>486</v>
       </c>
@@ -8500,7 +8616,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>17</v>
       </c>
@@ -8509,7 +8625,7 @@
       </c>
       <c r="C4" s="17"/>
     </row>
-    <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>490</v>
       </c>
@@ -8520,7 +8636,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>493</v>
       </c>
@@ -8529,7 +8645,7 @@
       </c>
       <c r="C6" s="17"/>
     </row>
-    <row r="7" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
         <v>495</v>
       </c>
@@ -8540,7 +8656,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>498</v>
       </c>
@@ -8549,7 +8665,7 @@
       </c>
       <c r="C8" s="17"/>
     </row>
-    <row r="9" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>500</v>
       </c>
@@ -8558,7 +8674,7 @@
       </c>
       <c r="C9" s="17"/>
     </row>
-    <row r="10" spans="1:3" ht="131.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="108" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>502</v>
       </c>
@@ -8569,7 +8685,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>505</v>
       </c>
@@ -8580,7 +8696,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>508</v>
       </c>
@@ -8589,7 +8705,7 @@
       </c>
       <c r="C12" s="17"/>
     </row>
-    <row r="13" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>510</v>
       </c>
@@ -8598,7 +8714,7 @@
       </c>
       <c r="C13" s="17"/>
     </row>
-    <row r="14" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>512</v>
       </c>
@@ -8607,7 +8723,7 @@
       </c>
       <c r="C14" s="17"/>
     </row>
-    <row r="15" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>514</v>
       </c>
@@ -8616,7 +8732,7 @@
       </c>
       <c r="C15" s="17"/>
     </row>
-    <row r="16" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="36" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>516</v>
       </c>
@@ -8627,7 +8743,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="168.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="162" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>519</v>
       </c>
@@ -8638,7 +8754,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>521</v>
       </c>
@@ -8647,7 +8763,7 @@
       </c>
       <c r="C18" s="17"/>
     </row>
-    <row r="19" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
         <v>524</v>
       </c>
@@ -8656,7 +8772,7 @@
       </c>
       <c r="C19" s="17"/>
     </row>
-    <row r="20" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="36" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
         <v>526</v>
       </c>
@@ -8667,7 +8783,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="112.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="108" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
         <v>529</v>
       </c>
@@ -8678,7 +8794,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
         <v>530</v>
       </c>
@@ -8689,7 +8805,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="168.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="162" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
         <v>535</v>
       </c>
@@ -8716,24 +8832,24 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="31" style="8" customWidth="1"/>
-    <col min="2" max="2" width="73.28515625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="110.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.33203125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="110.5546875" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="5" customWidth="1"/>
-    <col min="5" max="16384" width="9.28515625" style="3"/>
+    <col min="5" max="16384" width="9.33203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="91" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="42" t="s">
         <v>1</v>
       </c>
@@ -8747,7 +8863,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A3" s="43" t="s">
         <v>18</v>
       </c>
@@ -8761,7 +8877,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="43" t="s">
         <v>18</v>
       </c>
@@ -8775,7 +8891,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A5" s="43" t="s">
         <v>22</v>
       </c>
@@ -8789,7 +8905,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A6" s="43" t="s">
         <v>24</v>
       </c>
@@ -8803,7 +8919,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="43" t="s">
         <v>26</v>
       </c>
@@ -8817,7 +8933,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="43" t="s">
         <v>28</v>
       </c>
@@ -8831,7 +8947,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A9" s="43" t="s">
         <v>31</v>
       </c>
@@ -8845,7 +8961,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A10" s="43" t="s">
         <v>34</v>
       </c>
@@ -8859,7 +8975,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A11" s="43" t="s">
         <v>37</v>
       </c>
@@ -8873,7 +8989,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A12" s="43" t="s">
         <v>52</v>
       </c>
@@ -8887,7 +9003,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A13" s="43" t="s">
         <v>113</v>
       </c>
@@ -8901,7 +9017,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A14" s="43" t="s">
         <v>43</v>
       </c>
@@ -8915,7 +9031,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="43" t="s">
         <v>46</v>
       </c>
@@ -8929,7 +9045,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A16" s="43" t="s">
         <v>49</v>
       </c>
@@ -8943,7 +9059,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A17" s="47" t="s">
         <v>466</v>
       </c>
@@ -8957,7 +9073,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A18" s="47" t="s">
         <v>467</v>
       </c>
@@ -8971,7 +9087,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A19" s="47" t="s">
         <v>468</v>
       </c>
@@ -8985,7 +9101,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A20" s="43" t="s">
         <v>55</v>
       </c>
@@ -8999,7 +9115,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A21" s="43" t="s">
         <v>58</v>
       </c>
@@ -9013,7 +9129,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A22" s="43" t="s">
         <v>61</v>
       </c>
@@ -9027,7 +9143,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A23" s="43" t="s">
         <v>64</v>
       </c>
@@ -9041,7 +9157,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A24" s="43" t="s">
         <v>65</v>
       </c>
@@ -9055,7 +9171,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A25" s="43" t="s">
         <v>66</v>
       </c>
@@ -9069,7 +9185,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A26" s="43" t="s">
         <v>73</v>
       </c>
@@ -9083,7 +9199,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A27" s="43" t="s">
         <v>76</v>
       </c>
@@ -9097,7 +9213,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A28" s="43" t="s">
         <v>475</v>
       </c>
@@ -9111,7 +9227,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A29" s="43" t="s">
         <v>79</v>
       </c>
@@ -9125,7 +9241,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A30" s="43" t="s">
         <v>82</v>
       </c>
@@ -9139,7 +9255,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A31" s="43" t="s">
         <v>85</v>
       </c>
@@ -9153,7 +9269,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A32" s="43" t="s">
         <v>87</v>
       </c>
@@ -9167,7 +9283,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A33" s="43" t="s">
         <v>14</v>
       </c>
@@ -9181,7 +9297,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A34" s="43" t="s">
         <v>479</v>
       </c>
@@ -9195,7 +9311,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A35" s="43" t="s">
         <v>482</v>
       </c>
@@ -9209,7 +9325,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A36" s="43" t="s">
         <v>91</v>
       </c>
@@ -9223,7 +9339,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A37" s="43" t="s">
         <v>92</v>
       </c>
@@ -9237,7 +9353,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A38" s="43" t="s">
         <v>95</v>
       </c>
@@ -9251,7 +9367,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A39" s="43" t="s">
         <v>97</v>
       </c>
@@ -9265,7 +9381,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A40" s="43" t="s">
         <v>102</v>
       </c>
@@ -9279,29 +9395,29 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="96" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="95" t="s">
         <v>105</v>
       </c>
-      <c r="B41" s="94" t="s">
+      <c r="B41" s="93" t="s">
         <v>538</v>
       </c>
-      <c r="C41" s="92" t="s">
+      <c r="C41" s="91" t="s">
         <v>106</v>
       </c>
       <c r="D41" s="46" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="97"/>
-      <c r="B42" s="95"/>
-      <c r="C42" s="93"/>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="96"/>
+      <c r="B42" s="94"/>
+      <c r="C42" s="92"/>
       <c r="D42" s="46" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A43" s="43" t="s">
         <v>107</v>
       </c>
@@ -9315,7 +9431,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A44" s="43" t="s">
         <v>539</v>
       </c>
@@ -9329,7 +9445,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="43" t="s">
         <v>110</v>
       </c>
@@ -9343,7 +9459,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A46" s="43" t="s">
         <v>112</v>
       </c>
@@ -9357,7 +9473,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="43" t="s">
         <v>116</v>
       </c>
@@ -9371,7 +9487,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="43" t="s">
         <v>3</v>
       </c>
@@ -9385,7 +9501,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A49" s="51" t="s">
         <v>271</v>
       </c>
@@ -9399,7 +9515,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A50" s="47" t="s">
         <v>340</v>
       </c>
@@ -9413,7 +9529,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A51" s="47" t="s">
         <v>343</v>
       </c>
@@ -9427,7 +9543,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A52" s="47" t="s">
         <v>346</v>
       </c>
@@ -9441,7 +9557,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A53" s="47" t="s">
         <v>350</v>
       </c>
@@ -9455,7 +9571,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A54" s="47" t="s">
         <v>353</v>
       </c>
@@ -9469,7 +9585,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A55" s="47" t="s">
         <v>356</v>
       </c>
@@ -9483,7 +9599,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A56" s="47" t="s">
         <v>357</v>
       </c>
@@ -9497,7 +9613,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A57" s="47" t="s">
         <v>364</v>
       </c>
@@ -9511,7 +9627,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A58" s="47" t="s">
         <v>365</v>
       </c>
@@ -9525,7 +9641,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A59" s="47" t="s">
         <v>366</v>
       </c>
@@ -9539,7 +9655,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A60" s="47" t="s">
         <v>370</v>
       </c>
@@ -9553,7 +9669,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A61" s="47" t="s">
         <v>371</v>
       </c>
@@ -9567,7 +9683,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A62" s="55" t="s">
         <v>374</v>
       </c>
@@ -9579,7 +9695,7 @@
       </c>
       <c r="D62" s="56"/>
     </row>
-    <row r="63" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A63" s="8" t="s">
         <v>649</v>
       </c>
@@ -9593,7 +9709,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A64" s="8" t="s">
         <v>650</v>
       </c>
@@ -9607,7 +9723,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A65" s="8" t="s">
         <v>651</v>
       </c>
@@ -9621,7 +9737,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="8" t="s">
         <v>661</v>
       </c>
@@ -9635,7 +9751,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A67" s="8" t="s">
         <v>665</v>
       </c>
@@ -9649,7 +9765,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="8" t="s">
         <v>668</v>
       </c>
@@ -9660,7 +9776,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="8" t="s">
         <v>669</v>
       </c>
@@ -9671,7 +9787,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A70" s="8" t="s">
         <v>674</v>
       </c>
@@ -9685,7 +9801,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A71" s="8" t="s">
         <v>675</v>
       </c>
@@ -9699,7 +9815,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A72" s="8" t="s">
         <v>676</v>
       </c>
@@ -9713,7 +9829,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A73" s="8" t="s">
         <v>677</v>
       </c>
@@ -9807,24 +9923,24 @@
       <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.28515625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="32.33203125" style="5" customWidth="1"/>
     <col min="2" max="2" width="75" style="11" customWidth="1"/>
-    <col min="3" max="3" width="110.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="110.5546875" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="5" customWidth="1"/>
-    <col min="5" max="16384" width="9.28515625" style="3"/>
+    <col min="5" max="16384" width="9.33203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="91" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="42" t="s">
         <v>1</v>
       </c>
@@ -9838,7 +9954,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="51" t="s">
         <v>5</v>
       </c>
@@ -9852,7 +9968,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
@@ -9866,7 +9982,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="61" t="s">
         <v>8</v>
       </c>
@@ -9880,7 +9996,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A6" s="61" t="s">
         <v>121</v>
       </c>
@@ -9894,7 +10010,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A7" s="61" t="s">
         <v>124</v>
       </c>
@@ -9908,7 +10024,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="61" t="s">
         <v>128</v>
       </c>
@@ -9922,7 +10038,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="61" t="s">
         <v>130</v>
       </c>
@@ -9936,7 +10052,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A10" s="61" t="s">
         <v>133</v>
       </c>
@@ -9950,7 +10066,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="61" t="s">
         <v>214</v>
       </c>
@@ -9964,7 +10080,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A12" s="61" t="s">
         <v>136</v>
       </c>
@@ -9978,7 +10094,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A13" s="61" t="s">
         <v>139</v>
       </c>
@@ -9992,7 +10108,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="61" t="s">
         <v>142</v>
       </c>
@@ -10006,7 +10122,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A15" s="61" t="s">
         <v>144</v>
       </c>
@@ -10020,7 +10136,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A16" s="61" t="s">
         <v>148</v>
       </c>
@@ -10034,7 +10150,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="61" t="s">
         <v>151</v>
       </c>
@@ -10048,7 +10164,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A18" s="61" t="s">
         <v>154</v>
       </c>
@@ -10062,7 +10178,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A19" s="61" t="s">
         <v>157</v>
       </c>
@@ -10076,7 +10192,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A20" s="61" t="s">
         <v>160</v>
       </c>
@@ -10090,7 +10206,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="61" t="s">
         <v>164</v>
       </c>
@@ -10104,7 +10220,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="61" t="s">
         <v>166</v>
       </c>
@@ -10118,7 +10234,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A23" s="61" t="s">
         <v>169</v>
       </c>
@@ -10132,7 +10248,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A24" s="61" t="s">
         <v>171</v>
       </c>
@@ -10146,7 +10262,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A25" s="61" t="s">
         <v>175</v>
       </c>
@@ -10160,7 +10276,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A26" s="61" t="s">
         <v>178</v>
       </c>
@@ -10174,7 +10290,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A27" s="61" t="s">
         <v>180</v>
       </c>
@@ -10188,7 +10304,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A28" s="61" t="s">
         <v>182</v>
       </c>
@@ -10202,7 +10318,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A29" s="61" t="s">
         <v>186</v>
       </c>
@@ -10216,7 +10332,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A30" s="61" t="s">
         <v>188</v>
       </c>
@@ -10230,7 +10346,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A31" s="61" t="s">
         <v>193</v>
       </c>
@@ -10244,7 +10360,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A32" s="61" t="s">
         <v>194</v>
       </c>
@@ -10258,7 +10374,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A33" s="61" t="s">
         <v>197</v>
       </c>
@@ -10272,7 +10388,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A34" s="61" t="s">
         <v>199</v>
       </c>
@@ -10286,7 +10402,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A35" s="61" t="s">
         <v>202</v>
       </c>
@@ -10300,7 +10416,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A36" s="61" t="s">
         <v>205</v>
       </c>
@@ -10314,7 +10430,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A37" s="61" t="s">
         <v>206</v>
       </c>
@@ -10328,7 +10444,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A38" s="61" t="s">
         <v>211</v>
       </c>
@@ -10342,7 +10458,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A39" s="61" t="s">
         <v>217</v>
       </c>
@@ -10356,7 +10472,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="61" t="s">
         <v>220</v>
       </c>
@@ -10370,7 +10486,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A41" s="61" t="s">
         <v>223</v>
       </c>
@@ -10384,7 +10500,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A42" s="61" t="s">
         <v>226</v>
       </c>
@@ -10398,7 +10514,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A43" s="61" t="s">
         <v>229</v>
       </c>
@@ -10412,7 +10528,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A44" s="61" t="s">
         <v>232</v>
       </c>
@@ -10426,7 +10542,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A45" s="61" t="s">
         <v>235</v>
       </c>
@@ -10440,7 +10556,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="61" t="s">
         <v>238</v>
       </c>
@@ -10454,7 +10570,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="61" t="s">
         <v>241</v>
       </c>
@@ -10468,7 +10584,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A48" s="61" t="s">
         <v>245</v>
       </c>
@@ -10482,7 +10598,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A49" s="61" t="s">
         <v>248</v>
       </c>
@@ -10496,7 +10612,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A50" s="61" t="s">
         <v>250</v>
       </c>
@@ -10510,7 +10626,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A51" s="61" t="s">
         <v>253</v>
       </c>
@@ -10524,7 +10640,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A52" s="61" t="s">
         <v>255</v>
       </c>
@@ -10538,7 +10654,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A53" s="61" t="s">
         <v>258</v>
       </c>
@@ -10552,7 +10668,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A54" s="61" t="s">
         <v>259</v>
       </c>
@@ -10566,7 +10682,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A55" s="61" t="s">
         <v>263</v>
       </c>
@@ -10580,7 +10696,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="61" t="s">
         <v>266</v>
       </c>
@@ -10594,7 +10710,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A57" s="61" t="s">
         <v>274</v>
       </c>
@@ -10608,7 +10724,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A58" s="51" t="s">
         <v>277</v>
       </c>
@@ -10622,7 +10738,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="66" t="s">
         <v>280</v>
       </c>
@@ -10636,7 +10752,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A60" s="51" t="s">
         <v>283</v>
       </c>
@@ -10650,7 +10766,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A61" s="51" t="s">
         <v>285</v>
       </c>
@@ -10664,7 +10780,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A62" s="51" t="s">
         <v>289</v>
       </c>
@@ -10678,7 +10794,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A63" s="51" t="s">
         <v>292</v>
       </c>
@@ -10692,7 +10808,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A64" s="51" t="s">
         <v>295</v>
       </c>
@@ -10706,7 +10822,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A65" s="51" t="s">
         <v>298</v>
       </c>
@@ -10720,7 +10836,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A66" s="51" t="s">
         <v>301</v>
       </c>
@@ -10734,7 +10850,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A67" s="51" t="s">
         <v>304</v>
       </c>
@@ -10748,7 +10864,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A68" s="51" t="s">
         <v>307</v>
       </c>
@@ -10762,7 +10878,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="66" t="s">
         <v>310</v>
       </c>
@@ -10776,7 +10892,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A70" s="66" t="s">
         <v>312</v>
       </c>
@@ -10790,7 +10906,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A71" s="66" t="s">
         <v>316</v>
       </c>
@@ -10804,7 +10920,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A72" s="66" t="s">
         <v>317</v>
       </c>
@@ -10818,7 +10934,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A73" s="66" t="s">
         <v>335</v>
       </c>
@@ -10832,7 +10948,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="66" t="s">
         <v>338</v>
       </c>
@@ -10844,7 +10960,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A75" s="66" t="s">
         <v>320</v>
       </c>
@@ -10858,7 +10974,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A76" s="66" t="s">
         <v>323</v>
       </c>
@@ -10872,7 +10988,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A77" s="66" t="s">
         <v>328</v>
       </c>
@@ -10886,7 +11002,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A78" s="66" t="s">
         <v>326</v>
       </c>
@@ -10900,7 +11016,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A79" s="66" t="s">
         <v>327</v>
       </c>
@@ -10914,7 +11030,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="204.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" ht="218.4" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
         <v>646</v>
       </c>
@@ -10922,7 +11038,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C82" s="5" t="s">
         <v>648</v>
       </c>
@@ -11024,41 +11140,41 @@
       <selection activeCell="G23" sqref="G23:H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="43.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E3" t="s">
-        <v>1081</v>
+        <v>1059</v>
       </c>
       <c r="F3" t="s">
-        <v>1096</v>
+        <v>1074</v>
       </c>
       <c r="G3" t="s">
-        <v>1092</v>
+        <v>1070</v>
       </c>
       <c r="H3" t="s">
-        <v>1094</v>
+        <v>1072</v>
       </c>
       <c r="I3" t="s">
-        <v>1093</v>
+        <v>1071</v>
       </c>
       <c r="J3" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="4" spans="5:10" x14ac:dyDescent="0.25">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="4" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E4" t="s">
-        <v>1082</v>
+        <v>1060</v>
       </c>
       <c r="F4" t="s">
-        <v>1097</v>
+        <v>1075</v>
       </c>
       <c r="G4">
         <v>150</v>
@@ -11068,12 +11184,12 @@
         <v>555</v>
       </c>
     </row>
-    <row r="5" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E5" t="s">
-        <v>1083</v>
+        <v>1061</v>
       </c>
       <c r="F5" t="s">
-        <v>1099</v>
+        <v>1077</v>
       </c>
       <c r="G5">
         <v>160</v>
@@ -11083,12 +11199,12 @@
         <v>592</v>
       </c>
     </row>
-    <row r="6" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E6" t="s">
-        <v>1084</v>
+        <v>1062</v>
       </c>
       <c r="F6" t="s">
-        <v>1100</v>
+        <v>1078</v>
       </c>
       <c r="G6">
         <v>50</v>
@@ -11098,12 +11214,12 @@
         <v>185</v>
       </c>
     </row>
-    <row r="7" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
-        <v>1085</v>
+        <v>1063</v>
       </c>
       <c r="F7" t="s">
-        <v>1101</v>
+        <v>1079</v>
       </c>
       <c r="G7">
         <v>80</v>
@@ -11113,12 +11229,12 @@
         <v>296</v>
       </c>
     </row>
-    <row r="8" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E8" t="s">
-        <v>1086</v>
+        <v>1064</v>
       </c>
       <c r="F8" t="s">
-        <v>1102</v>
+        <v>1080</v>
       </c>
       <c r="G8">
         <v>80</v>
@@ -11128,12 +11244,12 @@
         <v>296</v>
       </c>
     </row>
-    <row r="9" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E9" t="s">
-        <v>1087</v>
+        <v>1065</v>
       </c>
       <c r="F9" t="s">
-        <v>1103</v>
+        <v>1081</v>
       </c>
       <c r="G9">
         <v>50</v>
@@ -11143,12 +11259,12 @@
         <v>185</v>
       </c>
     </row>
-    <row r="10" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E10" t="s">
-        <v>1088</v>
+        <v>1066</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>1104</v>
+        <v>1082</v>
       </c>
       <c r="G10">
         <v>50</v>
@@ -11158,12 +11274,12 @@
         <v>185</v>
       </c>
     </row>
-    <row r="11" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E11" t="s">
-        <v>1089</v>
+        <v>1067</v>
       </c>
       <c r="F11" t="s">
-        <v>1105</v>
+        <v>1083</v>
       </c>
       <c r="G11">
         <v>90</v>
@@ -11173,27 +11289,27 @@
         <v>333</v>
       </c>
     </row>
-    <row r="12" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E12" t="s">
-        <v>1090</v>
+        <v>1068</v>
       </c>
       <c r="H12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E13" t="s">
-        <v>1091</v>
+        <v>1069</v>
       </c>
       <c r="H13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E14" t="s">
-        <v>1098</v>
+        <v>1076</v>
       </c>
       <c r="G14">
         <f>SUM(G4:G13)</f>
@@ -11211,30 +11327,30 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D67"/>
+  <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="31" style="14" customWidth="1"/>
-    <col min="2" max="2" width="73.28515625" style="77" customWidth="1"/>
-    <col min="3" max="3" width="110.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.33203125" style="77" customWidth="1"/>
+    <col min="3" max="3" width="110.5546875" style="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="14" customWidth="1"/>
-    <col min="5" max="16384" width="9.28515625" style="14"/>
+    <col min="5" max="16384" width="9.33203125" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="91" t="s">
+    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="90" t="s">
         <v>463</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="42" t="s">
         <v>1</v>
       </c>
@@ -11248,7 +11364,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A3" s="51" t="s">
         <v>377</v>
       </c>
@@ -11262,7 +11378,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A4" s="51" t="s">
         <v>936</v>
       </c>
@@ -11276,7 +11392,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="51" t="s">
         <v>937</v>
       </c>
@@ -11290,7 +11406,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="51" t="s">
         <v>380</v>
       </c>
@@ -11302,7 +11418,7 @@
       </c>
       <c r="D6" s="54"/>
     </row>
-    <row r="7" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A7" s="51" t="s">
         <v>383</v>
       </c>
@@ -11314,7 +11430,7 @@
       </c>
       <c r="D7" s="54"/>
     </row>
-    <row r="8" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A8" s="51" t="s">
         <v>386</v>
       </c>
@@ -11326,7 +11442,7 @@
       </c>
       <c r="D8" s="54"/>
     </row>
-    <row r="9" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A9" s="51" t="s">
         <v>387</v>
       </c>
@@ -11338,7 +11454,7 @@
       </c>
       <c r="D9" s="54"/>
     </row>
-    <row r="10" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A10" s="51" t="s">
         <v>392</v>
       </c>
@@ -11350,7 +11466,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A11" s="51" t="s">
         <v>393</v>
       </c>
@@ -11362,7 +11478,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="51" t="s">
         <v>396</v>
       </c>
@@ -11376,7 +11492,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A13" s="51" t="s">
         <v>399</v>
       </c>
@@ -11390,7 +11506,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A14" s="51" t="s">
         <v>402</v>
       </c>
@@ -11404,7 +11520,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A15" s="51" t="s">
         <v>405</v>
       </c>
@@ -11418,7 +11534,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A16" s="51" t="s">
         <v>408</v>
       </c>
@@ -11432,7 +11548,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A17" s="51" t="s">
         <v>411</v>
       </c>
@@ -11446,7 +11562,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A18" s="51" t="s">
         <v>414</v>
       </c>
@@ -11460,7 +11576,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A19" s="51" t="s">
         <v>417</v>
       </c>
@@ -11474,7 +11590,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A20" s="51" t="s">
         <v>419</v>
       </c>
@@ -11486,7 +11602,7 @@
       </c>
       <c r="D20" s="54"/>
     </row>
-    <row r="21" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A21" s="51" t="s">
         <v>423</v>
       </c>
@@ -11496,7 +11612,7 @@
       <c r="C21" s="65"/>
       <c r="D21" s="54"/>
     </row>
-    <row r="22" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A22" s="51" t="s">
         <v>426</v>
       </c>
@@ -11506,7 +11622,7 @@
       <c r="C22" s="65"/>
       <c r="D22" s="54"/>
     </row>
-    <row r="23" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A23" s="51" t="s">
         <v>427</v>
       </c>
@@ -11518,7 +11634,7 @@
       </c>
       <c r="D23" s="54"/>
     </row>
-    <row r="24" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A24" s="51" t="s">
         <v>435</v>
       </c>
@@ -11532,7 +11648,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A25" s="51" t="s">
         <v>436</v>
       </c>
@@ -11546,7 +11662,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A26" s="51" t="s">
         <v>437</v>
       </c>
@@ -11560,7 +11676,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A27" s="51" t="s">
         <v>440</v>
       </c>
@@ -11574,7 +11690,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A28" s="51" t="s">
         <v>443</v>
       </c>
@@ -11588,7 +11704,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A29" s="51" t="s">
         <v>445</v>
       </c>
@@ -11600,7 +11716,7 @@
       </c>
       <c r="D29" s="54"/>
     </row>
-    <row r="30" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A30" s="51" t="s">
         <v>448</v>
       </c>
@@ -11614,7 +11730,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A31" s="51" t="s">
         <v>450</v>
       </c>
@@ -11628,7 +11744,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A32" s="51" t="s">
         <v>454</v>
       </c>
@@ -11642,7 +11758,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A33" s="51" t="s">
         <v>455</v>
       </c>
@@ -11656,7 +11772,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>920</v>
       </c>
@@ -11670,7 +11786,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>925</v>
       </c>
@@ -11684,7 +11800,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>923</v>
       </c>
@@ -11698,7 +11814,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>929</v>
       </c>
@@ -11710,7 +11826,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="156" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>931</v>
       </c>
@@ -11720,7 +11836,7 @@
       <c r="C38" s="12"/>
       <c r="D38" s="9"/>
     </row>
-    <row r="39" spans="1:4" ht="204.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="202.8" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>933</v>
       </c>
@@ -11734,342 +11850,435 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B40" s="76" t="s">
+        <v>943</v>
+      </c>
+      <c r="C40" s="12" t="s">
         <v>942</v>
       </c>
-      <c r="B40" s="76" t="s">
+      <c r="D40" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="78" x14ac:dyDescent="0.3">
+      <c r="A41" s="6" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B41" s="76" t="s">
         <v>944</v>
       </c>
-      <c r="C40" s="12" t="s">
-        <v>943</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
+      <c r="C41" s="12" t="s">
         <v>945</v>
       </c>
-      <c r="B41" s="76" t="s">
+      <c r="D41" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A42" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B42" s="76" t="s">
         <v>946</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C42" s="12" t="s">
         <v>947</v>
       </c>
-      <c r="D41" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="63" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
-        <v>948</v>
-      </c>
-      <c r="B42" s="76" t="s">
+      <c r="D42" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="A43" s="6" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B43" s="76" t="s">
+        <v>950</v>
+      </c>
+      <c r="C43" s="12" t="s">
         <v>949</v>
       </c>
-      <c r="C42" s="12" t="s">
-        <v>950</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="126" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
-        <v>951</v>
-      </c>
-      <c r="B43" s="76" t="s">
-        <v>954</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>953</v>
-      </c>
       <c r="D43" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A44" s="6"/>
       <c r="B44" s="76"/>
       <c r="C44" s="12" t="s">
+        <v>948</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A45" s="6" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B45" s="76" t="s">
         <v>952</v>
       </c>
-      <c r="D44" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="63" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
+      <c r="C45" s="12" t="s">
+        <v>951</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A46" s="6" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B46" s="76" t="s">
+        <v>953</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>954</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A47" s="6" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B47" s="76" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A48" s="6" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B48" s="76" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A49" s="6" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B49" s="76" t="s">
+        <v>959</v>
+      </c>
+      <c r="C49" s="12" t="s">
         <v>955</v>
       </c>
-      <c r="B45" s="76" t="s">
+      <c r="D49" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A50" s="6" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B50" s="76" t="s">
         <v>957</v>
       </c>
-      <c r="C45" s="12" t="s">
+      <c r="C50" s="12" t="s">
+        <v>958</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A51" s="6" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B51" s="76" t="s">
+        <v>960</v>
+      </c>
+      <c r="C51" s="12" t="s">
         <v>956</v>
       </c>
-      <c r="D45" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="63" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
-        <v>958</v>
-      </c>
-      <c r="B46" s="76" t="s">
-        <v>959</v>
-      </c>
-      <c r="C46" s="12" t="s">
-        <v>960</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
+      <c r="D51" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A52" s="6" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B52" s="76" t="s">
         <v>961</v>
       </c>
-      <c r="B47" s="76" t="s">
+      <c r="C52" s="12" t="s">
         <v>962</v>
       </c>
-      <c r="C47" s="12"/>
-      <c r="D47" s="9"/>
-    </row>
-    <row r="48" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A48" s="6" t="s">
+      <c r="D52" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A53" s="6" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B53" s="76" t="s">
         <v>963</v>
       </c>
-      <c r="B48" s="76" t="s">
+      <c r="C53" s="12" t="s">
+        <v>964</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="140.4" x14ac:dyDescent="0.3">
+      <c r="A54" s="6" t="s">
+        <v>965</v>
+      </c>
+      <c r="B54" s="76" t="s">
+        <v>966</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>967</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="78" x14ac:dyDescent="0.3">
+      <c r="A55" s="6" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B55" s="76" t="s">
+        <v>968</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>969</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A56" s="6" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B56" s="76" t="s">
         <v>970</v>
       </c>
-      <c r="C48" s="12" t="s">
-        <v>964</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="6" t="s">
-        <v>967</v>
-      </c>
-      <c r="B49" s="76" t="s">
-        <v>968</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>969</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="63" x14ac:dyDescent="0.25">
-      <c r="A50" s="6" t="s">
-        <v>965</v>
-      </c>
-      <c r="B50" s="76" t="s">
+      <c r="C56" s="12" t="s">
         <v>971</v>
       </c>
-      <c r="C50" s="12" t="s">
-        <v>966</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="6" t="s">
+      <c r="D56" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="156" x14ac:dyDescent="0.3">
+      <c r="A57" s="6" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B57" s="76" t="s">
         <v>972</v>
       </c>
-      <c r="B51" s="76" t="s">
+      <c r="C57" s="12" t="s">
         <v>973</v>
       </c>
-      <c r="C51" s="12" t="s">
+      <c r="D57" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A58" s="6" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B58" s="76" t="s">
+        <v>978</v>
+      </c>
+      <c r="C58" s="12" t="s">
         <v>974</v>
       </c>
-      <c r="D51" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="6" t="s">
+      <c r="D58" s="9" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A59" s="6" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B59" s="76" t="s">
+        <v>977</v>
+      </c>
+      <c r="C59" s="12" t="s">
         <v>976</v>
       </c>
-      <c r="B52" s="76" t="s">
+      <c r="D59" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A60" s="6" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B60" s="76" t="s">
+        <v>979</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>980</v>
+      </c>
+      <c r="D60" s="9" t="s">
         <v>975</v>
       </c>
-      <c r="C52" s="12" t="s">
-        <v>977</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="6" t="s">
-        <v>978</v>
-      </c>
-      <c r="B53" s="76" t="s">
-        <v>979</v>
-      </c>
-      <c r="C53" s="12" t="s">
-        <v>980</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="6" t="s">
+    </row>
+    <row r="61" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A61" s="6" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B61" s="76" t="s">
+        <v>981</v>
+      </c>
+      <c r="C61" s="12" t="s">
         <v>982</v>
       </c>
-      <c r="B54" s="76" t="s">
-        <v>981</v>
-      </c>
-      <c r="C54" s="12" t="s">
+      <c r="D61" s="9" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A62" s="6" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B62" s="76" t="s">
+        <v>984</v>
+      </c>
+      <c r="C62" s="12" t="s">
         <v>983</v>
       </c>
-      <c r="D54" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A55" s="6" t="s">
+      <c r="D62" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A63" s="6" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B63" s="76" t="s">
         <v>986</v>
       </c>
-      <c r="B55" s="76" t="s">
-        <v>984</v>
-      </c>
-      <c r="C55" s="12" t="s">
+      <c r="C63" s="12" t="s">
         <v>985</v>
       </c>
-      <c r="D55" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="6" t="s">
-        <v>989</v>
-      </c>
-      <c r="B56" s="76" t="s">
-        <v>987</v>
-      </c>
-      <c r="C56" s="12" t="s">
-        <v>988</v>
-      </c>
-      <c r="D56" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="6" t="s">
-        <v>990</v>
-      </c>
-      <c r="B57" s="76" t="s">
-        <v>996</v>
-      </c>
-      <c r="C57" s="12" t="s">
-        <v>991</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="63" x14ac:dyDescent="0.25">
-      <c r="A58" s="6" t="s">
-        <v>994</v>
-      </c>
-      <c r="B58" s="76" t="s">
-        <v>995</v>
-      </c>
-      <c r="C58" s="12" t="s">
-        <v>993</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="6" t="s">
-        <v>998</v>
-      </c>
-      <c r="B59" s="76" t="s">
-        <v>997</v>
-      </c>
-      <c r="C59" s="12" t="s">
-        <v>999</v>
-      </c>
-      <c r="D59" s="9" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="6" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B60" s="76" t="s">
-        <v>1000</v>
-      </c>
-      <c r="C60" s="12" t="s">
-        <v>1002</v>
-      </c>
-      <c r="D60" s="9" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A61" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="B61" s="76" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C61" s="12" t="s">
-        <v>1005</v>
-      </c>
-      <c r="D61" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A62" s="6" t="s">
-        <v>1004</v>
-      </c>
-      <c r="B62" s="76" t="s">
-        <v>1008</v>
-      </c>
-      <c r="C62" s="12" t="s">
-        <v>1007</v>
-      </c>
-      <c r="D62" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="189" x14ac:dyDescent="0.25">
-      <c r="A63" s="6" t="s">
-        <v>1107</v>
-      </c>
-      <c r="B63" s="76" t="s">
-        <v>1106</v>
-      </c>
-      <c r="C63" s="12" t="s">
-        <v>1108</v>
-      </c>
       <c r="D63" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="6"/>
-      <c r="B64" s="76"/>
-      <c r="C64" s="12"/>
-      <c r="D64" s="9"/>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B67" s="79"/>
+    <row r="64" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A64" s="6" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B64" s="76" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A65" s="6" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B65" s="76" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A66" s="6" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B66" s="76" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="140.4" x14ac:dyDescent="0.3">
+      <c r="A67" s="6" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B67" s="76" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="A68" s="6" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B68" s="76" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="124.8" x14ac:dyDescent="0.3">
+      <c r="A69" s="6" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B69" s="76" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C69" s="12" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A70" s="6" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B70" s="76" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -12096,39 +12305,45 @@
     <hyperlink ref="D33" r:id="rId18" xr:uid="{71AD0149-A581-4C0E-A3CD-CAC919DE29F9}"/>
     <hyperlink ref="D32" r:id="rId19" xr:uid="{F4356921-6696-475F-8AA0-44A5102FCD02}"/>
     <hyperlink ref="D24" r:id="rId20" xr:uid="{1C53DB16-DF12-4E4F-A83B-6BFFEE5DEB11}"/>
-    <hyperlink ref="D34" r:id="rId21" xr:uid="{2331C27A-E1A3-4CFC-B2D4-59F35804376A}"/>
-    <hyperlink ref="D35" r:id="rId22" xr:uid="{B0C1E57B-CC4F-4D3B-9BEB-A36314865D8A}"/>
-    <hyperlink ref="D36" r:id="rId23" xr:uid="{318C473F-4E0E-4D25-91C4-281486AC720E}"/>
-    <hyperlink ref="D37" r:id="rId24" location="Description" xr:uid="{E8944992-95DC-489E-9C81-25AED5E7B894}"/>
-    <hyperlink ref="D39" r:id="rId25" xr:uid="{17B47D1F-67F3-4D16-89FF-94FEA0AB734D}"/>
-    <hyperlink ref="D4" r:id="rId26" xr:uid="{91FE48E8-1DD5-438A-81D7-C8DCFFBC7ABD}"/>
-    <hyperlink ref="D5" r:id="rId27" xr:uid="{E32FA30E-20C6-408C-8043-ED81002BAA61}"/>
-    <hyperlink ref="D40" r:id="rId28" xr:uid="{0E1FF3F3-FDE4-4119-8FAC-155F00C69D28}"/>
-    <hyperlink ref="D41" r:id="rId29" xr:uid="{4FC1DF0D-279E-428D-8801-CED6D2D96759}"/>
-    <hyperlink ref="D42" r:id="rId30" xr:uid="{0AE246F9-7927-4B68-8398-30B66F5069F5}"/>
-    <hyperlink ref="D43" r:id="rId31" xr:uid="{353E5829-4877-4CC1-9F88-1EE1F7B5C751}"/>
-    <hyperlink ref="D44" r:id="rId32" xr:uid="{8A685C81-7552-4186-B9FB-7594A3DE2360}"/>
-    <hyperlink ref="D45" r:id="rId33" xr:uid="{CA67EFE3-B58E-49B7-A071-302E55C4C699}"/>
-    <hyperlink ref="D46" r:id="rId34" xr:uid="{F2163C41-DD85-487D-B47F-D7686B9D0E16}"/>
-    <hyperlink ref="D48" r:id="rId35" xr:uid="{BD0196A2-7A51-4A86-AC13-3A3B3B01285D}"/>
-    <hyperlink ref="D50" r:id="rId36" xr:uid="{25B36315-1AD2-4249-806C-B745EB3B2879}"/>
-    <hyperlink ref="D49" r:id="rId37" xr:uid="{89B247BA-52DF-4FDF-A15F-4309B0CD020F}"/>
-    <hyperlink ref="D51" r:id="rId38" xr:uid="{2B48C18A-6D96-4AFF-BF28-B5A846DF6F35}"/>
-    <hyperlink ref="D52" r:id="rId39" xr:uid="{D39CF317-9D94-466F-A014-7173581F7D28}"/>
-    <hyperlink ref="D53" r:id="rId40" xr:uid="{FE97093C-5C75-4291-AB1C-160A0FF369E8}"/>
-    <hyperlink ref="D54" r:id="rId41" xr:uid="{16F6DF81-3F9E-486F-A302-8B059432CF3A}"/>
-    <hyperlink ref="D55" r:id="rId42" xr:uid="{F11D7D97-39F5-43CE-A642-3DAAE197F8ED}"/>
-    <hyperlink ref="D56" r:id="rId43" xr:uid="{8CD00E21-8774-4173-9713-9233980B5706}"/>
-    <hyperlink ref="D57" r:id="rId44" xr:uid="{F473EC76-C601-459F-9324-31F1C0744B02}"/>
-    <hyperlink ref="D58" r:id="rId45" xr:uid="{69463E75-9F6E-4BC2-A289-9FAC328157B9}"/>
-    <hyperlink ref="D59" r:id="rId46" xr:uid="{9E27051C-ED7C-4A26-8F99-5A7F5B582EE5}"/>
-    <hyperlink ref="D60" r:id="rId47" xr:uid="{6BF0C8E4-6811-4D79-BB1D-41DF57791C6C}"/>
-    <hyperlink ref="D62" r:id="rId48" xr:uid="{21AF3F10-996F-493C-B783-08A9B1FE4915}"/>
-    <hyperlink ref="D61" r:id="rId49" xr:uid="{991C9824-9BC1-4D72-A9B1-BD3C0428EE55}"/>
-    <hyperlink ref="D63" r:id="rId50" xr:uid="{F6565A06-2986-433F-83D3-D9BA6492D390}"/>
+    <hyperlink ref="D4" r:id="rId21" xr:uid="{91FE48E8-1DD5-438A-81D7-C8DCFFBC7ABD}"/>
+    <hyperlink ref="D5" r:id="rId22" xr:uid="{E32FA30E-20C6-408C-8043-ED81002BAA61}"/>
+    <hyperlink ref="D34" r:id="rId23" xr:uid="{2DD9649B-F72D-42FB-A265-416A929F2198}"/>
+    <hyperlink ref="D35" r:id="rId24" xr:uid="{9EC666AA-3664-45A4-A037-031FFCA090A5}"/>
+    <hyperlink ref="D36" r:id="rId25" xr:uid="{20FCCD91-5F33-41B2-AA47-35201A7B36DE}"/>
+    <hyperlink ref="D37" r:id="rId26" location="Description" xr:uid="{FAEF09F8-DFB4-462F-92AE-470B2DE7E0E1}"/>
+    <hyperlink ref="D39" r:id="rId27" xr:uid="{04FDF1AF-989D-4EF0-868F-8722F2E26187}"/>
+    <hyperlink ref="D40" r:id="rId28" xr:uid="{1E8B68F3-C1FA-42B5-82FA-A9193DF7FEA5}"/>
+    <hyperlink ref="D41" r:id="rId29" xr:uid="{99C7AD6E-0AAA-4C9E-83B8-74C4B7B84DE2}"/>
+    <hyperlink ref="D42" r:id="rId30" xr:uid="{A846C9AD-CF82-4C35-8E4F-336801B66EF3}"/>
+    <hyperlink ref="D43" r:id="rId31" xr:uid="{0A904BDD-31CA-4C52-8E91-C1E8AC2D0671}"/>
+    <hyperlink ref="D44" r:id="rId32" xr:uid="{2D53F1C6-9A9F-4113-878D-A7C1308299F3}"/>
+    <hyperlink ref="D45" r:id="rId33" xr:uid="{0F3DB1F4-7D99-4D78-88EB-191900CB2370}"/>
+    <hyperlink ref="D46" r:id="rId34" xr:uid="{6EA8238F-7138-4B89-931C-446FC542878E}"/>
+    <hyperlink ref="D49" r:id="rId35" xr:uid="{A97BBCCA-F14A-4651-AA46-73D2A1949A98}"/>
+    <hyperlink ref="D51" r:id="rId36" xr:uid="{C7EA3469-A47A-43CC-AECB-E5641AE41905}"/>
+    <hyperlink ref="D50" r:id="rId37" xr:uid="{6000D0FC-AFD4-4EE3-A720-1A1D86B80DDA}"/>
+    <hyperlink ref="D52" r:id="rId38" xr:uid="{E9D159B6-CED3-4110-AA8A-F9910AF742DB}"/>
+    <hyperlink ref="D53" r:id="rId39" xr:uid="{320E3A68-B64D-46E1-A89E-C02BDF56A98D}"/>
+    <hyperlink ref="D54" r:id="rId40" xr:uid="{0EECEA21-0CBC-49E5-B29D-59215D2B6FBF}"/>
+    <hyperlink ref="D55" r:id="rId41" xr:uid="{F5BD3A83-5BD6-4D0B-BFBC-A065C40A32B8}"/>
+    <hyperlink ref="D56" r:id="rId42" xr:uid="{A0C9EC0E-01AF-450B-8F8F-8D7C797436FB}"/>
+    <hyperlink ref="D57" r:id="rId43" xr:uid="{E9A38C4F-BF52-4FA4-81F3-4E48B0327DD5}"/>
+    <hyperlink ref="D58" r:id="rId44" xr:uid="{85119851-02BC-44B0-A840-F9D710F79135}"/>
+    <hyperlink ref="D59" r:id="rId45" xr:uid="{455477C9-68A2-40CC-B5DB-5A42F7A0667C}"/>
+    <hyperlink ref="D60" r:id="rId46" xr:uid="{43949A81-F9F7-41AA-9345-EFBA50C15F3E}"/>
+    <hyperlink ref="D61" r:id="rId47" xr:uid="{F07497C2-782B-4794-8483-559E457F0D83}"/>
+    <hyperlink ref="D63" r:id="rId48" xr:uid="{C600C280-9A99-4AB7-B93A-C55FF4C84BE4}"/>
+    <hyperlink ref="D62" r:id="rId49" xr:uid="{A58A9318-26FE-4FCB-A749-11A3D7FBFC94}"/>
+    <hyperlink ref="D48" r:id="rId50" xr:uid="{E2F83E13-81DF-42DA-A64D-380327D504E5}"/>
+    <hyperlink ref="D64" r:id="rId51" xr:uid="{0848038A-5D51-41C7-A6A9-BDDF60210FE6}"/>
+    <hyperlink ref="D66" r:id="rId52" xr:uid="{209089B4-AB66-44E8-AC85-11055B56FC43}"/>
+    <hyperlink ref="D68" r:id="rId53" xr:uid="{FE533DE3-8B62-44B4-AD97-36315E571483}"/>
+    <hyperlink ref="D69" r:id="rId54" xr:uid="{79E6526B-E90B-440C-ACBC-765E9EE00BD8}"/>
+    <hyperlink ref="D67" r:id="rId55" xr:uid="{D934F0ED-9BE9-4B13-94F6-2E077CD514C1}"/>
+    <hyperlink ref="D70" r:id="rId56" xr:uid="{A9867F4E-39F2-450B-B3AA-CAE3ACEC1345}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId51"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId57"/>
 </worksheet>
 </file>
 
@@ -12140,15 +12355,15 @@
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
-    <col min="2" max="2" width="73.28515625" customWidth="1"/>
-    <col min="3" max="3" width="110.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.33203125" customWidth="1"/>
+    <col min="3" max="3" width="110.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="42" t="s">
         <v>1</v>
       </c>
@@ -12162,289 +12377,289 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="51" t="s">
-        <v>1022</v>
+        <v>1000</v>
       </c>
       <c r="B3" s="75" t="s">
-        <v>1023</v>
+        <v>1001</v>
       </c>
       <c r="C3" s="65" t="s">
-        <v>1024</v>
+        <v>1002</v>
       </c>
       <c r="D3" s="73" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="51" t="s">
-        <v>1009</v>
+        <v>987</v>
       </c>
       <c r="B4" s="75" t="s">
-        <v>1010</v>
+        <v>988</v>
       </c>
       <c r="C4" s="65" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D4" s="73" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="51" t="s">
+        <v>989</v>
+      </c>
+      <c r="B5" s="75" t="s">
+        <v>992</v>
+      </c>
+      <c r="C5" s="65" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D5" s="73" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="51" t="s">
+        <v>990</v>
+      </c>
+      <c r="B6" s="75" t="s">
+        <v>993</v>
+      </c>
+      <c r="C6" s="65" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D6" s="73" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="51" t="s">
+        <v>991</v>
+      </c>
+      <c r="B7" s="75" t="s">
+        <v>994</v>
+      </c>
+      <c r="C7" s="65" t="s">
+        <v>999</v>
+      </c>
+      <c r="D7" s="73" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="51" t="s">
+        <v>997</v>
+      </c>
+      <c r="B8" s="75" t="s">
+        <v>998</v>
+      </c>
+      <c r="C8" s="65" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D8" s="73" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="51" t="s">
+        <v>995</v>
+      </c>
+      <c r="B9" s="75" t="s">
+        <v>996</v>
+      </c>
+      <c r="C9" s="65" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D9" s="73" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="51" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B10" s="75" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C10" s="65" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D10" s="73" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="171.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="51" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B11" s="75" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C11" s="65" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D11" s="73" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="51" t="s">
         <v>1026</v>
       </c>
-      <c r="D4" s="73" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="51" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B5" s="75" t="s">
-        <v>1014</v>
-      </c>
-      <c r="C5" s="65" t="s">
-        <v>1025</v>
-      </c>
-      <c r="D5" s="73" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="51" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B6" s="75" t="s">
-        <v>1015</v>
-      </c>
-      <c r="C6" s="65" t="s">
-        <v>1027</v>
-      </c>
-      <c r="D6" s="73" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="51" t="s">
-        <v>1013</v>
-      </c>
-      <c r="B7" s="75" t="s">
-        <v>1016</v>
-      </c>
-      <c r="C7" s="65" t="s">
-        <v>1021</v>
-      </c>
-      <c r="D7" s="73" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="51" t="s">
-        <v>1019</v>
-      </c>
-      <c r="B8" s="75" t="s">
-        <v>1020</v>
-      </c>
-      <c r="C8" s="65" t="s">
-        <v>1029</v>
-      </c>
-      <c r="D8" s="73" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="51" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B9" s="75" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C9" s="65" t="s">
+      <c r="B12" s="75" t="s">
         <v>1028</v>
-      </c>
-      <c r="D9" s="73" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="51" t="s">
-        <v>1036</v>
-      </c>
-      <c r="B10" s="75" t="s">
-        <v>1040</v>
-      </c>
-      <c r="C10" s="65" t="s">
-        <v>1041</v>
-      </c>
-      <c r="D10" s="73" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="173.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="51" t="s">
-        <v>1067</v>
-      </c>
-      <c r="B11" s="75" t="s">
-        <v>1066</v>
-      </c>
-      <c r="C11" s="65" t="s">
-        <v>1053</v>
-      </c>
-      <c r="D11" s="73" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="51" t="s">
-        <v>1048</v>
-      </c>
-      <c r="B12" s="75" t="s">
-        <v>1050</v>
       </c>
       <c r="C12" s="65"/>
       <c r="D12" s="73"/>
     </row>
-    <row r="13" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A13" s="51" t="s">
-        <v>1045</v>
+        <v>1023</v>
       </c>
       <c r="B13" s="75" t="s">
-        <v>1047</v>
+        <v>1025</v>
       </c>
       <c r="C13" s="65" t="s">
-        <v>1046</v>
+        <v>1024</v>
       </c>
       <c r="D13" s="73" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="51" t="s">
-        <v>1052</v>
+        <v>1030</v>
       </c>
       <c r="B14" s="75" t="s">
-        <v>1054</v>
+        <v>1032</v>
       </c>
       <c r="C14" s="65"/>
       <c r="D14" s="73"/>
     </row>
-    <row r="15" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A15" s="51" t="s">
-        <v>1034</v>
+        <v>1012</v>
       </c>
       <c r="B15" s="75" t="s">
-        <v>1033</v>
+        <v>1011</v>
       </c>
       <c r="C15" s="65" t="s">
-        <v>1035</v>
+        <v>1013</v>
       </c>
       <c r="D15" s="73" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A16" s="51" t="s">
-        <v>1043</v>
+        <v>1021</v>
       </c>
       <c r="B16" s="75" t="s">
-        <v>1042</v>
+        <v>1020</v>
       </c>
       <c r="C16" s="65" t="s">
-        <v>1044</v>
+        <v>1022</v>
       </c>
       <c r="D16" s="73" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="51" t="s">
-        <v>1049</v>
+        <v>1027</v>
       </c>
       <c r="B17" s="75" t="s">
-        <v>1051</v>
+        <v>1029</v>
       </c>
       <c r="C17" s="65"/>
       <c r="D17" s="73"/>
     </row>
-    <row r="18" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A18" s="51" t="s">
-        <v>1031</v>
+        <v>1009</v>
       </c>
       <c r="B18" s="75" t="s">
-        <v>1030</v>
+        <v>1008</v>
       </c>
       <c r="C18" s="65" t="s">
-        <v>1032</v>
+        <v>1010</v>
       </c>
       <c r="D18" s="73" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A19" s="51" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B19" s="75" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C19" s="65" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D19" s="73" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="51" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B20" s="75" t="s">
         <v>1037</v>
-      </c>
-      <c r="B19" s="75" t="s">
-        <v>1039</v>
-      </c>
-      <c r="C19" s="65" t="s">
-        <v>1038</v>
-      </c>
-      <c r="D19" s="73" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="51" t="s">
-        <v>1055</v>
-      </c>
-      <c r="B20" s="75" t="s">
-        <v>1059</v>
       </c>
       <c r="C20" s="65"/>
       <c r="D20" s="73" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="51" t="s">
-        <v>1056</v>
+        <v>1034</v>
       </c>
       <c r="B21" s="75" t="s">
-        <v>1062</v>
+        <v>1040</v>
       </c>
       <c r="C21" s="65" t="s">
-        <v>1061</v>
+        <v>1039</v>
       </c>
       <c r="D21" s="73" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A22" s="51" t="s">
-        <v>1058</v>
+        <v>1036</v>
       </c>
       <c r="B22" s="75" t="s">
-        <v>1063</v>
+        <v>1041</v>
       </c>
       <c r="C22" s="65" t="s">
-        <v>1064</v>
+        <v>1042</v>
       </c>
       <c r="D22" s="73" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A23" s="51" t="s">
-        <v>1057</v>
+        <v>1035</v>
       </c>
       <c r="B23" s="75" t="s">
-        <v>1065</v>
+        <v>1043</v>
       </c>
       <c r="C23" s="65" t="s">
-        <v>1060</v>
+        <v>1038</v>
       </c>
       <c r="D23" s="73" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="51" t="s">
-        <v>1069</v>
+        <v>1047</v>
       </c>
       <c r="B24" s="75"/>
       <c r="C24" s="65"/>
@@ -12452,53 +12667,53 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A25" s="51" t="s">
-        <v>1070</v>
+        <v>1048</v>
       </c>
       <c r="B25" s="75" t="s">
-        <v>1074</v>
+        <v>1052</v>
       </c>
       <c r="C25" s="65" t="s">
-        <v>1071</v>
+        <v>1049</v>
       </c>
       <c r="D25" s="73" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A26" s="51" t="s">
-        <v>1072</v>
+        <v>1050</v>
       </c>
       <c r="B26" s="75" t="s">
-        <v>1073</v>
+        <v>1051</v>
       </c>
       <c r="C26" s="65"/>
       <c r="D26" s="73"/>
     </row>
-    <row r="27" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A27" s="51" t="s">
-        <v>1075</v>
+        <v>1053</v>
       </c>
       <c r="B27" s="75" t="s">
-        <v>1076</v>
+        <v>1054</v>
       </c>
       <c r="C27" s="65" t="s">
-        <v>1077</v>
+        <v>1055</v>
       </c>
       <c r="D27" s="73" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A28" s="51" t="s">
-        <v>1078</v>
+        <v>1056</v>
       </c>
       <c r="B28" s="75" t="s">
-        <v>1079</v>
+        <v>1057</v>
       </c>
       <c r="C28" s="65" t="s">
-        <v>1080</v>
+        <v>1058</v>
       </c>
       <c r="D28" s="73" t="s">
         <v>6</v>
@@ -12541,15 +12756,15 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48.85546875" customWidth="1"/>
+    <col min="1" max="1" width="48.88671875" customWidth="1"/>
     <col min="2" max="2" width="58" customWidth="1"/>
-    <col min="3" max="3" width="110.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="110.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="42" t="s">
         <v>1</v>
       </c>
@@ -12563,7 +12778,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A3" s="47" t="s">
         <v>690</v>
       </c>
@@ -12577,7 +12792,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="47" t="s">
         <v>691</v>
       </c>
@@ -12591,7 +12806,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="47" t="s">
         <v>692</v>
       </c>
@@ -12605,7 +12820,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A6" s="47" t="s">
         <v>696</v>
       </c>
@@ -12619,7 +12834,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="47" t="s">
         <v>697</v>
       </c>
@@ -12633,7 +12848,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A8" s="47" t="s">
         <v>706</v>
       </c>
@@ -12645,7 +12860,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A9" s="47" t="s">
         <v>707</v>
       </c>
@@ -12655,7 +12870,7 @@
       <c r="C9" s="70"/>
       <c r="D9" s="50"/>
     </row>
-    <row r="10" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A10" s="47" t="s">
         <v>710</v>
       </c>
@@ -12665,7 +12880,7 @@
       <c r="C10" s="70"/>
       <c r="D10" s="50"/>
     </row>
-    <row r="11" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A11" s="47" t="s">
         <v>711</v>
       </c>
@@ -12675,7 +12890,7 @@
       <c r="C11" s="70"/>
       <c r="D11" s="50"/>
     </row>
-    <row r="12" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A12" s="47" t="s">
         <v>730</v>
       </c>
@@ -12685,7 +12900,7 @@
       <c r="C12" s="70"/>
       <c r="D12" s="50"/>
     </row>
-    <row r="13" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A13" s="47" t="s">
         <v>716</v>
       </c>
@@ -12699,7 +12914,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A14" s="47" t="s">
         <v>717</v>
       </c>
@@ -12713,7 +12928,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A15" s="47" t="s">
         <v>718</v>
       </c>
@@ -12727,7 +12942,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A16" s="47" t="s">
         <v>724</v>
       </c>
@@ -12741,7 +12956,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A17" s="47" t="s">
         <v>725</v>
       </c>
@@ -12755,7 +12970,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A18" s="47" t="s">
         <v>738</v>
       </c>
@@ -12769,7 +12984,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A19" s="47" t="s">
         <v>741</v>
       </c>
@@ -12783,7 +12998,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A20" s="47" t="s">
         <v>731</v>
       </c>
@@ -12797,7 +13012,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A21" s="47" t="s">
         <v>734</v>
       </c>
@@ -12811,7 +13026,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A22" s="47" t="s">
         <v>698</v>
       </c>
@@ -12825,7 +13040,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A23" s="47" t="s">
         <v>699</v>
       </c>
@@ -12839,7 +13054,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A24" s="47" t="s">
         <v>700</v>
       </c>
@@ -12853,7 +13068,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="47" t="s">
         <v>704</v>
       </c>
@@ -12867,7 +13082,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A26" s="47" t="s">
         <v>748</v>
       </c>
@@ -12881,7 +13096,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A27" s="47" t="s">
         <v>751</v>
       </c>
@@ -12895,7 +13110,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A28" s="47" t="s">
         <v>755</v>
       </c>
@@ -12909,7 +13124,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A29" s="47" t="s">
         <v>758</v>
       </c>
@@ -12923,7 +13138,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A30" s="47" t="s">
         <v>761</v>
       </c>
@@ -12937,7 +13152,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A31" s="47" t="s">
         <v>763</v>
       </c>
@@ -12951,7 +13166,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A32" s="47" t="s">
         <v>766</v>
       </c>
@@ -12965,7 +13180,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A33" s="47" t="s">
         <v>769</v>
       </c>
@@ -12979,7 +13194,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A34" s="47" t="s">
         <v>770</v>
       </c>
@@ -12993,7 +13208,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A35" s="47" t="s">
         <v>776</v>
       </c>
@@ -13007,13 +13222,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="47"/>
       <c r="B36" s="71"/>
       <c r="C36" s="70"/>
       <c r="D36" s="72"/>
     </row>
-    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="47"/>
       <c r="B37" s="71"/>
       <c r="C37" s="70"/>

--- a/cheat_sheet.xlsx
+++ b/cheat_sheet.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96EFB07B-ED32-463E-9FC1-081F5AFCB270}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D466D95-5F2D-4949-8A2A-2EFDE00EABBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="516" windowWidth="21144" windowHeight="11136" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1230" yWindow="975" windowWidth="27330" windowHeight="12480" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Samplers" sheetId="5" r:id="rId1"/>
@@ -35,7 +35,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="1130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1516" uniqueCount="1133">
   <si>
     <t>HTML</t>
   </si>
@@ -3946,6 +3948,17 @@
   <si>
     <t xml:space="preserve">The Node.removeChild() method removes a child node from the DOM and returns the removed node.
 </t>
+  </si>
+  <si>
+    <t>Event Type - DOMContentLoaded</t>
+  </si>
+  <si>
+    <t>The DOMContentLoaded event fies when the initial HTML document has been completely loaded and parsed, without waiting for stylesheets, images, and subframes to finish loading.</t>
+  </si>
+  <si>
+    <t>window.addEventListener("DOMContentLoaded", () =&gt; {
+ alert("the html of the page has now loaded");
+});</t>
   </si>
 </sst>
 </file>
@@ -4945,18 +4958,18 @@
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -4979,7 +4992,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="79" t="s">
         <v>373</v>
       </c>
@@ -4999,7 +5012,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="80"/>
       <c r="C3" s="13" t="s">
         <v>6</v>
@@ -5017,7 +5030,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>460</v>
       </c>
@@ -5037,7 +5050,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>461</v>
       </c>
@@ -5053,7 +5066,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>462</v>
       </c>
@@ -5061,7 +5074,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>465</v>
       </c>
@@ -5069,7 +5082,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>545</v>
       </c>
@@ -5109,15 +5122,15 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.88671875" customWidth="1"/>
+    <col min="1" max="1" width="48.85546875" customWidth="1"/>
     <col min="2" max="2" width="58" customWidth="1"/>
-    <col min="3" max="3" width="110.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="110.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="42" t="s">
         <v>1</v>
       </c>
@@ -5131,7 +5144,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A3" s="47" t="s">
         <v>780</v>
       </c>
@@ -5145,7 +5158,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" s="47" t="s">
         <v>784</v>
       </c>
@@ -5159,7 +5172,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="47" t="s">
         <v>785</v>
       </c>
@@ -5171,7 +5184,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="78" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A6" s="47" t="s">
         <v>788</v>
       </c>
@@ -5185,7 +5198,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A7" s="47" t="s">
         <v>793</v>
       </c>
@@ -5199,7 +5212,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A8" s="47" t="s">
         <v>794</v>
       </c>
@@ -5213,7 +5226,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" s="47" t="s">
         <v>796</v>
       </c>
@@ -5227,7 +5240,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>799</v>
       </c>
@@ -5241,7 +5254,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A11" s="47" t="s">
         <v>802</v>
       </c>
@@ -5255,7 +5268,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A12" s="47" t="s">
         <v>806</v>
       </c>
@@ -5269,7 +5282,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A13" s="47" t="s">
         <v>811</v>
       </c>
@@ -5283,7 +5296,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A14" s="47" t="s">
         <v>812</v>
       </c>
@@ -5297,7 +5310,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A15" s="47" t="s">
         <v>831</v>
       </c>
@@ -5311,7 +5324,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="47" t="s">
         <v>815</v>
       </c>
@@ -5321,7 +5334,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A17" s="47" t="s">
         <v>816</v>
       </c>
@@ -5335,7 +5348,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A18" s="47" t="s">
         <v>819</v>
       </c>
@@ -5349,7 +5362,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A19" s="47" t="s">
         <v>821</v>
       </c>
@@ -5363,7 +5376,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A20" s="47" t="s">
         <v>825</v>
       </c>
@@ -5377,7 +5390,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A21" s="47" t="s">
         <v>828</v>
       </c>
@@ -5425,15 +5438,15 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.88671875" customWidth="1"/>
+    <col min="1" max="1" width="48.85546875" customWidth="1"/>
     <col min="2" max="2" width="58" customWidth="1"/>
-    <col min="3" max="3" width="110.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="110.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="42" t="s">
         <v>1</v>
       </c>
@@ -5447,7 +5460,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="47" t="s">
         <v>834</v>
       </c>
@@ -5457,7 +5470,7 @@
       <c r="C3" s="70"/>
       <c r="D3" s="50"/>
     </row>
-    <row r="4" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" s="47" t="s">
         <v>836</v>
       </c>
@@ -5471,7 +5484,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="124.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="126" x14ac:dyDescent="0.25">
       <c r="A5" s="47" t="s">
         <v>839</v>
       </c>
@@ -5485,7 +5498,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="189" x14ac:dyDescent="0.25">
       <c r="A6" s="47" t="s">
         <v>841</v>
       </c>
@@ -5499,7 +5512,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="156" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A7" s="47" t="s">
         <v>846</v>
       </c>
@@ -5513,7 +5526,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="234" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="236.25" x14ac:dyDescent="0.25">
       <c r="A8" s="47" t="s">
         <v>849</v>
       </c>
@@ -5527,7 +5540,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A9" s="47" t="s">
         <v>847</v>
       </c>
@@ -5541,7 +5554,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>850</v>
       </c>
@@ -5555,7 +5568,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A11" s="47" t="s">
         <v>857</v>
       </c>
@@ -5569,7 +5582,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="171.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="173.25" x14ac:dyDescent="0.25">
       <c r="A12" s="47" t="s">
         <v>860</v>
       </c>
@@ -5583,7 +5596,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="78" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A13" s="47" t="s">
         <v>863</v>
       </c>
@@ -5593,7 +5606,7 @@
       <c r="C13" s="70"/>
       <c r="D13" s="72"/>
     </row>
-    <row r="14" spans="1:4" ht="202.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A14" s="47" t="s">
         <v>865</v>
       </c>
@@ -5607,7 +5620,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="296.39999999999998" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="299.25" x14ac:dyDescent="0.25">
       <c r="A15" s="47" t="s">
         <v>868</v>
       </c>
@@ -5621,7 +5634,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="47" t="s">
         <v>871</v>
       </c>
@@ -5631,7 +5644,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="234" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="236.25" x14ac:dyDescent="0.25">
       <c r="A17" s="47" t="s">
         <v>873</v>
       </c>
@@ -5645,7 +5658,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="296.39999999999998" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="299.25" x14ac:dyDescent="0.25">
       <c r="A18" s="47" t="s">
         <v>875</v>
       </c>
@@ -5659,7 +5672,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="78" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A19" s="47" t="s">
         <v>878</v>
       </c>
@@ -5673,7 +5686,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A20" s="47" t="s">
         <v>881</v>
       </c>
@@ -5685,7 +5698,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="140.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A21" s="47" t="s">
         <v>883</v>
       </c>
@@ -5699,7 +5712,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="202.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A22" s="47" t="s">
         <v>887</v>
       </c>
@@ -5747,15 +5760,15 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38" customWidth="1"/>
-    <col min="3" max="3" width="125.44140625" customWidth="1"/>
-    <col min="4" max="4" width="48.6640625" customWidth="1"/>
+    <col min="3" max="3" width="125.42578125" customWidth="1"/>
+    <col min="4" max="4" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>889</v>
       </c>
@@ -5769,7 +5782,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>893</v>
       </c>
@@ -5783,7 +5796,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>897</v>
       </c>
@@ -5794,61 +5807,61 @@
         <v>899</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C5" s="14"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C6" s="14"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C7" s="14"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C8" s="14"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C9" s="14"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C10" s="14"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C11" s="14"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C12" s="14"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C13" s="14"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C14" s="14"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C15" s="14"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C16" s="14"/>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="14"/>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" s="14"/>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" s="14"/>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" s="14"/>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" s="14"/>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22" s="14"/>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C23" s="14"/>
     </row>
   </sheetData>
@@ -5860,28 +5873,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B55396B-BB8C-4180-AD0D-7E5850126AB0}">
   <dimension ref="A2:L115"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.6640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="14" customWidth="1"/>
+    <col min="1" max="1" width="45.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="14" customWidth="1"/>
     <col min="3" max="3" width="11" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" style="14" customWidth="1"/>
-    <col min="5" max="5" width="6.33203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.5546875" style="14" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="14" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.5703125" style="14" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="17" style="14" customWidth="1"/>
-    <col min="8" max="8" width="27.88671875" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.6640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.5546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.6640625" style="14" customWidth="1"/>
-    <col min="13" max="16384" width="11.44140625" style="14"/>
+    <col min="8" max="8" width="27.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" style="14" customWidth="1"/>
+    <col min="13" max="16384" width="11.42578125" style="14"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="88" t="s">
         <v>570</v>
       </c>
@@ -5890,7 +5903,7 @@
       <c r="D2" s="88"/>
       <c r="E2" s="88"/>
     </row>
-    <row r="3" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
         <v>547</v>
       </c>
@@ -5907,7 +5920,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
         <v>599</v>
       </c>
@@ -5930,7 +5943,7 @@
       </c>
       <c r="G4" s="19"/>
     </row>
-    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>600</v>
       </c>
@@ -5960,7 +5973,7 @@
       <c r="K5" s="83"/>
       <c r="L5" s="84"/>
     </row>
-    <row r="6" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
         <v>601</v>
       </c>
@@ -5998,7 +6011,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>602</v>
       </c>
@@ -6040,7 +6053,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
         <v>578</v>
       </c>
@@ -6067,7 +6080,7 @@
       </c>
       <c r="I8" s="39">
         <f>COUNTIF(E4:E44, 2)</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J8" s="39">
         <f>COUNTIF(E47:E73, 2)</f>
@@ -6082,7 +6095,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>551</v>
       </c>
@@ -6124,7 +6137,7 @@
         <v>15.138888888888886</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>552</v>
       </c>
@@ -6151,7 +6164,7 @@
       </c>
       <c r="I10" s="39">
         <f>SUM(F4:F44)/6</f>
-        <v>10.616666666666665</v>
+        <v>9.716666666666665</v>
       </c>
       <c r="J10" s="39">
         <f>SUM(F47:F73)/6</f>
@@ -6166,7 +6179,7 @@
         <v>13.591666666666663</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>900</v>
       </c>
@@ -6193,16 +6206,16 @@
       </c>
       <c r="I11" s="40">
         <f ca="1">TODAY() +I10</f>
-        <v>43831.616666666669</v>
+        <v>43832.716666666667</v>
       </c>
       <c r="J11" s="40">
         <f ca="1">I11+J10</f>
-        <v>43843.863888888889</v>
+        <v>43844.963888888888</v>
       </c>
       <c r="K11" s="40"/>
       <c r="L11" s="40"/>
     </row>
-    <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="20" t="s">
         <v>553</v>
       </c>
@@ -6229,7 +6242,7 @@
       </c>
       <c r="I12" s="41">
         <f>I8/I7</f>
-        <v>0.43902439024390244</v>
+        <v>0.48780487804878048</v>
       </c>
       <c r="J12" s="41">
         <f>J8/J7</f>
@@ -6244,7 +6257,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
         <v>554</v>
       </c>
@@ -6271,13 +6284,13 @@
       </c>
       <c r="I13" s="85">
         <f>AVERAGE(I12:L12)</f>
-        <v>0.18614498644986452</v>
+        <v>0.19834010840108401</v>
       </c>
       <c r="J13" s="86"/>
       <c r="K13" s="86"/>
       <c r="L13" s="87"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
         <v>555</v>
       </c>
@@ -6302,7 +6315,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
         <v>556</v>
       </c>
@@ -6327,7 +6340,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
         <v>557</v>
       </c>
@@ -6350,7 +6363,7 @@
       </c>
       <c r="G16" s="19"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
         <v>901</v>
       </c>
@@ -6373,7 +6386,7 @@
       </c>
       <c r="G17" s="19"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
         <v>778</v>
       </c>
@@ -6393,7 +6406,7 @@
       <c r="F18" s="19"/>
       <c r="G18" s="19"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
         <v>1046</v>
       </c>
@@ -6418,7 +6431,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
         <v>914</v>
       </c>
@@ -6433,17 +6446,17 @@
         <v>1.5</v>
       </c>
       <c r="E20" s="21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F20" s="19">
         <f t="shared" si="1"/>
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="G20" s="19" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
         <v>905</v>
       </c>
@@ -6458,17 +6471,17 @@
         <v>3.9</v>
       </c>
       <c r="E21" s="21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F21" s="19">
         <f t="shared" si="1"/>
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="G21" s="19" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
         <v>916</v>
       </c>
@@ -6493,7 +6506,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
         <v>917</v>
       </c>
@@ -6518,7 +6531,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
         <v>586</v>
       </c>
@@ -6543,7 +6556,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
         <v>902</v>
       </c>
@@ -6568,7 +6581,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
         <v>906</v>
       </c>
@@ -6593,7 +6606,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
         <v>918</v>
       </c>
@@ -6618,7 +6631,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
         <v>907</v>
       </c>
@@ -6643,7 +6656,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
         <v>908</v>
       </c>
@@ -6668,7 +6681,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="20" t="s">
         <v>919</v>
       </c>
@@ -6693,7 +6706,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
         <v>558</v>
       </c>
@@ -6718,7 +6731,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="20" t="s">
         <v>559</v>
       </c>
@@ -6741,7 +6754,7 @@
       </c>
       <c r="G32" s="19"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
         <v>560</v>
       </c>
@@ -6764,7 +6777,7 @@
       </c>
       <c r="G33" s="19"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="20" t="s">
         <v>561</v>
       </c>
@@ -6787,7 +6800,7 @@
       </c>
       <c r="G34" s="19"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
         <v>562</v>
       </c>
@@ -6810,7 +6823,7 @@
       </c>
       <c r="G35" s="19"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="20" t="s">
         <v>563</v>
       </c>
@@ -6835,7 +6848,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
         <v>564</v>
       </c>
@@ -6860,7 +6873,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="20" t="s">
         <v>911</v>
       </c>
@@ -6885,7 +6898,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="20" t="s">
         <v>565</v>
       </c>
@@ -6910,7 +6923,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="20" t="s">
         <v>566</v>
       </c>
@@ -6935,7 +6948,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="20" t="s">
         <v>912</v>
       </c>
@@ -6960,7 +6973,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="20" t="s">
         <v>567</v>
       </c>
@@ -6983,7 +6996,7 @@
       </c>
       <c r="G42" s="19"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="20" t="s">
         <v>568</v>
       </c>
@@ -7006,7 +7019,7 @@
       </c>
       <c r="G43" s="19"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="20" t="s">
         <v>569</v>
       </c>
@@ -7031,10 +7044,10 @@
         <v>913</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F45" s="19"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="81" t="s">
         <v>576</v>
       </c>
@@ -7044,7 +7057,7 @@
       <c r="E46" s="81"/>
       <c r="F46" s="19"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="20" t="s">
         <v>577</v>
       </c>
@@ -7066,7 +7079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="20" t="s">
         <v>578</v>
       </c>
@@ -7088,7 +7101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="20" t="s">
         <v>555</v>
       </c>
@@ -7110,7 +7123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
         <v>579</v>
       </c>
@@ -7132,7 +7145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="20" t="s">
         <v>580</v>
       </c>
@@ -7154,7 +7167,7 @@
         <v>2.8166666666666669</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="20" t="s">
         <v>556</v>
       </c>
@@ -7176,7 +7189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="20" t="s">
         <v>581</v>
       </c>
@@ -7198,7 +7211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="20" t="s">
         <v>563</v>
       </c>
@@ -7220,7 +7233,7 @@
         <v>4.4833333333333334</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="20" t="s">
         <v>564</v>
       </c>
@@ -7242,7 +7255,7 @@
         <v>3.9166666666666665</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="20" t="s">
         <v>582</v>
       </c>
@@ -7264,7 +7277,7 @@
         <v>2.7333333333333334</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="20" t="s">
         <v>566</v>
       </c>
@@ -7286,7 +7299,7 @@
         <v>3.8666666666666667</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="20" t="s">
         <v>583</v>
       </c>
@@ -7308,7 +7321,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="20" t="s">
         <v>584</v>
       </c>
@@ -7330,7 +7343,7 @@
         <v>3.8666666666666667</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="20" t="s">
         <v>585</v>
       </c>
@@ -7352,7 +7365,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="20" t="s">
         <v>586</v>
       </c>
@@ -7374,7 +7387,7 @@
         <v>2.4166666666666665</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="20" t="s">
         <v>587</v>
       </c>
@@ -7396,7 +7409,7 @@
         <v>4.0333333333333332</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="20" t="s">
         <v>588</v>
       </c>
@@ -7418,7 +7431,7 @@
         <v>3.2666666666666666</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="20" t="s">
         <v>598</v>
       </c>
@@ -7440,7 +7453,7 @@
         <v>2.2333333333333334</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="20" t="s">
         <v>589</v>
       </c>
@@ -7462,7 +7475,7 @@
         <v>6.1166666666666663</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="20" t="s">
         <v>590</v>
       </c>
@@ -7484,7 +7497,7 @@
         <v>2.3666666666666667</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="20" t="s">
         <v>591</v>
       </c>
@@ -7506,7 +7519,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="20" t="s">
         <v>592</v>
       </c>
@@ -7528,7 +7541,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="20" t="s">
         <v>593</v>
       </c>
@@ -7550,7 +7563,7 @@
         <v>3.6833333333333331</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="20" t="s">
         <v>594</v>
       </c>
@@ -7572,7 +7585,7 @@
         <v>4.8666666666666663</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="20" t="s">
         <v>595</v>
       </c>
@@ -7594,7 +7607,7 @@
         <v>3.3333333333333335</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="20" t="s">
         <v>596</v>
       </c>
@@ -7616,7 +7629,7 @@
         <v>3.6666666666666665</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="20" t="s">
         <v>597</v>
       </c>
@@ -7638,12 +7651,12 @@
         <v>2.6166666666666667</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D74" s="26"/>
       <c r="E74" s="27"/>
       <c r="F74" s="28"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="81" t="s">
         <v>607</v>
       </c>
@@ -7653,7 +7666,7 @@
       <c r="E75" s="81"/>
       <c r="F75" s="31"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="20" t="s">
         <v>608</v>
       </c>
@@ -7675,7 +7688,7 @@
         <v>2.9166666666666665</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="20" t="s">
         <v>609</v>
       </c>
@@ -7697,7 +7710,7 @@
         <v>4.7833333333333332</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="20" t="s">
         <v>610</v>
       </c>
@@ -7719,7 +7732,7 @@
         <v>4.8666666666666663</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="20" t="s">
         <v>611</v>
       </c>
@@ -7741,7 +7754,7 @@
         <v>3.1833333333333331</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="20" t="s">
         <v>612</v>
       </c>
@@ -7763,7 +7776,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="20" t="s">
         <v>613</v>
       </c>
@@ -7785,7 +7798,7 @@
         <v>6.333333333333333</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="20" t="s">
         <v>614</v>
       </c>
@@ -7807,7 +7820,7 @@
         <v>4.333333333333333</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="20" t="s">
         <v>615</v>
       </c>
@@ -7829,7 +7842,7 @@
         <v>2.9333333333333331</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="20" t="s">
         <v>616</v>
       </c>
@@ -7851,7 +7864,7 @@
         <v>3.5666666666666669</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="20" t="s">
         <v>617</v>
       </c>
@@ -7873,7 +7886,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="20" t="s">
         <v>618</v>
       </c>
@@ -7895,7 +7908,7 @@
         <v>4.0333333333333332</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="20" t="s">
         <v>619</v>
       </c>
@@ -7917,7 +7930,7 @@
         <v>2.7166666666666668</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="20" t="s">
         <v>620</v>
       </c>
@@ -7939,7 +7952,7 @@
         <v>3.2666666666666666</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="20" t="s">
         <v>621</v>
       </c>
@@ -7961,12 +7974,12 @@
         <v>4.416666666666667</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D90" s="26"/>
       <c r="E90" s="27"/>
       <c r="F90" s="28"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="81" t="s">
         <v>623</v>
       </c>
@@ -7976,7 +7989,7 @@
       <c r="E91" s="81"/>
       <c r="F91" s="81"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="29" t="s">
         <v>599</v>
       </c>
@@ -7998,7 +8011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="20" t="s">
         <v>624</v>
       </c>
@@ -8020,7 +8033,7 @@
         <v>4.6500000000000004</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="20" t="s">
         <v>600</v>
       </c>
@@ -8042,7 +8055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="20" t="s">
         <v>625</v>
       </c>
@@ -8064,7 +8077,7 @@
         <v>5.2166666666666668</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="20" t="s">
         <v>626</v>
       </c>
@@ -8086,7 +8099,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="20" t="s">
         <v>627</v>
       </c>
@@ -8108,7 +8121,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="20" t="s">
         <v>628</v>
       </c>
@@ -8130,7 +8143,7 @@
         <v>2.5666666666666669</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="20" t="s">
         <v>629</v>
       </c>
@@ -8152,7 +8165,7 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="20" t="s">
         <v>630</v>
       </c>
@@ -8174,7 +8187,7 @@
         <v>2.7333333333333334</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="20" t="s">
         <v>631</v>
       </c>
@@ -8196,7 +8209,7 @@
         <v>5.3833333333333337</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="20" t="s">
         <v>632</v>
       </c>
@@ -8218,7 +8231,7 @@
         <v>3.3833333333333333</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="20" t="s">
         <v>633</v>
       </c>
@@ -8240,7 +8253,7 @@
         <v>4.2833333333333332</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="20" t="s">
         <v>634</v>
       </c>
@@ -8262,7 +8275,7 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="20" t="s">
         <v>635</v>
       </c>
@@ -8284,7 +8297,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="20" t="s">
         <v>636</v>
       </c>
@@ -8306,7 +8319,7 @@
         <v>2.4333333333333331</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="20" t="s">
         <v>637</v>
       </c>
@@ -8328,7 +8341,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="20" t="s">
         <v>638</v>
       </c>
@@ -8350,7 +8363,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="20" t="s">
         <v>594</v>
       </c>
@@ -8372,7 +8385,7 @@
         <v>4.8666666666666663</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="20" t="s">
         <v>639</v>
       </c>
@@ -8394,7 +8407,7 @@
         <v>4.7833333333333332</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="20" t="s">
         <v>640</v>
       </c>
@@ -8416,7 +8429,7 @@
         <v>6.05</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="20" t="s">
         <v>641</v>
       </c>
@@ -8438,7 +8451,7 @@
         <v>2.8166666666666669</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="20" t="s">
         <v>595</v>
       </c>
@@ -8460,7 +8473,7 @@
         <v>3.3333333333333335</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="20" t="s">
         <v>642</v>
       </c>
@@ -8482,7 +8495,7 @@
         <v>4.3666666666666663</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="20" t="s">
         <v>643</v>
       </c>
@@ -8580,21 +8593,21 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="61.5546875" customWidth="1"/>
-    <col min="2" max="2" width="64.88671875" customWidth="1"/>
-    <col min="3" max="3" width="110.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="61.5703125" customWidth="1"/>
+    <col min="2" max="2" width="64.85546875" customWidth="1"/>
+    <col min="3" max="3" width="110.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="89" t="s">
         <v>485</v>
       </c>
       <c r="B1" s="89"/>
       <c r="C1" s="89"/>
     </row>
-    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -8605,7 +8618,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>486</v>
       </c>
@@ -8616,7 +8629,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>17</v>
       </c>
@@ -8625,7 +8638,7 @@
       </c>
       <c r="C4" s="17"/>
     </row>
-    <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>490</v>
       </c>
@@ -8636,7 +8649,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>493</v>
       </c>
@@ -8645,7 +8658,7 @@
       </c>
       <c r="C6" s="17"/>
     </row>
-    <row r="7" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>495</v>
       </c>
@@ -8656,7 +8669,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>498</v>
       </c>
@@ -8665,7 +8678,7 @@
       </c>
       <c r="C8" s="17"/>
     </row>
-    <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>500</v>
       </c>
@@ -8674,7 +8687,7 @@
       </c>
       <c r="C9" s="17"/>
     </row>
-    <row r="10" spans="1:3" ht="108" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="131.25" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>502</v>
       </c>
@@ -8685,7 +8698,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>505</v>
       </c>
@@ -8696,7 +8709,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>508</v>
       </c>
@@ -8705,7 +8718,7 @@
       </c>
       <c r="C12" s="17"/>
     </row>
-    <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>510</v>
       </c>
@@ -8714,7 +8727,7 @@
       </c>
       <c r="C13" s="17"/>
     </row>
-    <row r="14" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>512</v>
       </c>
@@ -8723,7 +8736,7 @@
       </c>
       <c r="C14" s="17"/>
     </row>
-    <row r="15" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>514</v>
       </c>
@@ -8732,7 +8745,7 @@
       </c>
       <c r="C15" s="17"/>
     </row>
-    <row r="16" spans="1:3" ht="36" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>516</v>
       </c>
@@ -8743,7 +8756,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="162" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="168.75" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>519</v>
       </c>
@@ -8754,7 +8767,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>521</v>
       </c>
@@ -8763,7 +8776,7 @@
       </c>
       <c r="C18" s="17"/>
     </row>
-    <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>524</v>
       </c>
@@ -8772,7 +8785,7 @@
       </c>
       <c r="C19" s="17"/>
     </row>
-    <row r="20" spans="1:3" ht="36" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
         <v>526</v>
       </c>
@@ -8783,7 +8796,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="108" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
         <v>529</v>
       </c>
@@ -8794,7 +8807,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
         <v>530</v>
       </c>
@@ -8805,7 +8818,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="162" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="168.75" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>535</v>
       </c>
@@ -8832,16 +8845,16 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" style="8" customWidth="1"/>
-    <col min="2" max="2" width="73.33203125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="110.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.28515625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="110.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="5" customWidth="1"/>
-    <col min="5" max="16384" width="9.33203125" style="3"/>
+    <col min="5" max="16384" width="9.28515625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="90" t="s">
         <v>0</v>
       </c>
@@ -8849,7 +8862,7 @@
       <c r="C1" s="90"/>
       <c r="D1" s="90"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="42" t="s">
         <v>1</v>
       </c>
@@ -8863,7 +8876,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="43" t="s">
         <v>18</v>
       </c>
@@ -8877,7 +8890,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="43" t="s">
         <v>18</v>
       </c>
@@ -8891,7 +8904,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="43" t="s">
         <v>22</v>
       </c>
@@ -8905,7 +8918,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="43" t="s">
         <v>24</v>
       </c>
@@ -8919,7 +8932,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="43" t="s">
         <v>26</v>
       </c>
@@ -8933,7 +8946,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="43" t="s">
         <v>28</v>
       </c>
@@ -8947,7 +8960,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="43" t="s">
         <v>31</v>
       </c>
@@ -8961,7 +8974,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="43" t="s">
         <v>34</v>
       </c>
@@ -8975,7 +8988,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A11" s="43" t="s">
         <v>37</v>
       </c>
@@ -8989,7 +9002,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="43" t="s">
         <v>52</v>
       </c>
@@ -9003,7 +9016,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="43" t="s">
         <v>113</v>
       </c>
@@ -9017,7 +9030,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="43" t="s">
         <v>43</v>
       </c>
@@ -9031,7 +9044,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="43" t="s">
         <v>46</v>
       </c>
@@ -9045,7 +9058,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" s="43" t="s">
         <v>49</v>
       </c>
@@ -9059,7 +9072,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A17" s="47" t="s">
         <v>466</v>
       </c>
@@ -9073,7 +9086,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A18" s="47" t="s">
         <v>467</v>
       </c>
@@ -9087,7 +9100,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A19" s="47" t="s">
         <v>468</v>
       </c>
@@ -9101,7 +9114,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A20" s="43" t="s">
         <v>55</v>
       </c>
@@ -9115,7 +9128,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A21" s="43" t="s">
         <v>58</v>
       </c>
@@ -9129,7 +9142,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" s="43" t="s">
         <v>61</v>
       </c>
@@ -9143,7 +9156,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A23" s="43" t="s">
         <v>64</v>
       </c>
@@ -9157,7 +9170,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A24" s="43" t="s">
         <v>65</v>
       </c>
@@ -9171,7 +9184,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A25" s="43" t="s">
         <v>66</v>
       </c>
@@ -9185,7 +9198,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A26" s="43" t="s">
         <v>73</v>
       </c>
@@ -9199,7 +9212,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A27" s="43" t="s">
         <v>76</v>
       </c>
@@ -9213,7 +9226,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A28" s="43" t="s">
         <v>475</v>
       </c>
@@ -9227,7 +9240,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A29" s="43" t="s">
         <v>79</v>
       </c>
@@ -9241,7 +9254,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A30" s="43" t="s">
         <v>82</v>
       </c>
@@ -9255,7 +9268,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A31" s="43" t="s">
         <v>85</v>
       </c>
@@ -9269,7 +9282,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A32" s="43" t="s">
         <v>87</v>
       </c>
@@ -9283,7 +9296,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A33" s="43" t="s">
         <v>14</v>
       </c>
@@ -9297,7 +9310,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A34" s="43" t="s">
         <v>479</v>
       </c>
@@ -9311,7 +9324,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A35" s="43" t="s">
         <v>482</v>
       </c>
@@ -9325,7 +9338,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A36" s="43" t="s">
         <v>91</v>
       </c>
@@ -9339,7 +9352,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A37" s="43" t="s">
         <v>92</v>
       </c>
@@ -9353,7 +9366,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A38" s="43" t="s">
         <v>95</v>
       </c>
@@ -9367,7 +9380,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A39" s="43" t="s">
         <v>97</v>
       </c>
@@ -9381,7 +9394,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A40" s="43" t="s">
         <v>102</v>
       </c>
@@ -9395,7 +9408,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="95" t="s">
         <v>105</v>
       </c>
@@ -9409,7 +9422,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="96"/>
       <c r="B42" s="94"/>
       <c r="C42" s="92"/>
@@ -9417,7 +9430,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A43" s="43" t="s">
         <v>107</v>
       </c>
@@ -9431,7 +9444,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A44" s="43" t="s">
         <v>539</v>
       </c>
@@ -9445,7 +9458,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="43" t="s">
         <v>110</v>
       </c>
@@ -9459,7 +9472,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A46" s="43" t="s">
         <v>112</v>
       </c>
@@ -9473,7 +9486,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="43" t="s">
         <v>116</v>
       </c>
@@ -9487,7 +9500,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="43" t="s">
         <v>3</v>
       </c>
@@ -9501,7 +9514,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A49" s="51" t="s">
         <v>271</v>
       </c>
@@ -9515,7 +9528,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A50" s="47" t="s">
         <v>340</v>
       </c>
@@ -9529,7 +9542,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A51" s="47" t="s">
         <v>343</v>
       </c>
@@ -9543,7 +9556,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A52" s="47" t="s">
         <v>346</v>
       </c>
@@ -9557,7 +9570,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A53" s="47" t="s">
         <v>350</v>
       </c>
@@ -9571,7 +9584,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A54" s="47" t="s">
         <v>353</v>
       </c>
@@ -9585,7 +9598,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A55" s="47" t="s">
         <v>356</v>
       </c>
@@ -9599,7 +9612,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A56" s="47" t="s">
         <v>357</v>
       </c>
@@ -9613,7 +9626,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A57" s="47" t="s">
         <v>364</v>
       </c>
@@ -9627,7 +9640,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A58" s="47" t="s">
         <v>365</v>
       </c>
@@ -9641,7 +9654,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A59" s="47" t="s">
         <v>366</v>
       </c>
@@ -9655,7 +9668,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A60" s="47" t="s">
         <v>370</v>
       </c>
@@ -9669,7 +9682,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A61" s="47" t="s">
         <v>371</v>
       </c>
@@ -9683,7 +9696,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A62" s="55" t="s">
         <v>374</v>
       </c>
@@ -9695,7 +9708,7 @@
       </c>
       <c r="D62" s="56"/>
     </row>
-    <row r="63" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
         <v>649</v>
       </c>
@@ -9709,7 +9722,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
         <v>650</v>
       </c>
@@ -9723,7 +9736,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
         <v>651</v>
       </c>
@@ -9737,7 +9750,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
         <v>661</v>
       </c>
@@ -9751,7 +9764,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
         <v>665</v>
       </c>
@@ -9765,7 +9778,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
         <v>668</v>
       </c>
@@ -9776,7 +9789,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
         <v>669</v>
       </c>
@@ -9787,7 +9800,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
         <v>674</v>
       </c>
@@ -9801,7 +9814,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
         <v>675</v>
       </c>
@@ -9815,7 +9828,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
         <v>676</v>
       </c>
@@ -9829,7 +9842,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
         <v>677</v>
       </c>
@@ -9923,16 +9936,16 @@
       <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.33203125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="32.28515625" style="5" customWidth="1"/>
     <col min="2" max="2" width="75" style="11" customWidth="1"/>
-    <col min="3" max="3" width="110.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="110.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="5" customWidth="1"/>
-    <col min="5" max="16384" width="9.33203125" style="3"/>
+    <col min="5" max="16384" width="9.28515625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="90" t="s">
         <v>4</v>
       </c>
@@ -9940,7 +9953,7 @@
       <c r="C1" s="90"/>
       <c r="D1" s="90"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="42" t="s">
         <v>1</v>
       </c>
@@ -9954,7 +9967,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="51" t="s">
         <v>5</v>
       </c>
@@ -9968,7 +9981,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
@@ -9982,7 +9995,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="61" t="s">
         <v>8</v>
       </c>
@@ -9996,7 +10009,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="61" t="s">
         <v>121</v>
       </c>
@@ -10010,7 +10023,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="61" t="s">
         <v>124</v>
       </c>
@@ -10024,7 +10037,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="61" t="s">
         <v>128</v>
       </c>
@@ -10038,7 +10051,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="61" t="s">
         <v>130</v>
       </c>
@@ -10052,7 +10065,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A10" s="61" t="s">
         <v>133</v>
       </c>
@@ -10066,7 +10079,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="61" t="s">
         <v>214</v>
       </c>
@@ -10080,7 +10093,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="61" t="s">
         <v>136</v>
       </c>
@@ -10094,7 +10107,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="61" t="s">
         <v>139</v>
       </c>
@@ -10108,7 +10121,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="61" t="s">
         <v>142</v>
       </c>
@@ -10122,7 +10135,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="61" t="s">
         <v>144</v>
       </c>
@@ -10136,7 +10149,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" s="61" t="s">
         <v>148</v>
       </c>
@@ -10150,7 +10163,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="61" t="s">
         <v>151</v>
       </c>
@@ -10164,7 +10177,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A18" s="61" t="s">
         <v>154</v>
       </c>
@@ -10178,7 +10191,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A19" s="61" t="s">
         <v>157</v>
       </c>
@@ -10192,7 +10205,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A20" s="61" t="s">
         <v>160</v>
       </c>
@@ -10206,7 +10219,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="61" t="s">
         <v>164</v>
       </c>
@@ -10220,7 +10233,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="61" t="s">
         <v>166</v>
       </c>
@@ -10234,7 +10247,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A23" s="61" t="s">
         <v>169</v>
       </c>
@@ -10248,7 +10261,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A24" s="61" t="s">
         <v>171</v>
       </c>
@@ -10262,7 +10275,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A25" s="61" t="s">
         <v>175</v>
       </c>
@@ -10276,7 +10289,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="61" t="s">
         <v>178</v>
       </c>
@@ -10290,7 +10303,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A27" s="61" t="s">
         <v>180</v>
       </c>
@@ -10304,7 +10317,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A28" s="61" t="s">
         <v>182</v>
       </c>
@@ -10318,7 +10331,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A29" s="61" t="s">
         <v>186</v>
       </c>
@@ -10332,7 +10345,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A30" s="61" t="s">
         <v>188</v>
       </c>
@@ -10346,7 +10359,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A31" s="61" t="s">
         <v>193</v>
       </c>
@@ -10360,7 +10373,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A32" s="61" t="s">
         <v>194</v>
       </c>
@@ -10374,7 +10387,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A33" s="61" t="s">
         <v>197</v>
       </c>
@@ -10388,7 +10401,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A34" s="61" t="s">
         <v>199</v>
       </c>
@@ -10402,7 +10415,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A35" s="61" t="s">
         <v>202</v>
       </c>
@@ -10416,7 +10429,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A36" s="61" t="s">
         <v>205</v>
       </c>
@@ -10430,7 +10443,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A37" s="61" t="s">
         <v>206</v>
       </c>
@@ -10444,7 +10457,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A38" s="61" t="s">
         <v>211</v>
       </c>
@@ -10458,7 +10471,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A39" s="61" t="s">
         <v>217</v>
       </c>
@@ -10472,7 +10485,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="61" t="s">
         <v>220</v>
       </c>
@@ -10486,7 +10499,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A41" s="61" t="s">
         <v>223</v>
       </c>
@@ -10500,7 +10513,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A42" s="61" t="s">
         <v>226</v>
       </c>
@@ -10514,7 +10527,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A43" s="61" t="s">
         <v>229</v>
       </c>
@@ -10528,7 +10541,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A44" s="61" t="s">
         <v>232</v>
       </c>
@@ -10542,7 +10555,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A45" s="61" t="s">
         <v>235</v>
       </c>
@@ -10556,7 +10569,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="61" t="s">
         <v>238</v>
       </c>
@@ -10570,7 +10583,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="61" t="s">
         <v>241</v>
       </c>
@@ -10584,7 +10597,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A48" s="61" t="s">
         <v>245</v>
       </c>
@@ -10598,7 +10611,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A49" s="61" t="s">
         <v>248</v>
       </c>
@@ -10612,7 +10625,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A50" s="61" t="s">
         <v>250</v>
       </c>
@@ -10626,7 +10639,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A51" s="61" t="s">
         <v>253</v>
       </c>
@@ -10640,7 +10653,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A52" s="61" t="s">
         <v>255</v>
       </c>
@@ -10654,7 +10667,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A53" s="61" t="s">
         <v>258</v>
       </c>
@@ -10668,7 +10681,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A54" s="61" t="s">
         <v>259</v>
       </c>
@@ -10682,7 +10695,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="78" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A55" s="61" t="s">
         <v>263</v>
       </c>
@@ -10696,7 +10709,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="61" t="s">
         <v>266</v>
       </c>
@@ -10710,7 +10723,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A57" s="61" t="s">
         <v>274</v>
       </c>
@@ -10724,7 +10737,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A58" s="51" t="s">
         <v>277</v>
       </c>
@@ -10738,7 +10751,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="66" t="s">
         <v>280</v>
       </c>
@@ -10752,7 +10765,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="78" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A60" s="51" t="s">
         <v>283</v>
       </c>
@@ -10766,7 +10779,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A61" s="51" t="s">
         <v>285</v>
       </c>
@@ -10780,7 +10793,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A62" s="51" t="s">
         <v>289</v>
       </c>
@@ -10794,7 +10807,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A63" s="51" t="s">
         <v>292</v>
       </c>
@@ -10808,7 +10821,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A64" s="51" t="s">
         <v>295</v>
       </c>
@@ -10822,7 +10835,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A65" s="51" t="s">
         <v>298</v>
       </c>
@@ -10836,7 +10849,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A66" s="51" t="s">
         <v>301</v>
       </c>
@@ -10850,7 +10863,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A67" s="51" t="s">
         <v>304</v>
       </c>
@@ -10864,7 +10877,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A68" s="51" t="s">
         <v>307</v>
       </c>
@@ -10878,7 +10891,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="66" t="s">
         <v>310</v>
       </c>
@@ -10892,7 +10905,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A70" s="66" t="s">
         <v>312</v>
       </c>
@@ -10906,7 +10919,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A71" s="66" t="s">
         <v>316</v>
       </c>
@@ -10920,7 +10933,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A72" s="66" t="s">
         <v>317</v>
       </c>
@@ -10934,7 +10947,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A73" s="66" t="s">
         <v>335</v>
       </c>
@@ -10948,7 +10961,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="66" t="s">
         <v>338</v>
       </c>
@@ -10960,7 +10973,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A75" s="66" t="s">
         <v>320</v>
       </c>
@@ -10974,7 +10987,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A76" s="66" t="s">
         <v>323</v>
       </c>
@@ -10988,7 +11001,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A77" s="66" t="s">
         <v>328</v>
       </c>
@@ -11002,7 +11015,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A78" s="66" t="s">
         <v>326</v>
       </c>
@@ -11016,7 +11029,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A79" s="66" t="s">
         <v>327</v>
       </c>
@@ -11030,7 +11043,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="218.4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>646</v>
       </c>
@@ -11038,7 +11051,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C82" s="5" t="s">
         <v>648</v>
       </c>
@@ -11140,16 +11153,16 @@
       <selection activeCell="G23" sqref="G23:H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="43.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
         <v>1059</v>
       </c>
@@ -11169,7 +11182,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="4" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>1060</v>
       </c>
@@ -11184,7 +11197,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="5" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>1061</v>
       </c>
@@ -11199,7 +11212,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="6" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
         <v>1062</v>
       </c>
@@ -11214,7 +11227,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="7" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>1063</v>
       </c>
@@ -11229,7 +11242,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="8" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
         <v>1064</v>
       </c>
@@ -11244,7 +11257,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="9" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
         <v>1065</v>
       </c>
@@ -11259,7 +11272,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="10" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
         <v>1066</v>
       </c>
@@ -11274,7 +11287,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="11" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
         <v>1067</v>
       </c>
@@ -11289,7 +11302,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="12" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
         <v>1068</v>
       </c>
@@ -11298,7 +11311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
         <v>1069</v>
       </c>
@@ -11307,7 +11320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
         <v>1076</v>
       </c>
@@ -11327,22 +11340,22 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D70"/>
+  <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" style="14" customWidth="1"/>
-    <col min="2" max="2" width="73.33203125" style="77" customWidth="1"/>
-    <col min="3" max="3" width="110.5546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.28515625" style="77" customWidth="1"/>
+    <col min="3" max="3" width="110.5703125" style="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="14" customWidth="1"/>
-    <col min="5" max="16384" width="9.33203125" style="14"/>
+    <col min="5" max="16384" width="9.28515625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="90" t="s">
         <v>463</v>
       </c>
@@ -11350,7 +11363,7 @@
       <c r="C1" s="90"/>
       <c r="D1" s="90"/>
     </row>
-    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="42" t="s">
         <v>1</v>
       </c>
@@ -11364,7 +11377,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="51" t="s">
         <v>377</v>
       </c>
@@ -11378,7 +11391,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="51" t="s">
         <v>936</v>
       </c>
@@ -11392,7 +11405,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="51" t="s">
         <v>937</v>
       </c>
@@ -11406,7 +11419,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="51" t="s">
         <v>380</v>
       </c>
@@ -11418,7 +11431,7 @@
       </c>
       <c r="D6" s="54"/>
     </row>
-    <row r="7" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A7" s="51" t="s">
         <v>383</v>
       </c>
@@ -11430,7 +11443,7 @@
       </c>
       <c r="D7" s="54"/>
     </row>
-    <row r="8" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" s="51" t="s">
         <v>386</v>
       </c>
@@ -11442,7 +11455,7 @@
       </c>
       <c r="D8" s="54"/>
     </row>
-    <row r="9" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" s="51" t="s">
         <v>387</v>
       </c>
@@ -11454,7 +11467,7 @@
       </c>
       <c r="D9" s="54"/>
     </row>
-    <row r="10" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A10" s="51" t="s">
         <v>392</v>
       </c>
@@ -11466,7 +11479,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A11" s="51" t="s">
         <v>393</v>
       </c>
@@ -11478,7 +11491,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="51" t="s">
         <v>396</v>
       </c>
@@ -11492,7 +11505,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A13" s="51" t="s">
         <v>399</v>
       </c>
@@ -11506,7 +11519,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A14" s="51" t="s">
         <v>402</v>
       </c>
@@ -11520,7 +11533,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A15" s="51" t="s">
         <v>405</v>
       </c>
@@ -11534,7 +11547,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A16" s="51" t="s">
         <v>408</v>
       </c>
@@ -11548,7 +11561,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A17" s="51" t="s">
         <v>411</v>
       </c>
@@ -11562,7 +11575,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A18" s="51" t="s">
         <v>414</v>
       </c>
@@ -11576,7 +11589,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A19" s="51" t="s">
         <v>417</v>
       </c>
@@ -11590,7 +11603,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A20" s="51" t="s">
         <v>419</v>
       </c>
@@ -11602,7 +11615,7 @@
       </c>
       <c r="D20" s="54"/>
     </row>
-    <row r="21" spans="1:4" ht="78" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A21" s="51" t="s">
         <v>423</v>
       </c>
@@ -11612,7 +11625,7 @@
       <c r="C21" s="65"/>
       <c r="D21" s="54"/>
     </row>
-    <row r="22" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A22" s="51" t="s">
         <v>426</v>
       </c>
@@ -11622,7 +11635,7 @@
       <c r="C22" s="65"/>
       <c r="D22" s="54"/>
     </row>
-    <row r="23" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A23" s="51" t="s">
         <v>427</v>
       </c>
@@ -11634,7 +11647,7 @@
       </c>
       <c r="D23" s="54"/>
     </row>
-    <row r="24" spans="1:4" ht="78" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A24" s="51" t="s">
         <v>435</v>
       </c>
@@ -11648,7 +11661,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A25" s="51" t="s">
         <v>436</v>
       </c>
@@ -11662,7 +11675,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A26" s="51" t="s">
         <v>437</v>
       </c>
@@ -11676,7 +11689,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="78" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A27" s="51" t="s">
         <v>440</v>
       </c>
@@ -11690,7 +11703,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A28" s="51" t="s">
         <v>443</v>
       </c>
@@ -11704,7 +11717,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A29" s="51" t="s">
         <v>445</v>
       </c>
@@ -11716,7 +11729,7 @@
       </c>
       <c r="D29" s="54"/>
     </row>
-    <row r="30" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A30" s="51" t="s">
         <v>448</v>
       </c>
@@ -11730,7 +11743,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A31" s="51" t="s">
         <v>450</v>
       </c>
@@ -11744,7 +11757,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A32" s="51" t="s">
         <v>454</v>
       </c>
@@ -11758,7 +11771,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A33" s="51" t="s">
         <v>455</v>
       </c>
@@ -11772,7 +11785,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="78" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>920</v>
       </c>
@@ -11786,7 +11799,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>925</v>
       </c>
@@ -11800,7 +11813,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>923</v>
       </c>
@@ -11814,7 +11827,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>929</v>
       </c>
@@ -11826,7 +11839,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="156" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>931</v>
       </c>
@@ -11836,7 +11849,7 @@
       <c r="C38" s="12"/>
       <c r="D38" s="9"/>
     </row>
-    <row r="39" spans="1:4" ht="202.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>933</v>
       </c>
@@ -11850,7 +11863,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>1087</v>
       </c>
@@ -11864,7 +11877,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="78" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>1088</v>
       </c>
@@ -11878,7 +11891,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>1089</v>
       </c>
@@ -11892,7 +11905,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="109.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="126" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>1090</v>
       </c>
@@ -11906,7 +11919,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="76"/>
       <c r="C44" s="12" t="s">
@@ -11916,7 +11929,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>1091</v>
       </c>
@@ -11930,7 +11943,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>1092</v>
       </c>
@@ -11944,7 +11957,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>1093</v>
       </c>
@@ -11958,7 +11971,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>1096</v>
       </c>
@@ -11972,7 +11985,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>1099</v>
       </c>
@@ -11986,7 +11999,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>1100</v>
       </c>
@@ -12000,7 +12013,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>1101</v>
       </c>
@@ -12014,7 +12027,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>1102</v>
       </c>
@@ -12028,7 +12041,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>1103</v>
       </c>
@@ -12042,7 +12055,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="140.4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>965</v>
       </c>
@@ -12056,7 +12069,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="78" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>1104</v>
       </c>
@@ -12070,7 +12083,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>1105</v>
       </c>
@@ -12084,7 +12097,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="156" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>1106</v>
       </c>
@@ -12098,7 +12111,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>1107</v>
       </c>
@@ -12112,7 +12125,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>1108</v>
       </c>
@@ -12126,7 +12139,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>1109</v>
       </c>
@@ -12140,7 +12153,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>1110</v>
       </c>
@@ -12154,7 +12167,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>1111</v>
       </c>
@@ -12168,7 +12181,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>1112</v>
       </c>
@@ -12182,7 +12195,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>1113</v>
       </c>
@@ -12196,7 +12209,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>1116</v>
       </c>
@@ -12210,7 +12223,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>1119</v>
       </c>
@@ -12224,7 +12237,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="140.4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>1121</v>
       </c>
@@ -12238,7 +12251,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="109.2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>1124</v>
       </c>
@@ -12252,7 +12265,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="124.8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" ht="126" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>1127</v>
       </c>
@@ -12266,7 +12279,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" ht="189" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>1085</v>
       </c>
@@ -12277,6 +12290,20 @@
         <v>1086</v>
       </c>
       <c r="D70" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A71" s="6" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B71" s="76" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C71" s="12" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D71" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -12355,15 +12382,15 @@
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
-    <col min="2" max="2" width="73.33203125" customWidth="1"/>
-    <col min="3" max="3" width="110.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.28515625" customWidth="1"/>
+    <col min="3" max="3" width="110.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="42" t="s">
         <v>1</v>
       </c>
@@ -12377,7 +12404,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="51" t="s">
         <v>1000</v>
       </c>
@@ -12391,7 +12418,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="51" t="s">
         <v>987</v>
       </c>
@@ -12405,7 +12432,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="51" t="s">
         <v>989</v>
       </c>
@@ -12419,7 +12446,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="51" t="s">
         <v>990</v>
       </c>
@@ -12433,7 +12460,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="51" t="s">
         <v>991</v>
       </c>
@@ -12447,7 +12474,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="51" t="s">
         <v>997</v>
       </c>
@@ -12461,7 +12488,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="51" t="s">
         <v>995</v>
       </c>
@@ -12475,7 +12502,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A10" s="51" t="s">
         <v>1014</v>
       </c>
@@ -12489,7 +12516,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="171.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="173.25" x14ac:dyDescent="0.25">
       <c r="A11" s="51" t="s">
         <v>1045</v>
       </c>
@@ -12503,7 +12530,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="51" t="s">
         <v>1026</v>
       </c>
@@ -12513,7 +12540,7 @@
       <c r="C12" s="65"/>
       <c r="D12" s="73"/>
     </row>
-    <row r="13" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A13" s="51" t="s">
         <v>1023</v>
       </c>
@@ -12527,7 +12554,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="51" t="s">
         <v>1030</v>
       </c>
@@ -12537,7 +12564,7 @@
       <c r="C14" s="65"/>
       <c r="D14" s="73"/>
     </row>
-    <row r="15" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="51" t="s">
         <v>1012</v>
       </c>
@@ -12551,7 +12578,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A16" s="51" t="s">
         <v>1021</v>
       </c>
@@ -12565,7 +12592,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A17" s="51" t="s">
         <v>1027</v>
       </c>
@@ -12575,7 +12602,7 @@
       <c r="C17" s="65"/>
       <c r="D17" s="73"/>
     </row>
-    <row r="18" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A18" s="51" t="s">
         <v>1009</v>
       </c>
@@ -12589,7 +12616,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A19" s="51" t="s">
         <v>1015</v>
       </c>
@@ -12603,7 +12630,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="51" t="s">
         <v>1033</v>
       </c>
@@ -12615,7 +12642,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="51" t="s">
         <v>1034</v>
       </c>
@@ -12629,7 +12656,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" s="51" t="s">
         <v>1036</v>
       </c>
@@ -12643,7 +12670,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A23" s="51" t="s">
         <v>1035</v>
       </c>
@@ -12657,7 +12684,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="51" t="s">
         <v>1047</v>
       </c>
@@ -12667,7 +12694,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A25" s="51" t="s">
         <v>1048</v>
       </c>
@@ -12681,7 +12708,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="51" t="s">
         <v>1050</v>
       </c>
@@ -12691,7 +12718,7 @@
       <c r="C26" s="65"/>
       <c r="D26" s="73"/>
     </row>
-    <row r="27" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A27" s="51" t="s">
         <v>1053</v>
       </c>
@@ -12705,7 +12732,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A28" s="51" t="s">
         <v>1056</v>
       </c>
@@ -12756,15 +12783,15 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.88671875" customWidth="1"/>
+    <col min="1" max="1" width="48.85546875" customWidth="1"/>
     <col min="2" max="2" width="58" customWidth="1"/>
-    <col min="3" max="3" width="110.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="110.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="42" t="s">
         <v>1</v>
       </c>
@@ -12778,7 +12805,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="47" t="s">
         <v>690</v>
       </c>
@@ -12792,7 +12819,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="47" t="s">
         <v>691</v>
       </c>
@@ -12806,7 +12833,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="47" t="s">
         <v>692</v>
       </c>
@@ -12820,7 +12847,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A6" s="47" t="s">
         <v>696</v>
       </c>
@@ -12834,7 +12861,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="47" t="s">
         <v>697</v>
       </c>
@@ -12848,7 +12875,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" s="47" t="s">
         <v>706</v>
       </c>
@@ -12860,7 +12887,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" s="47" t="s">
         <v>707</v>
       </c>
@@ -12870,7 +12897,7 @@
       <c r="C9" s="70"/>
       <c r="D9" s="50"/>
     </row>
-    <row r="10" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>710</v>
       </c>
@@ -12880,7 +12907,7 @@
       <c r="C10" s="70"/>
       <c r="D10" s="50"/>
     </row>
-    <row r="11" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A11" s="47" t="s">
         <v>711</v>
       </c>
@@ -12890,7 +12917,7 @@
       <c r="C11" s="70"/>
       <c r="D11" s="50"/>
     </row>
-    <row r="12" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A12" s="47" t="s">
         <v>730</v>
       </c>
@@ -12900,7 +12927,7 @@
       <c r="C12" s="70"/>
       <c r="D12" s="50"/>
     </row>
-    <row r="13" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A13" s="47" t="s">
         <v>716</v>
       </c>
@@ -12914,7 +12941,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A14" s="47" t="s">
         <v>717</v>
       </c>
@@ -12928,7 +12955,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A15" s="47" t="s">
         <v>718</v>
       </c>
@@ -12942,7 +12969,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A16" s="47" t="s">
         <v>724</v>
       </c>
@@ -12956,7 +12983,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A17" s="47" t="s">
         <v>725</v>
       </c>
@@ -12970,7 +12997,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A18" s="47" t="s">
         <v>738</v>
       </c>
@@ -12984,7 +13011,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A19" s="47" t="s">
         <v>741</v>
       </c>
@@ -12998,7 +13025,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A20" s="47" t="s">
         <v>731</v>
       </c>
@@ -13012,7 +13039,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A21" s="47" t="s">
         <v>734</v>
       </c>
@@ -13026,7 +13053,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" s="47" t="s">
         <v>698</v>
       </c>
@@ -13040,7 +13067,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A23" s="47" t="s">
         <v>699</v>
       </c>
@@ -13054,7 +13081,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A24" s="47" t="s">
         <v>700</v>
       </c>
@@ -13068,7 +13095,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="47" t="s">
         <v>704</v>
       </c>
@@ -13082,7 +13109,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A26" s="47" t="s">
         <v>748</v>
       </c>
@@ -13096,7 +13123,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A27" s="47" t="s">
         <v>751</v>
       </c>
@@ -13110,7 +13137,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A28" s="47" t="s">
         <v>755</v>
       </c>
@@ -13124,7 +13151,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A29" s="47" t="s">
         <v>758</v>
       </c>
@@ -13138,7 +13165,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A30" s="47" t="s">
         <v>761</v>
       </c>
@@ -13152,7 +13179,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A31" s="47" t="s">
         <v>763</v>
       </c>
@@ -13166,7 +13193,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A32" s="47" t="s">
         <v>766</v>
       </c>
@@ -13180,7 +13207,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A33" s="47" t="s">
         <v>769</v>
       </c>
@@ -13194,7 +13221,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A34" s="47" t="s">
         <v>770</v>
       </c>
@@ -13208,7 +13235,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A35" s="47" t="s">
         <v>776</v>
       </c>
@@ -13222,13 +13249,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="47"/>
       <c r="B36" s="71"/>
       <c r="C36" s="70"/>
       <c r="D36" s="72"/>
     </row>
-    <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="47"/>
       <c r="B37" s="71"/>
       <c r="C37" s="70"/>

--- a/cheat_sheet.xlsx
+++ b/cheat_sheet.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D466D95-5F2D-4949-8A2A-2EFDE00EABBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA38268-2370-48E3-B3DB-786759E6E69C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1230" yWindow="975" windowWidth="27330" windowHeight="12480" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="888" yWindow="864" windowWidth="21144" windowHeight="11136" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Samplers" sheetId="5" r:id="rId1"/>
@@ -35,9 +35,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -45,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1516" uniqueCount="1133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1528" uniqueCount="1142">
   <si>
     <t>HTML</t>
   </si>
@@ -3959,6 +3957,54 @@
     <t>window.addEventListener("DOMContentLoaded", () =&gt; {
  alert("the html of the page has now loaded");
 });</t>
+  </si>
+  <si>
+    <t>Condition - Switch</t>
+  </si>
+  <si>
+    <t>The switch statement evaluates an expression, matching the expression's value to a case clause, and executes statements associated with that case, as well as statements in cases that follow the matching case.</t>
+  </si>
+  <si>
+    <t>Condition - Ternary</t>
+  </si>
+  <si>
+    <t>var expr = 'Papayas';
+switch (expr) {
+  case 'Oranges':
+    console.log('Oranges are $0.59 a pound.');
+    break;
+  case 'Mangoes':
+  case 'Papayas':
+    console.log('Mangoes and papayas are $2.79 a pound.');
+    // expected output: "Mangoes and papayas are $2.79 a pound."
+    break;
+  default:
+    console.log('Sorry, we are out of ' + expr + '.');
+}</t>
+  </si>
+  <si>
+    <t>The conditional (ternary) operator is the only JavaScript operator that takes three operands: a condition followed by a question mark (?), then an expression to execute if the condition is truthy followed by a colon (:), and finally the expression to execute if the condition is falsy. This operator is frequently used as a shortcut for the if statement.</t>
+  </si>
+  <si>
+    <t>function getFee(isMember) {
+  return (isMember ? '$2.00' : '$10.00');
+}
+console.log(getFee(true));
+// expected output: "$2.00"</t>
+  </si>
+  <si>
+    <t>Template Literals</t>
+  </si>
+  <si>
+    <t>var a = 5;
+var b = 10;
+console.log(`Fifteen is ${a + b} and
+not ${2 * a + b}.`);
+// "Fifteen is 15 and
+// not 20."</t>
+  </si>
+  <si>
+    <t>Template literals are string literals allowing embedded expressions. You can use multi-line strings and string interpolation features with them. They were called "template strings" in prior editions of the ES2015 specification.</t>
   </si>
 </sst>
 </file>
@@ -4958,18 +5004,18 @@
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -4992,7 +5038,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="79" t="s">
         <v>373</v>
       </c>
@@ -5012,7 +5058,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="80"/>
       <c r="C3" s="13" t="s">
         <v>6</v>
@@ -5030,7 +5076,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>460</v>
       </c>
@@ -5050,7 +5096,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>461</v>
       </c>
@@ -5066,7 +5112,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>462</v>
       </c>
@@ -5074,7 +5120,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>465</v>
       </c>
@@ -5082,7 +5128,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>545</v>
       </c>
@@ -5122,15 +5168,15 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48.85546875" customWidth="1"/>
+    <col min="1" max="1" width="48.88671875" customWidth="1"/>
     <col min="2" max="2" width="58" customWidth="1"/>
-    <col min="3" max="3" width="110.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="110.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="42" t="s">
         <v>1</v>
       </c>
@@ -5144,7 +5190,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A3" s="47" t="s">
         <v>780</v>
       </c>
@@ -5158,7 +5204,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A4" s="47" t="s">
         <v>784</v>
       </c>
@@ -5172,7 +5218,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A5" s="47" t="s">
         <v>785</v>
       </c>
@@ -5184,7 +5230,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A6" s="47" t="s">
         <v>788</v>
       </c>
@@ -5198,7 +5244,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A7" s="47" t="s">
         <v>793</v>
       </c>
@@ -5212,7 +5258,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A8" s="47" t="s">
         <v>794</v>
       </c>
@@ -5226,7 +5272,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A9" s="47" t="s">
         <v>796</v>
       </c>
@@ -5240,7 +5286,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A10" s="47" t="s">
         <v>799</v>
       </c>
@@ -5254,7 +5300,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A11" s="47" t="s">
         <v>802</v>
       </c>
@@ -5268,7 +5314,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A12" s="47" t="s">
         <v>806</v>
       </c>
@@ -5282,7 +5328,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A13" s="47" t="s">
         <v>811</v>
       </c>
@@ -5296,7 +5342,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A14" s="47" t="s">
         <v>812</v>
       </c>
@@ -5310,7 +5356,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A15" s="47" t="s">
         <v>831</v>
       </c>
@@ -5324,7 +5370,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="47" t="s">
         <v>815</v>
       </c>
@@ -5334,7 +5380,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A17" s="47" t="s">
         <v>816</v>
       </c>
@@ -5348,7 +5394,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A18" s="47" t="s">
         <v>819</v>
       </c>
@@ -5362,7 +5408,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A19" s="47" t="s">
         <v>821</v>
       </c>
@@ -5376,7 +5422,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A20" s="47" t="s">
         <v>825</v>
       </c>
@@ -5390,7 +5436,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A21" s="47" t="s">
         <v>828</v>
       </c>
@@ -5438,15 +5484,15 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48.85546875" customWidth="1"/>
+    <col min="1" max="1" width="48.88671875" customWidth="1"/>
     <col min="2" max="2" width="58" customWidth="1"/>
-    <col min="3" max="3" width="110.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="110.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="42" t="s">
         <v>1</v>
       </c>
@@ -5460,7 +5506,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="47" t="s">
         <v>834</v>
       </c>
@@ -5470,7 +5516,7 @@
       <c r="C3" s="70"/>
       <c r="D3" s="50"/>
     </row>
-    <row r="4" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A4" s="47" t="s">
         <v>836</v>
       </c>
@@ -5484,7 +5530,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="126" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A5" s="47" t="s">
         <v>839</v>
       </c>
@@ -5498,7 +5544,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="189" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A6" s="47" t="s">
         <v>841</v>
       </c>
@@ -5512,7 +5558,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="156" x14ac:dyDescent="0.3">
       <c r="A7" s="47" t="s">
         <v>846</v>
       </c>
@@ -5526,7 +5572,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="236.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="234" x14ac:dyDescent="0.3">
       <c r="A8" s="47" t="s">
         <v>849</v>
       </c>
@@ -5540,7 +5586,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A9" s="47" t="s">
         <v>847</v>
       </c>
@@ -5554,7 +5600,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A10" s="47" t="s">
         <v>850</v>
       </c>
@@ -5568,7 +5614,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A11" s="47" t="s">
         <v>857</v>
       </c>
@@ -5582,7 +5628,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="173.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="171.6" x14ac:dyDescent="0.3">
       <c r="A12" s="47" t="s">
         <v>860</v>
       </c>
@@ -5596,7 +5642,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A13" s="47" t="s">
         <v>863</v>
       </c>
@@ -5606,7 +5652,7 @@
       <c r="C13" s="70"/>
       <c r="D13" s="72"/>
     </row>
-    <row r="14" spans="1:4" ht="204.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="202.8" x14ac:dyDescent="0.3">
       <c r="A14" s="47" t="s">
         <v>865</v>
       </c>
@@ -5620,7 +5666,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="299.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="296.39999999999998" x14ac:dyDescent="0.3">
       <c r="A15" s="47" t="s">
         <v>868</v>
       </c>
@@ -5634,7 +5680,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="47" t="s">
         <v>871</v>
       </c>
@@ -5644,7 +5690,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="236.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="234" x14ac:dyDescent="0.3">
       <c r="A17" s="47" t="s">
         <v>873</v>
       </c>
@@ -5658,7 +5704,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="299.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="296.39999999999998" x14ac:dyDescent="0.3">
       <c r="A18" s="47" t="s">
         <v>875</v>
       </c>
@@ -5672,7 +5718,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A19" s="47" t="s">
         <v>878</v>
       </c>
@@ -5686,7 +5732,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A20" s="47" t="s">
         <v>881</v>
       </c>
@@ -5698,7 +5744,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A21" s="47" t="s">
         <v>883</v>
       </c>
@@ -5712,7 +5758,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="204.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="202.8" x14ac:dyDescent="0.3">
       <c r="A22" s="47" t="s">
         <v>887</v>
       </c>
@@ -5760,15 +5806,15 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38" customWidth="1"/>
-    <col min="3" max="3" width="125.42578125" customWidth="1"/>
-    <col min="4" max="4" width="48.7109375" customWidth="1"/>
+    <col min="3" max="3" width="125.44140625" customWidth="1"/>
+    <col min="4" max="4" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>889</v>
       </c>
@@ -5782,7 +5828,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>893</v>
       </c>
@@ -5796,7 +5842,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>897</v>
       </c>
@@ -5807,61 +5853,61 @@
         <v>899</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="14"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C6" s="14"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C7" s="14"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C8" s="14"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C9" s="14"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C10" s="14"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C11" s="14"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C12" s="14"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C13" s="14"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C14" s="14"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C15" s="14"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C16" s="14"/>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C17" s="14"/>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C18" s="14"/>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C19" s="14"/>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C20" s="14"/>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C21" s="14"/>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C22" s="14"/>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C23" s="14"/>
     </row>
   </sheetData>
@@ -5873,28 +5919,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B55396B-BB8C-4180-AD0D-7E5850126AB0}">
   <dimension ref="A2:L115"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="14" customWidth="1"/>
+    <col min="1" max="1" width="45.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="14" customWidth="1"/>
     <col min="3" max="3" width="11" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" style="14" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.5703125" style="14" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="14" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.5546875" style="14" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="17" style="14" customWidth="1"/>
-    <col min="8" max="8" width="27.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" style="14" customWidth="1"/>
-    <col min="13" max="16384" width="11.42578125" style="14"/>
+    <col min="8" max="8" width="27.88671875" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" style="14" customWidth="1"/>
+    <col min="13" max="16384" width="11.44140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="88" t="s">
         <v>570</v>
       </c>
@@ -5903,7 +5949,7 @@
       <c r="D2" s="88"/>
       <c r="E2" s="88"/>
     </row>
-    <row r="3" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>547</v>
       </c>
@@ -5920,7 +5966,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="20" t="s">
         <v>599</v>
       </c>
@@ -5943,7 +5989,7 @@
       </c>
       <c r="G4" s="19"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
         <v>600</v>
       </c>
@@ -5973,7 +6019,7 @@
       <c r="K5" s="83"/>
       <c r="L5" s="84"/>
     </row>
-    <row r="6" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="20" t="s">
         <v>601</v>
       </c>
@@ -6011,7 +6057,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
         <v>602</v>
       </c>
@@ -6053,7 +6099,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
         <v>578</v>
       </c>
@@ -6080,7 +6126,7 @@
       </c>
       <c r="I8" s="39">
         <f>COUNTIF(E4:E44, 2)</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J8" s="39">
         <f>COUNTIF(E47:E73, 2)</f>
@@ -6095,7 +6141,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
         <v>551</v>
       </c>
@@ -6137,7 +6183,7 @@
         <v>15.138888888888886</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="20" t="s">
         <v>552</v>
       </c>
@@ -6164,7 +6210,7 @@
       </c>
       <c r="I10" s="39">
         <f>SUM(F4:F44)/6</f>
-        <v>9.716666666666665</v>
+        <v>9.2500000000000018</v>
       </c>
       <c r="J10" s="39">
         <f>SUM(F47:F73)/6</f>
@@ -6179,7 +6225,7 @@
         <v>13.591666666666663</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
         <v>900</v>
       </c>
@@ -6206,16 +6252,16 @@
       </c>
       <c r="I11" s="40">
         <f ca="1">TODAY() +I10</f>
-        <v>43832.716666666667</v>
+        <v>43836.25</v>
       </c>
       <c r="J11" s="40">
         <f ca="1">I11+J10</f>
-        <v>43844.963888888888</v>
+        <v>43848.49722222222</v>
       </c>
       <c r="K11" s="40"/>
       <c r="L11" s="40"/>
     </row>
-    <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="20" t="s">
         <v>553</v>
       </c>
@@ -6242,7 +6288,7 @@
       </c>
       <c r="I12" s="41">
         <f>I8/I7</f>
-        <v>0.48780487804878048</v>
+        <v>0.53658536585365857</v>
       </c>
       <c r="J12" s="41">
         <f>J8/J7</f>
@@ -6257,7 +6303,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="20" t="s">
         <v>554</v>
       </c>
@@ -6284,13 +6330,13 @@
       </c>
       <c r="I13" s="85">
         <f>AVERAGE(I12:L12)</f>
-        <v>0.19834010840108401</v>
+        <v>0.21053523035230354</v>
       </c>
       <c r="J13" s="86"/>
       <c r="K13" s="86"/>
       <c r="L13" s="87"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
         <v>555</v>
       </c>
@@ -6315,7 +6361,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="20" t="s">
         <v>556</v>
       </c>
@@ -6340,7 +6386,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="20" t="s">
         <v>557</v>
       </c>
@@ -6363,7 +6409,7 @@
       </c>
       <c r="G16" s="19"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="20" t="s">
         <v>901</v>
       </c>
@@ -6386,7 +6432,7 @@
       </c>
       <c r="G17" s="19"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="20" t="s">
         <v>778</v>
       </c>
@@ -6406,7 +6452,7 @@
       <c r="F18" s="19"/>
       <c r="G18" s="19"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="20" t="s">
         <v>1046</v>
       </c>
@@ -6431,7 +6477,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="20" t="s">
         <v>914</v>
       </c>
@@ -6456,7 +6502,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="20" t="s">
         <v>905</v>
       </c>
@@ -6481,7 +6527,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="20" t="s">
         <v>916</v>
       </c>
@@ -6496,17 +6542,17 @@
         <v>1.65</v>
       </c>
       <c r="E22" s="21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F22" s="19">
         <f t="shared" si="1"/>
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="G22" s="19" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="20" t="s">
         <v>917</v>
       </c>
@@ -6521,17 +6567,17 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="E23" s="21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F23" s="19">
         <f t="shared" si="1"/>
-        <v>1.1499999999999999</v>
+        <v>0</v>
       </c>
       <c r="G23" s="19" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="20" t="s">
         <v>586</v>
       </c>
@@ -6556,7 +6602,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="20" t="s">
         <v>902</v>
       </c>
@@ -6581,7 +6627,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="20" t="s">
         <v>906</v>
       </c>
@@ -6606,7 +6652,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="20" t="s">
         <v>918</v>
       </c>
@@ -6631,7 +6677,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="20" t="s">
         <v>907</v>
       </c>
@@ -6656,7 +6702,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="20" t="s">
         <v>908</v>
       </c>
@@ -6681,7 +6727,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="20" t="s">
         <v>919</v>
       </c>
@@ -6706,7 +6752,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="20" t="s">
         <v>558</v>
       </c>
@@ -6731,7 +6777,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="20" t="s">
         <v>559</v>
       </c>
@@ -6754,7 +6800,7 @@
       </c>
       <c r="G32" s="19"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="20" t="s">
         <v>560</v>
       </c>
@@ -6777,7 +6823,7 @@
       </c>
       <c r="G33" s="19"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="20" t="s">
         <v>561</v>
       </c>
@@ -6800,7 +6846,7 @@
       </c>
       <c r="G34" s="19"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="20" t="s">
         <v>562</v>
       </c>
@@ -6823,7 +6869,7 @@
       </c>
       <c r="G35" s="19"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="20" t="s">
         <v>563</v>
       </c>
@@ -6848,7 +6894,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="20" t="s">
         <v>564</v>
       </c>
@@ -6873,7 +6919,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="20" t="s">
         <v>911</v>
       </c>
@@ -6898,7 +6944,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="20" t="s">
         <v>565</v>
       </c>
@@ -6923,7 +6969,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="20" t="s">
         <v>566</v>
       </c>
@@ -6948,7 +6994,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="20" t="s">
         <v>912</v>
       </c>
@@ -6973,7 +7019,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="20" t="s">
         <v>567</v>
       </c>
@@ -6996,7 +7042,7 @@
       </c>
       <c r="G42" s="19"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="20" t="s">
         <v>568</v>
       </c>
@@ -7019,7 +7065,7 @@
       </c>
       <c r="G43" s="19"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="20" t="s">
         <v>569</v>
       </c>
@@ -7044,10 +7090,10 @@
         <v>913</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F45" s="19"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="81" t="s">
         <v>576</v>
       </c>
@@ -7057,7 +7103,7 @@
       <c r="E46" s="81"/>
       <c r="F46" s="19"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="20" t="s">
         <v>577</v>
       </c>
@@ -7079,7 +7125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="20" t="s">
         <v>578</v>
       </c>
@@ -7101,7 +7147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="20" t="s">
         <v>555</v>
       </c>
@@ -7123,7 +7169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="20" t="s">
         <v>579</v>
       </c>
@@ -7145,7 +7191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="20" t="s">
         <v>580</v>
       </c>
@@ -7167,7 +7213,7 @@
         <v>2.8166666666666669</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="20" t="s">
         <v>556</v>
       </c>
@@ -7189,7 +7235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="20" t="s">
         <v>581</v>
       </c>
@@ -7211,7 +7257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="20" t="s">
         <v>563</v>
       </c>
@@ -7233,7 +7279,7 @@
         <v>4.4833333333333334</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="20" t="s">
         <v>564</v>
       </c>
@@ -7255,7 +7301,7 @@
         <v>3.9166666666666665</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="20" t="s">
         <v>582</v>
       </c>
@@ -7277,7 +7323,7 @@
         <v>2.7333333333333334</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="20" t="s">
         <v>566</v>
       </c>
@@ -7299,7 +7345,7 @@
         <v>3.8666666666666667</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="20" t="s">
         <v>583</v>
       </c>
@@ -7321,7 +7367,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="20" t="s">
         <v>584</v>
       </c>
@@ -7343,7 +7389,7 @@
         <v>3.8666666666666667</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="20" t="s">
         <v>585</v>
       </c>
@@ -7365,7 +7411,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="20" t="s">
         <v>586</v>
       </c>
@@ -7387,7 +7433,7 @@
         <v>2.4166666666666665</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="20" t="s">
         <v>587</v>
       </c>
@@ -7409,7 +7455,7 @@
         <v>4.0333333333333332</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="20" t="s">
         <v>588</v>
       </c>
@@ -7431,7 +7477,7 @@
         <v>3.2666666666666666</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="20" t="s">
         <v>598</v>
       </c>
@@ -7453,7 +7499,7 @@
         <v>2.2333333333333334</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="20" t="s">
         <v>589</v>
       </c>
@@ -7475,7 +7521,7 @@
         <v>6.1166666666666663</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="20" t="s">
         <v>590</v>
       </c>
@@ -7497,7 +7543,7 @@
         <v>2.3666666666666667</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="20" t="s">
         <v>591</v>
       </c>
@@ -7519,7 +7565,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="20" t="s">
         <v>592</v>
       </c>
@@ -7541,7 +7587,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="20" t="s">
         <v>593</v>
       </c>
@@ -7563,7 +7609,7 @@
         <v>3.6833333333333331</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="20" t="s">
         <v>594</v>
       </c>
@@ -7585,7 +7631,7 @@
         <v>4.8666666666666663</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="20" t="s">
         <v>595</v>
       </c>
@@ -7607,7 +7653,7 @@
         <v>3.3333333333333335</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="20" t="s">
         <v>596</v>
       </c>
@@ -7629,7 +7675,7 @@
         <v>3.6666666666666665</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="20" t="s">
         <v>597</v>
       </c>
@@ -7651,12 +7697,12 @@
         <v>2.6166666666666667</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D74" s="26"/>
       <c r="E74" s="27"/>
       <c r="F74" s="28"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="81" t="s">
         <v>607</v>
       </c>
@@ -7666,7 +7712,7 @@
       <c r="E75" s="81"/>
       <c r="F75" s="31"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="20" t="s">
         <v>608</v>
       </c>
@@ -7688,7 +7734,7 @@
         <v>2.9166666666666665</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="20" t="s">
         <v>609</v>
       </c>
@@ -7710,7 +7756,7 @@
         <v>4.7833333333333332</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="20" t="s">
         <v>610</v>
       </c>
@@ -7732,7 +7778,7 @@
         <v>4.8666666666666663</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="20" t="s">
         <v>611</v>
       </c>
@@ -7754,7 +7800,7 @@
         <v>3.1833333333333331</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="20" t="s">
         <v>612</v>
       </c>
@@ -7776,7 +7822,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="20" t="s">
         <v>613</v>
       </c>
@@ -7798,7 +7844,7 @@
         <v>6.333333333333333</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="20" t="s">
         <v>614</v>
       </c>
@@ -7820,7 +7866,7 @@
         <v>4.333333333333333</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="20" t="s">
         <v>615</v>
       </c>
@@ -7842,7 +7888,7 @@
         <v>2.9333333333333331</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="20" t="s">
         <v>616</v>
       </c>
@@ -7864,7 +7910,7 @@
         <v>3.5666666666666669</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="20" t="s">
         <v>617</v>
       </c>
@@ -7886,7 +7932,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="20" t="s">
         <v>618</v>
       </c>
@@ -7908,7 +7954,7 @@
         <v>4.0333333333333332</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="20" t="s">
         <v>619</v>
       </c>
@@ -7930,7 +7976,7 @@
         <v>2.7166666666666668</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="20" t="s">
         <v>620</v>
       </c>
@@ -7952,7 +7998,7 @@
         <v>3.2666666666666666</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="20" t="s">
         <v>621</v>
       </c>
@@ -7974,12 +8020,12 @@
         <v>4.416666666666667</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D90" s="26"/>
       <c r="E90" s="27"/>
       <c r="F90" s="28"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="81" t="s">
         <v>623</v>
       </c>
@@ -7989,7 +8035,7 @@
       <c r="E91" s="81"/>
       <c r="F91" s="81"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="29" t="s">
         <v>599</v>
       </c>
@@ -8011,7 +8057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="20" t="s">
         <v>624</v>
       </c>
@@ -8033,7 +8079,7 @@
         <v>4.6500000000000004</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="20" t="s">
         <v>600</v>
       </c>
@@ -8055,7 +8101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="20" t="s">
         <v>625</v>
       </c>
@@ -8077,7 +8123,7 @@
         <v>5.2166666666666668</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="20" t="s">
         <v>626</v>
       </c>
@@ -8099,7 +8145,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="20" t="s">
         <v>627</v>
       </c>
@@ -8121,7 +8167,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="20" t="s">
         <v>628</v>
       </c>
@@ -8143,7 +8189,7 @@
         <v>2.5666666666666669</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="20" t="s">
         <v>629</v>
       </c>
@@ -8165,7 +8211,7 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="20" t="s">
         <v>630</v>
       </c>
@@ -8187,7 +8233,7 @@
         <v>2.7333333333333334</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="20" t="s">
         <v>631</v>
       </c>
@@ -8209,7 +8255,7 @@
         <v>5.3833333333333337</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="20" t="s">
         <v>632</v>
       </c>
@@ -8231,7 +8277,7 @@
         <v>3.3833333333333333</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="20" t="s">
         <v>633</v>
       </c>
@@ -8253,7 +8299,7 @@
         <v>4.2833333333333332</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="20" t="s">
         <v>634</v>
       </c>
@@ -8275,7 +8321,7 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="20" t="s">
         <v>635</v>
       </c>
@@ -8297,7 +8343,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="20" t="s">
         <v>636</v>
       </c>
@@ -8319,7 +8365,7 @@
         <v>2.4333333333333331</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="20" t="s">
         <v>637</v>
       </c>
@@ -8341,7 +8387,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="20" t="s">
         <v>638</v>
       </c>
@@ -8363,7 +8409,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="20" t="s">
         <v>594</v>
       </c>
@@ -8385,7 +8431,7 @@
         <v>4.8666666666666663</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="20" t="s">
         <v>639</v>
       </c>
@@ -8407,7 +8453,7 @@
         <v>4.7833333333333332</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="20" t="s">
         <v>640</v>
       </c>
@@ -8429,7 +8475,7 @@
         <v>6.05</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="20" t="s">
         <v>641</v>
       </c>
@@ -8451,7 +8497,7 @@
         <v>2.8166666666666669</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="20" t="s">
         <v>595</v>
       </c>
@@ -8473,7 +8519,7 @@
         <v>3.3333333333333335</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="20" t="s">
         <v>642</v>
       </c>
@@ -8495,7 +8541,7 @@
         <v>4.3666666666666663</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="20" t="s">
         <v>643</v>
       </c>
@@ -8593,21 +8639,21 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="61.5703125" customWidth="1"/>
-    <col min="2" max="2" width="64.85546875" customWidth="1"/>
-    <col min="3" max="3" width="110.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="61.5546875" customWidth="1"/>
+    <col min="2" max="2" width="64.88671875" customWidth="1"/>
+    <col min="3" max="3" width="110.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="89" t="s">
         <v>485</v>
       </c>
       <c r="B1" s="89"/>
       <c r="C1" s="89"/>
     </row>
-    <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -8618,7 +8664,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>486</v>
       </c>
@@ -8629,7 +8675,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>17</v>
       </c>
@@ -8638,7 +8684,7 @@
       </c>
       <c r="C4" s="17"/>
     </row>
-    <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>490</v>
       </c>
@@ -8649,7 +8695,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>493</v>
       </c>
@@ -8658,7 +8704,7 @@
       </c>
       <c r="C6" s="17"/>
     </row>
-    <row r="7" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
         <v>495</v>
       </c>
@@ -8669,7 +8715,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>498</v>
       </c>
@@ -8678,7 +8724,7 @@
       </c>
       <c r="C8" s="17"/>
     </row>
-    <row r="9" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>500</v>
       </c>
@@ -8687,7 +8733,7 @@
       </c>
       <c r="C9" s="17"/>
     </row>
-    <row r="10" spans="1:3" ht="131.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="108" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>502</v>
       </c>
@@ -8698,7 +8744,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>505</v>
       </c>
@@ -8709,7 +8755,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>508</v>
       </c>
@@ -8718,7 +8764,7 @@
       </c>
       <c r="C12" s="17"/>
     </row>
-    <row r="13" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>510</v>
       </c>
@@ -8727,7 +8773,7 @@
       </c>
       <c r="C13" s="17"/>
     </row>
-    <row r="14" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>512</v>
       </c>
@@ -8736,7 +8782,7 @@
       </c>
       <c r="C14" s="17"/>
     </row>
-    <row r="15" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>514</v>
       </c>
@@ -8745,7 +8791,7 @@
       </c>
       <c r="C15" s="17"/>
     </row>
-    <row r="16" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="36" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>516</v>
       </c>
@@ -8756,7 +8802,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="168.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="162" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>519</v>
       </c>
@@ -8767,7 +8813,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>521</v>
       </c>
@@ -8776,7 +8822,7 @@
       </c>
       <c r="C18" s="17"/>
     </row>
-    <row r="19" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
         <v>524</v>
       </c>
@@ -8785,7 +8831,7 @@
       </c>
       <c r="C19" s="17"/>
     </row>
-    <row r="20" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="36" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
         <v>526</v>
       </c>
@@ -8796,7 +8842,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="112.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="108" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
         <v>529</v>
       </c>
@@ -8807,7 +8853,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
         <v>530</v>
       </c>
@@ -8818,7 +8864,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="168.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="162" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
         <v>535</v>
       </c>
@@ -8845,16 +8891,16 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="31" style="8" customWidth="1"/>
-    <col min="2" max="2" width="73.28515625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="110.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.33203125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="110.5546875" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="5" customWidth="1"/>
-    <col min="5" max="16384" width="9.28515625" style="3"/>
+    <col min="5" max="16384" width="9.33203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="90" t="s">
         <v>0</v>
       </c>
@@ -8862,7 +8908,7 @@
       <c r="C1" s="90"/>
       <c r="D1" s="90"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="42" t="s">
         <v>1</v>
       </c>
@@ -8876,7 +8922,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A3" s="43" t="s">
         <v>18</v>
       </c>
@@ -8890,7 +8936,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="43" t="s">
         <v>18</v>
       </c>
@@ -8904,7 +8950,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A5" s="43" t="s">
         <v>22</v>
       </c>
@@ -8918,7 +8964,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A6" s="43" t="s">
         <v>24</v>
       </c>
@@ -8932,7 +8978,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="43" t="s">
         <v>26</v>
       </c>
@@ -8946,7 +8992,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="43" t="s">
         <v>28</v>
       </c>
@@ -8960,7 +9006,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A9" s="43" t="s">
         <v>31</v>
       </c>
@@ -8974,7 +9020,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A10" s="43" t="s">
         <v>34</v>
       </c>
@@ -8988,7 +9034,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A11" s="43" t="s">
         <v>37</v>
       </c>
@@ -9002,7 +9048,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A12" s="43" t="s">
         <v>52</v>
       </c>
@@ -9016,7 +9062,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A13" s="43" t="s">
         <v>113</v>
       </c>
@@ -9030,7 +9076,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A14" s="43" t="s">
         <v>43</v>
       </c>
@@ -9044,7 +9090,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="43" t="s">
         <v>46</v>
       </c>
@@ -9058,7 +9104,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A16" s="43" t="s">
         <v>49</v>
       </c>
@@ -9072,7 +9118,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A17" s="47" t="s">
         <v>466</v>
       </c>
@@ -9086,7 +9132,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A18" s="47" t="s">
         <v>467</v>
       </c>
@@ -9100,7 +9146,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A19" s="47" t="s">
         <v>468</v>
       </c>
@@ -9114,7 +9160,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A20" s="43" t="s">
         <v>55</v>
       </c>
@@ -9128,7 +9174,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A21" s="43" t="s">
         <v>58</v>
       </c>
@@ -9142,7 +9188,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A22" s="43" t="s">
         <v>61</v>
       </c>
@@ -9156,7 +9202,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A23" s="43" t="s">
         <v>64</v>
       </c>
@@ -9170,7 +9216,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A24" s="43" t="s">
         <v>65</v>
       </c>
@@ -9184,7 +9230,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A25" s="43" t="s">
         <v>66</v>
       </c>
@@ -9198,7 +9244,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A26" s="43" t="s">
         <v>73</v>
       </c>
@@ -9212,7 +9258,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A27" s="43" t="s">
         <v>76</v>
       </c>
@@ -9226,7 +9272,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A28" s="43" t="s">
         <v>475</v>
       </c>
@@ -9240,7 +9286,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A29" s="43" t="s">
         <v>79</v>
       </c>
@@ -9254,7 +9300,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A30" s="43" t="s">
         <v>82</v>
       </c>
@@ -9268,7 +9314,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A31" s="43" t="s">
         <v>85</v>
       </c>
@@ -9282,7 +9328,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A32" s="43" t="s">
         <v>87</v>
       </c>
@@ -9296,7 +9342,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A33" s="43" t="s">
         <v>14</v>
       </c>
@@ -9310,7 +9356,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A34" s="43" t="s">
         <v>479</v>
       </c>
@@ -9324,7 +9370,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A35" s="43" t="s">
         <v>482</v>
       </c>
@@ -9338,7 +9384,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A36" s="43" t="s">
         <v>91</v>
       </c>
@@ -9352,7 +9398,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A37" s="43" t="s">
         <v>92</v>
       </c>
@@ -9366,7 +9412,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A38" s="43" t="s">
         <v>95</v>
       </c>
@@ -9380,7 +9426,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A39" s="43" t="s">
         <v>97</v>
       </c>
@@ -9394,7 +9440,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A40" s="43" t="s">
         <v>102</v>
       </c>
@@ -9408,7 +9454,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="95" t="s">
         <v>105</v>
       </c>
@@ -9422,7 +9468,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="96"/>
       <c r="B42" s="94"/>
       <c r="C42" s="92"/>
@@ -9430,7 +9476,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A43" s="43" t="s">
         <v>107</v>
       </c>
@@ -9444,7 +9490,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A44" s="43" t="s">
         <v>539</v>
       </c>
@@ -9458,7 +9504,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="43" t="s">
         <v>110</v>
       </c>
@@ -9472,7 +9518,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A46" s="43" t="s">
         <v>112</v>
       </c>
@@ -9486,7 +9532,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="43" t="s">
         <v>116</v>
       </c>
@@ -9500,7 +9546,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="43" t="s">
         <v>3</v>
       </c>
@@ -9514,7 +9560,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A49" s="51" t="s">
         <v>271</v>
       </c>
@@ -9528,7 +9574,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A50" s="47" t="s">
         <v>340</v>
       </c>
@@ -9542,7 +9588,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A51" s="47" t="s">
         <v>343</v>
       </c>
@@ -9556,7 +9602,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A52" s="47" t="s">
         <v>346</v>
       </c>
@@ -9570,7 +9616,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A53" s="47" t="s">
         <v>350</v>
       </c>
@@ -9584,7 +9630,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A54" s="47" t="s">
         <v>353</v>
       </c>
@@ -9598,7 +9644,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A55" s="47" t="s">
         <v>356</v>
       </c>
@@ -9612,7 +9658,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A56" s="47" t="s">
         <v>357</v>
       </c>
@@ -9626,7 +9672,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A57" s="47" t="s">
         <v>364</v>
       </c>
@@ -9640,7 +9686,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A58" s="47" t="s">
         <v>365</v>
       </c>
@@ -9654,7 +9700,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A59" s="47" t="s">
         <v>366</v>
       </c>
@@ -9668,7 +9714,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A60" s="47" t="s">
         <v>370</v>
       </c>
@@ -9682,7 +9728,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A61" s="47" t="s">
         <v>371</v>
       </c>
@@ -9696,7 +9742,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A62" s="55" t="s">
         <v>374</v>
       </c>
@@ -9708,7 +9754,7 @@
       </c>
       <c r="D62" s="56"/>
     </row>
-    <row r="63" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A63" s="8" t="s">
         <v>649</v>
       </c>
@@ -9722,7 +9768,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A64" s="8" t="s">
         <v>650</v>
       </c>
@@ -9736,7 +9782,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A65" s="8" t="s">
         <v>651</v>
       </c>
@@ -9750,7 +9796,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="8" t="s">
         <v>661</v>
       </c>
@@ -9764,7 +9810,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A67" s="8" t="s">
         <v>665</v>
       </c>
@@ -9778,7 +9824,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="8" t="s">
         <v>668</v>
       </c>
@@ -9789,7 +9835,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="8" t="s">
         <v>669</v>
       </c>
@@ -9800,7 +9846,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A70" s="8" t="s">
         <v>674</v>
       </c>
@@ -9814,7 +9860,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A71" s="8" t="s">
         <v>675</v>
       </c>
@@ -9828,7 +9874,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A72" s="8" t="s">
         <v>676</v>
       </c>
@@ -9842,7 +9888,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A73" s="8" t="s">
         <v>677</v>
       </c>
@@ -9933,19 +9979,19 @@
   <dimension ref="A1:D82"/>
   <sheetViews>
     <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.28515625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="32.33203125" style="5" customWidth="1"/>
     <col min="2" max="2" width="75" style="11" customWidth="1"/>
-    <col min="3" max="3" width="110.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="110.5546875" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="5" customWidth="1"/>
-    <col min="5" max="16384" width="9.28515625" style="3"/>
+    <col min="5" max="16384" width="9.33203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="90" t="s">
         <v>4</v>
       </c>
@@ -9953,7 +9999,7 @@
       <c r="C1" s="90"/>
       <c r="D1" s="90"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="42" t="s">
         <v>1</v>
       </c>
@@ -9967,7 +10013,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="51" t="s">
         <v>5</v>
       </c>
@@ -9981,7 +10027,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
@@ -9995,7 +10041,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="61" t="s">
         <v>8</v>
       </c>
@@ -10009,7 +10055,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A6" s="61" t="s">
         <v>121</v>
       </c>
@@ -10023,7 +10069,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A7" s="61" t="s">
         <v>124</v>
       </c>
@@ -10037,7 +10083,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="61" t="s">
         <v>128</v>
       </c>
@@ -10051,7 +10097,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="61" t="s">
         <v>130</v>
       </c>
@@ -10065,7 +10111,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A10" s="61" t="s">
         <v>133</v>
       </c>
@@ -10079,7 +10125,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="61" t="s">
         <v>214</v>
       </c>
@@ -10093,7 +10139,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A12" s="61" t="s">
         <v>136</v>
       </c>
@@ -10107,7 +10153,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A13" s="61" t="s">
         <v>139</v>
       </c>
@@ -10121,7 +10167,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="61" t="s">
         <v>142</v>
       </c>
@@ -10135,7 +10181,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A15" s="61" t="s">
         <v>144</v>
       </c>
@@ -10149,7 +10195,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A16" s="61" t="s">
         <v>148</v>
       </c>
@@ -10163,7 +10209,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="61" t="s">
         <v>151</v>
       </c>
@@ -10177,7 +10223,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A18" s="61" t="s">
         <v>154</v>
       </c>
@@ -10191,7 +10237,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A19" s="61" t="s">
         <v>157</v>
       </c>
@@ -10205,7 +10251,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A20" s="61" t="s">
         <v>160</v>
       </c>
@@ -10219,7 +10265,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="61" t="s">
         <v>164</v>
       </c>
@@ -10233,7 +10279,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="61" t="s">
         <v>166</v>
       </c>
@@ -10247,7 +10293,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A23" s="61" t="s">
         <v>169</v>
       </c>
@@ -10261,7 +10307,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A24" s="61" t="s">
         <v>171</v>
       </c>
@@ -10275,7 +10321,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A25" s="61" t="s">
         <v>175</v>
       </c>
@@ -10289,7 +10335,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A26" s="61" t="s">
         <v>178</v>
       </c>
@@ -10303,7 +10349,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A27" s="61" t="s">
         <v>180</v>
       </c>
@@ -10317,7 +10363,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A28" s="61" t="s">
         <v>182</v>
       </c>
@@ -10331,7 +10377,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A29" s="61" t="s">
         <v>186</v>
       </c>
@@ -10345,7 +10391,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A30" s="61" t="s">
         <v>188</v>
       </c>
@@ -10359,7 +10405,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A31" s="61" t="s">
         <v>193</v>
       </c>
@@ -10373,7 +10419,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A32" s="61" t="s">
         <v>194</v>
       </c>
@@ -10387,7 +10433,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A33" s="61" t="s">
         <v>197</v>
       </c>
@@ -10401,7 +10447,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A34" s="61" t="s">
         <v>199</v>
       </c>
@@ -10415,7 +10461,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A35" s="61" t="s">
         <v>202</v>
       </c>
@@ -10429,7 +10475,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A36" s="61" t="s">
         <v>205</v>
       </c>
@@ -10443,7 +10489,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A37" s="61" t="s">
         <v>206</v>
       </c>
@@ -10457,7 +10503,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A38" s="61" t="s">
         <v>211</v>
       </c>
@@ -10471,7 +10517,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A39" s="61" t="s">
         <v>217</v>
       </c>
@@ -10485,7 +10531,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="61" t="s">
         <v>220</v>
       </c>
@@ -10499,7 +10545,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A41" s="61" t="s">
         <v>223</v>
       </c>
@@ -10513,7 +10559,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A42" s="61" t="s">
         <v>226</v>
       </c>
@@ -10527,7 +10573,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A43" s="61" t="s">
         <v>229</v>
       </c>
@@ -10541,7 +10587,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A44" s="61" t="s">
         <v>232</v>
       </c>
@@ -10555,7 +10601,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A45" s="61" t="s">
         <v>235</v>
       </c>
@@ -10569,7 +10615,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="61" t="s">
         <v>238</v>
       </c>
@@ -10583,7 +10629,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="61" t="s">
         <v>241</v>
       </c>
@@ -10597,7 +10643,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A48" s="61" t="s">
         <v>245</v>
       </c>
@@ -10611,7 +10657,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A49" s="61" t="s">
         <v>248</v>
       </c>
@@ -10625,7 +10671,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A50" s="61" t="s">
         <v>250</v>
       </c>
@@ -10639,7 +10685,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A51" s="61" t="s">
         <v>253</v>
       </c>
@@ -10653,7 +10699,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A52" s="61" t="s">
         <v>255</v>
       </c>
@@ -10667,7 +10713,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A53" s="61" t="s">
         <v>258</v>
       </c>
@@ -10681,7 +10727,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A54" s="61" t="s">
         <v>259</v>
       </c>
@@ -10695,7 +10741,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A55" s="61" t="s">
         <v>263</v>
       </c>
@@ -10709,7 +10755,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="61" t="s">
         <v>266</v>
       </c>
@@ -10723,7 +10769,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A57" s="61" t="s">
         <v>274</v>
       </c>
@@ -10737,7 +10783,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A58" s="51" t="s">
         <v>277</v>
       </c>
@@ -10751,7 +10797,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="66" t="s">
         <v>280</v>
       </c>
@@ -10765,7 +10811,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A60" s="51" t="s">
         <v>283</v>
       </c>
@@ -10779,7 +10825,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A61" s="51" t="s">
         <v>285</v>
       </c>
@@ -10793,7 +10839,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A62" s="51" t="s">
         <v>289</v>
       </c>
@@ -10807,7 +10853,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A63" s="51" t="s">
         <v>292</v>
       </c>
@@ -10821,7 +10867,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A64" s="51" t="s">
         <v>295</v>
       </c>
@@ -10835,7 +10881,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A65" s="51" t="s">
         <v>298</v>
       </c>
@@ -10849,7 +10895,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A66" s="51" t="s">
         <v>301</v>
       </c>
@@ -10863,7 +10909,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A67" s="51" t="s">
         <v>304</v>
       </c>
@@ -10877,7 +10923,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A68" s="51" t="s">
         <v>307</v>
       </c>
@@ -10891,7 +10937,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="66" t="s">
         <v>310</v>
       </c>
@@ -10905,7 +10951,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A70" s="66" t="s">
         <v>312</v>
       </c>
@@ -10919,7 +10965,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A71" s="66" t="s">
         <v>316</v>
       </c>
@@ -10933,7 +10979,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A72" s="66" t="s">
         <v>317</v>
       </c>
@@ -10947,7 +10993,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A73" s="66" t="s">
         <v>335</v>
       </c>
@@ -10961,7 +11007,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="66" t="s">
         <v>338</v>
       </c>
@@ -10973,7 +11019,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A75" s="66" t="s">
         <v>320</v>
       </c>
@@ -10987,7 +11033,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A76" s="66" t="s">
         <v>323</v>
       </c>
@@ -11001,7 +11047,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A77" s="66" t="s">
         <v>328</v>
       </c>
@@ -11015,7 +11061,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A78" s="66" t="s">
         <v>326</v>
       </c>
@@ -11029,7 +11075,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A79" s="66" t="s">
         <v>327</v>
       </c>
@@ -11043,7 +11089,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="204.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" ht="218.4" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
         <v>646</v>
       </c>
@@ -11051,7 +11097,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C82" s="5" t="s">
         <v>648</v>
       </c>
@@ -11153,16 +11199,16 @@
       <selection activeCell="G23" sqref="G23:H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="43.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E3" t="s">
         <v>1059</v>
       </c>
@@ -11182,7 +11228,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="4" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E4" t="s">
         <v>1060</v>
       </c>
@@ -11197,7 +11243,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="5" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E5" t="s">
         <v>1061</v>
       </c>
@@ -11212,7 +11258,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="6" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E6" t="s">
         <v>1062</v>
       </c>
@@ -11227,7 +11273,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="7" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
         <v>1063</v>
       </c>
@@ -11242,7 +11288,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="8" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E8" t="s">
         <v>1064</v>
       </c>
@@ -11257,7 +11303,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="9" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E9" t="s">
         <v>1065</v>
       </c>
@@ -11272,7 +11318,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="10" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E10" t="s">
         <v>1066</v>
       </c>
@@ -11287,7 +11333,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="11" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E11" t="s">
         <v>1067</v>
       </c>
@@ -11302,7 +11348,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="12" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E12" t="s">
         <v>1068</v>
       </c>
@@ -11311,7 +11357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E13" t="s">
         <v>1069</v>
       </c>
@@ -11320,7 +11366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E14" t="s">
         <v>1076</v>
       </c>
@@ -11340,22 +11386,22 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D71"/>
+  <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="31" style="14" customWidth="1"/>
-    <col min="2" max="2" width="73.28515625" style="77" customWidth="1"/>
-    <col min="3" max="3" width="110.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.33203125" style="77" customWidth="1"/>
+    <col min="3" max="3" width="110.5546875" style="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="14" customWidth="1"/>
-    <col min="5" max="16384" width="9.28515625" style="14"/>
+    <col min="5" max="16384" width="9.33203125" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="90" t="s">
         <v>463</v>
       </c>
@@ -11363,7 +11409,7 @@
       <c r="C1" s="90"/>
       <c r="D1" s="90"/>
     </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="42" t="s">
         <v>1</v>
       </c>
@@ -11377,7 +11423,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A3" s="51" t="s">
         <v>377</v>
       </c>
@@ -11391,7 +11437,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A4" s="51" t="s">
         <v>936</v>
       </c>
@@ -11405,7 +11451,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="51" t="s">
         <v>937</v>
       </c>
@@ -11419,7 +11465,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="51" t="s">
         <v>380</v>
       </c>
@@ -11431,7 +11477,7 @@
       </c>
       <c r="D6" s="54"/>
     </row>
-    <row r="7" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A7" s="51" t="s">
         <v>383</v>
       </c>
@@ -11443,7 +11489,7 @@
       </c>
       <c r="D7" s="54"/>
     </row>
-    <row r="8" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A8" s="51" t="s">
         <v>386</v>
       </c>
@@ -11455,7 +11501,7 @@
       </c>
       <c r="D8" s="54"/>
     </row>
-    <row r="9" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A9" s="51" t="s">
         <v>387</v>
       </c>
@@ -11467,7 +11513,7 @@
       </c>
       <c r="D9" s="54"/>
     </row>
-    <row r="10" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A10" s="51" t="s">
         <v>392</v>
       </c>
@@ -11479,7 +11525,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A11" s="51" t="s">
         <v>393</v>
       </c>
@@ -11491,7 +11537,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="51" t="s">
         <v>396</v>
       </c>
@@ -11505,7 +11551,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A13" s="51" t="s">
         <v>399</v>
       </c>
@@ -11519,7 +11565,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A14" s="51" t="s">
         <v>402</v>
       </c>
@@ -11533,7 +11579,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A15" s="51" t="s">
         <v>405</v>
       </c>
@@ -11547,7 +11593,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A16" s="51" t="s">
         <v>408</v>
       </c>
@@ -11561,7 +11607,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A17" s="51" t="s">
         <v>411</v>
       </c>
@@ -11575,7 +11621,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A18" s="51" t="s">
         <v>414</v>
       </c>
@@ -11589,7 +11635,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A19" s="51" t="s">
         <v>417</v>
       </c>
@@ -11603,7 +11649,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A20" s="51" t="s">
         <v>419</v>
       </c>
@@ -11615,7 +11661,7 @@
       </c>
       <c r="D20" s="54"/>
     </row>
-    <row r="21" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A21" s="51" t="s">
         <v>423</v>
       </c>
@@ -11625,7 +11671,7 @@
       <c r="C21" s="65"/>
       <c r="D21" s="54"/>
     </row>
-    <row r="22" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A22" s="51" t="s">
         <v>426</v>
       </c>
@@ -11635,7 +11681,7 @@
       <c r="C22" s="65"/>
       <c r="D22" s="54"/>
     </row>
-    <row r="23" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A23" s="51" t="s">
         <v>427</v>
       </c>
@@ -11647,7 +11693,7 @@
       </c>
       <c r="D23" s="54"/>
     </row>
-    <row r="24" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A24" s="51" t="s">
         <v>435</v>
       </c>
@@ -11661,7 +11707,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A25" s="51" t="s">
         <v>436</v>
       </c>
@@ -11675,7 +11721,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A26" s="51" t="s">
         <v>437</v>
       </c>
@@ -11689,7 +11735,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A27" s="51" t="s">
         <v>440</v>
       </c>
@@ -11703,7 +11749,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A28" s="51" t="s">
         <v>443</v>
       </c>
@@ -11717,7 +11763,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A29" s="51" t="s">
         <v>445</v>
       </c>
@@ -11729,7 +11775,7 @@
       </c>
       <c r="D29" s="54"/>
     </row>
-    <row r="30" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A30" s="51" t="s">
         <v>448</v>
       </c>
@@ -11743,7 +11789,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A31" s="51" t="s">
         <v>450</v>
       </c>
@@ -11757,7 +11803,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A32" s="51" t="s">
         <v>454</v>
       </c>
@@ -11771,7 +11817,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A33" s="51" t="s">
         <v>455</v>
       </c>
@@ -11785,7 +11831,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>920</v>
       </c>
@@ -11799,7 +11845,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>925</v>
       </c>
@@ -11813,7 +11859,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>923</v>
       </c>
@@ -11827,7 +11873,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>929</v>
       </c>
@@ -11839,7 +11885,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="156" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>931</v>
       </c>
@@ -11849,7 +11895,7 @@
       <c r="C38" s="12"/>
       <c r="D38" s="9"/>
     </row>
-    <row r="39" spans="1:4" ht="204.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="202.8" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>933</v>
       </c>
@@ -11863,7 +11909,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>1087</v>
       </c>
@@ -11877,7 +11923,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>1088</v>
       </c>
@@ -11891,7 +11937,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>1089</v>
       </c>
@@ -11905,7 +11951,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="126" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>1090</v>
       </c>
@@ -11919,7 +11965,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A44" s="6"/>
       <c r="B44" s="76"/>
       <c r="C44" s="12" t="s">
@@ -11929,7 +11975,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>1091</v>
       </c>
@@ -11943,7 +11989,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>1092</v>
       </c>
@@ -11957,7 +12003,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>1093</v>
       </c>
@@ -11971,7 +12017,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>1096</v>
       </c>
@@ -11985,7 +12031,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
         <v>1099</v>
       </c>
@@ -11999,7 +12045,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>1100</v>
       </c>
@@ -12013,7 +12059,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
         <v>1101</v>
       </c>
@@ -12027,7 +12073,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
         <v>1102</v>
       </c>
@@ -12041,7 +12087,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
         <v>1103</v>
       </c>
@@ -12055,7 +12101,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
         <v>965</v>
       </c>
@@ -12069,7 +12115,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>1104</v>
       </c>
@@ -12083,7 +12129,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>1105</v>
       </c>
@@ -12097,7 +12143,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="156" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
         <v>1106</v>
       </c>
@@ -12111,7 +12157,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
         <v>1107</v>
       </c>
@@ -12125,7 +12171,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
         <v>1108</v>
       </c>
@@ -12139,7 +12185,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
         <v>1109</v>
       </c>
@@ -12153,7 +12199,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
         <v>1110</v>
       </c>
@@ -12167,7 +12213,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>1111</v>
       </c>
@@ -12181,7 +12227,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
         <v>1112</v>
       </c>
@@ -12195,7 +12241,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
         <v>1113</v>
       </c>
@@ -12209,7 +12255,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
         <v>1116</v>
       </c>
@@ -12223,7 +12269,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
         <v>1119</v>
       </c>
@@ -12237,7 +12283,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
         <v>1121</v>
       </c>
@@ -12251,7 +12297,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
         <v>1124</v>
       </c>
@@ -12265,7 +12311,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="126" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
         <v>1127</v>
       </c>
@@ -12279,7 +12325,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="189" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
         <v>1085</v>
       </c>
@@ -12293,7 +12339,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
         <v>1130</v>
       </c>
@@ -12304,6 +12350,48 @@
         <v>1131</v>
       </c>
       <c r="D71" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="202.8" x14ac:dyDescent="0.3">
+      <c r="A72" s="6" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B72" s="76" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C72" s="12" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A73" s="6" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B73" s="76" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C73" s="12" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A74" s="6" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B74" s="76" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C74" s="12" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D74" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -12368,9 +12456,12 @@
     <hyperlink ref="D69" r:id="rId54" xr:uid="{79E6526B-E90B-440C-ACBC-765E9EE00BD8}"/>
     <hyperlink ref="D67" r:id="rId55" xr:uid="{D934F0ED-9BE9-4B13-94F6-2E077CD514C1}"/>
     <hyperlink ref="D70" r:id="rId56" xr:uid="{A9867F4E-39F2-450B-B3AA-CAE3ACEC1345}"/>
+    <hyperlink ref="D72" r:id="rId57" xr:uid="{AA83DA65-B16B-4A4B-A868-636E98A1E643}"/>
+    <hyperlink ref="D73" r:id="rId58" xr:uid="{D5CE70C3-847B-494D-A6C8-E0F4FF4B0871}"/>
+    <hyperlink ref="D74" r:id="rId59" xr:uid="{5897D3EF-C0AA-4339-966D-49CD2F4CD051}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId57"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId60"/>
 </worksheet>
 </file>
 
@@ -12382,15 +12473,15 @@
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
-    <col min="2" max="2" width="73.28515625" customWidth="1"/>
-    <col min="3" max="3" width="110.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.33203125" customWidth="1"/>
+    <col min="3" max="3" width="110.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="42" t="s">
         <v>1</v>
       </c>
@@ -12404,7 +12495,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="51" t="s">
         <v>1000</v>
       </c>
@@ -12418,7 +12509,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="51" t="s">
         <v>987</v>
       </c>
@@ -12432,7 +12523,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="51" t="s">
         <v>989</v>
       </c>
@@ -12446,7 +12537,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="51" t="s">
         <v>990</v>
       </c>
@@ -12460,7 +12551,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="51" t="s">
         <v>991</v>
       </c>
@@ -12474,7 +12565,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="51" t="s">
         <v>997</v>
       </c>
@@ -12488,7 +12579,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="51" t="s">
         <v>995</v>
       </c>
@@ -12502,7 +12593,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A10" s="51" t="s">
         <v>1014</v>
       </c>
@@ -12516,7 +12607,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="173.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="171.6" x14ac:dyDescent="0.3">
       <c r="A11" s="51" t="s">
         <v>1045</v>
       </c>
@@ -12530,7 +12621,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="51" t="s">
         <v>1026</v>
       </c>
@@ -12540,7 +12631,7 @@
       <c r="C12" s="65"/>
       <c r="D12" s="73"/>
     </row>
-    <row r="13" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A13" s="51" t="s">
         <v>1023</v>
       </c>
@@ -12554,7 +12645,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="51" t="s">
         <v>1030</v>
       </c>
@@ -12564,7 +12655,7 @@
       <c r="C14" s="65"/>
       <c r="D14" s="73"/>
     </row>
-    <row r="15" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A15" s="51" t="s">
         <v>1012</v>
       </c>
@@ -12578,7 +12669,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A16" s="51" t="s">
         <v>1021</v>
       </c>
@@ -12592,7 +12683,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="51" t="s">
         <v>1027</v>
       </c>
@@ -12602,7 +12693,7 @@
       <c r="C17" s="65"/>
       <c r="D17" s="73"/>
     </row>
-    <row r="18" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A18" s="51" t="s">
         <v>1009</v>
       </c>
@@ -12616,7 +12707,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A19" s="51" t="s">
         <v>1015</v>
       </c>
@@ -12630,7 +12721,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="51" t="s">
         <v>1033</v>
       </c>
@@ -12642,7 +12733,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="51" t="s">
         <v>1034</v>
       </c>
@@ -12656,7 +12747,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A22" s="51" t="s">
         <v>1036</v>
       </c>
@@ -12670,7 +12761,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A23" s="51" t="s">
         <v>1035</v>
       </c>
@@ -12684,7 +12775,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="51" t="s">
         <v>1047</v>
       </c>
@@ -12694,7 +12785,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A25" s="51" t="s">
         <v>1048</v>
       </c>
@@ -12708,7 +12799,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A26" s="51" t="s">
         <v>1050</v>
       </c>
@@ -12718,7 +12809,7 @@
       <c r="C26" s="65"/>
       <c r="D26" s="73"/>
     </row>
-    <row r="27" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A27" s="51" t="s">
         <v>1053</v>
       </c>
@@ -12732,7 +12823,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A28" s="51" t="s">
         <v>1056</v>
       </c>
@@ -12783,15 +12874,15 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48.85546875" customWidth="1"/>
+    <col min="1" max="1" width="48.88671875" customWidth="1"/>
     <col min="2" max="2" width="58" customWidth="1"/>
-    <col min="3" max="3" width="110.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="110.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="42" t="s">
         <v>1</v>
       </c>
@@ -12805,7 +12896,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A3" s="47" t="s">
         <v>690</v>
       </c>
@@ -12819,7 +12910,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="47" t="s">
         <v>691</v>
       </c>
@@ -12833,7 +12924,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="47" t="s">
         <v>692</v>
       </c>
@@ -12847,7 +12938,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A6" s="47" t="s">
         <v>696</v>
       </c>
@@ -12861,7 +12952,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="47" t="s">
         <v>697</v>
       </c>
@@ -12875,7 +12966,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A8" s="47" t="s">
         <v>706</v>
       </c>
@@ -12887,7 +12978,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A9" s="47" t="s">
         <v>707</v>
       </c>
@@ -12897,7 +12988,7 @@
       <c r="C9" s="70"/>
       <c r="D9" s="50"/>
     </row>
-    <row r="10" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A10" s="47" t="s">
         <v>710</v>
       </c>
@@ -12907,7 +12998,7 @@
       <c r="C10" s="70"/>
       <c r="D10" s="50"/>
     </row>
-    <row r="11" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A11" s="47" t="s">
         <v>711</v>
       </c>
@@ -12917,7 +13008,7 @@
       <c r="C11" s="70"/>
       <c r="D11" s="50"/>
     </row>
-    <row r="12" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A12" s="47" t="s">
         <v>730</v>
       </c>
@@ -12927,7 +13018,7 @@
       <c r="C12" s="70"/>
       <c r="D12" s="50"/>
     </row>
-    <row r="13" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A13" s="47" t="s">
         <v>716</v>
       </c>
@@ -12941,7 +13032,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A14" s="47" t="s">
         <v>717</v>
       </c>
@@ -12955,7 +13046,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A15" s="47" t="s">
         <v>718</v>
       </c>
@@ -12969,7 +13060,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A16" s="47" t="s">
         <v>724</v>
       </c>
@@ -12983,7 +13074,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A17" s="47" t="s">
         <v>725</v>
       </c>
@@ -12997,7 +13088,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A18" s="47" t="s">
         <v>738</v>
       </c>
@@ -13011,7 +13102,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A19" s="47" t="s">
         <v>741</v>
       </c>
@@ -13025,7 +13116,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A20" s="47" t="s">
         <v>731</v>
       </c>
@@ -13039,7 +13130,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A21" s="47" t="s">
         <v>734</v>
       </c>
@@ -13053,7 +13144,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A22" s="47" t="s">
         <v>698</v>
       </c>
@@ -13067,7 +13158,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A23" s="47" t="s">
         <v>699</v>
       </c>
@@ -13081,7 +13172,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A24" s="47" t="s">
         <v>700</v>
       </c>
@@ -13095,7 +13186,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="47" t="s">
         <v>704</v>
       </c>
@@ -13109,7 +13200,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A26" s="47" t="s">
         <v>748</v>
       </c>
@@ -13123,7 +13214,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A27" s="47" t="s">
         <v>751</v>
       </c>
@@ -13137,7 +13228,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A28" s="47" t="s">
         <v>755</v>
       </c>
@@ -13151,7 +13242,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A29" s="47" t="s">
         <v>758</v>
       </c>
@@ -13165,7 +13256,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A30" s="47" t="s">
         <v>761</v>
       </c>
@@ -13179,7 +13270,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A31" s="47" t="s">
         <v>763</v>
       </c>
@@ -13193,7 +13284,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A32" s="47" t="s">
         <v>766</v>
       </c>
@@ -13207,7 +13298,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A33" s="47" t="s">
         <v>769</v>
       </c>
@@ -13221,7 +13312,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A34" s="47" t="s">
         <v>770</v>
       </c>
@@ -13235,7 +13326,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A35" s="47" t="s">
         <v>776</v>
       </c>
@@ -13249,13 +13340,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="47"/>
       <c r="B36" s="71"/>
       <c r="C36" s="70"/>
       <c r="D36" s="72"/>
     </row>
-    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="47"/>
       <c r="B37" s="71"/>
       <c r="C37" s="70"/>

--- a/cheat_sheet.xlsx
+++ b/cheat_sheet.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09A04DE4-16A8-4F39-8295-5F8FB2851F8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A94E91-EB1F-4851-9047-30080F64DB11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="825" yWindow="225" windowWidth="27360" windowHeight="14505" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="825" yWindow="225" windowWidth="27360" windowHeight="14505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Samplers" sheetId="5" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1610" uniqueCount="1194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1630" uniqueCount="1209">
   <si>
     <t>HTML</t>
   </si>
@@ -4212,6 +4212,92 @@
   stroke-dashoffset: 815px;
 }</t>
   </si>
+  <si>
+    <t>SVG Optimizer</t>
+  </si>
+  <si>
+    <t>https://jakearchibald.github.io/svgomg/</t>
+  </si>
+  <si>
+    <t>SVG - Grouping elements for reference</t>
+  </si>
+  <si>
+    <t>The &lt;defs&gt; element is used to store graphical objects that will be used at a later time. Objects created inside a &lt;defs&gt; element are not rendered directly. To display them you have to reference them (with a &lt;use&gt; element for example).</t>
+  </si>
+  <si>
+    <t>&lt;svg&gt;
+&lt;defs id="reference"&gt;
+//svg content
+&lt;/defs&gt;
+&lt;/svg&gt;</t>
+  </si>
+  <si>
+    <t>SVG - Grouping elements for reference symbol</t>
+  </si>
+  <si>
+    <t>&lt;svg&gt;
+&lt;symbol id="reference" viewbox="0 0 100 100"&gt;
+//svg content
+&lt;/symbol&gt;
+&lt;/svg&gt;</t>
+  </si>
+  <si>
+    <t>SVG - Referencing defs SVG elements</t>
+  </si>
+  <si>
+    <t>SVG - Referencing symbols SVG elements</t>
+  </si>
+  <si>
+    <t>&lt;svg&gt;
+&lt;symbol id="reference" viewbox="0 0 100 100"&gt;
+//svg content
+&lt;/symbol&gt;
+&lt;/svg&gt;
+&lt;svg&gt;
+&lt;use href="#reference"/&gt;
+&lt;/svg&gt;</t>
+  </si>
+  <si>
+    <t>&lt;svg&gt;
+&lt;defs id="reference"&gt;
+//svg content
+&lt;/defs&gt;
+&lt;use href="#reference"/&gt;
+&lt;/svg&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t>The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;use&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> element takes nodes from within the SVG document, and duplicates them somewhere else.</t>
+    </r>
+  </si>
+  <si>
+    <t>The &lt;symbol&gt; element is used to define graphical template objects which can be instantiated by a &lt;use&gt; element.</t>
+  </si>
+  <si>
+    <t>https://github.com/jkphl/gulp-svg-sprite</t>
+  </si>
+  <si>
+    <t>SVG Sprite</t>
+  </si>
 </sst>
 </file>
 
@@ -4221,7 +4307,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4322,6 +4408,12 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -4611,7 +4703,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4785,6 +4877,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4821,9 +4916,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5106,10 +5199,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5147,7 +5240,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="60" t="s">
         <v>373</v>
       </c>
       <c r="C2" s="11" t="s">
@@ -5167,7 +5260,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="60"/>
+      <c r="A3" s="61"/>
       <c r="C3" s="11" t="s">
         <v>6</v>
       </c>
@@ -5242,6 +5335,22 @@
       </c>
       <c r="C8" s="11" t="s">
         <v>546</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>1207</v>
       </c>
     </row>
   </sheetData>
@@ -5262,9 +5371,11 @@
     <hyperlink ref="J4" r:id="rId11" xr:uid="{0637584C-0984-448A-8606-3FA6744CAF20}"/>
     <hyperlink ref="L4" r:id="rId12" xr:uid="{F3103421-F6E1-4F94-9EA6-91DDD8B6150F}"/>
     <hyperlink ref="L5" r:id="rId13" xr:uid="{8439B511-B0F8-4D72-8E33-67B998E70A1A}"/>
+    <hyperlink ref="C9" r:id="rId14" xr:uid="{E367B2A2-D23C-4116-B5D1-B673BD5F2A93}"/>
+    <hyperlink ref="C10" r:id="rId15" xr:uid="{46CEE0F3-3F9A-4060-B0CE-4231E733D572}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>
 
@@ -6192,13 +6303,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="69" t="s">
         <v>570</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
     </row>
     <row r="3" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
@@ -6262,13 +6373,13 @@
         <v>0</v>
       </c>
       <c r="G5" s="17"/>
-      <c r="H5" s="62" t="s">
+      <c r="H5" s="63" t="s">
         <v>572</v>
       </c>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
-      <c r="L5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="65"/>
     </row>
     <row r="6" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
@@ -6503,11 +6614,11 @@
       </c>
       <c r="I11" s="38">
         <f ca="1">TODAY() +I10</f>
-        <v>43841.15</v>
+        <v>43842.15</v>
       </c>
       <c r="J11" s="38">
         <f ca="1">I11+J10</f>
-        <v>43852.994444444448</v>
+        <v>43853.994444444448</v>
       </c>
       <c r="K11" s="38"/>
       <c r="L11" s="38"/>
@@ -6579,13 +6690,13 @@
       <c r="H13" s="30" t="s">
         <v>645</v>
       </c>
-      <c r="I13" s="65">
+      <c r="I13" s="66">
         <f>AVERAGE(I12:L12)</f>
         <v>0.25594431539553486</v>
       </c>
-      <c r="J13" s="66"/>
-      <c r="K13" s="66"/>
-      <c r="L13" s="67"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="68"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
@@ -7345,13 +7456,13 @@
       <c r="F45" s="17"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="61" t="s">
+      <c r="A46" s="62" t="s">
         <v>576</v>
       </c>
-      <c r="B46" s="61"/>
-      <c r="C46" s="61"/>
-      <c r="D46" s="61"/>
-      <c r="E46" s="61"/>
+      <c r="B46" s="62"/>
+      <c r="C46" s="62"/>
+      <c r="D46" s="62"/>
+      <c r="E46" s="62"/>
       <c r="F46" s="17"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -7954,13 +8065,13 @@
       <c r="F74" s="26"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="61" t="s">
+      <c r="A75" s="62" t="s">
         <v>607</v>
       </c>
-      <c r="B75" s="61"/>
-      <c r="C75" s="61"/>
-      <c r="D75" s="61"/>
-      <c r="E75" s="61"/>
+      <c r="B75" s="62"/>
+      <c r="C75" s="62"/>
+      <c r="D75" s="62"/>
+      <c r="E75" s="62"/>
       <c r="F75" s="29"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -8277,14 +8388,14 @@
       <c r="F90" s="26"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="61" t="s">
+      <c r="A91" s="62" t="s">
         <v>623</v>
       </c>
-      <c r="B91" s="61"/>
-      <c r="C91" s="61"/>
-      <c r="D91" s="61"/>
-      <c r="E91" s="61"/>
-      <c r="F91" s="61"/>
+      <c r="B91" s="62"/>
+      <c r="C91" s="62"/>
+      <c r="D91" s="62"/>
+      <c r="E91" s="62"/>
+      <c r="F91" s="62"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="27" t="s">
@@ -8898,11 +9009,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="70" t="s">
         <v>485</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
     </row>
     <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -9136,10 +9247,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D74"/>
+  <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+    <sheetView topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9152,12 +9263,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
@@ -10166,6 +10277,62 @@
         <v>1146</v>
       </c>
       <c r="D74" s="46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A75" s="7" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D75" s="59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A76" s="7" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D76" s="59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="94.5" x14ac:dyDescent="0.2">
+      <c r="A77" s="7" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C77" s="72" t="s">
+        <v>1205</v>
+      </c>
+      <c r="D77" s="59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="126" x14ac:dyDescent="0.2">
+      <c r="A78" s="7" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C78" s="72" t="s">
+        <v>1205</v>
+      </c>
+      <c r="D78" s="59" t="s">
         <v>6</v>
       </c>
     </row>
@@ -10238,9 +10405,13 @@
     <hyperlink ref="D71" r:id="rId61" xr:uid="{AC624FBC-A3A8-4C90-8BF4-156319A313D9}"/>
     <hyperlink ref="D72" r:id="rId62" xr:uid="{D77E9608-900E-4C23-82CF-D3CFAA0F130E}"/>
     <hyperlink ref="D73" r:id="rId63" xr:uid="{D9B72E7A-DC19-4368-9466-3C2C05242D8C}"/>
+    <hyperlink ref="D75" r:id="rId64" xr:uid="{4DD4CA60-9DC3-4B76-B5BA-695C704BCCE4}"/>
+    <hyperlink ref="D77" r:id="rId65" xr:uid="{8EA57737-AB4E-4299-8F46-4301733B6A62}"/>
+    <hyperlink ref="D78" r:id="rId66" xr:uid="{27535BF2-079E-4E88-A8BF-79B27576BD8B}"/>
+    <hyperlink ref="D76" r:id="rId67" xr:uid="{A2B9C5D0-686A-46DB-898A-80438D7166C2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId64"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId68"/>
 </worksheet>
 </file>
 
@@ -10248,8 +10419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C83" sqref="C83"/>
+    <sheetView topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10262,12 +10433,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
@@ -11421,7 +11592,7 @@
       <c r="C84" s="5" t="s">
         <v>1186</v>
       </c>
-      <c r="D84" s="71" t="s">
+      <c r="D84" s="59" t="s">
         <v>6</v>
       </c>
     </row>
@@ -11435,7 +11606,7 @@
       <c r="C85" s="5" t="s">
         <v>1191</v>
       </c>
-      <c r="D85" s="71" t="s">
+      <c r="D85" s="59" t="s">
         <v>6</v>
       </c>
     </row>
@@ -11449,7 +11620,7 @@
       <c r="C86" s="5" t="s">
         <v>1190</v>
       </c>
-      <c r="D86" s="71" t="s">
+      <c r="D86" s="59" t="s">
         <v>6</v>
       </c>
     </row>
@@ -11759,12 +11930,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="71" t="s">
         <v>463</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">

--- a/cheat_sheet.xlsx
+++ b/cheat_sheet.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A94E91-EB1F-4851-9047-30080F64DB11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F02CF2-F657-43D7-A6A6-F232F4BD0457}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="825" yWindow="225" windowWidth="27360" windowHeight="14505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Samplers" sheetId="5" r:id="rId1"/>
@@ -36,9 +36,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -46,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1630" uniqueCount="1209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1717" uniqueCount="1273">
   <si>
     <t>HTML</t>
   </si>
@@ -4298,6 +4296,321 @@
   <si>
     <t>SVG Sprite</t>
   </si>
+  <si>
+    <t>use the transform box with the transform origin method</t>
+  </si>
+  <si>
+    <t>look up guides on using local storage</t>
+  </si>
+  <si>
+    <t>Grid</t>
+  </si>
+  <si>
+    <t>Grid template columns</t>
+  </si>
+  <si>
+    <t>Grid template rows</t>
+  </si>
+  <si>
+    <t>Grid column gap</t>
+  </si>
+  <si>
+    <t>Grid row gap</t>
+  </si>
+  <si>
+    <t>Grid Gap - SHORTHAND</t>
+  </si>
+  <si>
+    <t>.grid {
+  max-width: 800px;
+  display: grid;
+}</t>
+  </si>
+  <si>
+    <t>.grid {
+  display: grid;
+  grid-template-columns: 200px auto 200px;
+}</t>
+  </si>
+  <si>
+    <t>.grid {
+  display: grid;
+  grid-template-rows: 100px 200px;
+}</t>
+  </si>
+  <si>
+    <t>.grid {
+  max-width: 800px;
+  display: grid;
+  grid-gap: 15px 20px;
+}</t>
+  </si>
+  <si>
+    <t>.grid {
+  grid-row-gap: 20px
+}</t>
+  </si>
+  <si>
+    <t>.grid {
+  grid-column-gap: 20px
+}</t>
+  </si>
+  <si>
+    <r>
+      <t>A </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>CSS grid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> is defined using the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>grid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> value of the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF285C76"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>display</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> property; you can define columns and rows on your grid using the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3D7E9A"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>grid-template-rows</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3D7E9A"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>grid-template-columns</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> properties.</t>
+    </r>
+  </si>
+  <si>
+    <t>The grid-template-rows CSS property defines the line names and track sizing functions of the grid rows.</t>
+  </si>
+  <si>
+    <t>The grid-template-columns CSS property defines the line names and track sizing functions of the grid columns.</t>
+  </si>
+  <si>
+    <t>Grid repeat</t>
+  </si>
+  <si>
+    <t>Grid mixmax</t>
+  </si>
+  <si>
+    <t>Grid repeat - Auto fill</t>
+  </si>
+  <si>
+    <t>Grid repeat - Auto fit</t>
+  </si>
+  <si>
+    <t>The repeat() CSS function represents a repeated fragment of the track list, allowing a large number of columns or rows that exhibit a recurring pattern to be written in a more compact form.</t>
+  </si>
+  <si>
+    <t>grid-template-columns: repeat(3, minmax(200px, 1fr));</t>
+  </si>
+  <si>
+    <t>The minmax() CSS function defines a size range greater than or equal to min and less than or equal to max. It is used with CSS Grids.</t>
+  </si>
+  <si>
+    <t>grid-template-columns: repeat(auto-fill, minmax(60px, 1fr));</t>
+  </si>
+  <si>
+    <t>grid-template-columns: repeat(auto-fit  , minmax(60px, 1fr));</t>
+  </si>
+  <si>
+    <t>If the grid container has a definite or maximal size in the relevant axis, then the number of repetitions is the largest possible positive integer that does not cause the grid to overflow its grid container. Treating each track as its maximal track sizing function (each independant value used to define grid-template-rows or grid-template-columns), if that is definite. Otherwise, as its minimum track sizing function, and taking grid-gap into account. If any number of repetitions would overflow, then the repetition is 1. Otherwise, if the grid container has a definite minimal size in the relevant axis, the number of repetitions is the smallest possible positive integer that fulfills that minimum requirement. Otherwise, the specified track list repeats only once.</t>
+  </si>
+  <si>
+    <t>Behaves the same as auto-fill, except that after placing the grid items any empty repeated tracks are collapsed. An empty track is one with no in-flow grid items placed into or spanning across it. (This can result in all tracks being collapsed, if they’re all empty.)
+A collapsed track is treated as having a single fixed track sizing function of 0px, and the gutters on either side of it collapse.
+For the purpose of finding the number of auto-repeated tracks, the user agent floors the track size to a user agent specified value (e.g., 1px), to avoid division by zero.</t>
+  </si>
+  <si>
+    <t>Grid - implicit - auto flow</t>
+  </si>
+  <si>
+    <t>Grid - implicit - auto rows</t>
+  </si>
+  <si>
+    <t>Grid - implicit - auto columns</t>
+  </si>
+  <si>
+    <t>The grid-auto-rows CSS property specifies the size of an implicitly-created grid row track or pattern of tracks.</t>
+  </si>
+  <si>
+    <t>grid-auto-rows: minmax(10px, auto);</t>
+  </si>
+  <si>
+    <t>The grid-auto-flow CSS property controls how the auto-placement algorithm works, specifying exactly how auto-placed items get flowed into the grid.</t>
+  </si>
+  <si>
+    <t>grid-auto-flow: column;</t>
+  </si>
+  <si>
+    <t>The grid-auto-columns CSS property specifies the size of an implicitly-created grid column track or pattern of tracks.</t>
+  </si>
+  <si>
+    <t>grid-auto-columns: minmax(10px, auto);</t>
+  </si>
+  <si>
+    <t>Grid - row start</t>
+  </si>
+  <si>
+    <t>Grid - row end</t>
+  </si>
+  <si>
+    <t>Grid - row start and end SHORTHAND</t>
+  </si>
+  <si>
+    <t>Grid - column start</t>
+  </si>
+  <si>
+    <t>Grid - column end</t>
+  </si>
+  <si>
+    <t>Grid - column start and end SHORTHAND</t>
+  </si>
+  <si>
+    <t>Grid Area</t>
+  </si>
+  <si>
+    <t>Grid template area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The grid-row-start CSS property specifies a grid item’s start position within the grid row by contributing a line, a span, or nothing (automatic) to its grid placement, thereby specifying the inline-start edge of its grid area.
+</t>
+  </si>
+  <si>
+    <t>grid-row-start: -1;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The grid-row-end CSS property specifies a grid item’s end position within the grid row by contributing a line, a span, or nothing (automatic) to its grid placement, thereby specifying the inline-end edge of its grid area.
+</t>
+  </si>
+  <si>
+    <t>grid-row-end: -1;</t>
+  </si>
+  <si>
+    <t>The grid-row CSS property is a shorthand property for grid-row-start and grid-row-end specifying a grid item’s size and location within the grid row by contributing a line, a span, or nothing (automatic) to its grid placement, thereby specifying the inline-start and inline-end edge of its grid area.</t>
+  </si>
+  <si>
+    <t>grid-row: 2 / -1;</t>
+  </si>
+  <si>
+    <t>grid-column: 2 / -1;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The grid-column-start CSS property specifies a grid item’s start position within the grid column by contributing a line, a span, or nothing (automatic) to its grid placement. This start position defines the block-start edge of the grid area.
+</t>
+  </si>
+  <si>
+    <t>grid-column-start: -1;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The grid-column-end CSS property specifies a grid item’s end position within the grid column by contributing a line, a span, or nothing (automatic) to its grid placement, thereby specifying the block-end edge of its grid area.
+</t>
+  </si>
+  <si>
+    <t>grid-column-end: -1;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The grid-column CSS property is a shorthand property for grid-column-start and grid-column-end specifying a grid item's size and location within the grid column by contributing a line, a span, or nothing (automatic) to its grid placement, thereby specifying the inline-start and inline-end edge of its grid area.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The grid-area CSS property is a shorthand property for grid-row-start, grid-column-start, grid-row-end and grid-column-end, specifying a grid item’s size and location within the grid by contributing a line, a span, or nothing (automatic) to its grid placement, thereby specifying the edges of its grid area.
+</t>
+  </si>
+  <si>
+    <t>grid-template-areas: 
+            "b b a"
+            "b b c"
+            "b b c";</t>
+  </si>
+  <si>
+    <t>grid-area: b;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The grid-template-areas CSS property specifies named grid areas.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The column-gap CSS property sets the size of the gap (gutter) between an element's columns.
+</t>
+  </si>
+  <si>
+    <t>The row-gap CSS property sets the size of the gap (gutter) between an element's grid rows.</t>
+  </si>
+  <si>
+    <t>The gap CSS property sets the gaps (gutters) between rows and columns. It is a shorthand for row-gap and column-gap.</t>
+  </si>
 </sst>
 </file>
 
@@ -4307,7 +4620,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4417,6 +4730,31 @@
       <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF285C76"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF3D7E9A"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="14">
@@ -4880,6 +5218,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4916,7 +5255,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5201,22 +5539,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -5239,8 +5577,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="60" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="61" t="s">
         <v>373</v>
       </c>
       <c r="C2" s="11" t="s">
@@ -5259,8 +5597,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="61"/>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="62"/>
       <c r="C3" s="11" t="s">
         <v>6</v>
       </c>
@@ -5277,7 +5615,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>460</v>
       </c>
@@ -5297,7 +5635,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>461</v>
       </c>
@@ -5313,7 +5651,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>462</v>
       </c>
@@ -5321,7 +5659,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>465</v>
       </c>
@@ -5329,7 +5667,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>545</v>
       </c>
@@ -5337,7 +5675,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1194</v>
       </c>
@@ -5345,7 +5683,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>1208</v>
       </c>
@@ -5387,15 +5725,15 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48.85546875" customWidth="1"/>
+    <col min="1" max="1" width="48.88671875" customWidth="1"/>
     <col min="2" max="2" width="58" customWidth="1"/>
-    <col min="3" max="3" width="110.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="110.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
         <v>1</v>
       </c>
@@ -5409,7 +5747,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A3" s="41" t="s">
         <v>770</v>
       </c>
@@ -5423,7 +5761,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A4" s="41" t="s">
         <v>774</v>
       </c>
@@ -5437,7 +5775,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A5" s="41" t="s">
         <v>775</v>
       </c>
@@ -5449,7 +5787,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A6" s="41" t="s">
         <v>778</v>
       </c>
@@ -5463,7 +5801,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A7" s="41" t="s">
         <v>783</v>
       </c>
@@ -5477,7 +5815,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A8" s="41" t="s">
         <v>784</v>
       </c>
@@ -5491,7 +5829,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A9" s="41" t="s">
         <v>786</v>
       </c>
@@ -5505,7 +5843,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A10" s="41" t="s">
         <v>789</v>
       </c>
@@ -5519,7 +5857,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A11" s="41" t="s">
         <v>792</v>
       </c>
@@ -5533,7 +5871,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A12" s="41" t="s">
         <v>796</v>
       </c>
@@ -5547,7 +5885,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A13" s="41" t="s">
         <v>801</v>
       </c>
@@ -5561,7 +5899,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A14" s="41" t="s">
         <v>802</v>
       </c>
@@ -5575,7 +5913,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A15" s="41" t="s">
         <v>821</v>
       </c>
@@ -5589,7 +5927,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="41" t="s">
         <v>805</v>
       </c>
@@ -5599,7 +5937,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A17" s="41" t="s">
         <v>806</v>
       </c>
@@ -5613,7 +5951,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A18" s="41" t="s">
         <v>809</v>
       </c>
@@ -5627,7 +5965,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A19" s="41" t="s">
         <v>811</v>
       </c>
@@ -5641,7 +5979,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A20" s="41" t="s">
         <v>815</v>
       </c>
@@ -5655,7 +5993,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A21" s="41" t="s">
         <v>818</v>
       </c>
@@ -5669,7 +6007,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="189" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A22" s="41" t="s">
         <v>1156</v>
       </c>
@@ -5683,7 +6021,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A23" s="41" t="s">
         <v>1157</v>
       </c>
@@ -5697,7 +6035,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A24" s="41" t="s">
         <v>1158</v>
       </c>
@@ -5711,7 +6049,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A25" s="41" t="s">
         <v>1159</v>
       </c>
@@ -5725,7 +6063,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A26" s="41" t="s">
         <v>1160</v>
       </c>
@@ -5739,7 +6077,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A27" s="41" t="s">
         <v>1161</v>
       </c>
@@ -5753,7 +6091,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A28" s="41" t="s">
         <v>1162</v>
       </c>
@@ -5767,7 +6105,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A29" s="41" t="s">
         <v>1163</v>
       </c>
@@ -5781,7 +6119,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A30" s="41" t="s">
         <v>1172</v>
       </c>
@@ -5838,15 +6176,15 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48.85546875" customWidth="1"/>
+    <col min="1" max="1" width="48.88671875" customWidth="1"/>
     <col min="2" max="2" width="58" customWidth="1"/>
-    <col min="3" max="3" width="110.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="110.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
         <v>1</v>
       </c>
@@ -5860,7 +6198,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="41" t="s">
         <v>824</v>
       </c>
@@ -5870,7 +6208,7 @@
       <c r="C3" s="50"/>
       <c r="D3" s="42"/>
     </row>
-    <row r="4" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A4" s="41" t="s">
         <v>826</v>
       </c>
@@ -5884,7 +6222,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="126" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A5" s="41" t="s">
         <v>829</v>
       </c>
@@ -5898,7 +6236,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="189" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A6" s="41" t="s">
         <v>831</v>
       </c>
@@ -5912,7 +6250,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="156" x14ac:dyDescent="0.3">
       <c r="A7" s="41" t="s">
         <v>836</v>
       </c>
@@ -5926,7 +6264,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="236.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="234" x14ac:dyDescent="0.3">
       <c r="A8" s="41" t="s">
         <v>839</v>
       </c>
@@ -5940,7 +6278,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A9" s="41" t="s">
         <v>837</v>
       </c>
@@ -5954,7 +6292,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A10" s="41" t="s">
         <v>840</v>
       </c>
@@ -5968,7 +6306,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A11" s="41" t="s">
         <v>847</v>
       </c>
@@ -5982,7 +6320,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="173.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="171.6" x14ac:dyDescent="0.3">
       <c r="A12" s="41" t="s">
         <v>850</v>
       </c>
@@ -5996,7 +6334,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A13" s="41" t="s">
         <v>853</v>
       </c>
@@ -6006,7 +6344,7 @@
       <c r="C13" s="50"/>
       <c r="D13" s="52"/>
     </row>
-    <row r="14" spans="1:4" ht="204.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="202.8" x14ac:dyDescent="0.3">
       <c r="A14" s="41" t="s">
         <v>855</v>
       </c>
@@ -6020,7 +6358,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="299.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="296.39999999999998" x14ac:dyDescent="0.3">
       <c r="A15" s="41" t="s">
         <v>858</v>
       </c>
@@ -6034,7 +6372,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="41" t="s">
         <v>861</v>
       </c>
@@ -6044,7 +6382,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="236.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="234" x14ac:dyDescent="0.3">
       <c r="A17" s="41" t="s">
         <v>863</v>
       </c>
@@ -6058,7 +6396,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="299.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="296.39999999999998" x14ac:dyDescent="0.3">
       <c r="A18" s="41" t="s">
         <v>865</v>
       </c>
@@ -6072,7 +6410,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A19" s="41" t="s">
         <v>868</v>
       </c>
@@ -6086,7 +6424,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A20" s="41" t="s">
         <v>871</v>
       </c>
@@ -6098,7 +6436,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A21" s="41" t="s">
         <v>873</v>
       </c>
@@ -6112,7 +6450,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="204.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="202.8" x14ac:dyDescent="0.3">
       <c r="A22" s="41" t="s">
         <v>877</v>
       </c>
@@ -6157,18 +6495,18 @@
   <dimension ref="A2:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38" customWidth="1"/>
-    <col min="3" max="3" width="125.42578125" customWidth="1"/>
-    <col min="4" max="4" width="48.7109375" customWidth="1"/>
+    <col min="3" max="3" width="125.44140625" customWidth="1"/>
+    <col min="4" max="4" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>879</v>
       </c>
@@ -6182,7 +6520,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>883</v>
       </c>
@@ -6196,7 +6534,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>887</v>
       </c>
@@ -6207,7 +6545,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1183</v>
       </c>
@@ -6217,59 +6555,68 @@
       <c r="C5" s="12" t="s">
         <v>1184</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>463</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1210</v>
+      </c>
       <c r="C6" s="12"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C7" s="12"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C8" s="12"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C9" s="12"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C10" s="12"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C11" s="12"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C12" s="12"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C13" s="12"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C14" s="12"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C15" s="12"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C16" s="12"/>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C17" s="12"/>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C18" s="12"/>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C19" s="12"/>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C20" s="12"/>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C21" s="12"/>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C22" s="12"/>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C23" s="12"/>
     </row>
   </sheetData>
@@ -6281,37 +6628,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B55396B-BB8C-4180-AD0D-7E5850126AB0}">
   <dimension ref="A2:L115"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="12" customWidth="1"/>
+    <col min="1" max="1" width="45.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="12" customWidth="1"/>
     <col min="3" max="3" width="11" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" style="12" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.5703125" style="12" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.5546875" style="12" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="17" style="12" customWidth="1"/>
-    <col min="8" max="8" width="27.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" style="12" customWidth="1"/>
-    <col min="13" max="16384" width="11.42578125" style="12"/>
+    <col min="8" max="8" width="27.88671875" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" style="12" customWidth="1"/>
+    <col min="13" max="16384" width="11.44140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="70" t="s">
         <v>570</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-    </row>
-    <row r="3" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+    </row>
+    <row r="3" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
         <v>547</v>
       </c>
@@ -6328,7 +6675,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="18" t="s">
         <v>599</v>
       </c>
@@ -6351,7 +6698,7 @@
       </c>
       <c r="G4" s="17"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="18" t="s">
         <v>600</v>
       </c>
@@ -6373,15 +6720,15 @@
         <v>0</v>
       </c>
       <c r="G5" s="17"/>
-      <c r="H5" s="63" t="s">
+      <c r="H5" s="64" t="s">
         <v>572</v>
       </c>
-      <c r="I5" s="64"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="64"/>
-      <c r="L5" s="65"/>
-    </row>
-    <row r="6" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="66"/>
+    </row>
+    <row r="6" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="18" t="s">
         <v>601</v>
       </c>
@@ -6419,7 +6766,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
         <v>602</v>
       </c>
@@ -6461,7 +6808,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>578</v>
       </c>
@@ -6488,7 +6835,7 @@
       </c>
       <c r="I8" s="37">
         <f>COUNTIF(E4:E44, 2)</f>
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J8" s="37">
         <f>COUNTIF(E47:E73, 2)</f>
@@ -6503,7 +6850,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
         <v>551</v>
       </c>
@@ -6545,7 +6892,7 @@
         <v>15.138888888888886</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
         <v>552</v>
       </c>
@@ -6572,7 +6919,7 @@
       </c>
       <c r="I10" s="37">
         <f>SUM(F4:F44)/6</f>
-        <v>8.15</v>
+        <v>7.0249999999999995</v>
       </c>
       <c r="J10" s="37">
         <f>SUM(F47:F73)/6</f>
@@ -6587,7 +6934,7 @@
         <v>13.591666666666663</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="18" t="s">
         <v>890</v>
       </c>
@@ -6614,16 +6961,16 @@
       </c>
       <c r="I11" s="38">
         <f ca="1">TODAY() +I10</f>
-        <v>43842.15</v>
+        <v>43843.025000000001</v>
       </c>
       <c r="J11" s="38">
         <f ca="1">I11+J10</f>
-        <v>43853.994444444448</v>
+        <v>43854.869444444448</v>
       </c>
       <c r="K11" s="38"/>
       <c r="L11" s="38"/>
     </row>
-    <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="18" t="s">
         <v>553</v>
       </c>
@@ -6650,7 +6997,7 @@
       </c>
       <c r="I12" s="39">
         <f>I8/I7</f>
-        <v>0.6097560975609756</v>
+        <v>0.68292682926829273</v>
       </c>
       <c r="J12" s="39">
         <f>J8/J7</f>
@@ -6665,7 +7012,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="18" t="s">
         <v>554</v>
       </c>
@@ -6690,15 +7037,15 @@
       <c r="H13" s="30" t="s">
         <v>645</v>
       </c>
-      <c r="I13" s="66">
+      <c r="I13" s="67">
         <f>AVERAGE(I12:L12)</f>
-        <v>0.25594431539553486</v>
-      </c>
-      <c r="J13" s="67"/>
-      <c r="K13" s="67"/>
-      <c r="L13" s="68"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.27423699832236414</v>
+      </c>
+      <c r="J13" s="68"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="69"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="18" t="s">
         <v>555</v>
       </c>
@@ -6723,7 +7070,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
         <v>556</v>
       </c>
@@ -6748,7 +7095,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="18" t="s">
         <v>557</v>
       </c>
@@ -6771,7 +7118,7 @@
       </c>
       <c r="G16" s="17"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="18" t="s">
         <v>891</v>
       </c>
@@ -6794,7 +7141,7 @@
       </c>
       <c r="G17" s="17"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="18" t="s">
         <v>768</v>
       </c>
@@ -6814,7 +7161,7 @@
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="18" t="s">
         <v>1036</v>
       </c>
@@ -6839,7 +7186,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="18" t="s">
         <v>904</v>
       </c>
@@ -6864,7 +7211,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="18" t="s">
         <v>895</v>
       </c>
@@ -6889,7 +7236,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="18" t="s">
         <v>906</v>
       </c>
@@ -6914,7 +7261,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="18" t="s">
         <v>907</v>
       </c>
@@ -6939,7 +7286,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="18" t="s">
         <v>586</v>
       </c>
@@ -6964,7 +7311,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="18" t="s">
         <v>892</v>
       </c>
@@ -6989,7 +7336,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="18" t="s">
         <v>896</v>
       </c>
@@ -7014,7 +7361,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="18" t="s">
         <v>908</v>
       </c>
@@ -7029,17 +7376,17 @@
         <v>1.5166666666666666</v>
       </c>
       <c r="E27" s="19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F27" s="17">
         <f t="shared" si="1"/>
-        <v>1.5166666666666666</v>
+        <v>0</v>
       </c>
       <c r="G27" s="17" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="18" t="s">
         <v>897</v>
       </c>
@@ -7064,7 +7411,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="18" t="s">
         <v>898</v>
       </c>
@@ -7079,17 +7426,17 @@
         <v>3.85</v>
       </c>
       <c r="E29" s="19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F29" s="17">
         <f t="shared" si="1"/>
-        <v>3.85</v>
+        <v>0</v>
       </c>
       <c r="G29" s="17" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="18" t="s">
         <v>909</v>
       </c>
@@ -7104,17 +7451,17 @@
         <v>1.3833333333333333</v>
       </c>
       <c r="E30" s="19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F30" s="17">
         <f t="shared" si="1"/>
-        <v>1.3833333333333333</v>
+        <v>0</v>
       </c>
       <c r="G30" s="17" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="18" t="s">
         <v>558</v>
       </c>
@@ -7139,7 +7486,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="18" t="s">
         <v>559</v>
       </c>
@@ -7162,7 +7509,7 @@
       </c>
       <c r="G32" s="17"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="18" t="s">
         <v>560</v>
       </c>
@@ -7185,7 +7532,7 @@
       </c>
       <c r="G33" s="17"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="18" t="s">
         <v>561</v>
       </c>
@@ -7208,7 +7555,7 @@
       </c>
       <c r="G34" s="17"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="18" t="s">
         <v>562</v>
       </c>
@@ -7231,7 +7578,7 @@
       </c>
       <c r="G35" s="17"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="18" t="s">
         <v>563</v>
       </c>
@@ -7256,7 +7603,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="18" t="s">
         <v>564</v>
       </c>
@@ -7281,7 +7628,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="18" t="s">
         <v>901</v>
       </c>
@@ -7306,7 +7653,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="18" t="s">
         <v>565</v>
       </c>
@@ -7331,7 +7678,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="18" t="s">
         <v>566</v>
       </c>
@@ -7356,7 +7703,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="18" t="s">
         <v>902</v>
       </c>
@@ -7381,7 +7728,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="18" t="s">
         <v>567</v>
       </c>
@@ -7404,7 +7751,7 @@
       </c>
       <c r="G42" s="17"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="18" t="s">
         <v>568</v>
       </c>
@@ -7427,7 +7774,7 @@
       </c>
       <c r="G43" s="17"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="18" t="s">
         <v>569</v>
       </c>
@@ -7452,20 +7799,20 @@
         <v>903</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F45" s="17"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="62" t="s">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="63" t="s">
         <v>576</v>
       </c>
-      <c r="B46" s="62"/>
-      <c r="C46" s="62"/>
-      <c r="D46" s="62"/>
-      <c r="E46" s="62"/>
+      <c r="B46" s="63"/>
+      <c r="C46" s="63"/>
+      <c r="D46" s="63"/>
+      <c r="E46" s="63"/>
       <c r="F46" s="17"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="18" t="s">
         <v>577</v>
       </c>
@@ -7487,7 +7834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="18" t="s">
         <v>578</v>
       </c>
@@ -7509,7 +7856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="18" t="s">
         <v>555</v>
       </c>
@@ -7531,7 +7878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="18" t="s">
         <v>579</v>
       </c>
@@ -7553,7 +7900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="18" t="s">
         <v>580</v>
       </c>
@@ -7575,7 +7922,7 @@
         <v>2.8166666666666669</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="18" t="s">
         <v>556</v>
       </c>
@@ -7597,7 +7944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="18" t="s">
         <v>581</v>
       </c>
@@ -7619,7 +7966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="18" t="s">
         <v>563</v>
       </c>
@@ -7641,7 +7988,7 @@
         <v>4.4833333333333334</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="18" t="s">
         <v>564</v>
       </c>
@@ -7663,7 +8010,7 @@
         <v>3.9166666666666665</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="18" t="s">
         <v>582</v>
       </c>
@@ -7685,7 +8032,7 @@
         <v>2.7333333333333334</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="18" t="s">
         <v>566</v>
       </c>
@@ -7707,7 +8054,7 @@
         <v>3.8666666666666667</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="18" t="s">
         <v>583</v>
       </c>
@@ -7729,7 +8076,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="18" t="s">
         <v>584</v>
       </c>
@@ -7751,7 +8098,7 @@
         <v>3.8666666666666667</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="18" t="s">
         <v>585</v>
       </c>
@@ -7773,7 +8120,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="18" t="s">
         <v>586</v>
       </c>
@@ -7795,7 +8142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="18" t="s">
         <v>587</v>
       </c>
@@ -7817,7 +8164,7 @@
         <v>4.0333333333333332</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="18" t="s">
         <v>588</v>
       </c>
@@ -7839,7 +8186,7 @@
         <v>3.2666666666666666</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="18" t="s">
         <v>598</v>
       </c>
@@ -7861,7 +8208,7 @@
         <v>2.2333333333333334</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="18" t="s">
         <v>589</v>
       </c>
@@ -7883,7 +8230,7 @@
         <v>6.1166666666666663</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="18" t="s">
         <v>590</v>
       </c>
@@ -7905,7 +8252,7 @@
         <v>2.3666666666666667</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="18" t="s">
         <v>591</v>
       </c>
@@ -7927,7 +8274,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="18" t="s">
         <v>592</v>
       </c>
@@ -7949,7 +8296,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="18" t="s">
         <v>593</v>
       </c>
@@ -7971,7 +8318,7 @@
         <v>3.6833333333333331</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="18" t="s">
         <v>594</v>
       </c>
@@ -7993,7 +8340,7 @@
         <v>4.8666666666666663</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="18" t="s">
         <v>595</v>
       </c>
@@ -8015,7 +8362,7 @@
         <v>3.3333333333333335</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="18" t="s">
         <v>596</v>
       </c>
@@ -8037,7 +8384,7 @@
         <v>3.6666666666666665</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="18" t="s">
         <v>597</v>
       </c>
@@ -8059,22 +8406,22 @@
         <v>2.6166666666666667</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D74" s="24"/>
       <c r="E74" s="25"/>
       <c r="F74" s="26"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="62" t="s">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="63" t="s">
         <v>607</v>
       </c>
-      <c r="B75" s="62"/>
-      <c r="C75" s="62"/>
-      <c r="D75" s="62"/>
-      <c r="E75" s="62"/>
+      <c r="B75" s="63"/>
+      <c r="C75" s="63"/>
+      <c r="D75" s="63"/>
+      <c r="E75" s="63"/>
       <c r="F75" s="29"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="18" t="s">
         <v>608</v>
       </c>
@@ -8096,7 +8443,7 @@
         <v>2.9166666666666665</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="18" t="s">
         <v>609</v>
       </c>
@@ -8118,7 +8465,7 @@
         <v>4.7833333333333332</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="18" t="s">
         <v>610</v>
       </c>
@@ -8140,7 +8487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="18" t="s">
         <v>611</v>
       </c>
@@ -8162,7 +8509,7 @@
         <v>3.1833333333333331</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="18" t="s">
         <v>612</v>
       </c>
@@ -8184,7 +8531,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="18" t="s">
         <v>613</v>
       </c>
@@ -8206,7 +8553,7 @@
         <v>6.333333333333333</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="18" t="s">
         <v>614</v>
       </c>
@@ -8228,7 +8575,7 @@
         <v>4.333333333333333</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="18" t="s">
         <v>615</v>
       </c>
@@ -8250,7 +8597,7 @@
         <v>2.9333333333333331</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="18" t="s">
         <v>616</v>
       </c>
@@ -8272,7 +8619,7 @@
         <v>3.5666666666666669</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="18" t="s">
         <v>617</v>
       </c>
@@ -8294,7 +8641,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="18" t="s">
         <v>618</v>
       </c>
@@ -8316,7 +8663,7 @@
         <v>4.0333333333333332</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="18" t="s">
         <v>619</v>
       </c>
@@ -8338,7 +8685,7 @@
         <v>2.7166666666666668</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="18" t="s">
         <v>620</v>
       </c>
@@ -8360,7 +8707,7 @@
         <v>3.2666666666666666</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="18" t="s">
         <v>621</v>
       </c>
@@ -8382,22 +8729,22 @@
         <v>4.416666666666667</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D90" s="24"/>
       <c r="E90" s="25"/>
       <c r="F90" s="26"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="62" t="s">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" s="63" t="s">
         <v>623</v>
       </c>
-      <c r="B91" s="62"/>
-      <c r="C91" s="62"/>
-      <c r="D91" s="62"/>
-      <c r="E91" s="62"/>
-      <c r="F91" s="62"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B91" s="63"/>
+      <c r="C91" s="63"/>
+      <c r="D91" s="63"/>
+      <c r="E91" s="63"/>
+      <c r="F91" s="63"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="27" t="s">
         <v>599</v>
       </c>
@@ -8419,7 +8766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="18" t="s">
         <v>624</v>
       </c>
@@ -8441,7 +8788,7 @@
         <v>4.6500000000000004</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="18" t="s">
         <v>600</v>
       </c>
@@ -8463,7 +8810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="18" t="s">
         <v>625</v>
       </c>
@@ -8485,7 +8832,7 @@
         <v>5.2166666666666668</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="18" t="s">
         <v>626</v>
       </c>
@@ -8507,7 +8854,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="18" t="s">
         <v>627</v>
       </c>
@@ -8529,7 +8876,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="18" t="s">
         <v>628</v>
       </c>
@@ -8551,7 +8898,7 @@
         <v>2.5666666666666669</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="18" t="s">
         <v>629</v>
       </c>
@@ -8573,7 +8920,7 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="18" t="s">
         <v>630</v>
       </c>
@@ -8595,7 +8942,7 @@
         <v>2.7333333333333334</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="18" t="s">
         <v>631</v>
       </c>
@@ -8617,7 +8964,7 @@
         <v>5.3833333333333337</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="18" t="s">
         <v>632</v>
       </c>
@@ -8639,7 +8986,7 @@
         <v>3.3833333333333333</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="18" t="s">
         <v>633</v>
       </c>
@@ -8661,7 +9008,7 @@
         <v>4.2833333333333332</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="18" t="s">
         <v>634</v>
       </c>
@@ -8683,7 +9030,7 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="18" t="s">
         <v>635</v>
       </c>
@@ -8705,7 +9052,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="18" t="s">
         <v>636</v>
       </c>
@@ -8727,7 +9074,7 @@
         <v>2.4333333333333331</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="18" t="s">
         <v>637</v>
       </c>
@@ -8749,7 +9096,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="18" t="s">
         <v>638</v>
       </c>
@@ -8771,7 +9118,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="18" t="s">
         <v>594</v>
       </c>
@@ -8793,7 +9140,7 @@
         <v>4.8666666666666663</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="18" t="s">
         <v>639</v>
       </c>
@@ -8815,7 +9162,7 @@
         <v>4.7833333333333332</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="18" t="s">
         <v>640</v>
       </c>
@@ -8837,7 +9184,7 @@
         <v>6.05</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="18" t="s">
         <v>641</v>
       </c>
@@ -8859,7 +9206,7 @@
         <v>2.8166666666666669</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="18" t="s">
         <v>595</v>
       </c>
@@ -8881,7 +9228,7 @@
         <v>3.3333333333333335</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="18" t="s">
         <v>642</v>
       </c>
@@ -8903,7 +9250,7 @@
         <v>4.3666666666666663</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="18" t="s">
         <v>643</v>
       </c>
@@ -9001,21 +9348,21 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="61.5703125" customWidth="1"/>
-    <col min="2" max="2" width="64.85546875" customWidth="1"/>
-    <col min="3" max="3" width="110.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="61.5546875" customWidth="1"/>
+    <col min="2" max="2" width="64.88671875" customWidth="1"/>
+    <col min="3" max="3" width="110.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A1" s="71" t="s">
         <v>485</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-    </row>
-    <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+    </row>
+    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -9026,7 +9373,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>486</v>
       </c>
@@ -9037,7 +9384,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>17</v>
       </c>
@@ -9046,7 +9393,7 @@
       </c>
       <c r="C4" s="15"/>
     </row>
-    <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>490</v>
       </c>
@@ -9057,7 +9404,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>493</v>
       </c>
@@ -9066,7 +9413,7 @@
       </c>
       <c r="C6" s="15"/>
     </row>
-    <row r="7" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>495</v>
       </c>
@@ -9077,7 +9424,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>498</v>
       </c>
@@ -9086,7 +9433,7 @@
       </c>
       <c r="C8" s="15"/>
     </row>
-    <row r="9" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
         <v>500</v>
       </c>
@@ -9095,7 +9442,7 @@
       </c>
       <c r="C9" s="15"/>
     </row>
-    <row r="10" spans="1:3" ht="131.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="108" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
         <v>502</v>
       </c>
@@ -9106,7 +9453,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
         <v>505</v>
       </c>
@@ -9117,7 +9464,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
         <v>508</v>
       </c>
@@ -9126,7 +9473,7 @@
       </c>
       <c r="C12" s="15"/>
     </row>
-    <row r="13" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
         <v>510</v>
       </c>
@@ -9135,7 +9482,7 @@
       </c>
       <c r="C13" s="15"/>
     </row>
-    <row r="14" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>512</v>
       </c>
@@ -9144,7 +9491,7 @@
       </c>
       <c r="C14" s="15"/>
     </row>
-    <row r="15" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
         <v>514</v>
       </c>
@@ -9153,7 +9500,7 @@
       </c>
       <c r="C15" s="15"/>
     </row>
-    <row r="16" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="36" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
         <v>516</v>
       </c>
@@ -9164,7 +9511,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="168.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="162" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
         <v>519</v>
       </c>
@@ -9175,7 +9522,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
         <v>521</v>
       </c>
@@ -9184,7 +9531,7 @@
       </c>
       <c r="C18" s="15"/>
     </row>
-    <row r="19" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
         <v>524</v>
       </c>
@@ -9193,7 +9540,7 @@
       </c>
       <c r="C19" s="15"/>
     </row>
-    <row r="20" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="36" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">
         <v>526</v>
       </c>
@@ -9204,7 +9551,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="112.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="108" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
         <v>529</v>
       </c>
@@ -9215,7 +9562,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
         <v>530</v>
       </c>
@@ -9226,7 +9573,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="168.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="162" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
         <v>535</v>
       </c>
@@ -9253,24 +9600,24 @@
       <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="31" style="7" customWidth="1"/>
-    <col min="2" max="2" width="73.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="110.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="110.5546875" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="5" customWidth="1"/>
-    <col min="5" max="16384" width="9.28515625" style="3"/>
+    <col min="5" max="16384" width="9.33203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
         <v>1</v>
       </c>
@@ -9284,7 +9631,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A3" s="43" t="s">
         <v>18</v>
       </c>
@@ -9298,7 +9645,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="43" t="s">
         <v>18</v>
       </c>
@@ -9312,7 +9659,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A5" s="43" t="s">
         <v>22</v>
       </c>
@@ -9326,7 +9673,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A6" s="43" t="s">
         <v>24</v>
       </c>
@@ -9340,7 +9687,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="43" t="s">
         <v>26</v>
       </c>
@@ -9354,7 +9701,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="43" t="s">
         <v>28</v>
       </c>
@@ -9368,7 +9715,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A9" s="43" t="s">
         <v>31</v>
       </c>
@@ -9382,7 +9729,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A10" s="43" t="s">
         <v>34</v>
       </c>
@@ -9396,7 +9743,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A11" s="43" t="s">
         <v>37</v>
       </c>
@@ -9410,7 +9757,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A12" s="43" t="s">
         <v>52</v>
       </c>
@@ -9424,7 +9771,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A13" s="43" t="s">
         <v>113</v>
       </c>
@@ -9438,7 +9785,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A14" s="43" t="s">
         <v>43</v>
       </c>
@@ -9452,7 +9799,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="43" t="s">
         <v>46</v>
       </c>
@@ -9466,7 +9813,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A16" s="43" t="s">
         <v>49</v>
       </c>
@@ -9480,7 +9827,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A17" s="43" t="s">
         <v>466</v>
       </c>
@@ -9494,7 +9841,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A18" s="43" t="s">
         <v>467</v>
       </c>
@@ -9508,7 +9855,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A19" s="43" t="s">
         <v>468</v>
       </c>
@@ -9522,7 +9869,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A20" s="43" t="s">
         <v>55</v>
       </c>
@@ -9536,7 +9883,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A21" s="43" t="s">
         <v>58</v>
       </c>
@@ -9550,7 +9897,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A22" s="43" t="s">
         <v>61</v>
       </c>
@@ -9564,7 +9911,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A23" s="43" t="s">
         <v>64</v>
       </c>
@@ -9578,7 +9925,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A24" s="43" t="s">
         <v>65</v>
       </c>
@@ -9592,7 +9939,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A25" s="43" t="s">
         <v>66</v>
       </c>
@@ -9606,7 +9953,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A26" s="43" t="s">
         <v>73</v>
       </c>
@@ -9620,7 +9967,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A27" s="43" t="s">
         <v>76</v>
       </c>
@@ -9634,7 +9981,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A28" s="43" t="s">
         <v>475</v>
       </c>
@@ -9648,7 +9995,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A29" s="43" t="s">
         <v>79</v>
       </c>
@@ -9662,7 +10009,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A30" s="43" t="s">
         <v>82</v>
       </c>
@@ -9676,7 +10023,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A31" s="43" t="s">
         <v>85</v>
       </c>
@@ -9690,7 +10037,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A32" s="43" t="s">
         <v>87</v>
       </c>
@@ -9704,7 +10051,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A33" s="43" t="s">
         <v>14</v>
       </c>
@@ -9718,7 +10065,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A34" s="43" t="s">
         <v>479</v>
       </c>
@@ -9732,7 +10079,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A35" s="43" t="s">
         <v>482</v>
       </c>
@@ -9746,7 +10093,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A36" s="43" t="s">
         <v>91</v>
       </c>
@@ -9760,7 +10107,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A37" s="43" t="s">
         <v>92</v>
       </c>
@@ -9774,7 +10121,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A38" s="43" t="s">
         <v>95</v>
       </c>
@@ -9788,7 +10135,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A39" s="43" t="s">
         <v>97</v>
       </c>
@@ -9802,7 +10149,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A40" s="43" t="s">
         <v>102</v>
       </c>
@@ -9816,7 +10163,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="43" t="s">
         <v>105</v>
       </c>
@@ -9830,7 +10177,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="43"/>
       <c r="B42" s="44"/>
       <c r="C42" s="45"/>
@@ -9838,7 +10185,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A43" s="43" t="s">
         <v>107</v>
       </c>
@@ -9852,7 +10199,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A44" s="43" t="s">
         <v>539</v>
       </c>
@@ -9866,7 +10213,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="43" t="s">
         <v>110</v>
       </c>
@@ -9880,7 +10227,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A46" s="43" t="s">
         <v>112</v>
       </c>
@@ -9894,7 +10241,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="43" t="s">
         <v>116</v>
       </c>
@@ -9908,7 +10255,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="43" t="s">
         <v>3</v>
       </c>
@@ -9922,7 +10269,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A49" s="43" t="s">
         <v>271</v>
       </c>
@@ -9936,7 +10283,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A50" s="43" t="s">
         <v>340</v>
       </c>
@@ -9950,7 +10297,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A51" s="43" t="s">
         <v>343</v>
       </c>
@@ -9964,7 +10311,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A52" s="43" t="s">
         <v>346</v>
       </c>
@@ -9978,7 +10325,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A53" s="43" t="s">
         <v>350</v>
       </c>
@@ -9992,7 +10339,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A54" s="43" t="s">
         <v>353</v>
       </c>
@@ -10006,7 +10353,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A55" s="43" t="s">
         <v>356</v>
       </c>
@@ -10020,7 +10367,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A56" s="43" t="s">
         <v>357</v>
       </c>
@@ -10034,7 +10381,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A57" s="43" t="s">
         <v>364</v>
       </c>
@@ -10048,7 +10395,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A58" s="43" t="s">
         <v>365</v>
       </c>
@@ -10062,7 +10409,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A59" s="43" t="s">
         <v>366</v>
       </c>
@@ -10076,7 +10423,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A60" s="43" t="s">
         <v>370</v>
       </c>
@@ -10090,7 +10437,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A61" s="43" t="s">
         <v>371</v>
       </c>
@@ -10104,7 +10451,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A62" s="43" t="s">
         <v>374</v>
       </c>
@@ -10116,7 +10463,7 @@
       </c>
       <c r="D62" s="46"/>
     </row>
-    <row r="63" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A63" s="43" t="s">
         <v>647</v>
       </c>
@@ -10130,7 +10477,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A64" s="43" t="s">
         <v>648</v>
       </c>
@@ -10144,7 +10491,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A65" s="43" t="s">
         <v>649</v>
       </c>
@@ -10158,7 +10505,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="43" t="s">
         <v>656</v>
       </c>
@@ -10172,7 +10519,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A67" s="43" t="s">
         <v>659</v>
       </c>
@@ -10186,7 +10533,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="43" t="s">
         <v>662</v>
       </c>
@@ -10198,7 +10545,7 @@
       </c>
       <c r="D68" s="46"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="43" t="s">
         <v>663</v>
       </c>
@@ -10210,7 +10557,7 @@
       </c>
       <c r="D69" s="46"/>
     </row>
-    <row r="70" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A70" s="43" t="s">
         <v>668</v>
       </c>
@@ -10224,7 +10571,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A71" s="43" t="s">
         <v>669</v>
       </c>
@@ -10238,7 +10585,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A72" s="43" t="s">
         <v>670</v>
       </c>
@@ -10252,7 +10599,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="43" t="s">
         <v>671</v>
       </c>
@@ -10266,7 +10613,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A74" s="43" t="s">
         <v>1144</v>
       </c>
@@ -10280,7 +10627,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A75" s="7" t="s">
         <v>1196</v>
       </c>
@@ -10294,7 +10641,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A76" s="7" t="s">
         <v>1199</v>
       </c>
@@ -10308,28 +10655,28 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="94.5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" ht="93.6" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
         <v>1201</v>
       </c>
       <c r="B77" s="7" t="s">
         <v>1204</v>
       </c>
-      <c r="C77" s="72" t="s">
+      <c r="C77" s="60" t="s">
         <v>1205</v>
       </c>
       <c r="D77" s="59" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="126" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" ht="124.8" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
         <v>1202</v>
       </c>
       <c r="B78" s="7" t="s">
         <v>1203</v>
       </c>
-      <c r="C78" s="72" t="s">
+      <c r="C78" s="60" t="s">
         <v>1205</v>
       </c>
       <c r="D78" s="59" t="s">
@@ -10417,30 +10764,30 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D86"/>
+  <dimension ref="A1:D107"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B89" sqref="B89"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.28515625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="32.33203125" style="5" customWidth="1"/>
     <col min="2" max="2" width="75" style="9" customWidth="1"/>
-    <col min="3" max="3" width="110.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="110.5546875" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="5" customWidth="1"/>
-    <col min="5" max="16384" width="9.28515625" style="3"/>
+    <col min="5" max="16384" width="9.33203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
         <v>1</v>
       </c>
@@ -10454,7 +10801,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="43" t="s">
         <v>5</v>
       </c>
@@ -10468,7 +10815,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="43" t="s">
         <v>7</v>
       </c>
@@ -10482,7 +10829,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="43" t="s">
         <v>8</v>
       </c>
@@ -10496,7 +10843,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A6" s="43" t="s">
         <v>121</v>
       </c>
@@ -10510,7 +10857,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A7" s="43" t="s">
         <v>124</v>
       </c>
@@ -10524,7 +10871,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="43" t="s">
         <v>128</v>
       </c>
@@ -10538,7 +10885,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="43" t="s">
         <v>130</v>
       </c>
@@ -10552,7 +10899,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A10" s="43" t="s">
         <v>133</v>
       </c>
@@ -10566,7 +10913,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="43" t="s">
         <v>214</v>
       </c>
@@ -10580,7 +10927,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A12" s="43" t="s">
         <v>136</v>
       </c>
@@ -10594,7 +10941,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A13" s="43" t="s">
         <v>139</v>
       </c>
@@ -10608,7 +10955,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="43" t="s">
         <v>142</v>
       </c>
@@ -10622,7 +10969,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A15" s="43" t="s">
         <v>144</v>
       </c>
@@ -10636,7 +10983,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A16" s="43" t="s">
         <v>148</v>
       </c>
@@ -10650,7 +10997,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="43" t="s">
         <v>151</v>
       </c>
@@ -10664,7 +11011,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A18" s="43" t="s">
         <v>154</v>
       </c>
@@ -10678,7 +11025,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A19" s="43" t="s">
         <v>157</v>
       </c>
@@ -10692,7 +11039,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A20" s="43" t="s">
         <v>160</v>
       </c>
@@ -10706,7 +11053,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="43" t="s">
         <v>164</v>
       </c>
@@ -10720,7 +11067,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="43" t="s">
         <v>166</v>
       </c>
@@ -10734,7 +11081,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A23" s="43" t="s">
         <v>169</v>
       </c>
@@ -10748,7 +11095,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A24" s="43" t="s">
         <v>171</v>
       </c>
@@ -10762,7 +11109,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A25" s="43" t="s">
         <v>175</v>
       </c>
@@ -10776,7 +11123,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A26" s="43" t="s">
         <v>178</v>
       </c>
@@ -10790,7 +11137,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A27" s="43" t="s">
         <v>180</v>
       </c>
@@ -10804,7 +11151,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A28" s="43" t="s">
         <v>182</v>
       </c>
@@ -10818,7 +11165,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A29" s="43" t="s">
         <v>186</v>
       </c>
@@ -10832,7 +11179,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A30" s="43" t="s">
         <v>188</v>
       </c>
@@ -10846,7 +11193,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A31" s="43" t="s">
         <v>193</v>
       </c>
@@ -10860,7 +11207,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A32" s="43" t="s">
         <v>194</v>
       </c>
@@ -10874,7 +11221,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A33" s="43" t="s">
         <v>197</v>
       </c>
@@ -10888,7 +11235,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A34" s="43" t="s">
         <v>199</v>
       </c>
@@ -10902,7 +11249,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A35" s="43" t="s">
         <v>202</v>
       </c>
@@ -10916,7 +11263,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A36" s="43" t="s">
         <v>205</v>
       </c>
@@ -10930,7 +11277,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A37" s="43" t="s">
         <v>206</v>
       </c>
@@ -10944,7 +11291,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A38" s="43" t="s">
         <v>211</v>
       </c>
@@ -10958,7 +11305,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A39" s="43" t="s">
         <v>217</v>
       </c>
@@ -10972,7 +11319,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="43" t="s">
         <v>220</v>
       </c>
@@ -10986,7 +11333,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A41" s="43" t="s">
         <v>223</v>
       </c>
@@ -11000,7 +11347,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A42" s="43" t="s">
         <v>226</v>
       </c>
@@ -11014,7 +11361,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A43" s="43" t="s">
         <v>229</v>
       </c>
@@ -11028,7 +11375,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A44" s="43" t="s">
         <v>232</v>
       </c>
@@ -11042,7 +11389,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A45" s="43" t="s">
         <v>235</v>
       </c>
@@ -11056,7 +11403,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="43" t="s">
         <v>238</v>
       </c>
@@ -11070,7 +11417,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="43" t="s">
         <v>241</v>
       </c>
@@ -11084,7 +11431,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A48" s="43" t="s">
         <v>245</v>
       </c>
@@ -11098,7 +11445,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A49" s="43" t="s">
         <v>248</v>
       </c>
@@ -11112,7 +11459,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A50" s="43" t="s">
         <v>250</v>
       </c>
@@ -11126,7 +11473,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A51" s="43" t="s">
         <v>253</v>
       </c>
@@ -11140,7 +11487,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A52" s="43" t="s">
         <v>255</v>
       </c>
@@ -11154,7 +11501,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A53" s="43" t="s">
         <v>258</v>
       </c>
@@ -11168,7 +11515,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A54" s="43" t="s">
         <v>259</v>
       </c>
@@ -11182,7 +11529,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A55" s="43" t="s">
         <v>263</v>
       </c>
@@ -11196,7 +11543,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="43" t="s">
         <v>266</v>
       </c>
@@ -11210,7 +11557,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A57" s="43" t="s">
         <v>274</v>
       </c>
@@ -11224,7 +11571,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A58" s="43" t="s">
         <v>277</v>
       </c>
@@ -11238,7 +11585,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="43" t="s">
         <v>280</v>
       </c>
@@ -11252,7 +11599,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A60" s="43" t="s">
         <v>283</v>
       </c>
@@ -11266,7 +11613,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A61" s="43" t="s">
         <v>285</v>
       </c>
@@ -11280,7 +11627,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A62" s="43" t="s">
         <v>289</v>
       </c>
@@ -11294,7 +11641,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A63" s="43" t="s">
         <v>292</v>
       </c>
@@ -11308,7 +11655,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A64" s="43" t="s">
         <v>295</v>
       </c>
@@ -11322,7 +11669,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A65" s="43" t="s">
         <v>298</v>
       </c>
@@ -11336,7 +11683,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A66" s="43" t="s">
         <v>301</v>
       </c>
@@ -11350,7 +11697,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A67" s="43" t="s">
         <v>304</v>
       </c>
@@ -11364,7 +11711,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A68" s="43" t="s">
         <v>307</v>
       </c>
@@ -11378,7 +11725,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="43" t="s">
         <v>310</v>
       </c>
@@ -11392,7 +11739,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A70" s="43" t="s">
         <v>312</v>
       </c>
@@ -11406,7 +11753,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A71" s="43" t="s">
         <v>316</v>
       </c>
@@ -11420,7 +11767,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A72" s="43" t="s">
         <v>317</v>
       </c>
@@ -11434,7 +11781,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A73" s="43" t="s">
         <v>335</v>
       </c>
@@ -11448,7 +11795,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="43" t="s">
         <v>338</v>
       </c>
@@ -11460,7 +11807,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A75" s="43" t="s">
         <v>320</v>
       </c>
@@ -11474,7 +11821,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A76" s="43" t="s">
         <v>323</v>
       </c>
@@ -11488,7 +11835,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A77" s="43" t="s">
         <v>328</v>
       </c>
@@ -11502,7 +11849,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A78" s="43" t="s">
         <v>326</v>
       </c>
@@ -11516,7 +11863,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A79" s="43" t="s">
         <v>327</v>
       </c>
@@ -11530,7 +11877,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A80" s="43" t="s">
         <v>646</v>
       </c>
@@ -11540,7 +11887,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A81" s="43" t="s">
         <v>1147</v>
       </c>
@@ -11554,7 +11901,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A82" s="43" t="s">
         <v>1151</v>
       </c>
@@ -11568,7 +11915,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A83" s="43" t="s">
         <v>1152</v>
       </c>
@@ -11582,45 +11929,339 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="63" x14ac:dyDescent="0.25">
-      <c r="A84" s="5" t="s">
+    <row r="84" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A84" s="43" t="s">
         <v>1185</v>
       </c>
-      <c r="B84" s="9" t="s">
+      <c r="B84" s="48" t="s">
         <v>1187</v>
       </c>
-      <c r="C84" s="5" t="s">
+      <c r="C84" s="49" t="s">
         <v>1186</v>
       </c>
-      <c r="D84" s="59" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A85" s="5" t="s">
+      <c r="D84" s="46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A85" s="43" t="s">
         <v>1188</v>
       </c>
-      <c r="B85" s="9" t="s">
+      <c r="B85" s="48" t="s">
         <v>1192</v>
       </c>
-      <c r="C85" s="5" t="s">
+      <c r="C85" s="49" t="s">
         <v>1191</v>
       </c>
-      <c r="D85" s="59" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A86" s="5" t="s">
+      <c r="D85" s="46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A86" s="43" t="s">
         <v>1189</v>
       </c>
-      <c r="B86" s="9" t="s">
+      <c r="B86" s="48" t="s">
         <v>1193</v>
       </c>
-      <c r="C86" s="5" t="s">
+      <c r="C86" s="49" t="s">
         <v>1190</v>
       </c>
-      <c r="D86" s="59" t="s">
+      <c r="D86" s="46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A87" s="43" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B87" s="48" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C87" s="49" t="s">
+        <v>1223</v>
+      </c>
+      <c r="D87" s="53" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A88" s="43" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B88" s="48" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C88" s="49" t="s">
+        <v>1225</v>
+      </c>
+      <c r="D88" s="53" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A89" s="43" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B89" s="48" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C89" s="49" t="s">
+        <v>1224</v>
+      </c>
+      <c r="D89" s="53" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A90" s="43" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B90" s="48" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C90" s="49" t="s">
+        <v>1270</v>
+      </c>
+      <c r="D90" s="53" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A91" s="43" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B91" s="48" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C91" s="49" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D91" s="53" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="78" x14ac:dyDescent="0.3">
+      <c r="A92" s="43" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B92" s="48" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C92" s="49" t="s">
+        <v>1272</v>
+      </c>
+      <c r="D92" s="53" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A93" s="43" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B93" s="48" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C93" s="49" t="s">
+        <v>1230</v>
+      </c>
+      <c r="D93" s="46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A94" s="43" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B94" s="48" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C94" s="49" t="s">
+        <v>1232</v>
+      </c>
+      <c r="D94" s="46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="A95" s="43" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B95" s="48" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C95" s="49" t="s">
+        <v>1235</v>
+      </c>
+      <c r="D95" s="46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="140.4" x14ac:dyDescent="0.3">
+      <c r="A96" s="43" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B96" s="48" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C96" s="49" t="s">
+        <v>1236</v>
+      </c>
+      <c r="D96" s="46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A97" s="43" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B97" s="48" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C97" s="49" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D97" s="46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" s="43" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B98" s="48" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C98" s="49" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D98" s="46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A99" s="43" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B99" s="48" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C99" s="49" t="s">
+        <v>1244</v>
+      </c>
+      <c r="D99" s="46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A100" s="43" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B100" s="48" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C100" s="49" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D100" s="46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A101" s="43" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B101" s="48" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C101" s="49" t="s">
+        <v>1256</v>
+      </c>
+      <c r="D101" s="46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A102" s="43" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B102" s="48" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C102" s="49" t="s">
+        <v>1258</v>
+      </c>
+      <c r="D102" s="46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A103" s="43" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B103" s="48" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C103" s="49" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D103" s="46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A104" s="43" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B104" s="48" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C104" s="49" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D104" s="46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A105" s="43" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B105" s="48" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C105" s="49" t="s">
+        <v>1265</v>
+      </c>
+      <c r="D105" s="46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A106" s="43" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B106" s="48" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C106" s="49" t="s">
+        <v>1266</v>
+      </c>
+      <c r="D106" s="46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A107" s="43" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B107" s="48" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C107" s="49" t="s">
+        <v>1269</v>
+      </c>
+      <c r="D107" s="46" t="s">
         <v>6</v>
       </c>
     </row>
@@ -11713,9 +12354,30 @@
     <hyperlink ref="D84" r:id="rId82" xr:uid="{9C725A6B-48A8-4E1D-86E9-1583F609E9B2}"/>
     <hyperlink ref="D86" r:id="rId83" xr:uid="{CFE047BD-B4DF-4222-84CA-D0D0E5F5E7A5}"/>
     <hyperlink ref="D85" r:id="rId84" xr:uid="{5B88D7DB-9C86-4A39-A5AF-D3B75773C471}"/>
+    <hyperlink ref="D87" r:id="rId85" xr:uid="{CFBE829F-7CFA-41C7-A812-2236220D7815}"/>
+    <hyperlink ref="D88" r:id="rId86" xr:uid="{BCAB3EBB-8C43-4D87-9D32-1D7193FB00FF}"/>
+    <hyperlink ref="D89" r:id="rId87" xr:uid="{571AD190-E715-40CD-8F5B-182E22E25CFA}"/>
+    <hyperlink ref="D93" r:id="rId88" xr:uid="{6489FF70-67FF-4164-85A6-AFF32CAC0EB2}"/>
+    <hyperlink ref="D94" r:id="rId89" xr:uid="{73414421-A7DC-42FD-9EE1-19E10C278AAA}"/>
+    <hyperlink ref="D95" r:id="rId90" xr:uid="{EF2926FE-8784-429D-B875-8C9C7CE9481F}"/>
+    <hyperlink ref="D96" r:id="rId91" xr:uid="{3646E7D6-3D94-4C3A-9727-796765210A2F}"/>
+    <hyperlink ref="D98" r:id="rId92" xr:uid="{8ECC845E-098B-4D04-9935-CD4DC890DEC3}"/>
+    <hyperlink ref="D97" r:id="rId93" xr:uid="{864D89AE-1345-4E03-AA29-AB0CCC2D3FEE}"/>
+    <hyperlink ref="D99" r:id="rId94" xr:uid="{8E7901B8-79B6-45BE-8F5C-A11356DEBA01}"/>
+    <hyperlink ref="D100" r:id="rId95" xr:uid="{D207679A-11D4-490A-BD10-D77E16405F00}"/>
+    <hyperlink ref="D101" r:id="rId96" xr:uid="{689460AC-4C7C-442F-991A-ED4F81B81376}"/>
+    <hyperlink ref="D102" r:id="rId97" xr:uid="{837C8D5A-BC34-49F1-B62E-57B6E4F71003}"/>
+    <hyperlink ref="D103" r:id="rId98" xr:uid="{DEE1C5D8-8C1E-4A75-98C2-8B540A7C1236}"/>
+    <hyperlink ref="D104" r:id="rId99" xr:uid="{42910829-C68D-4B0C-9CCD-352C104E9246}"/>
+    <hyperlink ref="D105" r:id="rId100" xr:uid="{DA5326F8-FF50-48E6-9316-8EF94C0A7DDB}"/>
+    <hyperlink ref="D106" r:id="rId101" xr:uid="{5A5453D7-4BEF-4F81-BCEE-7490042E2D4D}"/>
+    <hyperlink ref="D107" r:id="rId102" xr:uid="{FB9DC225-67F8-4E69-9ECA-2BF50E6F987B}"/>
+    <hyperlink ref="D90" r:id="rId103" xr:uid="{8E083B5D-24C9-4314-945C-2E838338D339}"/>
+    <hyperlink ref="D91" r:id="rId104" xr:uid="{102B3897-6929-4A1A-802C-6E2130B969D7}"/>
+    <hyperlink ref="D92" r:id="rId105" xr:uid="{6046DB4D-F1FC-489C-8640-81DBFC6F0EDB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId85"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId106"/>
 </worksheet>
 </file>
 
@@ -11727,16 +12389,16 @@
       <selection activeCell="G23" sqref="G23:H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="43.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E3" t="s">
         <v>1049</v>
       </c>
@@ -11756,7 +12418,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="4" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E4" t="s">
         <v>1050</v>
       </c>
@@ -11771,7 +12433,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="5" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E5" t="s">
         <v>1051</v>
       </c>
@@ -11786,7 +12448,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="6" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E6" t="s">
         <v>1052</v>
       </c>
@@ -11801,7 +12463,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="7" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
         <v>1053</v>
       </c>
@@ -11816,7 +12478,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="8" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E8" t="s">
         <v>1054</v>
       </c>
@@ -11831,7 +12493,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="9" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E9" t="s">
         <v>1055</v>
       </c>
@@ -11846,7 +12508,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="10" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E10" t="s">
         <v>1056</v>
       </c>
@@ -11861,7 +12523,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="11" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E11" t="s">
         <v>1057</v>
       </c>
@@ -11876,7 +12538,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="12" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E12" t="s">
         <v>1058</v>
       </c>
@@ -11885,7 +12547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E13" t="s">
         <v>1059</v>
       </c>
@@ -11894,7 +12556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E14" t="s">
         <v>1066</v>
       </c>
@@ -11916,28 +12578,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77"/>
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="31" style="12" customWidth="1"/>
-    <col min="2" max="2" width="73.28515625" style="57" customWidth="1"/>
-    <col min="3" max="3" width="110.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.33203125" style="57" customWidth="1"/>
+    <col min="3" max="3" width="110.5546875" style="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="12" customWidth="1"/>
-    <col min="5" max="16384" width="9.28515625" style="12"/>
+    <col min="5" max="16384" width="9.33203125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="72" t="s">
         <v>463</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
         <v>1</v>
       </c>
@@ -11951,7 +12613,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A3" s="43" t="s">
         <v>377</v>
       </c>
@@ -11965,7 +12627,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A4" s="43" t="s">
         <v>926</v>
       </c>
@@ -11979,7 +12641,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="43" t="s">
         <v>927</v>
       </c>
@@ -11993,7 +12655,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="43" t="s">
         <v>380</v>
       </c>
@@ -12005,7 +12667,7 @@
       </c>
       <c r="D6" s="46"/>
     </row>
-    <row r="7" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A7" s="43" t="s">
         <v>383</v>
       </c>
@@ -12017,7 +12679,7 @@
       </c>
       <c r="D7" s="46"/>
     </row>
-    <row r="8" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A8" s="43" t="s">
         <v>386</v>
       </c>
@@ -12029,7 +12691,7 @@
       </c>
       <c r="D8" s="46"/>
     </row>
-    <row r="9" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A9" s="43" t="s">
         <v>387</v>
       </c>
@@ -12041,7 +12703,7 @@
       </c>
       <c r="D9" s="46"/>
     </row>
-    <row r="10" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A10" s="43" t="s">
         <v>392</v>
       </c>
@@ -12053,7 +12715,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A11" s="43" t="s">
         <v>393</v>
       </c>
@@ -12065,7 +12727,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="43" t="s">
         <v>396</v>
       </c>
@@ -12079,7 +12741,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A13" s="43" t="s">
         <v>399</v>
       </c>
@@ -12093,7 +12755,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A14" s="43" t="s">
         <v>402</v>
       </c>
@@ -12107,7 +12769,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A15" s="43" t="s">
         <v>405</v>
       </c>
@@ -12121,7 +12783,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A16" s="43" t="s">
         <v>408</v>
       </c>
@@ -12135,7 +12797,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A17" s="43" t="s">
         <v>411</v>
       </c>
@@ -12149,7 +12811,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A18" s="43" t="s">
         <v>414</v>
       </c>
@@ -12163,7 +12825,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A19" s="43" t="s">
         <v>417</v>
       </c>
@@ -12177,7 +12839,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A20" s="43" t="s">
         <v>419</v>
       </c>
@@ -12189,7 +12851,7 @@
       </c>
       <c r="D20" s="46"/>
     </row>
-    <row r="21" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A21" s="43" t="s">
         <v>423</v>
       </c>
@@ -12199,7 +12861,7 @@
       <c r="C21" s="49"/>
       <c r="D21" s="46"/>
     </row>
-    <row r="22" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A22" s="43" t="s">
         <v>426</v>
       </c>
@@ -12209,7 +12871,7 @@
       <c r="C22" s="49"/>
       <c r="D22" s="46"/>
     </row>
-    <row r="23" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A23" s="43" t="s">
         <v>427</v>
       </c>
@@ -12221,7 +12883,7 @@
       </c>
       <c r="D23" s="46"/>
     </row>
-    <row r="24" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A24" s="43" t="s">
         <v>435</v>
       </c>
@@ -12235,7 +12897,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A25" s="43" t="s">
         <v>436</v>
       </c>
@@ -12249,7 +12911,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A26" s="43" t="s">
         <v>437</v>
       </c>
@@ -12263,7 +12925,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A27" s="43" t="s">
         <v>440</v>
       </c>
@@ -12277,7 +12939,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A28" s="43" t="s">
         <v>443</v>
       </c>
@@ -12291,7 +12953,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A29" s="43" t="s">
         <v>445</v>
       </c>
@@ -12303,7 +12965,7 @@
       </c>
       <c r="D29" s="46"/>
     </row>
-    <row r="30" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A30" s="43" t="s">
         <v>448</v>
       </c>
@@ -12317,7 +12979,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A31" s="43" t="s">
         <v>450</v>
       </c>
@@ -12331,7 +12993,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A32" s="43" t="s">
         <v>454</v>
       </c>
@@ -12345,7 +13007,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A33" s="43" t="s">
         <v>455</v>
       </c>
@@ -12359,7 +13021,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A34" s="43" t="s">
         <v>1133</v>
       </c>
@@ -12373,7 +13035,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>910</v>
       </c>
@@ -12387,7 +13049,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>915</v>
       </c>
@@ -12401,7 +13063,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>913</v>
       </c>
@@ -12415,7 +13077,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>919</v>
       </c>
@@ -12427,7 +13089,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="156" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>921</v>
       </c>
@@ -12437,7 +13099,7 @@
       <c r="C39" s="10"/>
       <c r="D39" s="8"/>
     </row>
-    <row r="40" spans="1:4" ht="204.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="202.8" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>923</v>
       </c>
@@ -12451,7 +13113,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>1077</v>
       </c>
@@ -12465,7 +13127,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>1078</v>
       </c>
@@ -12479,7 +13141,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>1079</v>
       </c>
@@ -12493,7 +13155,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="126" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
         <v>1080</v>
       </c>
@@ -12507,7 +13169,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A45" s="6"/>
       <c r="B45" s="56"/>
       <c r="C45" s="10" t="s">
@@ -12517,7 +13179,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>1081</v>
       </c>
@@ -12531,7 +13193,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>1082</v>
       </c>
@@ -12545,7 +13207,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>1083</v>
       </c>
@@ -12559,7 +13221,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
         <v>1086</v>
       </c>
@@ -12573,7 +13235,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>1141</v>
       </c>
@@ -12587,7 +13249,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
         <v>1089</v>
       </c>
@@ -12601,7 +13263,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
         <v>1090</v>
       </c>
@@ -12615,7 +13277,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
         <v>1091</v>
       </c>
@@ -12629,7 +13291,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
         <v>1092</v>
       </c>
@@ -12643,7 +13305,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>1093</v>
       </c>
@@ -12657,7 +13319,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>955</v>
       </c>
@@ -12671,7 +13333,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
         <v>1094</v>
       </c>
@@ -12685,7 +13347,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
         <v>1095</v>
       </c>
@@ -12699,7 +13361,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" ht="156" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
         <v>1096</v>
       </c>
@@ -12713,7 +13375,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
         <v>1097</v>
       </c>
@@ -12727,7 +13389,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
         <v>1098</v>
       </c>
@@ -12741,7 +13403,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>1099</v>
       </c>
@@ -12755,7 +13417,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
         <v>1100</v>
       </c>
@@ -12769,7 +13431,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
         <v>1101</v>
       </c>
@@ -12783,7 +13445,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
         <v>1102</v>
       </c>
@@ -12797,7 +13459,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
         <v>1103</v>
       </c>
@@ -12811,7 +13473,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
         <v>1106</v>
       </c>
@@ -12825,7 +13487,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
         <v>1109</v>
       </c>
@@ -12839,7 +13501,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
         <v>1111</v>
       </c>
@@ -12853,7 +13515,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
         <v>1114</v>
       </c>
@@ -12867,7 +13529,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="126" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
         <v>1117</v>
       </c>
@@ -12881,7 +13543,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="189" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
         <v>1075</v>
       </c>
@@ -12895,7 +13557,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
         <v>1120</v>
       </c>
@@ -12909,7 +13571,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="204.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" ht="202.8" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
         <v>1123</v>
       </c>
@@ -12923,7 +13585,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
         <v>1125</v>
       </c>
@@ -12937,7 +13599,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
         <v>1129</v>
       </c>
@@ -12951,7 +13613,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
         <v>1135</v>
       </c>
@@ -12965,7 +13627,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
         <v>1139</v>
       </c>
@@ -13061,15 +13723,15 @@
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
-    <col min="2" max="2" width="73.28515625" customWidth="1"/>
-    <col min="3" max="3" width="110.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.33203125" customWidth="1"/>
+    <col min="3" max="3" width="110.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
         <v>1</v>
       </c>
@@ -13083,7 +13745,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="43" t="s">
         <v>990</v>
       </c>
@@ -13097,7 +13759,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="43" t="s">
         <v>977</v>
       </c>
@@ -13111,7 +13773,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="43" t="s">
         <v>979</v>
       </c>
@@ -13125,7 +13787,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="43" t="s">
         <v>980</v>
       </c>
@@ -13139,7 +13801,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="43" t="s">
         <v>981</v>
       </c>
@@ -13153,7 +13815,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="43" t="s">
         <v>987</v>
       </c>
@@ -13167,7 +13829,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="43" t="s">
         <v>985</v>
       </c>
@@ -13181,7 +13843,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A10" s="43" t="s">
         <v>1004</v>
       </c>
@@ -13195,7 +13857,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="173.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="171.6" x14ac:dyDescent="0.3">
       <c r="A11" s="43" t="s">
         <v>1035</v>
       </c>
@@ -13209,7 +13871,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="43" t="s">
         <v>1016</v>
       </c>
@@ -13219,7 +13881,7 @@
       <c r="C12" s="49"/>
       <c r="D12" s="53"/>
     </row>
-    <row r="13" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A13" s="43" t="s">
         <v>1013</v>
       </c>
@@ -13233,7 +13895,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="43" t="s">
         <v>1020</v>
       </c>
@@ -13243,7 +13905,7 @@
       <c r="C14" s="49"/>
       <c r="D14" s="53"/>
     </row>
-    <row r="15" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A15" s="43" t="s">
         <v>1002</v>
       </c>
@@ -13257,7 +13919,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A16" s="43" t="s">
         <v>1011</v>
       </c>
@@ -13271,7 +13933,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="43" t="s">
         <v>1017</v>
       </c>
@@ -13281,7 +13943,7 @@
       <c r="C17" s="49"/>
       <c r="D17" s="53"/>
     </row>
-    <row r="18" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A18" s="43" t="s">
         <v>999</v>
       </c>
@@ -13295,7 +13957,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A19" s="43" t="s">
         <v>1005</v>
       </c>
@@ -13309,7 +13971,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="43" t="s">
         <v>1023</v>
       </c>
@@ -13321,7 +13983,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="43" t="s">
         <v>1024</v>
       </c>
@@ -13335,7 +13997,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A22" s="43" t="s">
         <v>1026</v>
       </c>
@@ -13349,7 +14011,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A23" s="43" t="s">
         <v>1025</v>
       </c>
@@ -13363,7 +14025,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="43" t="s">
         <v>1037</v>
       </c>
@@ -13373,7 +14035,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A25" s="43" t="s">
         <v>1038</v>
       </c>
@@ -13387,7 +14049,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A26" s="43" t="s">
         <v>1040</v>
       </c>
@@ -13397,7 +14059,7 @@
       <c r="C26" s="49"/>
       <c r="D26" s="53"/>
     </row>
-    <row r="27" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A27" s="43" t="s">
         <v>1043</v>
       </c>
@@ -13411,7 +14073,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A28" s="43" t="s">
         <v>1046</v>
       </c>
@@ -13462,15 +14124,15 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48.85546875" customWidth="1"/>
+    <col min="1" max="1" width="48.88671875" customWidth="1"/>
     <col min="2" max="2" width="58" customWidth="1"/>
-    <col min="3" max="3" width="110.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="110.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
         <v>1</v>
       </c>
@@ -13484,7 +14146,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A3" s="41" t="s">
         <v>680</v>
       </c>
@@ -13498,7 +14160,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="41" t="s">
         <v>681</v>
       </c>
@@ -13512,7 +14174,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="41" t="s">
         <v>682</v>
       </c>
@@ -13526,7 +14188,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A6" s="41" t="s">
         <v>686</v>
       </c>
@@ -13540,7 +14202,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="41" t="s">
         <v>687</v>
       </c>
@@ -13554,7 +14216,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A8" s="41" t="s">
         <v>696</v>
       </c>
@@ -13566,7 +14228,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A9" s="41" t="s">
         <v>697</v>
       </c>
@@ -13576,7 +14238,7 @@
       <c r="C9" s="50"/>
       <c r="D9" s="42"/>
     </row>
-    <row r="10" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A10" s="41" t="s">
         <v>700</v>
       </c>
@@ -13586,7 +14248,7 @@
       <c r="C10" s="50"/>
       <c r="D10" s="42"/>
     </row>
-    <row r="11" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A11" s="41" t="s">
         <v>701</v>
       </c>
@@ -13596,7 +14258,7 @@
       <c r="C11" s="50"/>
       <c r="D11" s="42"/>
     </row>
-    <row r="12" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A12" s="41" t="s">
         <v>720</v>
       </c>
@@ -13606,7 +14268,7 @@
       <c r="C12" s="50"/>
       <c r="D12" s="42"/>
     </row>
-    <row r="13" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A13" s="41" t="s">
         <v>706</v>
       </c>
@@ -13620,7 +14282,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A14" s="41" t="s">
         <v>707</v>
       </c>
@@ -13634,7 +14296,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A15" s="41" t="s">
         <v>708</v>
       </c>
@@ -13648,7 +14310,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A16" s="41" t="s">
         <v>714</v>
       </c>
@@ -13662,7 +14324,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A17" s="41" t="s">
         <v>715</v>
       </c>
@@ -13676,7 +14338,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A18" s="41" t="s">
         <v>728</v>
       </c>
@@ -13690,7 +14352,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A19" s="41" t="s">
         <v>731</v>
       </c>
@@ -13704,7 +14366,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A20" s="41" t="s">
         <v>721</v>
       </c>
@@ -13718,7 +14380,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A21" s="41" t="s">
         <v>724</v>
       </c>
@@ -13732,7 +14394,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A22" s="41" t="s">
         <v>688</v>
       </c>
@@ -13746,7 +14408,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A23" s="41" t="s">
         <v>689</v>
       </c>
@@ -13760,7 +14422,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A24" s="41" t="s">
         <v>690</v>
       </c>
@@ -13774,7 +14436,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="41" t="s">
         <v>694</v>
       </c>
@@ -13788,7 +14450,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A26" s="41" t="s">
         <v>738</v>
       </c>
@@ -13802,7 +14464,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A27" s="41" t="s">
         <v>741</v>
       </c>
@@ -13816,7 +14478,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A28" s="41" t="s">
         <v>745</v>
       </c>
@@ -13830,7 +14492,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A29" s="41" t="s">
         <v>748</v>
       </c>
@@ -13844,7 +14506,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A30" s="41" t="s">
         <v>751</v>
       </c>
@@ -13858,7 +14520,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A31" s="41" t="s">
         <v>753</v>
       </c>
@@ -13872,7 +14534,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A32" s="41" t="s">
         <v>756</v>
       </c>
@@ -13886,7 +14548,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A33" s="41" t="s">
         <v>759</v>
       </c>
@@ -13900,7 +14562,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A34" s="41" t="s">
         <v>760</v>
       </c>
@@ -13914,7 +14576,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A35" s="41" t="s">
         <v>766</v>
       </c>
@@ -13928,13 +14590,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="41"/>
       <c r="B36" s="51"/>
       <c r="C36" s="50"/>
       <c r="D36" s="52"/>
     </row>
-    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="41"/>
       <c r="B37" s="51"/>
       <c r="C37" s="50"/>

--- a/cheat_sheet.xlsx
+++ b/cheat_sheet.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F02CF2-F657-43D7-A6A6-F232F4BD0457}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E28F7474-7279-4ED2-8132-23CBE7437074}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Samplers" sheetId="5" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="CSS Transitions" sheetId="10" r:id="rId10"/>
     <sheet name="SASS" sheetId="11" r:id="rId11"/>
     <sheet name="Questions" sheetId="12" r:id="rId12"/>
+    <sheet name="Sheet2" sheetId="15" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'CSS Selectors'!$A$2:$D$34</definedName>
@@ -36,7 +37,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -44,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1717" uniqueCount="1273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1737" uniqueCount="1293">
   <si>
     <t>HTML</t>
   </si>
@@ -4610,6 +4613,66 @@
   </si>
   <si>
     <t>The gap CSS property sets the gaps (gutters) between rows and columns. It is a shorthand for row-gap and column-gap.</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>weekly</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>monthly</t>
+  </si>
+  <si>
+    <t>16-22</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>23 - 27</t>
+  </si>
+  <si>
+    <t>30 - 5</t>
+  </si>
+  <si>
+    <t>13 - 19</t>
+  </si>
+  <si>
+    <t>20 - 26</t>
+  </si>
+  <si>
+    <t>27 - 3</t>
+  </si>
+  <si>
+    <t>4 - 10</t>
+  </si>
+  <si>
+    <t>11 - 17</t>
+  </si>
+  <si>
+    <t>18 - 24</t>
+  </si>
+  <si>
+    <t>25 - 31</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>jan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">feb </t>
+  </si>
+  <si>
+    <t>march</t>
+  </si>
+  <si>
+    <t>april</t>
   </si>
 </sst>
 </file>
@@ -4757,7 +4820,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4833,6 +4896,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5041,7 +5110,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5219,6 +5288,20 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5540,21 +5623,21 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -5577,8 +5660,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="61" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="71" t="s">
         <v>373</v>
       </c>
       <c r="C2" s="11" t="s">
@@ -5597,8 +5680,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="62"/>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="72"/>
       <c r="C3" s="11" t="s">
         <v>6</v>
       </c>
@@ -5615,7 +5698,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>460</v>
       </c>
@@ -5635,7 +5718,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>461</v>
       </c>
@@ -5651,7 +5734,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>462</v>
       </c>
@@ -5659,7 +5742,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>465</v>
       </c>
@@ -5667,7 +5750,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>545</v>
       </c>
@@ -5675,7 +5758,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1194</v>
       </c>
@@ -5683,7 +5766,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1208</v>
       </c>
@@ -5721,19 +5804,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A58C87AB-222A-4E13-8A46-2201C051A1C5}">
   <dimension ref="A2:D30"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.88671875" customWidth="1"/>
+    <col min="1" max="1" width="48.85546875" customWidth="1"/>
     <col min="2" max="2" width="58" customWidth="1"/>
-    <col min="3" max="3" width="110.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="110.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
         <v>1</v>
       </c>
@@ -5747,7 +5830,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A3" s="41" t="s">
         <v>770</v>
       </c>
@@ -5761,7 +5844,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" s="41" t="s">
         <v>774</v>
       </c>
@@ -5775,7 +5858,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="41" t="s">
         <v>775</v>
       </c>
@@ -5787,7 +5870,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="78" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A6" s="41" t="s">
         <v>778</v>
       </c>
@@ -5801,7 +5884,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A7" s="41" t="s">
         <v>783</v>
       </c>
@@ -5815,7 +5898,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A8" s="41" t="s">
         <v>784</v>
       </c>
@@ -5829,7 +5912,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" s="41" t="s">
         <v>786</v>
       </c>
@@ -5843,7 +5926,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A10" s="41" t="s">
         <v>789</v>
       </c>
@@ -5857,7 +5940,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A11" s="41" t="s">
         <v>792</v>
       </c>
@@ -5871,7 +5954,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A12" s="41" t="s">
         <v>796</v>
       </c>
@@ -5885,7 +5968,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A13" s="41" t="s">
         <v>801</v>
       </c>
@@ -5899,7 +5982,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A14" s="41" t="s">
         <v>802</v>
       </c>
@@ -5913,7 +5996,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A15" s="41" t="s">
         <v>821</v>
       </c>
@@ -5927,7 +6010,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="41" t="s">
         <v>805</v>
       </c>
@@ -5937,7 +6020,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A17" s="41" t="s">
         <v>806</v>
       </c>
@@ -5951,7 +6034,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A18" s="41" t="s">
         <v>809</v>
       </c>
@@ -5965,7 +6048,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A19" s="41" t="s">
         <v>811</v>
       </c>
@@ -5979,7 +6062,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A20" s="41" t="s">
         <v>815</v>
       </c>
@@ -5993,7 +6076,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A21" s="41" t="s">
         <v>818</v>
       </c>
@@ -6007,7 +6090,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="189" x14ac:dyDescent="0.25">
       <c r="A22" s="41" t="s">
         <v>1156</v>
       </c>
@@ -6021,7 +6104,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A23" s="41" t="s">
         <v>1157</v>
       </c>
@@ -6035,7 +6118,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A24" s="41" t="s">
         <v>1158</v>
       </c>
@@ -6049,7 +6132,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A25" s="41" t="s">
         <v>1159</v>
       </c>
@@ -6063,7 +6146,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A26" s="41" t="s">
         <v>1160</v>
       </c>
@@ -6077,7 +6160,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A27" s="41" t="s">
         <v>1161</v>
       </c>
@@ -6091,7 +6174,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A28" s="41" t="s">
         <v>1162</v>
       </c>
@@ -6105,7 +6188,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A29" s="41" t="s">
         <v>1163</v>
       </c>
@@ -6119,7 +6202,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A30" s="41" t="s">
         <v>1172</v>
       </c>
@@ -6172,19 +6255,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F2567DD-FB9D-4130-8587-5DE1233956C1}">
   <dimension ref="A2:D22"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.88671875" customWidth="1"/>
+    <col min="1" max="1" width="48.85546875" customWidth="1"/>
     <col min="2" max="2" width="58" customWidth="1"/>
-    <col min="3" max="3" width="110.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="110.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
         <v>1</v>
       </c>
@@ -6198,7 +6281,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="41" t="s">
         <v>824</v>
       </c>
@@ -6208,7 +6291,7 @@
       <c r="C3" s="50"/>
       <c r="D3" s="42"/>
     </row>
-    <row r="4" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" s="41" t="s">
         <v>826</v>
       </c>
@@ -6222,7 +6305,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="124.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="126" x14ac:dyDescent="0.25">
       <c r="A5" s="41" t="s">
         <v>829</v>
       </c>
@@ -6236,7 +6319,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="189" x14ac:dyDescent="0.25">
       <c r="A6" s="41" t="s">
         <v>831</v>
       </c>
@@ -6250,7 +6333,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="156" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A7" s="41" t="s">
         <v>836</v>
       </c>
@@ -6264,7 +6347,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="234" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="236.25" x14ac:dyDescent="0.25">
       <c r="A8" s="41" t="s">
         <v>839</v>
       </c>
@@ -6278,7 +6361,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A9" s="41" t="s">
         <v>837</v>
       </c>
@@ -6292,7 +6375,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A10" s="41" t="s">
         <v>840</v>
       </c>
@@ -6306,7 +6389,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A11" s="41" t="s">
         <v>847</v>
       </c>
@@ -6320,7 +6403,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="171.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="173.25" x14ac:dyDescent="0.25">
       <c r="A12" s="41" t="s">
         <v>850</v>
       </c>
@@ -6334,7 +6417,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="78" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A13" s="41" t="s">
         <v>853</v>
       </c>
@@ -6344,7 +6427,7 @@
       <c r="C13" s="50"/>
       <c r="D13" s="52"/>
     </row>
-    <row r="14" spans="1:4" ht="202.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A14" s="41" t="s">
         <v>855</v>
       </c>
@@ -6358,7 +6441,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="296.39999999999998" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="299.25" x14ac:dyDescent="0.25">
       <c r="A15" s="41" t="s">
         <v>858</v>
       </c>
@@ -6372,7 +6455,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="41" t="s">
         <v>861</v>
       </c>
@@ -6382,7 +6465,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="234" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="236.25" x14ac:dyDescent="0.25">
       <c r="A17" s="41" t="s">
         <v>863</v>
       </c>
@@ -6396,7 +6479,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="296.39999999999998" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="299.25" x14ac:dyDescent="0.25">
       <c r="A18" s="41" t="s">
         <v>865</v>
       </c>
@@ -6410,7 +6493,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="78" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A19" s="41" t="s">
         <v>868</v>
       </c>
@@ -6424,7 +6507,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A20" s="41" t="s">
         <v>871</v>
       </c>
@@ -6436,7 +6519,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="140.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A21" s="41" t="s">
         <v>873</v>
       </c>
@@ -6450,7 +6533,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="202.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A22" s="41" t="s">
         <v>877</v>
       </c>
@@ -6498,15 +6581,15 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38" customWidth="1"/>
-    <col min="3" max="3" width="125.44140625" customWidth="1"/>
-    <col min="4" max="4" width="48.6640625" customWidth="1"/>
+    <col min="3" max="3" width="125.42578125" customWidth="1"/>
+    <col min="4" max="4" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>879</v>
       </c>
@@ -6520,7 +6603,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>883</v>
       </c>
@@ -6534,7 +6617,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>887</v>
       </c>
@@ -6545,7 +6628,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1183</v>
       </c>
@@ -6559,7 +6642,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>463</v>
       </c>
@@ -6568,56 +6651,808 @@
       </c>
       <c r="C6" s="12"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C7" s="12"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C8" s="12"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C9" s="12"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C10" s="12"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C11" s="12"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C12" s="12"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C13" s="12"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C14" s="12"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C15" s="12"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C16" s="12"/>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="12"/>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" s="12"/>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" s="12"/>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" s="12"/>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" s="12"/>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22" s="12"/>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C23" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23B9FF55-6745-465A-9C20-454F9A2165D0}">
+  <dimension ref="C7:H85"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="9.140625" style="64"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>1273</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1275</v>
+      </c>
+      <c r="E7" s="64" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1274</v>
+      </c>
+      <c r="G7" t="s">
+        <v>1288</v>
+      </c>
+      <c r="H7" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C8" s="61">
+        <v>16</v>
+      </c>
+      <c r="D8" s="67">
+        <v>250</v>
+      </c>
+      <c r="E8" s="68" t="s">
+        <v>1277</v>
+      </c>
+      <c r="F8" s="69">
+        <v>500</v>
+      </c>
+      <c r="G8" s="63" t="s">
+        <v>1289</v>
+      </c>
+      <c r="H8">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C9" s="61">
+        <v>17</v>
+      </c>
+      <c r="D9" s="65">
+        <v>333.33333333333331</v>
+      </c>
+      <c r="E9" s="70" t="s">
+        <v>1279</v>
+      </c>
+      <c r="F9" s="62">
+        <v>1000</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1290</v>
+      </c>
+      <c r="H9">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C10" s="61">
+        <v>18</v>
+      </c>
+      <c r="D10" s="65">
+        <v>416.66666666666663</v>
+      </c>
+      <c r="E10" s="68" t="s">
+        <v>1280</v>
+      </c>
+      <c r="F10" s="61">
+        <v>749.99999999999898</v>
+      </c>
+      <c r="G10" t="s">
+        <v>1291</v>
+      </c>
+      <c r="H10">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C11" s="61">
+        <v>19</v>
+      </c>
+      <c r="D11" s="67">
+        <v>499.99999999999989</v>
+      </c>
+      <c r="E11" s="70">
+        <v>43991</v>
+      </c>
+      <c r="F11" s="62">
+        <v>1500</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1292</v>
+      </c>
+      <c r="H11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C12" s="61">
+        <v>20</v>
+      </c>
+      <c r="D12" s="65">
+        <v>583.33333333333326</v>
+      </c>
+      <c r="E12" s="68" t="s">
+        <v>1281</v>
+      </c>
+      <c r="F12" s="61">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C13" s="61">
+        <v>21</v>
+      </c>
+      <c r="D13" s="65">
+        <v>666.66666666666652</v>
+      </c>
+      <c r="E13" s="70" t="s">
+        <v>1282</v>
+      </c>
+      <c r="F13" s="62">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C14" s="61">
+        <v>22</v>
+      </c>
+      <c r="D14" s="67">
+        <v>749.99999999999977</v>
+      </c>
+      <c r="E14" s="68" t="s">
+        <v>1283</v>
+      </c>
+      <c r="F14" s="61">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C15" s="62">
+        <v>23</v>
+      </c>
+      <c r="D15" s="65">
+        <v>750</v>
+      </c>
+      <c r="E15" s="70" t="s">
+        <v>1284</v>
+      </c>
+      <c r="F15" s="62">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C16" s="62">
+        <v>24</v>
+      </c>
+      <c r="D16" s="65">
+        <v>833.33333333333326</v>
+      </c>
+      <c r="E16" s="68" t="s">
+        <v>1285</v>
+      </c>
+      <c r="F16" s="61">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C17" s="62">
+        <v>25</v>
+      </c>
+      <c r="D17" s="66">
+        <v>916.66666666666663</v>
+      </c>
+      <c r="E17" s="70" t="s">
+        <v>1286</v>
+      </c>
+      <c r="F17" s="62">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C18" s="62">
+        <v>26</v>
+      </c>
+      <c r="D18" s="65">
+        <v>999.99999999999989</v>
+      </c>
+      <c r="E18" s="68" t="s">
+        <v>1287</v>
+      </c>
+      <c r="F18" s="61">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C19" s="62">
+        <v>27</v>
+      </c>
+      <c r="D19" s="65">
+        <v>1083.3333333333333</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C20" s="62">
+        <v>28</v>
+      </c>
+      <c r="D20" s="66">
+        <v>1166.6666666666665</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C21" s="62">
+        <v>29</v>
+      </c>
+      <c r="D21" s="65">
+        <v>1249.9999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C22" s="61">
+        <v>30</v>
+      </c>
+      <c r="D22" s="65">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C23" s="61">
+        <v>31</v>
+      </c>
+      <c r="D23" s="67">
+        <v>1083.333333333333</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C24" s="61">
+        <v>1</v>
+      </c>
+      <c r="D24" s="65">
+        <v>916.66666666666606</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C25" s="61">
+        <v>2</v>
+      </c>
+      <c r="D25" s="65">
+        <v>749.99999999999898</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C26" s="61">
+        <v>3</v>
+      </c>
+      <c r="D26" s="67">
+        <v>916.66666666666595</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C27" s="61">
+        <v>4</v>
+      </c>
+      <c r="D27" s="65">
+        <v>1083.333333333333</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C28" s="61">
+        <v>5</v>
+      </c>
+      <c r="D28" s="65">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C29" s="62">
+        <v>6</v>
+      </c>
+      <c r="D29" s="66">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C30" s="62">
+        <v>7</v>
+      </c>
+      <c r="D30" s="65">
+        <v>1333.3333333333333</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C31" s="62">
+        <v>8</v>
+      </c>
+      <c r="D31" s="65">
+        <v>1416.6666666666665</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C32" s="62">
+        <v>9</v>
+      </c>
+      <c r="D32" s="66">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C33" s="62">
+        <v>10</v>
+      </c>
+      <c r="D33" s="65">
+        <v>1583.3333333333333</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C34" s="62">
+        <v>11</v>
+      </c>
+      <c r="D34" s="65">
+        <v>1666.6666666666665</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C35" s="62">
+        <v>12</v>
+      </c>
+      <c r="D35" s="66">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C36" s="61">
+        <v>13</v>
+      </c>
+      <c r="D36" s="65">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C37" s="61">
+        <v>14</v>
+      </c>
+      <c r="D37" s="65">
+        <v>1833.3333333333333</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C38" s="61">
+        <v>15</v>
+      </c>
+      <c r="D38" s="67">
+        <v>1916.6666666666665</v>
+      </c>
+    </row>
+    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C39" s="61">
+        <v>16</v>
+      </c>
+      <c r="D39" s="65">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C40" s="61">
+        <v>17</v>
+      </c>
+      <c r="D40" s="65">
+        <v>1916.6666666666667</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C41" s="61">
+        <v>18</v>
+      </c>
+      <c r="D41" s="67">
+        <v>1833.3333333333335</v>
+      </c>
+    </row>
+    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C42" s="61">
+        <v>19</v>
+      </c>
+      <c r="D42" s="65">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C43" s="62">
+        <v>20</v>
+      </c>
+      <c r="D43" s="65">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C44" s="62">
+        <v>21</v>
+      </c>
+      <c r="D44" s="66">
+        <v>1666.6666666666667</v>
+      </c>
+    </row>
+    <row r="45" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C45" s="62">
+        <v>22</v>
+      </c>
+      <c r="D45" s="65">
+        <v>1583.3333333333335</v>
+      </c>
+    </row>
+    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C46" s="62">
+        <v>23</v>
+      </c>
+      <c r="D46" s="65">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C47" s="62">
+        <v>24</v>
+      </c>
+      <c r="D47" s="66">
+        <v>1583.3333333333333</v>
+      </c>
+    </row>
+    <row r="48" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C48" s="62">
+        <v>25</v>
+      </c>
+      <c r="D48" s="65">
+        <v>1666.6666666666665</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C49" s="62">
+        <v>26</v>
+      </c>
+      <c r="D49" s="65">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C50" s="61">
+        <v>27</v>
+      </c>
+      <c r="D50" s="67">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C51" s="61">
+        <v>28</v>
+      </c>
+      <c r="D51" s="65">
+        <v>1678.5714285714287</v>
+      </c>
+    </row>
+    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C52" s="61">
+        <v>29</v>
+      </c>
+      <c r="D52" s="65">
+        <v>1607.1428571428571</v>
+      </c>
+    </row>
+    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C53" s="61">
+        <v>30</v>
+      </c>
+      <c r="D53" s="67">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C54" s="61">
+        <v>31</v>
+      </c>
+      <c r="D54" s="65">
+        <v>1464.2857142857144</v>
+      </c>
+    </row>
+    <row r="55" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C55" s="61">
+        <v>1</v>
+      </c>
+      <c r="D55" s="65">
+        <v>1392.8571428571431</v>
+      </c>
+    </row>
+    <row r="56" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C56" s="61">
+        <v>2</v>
+      </c>
+      <c r="D56" s="67">
+        <v>1321.4285714285716</v>
+      </c>
+    </row>
+    <row r="57" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C57" s="61">
+        <v>3</v>
+      </c>
+      <c r="D57" s="65">
+        <v>1250.0000000000002</v>
+      </c>
+    </row>
+    <row r="58" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C58" s="62">
+        <v>4</v>
+      </c>
+      <c r="D58" s="65">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="59" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C59" s="62">
+        <v>5</v>
+      </c>
+      <c r="D59" s="66">
+        <v>1333.3333333333333</v>
+      </c>
+    </row>
+    <row r="60" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C60" s="62">
+        <v>6</v>
+      </c>
+      <c r="D60" s="65">
+        <v>1416.6666666666665</v>
+      </c>
+    </row>
+    <row r="61" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C61" s="62">
+        <v>7</v>
+      </c>
+      <c r="D61" s="65">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="62" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C62" s="62">
+        <v>8</v>
+      </c>
+      <c r="D62" s="66">
+        <v>1583.3333333333333</v>
+      </c>
+    </row>
+    <row r="63" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C63" s="62">
+        <v>9</v>
+      </c>
+      <c r="D63" s="65">
+        <v>1666.6666666666665</v>
+      </c>
+    </row>
+    <row r="64" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C64" s="62">
+        <v>10</v>
+      </c>
+      <c r="D64" s="65">
+        <v>1749.9999999999998</v>
+      </c>
+    </row>
+    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C65" s="61">
+        <v>11</v>
+      </c>
+      <c r="D65" s="67">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C66" s="61">
+        <v>12</v>
+      </c>
+      <c r="D66" s="65">
+        <v>1833.3333333333333</v>
+      </c>
+    </row>
+    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C67" s="61">
+        <v>13</v>
+      </c>
+      <c r="D67" s="65">
+        <v>1916.6666666666665</v>
+      </c>
+    </row>
+    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C68" s="61">
+        <v>14</v>
+      </c>
+      <c r="D68" s="67">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C69" s="61">
+        <v>15</v>
+      </c>
+      <c r="D69" s="65">
+        <v>2083.333333333333</v>
+      </c>
+    </row>
+    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C70" s="61">
+        <v>16</v>
+      </c>
+      <c r="D70" s="65">
+        <v>2166.6666666666665</v>
+      </c>
+    </row>
+    <row r="71" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C71" s="61">
+        <v>17</v>
+      </c>
+      <c r="D71" s="67">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="72" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C72" s="62">
+        <v>18</v>
+      </c>
+      <c r="D72" s="65">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="73" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C73" s="62">
+        <v>19</v>
+      </c>
+      <c r="D73" s="65">
+        <v>2166.6666666666665</v>
+      </c>
+    </row>
+    <row r="74" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C74" s="62">
+        <v>20</v>
+      </c>
+      <c r="D74" s="66">
+        <v>2083.3333333333335</v>
+      </c>
+    </row>
+    <row r="75" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C75" s="62">
+        <v>21</v>
+      </c>
+      <c r="D75" s="65">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="76" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C76" s="62">
+        <v>22</v>
+      </c>
+      <c r="D76" s="65">
+        <v>1916.6666666666667</v>
+      </c>
+    </row>
+    <row r="77" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C77" s="62">
+        <v>23</v>
+      </c>
+      <c r="D77" s="66">
+        <v>1833.3333333333335</v>
+      </c>
+    </row>
+    <row r="78" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C78" s="62">
+        <v>24</v>
+      </c>
+      <c r="D78" s="65">
+        <v>1750.0000000000002</v>
+      </c>
+    </row>
+    <row r="79" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C79" s="61">
+        <v>25</v>
+      </c>
+      <c r="D79" s="65">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="80" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C80" s="61">
+        <v>26</v>
+      </c>
+      <c r="D80" s="67">
+        <v>1833.3333333333333</v>
+      </c>
+    </row>
+    <row r="81" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C81" s="61">
+        <v>27</v>
+      </c>
+      <c r="D81" s="65">
+        <v>1916.6666666666665</v>
+      </c>
+    </row>
+    <row r="82" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C82" s="61">
+        <v>28</v>
+      </c>
+      <c r="D82" s="65">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="83" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C83" s="61">
+        <v>29</v>
+      </c>
+      <c r="D83" s="67">
+        <v>2083.333333333333</v>
+      </c>
+    </row>
+    <row r="84" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C84" s="61">
+        <v>30</v>
+      </c>
+      <c r="D84" s="65">
+        <v>2166.6666666666665</v>
+      </c>
+    </row>
+    <row r="85" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C85" s="61">
+        <v>31</v>
+      </c>
+      <c r="D85" s="67">
+        <v>2250</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6632,33 +7467,33 @@
       <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="12" customWidth="1"/>
+    <col min="1" max="1" width="45.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="12" customWidth="1"/>
     <col min="3" max="3" width="11" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="6.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.5546875" style="12" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="12" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.5703125" style="12" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="17" style="12" customWidth="1"/>
-    <col min="8" max="8" width="27.88671875" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.5546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.6640625" style="12" customWidth="1"/>
-    <col min="13" max="16384" width="11.44140625" style="12"/>
+    <col min="8" max="8" width="27.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" style="12" customWidth="1"/>
+    <col min="13" max="16384" width="11.42578125" style="12"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="70" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="80" t="s">
         <v>570</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-    </row>
-    <row r="3" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+    </row>
+    <row r="3" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
         <v>547</v>
       </c>
@@ -6675,7 +7510,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>599</v>
       </c>
@@ -6698,7 +7533,7 @@
       </c>
       <c r="G4" s="17"/>
     </row>
-    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>600</v>
       </c>
@@ -6720,15 +7555,15 @@
         <v>0</v>
       </c>
       <c r="G5" s="17"/>
-      <c r="H5" s="64" t="s">
+      <c r="H5" s="74" t="s">
         <v>572</v>
       </c>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="66"/>
-    </row>
-    <row r="6" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="76"/>
+    </row>
+    <row r="6" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
         <v>601</v>
       </c>
@@ -6766,7 +7601,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>602</v>
       </c>
@@ -6808,7 +7643,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>578</v>
       </c>
@@ -6850,7 +7685,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>551</v>
       </c>
@@ -6892,7 +7727,7 @@
         <v>15.138888888888886</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>552</v>
       </c>
@@ -6934,7 +7769,7 @@
         <v>13.591666666666663</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>890</v>
       </c>
@@ -6961,16 +7796,16 @@
       </c>
       <c r="I11" s="38">
         <f ca="1">TODAY() +I10</f>
-        <v>43843.025000000001</v>
+        <v>43859.025000000001</v>
       </c>
       <c r="J11" s="38">
         <f ca="1">I11+J10</f>
-        <v>43854.869444444448</v>
+        <v>43870.869444444448</v>
       </c>
       <c r="K11" s="38"/>
       <c r="L11" s="38"/>
     </row>
-    <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="18" t="s">
         <v>553</v>
       </c>
@@ -7012,7 +7847,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
         <v>554</v>
       </c>
@@ -7037,15 +7872,15 @@
       <c r="H13" s="30" t="s">
         <v>645</v>
       </c>
-      <c r="I13" s="67">
+      <c r="I13" s="77">
         <f>AVERAGE(I12:L12)</f>
         <v>0.27423699832236414</v>
       </c>
-      <c r="J13" s="68"/>
-      <c r="K13" s="68"/>
-      <c r="L13" s="69"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J13" s="78"/>
+      <c r="K13" s="78"/>
+      <c r="L13" s="79"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>555</v>
       </c>
@@ -7070,7 +7905,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>556</v>
       </c>
@@ -7095,7 +7930,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>557</v>
       </c>
@@ -7118,7 +7953,7 @@
       </c>
       <c r="G16" s="17"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
         <v>891</v>
       </c>
@@ -7141,7 +7976,7 @@
       </c>
       <c r="G17" s="17"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>768</v>
       </c>
@@ -7161,7 +7996,7 @@
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>1036</v>
       </c>
@@ -7186,7 +8021,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>904</v>
       </c>
@@ -7211,7 +8046,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
         <v>895</v>
       </c>
@@ -7236,7 +8071,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
         <v>906</v>
       </c>
@@ -7261,7 +8096,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
         <v>907</v>
       </c>
@@ -7286,7 +8121,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
         <v>586</v>
       </c>
@@ -7311,7 +8146,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
         <v>892</v>
       </c>
@@ -7336,7 +8171,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
         <v>896</v>
       </c>
@@ -7361,7 +8196,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
         <v>908</v>
       </c>
@@ -7386,7 +8221,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
         <v>897</v>
       </c>
@@ -7411,7 +8246,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
         <v>898</v>
       </c>
@@ -7436,7 +8271,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
         <v>909</v>
       </c>
@@ -7461,7 +8296,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
         <v>558</v>
       </c>
@@ -7486,7 +8321,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
         <v>559</v>
       </c>
@@ -7509,7 +8344,7 @@
       </c>
       <c r="G32" s="17"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
         <v>560</v>
       </c>
@@ -7532,7 +8367,7 @@
       </c>
       <c r="G33" s="17"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
         <v>561</v>
       </c>
@@ -7555,7 +8390,7 @@
       </c>
       <c r="G34" s="17"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
         <v>562</v>
       </c>
@@ -7578,7 +8413,7 @@
       </c>
       <c r="G35" s="17"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
         <v>563</v>
       </c>
@@ -7603,7 +8438,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
         <v>564</v>
       </c>
@@ -7628,7 +8463,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="18" t="s">
         <v>901</v>
       </c>
@@ -7653,7 +8488,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="18" t="s">
         <v>565</v>
       </c>
@@ -7678,7 +8513,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="18" t="s">
         <v>566</v>
       </c>
@@ -7703,7 +8538,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="18" t="s">
         <v>902</v>
       </c>
@@ -7728,7 +8563,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="18" t="s">
         <v>567</v>
       </c>
@@ -7751,7 +8586,7 @@
       </c>
       <c r="G42" s="17"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="18" t="s">
         <v>568</v>
       </c>
@@ -7774,7 +8609,7 @@
       </c>
       <c r="G43" s="17"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="18" t="s">
         <v>569</v>
       </c>
@@ -7799,20 +8634,20 @@
         <v>903</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F45" s="17"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="63" t="s">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="73" t="s">
         <v>576</v>
       </c>
-      <c r="B46" s="63"/>
-      <c r="C46" s="63"/>
-      <c r="D46" s="63"/>
-      <c r="E46" s="63"/>
+      <c r="B46" s="73"/>
+      <c r="C46" s="73"/>
+      <c r="D46" s="73"/>
+      <c r="E46" s="73"/>
       <c r="F46" s="17"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="18" t="s">
         <v>577</v>
       </c>
@@ -7834,7 +8669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="18" t="s">
         <v>578</v>
       </c>
@@ -7856,7 +8691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="18" t="s">
         <v>555</v>
       </c>
@@ -7878,7 +8713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="18" t="s">
         <v>579</v>
       </c>
@@ -7900,7 +8735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="18" t="s">
         <v>580</v>
       </c>
@@ -7922,7 +8757,7 @@
         <v>2.8166666666666669</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="18" t="s">
         <v>556</v>
       </c>
@@ -7944,7 +8779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="18" t="s">
         <v>581</v>
       </c>
@@ -7966,7 +8801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="18" t="s">
         <v>563</v>
       </c>
@@ -7988,7 +8823,7 @@
         <v>4.4833333333333334</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="18" t="s">
         <v>564</v>
       </c>
@@ -8010,7 +8845,7 @@
         <v>3.9166666666666665</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="18" t="s">
         <v>582</v>
       </c>
@@ -8032,7 +8867,7 @@
         <v>2.7333333333333334</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="18" t="s">
         <v>566</v>
       </c>
@@ -8054,7 +8889,7 @@
         <v>3.8666666666666667</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="18" t="s">
         <v>583</v>
       </c>
@@ -8076,7 +8911,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="18" t="s">
         <v>584</v>
       </c>
@@ -8098,7 +8933,7 @@
         <v>3.8666666666666667</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="18" t="s">
         <v>585</v>
       </c>
@@ -8120,7 +8955,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="18" t="s">
         <v>586</v>
       </c>
@@ -8142,7 +8977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="18" t="s">
         <v>587</v>
       </c>
@@ -8164,7 +8999,7 @@
         <v>4.0333333333333332</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="18" t="s">
         <v>588</v>
       </c>
@@ -8186,7 +9021,7 @@
         <v>3.2666666666666666</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="18" t="s">
         <v>598</v>
       </c>
@@ -8208,7 +9043,7 @@
         <v>2.2333333333333334</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="18" t="s">
         <v>589</v>
       </c>
@@ -8230,7 +9065,7 @@
         <v>6.1166666666666663</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="18" t="s">
         <v>590</v>
       </c>
@@ -8252,7 +9087,7 @@
         <v>2.3666666666666667</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="18" t="s">
         <v>591</v>
       </c>
@@ -8274,7 +9109,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="18" t="s">
         <v>592</v>
       </c>
@@ -8296,7 +9131,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="18" t="s">
         <v>593</v>
       </c>
@@ -8318,7 +9153,7 @@
         <v>3.6833333333333331</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="18" t="s">
         <v>594</v>
       </c>
@@ -8340,7 +9175,7 @@
         <v>4.8666666666666663</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="18" t="s">
         <v>595</v>
       </c>
@@ -8362,7 +9197,7 @@
         <v>3.3333333333333335</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="18" t="s">
         <v>596</v>
       </c>
@@ -8384,7 +9219,7 @@
         <v>3.6666666666666665</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="18" t="s">
         <v>597</v>
       </c>
@@ -8406,22 +9241,22 @@
         <v>2.6166666666666667</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D74" s="24"/>
       <c r="E74" s="25"/>
       <c r="F74" s="26"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" s="63" t="s">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="73" t="s">
         <v>607</v>
       </c>
-      <c r="B75" s="63"/>
-      <c r="C75" s="63"/>
-      <c r="D75" s="63"/>
-      <c r="E75" s="63"/>
+      <c r="B75" s="73"/>
+      <c r="C75" s="73"/>
+      <c r="D75" s="73"/>
+      <c r="E75" s="73"/>
       <c r="F75" s="29"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="18" t="s">
         <v>608</v>
       </c>
@@ -8443,7 +9278,7 @@
         <v>2.9166666666666665</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="18" t="s">
         <v>609</v>
       </c>
@@ -8465,7 +9300,7 @@
         <v>4.7833333333333332</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="18" t="s">
         <v>610</v>
       </c>
@@ -8487,7 +9322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="18" t="s">
         <v>611</v>
       </c>
@@ -8509,7 +9344,7 @@
         <v>3.1833333333333331</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="18" t="s">
         <v>612</v>
       </c>
@@ -8531,7 +9366,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="18" t="s">
         <v>613</v>
       </c>
@@ -8553,7 +9388,7 @@
         <v>6.333333333333333</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="18" t="s">
         <v>614</v>
       </c>
@@ -8575,7 +9410,7 @@
         <v>4.333333333333333</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="18" t="s">
         <v>615</v>
       </c>
@@ -8597,7 +9432,7 @@
         <v>2.9333333333333331</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="18" t="s">
         <v>616</v>
       </c>
@@ -8619,7 +9454,7 @@
         <v>3.5666666666666669</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="18" t="s">
         <v>617</v>
       </c>
@@ -8641,7 +9476,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="18" t="s">
         <v>618</v>
       </c>
@@ -8663,7 +9498,7 @@
         <v>4.0333333333333332</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="18" t="s">
         <v>619</v>
       </c>
@@ -8685,7 +9520,7 @@
         <v>2.7166666666666668</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="18" t="s">
         <v>620</v>
       </c>
@@ -8707,7 +9542,7 @@
         <v>3.2666666666666666</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="18" t="s">
         <v>621</v>
       </c>
@@ -8729,22 +9564,22 @@
         <v>4.416666666666667</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D90" s="24"/>
       <c r="E90" s="25"/>
       <c r="F90" s="26"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="63" t="s">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="73" t="s">
         <v>623</v>
       </c>
-      <c r="B91" s="63"/>
-      <c r="C91" s="63"/>
-      <c r="D91" s="63"/>
-      <c r="E91" s="63"/>
-      <c r="F91" s="63"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B91" s="73"/>
+      <c r="C91" s="73"/>
+      <c r="D91" s="73"/>
+      <c r="E91" s="73"/>
+      <c r="F91" s="73"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="27" t="s">
         <v>599</v>
       </c>
@@ -8766,7 +9601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="18" t="s">
         <v>624</v>
       </c>
@@ -8788,7 +9623,7 @@
         <v>4.6500000000000004</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="18" t="s">
         <v>600</v>
       </c>
@@ -8810,7 +9645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="18" t="s">
         <v>625</v>
       </c>
@@ -8832,7 +9667,7 @@
         <v>5.2166666666666668</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="18" t="s">
         <v>626</v>
       </c>
@@ -8854,7 +9689,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="18" t="s">
         <v>627</v>
       </c>
@@ -8876,7 +9711,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="18" t="s">
         <v>628</v>
       </c>
@@ -8898,7 +9733,7 @@
         <v>2.5666666666666669</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="18" t="s">
         <v>629</v>
       </c>
@@ -8920,7 +9755,7 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="18" t="s">
         <v>630</v>
       </c>
@@ -8942,7 +9777,7 @@
         <v>2.7333333333333334</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="18" t="s">
         <v>631</v>
       </c>
@@ -8964,7 +9799,7 @@
         <v>5.3833333333333337</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="18" t="s">
         <v>632</v>
       </c>
@@ -8986,7 +9821,7 @@
         <v>3.3833333333333333</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="18" t="s">
         <v>633</v>
       </c>
@@ -9008,7 +9843,7 @@
         <v>4.2833333333333332</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="18" t="s">
         <v>634</v>
       </c>
@@ -9030,7 +9865,7 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="18" t="s">
         <v>635</v>
       </c>
@@ -9052,7 +9887,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="18" t="s">
         <v>636</v>
       </c>
@@ -9074,7 +9909,7 @@
         <v>2.4333333333333331</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="18" t="s">
         <v>637</v>
       </c>
@@ -9096,7 +9931,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="18" t="s">
         <v>638</v>
       </c>
@@ -9118,7 +9953,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="18" t="s">
         <v>594</v>
       </c>
@@ -9140,7 +9975,7 @@
         <v>4.8666666666666663</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="18" t="s">
         <v>639</v>
       </c>
@@ -9162,7 +9997,7 @@
         <v>4.7833333333333332</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="18" t="s">
         <v>640</v>
       </c>
@@ -9184,7 +10019,7 @@
         <v>6.05</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="18" t="s">
         <v>641</v>
       </c>
@@ -9206,7 +10041,7 @@
         <v>2.8166666666666669</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="18" t="s">
         <v>595</v>
       </c>
@@ -9228,7 +10063,7 @@
         <v>3.3333333333333335</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="18" t="s">
         <v>642</v>
       </c>
@@ -9250,7 +10085,7 @@
         <v>4.3666666666666663</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="18" t="s">
         <v>643</v>
       </c>
@@ -9348,21 +10183,21 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="61.5546875" customWidth="1"/>
-    <col min="2" max="2" width="64.88671875" customWidth="1"/>
-    <col min="3" max="3" width="110.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="61.5703125" customWidth="1"/>
+    <col min="2" max="2" width="64.85546875" customWidth="1"/>
+    <col min="3" max="3" width="110.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="71" t="s">
+    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="81" t="s">
         <v>485</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-    </row>
-    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+    </row>
+    <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -9373,7 +10208,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>486</v>
       </c>
@@ -9384,7 +10219,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>17</v>
       </c>
@@ -9393,7 +10228,7 @@
       </c>
       <c r="C4" s="15"/>
     </row>
-    <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>490</v>
       </c>
@@ -9404,7 +10239,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>493</v>
       </c>
@@ -9413,7 +10248,7 @@
       </c>
       <c r="C6" s="15"/>
     </row>
-    <row r="7" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>495</v>
       </c>
@@ -9424,7 +10259,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>498</v>
       </c>
@@ -9433,7 +10268,7 @@
       </c>
       <c r="C8" s="15"/>
     </row>
-    <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>500</v>
       </c>
@@ -9442,7 +10277,7 @@
       </c>
       <c r="C9" s="15"/>
     </row>
-    <row r="10" spans="1:3" ht="108" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="131.25" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>502</v>
       </c>
@@ -9453,7 +10288,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>505</v>
       </c>
@@ -9464,7 +10299,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>508</v>
       </c>
@@ -9473,7 +10308,7 @@
       </c>
       <c r="C12" s="15"/>
     </row>
-    <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>510</v>
       </c>
@@ -9482,7 +10317,7 @@
       </c>
       <c r="C13" s="15"/>
     </row>
-    <row r="14" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>512</v>
       </c>
@@ -9491,7 +10326,7 @@
       </c>
       <c r="C14" s="15"/>
     </row>
-    <row r="15" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>514</v>
       </c>
@@ -9500,7 +10335,7 @@
       </c>
       <c r="C15" s="15"/>
     </row>
-    <row r="16" spans="1:3" ht="36" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>516</v>
       </c>
@@ -9511,7 +10346,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="162" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="168.75" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>519</v>
       </c>
@@ -9522,7 +10357,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>521</v>
       </c>
@@ -9531,7 +10366,7 @@
       </c>
       <c r="C18" s="15"/>
     </row>
-    <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>524</v>
       </c>
@@ -9540,7 +10375,7 @@
       </c>
       <c r="C19" s="15"/>
     </row>
-    <row r="20" spans="1:3" ht="36" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>526</v>
       </c>
@@ -9551,7 +10386,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="108" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>529</v>
       </c>
@@ -9562,7 +10397,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>530</v>
       </c>
@@ -9573,7 +10408,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="162" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="168.75" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>535</v>
       </c>
@@ -9596,28 +10431,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78"/>
+    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" style="7" customWidth="1"/>
-    <col min="2" max="2" width="73.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="110.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="110.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="5" customWidth="1"/>
-    <col min="5" max="16384" width="9.33203125" style="3"/>
+    <col min="5" max="16384" width="9.28515625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="72" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
         <v>1</v>
       </c>
@@ -9631,7 +10466,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="43" t="s">
         <v>18</v>
       </c>
@@ -9645,7 +10480,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="43" t="s">
         <v>18</v>
       </c>
@@ -9659,7 +10494,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="43" t="s">
         <v>22</v>
       </c>
@@ -9673,7 +10508,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="43" t="s">
         <v>24</v>
       </c>
@@ -9687,7 +10522,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="43" t="s">
         <v>26</v>
       </c>
@@ -9701,7 +10536,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="43" t="s">
         <v>28</v>
       </c>
@@ -9715,7 +10550,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="43" t="s">
         <v>31</v>
       </c>
@@ -9729,7 +10564,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="43" t="s">
         <v>34</v>
       </c>
@@ -9743,7 +10578,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A11" s="43" t="s">
         <v>37</v>
       </c>
@@ -9757,7 +10592,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="43" t="s">
         <v>52</v>
       </c>
@@ -9771,7 +10606,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="43" t="s">
         <v>113</v>
       </c>
@@ -9785,7 +10620,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="43" t="s">
         <v>43</v>
       </c>
@@ -9799,7 +10634,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="43" t="s">
         <v>46</v>
       </c>
@@ -9813,7 +10648,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" s="43" t="s">
         <v>49</v>
       </c>
@@ -9827,7 +10662,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A17" s="43" t="s">
         <v>466</v>
       </c>
@@ -9841,7 +10676,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A18" s="43" t="s">
         <v>467</v>
       </c>
@@ -9855,7 +10690,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A19" s="43" t="s">
         <v>468</v>
       </c>
@@ -9869,7 +10704,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A20" s="43" t="s">
         <v>55</v>
       </c>
@@ -9883,7 +10718,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A21" s="43" t="s">
         <v>58</v>
       </c>
@@ -9897,7 +10732,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" s="43" t="s">
         <v>61</v>
       </c>
@@ -9911,7 +10746,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A23" s="43" t="s">
         <v>64</v>
       </c>
@@ -9925,7 +10760,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A24" s="43" t="s">
         <v>65</v>
       </c>
@@ -9939,7 +10774,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A25" s="43" t="s">
         <v>66</v>
       </c>
@@ -9953,7 +10788,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A26" s="43" t="s">
         <v>73</v>
       </c>
@@ -9967,7 +10802,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A27" s="43" t="s">
         <v>76</v>
       </c>
@@ -9981,7 +10816,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A28" s="43" t="s">
         <v>475</v>
       </c>
@@ -9995,7 +10830,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A29" s="43" t="s">
         <v>79</v>
       </c>
@@ -10009,7 +10844,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A30" s="43" t="s">
         <v>82</v>
       </c>
@@ -10023,7 +10858,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A31" s="43" t="s">
         <v>85</v>
       </c>
@@ -10037,7 +10872,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A32" s="43" t="s">
         <v>87</v>
       </c>
@@ -10051,7 +10886,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A33" s="43" t="s">
         <v>14</v>
       </c>
@@ -10065,7 +10900,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A34" s="43" t="s">
         <v>479</v>
       </c>
@@ -10079,7 +10914,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A35" s="43" t="s">
         <v>482</v>
       </c>
@@ -10093,7 +10928,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A36" s="43" t="s">
         <v>91</v>
       </c>
@@ -10107,7 +10942,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A37" s="43" t="s">
         <v>92</v>
       </c>
@@ -10121,7 +10956,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A38" s="43" t="s">
         <v>95</v>
       </c>
@@ -10135,7 +10970,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A39" s="43" t="s">
         <v>97</v>
       </c>
@@ -10149,7 +10984,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A40" s="43" t="s">
         <v>102</v>
       </c>
@@ -10163,7 +10998,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="43" t="s">
         <v>105</v>
       </c>
@@ -10177,7 +11012,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="43"/>
       <c r="B42" s="44"/>
       <c r="C42" s="45"/>
@@ -10185,7 +11020,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A43" s="43" t="s">
         <v>107</v>
       </c>
@@ -10199,7 +11034,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A44" s="43" t="s">
         <v>539</v>
       </c>
@@ -10213,7 +11048,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="43" t="s">
         <v>110</v>
       </c>
@@ -10227,7 +11062,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A46" s="43" t="s">
         <v>112</v>
       </c>
@@ -10241,7 +11076,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="43" t="s">
         <v>116</v>
       </c>
@@ -10255,7 +11090,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="43" t="s">
         <v>3</v>
       </c>
@@ -10269,7 +11104,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A49" s="43" t="s">
         <v>271</v>
       </c>
@@ -10283,7 +11118,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A50" s="43" t="s">
         <v>340</v>
       </c>
@@ -10297,7 +11132,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A51" s="43" t="s">
         <v>343</v>
       </c>
@@ -10311,7 +11146,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A52" s="43" t="s">
         <v>346</v>
       </c>
@@ -10325,7 +11160,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A53" s="43" t="s">
         <v>350</v>
       </c>
@@ -10339,7 +11174,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A54" s="43" t="s">
         <v>353</v>
       </c>
@@ -10353,7 +11188,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A55" s="43" t="s">
         <v>356</v>
       </c>
@@ -10367,7 +11202,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A56" s="43" t="s">
         <v>357</v>
       </c>
@@ -10381,7 +11216,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A57" s="43" t="s">
         <v>364</v>
       </c>
@@ -10395,7 +11230,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A58" s="43" t="s">
         <v>365</v>
       </c>
@@ -10409,7 +11244,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A59" s="43" t="s">
         <v>366</v>
       </c>
@@ -10423,7 +11258,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A60" s="43" t="s">
         <v>370</v>
       </c>
@@ -10437,7 +11272,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A61" s="43" t="s">
         <v>371</v>
       </c>
@@ -10451,7 +11286,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A62" s="43" t="s">
         <v>374</v>
       </c>
@@ -10463,7 +11298,7 @@
       </c>
       <c r="D62" s="46"/>
     </row>
-    <row r="63" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A63" s="43" t="s">
         <v>647</v>
       </c>
@@ -10477,7 +11312,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A64" s="43" t="s">
         <v>648</v>
       </c>
@@ -10491,7 +11326,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A65" s="43" t="s">
         <v>649</v>
       </c>
@@ -10505,7 +11340,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="43" t="s">
         <v>656</v>
       </c>
@@ -10519,7 +11354,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A67" s="43" t="s">
         <v>659</v>
       </c>
@@ -10533,7 +11368,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="43" t="s">
         <v>662</v>
       </c>
@@ -10545,7 +11380,7 @@
       </c>
       <c r="D68" s="46"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="43" t="s">
         <v>663</v>
       </c>
@@ -10557,7 +11392,7 @@
       </c>
       <c r="D69" s="46"/>
     </row>
-    <row r="70" spans="1:4" ht="78" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A70" s="43" t="s">
         <v>668</v>
       </c>
@@ -10571,7 +11406,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="78" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A71" s="43" t="s">
         <v>669</v>
       </c>
@@ -10585,7 +11420,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="78" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A72" s="43" t="s">
         <v>670</v>
       </c>
@@ -10599,7 +11434,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="43" t="s">
         <v>671</v>
       </c>
@@ -10613,7 +11448,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A74" s="43" t="s">
         <v>1144</v>
       </c>
@@ -10627,7 +11462,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="78" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>1196</v>
       </c>
@@ -10641,7 +11476,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="78" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
         <v>1199</v>
       </c>
@@ -10655,7 +11490,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="93.6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" ht="94.5" x14ac:dyDescent="0.2">
       <c r="A77" s="7" t="s">
         <v>1201</v>
       </c>
@@ -10669,7 +11504,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="124.8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" ht="126" x14ac:dyDescent="0.2">
       <c r="A78" s="7" t="s">
         <v>1202</v>
       </c>
@@ -10766,28 +11601,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="C88" sqref="C88"/>
+    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.33203125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="32.28515625" style="5" customWidth="1"/>
     <col min="2" max="2" width="75" style="9" customWidth="1"/>
-    <col min="3" max="3" width="110.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="110.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="5" customWidth="1"/>
-    <col min="5" max="16384" width="9.33203125" style="3"/>
+    <col min="5" max="16384" width="9.28515625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="72" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
         <v>1</v>
       </c>
@@ -10801,7 +11636,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="43" t="s">
         <v>5</v>
       </c>
@@ -10815,7 +11650,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="43" t="s">
         <v>7</v>
       </c>
@@ -10829,7 +11664,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="43" t="s">
         <v>8</v>
       </c>
@@ -10843,7 +11678,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="43" t="s">
         <v>121</v>
       </c>
@@ -10857,7 +11692,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="43" t="s">
         <v>124</v>
       </c>
@@ -10871,7 +11706,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="43" t="s">
         <v>128</v>
       </c>
@@ -10885,7 +11720,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="43" t="s">
         <v>130</v>
       </c>
@@ -10899,7 +11734,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A10" s="43" t="s">
         <v>133</v>
       </c>
@@ -10913,7 +11748,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="43" t="s">
         <v>214</v>
       </c>
@@ -10927,7 +11762,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="43" t="s">
         <v>136</v>
       </c>
@@ -10941,7 +11776,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="43" t="s">
         <v>139</v>
       </c>
@@ -10955,7 +11790,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="43" t="s">
         <v>142</v>
       </c>
@@ -10969,7 +11804,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="43" t="s">
         <v>144</v>
       </c>
@@ -10983,7 +11818,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" s="43" t="s">
         <v>148</v>
       </c>
@@ -10997,7 +11832,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="43" t="s">
         <v>151</v>
       </c>
@@ -11011,7 +11846,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A18" s="43" t="s">
         <v>154</v>
       </c>
@@ -11025,7 +11860,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A19" s="43" t="s">
         <v>157</v>
       </c>
@@ -11039,7 +11874,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A20" s="43" t="s">
         <v>160</v>
       </c>
@@ -11053,7 +11888,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="43" t="s">
         <v>164</v>
       </c>
@@ -11067,7 +11902,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="43" t="s">
         <v>166</v>
       </c>
@@ -11081,7 +11916,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A23" s="43" t="s">
         <v>169</v>
       </c>
@@ -11095,7 +11930,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A24" s="43" t="s">
         <v>171</v>
       </c>
@@ -11109,7 +11944,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A25" s="43" t="s">
         <v>175</v>
       </c>
@@ -11123,7 +11958,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="43" t="s">
         <v>178</v>
       </c>
@@ -11137,7 +11972,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A27" s="43" t="s">
         <v>180</v>
       </c>
@@ -11151,7 +11986,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A28" s="43" t="s">
         <v>182</v>
       </c>
@@ -11165,7 +12000,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A29" s="43" t="s">
         <v>186</v>
       </c>
@@ -11179,7 +12014,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A30" s="43" t="s">
         <v>188</v>
       </c>
@@ -11193,7 +12028,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A31" s="43" t="s">
         <v>193</v>
       </c>
@@ -11207,7 +12042,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A32" s="43" t="s">
         <v>194</v>
       </c>
@@ -11221,7 +12056,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A33" s="43" t="s">
         <v>197</v>
       </c>
@@ -11235,7 +12070,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A34" s="43" t="s">
         <v>199</v>
       </c>
@@ -11249,7 +12084,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A35" s="43" t="s">
         <v>202</v>
       </c>
@@ -11263,7 +12098,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A36" s="43" t="s">
         <v>205</v>
       </c>
@@ -11277,7 +12112,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A37" s="43" t="s">
         <v>206</v>
       </c>
@@ -11291,7 +12126,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A38" s="43" t="s">
         <v>211</v>
       </c>
@@ -11305,7 +12140,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A39" s="43" t="s">
         <v>217</v>
       </c>
@@ -11319,7 +12154,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="43" t="s">
         <v>220</v>
       </c>
@@ -11333,7 +12168,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A41" s="43" t="s">
         <v>223</v>
       </c>
@@ -11347,7 +12182,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A42" s="43" t="s">
         <v>226</v>
       </c>
@@ -11361,7 +12196,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A43" s="43" t="s">
         <v>229</v>
       </c>
@@ -11375,7 +12210,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A44" s="43" t="s">
         <v>232</v>
       </c>
@@ -11389,7 +12224,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A45" s="43" t="s">
         <v>235</v>
       </c>
@@ -11403,7 +12238,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="43" t="s">
         <v>238</v>
       </c>
@@ -11417,7 +12252,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="43" t="s">
         <v>241</v>
       </c>
@@ -11431,7 +12266,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A48" s="43" t="s">
         <v>245</v>
       </c>
@@ -11445,7 +12280,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A49" s="43" t="s">
         <v>248</v>
       </c>
@@ -11459,7 +12294,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A50" s="43" t="s">
         <v>250</v>
       </c>
@@ -11473,7 +12308,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A51" s="43" t="s">
         <v>253</v>
       </c>
@@ -11487,7 +12322,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A52" s="43" t="s">
         <v>255</v>
       </c>
@@ -11501,7 +12336,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A53" s="43" t="s">
         <v>258</v>
       </c>
@@ -11515,7 +12350,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A54" s="43" t="s">
         <v>259</v>
       </c>
@@ -11529,7 +12364,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="78" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A55" s="43" t="s">
         <v>263</v>
       </c>
@@ -11543,7 +12378,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="43" t="s">
         <v>266</v>
       </c>
@@ -11557,7 +12392,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A57" s="43" t="s">
         <v>274</v>
       </c>
@@ -11571,7 +12406,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A58" s="43" t="s">
         <v>277</v>
       </c>
@@ -11585,7 +12420,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="43" t="s">
         <v>280</v>
       </c>
@@ -11599,7 +12434,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="78" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A60" s="43" t="s">
         <v>283</v>
       </c>
@@ -11613,7 +12448,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A61" s="43" t="s">
         <v>285</v>
       </c>
@@ -11627,7 +12462,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A62" s="43" t="s">
         <v>289</v>
       </c>
@@ -11641,7 +12476,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A63" s="43" t="s">
         <v>292</v>
       </c>
@@ -11655,7 +12490,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A64" s="43" t="s">
         <v>295</v>
       </c>
@@ -11669,7 +12504,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A65" s="43" t="s">
         <v>298</v>
       </c>
@@ -11683,7 +12518,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A66" s="43" t="s">
         <v>301</v>
       </c>
@@ -11697,7 +12532,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A67" s="43" t="s">
         <v>304</v>
       </c>
@@ -11711,7 +12546,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A68" s="43" t="s">
         <v>307</v>
       </c>
@@ -11725,7 +12560,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="43" t="s">
         <v>310</v>
       </c>
@@ -11739,7 +12574,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A70" s="43" t="s">
         <v>312</v>
       </c>
@@ -11753,7 +12588,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A71" s="43" t="s">
         <v>316</v>
       </c>
@@ -11767,7 +12602,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A72" s="43" t="s">
         <v>317</v>
       </c>
@@ -11781,7 +12616,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A73" s="43" t="s">
         <v>335</v>
       </c>
@@ -11795,7 +12630,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="43" t="s">
         <v>338</v>
       </c>
@@ -11807,7 +12642,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A75" s="43" t="s">
         <v>320</v>
       </c>
@@ -11821,7 +12656,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A76" s="43" t="s">
         <v>323</v>
       </c>
@@ -11835,7 +12670,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A77" s="43" t="s">
         <v>328</v>
       </c>
@@ -11849,7 +12684,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A78" s="43" t="s">
         <v>326</v>
       </c>
@@ -11863,7 +12698,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A79" s="43" t="s">
         <v>327</v>
       </c>
@@ -11877,7 +12712,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A80" s="43" t="s">
         <v>646</v>
       </c>
@@ -11887,7 +12722,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A81" s="43" t="s">
         <v>1147</v>
       </c>
@@ -11901,7 +12736,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A82" s="43" t="s">
         <v>1151</v>
       </c>
@@ -11915,7 +12750,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A83" s="43" t="s">
         <v>1152</v>
       </c>
@@ -11929,7 +12764,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A84" s="43" t="s">
         <v>1185</v>
       </c>
@@ -11943,7 +12778,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A85" s="43" t="s">
         <v>1188</v>
       </c>
@@ -11957,7 +12792,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A86" s="43" t="s">
         <v>1189</v>
       </c>
@@ -11971,7 +12806,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A87" s="43" t="s">
         <v>1211</v>
       </c>
@@ -11985,7 +12820,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A88" s="43" t="s">
         <v>1212</v>
       </c>
@@ -11999,7 +12834,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A89" s="43" t="s">
         <v>1213</v>
       </c>
@@ -12013,7 +12848,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A90" s="43" t="s">
         <v>1214</v>
       </c>
@@ -12027,7 +12862,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A91" s="43" t="s">
         <v>1215</v>
       </c>
@@ -12041,7 +12876,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="78" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A92" s="43" t="s">
         <v>1216</v>
       </c>
@@ -12055,7 +12890,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A93" s="43" t="s">
         <v>1226</v>
       </c>
@@ -12069,7 +12904,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A94" s="43" t="s">
         <v>1227</v>
       </c>
@@ -12083,7 +12918,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="109.2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A95" s="43" t="s">
         <v>1228</v>
       </c>
@@ -12097,7 +12932,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="140.4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A96" s="43" t="s">
         <v>1229</v>
       </c>
@@ -12111,7 +12946,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A97" s="43" t="s">
         <v>1237</v>
       </c>
@@ -12125,7 +12960,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="43" t="s">
         <v>1238</v>
       </c>
@@ -12139,7 +12974,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A99" s="43" t="s">
         <v>1239</v>
       </c>
@@ -12153,7 +12988,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A100" s="43" t="s">
         <v>1246</v>
       </c>
@@ -12167,7 +13002,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A101" s="43" t="s">
         <v>1247</v>
       </c>
@@ -12181,7 +13016,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A102" s="43" t="s">
         <v>1248</v>
       </c>
@@ -12195,7 +13030,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A103" s="43" t="s">
         <v>1249</v>
       </c>
@@ -12209,7 +13044,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A104" s="43" t="s">
         <v>1250</v>
       </c>
@@ -12223,7 +13058,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A105" s="43" t="s">
         <v>1251</v>
       </c>
@@ -12237,7 +13072,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A106" s="43" t="s">
         <v>1252</v>
       </c>
@@ -12251,7 +13086,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A107" s="43" t="s">
         <v>1253</v>
       </c>
@@ -12386,19 +13221,19 @@
   <dimension ref="E3:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23:H23"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="43.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
         <v>1049</v>
       </c>
@@ -12418,7 +13253,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="4" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>1050</v>
       </c>
@@ -12432,8 +13267,11 @@
         <f>G4*3.7</f>
         <v>555</v>
       </c>
-    </row>
-    <row r="5" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="I4">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="5" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>1051</v>
       </c>
@@ -12447,8 +13285,11 @@
         <f t="shared" ref="H5:H13" si="0">G5*3.7</f>
         <v>592</v>
       </c>
-    </row>
-    <row r="6" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="I5">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="6" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
         <v>1052</v>
       </c>
@@ -12463,7 +13304,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="7" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>1053</v>
       </c>
@@ -12477,8 +13318,11 @@
         <f t="shared" si="0"/>
         <v>296</v>
       </c>
-    </row>
-    <row r="8" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="I7">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
         <v>1054</v>
       </c>
@@ -12492,8 +13336,11 @@
         <f t="shared" si="0"/>
         <v>296</v>
       </c>
-    </row>
-    <row r="9" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="I8">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
         <v>1055</v>
       </c>
@@ -12508,7 +13355,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="10" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
         <v>1056</v>
       </c>
@@ -12523,7 +13370,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="11" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
         <v>1057</v>
       </c>
@@ -12538,7 +13385,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="12" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
         <v>1058</v>
       </c>
@@ -12547,7 +13394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
         <v>1059</v>
       </c>
@@ -12556,7 +13403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
         <v>1066</v>
       </c>
@@ -12567,6 +13414,10 @@
       <c r="H14">
         <f>SUM(H4:H13)</f>
         <v>2627</v>
+      </c>
+      <c r="I14">
+        <f>SUM(I4:I13)</f>
+        <v>1640</v>
       </c>
     </row>
   </sheetData>
@@ -12578,28 +13429,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" style="12" customWidth="1"/>
-    <col min="2" max="2" width="73.33203125" style="57" customWidth="1"/>
-    <col min="3" max="3" width="110.5546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.28515625" style="57" customWidth="1"/>
+    <col min="3" max="3" width="110.5703125" style="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="12" customWidth="1"/>
-    <col min="5" max="16384" width="9.33203125" style="12"/>
+    <col min="5" max="16384" width="9.28515625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="72" t="s">
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="82" t="s">
         <v>463</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
         <v>1</v>
       </c>
@@ -12613,7 +13464,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="43" t="s">
         <v>377</v>
       </c>
@@ -12627,7 +13478,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="43" t="s">
         <v>926</v>
       </c>
@@ -12641,7 +13492,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="43" t="s">
         <v>927</v>
       </c>
@@ -12655,7 +13506,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="43" t="s">
         <v>380</v>
       </c>
@@ -12667,7 +13518,7 @@
       </c>
       <c r="D6" s="46"/>
     </row>
-    <row r="7" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A7" s="43" t="s">
         <v>383</v>
       </c>
@@ -12679,7 +13530,7 @@
       </c>
       <c r="D7" s="46"/>
     </row>
-    <row r="8" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" s="43" t="s">
         <v>386</v>
       </c>
@@ -12691,7 +13542,7 @@
       </c>
       <c r="D8" s="46"/>
     </row>
-    <row r="9" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" s="43" t="s">
         <v>387</v>
       </c>
@@ -12703,7 +13554,7 @@
       </c>
       <c r="D9" s="46"/>
     </row>
-    <row r="10" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A10" s="43" t="s">
         <v>392</v>
       </c>
@@ -12715,7 +13566,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A11" s="43" t="s">
         <v>393</v>
       </c>
@@ -12727,7 +13578,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="43" t="s">
         <v>396</v>
       </c>
@@ -12741,7 +13592,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A13" s="43" t="s">
         <v>399</v>
       </c>
@@ -12755,7 +13606,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A14" s="43" t="s">
         <v>402</v>
       </c>
@@ -12769,7 +13620,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A15" s="43" t="s">
         <v>405</v>
       </c>
@@ -12783,7 +13634,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A16" s="43" t="s">
         <v>408</v>
       </c>
@@ -12797,7 +13648,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A17" s="43" t="s">
         <v>411</v>
       </c>
@@ -12811,7 +13662,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A18" s="43" t="s">
         <v>414</v>
       </c>
@@ -12825,7 +13676,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A19" s="43" t="s">
         <v>417</v>
       </c>
@@ -12839,7 +13690,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A20" s="43" t="s">
         <v>419</v>
       </c>
@@ -12851,7 +13702,7 @@
       </c>
       <c r="D20" s="46"/>
     </row>
-    <row r="21" spans="1:4" ht="78" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A21" s="43" t="s">
         <v>423</v>
       </c>
@@ -12861,7 +13712,7 @@
       <c r="C21" s="49"/>
       <c r="D21" s="46"/>
     </row>
-    <row r="22" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A22" s="43" t="s">
         <v>426</v>
       </c>
@@ -12871,7 +13722,7 @@
       <c r="C22" s="49"/>
       <c r="D22" s="46"/>
     </row>
-    <row r="23" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A23" s="43" t="s">
         <v>427</v>
       </c>
@@ -12883,7 +13734,7 @@
       </c>
       <c r="D23" s="46"/>
     </row>
-    <row r="24" spans="1:4" ht="78" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A24" s="43" t="s">
         <v>435</v>
       </c>
@@ -12897,7 +13748,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A25" s="43" t="s">
         <v>436</v>
       </c>
@@ -12911,7 +13762,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A26" s="43" t="s">
         <v>437</v>
       </c>
@@ -12925,7 +13776,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="78" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A27" s="43" t="s">
         <v>440</v>
       </c>
@@ -12939,7 +13790,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A28" s="43" t="s">
         <v>443</v>
       </c>
@@ -12953,7 +13804,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A29" s="43" t="s">
         <v>445</v>
       </c>
@@ -12965,7 +13816,7 @@
       </c>
       <c r="D29" s="46"/>
     </row>
-    <row r="30" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A30" s="43" t="s">
         <v>448</v>
       </c>
@@ -12979,7 +13830,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A31" s="43" t="s">
         <v>450</v>
       </c>
@@ -12993,7 +13844,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A32" s="43" t="s">
         <v>454</v>
       </c>
@@ -13007,7 +13858,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A33" s="43" t="s">
         <v>455</v>
       </c>
@@ -13021,7 +13872,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="78" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A34" s="43" t="s">
         <v>1133</v>
       </c>
@@ -13035,7 +13886,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="78" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>910</v>
       </c>
@@ -13049,7 +13900,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>915</v>
       </c>
@@ -13063,7 +13914,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>913</v>
       </c>
@@ -13077,7 +13928,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>919</v>
       </c>
@@ -13089,7 +13940,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="156" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>921</v>
       </c>
@@ -13099,7 +13950,7 @@
       <c r="C39" s="10"/>
       <c r="D39" s="8"/>
     </row>
-    <row r="40" spans="1:4" ht="202.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>923</v>
       </c>
@@ -13113,7 +13964,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>1077</v>
       </c>
@@ -13127,7 +13978,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="78" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>1078</v>
       </c>
@@ -13141,7 +13992,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>1079</v>
       </c>
@@ -13155,7 +14006,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="109.2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="126" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>1080</v>
       </c>
@@ -13169,7 +14020,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
       <c r="B45" s="56"/>
       <c r="C45" s="10" t="s">
@@ -13179,7 +14030,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>1081</v>
       </c>
@@ -13193,7 +14044,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>1082</v>
       </c>
@@ -13207,7 +14058,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>1083</v>
       </c>
@@ -13221,7 +14072,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>1086</v>
       </c>
@@ -13235,7 +14086,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>1141</v>
       </c>
@@ -13249,7 +14100,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>1089</v>
       </c>
@@ -13263,7 +14114,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>1090</v>
       </c>
@@ -13277,7 +14128,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>1091</v>
       </c>
@@ -13291,7 +14142,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>1092</v>
       </c>
@@ -13305,7 +14156,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>1093</v>
       </c>
@@ -13319,7 +14170,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="140.4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>955</v>
       </c>
@@ -13333,7 +14184,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="78" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>1094</v>
       </c>
@@ -13347,7 +14198,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>1095</v>
       </c>
@@ -13361,7 +14212,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="156" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>1096</v>
       </c>
@@ -13375,7 +14226,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>1097</v>
       </c>
@@ -13389,7 +14240,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>1098</v>
       </c>
@@ -13403,7 +14254,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>1099</v>
       </c>
@@ -13417,7 +14268,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>1100</v>
       </c>
@@ -13431,7 +14282,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>1101</v>
       </c>
@@ -13445,7 +14296,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>1102</v>
       </c>
@@ -13459,7 +14310,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>1103</v>
       </c>
@@ -13473,7 +14324,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>1106</v>
       </c>
@@ -13487,7 +14338,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>1109</v>
       </c>
@@ -13501,7 +14352,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="140.4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>1111</v>
       </c>
@@ -13515,7 +14366,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="109.2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>1114</v>
       </c>
@@ -13529,7 +14380,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="124.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" ht="126" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>1117</v>
       </c>
@@ -13543,7 +14394,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" ht="189" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>1075</v>
       </c>
@@ -13557,7 +14408,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>1120</v>
       </c>
@@ -13571,7 +14422,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="202.8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>1123</v>
       </c>
@@ -13585,7 +14436,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>1125</v>
       </c>
@@ -13599,7 +14450,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>1129</v>
       </c>
@@ -13613,7 +14464,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
         <v>1135</v>
       </c>
@@ -13627,7 +14478,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
         <v>1139</v>
       </c>
@@ -13719,19 +14570,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0B55A43-07C5-4DBB-8409-7DC39E8C0129}">
   <dimension ref="A2:D28"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
-    <col min="2" max="2" width="73.33203125" customWidth="1"/>
-    <col min="3" max="3" width="110.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.28515625" customWidth="1"/>
+    <col min="3" max="3" width="110.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
         <v>1</v>
       </c>
@@ -13745,7 +14596,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="43" t="s">
         <v>990</v>
       </c>
@@ -13759,7 +14610,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="43" t="s">
         <v>977</v>
       </c>
@@ -13773,7 +14624,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="43" t="s">
         <v>979</v>
       </c>
@@ -13787,7 +14638,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="43" t="s">
         <v>980</v>
       </c>
@@ -13801,7 +14652,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="43" t="s">
         <v>981</v>
       </c>
@@ -13815,7 +14666,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="43" t="s">
         <v>987</v>
       </c>
@@ -13829,7 +14680,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="43" t="s">
         <v>985</v>
       </c>
@@ -13843,7 +14694,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A10" s="43" t="s">
         <v>1004</v>
       </c>
@@ -13857,7 +14708,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="171.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="173.25" x14ac:dyDescent="0.25">
       <c r="A11" s="43" t="s">
         <v>1035</v>
       </c>
@@ -13871,7 +14722,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="43" t="s">
         <v>1016</v>
       </c>
@@ -13881,7 +14732,7 @@
       <c r="C12" s="49"/>
       <c r="D12" s="53"/>
     </row>
-    <row r="13" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A13" s="43" t="s">
         <v>1013</v>
       </c>
@@ -13895,7 +14746,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="43" t="s">
         <v>1020</v>
       </c>
@@ -13905,7 +14756,7 @@
       <c r="C14" s="49"/>
       <c r="D14" s="53"/>
     </row>
-    <row r="15" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="43" t="s">
         <v>1002</v>
       </c>
@@ -13919,7 +14770,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A16" s="43" t="s">
         <v>1011</v>
       </c>
@@ -13933,7 +14784,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A17" s="43" t="s">
         <v>1017</v>
       </c>
@@ -13943,7 +14794,7 @@
       <c r="C17" s="49"/>
       <c r="D17" s="53"/>
     </row>
-    <row r="18" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A18" s="43" t="s">
         <v>999</v>
       </c>
@@ -13957,7 +14808,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A19" s="43" t="s">
         <v>1005</v>
       </c>
@@ -13971,7 +14822,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="43" t="s">
         <v>1023</v>
       </c>
@@ -13983,7 +14834,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="43" t="s">
         <v>1024</v>
       </c>
@@ -13997,7 +14848,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" s="43" t="s">
         <v>1026</v>
       </c>
@@ -14011,7 +14862,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A23" s="43" t="s">
         <v>1025</v>
       </c>
@@ -14025,7 +14876,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="43" t="s">
         <v>1037</v>
       </c>
@@ -14035,7 +14886,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A25" s="43" t="s">
         <v>1038</v>
       </c>
@@ -14049,7 +14900,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="43" t="s">
         <v>1040</v>
       </c>
@@ -14059,7 +14910,7 @@
       <c r="C26" s="49"/>
       <c r="D26" s="53"/>
     </row>
-    <row r="27" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A27" s="43" t="s">
         <v>1043</v>
       </c>
@@ -14073,7 +14924,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A28" s="43" t="s">
         <v>1046</v>
       </c>
@@ -14120,19 +14971,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB39D374-F7E5-4E1B-A824-7220E4B22623}">
   <dimension ref="A2:D37"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.88671875" customWidth="1"/>
+    <col min="1" max="1" width="48.85546875" customWidth="1"/>
     <col min="2" max="2" width="58" customWidth="1"/>
-    <col min="3" max="3" width="110.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="110.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
         <v>1</v>
       </c>
@@ -14146,7 +14997,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="41" t="s">
         <v>680</v>
       </c>
@@ -14160,7 +15011,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="41" t="s">
         <v>681</v>
       </c>
@@ -14174,7 +15025,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="41" t="s">
         <v>682</v>
       </c>
@@ -14188,7 +15039,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A6" s="41" t="s">
         <v>686</v>
       </c>
@@ -14202,7 +15053,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="41" t="s">
         <v>687</v>
       </c>
@@ -14216,7 +15067,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" s="41" t="s">
         <v>696</v>
       </c>
@@ -14228,7 +15079,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" s="41" t="s">
         <v>697</v>
       </c>
@@ -14238,7 +15089,7 @@
       <c r="C9" s="50"/>
       <c r="D9" s="42"/>
     </row>
-    <row r="10" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A10" s="41" t="s">
         <v>700</v>
       </c>
@@ -14248,7 +15099,7 @@
       <c r="C10" s="50"/>
       <c r="D10" s="42"/>
     </row>
-    <row r="11" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A11" s="41" t="s">
         <v>701</v>
       </c>
@@ -14258,7 +15109,7 @@
       <c r="C11" s="50"/>
       <c r="D11" s="42"/>
     </row>
-    <row r="12" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A12" s="41" t="s">
         <v>720</v>
       </c>
@@ -14268,7 +15119,7 @@
       <c r="C12" s="50"/>
       <c r="D12" s="42"/>
     </row>
-    <row r="13" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A13" s="41" t="s">
         <v>706</v>
       </c>
@@ -14282,7 +15133,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A14" s="41" t="s">
         <v>707</v>
       </c>
@@ -14296,7 +15147,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A15" s="41" t="s">
         <v>708</v>
       </c>
@@ -14310,7 +15161,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A16" s="41" t="s">
         <v>714</v>
       </c>
@@ -14324,7 +15175,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A17" s="41" t="s">
         <v>715</v>
       </c>
@@ -14338,7 +15189,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="47.25" x14ac:dyDescent="0